--- a/LUSID Excel - Setting up your IBOR.xlsx
+++ b/LUSID Excel - Setting up your IBOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E88146-3F79-4F35-9F19-6616EE47681D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9A19DE-3292-47F5-8250-4796CC43FA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="1050" windowWidth="24825" windowHeight="11250" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
+    <workbookView xWindow="-21495" yWindow="4980" windowWidth="26340" windowHeight="14445" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Datetime format" sheetId="11" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="381">
   <si>
     <t>Code</t>
   </si>
@@ -1342,6 +1342,9 @@
   </si>
   <si>
     <t>Target hierarchy</t>
+  </si>
+  <si>
+    <t>N.B. Dates entered without a time are treated as 00:00:00.00Z</t>
   </si>
 </sst>
 </file>
@@ -1841,1614 +1844,1620 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.36b248cca5044f2f84e2eddf45432103">
+    <main first="rtdsrv.06c7f756d18f45788a0e75699d42f1a3">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>368e3d65-a9e6-43db-ae75-a3f567bd1fa0</stp>
+        <stp>15203616-09e0-42db-b363-1b70907d7b38</stp>
+        <tr r="E32" s="9"/>
+        <tr r="F32" s="9"/>
+        <tr r="E39" s="9"/>
+        <tr r="F39" s="9"/>
+        <tr r="E28" s="9"/>
+        <tr r="F31" s="9"/>
+        <tr r="G28" s="9"/>
+        <tr r="E36" s="9"/>
+        <tr r="F28" s="9"/>
+        <tr r="E35" s="9"/>
+        <tr r="E38" s="9"/>
+        <tr r="E29" s="9"/>
+        <tr r="G36" s="9"/>
         <tr r="F34" s="9"/>
+        <tr r="E37" s="9"/>
+        <tr r="F36" s="9"/>
         <tr r="E30" s="9"/>
-        <tr r="E32" s="9"/>
         <tr r="F37" s="9"/>
+        <tr r="E34" s="9"/>
+        <tr r="E33" s="9"/>
+        <tr r="G29" s="9"/>
         <tr r="G31" s="9"/>
+        <tr r="F33" s="9"/>
+        <tr r="F29" s="9"/>
+        <tr r="G30" s="9"/>
+        <tr r="F30" s="9"/>
+        <tr r="G34" s="9"/>
         <tr r="G33" s="9"/>
-        <tr r="F33" s="9"/>
         <tr r="G32" s="9"/>
-        <tr r="F32" s="9"/>
-        <tr r="E35" s="9"/>
         <tr r="F38" s="9"/>
+        <tr r="G39" s="9"/>
+        <tr r="G38" s="9"/>
         <tr r="G35" s="9"/>
-        <tr r="G28" s="9"/>
-        <tr r="E38" s="9"/>
         <tr r="E31" s="9"/>
-        <tr r="E39" s="9"/>
-        <tr r="F29" s="9"/>
-        <tr r="G39" s="9"/>
-        <tr r="F39" s="9"/>
-        <tr r="E34" s="9"/>
-        <tr r="G30" s="9"/>
-        <tr r="E28" s="9"/>
-        <tr r="E36" s="9"/>
-        <tr r="E29" s="9"/>
-        <tr r="E37" s="9"/>
-        <tr r="F30" s="9"/>
-        <tr r="G38" s="9"/>
-        <tr r="F36" s="9"/>
         <tr r="F35" s="9"/>
-        <tr r="F31" s="9"/>
-        <tr r="F28" s="9"/>
-        <tr r="E33" s="9"/>
-        <tr r="G34" s="9"/>
         <tr r="G37" s="9"/>
-        <tr r="G36" s="9"/>
-        <tr r="G29" s="9"/>
       </tp>
     </main>
-    <main first="rtdsrv.36b248cca5044f2f84e2eddf45432103">
+    <main first="rtdsrv.06c7f756d18f45788a0e75699d42f1a3">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>2b55974d-1e6d-4340-93a9-202db30d41ad</stp>
-        <tr r="K49" s="13"/>
-        <tr r="E42" s="13"/>
-        <tr r="G40" s="13"/>
-        <tr r="E47" s="13"/>
-        <tr r="N41" s="13"/>
-        <tr r="J48" s="13"/>
-        <tr r="F48" s="13"/>
-        <tr r="G49" s="13"/>
-        <tr r="M39" s="13"/>
-        <tr r="G41" s="13"/>
-        <tr r="L41" s="13"/>
-        <tr r="J47" s="13"/>
-        <tr r="I41" s="13"/>
-        <tr r="L49" s="13"/>
-        <tr r="L40" s="13"/>
-        <tr r="M46" s="13"/>
-        <tr r="N44" s="13"/>
-        <tr r="H40" s="13"/>
-        <tr r="J40" s="13"/>
-        <tr r="F43" s="13"/>
-        <tr r="H44" s="13"/>
-        <tr r="I47" s="13"/>
-        <tr r="H47" s="13"/>
-        <tr r="F44" s="13"/>
-        <tr r="O40" s="13"/>
-        <tr r="K43" s="13"/>
-        <tr r="H49" s="13"/>
-        <tr r="I42" s="13"/>
-        <tr r="L44" s="13"/>
-        <tr r="G48" s="13"/>
-        <tr r="M45" s="13"/>
-        <tr r="E41" s="13"/>
-        <tr r="K41" s="13"/>
-        <tr r="N48" s="13"/>
-        <tr r="O48" s="13"/>
-        <tr r="L42" s="13"/>
-        <tr r="K40" s="13"/>
-        <tr r="O41" s="13"/>
-        <tr r="J49" s="13"/>
-        <tr r="J39" s="13"/>
-        <tr r="I45" s="13"/>
-        <tr r="E49" s="13"/>
-        <tr r="H48" s="13"/>
-        <tr r="M43" s="13"/>
-        <tr r="J45" s="13"/>
-        <tr r="O46" s="13"/>
-        <tr r="F41" s="13"/>
-        <tr r="H46" s="13"/>
-        <tr r="O42" s="13"/>
-        <tr r="O47" s="13"/>
-        <tr r="M48" s="13"/>
-        <tr r="J44" s="13"/>
-        <tr r="H42" s="13"/>
-        <tr r="M42" s="13"/>
-        <tr r="M40" s="13"/>
-        <tr r="I43" s="13"/>
-        <tr r="G47" s="13"/>
-        <tr r="M41" s="13"/>
-        <tr r="L46" s="13"/>
-        <tr r="J43" s="13"/>
-        <tr r="H39" s="13"/>
-        <tr r="L48" s="13"/>
-        <tr r="K45" s="13"/>
-        <tr r="F39" s="13"/>
-        <tr r="E46" s="13"/>
-        <tr r="J42" s="13"/>
-        <tr r="J41" s="13"/>
-        <tr r="N40" s="13"/>
-        <tr r="M47" s="13"/>
-        <tr r="I44" s="13"/>
-        <tr r="F47" s="13"/>
-        <tr r="K46" s="13"/>
-        <tr r="E43" s="13"/>
-        <tr r="M49" s="13"/>
-        <tr r="E39" s="13"/>
-        <tr r="L43" s="13"/>
-        <tr r="N43" s="13"/>
-        <tr r="I46" s="13"/>
-        <tr r="G45" s="13"/>
-        <tr r="N46" s="13"/>
-        <tr r="K39" s="13"/>
-        <tr r="E45" s="13"/>
-        <tr r="I49" s="13"/>
-        <tr r="F40" s="13"/>
-        <tr r="F46" s="13"/>
-        <tr r="O45" s="13"/>
-        <tr r="N49" s="13"/>
-        <tr r="J46" s="13"/>
-        <tr r="H43" s="13"/>
-        <tr r="N45" s="13"/>
-        <tr r="G43" s="13"/>
-        <tr r="M44" s="13"/>
-        <tr r="G44" s="13"/>
-        <tr r="G42" s="13"/>
-        <tr r="I39" s="13"/>
-        <tr r="N42" s="13"/>
-        <tr r="E44" s="13"/>
-        <tr r="H45" s="13"/>
-        <tr r="E48" s="13"/>
-        <tr r="K44" s="13"/>
-        <tr r="N39" s="13"/>
-        <tr r="I40" s="13"/>
-        <tr r="F49" s="13"/>
-        <tr r="L47" s="13"/>
-        <tr r="O44" s="13"/>
-        <tr r="N47" s="13"/>
-        <tr r="H41" s="13"/>
-        <tr r="L45" s="13"/>
-        <tr r="G39" s="13"/>
-        <tr r="K47" s="13"/>
-        <tr r="K42" s="13"/>
-        <tr r="O43" s="13"/>
-        <tr r="F42" s="13"/>
-        <tr r="G46" s="13"/>
-        <tr r="F45" s="13"/>
-        <tr r="I48" s="13"/>
-        <tr r="K48" s="13"/>
-        <tr r="O49" s="13"/>
-        <tr r="O39" s="13"/>
-        <tr r="L39" s="13"/>
-        <tr r="E40" s="13"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9a51cd81-94aa-4492-93d8-9d88c4d0e357</stp>
-        <tr r="D23" s="7"/>
-        <tr r="D20" s="7"/>
-        <tr r="D15" s="7"/>
-        <tr r="D18" s="7"/>
-        <tr r="D24" s="7"/>
-        <tr r="D21" s="7"/>
-        <tr r="D17" s="7"/>
-        <tr r="D19" s="7"/>
-        <tr r="D25" s="7"/>
-        <tr r="D16" s="7"/>
-        <tr r="D22" s="7"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.36b248cca5044f2f84e2eddf45432103">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>7851081c-ea0f-46d6-a594-a11f753efbae</stp>
-        <tr r="I48" s="14"/>
-        <tr r="I47" s="14"/>
-        <tr r="F48" s="14"/>
-        <tr r="J47" s="14"/>
-        <tr r="H47" s="14"/>
-        <tr r="E48" s="14"/>
-        <tr r="K48" s="14"/>
-        <tr r="F47" s="14"/>
-        <tr r="K47" s="14"/>
-        <tr r="E47" s="14"/>
-        <tr r="G47" s="14"/>
-        <tr r="H48" s="14"/>
-        <tr r="G48" s="14"/>
-        <tr r="J48" s="14"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.36b248cca5044f2f84e2eddf45432103">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9c49ce1d-6f8f-4216-b2dc-8e813c3c35d6</stp>
-        <tr r="N31" s="8"/>
-        <tr r="Q32" s="8"/>
-        <tr r="O34" s="8"/>
-        <tr r="R35" s="8"/>
-        <tr r="P37" s="8"/>
-        <tr r="N39" s="8"/>
-        <tr r="Q40" s="8"/>
-        <tr r="O42" s="8"/>
-        <tr r="R43" s="8"/>
-        <tr r="P45" s="8"/>
-        <tr r="N47" s="8"/>
-        <tr r="Q48" s="8"/>
-        <tr r="O50" s="8"/>
-        <tr r="R51" s="8"/>
-        <tr r="Q45" s="8"/>
-        <tr r="R48" s="8"/>
-        <tr r="P31" s="8"/>
-        <tr r="O36" s="8"/>
-        <tr r="P39" s="8"/>
-        <tr r="Q42" s="8"/>
-        <tr r="R45" s="8"/>
-        <tr r="N49" s="8"/>
-        <tr r="O33" s="8"/>
-        <tr r="P36" s="8"/>
-        <tr r="Q39" s="8"/>
-        <tr r="P44" s="8"/>
-        <tr r="Q47" s="8"/>
-        <tr r="R31" s="8"/>
-        <tr r="Q36" s="8"/>
-        <tr r="R39" s="8"/>
-        <tr r="N43" s="8"/>
-        <tr r="O46" s="8"/>
-        <tr r="P49" s="8"/>
-        <tr r="Q33" s="8"/>
-        <tr r="P38" s="8"/>
-        <tr r="R44" s="8"/>
-        <tr r="N48" s="8"/>
-        <tr r="O32" s="8"/>
-        <tr r="N37" s="8"/>
-        <tr r="R41" s="8"/>
-        <tr r="Q46" s="8"/>
-        <tr r="P32" s="8"/>
-        <tr r="O37" s="8"/>
-        <tr r="O45" s="8"/>
-        <tr r="N50" s="8"/>
-        <tr r="O31" s="8"/>
-        <tr r="R32" s="8"/>
-        <tr r="P34" s="8"/>
-        <tr r="N36" s="8"/>
-        <tr r="Q37" s="8"/>
-        <tr r="O39" s="8"/>
-        <tr r="R40" s="8"/>
-        <tr r="P42" s="8"/>
-        <tr r="N44" s="8"/>
-        <tr r="O47" s="8"/>
-        <tr r="P50" s="8"/>
-        <tr r="N33" s="8"/>
-        <tr r="Q34" s="8"/>
-        <tr r="R37" s="8"/>
-        <tr r="N41" s="8"/>
-        <tr r="O44" s="8"/>
-        <tr r="P47" s="8"/>
-        <tr r="Q50" s="8"/>
-        <tr r="Q31" s="8"/>
-        <tr r="R34" s="8"/>
-        <tr r="N38" s="8"/>
-        <tr r="O41" s="8"/>
-        <tr r="N46" s="8"/>
-        <tr r="O49" s="8"/>
-        <tr r="P33" s="8"/>
-        <tr r="N35" s="8"/>
-        <tr r="O38" s="8"/>
-        <tr r="P41" s="8"/>
-        <tr r="Q44" s="8"/>
-        <tr r="R47" s="8"/>
-        <tr r="N51" s="8"/>
-        <tr r="O35" s="8"/>
-        <tr r="R36" s="8"/>
-        <tr r="Q41" s="8"/>
-        <tr r="P40" s="8"/>
-        <tr r="R50" s="8"/>
-        <tr r="N40" s="8"/>
-        <tr r="Q49" s="8"/>
-        <tr r="P35" s="8"/>
-        <tr r="O40" s="8"/>
-        <tr r="N45" s="8"/>
-        <tr r="P51" s="8"/>
-        <tr r="Q35" s="8"/>
-        <tr r="N42" s="8"/>
-        <tr r="P48" s="8"/>
-        <tr r="R42" s="8"/>
-        <tr r="N32" s="8"/>
-        <tr r="O43" s="8"/>
-        <tr r="P46" s="8"/>
-        <tr r="O51" s="8"/>
-        <tr r="R33" s="8"/>
-        <tr r="Q38" s="8"/>
-        <tr r="P43" s="8"/>
-        <tr r="O48" s="8"/>
-        <tr r="R49" s="8"/>
-        <tr r="N34" s="8"/>
-        <tr r="R38" s="8"/>
-        <tr r="Q43" s="8"/>
-        <tr r="R46" s="8"/>
-        <tr r="Q51" s="8"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c279c631-3cea-4636-8e48-1744b79badca</stp>
-        <tr r="H50" s="14"/>
-        <tr r="I51" s="14"/>
-        <tr r="G50" s="14"/>
-        <tr r="G51" s="14"/>
-        <tr r="F51" s="14"/>
-        <tr r="K50" s="14"/>
-        <tr r="H51" s="14"/>
-        <tr r="I50" s="14"/>
-        <tr r="F50" s="14"/>
-        <tr r="E50" s="14"/>
-        <tr r="K51" s="14"/>
-        <tr r="J51" s="14"/>
-        <tr r="E51" s="14"/>
-        <tr r="J50" s="14"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>21b63f6e-e3d6-4114-b274-179cb111cff8</stp>
-        <tr r="F48" s="8"/>
-        <tr r="G36" s="8"/>
-        <tr r="E32" s="8"/>
-        <tr r="J41" s="8"/>
-        <tr r="J39" s="8"/>
-        <tr r="I42" s="8"/>
-        <tr r="E37" s="8"/>
-        <tr r="H40" s="8"/>
-        <tr r="I48" s="8"/>
-        <tr r="I37" s="8"/>
-        <tr r="E43" s="8"/>
-        <tr r="H35" s="8"/>
-        <tr r="H49" s="8"/>
-        <tr r="I34" s="8"/>
-        <tr r="L46" s="8"/>
-        <tr r="K40" s="8"/>
-        <tr r="F32" s="8"/>
-        <tr r="E38" s="8"/>
-        <tr r="E36" s="8"/>
-        <tr r="E48" s="8"/>
-        <tr r="F51" s="8"/>
-        <tr r="G35" s="8"/>
-        <tr r="G33" s="8"/>
-        <tr r="L33" s="8"/>
-        <tr r="J38" s="8"/>
-        <tr r="H42" s="8"/>
-        <tr r="E40" s="8"/>
-        <tr r="K48" s="8"/>
-        <tr r="E49" s="8"/>
-        <tr r="I35" s="8"/>
-        <tr r="E50" s="8"/>
-        <tr r="G41" s="8"/>
-        <tr r="L31" s="8"/>
-        <tr r="L44" s="8"/>
-        <tr r="L38" s="8"/>
-        <tr r="F49" s="8"/>
-        <tr r="I31" s="8"/>
-        <tr r="K35" s="8"/>
-        <tr r="J33" s="8"/>
-        <tr r="L32" s="8"/>
-        <tr r="L37" s="8"/>
-        <tr r="G49" s="8"/>
-        <tr r="H50" s="8"/>
-        <tr r="K31" s="8"/>
-        <tr r="F50" s="8"/>
-        <tr r="E45" s="8"/>
-        <tr r="L45" s="8"/>
-        <tr r="F34" s="8"/>
-        <tr r="E46" s="8"/>
-        <tr r="F33" s="8"/>
-        <tr r="J46" s="8"/>
-        <tr r="H41" s="8"/>
-        <tr r="J47" s="8"/>
-        <tr r="J50" s="8"/>
-        <tr r="K37" s="8"/>
-        <tr r="I51" s="8"/>
-        <tr r="F46" s="8"/>
-        <tr r="F45" s="8"/>
-        <tr r="K45" s="8"/>
-        <tr r="J42" s="8"/>
-        <tr r="F40" s="8"/>
-        <tr r="L35" s="8"/>
-        <tr r="E31" s="8"/>
-        <tr r="H43" s="8"/>
-        <tr r="E51" s="8"/>
-        <tr r="I33" s="8"/>
-        <tr r="L41" s="8"/>
-        <tr r="H32" s="8"/>
-        <tr r="H45" s="8"/>
-        <tr r="H51" s="8"/>
-        <tr r="K46" s="8"/>
-        <tr r="K47" s="8"/>
-        <tr r="G39" s="8"/>
-        <tr r="K41" s="8"/>
-        <tr r="H47" s="8"/>
-        <tr r="G31" s="8"/>
-        <tr r="H44" s="8"/>
-        <tr r="H33" s="8"/>
-        <tr r="L36" s="8"/>
-        <tr r="I45" s="8"/>
-        <tr r="K34" s="8"/>
-        <tr r="F35" s="8"/>
-        <tr r="J34" s="8"/>
-        <tr r="E44" s="8"/>
-        <tr r="J48" s="8"/>
-        <tr r="L42" s="8"/>
-        <tr r="E33" s="8"/>
-        <tr r="F39" s="8"/>
-        <tr r="L49" s="8"/>
-        <tr r="H46" s="8"/>
-        <tr r="I39" s="8"/>
-        <tr r="H39" s="8"/>
-        <tr r="G50" s="8"/>
-        <tr r="K39" s="8"/>
-        <tr r="J36" s="8"/>
-        <tr r="E42" s="8"/>
-        <tr r="I43" s="8"/>
-        <tr r="H37" s="8"/>
-        <tr r="G43" s="8"/>
-        <tr r="J37" s="8"/>
-        <tr r="I46" s="8"/>
-        <tr r="H34" s="8"/>
-        <tr r="L39" s="8"/>
-        <tr r="G51" s="8"/>
-        <tr r="G48" s="8"/>
-        <tr r="E34" s="8"/>
-        <tr r="F44" s="8"/>
-        <tr r="G46" s="8"/>
-        <tr r="L47" s="8"/>
-        <tr r="F43" s="8"/>
-        <tr r="F42" s="8"/>
-        <tr r="K42" s="8"/>
-        <tr r="J31" s="8"/>
-        <tr r="J49" s="8"/>
-        <tr r="L34" s="8"/>
-        <tr r="I44" s="8"/>
-        <tr r="K38" s="8"/>
-        <tr r="F37" s="8"/>
-        <tr r="H48" s="8"/>
-        <tr r="I41" s="8"/>
-        <tr r="L48" s="8"/>
-        <tr r="G45" s="8"/>
-        <tr r="K51" s="8"/>
-        <tr r="I40" s="8"/>
-        <tr r="G42" s="8"/>
-        <tr r="F36" s="8"/>
-        <tr r="L43" s="8"/>
-        <tr r="H36" s="8"/>
-        <tr r="J35" s="8"/>
-        <tr r="I49" s="8"/>
-        <tr r="K50" s="8"/>
-        <tr r="J44" s="8"/>
-        <tr r="L51" s="8"/>
-        <tr r="I50" s="8"/>
-        <tr r="L40" s="8"/>
-        <tr r="K33" s="8"/>
-        <tr r="J45" s="8"/>
-        <tr r="G38" s="8"/>
-        <tr r="H31" s="8"/>
-        <tr r="H38" s="8"/>
-        <tr r="K43" s="8"/>
-        <tr r="E41" s="8"/>
-        <tr r="G47" s="8"/>
-        <tr r="I32" s="8"/>
-        <tr r="G32" s="8"/>
-        <tr r="G40" s="8"/>
-        <tr r="F41" s="8"/>
-        <tr r="F31" s="8"/>
-        <tr r="F47" s="8"/>
-        <tr r="J32" s="8"/>
-        <tr r="K36" s="8"/>
-        <tr r="G34" s="8"/>
-        <tr r="E39" s="8"/>
-        <tr r="L50" s="8"/>
-        <tr r="I36" s="8"/>
-        <tr r="J40" s="8"/>
-        <tr r="E35" s="8"/>
-        <tr r="F38" s="8"/>
-        <tr r="K32" s="8"/>
-        <tr r="E47" s="8"/>
-        <tr r="I47" s="8"/>
-        <tr r="J43" s="8"/>
-        <tr r="K49" s="8"/>
-        <tr r="J51" s="8"/>
-        <tr r="I38" s="8"/>
-        <tr r="G44" s="8"/>
-        <tr r="K44" s="8"/>
-        <tr r="G37" s="8"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6d00ead7-b1e0-485e-bfdf-4bc92ef9b269</stp>
+        <stp>58d7e68b-9c92-4260-a74b-5eaf14b5c2c9</stp>
+        <tr r="Y52" s="6"/>
+        <tr r="T44" s="6"/>
+        <tr r="I33" s="6"/>
+        <tr r="G33" s="6"/>
+        <tr r="J51" s="6"/>
+        <tr r="W46" s="6"/>
+        <tr r="M45" s="6"/>
+        <tr r="AC46" s="6"/>
+        <tr r="Z36" s="6"/>
+        <tr r="V52" s="6"/>
+        <tr r="P39" s="6"/>
+        <tr r="N53" s="6"/>
+        <tr r="AH45" s="6"/>
+        <tr r="AI35" s="6"/>
+        <tr r="AH49" s="6"/>
+        <tr r="AE53" s="6"/>
+        <tr r="I38" s="6"/>
+        <tr r="O33" s="6"/>
+        <tr r="Z50" s="6"/>
+        <tr r="L53" s="6"/>
+        <tr r="Z44" s="6"/>
+        <tr r="X50" s="6"/>
+        <tr r="L36" s="6"/>
+        <tr r="AA44" s="6"/>
+        <tr r="W35" s="6"/>
+        <tr r="V44" s="6"/>
+        <tr r="AD51" s="6"/>
+        <tr r="AE39" s="6"/>
+        <tr r="U53" s="6"/>
+        <tr r="AG48" s="6"/>
+        <tr r="J42" s="6"/>
+        <tr r="Z42" s="6"/>
+        <tr r="E36" s="6"/>
+        <tr r="X33" s="6"/>
+        <tr r="V33" s="6"/>
+        <tr r="I48" s="6"/>
+        <tr r="M39" s="6"/>
+        <tr r="AC52" s="6"/>
+        <tr r="AG33" s="6"/>
+        <tr r="V35" s="6"/>
+        <tr r="H48" s="6"/>
+        <tr r="AH50" s="6"/>
+        <tr r="Z35" s="6"/>
+        <tr r="H38" s="6"/>
+        <tr r="X43" s="6"/>
+        <tr r="AF42" s="6"/>
+        <tr r="AC36" s="6"/>
+        <tr r="S48" s="6"/>
+        <tr r="X34" s="6"/>
+        <tr r="AH36" s="6"/>
+        <tr r="S40" s="6"/>
+        <tr r="L44" s="6"/>
+        <tr r="V51" s="6"/>
+        <tr r="S50" s="6"/>
+        <tr r="L48" s="6"/>
+        <tr r="I42" s="6"/>
+        <tr r="M43" s="6"/>
+        <tr r="AB40" s="6"/>
+        <tr r="F35" s="6"/>
+        <tr r="AI52" s="6"/>
+        <tr r="AH34" s="6"/>
+        <tr r="AB37" s="6"/>
+        <tr r="T37" s="6"/>
+        <tr r="G43" s="6"/>
+        <tr r="H44" s="6"/>
+        <tr r="J46" s="6"/>
+        <tr r="N43" s="6"/>
+        <tr r="O45" s="6"/>
+        <tr r="W42" s="6"/>
+        <tr r="AB51" s="6"/>
+        <tr r="AC44" s="6"/>
+        <tr r="R37" s="6"/>
+        <tr r="O47" s="6"/>
+        <tr r="S45" s="6"/>
+        <tr r="Q48" s="6"/>
+        <tr r="AF35" s="6"/>
+        <tr r="AG44" s="6"/>
+        <tr r="W52" s="6"/>
+        <tr r="AI51" s="6"/>
+        <tr r="AG42" s="6"/>
+        <tr r="P33" s="6"/>
+        <tr r="AC41" s="6"/>
+        <tr r="AF38" s="6"/>
+        <tr r="M37" s="6"/>
+        <tr r="P47" s="6"/>
+        <tr r="AI36" s="6"/>
+        <tr r="X46" s="6"/>
+        <tr r="U34" s="6"/>
+        <tr r="I49" s="6"/>
+        <tr r="L42" s="6"/>
+        <tr r="AB44" s="6"/>
+        <tr r="AE34" s="6"/>
+        <tr r="Z53" s="6"/>
+        <tr r="P41" s="6"/>
+        <tr r="T33" s="6"/>
+        <tr r="AF44" s="6"/>
+        <tr r="AA38" s="6"/>
+        <tr r="AA48" s="6"/>
+        <tr r="AG47" s="6"/>
+        <tr r="AI33" s="6"/>
+        <tr r="AE33" s="6"/>
+        <tr r="AD40" s="6"/>
+        <tr r="R47" s="6"/>
+        <tr r="W36" s="6"/>
+        <tr r="P51" s="6"/>
+        <tr r="AC50" s="6"/>
+        <tr r="U39" s="6"/>
+        <tr r="H42" s="6"/>
+        <tr r="AD34" s="6"/>
+        <tr r="Q38" s="6"/>
+        <tr r="X48" s="6"/>
+        <tr r="Z45" s="6"/>
+        <tr r="W33" s="6"/>
+        <tr r="AF36" s="6"/>
+        <tr r="Y53" s="6"/>
+        <tr r="AG35" s="6"/>
+        <tr r="AI40" s="6"/>
+        <tr r="M38" s="6"/>
+        <tr r="AD37" s="6"/>
+        <tr r="X52" s="6"/>
+        <tr r="H35" s="6"/>
+        <tr r="F48" s="6"/>
+        <tr r="AG50" s="6"/>
+        <tr r="AB39" s="6"/>
+        <tr r="M47" s="6"/>
+        <tr r="V39" s="6"/>
+        <tr r="AG49" s="6"/>
+        <tr r="AA41" s="6"/>
+        <tr r="L47" s="6"/>
+        <tr r="E52" s="6"/>
+        <tr r="M33" s="6"/>
+        <tr r="G51" s="6"/>
+        <tr r="H49" s="6"/>
+        <tr r="AC53" s="6"/>
+        <tr r="AH47" s="6"/>
+        <tr r="T51" s="6"/>
+        <tr r="X36" s="6"/>
+        <tr r="P48" s="6"/>
+        <tr r="J36" s="6"/>
+        <tr r="E45" s="6"/>
+        <tr r="AH37" s="6"/>
+        <tr r="AG52" s="6"/>
+        <tr r="Y40" s="6"/>
+        <tr r="AI38" s="6"/>
+        <tr r="AC37" s="6"/>
+        <tr r="AI53" s="6"/>
+        <tr r="AD47" s="6"/>
+        <tr r="N42" s="6"/>
+        <tr r="U52" s="6"/>
+        <tr r="AC35" s="6"/>
+        <tr r="P36" s="6"/>
+        <tr r="P38" s="6"/>
+        <tr r="F46" s="6"/>
+        <tr r="AF43" s="6"/>
+        <tr r="P50" s="6"/>
+        <tr r="V38" s="6"/>
+        <tr r="AD52" s="6"/>
+        <tr r="AG36" s="6"/>
+        <tr r="K47" s="6"/>
+        <tr r="AI39" s="6"/>
+        <tr r="I41" s="6"/>
+        <tr r="AD44" s="6"/>
+        <tr r="G50" s="6"/>
+        <tr r="AI46" s="6"/>
+        <tr r="W39" s="6"/>
+        <tr r="P45" s="6"/>
+        <tr r="X45" s="6"/>
+        <tr r="X42" s="6"/>
+        <tr r="E44" s="6"/>
+        <tr r="AF46" s="6"/>
+        <tr r="I39" s="6"/>
+        <tr r="Z48" s="6"/>
+        <tr r="V53" s="6"/>
+        <tr r="AE37" s="6"/>
+        <tr r="AA49" s="6"/>
+        <tr r="L33" s="6"/>
+        <tr r="M50" s="6"/>
+        <tr r="Q34" s="6"/>
+        <tr r="Q53" s="6"/>
+        <tr r="S49" s="6"/>
+        <tr r="G45" s="6"/>
+        <tr r="G34" s="6"/>
+        <tr r="S46" s="6"/>
+        <tr r="G39" s="6"/>
+        <tr r="AE51" s="6"/>
+        <tr r="H40" s="6"/>
+        <tr r="M44" s="6"/>
+        <tr r="AG53" s="6"/>
+        <tr r="AF50" s="6"/>
+        <tr r="AD49" s="6"/>
+        <tr r="X41" s="6"/>
+        <tr r="Q49" s="6"/>
+        <tr r="V34" s="6"/>
+        <tr r="V49" s="6"/>
+        <tr r="AB48" s="6"/>
+        <tr r="N36" s="6"/>
+        <tr r="U33" s="6"/>
+        <tr r="N40" s="6"/>
+        <tr r="AG46" s="6"/>
+        <tr r="F41" s="6"/>
+        <tr r="K39" s="6"/>
+        <tr r="F36" s="6"/>
+        <tr r="AG43" s="6"/>
+        <tr r="X40" s="6"/>
+        <tr r="Z46" s="6"/>
+        <tr r="AB53" s="6"/>
+        <tr r="AH51" s="6"/>
+        <tr r="I40" s="6"/>
+        <tr r="F50" s="6"/>
+        <tr r="F52" s="6"/>
+        <tr r="N50" s="6"/>
+        <tr r="O35" s="6"/>
+        <tr r="Y33" s="6"/>
+        <tr r="Y49" s="6"/>
+        <tr r="R53" s="6"/>
+        <tr r="T42" s="6"/>
+        <tr r="AB42" s="6"/>
+        <tr r="K52" s="6"/>
+        <tr r="Y41" s="6"/>
+        <tr r="O48" s="6"/>
+        <tr r="Q44" s="6"/>
+        <tr r="AD53" s="6"/>
+        <tr r="W44" s="6"/>
+        <tr r="L45" s="6"/>
+        <tr r="P35" s="6"/>
+        <tr r="J41" s="6"/>
+        <tr r="I43" s="6"/>
+        <tr r="AC45" s="6"/>
+        <tr r="O53" s="6"/>
+        <tr r="U47" s="6"/>
+        <tr r="H41" s="6"/>
+        <tr r="H47" s="6"/>
+        <tr r="AF40" s="6"/>
+        <tr r="J33" s="6"/>
+        <tr r="V36" s="6"/>
+        <tr r="K36" s="6"/>
+        <tr r="AC49" s="6"/>
+        <tr r="K50" s="6"/>
+        <tr r="U51" s="6"/>
+        <tr r="AG34" s="6"/>
+        <tr r="V40" s="6"/>
+        <tr r="H46" s="6"/>
+        <tr r="S33" s="6"/>
+        <tr r="M36" s="6"/>
+        <tr r="AG40" s="6"/>
+        <tr r="AA43" s="6"/>
+        <tr r="V50" s="6"/>
+        <tr r="S34" s="6"/>
+        <tr r="O46" s="6"/>
+        <tr r="G40" s="6"/>
+        <tr r="AG38" s="6"/>
+        <tr r="E37" s="6"/>
+        <tr r="E51" s="6"/>
+        <tr r="H34" s="6"/>
+        <tr r="V37" s="6"/>
+        <tr r="E49" s="6"/>
+        <tr r="U37" s="6"/>
+        <tr r="R43" s="6"/>
+        <tr r="R40" s="6"/>
+        <tr r="E35" s="6"/>
+        <tr r="P40" s="6"/>
+        <tr r="M41" s="6"/>
+        <tr r="Z41" s="6"/>
+        <tr r="X51" s="6"/>
+        <tr r="J34" s="6"/>
+        <tr r="AD43" s="6"/>
+        <tr r="Y34" s="6"/>
+        <tr r="X37" s="6"/>
+        <tr r="Q35" s="6"/>
+        <tr r="S53" s="6"/>
+        <tr r="Z47" s="6"/>
+        <tr r="U49" s="6"/>
+        <tr r="E48" s="6"/>
+        <tr r="E50" s="6"/>
+        <tr r="L52" s="6"/>
+        <tr r="J37" s="6"/>
+        <tr r="AC40" s="6"/>
+        <tr r="L46" s="6"/>
+        <tr r="V46" s="6"/>
+        <tr r="M52" s="6"/>
+        <tr r="AG45" s="6"/>
+        <tr r="Y47" s="6"/>
+        <tr r="AI45" s="6"/>
+        <tr r="N41" s="6"/>
+        <tr r="I45" s="6"/>
+        <tr r="Q52" s="6"/>
+        <tr r="U41" s="6"/>
+        <tr r="AI34" s="6"/>
+        <tr r="Y37" s="6"/>
+        <tr r="AG51" s="6"/>
+        <tr r="AF33" s="6"/>
+        <tr r="V43" s="6"/>
+        <tr r="S47" s="6"/>
+        <tr r="S37" s="6"/>
+        <tr r="AC38" s="6"/>
+        <tr r="W40" s="6"/>
+        <tr r="U42" s="6"/>
+        <tr r="W34" s="6"/>
+        <tr r="K38" s="6"/>
+        <tr r="AB41" s="6"/>
+        <tr r="N44" s="6"/>
+        <tr r="S39" s="6"/>
+        <tr r="J50" s="6"/>
+        <tr r="E33" s="6"/>
+        <tr r="G35" s="6"/>
+        <tr r="X44" s="6"/>
+        <tr r="P53" s="6"/>
+        <tr r="K42" s="6"/>
+        <tr r="H52" s="6"/>
+        <tr r="Y46" s="6"/>
+        <tr r="T46" s="6"/>
+        <tr r="AB47" s="6"/>
+        <tr r="AB49" s="6"/>
+        <tr r="E40" s="6"/>
+        <tr r="G49" s="6"/>
+        <tr r="R50" s="6"/>
+        <tr r="Q40" s="6"/>
+        <tr r="Y36" s="6"/>
+        <tr r="AB45" s="6"/>
+        <tr r="AH48" s="6"/>
+        <tr r="O39" s="6"/>
+        <tr r="R51" s="6"/>
+        <tr r="J47" s="6"/>
+        <tr r="U50" s="6"/>
+        <tr r="H50" s="6"/>
+        <tr r="Q39" s="6"/>
+        <tr r="H53" s="6"/>
+        <tr r="AA37" s="6"/>
+        <tr r="K48" s="6"/>
+        <tr r="L50" s="6"/>
+        <tr r="AF49" s="6"/>
+        <tr r="G37" s="6"/>
+        <tr r="AE49" s="6"/>
+        <tr r="J49" s="6"/>
+        <tr r="Q33" s="6"/>
+        <tr r="Y51" s="6"/>
+        <tr r="L38" s="6"/>
+        <tr r="K45" s="6"/>
+        <tr r="Z49" s="6"/>
+        <tr r="N52" s="6"/>
+        <tr r="R52" s="6"/>
+        <tr r="G42" s="6"/>
+        <tr r="AH42" s="6"/>
+        <tr r="Y38" s="6"/>
+        <tr r="AE44" s="6"/>
+        <tr r="K40" s="6"/>
+        <tr r="O52" s="6"/>
+        <tr r="Z34" s="6"/>
+        <tr r="W41" s="6"/>
+        <tr r="N48" s="6"/>
+        <tr r="AG37" s="6"/>
+        <tr r="AB34" s="6"/>
+        <tr r="AD36" s="6"/>
+        <tr r="AC51" s="6"/>
+        <tr r="S52" s="6"/>
+        <tr r="I47" s="6"/>
+        <tr r="W49" s="6"/>
+        <tr r="AH44" s="6"/>
+        <tr r="N34" s="6"/>
+        <tr r="X38" s="6"/>
+        <tr r="V42" s="6"/>
+        <tr r="AI41" s="6"/>
+        <tr r="AE40" s="6"/>
+        <tr r="H37" s="6"/>
+        <tr r="N35" s="6"/>
+        <tr r="AA34" s="6"/>
+        <tr r="V41" s="6"/>
+        <tr r="AF45" s="6"/>
+        <tr r="AD35" s="6"/>
+        <tr r="Y45" s="6"/>
+        <tr r="K46" s="6"/>
+        <tr r="Y39" s="6"/>
+        <tr r="U46" s="6"/>
+        <tr r="AD50" s="6"/>
+        <tr r="P42" s="6"/>
+        <tr r="AI50" s="6"/>
+        <tr r="I37" s="6"/>
+        <tr r="AI49" s="6"/>
+        <tr r="AD48" s="6"/>
+        <tr r="AC39" s="6"/>
         <tr r="AE43" s="6"/>
+        <tr r="Y42" s="6"/>
+        <tr r="Q46" s="6"/>
+        <tr r="Z52" s="6"/>
+        <tr r="J52" s="6"/>
+        <tr r="G47" s="6"/>
+        <tr r="Q42" s="6"/>
+        <tr r="AA36" s="6"/>
+        <tr r="AD46" s="6"/>
+        <tr r="W38" s="6"/>
+        <tr r="AA51" s="6"/>
+        <tr r="O42" s="6"/>
+        <tr r="AD39" s="6"/>
+        <tr r="L35" s="6"/>
+        <tr r="AC48" s="6"/>
+        <tr r="I34" s="6"/>
+        <tr r="AH39" s="6"/>
+        <tr r="L39" s="6"/>
+        <tr r="Q45" s="6"/>
+        <tr r="H33" s="6"/>
+        <tr r="AE41" s="6"/>
+        <tr r="O43" s="6"/>
+        <tr r="AI43" s="6"/>
+        <tr r="S35" s="6"/>
+        <tr r="Z38" s="6"/>
+        <tr r="AE46" s="6"/>
+        <tr r="Q47" s="6"/>
+        <tr r="AD38" s="6"/>
+        <tr r="AE47" s="6"/>
+        <tr r="R33" s="6"/>
+        <tr r="E46" s="6"/>
+        <tr r="U38" s="6"/>
+        <tr r="R39" s="6"/>
+        <tr r="W48" s="6"/>
+        <tr r="K33" s="6"/>
+        <tr r="AC34" s="6"/>
+        <tr r="Z43" s="6"/>
+        <tr r="AF52" s="6"/>
+        <tr r="AC43" s="6"/>
+        <tr r="AA45" s="6"/>
+        <tr r="K53" s="6"/>
+        <tr r="Q37" s="6"/>
+        <tr r="Y50" s="6"/>
+        <tr r="T49" s="6"/>
+        <tr r="N38" s="6"/>
+        <tr r="W50" s="6"/>
+        <tr r="AD45" s="6"/>
+        <tr r="F51" s="6"/>
+        <tr r="AF53" s="6"/>
+        <tr r="O40" s="6"/>
+        <tr r="F38" s="6"/>
+        <tr r="N37" s="6"/>
+        <tr r="AC33" s="6"/>
+        <tr r="U44" s="6"/>
+        <tr r="W37" s="6"/>
+        <tr r="H51" s="6"/>
+        <tr r="AG39" s="6"/>
+        <tr r="F39" s="6"/>
+        <tr r="G44" s="6"/>
+        <tr r="O38" s="6"/>
+        <tr r="L43" s="6"/>
+        <tr r="J40" s="6"/>
+        <tr r="G46" s="6"/>
+        <tr r="F42" s="6"/>
+        <tr r="AA47" s="6"/>
+        <tr r="I51" s="6"/>
+        <tr r="I44" s="6"/>
+        <tr r="AH40" s="6"/>
+        <tr r="G52" s="6"/>
+        <tr r="AI47" s="6"/>
+        <tr r="AD41" s="6"/>
+        <tr r="AI42" s="6"/>
+        <tr r="O34" s="6"/>
+        <tr r="W47" s="6"/>
+        <tr r="AA46" s="6"/>
+        <tr r="E41" s="6"/>
+        <tr r="W51" s="6"/>
+        <tr r="AD42" s="6"/>
+        <tr r="K44" s="6"/>
+        <tr r="AG41" s="6"/>
+        <tr r="AB46" s="6"/>
+        <tr r="AC42" s="6"/>
+        <tr r="R38" s="6"/>
+        <tr r="U40" s="6"/>
+        <tr r="AE45" s="6"/>
+        <tr r="P37" s="6"/>
+        <tr r="AB38" s="6"/>
+        <tr r="AA33" s="6"/>
+        <tr r="AH35" s="6"/>
+        <tr r="J38" s="6"/>
+        <tr r="M53" s="6"/>
+        <tr r="S44" s="6"/>
+        <tr r="AE42" s="6"/>
         <tr r="U36" s="6"/>
+        <tr r="AA35" s="6"/>
+        <tr r="I53" s="6"/>
+        <tr r="AF51" s="6"/>
+        <tr r="T39" s="6"/>
+        <tr r="M42" s="6"/>
+        <tr r="U43" s="6"/>
+        <tr r="O36" s="6"/>
+        <tr r="X35" s="6"/>
+        <tr r="S36" s="6"/>
+        <tr r="V48" s="6"/>
+        <tr r="R35" s="6"/>
+        <tr r="G36" s="6"/>
+        <tr r="AF48" s="6"/>
+        <tr r="L49" s="6"/>
+        <tr r="Y43" s="6"/>
+        <tr r="AB43" s="6"/>
+        <tr r="K43" s="6"/>
+        <tr r="M46" s="6"/>
+        <tr r="S38" s="6"/>
+        <tr r="T38" s="6"/>
+        <tr r="F33" s="6"/>
+        <tr r="Y44" s="6"/>
+        <tr r="Z39" s="6"/>
+        <tr r="AE35" s="6"/>
+        <tr r="AA39" s="6"/>
+        <tr r="J53" s="6"/>
+        <tr r="E43" s="6"/>
+        <tr r="P44" s="6"/>
+        <tr r="K49" s="6"/>
+        <tr r="G41" s="6"/>
+        <tr r="P43" s="6"/>
+        <tr r="AH41" s="6"/>
+        <tr r="T41" s="6"/>
+        <tr r="O37" s="6"/>
+        <tr r="Z37" s="6"/>
+        <tr r="AA42" s="6"/>
+        <tr r="M48" s="6"/>
+        <tr r="M49" s="6"/>
+        <tr r="P52" s="6"/>
+        <tr r="K41" s="6"/>
+        <tr r="AB35" s="6"/>
+        <tr r="Z40" s="6"/>
+        <tr r="R34" s="6"/>
+        <tr r="M40" s="6"/>
+        <tr r="L37" s="6"/>
+        <tr r="F49" s="6"/>
+        <tr r="O41" s="6"/>
+        <tr r="J35" s="6"/>
+        <tr r="R41" s="6"/>
+        <tr r="H45" s="6"/>
+        <tr r="G53" s="6"/>
+        <tr r="AI48" s="6"/>
+        <tr r="AH46" s="6"/>
+        <tr r="N46" s="6"/>
+        <tr r="W43" s="6"/>
+        <tr r="X47" s="6"/>
+        <tr r="F44" s="6"/>
+        <tr r="I52" s="6"/>
+        <tr r="J43" s="6"/>
+        <tr r="R44" s="6"/>
+        <tr r="E38" s="6"/>
+        <tr r="K35" s="6"/>
+        <tr r="U48" s="6"/>
+        <tr r="O51" s="6"/>
+        <tr r="AE48" s="6"/>
+        <tr r="F34" s="6"/>
+        <tr r="T52" s="6"/>
+        <tr r="V47" s="6"/>
+        <tr r="S51" s="6"/>
+        <tr r="AH33" s="6"/>
+        <tr r="X49" s="6"/>
+        <tr r="N49" s="6"/>
+        <tr r="I36" s="6"/>
+        <tr r="Q41" s="6"/>
+        <tr r="Z51" s="6"/>
+        <tr r="S41" s="6"/>
+        <tr r="U35" s="6"/>
+        <tr r="Y48" s="6"/>
+        <tr r="G48" s="6"/>
+        <tr r="K51" s="6"/>
+        <tr r="AB36" s="6"/>
+        <tr r="N47" s="6"/>
+        <tr r="AE50" s="6"/>
+        <tr r="AF37" s="6"/>
+        <tr r="AB52" s="6"/>
+        <tr r="Z33" s="6"/>
+        <tr r="W53" s="6"/>
+        <tr r="S43" s="6"/>
+        <tr r="S42" s="6"/>
+        <tr r="K34" s="6"/>
+        <tr r="AB33" s="6"/>
+        <tr r="AE52" s="6"/>
+        <tr r="J48" s="6"/>
+        <tr r="AE36" s="6"/>
+        <tr r="N33" s="6"/>
         <tr r="V45" s="6"/>
-        <tr r="U48" s="6"/>
-        <tr r="AH37" s="6"/>
-        <tr r="L48" s="6"/>
-        <tr r="P38" s="6"/>
-        <tr r="U49" s="6"/>
-        <tr r="Y42" s="6"/>
-        <tr r="U35" s="6"/>
         <tr r="G38" s="6"/>
-        <tr r="AD36" s="6"/>
-        <tr r="V41" s="6"/>
-        <tr r="I42" s="6"/>
-        <tr r="X37" s="6"/>
-        <tr r="E48" s="6"/>
-        <tr r="Q46" s="6"/>
-        <tr r="Y48" s="6"/>
         <tr r="J45" s="6"/>
-        <tr r="R38" s="6"/>
-        <tr r="V44" s="6"/>
-        <tr r="M43" s="6"/>
-        <tr r="F46" s="6"/>
-        <tr r="E50" s="6"/>
-        <tr r="Z52" s="6"/>
-        <tr r="AA35" s="6"/>
         <tr r="O44" s="6"/>
-        <tr r="Y52" s="6"/>
-        <tr r="H46" s="6"/>
-        <tr r="AB40" s="6"/>
-        <tr r="Q35" s="6"/>
-        <tr r="L52" s="6"/>
-        <tr r="J52" s="6"/>
-        <tr r="G48" s="6"/>
         <tr r="I46" s="6"/>
-        <tr r="O53" s="6"/>
-        <tr r="AF45" s="6"/>
-        <tr r="F35" s="6"/>
-        <tr r="AF43" s="6"/>
-        <tr r="J37" s="6"/>
-        <tr r="G47" s="6"/>
-        <tr r="I53" s="6"/>
         <tr r="T53" s="6"/>
-        <tr r="AH45" s="6"/>
-        <tr r="AG52" s="6"/>
-        <tr r="AI52" s="6"/>
-        <tr r="S53" s="6"/>
-        <tr r="AC40" s="6"/>
-        <tr r="Q42" s="6"/>
-        <tr r="K51" s="6"/>
         <tr r="AI37" s="6"/>
-        <tr r="O51" s="6"/>
-        <tr r="AD51" s="6"/>
-        <tr r="AH34" s="6"/>
-        <tr r="P50" s="6"/>
-        <tr r="L46" s="6"/>
-        <tr r="AA36" s="6"/>
-        <tr r="AF51" s="6"/>
         <tr r="F53" s="6"/>
-        <tr r="AC51" s="6"/>
-        <tr r="S33" s="6"/>
-        <tr r="AB37" s="6"/>
-        <tr r="Z47" s="6"/>
-        <tr r="V46" s="6"/>
-        <tr r="AD46" s="6"/>
-        <tr r="AB36" s="6"/>
         <tr r="P34" s="6"/>
-        <tr r="U40" s="6"/>
-        <tr r="AD35" s="6"/>
-        <tr r="T37" s="6"/>
-        <tr r="V38" s="6"/>
-        <tr r="M52" s="6"/>
-        <tr r="W38" s="6"/>
-        <tr r="T39" s="6"/>
         <tr r="AI44" s="6"/>
-        <tr r="T44" s="6"/>
-        <tr r="AE39" s="6"/>
-        <tr r="G43" s="6"/>
-        <tr r="AD52" s="6"/>
-        <tr r="AG45" s="6"/>
-        <tr r="AA51" s="6"/>
-        <tr r="N47" s="6"/>
         <tr r="F43" s="6"/>
-        <tr r="U47" s="6"/>
-        <tr r="M36" s="6"/>
-        <tr r="H44" s="6"/>
-        <tr r="AG36" s="6"/>
-        <tr r="Y47" s="6"/>
-        <tr r="O42" s="6"/>
-        <tr r="M42" s="6"/>
         <tr r="M51" s="6"/>
-        <tr r="AI35" s="6"/>
-        <tr r="Y45" s="6"/>
-        <tr r="J46" s="6"/>
-        <tr r="K47" s="6"/>
-        <tr r="AI45" s="6"/>
-        <tr r="AD39" s="6"/>
-        <tr r="AE50" s="6"/>
         <tr r="R36" s="6"/>
-        <tr r="T51" s="6"/>
-        <tr r="Y40" s="6"/>
-        <tr r="N43" s="6"/>
-        <tr r="AI39" s="6"/>
-        <tr r="N41" s="6"/>
-        <tr r="L35" s="6"/>
-        <tr r="U43" s="6"/>
         <tr r="R46" s="6"/>
-        <tr r="AE48" s="6"/>
-        <tr r="U53" s="6"/>
-        <tr r="O45" s="6"/>
-        <tr r="I41" s="6"/>
-        <tr r="I45" s="6"/>
-        <tr r="AC48" s="6"/>
-        <tr r="AF37" s="6"/>
         <tr r="H43" s="6"/>
-        <tr r="S52" s="6"/>
-        <tr r="AG40" s="6"/>
-        <tr r="W42" s="6"/>
-        <tr r="AD44" s="6"/>
-        <tr r="Q52" s="6"/>
-        <tr r="I34" s="6"/>
-        <tr r="AB52" s="6"/>
         <tr r="F37" s="6"/>
-        <tr r="AE45" s="6"/>
-        <tr r="K46" s="6"/>
-        <tr r="AB51" s="6"/>
-        <tr r="G50" s="6"/>
-        <tr r="U41" s="6"/>
-        <tr r="AH39" s="6"/>
-        <tr r="O36" s="6"/>
         <tr r="R45" s="6"/>
-        <tr r="I33" s="6"/>
-        <tr r="AG48" s="6"/>
-        <tr r="AC44" s="6"/>
-        <tr r="AI46" s="6"/>
-        <tr r="AI34" s="6"/>
-        <tr r="L39" s="6"/>
-        <tr r="Z33" s="6"/>
         <tr r="AD33" s="6"/>
-        <tr r="H41" s="6"/>
-        <tr r="AA43" s="6"/>
-        <tr r="R37" s="6"/>
-        <tr r="W39" s="6"/>
-        <tr r="Y37" s="6"/>
-        <tr r="Q45" s="6"/>
-        <tr r="W53" s="6"/>
         <tr r="L41" s="6"/>
-        <tr r="AH49" s="6"/>
-        <tr r="N53" s="6"/>
-        <tr r="O47" s="6"/>
-        <tr r="P45" s="6"/>
-        <tr r="AG51" s="6"/>
-        <tr r="H33" s="6"/>
-        <tr r="X35" s="6"/>
         <tr r="T43" s="6"/>
-        <tr r="I47" s="6"/>
-        <tr r="AI38" s="6"/>
-        <tr r="S45" s="6"/>
-        <tr r="X45" s="6"/>
-        <tr r="AF33" s="6"/>
-        <tr r="AE41" s="6"/>
-        <tr r="S43" s="6"/>
         <tr r="X53" s="6"/>
-        <tr r="F34" s="6"/>
-        <tr r="Y39" s="6"/>
-        <tr r="Q48" s="6"/>
-        <tr r="X42" s="6"/>
-        <tr r="V43" s="6"/>
-        <tr r="O43" s="6"/>
-        <tr r="S36" s="6"/>
         <tr r="F40" s="6"/>
-        <tr r="P37" s="6"/>
-        <tr r="V50" s="6"/>
-        <tr r="AF35" s="6"/>
-        <tr r="E44" s="6"/>
-        <tr r="S47" s="6"/>
-        <tr r="AI43" s="6"/>
-        <tr r="S42" s="6"/>
         <tr r="P46" s="6"/>
-        <tr r="G33" s="6"/>
-        <tr r="J42" s="6"/>
-        <tr r="AG44" s="6"/>
-        <tr r="AF46" s="6"/>
-        <tr r="S37" s="6"/>
-        <tr r="S35" s="6"/>
-        <tr r="K34" s="6"/>
         <tr r="W45" s="6"/>
-        <tr r="H47" s="6"/>
-        <tr r="U46" s="6"/>
-        <tr r="W52" s="6"/>
-        <tr r="I39" s="6"/>
-        <tr r="AC38" s="6"/>
-        <tr r="Z38" s="6"/>
-        <tr r="V48" s="6"/>
         <tr r="L40" s="6"/>
-        <tr r="AE53" s="6"/>
-        <tr r="S34" s="6"/>
-        <tr r="AI51" s="6"/>
-        <tr r="Z48" s="6"/>
-        <tr r="W40" s="6"/>
-        <tr r="AE46" s="6"/>
-        <tr r="AB33" s="6"/>
         <tr r="E42" s="6"/>
-        <tr r="T52" s="6"/>
-        <tr r="Z42" s="6"/>
-        <tr r="AG42" s="6"/>
-        <tr r="V53" s="6"/>
-        <tr r="U42" s="6"/>
-        <tr r="Q47" s="6"/>
-        <tr r="AE52" s="6"/>
         <tr r="J39" s="6"/>
-        <tr r="W49" s="6"/>
-        <tr r="AC37" s="6"/>
-        <tr r="P33" s="6"/>
-        <tr r="AE37" s="6"/>
-        <tr r="W34" s="6"/>
-        <tr r="AD38" s="6"/>
-        <tr r="R35" s="6"/>
         <tr r="E39" s="6"/>
-        <tr r="X36" s="6"/>
-        <tr r="AD50" s="6"/>
-        <tr r="AC41" s="6"/>
-        <tr r="AA49" s="6"/>
-        <tr r="K38" s="6"/>
-        <tr r="AE47" s="6"/>
-        <tr r="J48" s="6"/>
         <tr r="AH43" s="6"/>
-        <tr r="J51" s="6"/>
-        <tr r="E36" s="6"/>
-        <tr r="AF38" s="6"/>
-        <tr r="L33" s="6"/>
-        <tr r="AB41" s="6"/>
-        <tr r="R33" s="6"/>
-        <tr r="AE36" s="6"/>
         <tr r="T47" s="6"/>
-        <tr r="AB38" s="6"/>
-        <tr r="O46" s="6"/>
-        <tr r="M37" s="6"/>
-        <tr r="M50" s="6"/>
-        <tr r="N44" s="6"/>
-        <tr r="E46" s="6"/>
-        <tr r="G36" s="6"/>
         <tr r="R48" s="6"/>
-        <tr r="I38" s="6"/>
-        <tr r="P42" s="6"/>
-        <tr r="P47" s="6"/>
-        <tr r="Q34" s="6"/>
-        <tr r="S39" s="6"/>
-        <tr r="U38" s="6"/>
-        <tr r="AF48" s="6"/>
         <tr r="T50" s="6"/>
-        <tr r="AF40" s="6"/>
-        <tr r="X33" s="6"/>
-        <tr r="AI36" s="6"/>
-        <tr r="Q53" s="6"/>
-        <tr r="J50" s="6"/>
-        <tr r="R39" s="6"/>
-        <tr r="L49" s="6"/>
         <tr r="Q51" s="6"/>
-        <tr r="V47" s="6"/>
-        <tr r="AI53" s="6"/>
-        <tr r="X46" s="6"/>
-        <tr r="S49" s="6"/>
-        <tr r="E33" s="6"/>
-        <tr r="W48" s="6"/>
-        <tr r="N33" s="6"/>
         <tr r="L51" s="6"/>
-        <tr r="AH44" s="6"/>
-        <tr r="G40" s="6"/>
-        <tr r="U34" s="6"/>
-        <tr r="G45" s="6"/>
-        <tr r="G35" s="6"/>
-        <tr r="K33" s="6"/>
-        <tr r="Y43" s="6"/>
         <tr r="Q36" s="6"/>
-        <tr r="W46" s="6"/>
-        <tr r="AI50" s="6"/>
-        <tr r="I49" s="6"/>
-        <tr r="G34" s="6"/>
-        <tr r="X44" s="6"/>
-        <tr r="AC34" s="6"/>
-        <tr r="AB43" s="6"/>
         <tr r="M35" s="6"/>
-        <tr r="AA33" s="6"/>
-        <tr r="V33" s="6"/>
-        <tr r="L42" s="6"/>
-        <tr r="S46" s="6"/>
-        <tr r="P53" s="6"/>
-        <tr r="Z43" s="6"/>
-        <tr r="K43" s="6"/>
         <tr r="J44" s="6"/>
-        <tr r="O33" s="6"/>
-        <tr r="AG38" s="6"/>
-        <tr r="AB44" s="6"/>
-        <tr r="G39" s="6"/>
-        <tr r="K42" s="6"/>
-        <tr r="AF52" s="6"/>
-        <tr r="M46" s="6"/>
         <tr r="M34" s="6"/>
-        <tr r="J33" s="6"/>
-        <tr r="I37" s="6"/>
-        <tr r="AE34" s="6"/>
-        <tr r="AE51" s="6"/>
-        <tr r="H52" s="6"/>
-        <tr r="AC43" s="6"/>
-        <tr r="S38" s="6"/>
         <tr r="AA50" s="6"/>
-        <tr r="S51" s="6"/>
-        <tr r="AD47" s="6"/>
-        <tr r="Z53" s="6"/>
-        <tr r="H40" s="6"/>
-        <tr r="Y46" s="6"/>
-        <tr r="AA45" s="6"/>
-        <tr r="T38" s="6"/>
         <tr r="I35" s="6"/>
-        <tr r="N34" s="6"/>
-        <tr r="I48" s="6"/>
-        <tr r="P41" s="6"/>
-        <tr r="M44" s="6"/>
-        <tr r="T46" s="6"/>
-        <tr r="K53" s="6"/>
-        <tr r="F33" s="6"/>
         <tr r="AH53" s="6"/>
-        <tr r="M45" s="6"/>
-        <tr r="E37" s="6"/>
-        <tr r="T33" s="6"/>
-        <tr r="AG53" s="6"/>
-        <tr r="AB47" s="6"/>
-        <tr r="Q37" s="6"/>
-        <tr r="Y44" s="6"/>
         <tr r="P49" s="6"/>
-        <tr r="AH35" s="6"/>
-        <tr r="AI49" s="6"/>
-        <tr r="AF44" s="6"/>
-        <tr r="AF50" s="6"/>
-        <tr r="AB49" s="6"/>
-        <tr r="Y50" s="6"/>
-        <tr r="Z39" s="6"/>
         <tr r="AF39" s="6"/>
-        <tr r="P48" s="6"/>
-        <tr r="M39" s="6"/>
-        <tr r="AA38" s="6"/>
-        <tr r="AD49" s="6"/>
-        <tr r="E40" s="6"/>
-        <tr r="T49" s="6"/>
-        <tr r="AE35" s="6"/>
         <tr r="T48" s="6"/>
-        <tr r="Z50" s="6"/>
-        <tr r="E51" s="6"/>
-        <tr r="AA48" s="6"/>
-        <tr r="X41" s="6"/>
-        <tr r="G49" s="6"/>
-        <tr r="N38" s="6"/>
-        <tr r="AA39" s="6"/>
         <tr r="T40" s="6"/>
-        <tr r="V36" s="6"/>
-        <tr r="N42" s="6"/>
-        <tr r="AG47" s="6"/>
-        <tr r="Q49" s="6"/>
-        <tr r="R50" s="6"/>
-        <tr r="W50" s="6"/>
-        <tr r="J53" s="6"/>
         <tr r="AE38" s="6"/>
-        <tr r="X38" s="6"/>
-        <tr r="AD48" s="6"/>
-        <tr r="AI33" s="6"/>
-        <tr r="V34" s="6"/>
-        <tr r="Q40" s="6"/>
-        <tr r="AD45" s="6"/>
-        <tr r="E43" s="6"/>
         <tr r="K37" s="6"/>
-        <tr r="AH33" s="6"/>
-        <tr r="AC52" s="6"/>
-        <tr r="AE33" s="6"/>
-        <tr r="V49" s="6"/>
-        <tr r="Y36" s="6"/>
-        <tr r="F51" s="6"/>
-        <tr r="P44" s="6"/>
         <tr r="Q50" s="6"/>
-        <tr r="J38" s="6"/>
-        <tr r="H34" s="6"/>
-        <tr r="AD40" s="6"/>
-        <tr r="AB48" s="6"/>
-        <tr r="AB45" s="6"/>
-        <tr r="AF53" s="6"/>
-        <tr r="K49" s="6"/>
         <tr r="H39" s="6"/>
-        <tr r="AC46" s="6"/>
-        <tr r="AG33" s="6"/>
-        <tr r="R47" s="6"/>
-        <tr r="N36" s="6"/>
-        <tr r="AH48" s="6"/>
-        <tr r="O40" s="6"/>
-        <tr r="G41" s="6"/>
         <tr r="U45" s="6"/>
-        <tr r="L53" s="6"/>
-        <tr r="V37" s="6"/>
-        <tr r="W36" s="6"/>
-        <tr r="U33" s="6"/>
-        <tr r="O39" s="6"/>
-        <tr r="F38" s="6"/>
-        <tr r="P43" s="6"/>
         <tr r="T36" s="6"/>
-        <tr r="K36" s="6"/>
-        <tr r="U52" s="6"/>
-        <tr r="P51" s="6"/>
-        <tr r="N40" s="6"/>
-        <tr r="R51" s="6"/>
-        <tr r="N37" s="6"/>
-        <tr r="AH41" s="6"/>
         <tr r="O50" s="6"/>
-        <tr r="X49" s="6"/>
-        <tr r="V35" s="6"/>
-        <tr r="AC50" s="6"/>
-        <tr r="AG46" s="6"/>
-        <tr r="J47" s="6"/>
-        <tr r="AC33" s="6"/>
-        <tr r="T41" s="6"/>
         <tr r="AF41" s="6"/>
-        <tr r="V42" s="6"/>
-        <tr r="E49" s="6"/>
-        <tr r="U39" s="6"/>
-        <tr r="F41" s="6"/>
-        <tr r="U50" s="6"/>
-        <tr r="U44" s="6"/>
-        <tr r="O37" s="6"/>
         <tr r="AA52" s="6"/>
-        <tr r="Z36" s="6"/>
-        <tr r="H48" s="6"/>
-        <tr r="H42" s="6"/>
-        <tr r="K39" s="6"/>
-        <tr r="H50" s="6"/>
-        <tr r="W37" s="6"/>
-        <tr r="Z37" s="6"/>
         <tr r="N39" s="6"/>
-        <tr r="M53" s="6"/>
-        <tr r="U37" s="6"/>
-        <tr r="AD34" s="6"/>
-        <tr r="F36" s="6"/>
-        <tr r="Q39" s="6"/>
-        <tr r="H51" s="6"/>
-        <tr r="AA42" s="6"/>
         <tr r="R42" s="6"/>
-        <tr r="Z44" s="6"/>
-        <tr r="AH50" s="6"/>
-        <tr r="Q38" s="6"/>
-        <tr r="AG43" s="6"/>
-        <tr r="H53" s="6"/>
-        <tr r="AG39" s="6"/>
-        <tr r="M48" s="6"/>
         <tr r="T34" s="6"/>
-        <tr r="AC49" s="6"/>
-        <tr r="R43" s="6"/>
-        <tr r="X48" s="6"/>
-        <tr r="X40" s="6"/>
-        <tr r="AA37" s="6"/>
-        <tr r="F39" s="6"/>
-        <tr r="M49" s="6"/>
         <tr r="R49" s="6"/>
-        <tr r="J36" s="6"/>
-        <tr r="AC39" s="6"/>
-        <tr r="Z45" s="6"/>
-        <tr r="Z46" s="6"/>
-        <tr r="K48" s="6"/>
-        <tr r="G44" s="6"/>
-        <tr r="P52" s="6"/>
         <tr r="I50" s="6"/>
-        <tr r="N49" s="6"/>
-        <tr r="AC35" s="6"/>
-        <tr r="W33" s="6"/>
-        <tr r="AB53" s="6"/>
-        <tr r="L50" s="6"/>
-        <tr r="O38" s="6"/>
-        <tr r="K41" s="6"/>
         <tr r="T45" s="6"/>
-        <tr r="AI41" s="6"/>
-        <tr r="Z35" s="6"/>
-        <tr r="AF36" s="6"/>
-        <tr r="AH51" s="6"/>
-        <tr r="AF49" s="6"/>
-        <tr r="L43" s="6"/>
-        <tr r="AB35" s="6"/>
         <tr r="T35" s="6"/>
-        <tr r="X50" s="6"/>
-        <tr r="R40" s="6"/>
-        <tr r="Y53" s="6"/>
-        <tr r="I40" s="6"/>
-        <tr r="G37" s="6"/>
-        <tr r="J40" s="6"/>
-        <tr r="Z40" s="6"/>
         <tr r="N51" s="6"/>
-        <tr r="K50" s="6"/>
-        <tr r="H38" s="6"/>
-        <tr r="AG35" s="6"/>
-        <tr r="F50" s="6"/>
-        <tr r="AE49" s="6"/>
-        <tr r="G46" s="6"/>
-        <tr r="R34" s="6"/>
         <tr r="AF34" s="6"/>
-        <tr r="V52" s="6"/>
-        <tr r="E35" s="6"/>
-        <tr r="AI40" s="6"/>
-        <tr r="F52" s="6"/>
-        <tr r="J49" s="6"/>
-        <tr r="F42" s="6"/>
-        <tr r="M40" s="6"/>
         <tr r="H36" s="6"/>
-        <tr r="S44" s="6"/>
-        <tr r="P40" s="6"/>
-        <tr r="M38" s="6"/>
-        <tr r="N50" s="6"/>
-        <tr r="Q33" s="6"/>
-        <tr r="AA47" s="6"/>
-        <tr r="L37" s="6"/>
         <tr r="AC47" s="6"/>
-        <tr r="I36" s="6"/>
-        <tr r="X43" s="6"/>
-        <tr r="AD37" s="6"/>
-        <tr r="O35" s="6"/>
-        <tr r="Y51" s="6"/>
-        <tr r="I51" s="6"/>
-        <tr r="F49" s="6"/>
         <tr r="F47" s="6"/>
-        <tr r="AE40" s="6"/>
-        <tr r="M41" s="6"/>
-        <tr r="X52" s="6"/>
-        <tr r="Y33" s="6"/>
-        <tr r="L38" s="6"/>
-        <tr r="I44" s="6"/>
-        <tr r="O41" s="6"/>
         <tr r="AF47" s="6"/>
-        <tr r="U51" s="6"/>
-        <tr r="AF42" s="6"/>
-        <tr r="H35" s="6"/>
-        <tr r="Y49" s="6"/>
-        <tr r="K45" s="6"/>
-        <tr r="AH40" s="6"/>
-        <tr r="J35" s="6"/>
         <tr r="L34" s="6"/>
-        <tr r="L36" s="6"/>
-        <tr r="Z41" s="6"/>
-        <tr r="F48" s="6"/>
-        <tr r="R53" s="6"/>
-        <tr r="Z49" s="6"/>
-        <tr r="G52" s="6"/>
-        <tr r="R41" s="6"/>
         <tr r="AA40" s="6"/>
-        <tr r="H37" s="6"/>
-        <tr r="AC36" s="6"/>
-        <tr r="AG50" s="6"/>
-        <tr r="T42" s="6"/>
-        <tr r="N52" s="6"/>
-        <tr r="AI47" s="6"/>
-        <tr r="H45" s="6"/>
         <tr r="F45" s="6"/>
-        <tr r="Q41" s="6"/>
-        <tr r="X51" s="6"/>
-        <tr r="AB39" s="6"/>
-        <tr r="AB42" s="6"/>
-        <tr r="R52" s="6"/>
-        <tr r="AD41" s="6"/>
-        <tr r="G53" s="6"/>
         <tr r="E53" s="6"/>
-        <tr r="AG34" s="6"/>
-        <tr r="S48" s="6"/>
-        <tr r="M47" s="6"/>
-        <tr r="K52" s="6"/>
-        <tr r="G42" s="6"/>
-        <tr r="AI42" s="6"/>
-        <tr r="AI48" s="6"/>
         <tr r="AH38" s="6"/>
-        <tr r="AA44" s="6"/>
-        <tr r="X34" s="6"/>
-        <tr r="V39" s="6"/>
-        <tr r="Y41" s="6"/>
-        <tr r="AH42" s="6"/>
-        <tr r="O34" s="6"/>
-        <tr r="AH46" s="6"/>
         <tr r="O49" s="6"/>
-        <tr r="N35" s="6"/>
-        <tr r="J34" s="6"/>
-        <tr r="AG49" s="6"/>
-        <tr r="O48" s="6"/>
-        <tr r="Y38" s="6"/>
-        <tr r="W47" s="6"/>
-        <tr r="N46" s="6"/>
         <tr r="Q43" s="6"/>
-        <tr r="Z51" s="6"/>
-        <tr r="AH36" s="6"/>
-        <tr r="AA41" s="6"/>
-        <tr r="Q44" s="6"/>
-        <tr r="AE44" s="6"/>
-        <tr r="AA46" s="6"/>
-        <tr r="W43" s="6"/>
         <tr r="N45" s="6"/>
-        <tr r="P39" s="6"/>
-        <tr r="AD43" s="6"/>
-        <tr r="L47" s="6"/>
-        <tr r="AD53" s="6"/>
-        <tr r="K40" s="6"/>
-        <tr r="E41" s="6"/>
-        <tr r="X47" s="6"/>
         <tr r="AH52" s="6"/>
-        <tr r="AE42" s="6"/>
-        <tr r="S40" s="6"/>
-        <tr r="E52" s="6"/>
-        <tr r="W44" s="6"/>
-        <tr r="O52" s="6"/>
-        <tr r="W51" s="6"/>
-        <tr r="F44" s="6"/>
         <tr r="AB50" s="6"/>
-        <tr r="S41" s="6"/>
-        <tr r="L44" s="6"/>
-        <tr r="M33" s="6"/>
-        <tr r="L45" s="6"/>
-        <tr r="Z34" s="6"/>
-        <tr r="AD42" s="6"/>
-        <tr r="I52" s="6"/>
         <tr r="E47" s="6"/>
-        <tr r="E45" s="6"/>
-        <tr r="V51" s="6"/>
-        <tr r="G51" s="6"/>
-        <tr r="P35" s="6"/>
-        <tr r="W41" s="6"/>
-        <tr r="K44" s="6"/>
-        <tr r="J43" s="6"/>
         <tr r="X39" s="6"/>
-        <tr r="AA34" s="6"/>
-        <tr r="P36" s="6"/>
-        <tr r="H49" s="6"/>
-        <tr r="J41" s="6"/>
-        <tr r="N48" s="6"/>
-        <tr r="AG41" s="6"/>
-        <tr r="R44" s="6"/>
         <tr r="E34" s="6"/>
-        <tr r="V40" s="6"/>
-        <tr r="Y34" s="6"/>
-        <tr r="AC53" s="6"/>
-        <tr r="I43" s="6"/>
-        <tr r="AG37" s="6"/>
-        <tr r="AB46" s="6"/>
-        <tr r="E38" s="6"/>
         <tr r="Y35" s="6"/>
-        <tr r="W35" s="6"/>
-        <tr r="S50" s="6"/>
-        <tr r="AH47" s="6"/>
-        <tr r="AC45" s="6"/>
-        <tr r="AB34" s="6"/>
-        <tr r="AC42" s="6"/>
-        <tr r="K35" s="6"/>
         <tr r="AA53" s="6"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>329b04d4-0a0a-4258-b514-bd2318d61604</stp>
-        <tr r="J52" s="9"/>
-        <tr r="I54" s="9"/>
-        <tr r="G56" s="9"/>
-        <tr r="G55" s="9"/>
-        <tr r="J60" s="9"/>
-        <tr r="F53" s="9"/>
-        <tr r="I60" s="9"/>
-        <tr r="H57" s="9"/>
-        <tr r="I58" s="9"/>
-        <tr r="H51" s="9"/>
-        <tr r="H60" s="9"/>
-        <tr r="F56" s="9"/>
-        <tr r="J59" s="9"/>
-        <tr r="F52" s="9"/>
-        <tr r="I53" s="9"/>
-        <tr r="G52" s="9"/>
-        <tr r="H54" s="9"/>
-        <tr r="I51" s="9"/>
-        <tr r="F59" s="9"/>
-        <tr r="I59" s="9"/>
-        <tr r="I56" s="9"/>
-        <tr r="J51" s="9"/>
-        <tr r="F51" s="9"/>
-        <tr r="F55" s="9"/>
-        <tr r="H56" s="9"/>
-        <tr r="H58" s="9"/>
-        <tr r="J53" s="9"/>
-        <tr r="G54" s="9"/>
-        <tr r="F60" s="9"/>
-        <tr r="G51" s="9"/>
-        <tr r="I55" s="9"/>
-        <tr r="F58" s="9"/>
-        <tr r="I52" s="9"/>
-        <tr r="H53" s="9"/>
-        <tr r="F61" s="9"/>
-        <tr r="J55" s="9"/>
-        <tr r="G60" s="9"/>
-        <tr r="G58" s="9"/>
-        <tr r="J61" s="9"/>
-        <tr r="H59" s="9"/>
-        <tr r="G59" s="9"/>
-        <tr r="J56" s="9"/>
-        <tr r="J54" s="9"/>
-        <tr r="J58" s="9"/>
-        <tr r="I57" s="9"/>
-        <tr r="H61" s="9"/>
-        <tr r="G61" s="9"/>
-        <tr r="G53" s="9"/>
-        <tr r="J57" s="9"/>
-        <tr r="I61" s="9"/>
-        <tr r="F54" s="9"/>
-        <tr r="G57" s="9"/>
-        <tr r="H52" s="9"/>
-        <tr r="H55" s="9"/>
-        <tr r="F57" s="9"/>
+        <stp>0f9eeefa-9a1a-496f-97d9-f1c16b823803</stp>
+        <tr r="O35" s="8"/>
+        <tr r="R33" s="8"/>
+        <tr r="P48" s="8"/>
+        <tr r="P33" s="8"/>
+        <tr r="O47" s="8"/>
+        <tr r="P43" s="8"/>
+        <tr r="O41" s="8"/>
+        <tr r="N41" s="8"/>
+        <tr r="N45" s="8"/>
+        <tr r="P34" s="8"/>
+        <tr r="R35" s="8"/>
+        <tr r="Q41" s="8"/>
+        <tr r="R50" s="8"/>
+        <tr r="P32" s="8"/>
+        <tr r="Q42" s="8"/>
+        <tr r="R39" s="8"/>
+        <tr r="P51" s="8"/>
+        <tr r="N47" s="8"/>
+        <tr r="R47" s="8"/>
+        <tr r="O44" s="8"/>
+        <tr r="Q48" s="8"/>
+        <tr r="N33" s="8"/>
+        <tr r="R44" s="8"/>
+        <tr r="Q33" s="8"/>
+        <tr r="N50" s="8"/>
+        <tr r="N32" s="8"/>
+        <tr r="O33" s="8"/>
+        <tr r="P50" s="8"/>
+        <tr r="R40" s="8"/>
+        <tr r="O51" s="8"/>
+        <tr r="N42" s="8"/>
+        <tr r="Q37" s="8"/>
+        <tr r="O45" s="8"/>
+        <tr r="N44" s="8"/>
+        <tr r="Q43" s="8"/>
+        <tr r="P39" s="8"/>
+        <tr r="Q49" s="8"/>
+        <tr r="O40" s="8"/>
+        <tr r="O32" s="8"/>
+        <tr r="P44" s="8"/>
+        <tr r="R46" s="8"/>
+        <tr r="N35" s="8"/>
+        <tr r="Q50" s="8"/>
+        <tr r="P35" s="8"/>
+        <tr r="N31" s="8"/>
+        <tr r="Q51" s="8"/>
+        <tr r="Q34" s="8"/>
+        <tr r="N46" s="8"/>
+        <tr r="R36" s="8"/>
+        <tr r="R43" s="8"/>
+        <tr r="Q47" s="8"/>
+        <tr r="R42" s="8"/>
+        <tr r="O43" s="8"/>
+        <tr r="O46" s="8"/>
+        <tr r="R32" s="8"/>
+        <tr r="R41" s="8"/>
+        <tr r="P41" s="8"/>
+        <tr r="R51" s="8"/>
+        <tr r="O34" s="8"/>
+        <tr r="R45" s="8"/>
+        <tr r="Q31" s="8"/>
+        <tr r="P42" s="8"/>
+        <tr r="O42" s="8"/>
+        <tr r="O38" s="8"/>
+        <tr r="N48" s="8"/>
+        <tr r="P31" s="8"/>
+        <tr r="Q32" s="8"/>
+        <tr r="N38" s="8"/>
+        <tr r="R49" s="8"/>
+        <tr r="P46" s="8"/>
+        <tr r="Q39" s="8"/>
+        <tr r="P38" s="8"/>
+        <tr r="O48" s="8"/>
+        <tr r="N34" s="8"/>
+        <tr r="R48" s="8"/>
+        <tr r="O31" s="8"/>
+        <tr r="P45" s="8"/>
+        <tr r="P37" s="8"/>
+        <tr r="O37" s="8"/>
+        <tr r="N39" s="8"/>
+        <tr r="P40" s="8"/>
+        <tr r="P49" s="8"/>
+        <tr r="Q44" s="8"/>
+        <tr r="Q40" s="8"/>
+        <tr r="Q46" s="8"/>
+        <tr r="R31" s="8"/>
+        <tr r="N49" s="8"/>
+        <tr r="P36" s="8"/>
+        <tr r="Q35" s="8"/>
+        <tr r="Q45" s="8"/>
+        <tr r="N36" s="8"/>
+        <tr r="O36" s="8"/>
+        <tr r="N40" s="8"/>
+        <tr r="Q36" s="8"/>
+        <tr r="N43" s="8"/>
+        <tr r="R34" s="8"/>
+        <tr r="O39" s="8"/>
+        <tr r="N51" s="8"/>
+        <tr r="P47" s="8"/>
+        <tr r="N37" s="8"/>
+        <tr r="O49" s="8"/>
+        <tr r="Q38" s="8"/>
+        <tr r="R37" s="8"/>
+        <tr r="O50" s="8"/>
+        <tr r="R38" s="8"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.06c7f756d18f45788a0e75699d42f1a3">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>ddb726ef-b82c-4e31-a804-cb66f9e42796</stp>
+        <tr r="H50" s="14"/>
+        <tr r="K51" s="14"/>
+        <tr r="F51" s="14"/>
+        <tr r="E51" s="14"/>
+        <tr r="E50" s="14"/>
+        <tr r="I51" s="14"/>
+        <tr r="K50" s="14"/>
+        <tr r="J51" s="14"/>
+        <tr r="J50" s="14"/>
+        <tr r="G50" s="14"/>
+        <tr r="H51" s="14"/>
+        <tr r="I50" s="14"/>
+        <tr r="G51" s="14"/>
+        <tr r="F50" s="14"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>860ac249-b047-49a2-b2b5-35f1cccc855c</stp>
+        <stp>f8484842-7ad9-4027-b6da-787598492819</stp>
+        <tr r="S72" s="6"/>
+        <tr r="E70" s="6"/>
+        <tr r="G77" s="6"/>
+        <tr r="Q72" s="6"/>
+        <tr r="O64" s="6"/>
+        <tr r="I62" s="6"/>
+        <tr r="I68" s="6"/>
+        <tr r="L75" s="6"/>
+        <tr r="E80" s="6"/>
+        <tr r="M66" s="6"/>
+        <tr r="M64" s="6"/>
+        <tr r="K64" s="6"/>
+        <tr r="G80" s="6"/>
+        <tr r="S76" s="6"/>
+        <tr r="E78" s="6"/>
+        <tr r="S74" s="6"/>
+        <tr r="R74" s="6"/>
+        <tr r="R78" s="6"/>
+        <tr r="I79" s="6"/>
+        <tr r="E63" s="6"/>
+        <tr r="K79" s="6"/>
+        <tr r="L80" s="6"/>
+        <tr r="S62" s="6"/>
+        <tr r="M81" s="6"/>
+        <tr r="G69" s="6"/>
+        <tr r="M65" s="6"/>
+        <tr r="S78" s="6"/>
+        <tr r="F68" s="6"/>
+        <tr r="E72" s="6"/>
+        <tr r="P78" s="6"/>
+        <tr r="M73" s="6"/>
+        <tr r="K68" s="6"/>
+        <tr r="S81" s="6"/>
+        <tr r="P66" s="6"/>
+        <tr r="J71" s="6"/>
+        <tr r="M71" s="6"/>
+        <tr r="R77" s="6"/>
+        <tr r="O62" s="6"/>
+        <tr r="S69" s="6"/>
+        <tr r="N75" s="6"/>
+        <tr r="O79" s="6"/>
+        <tr r="N62" s="6"/>
+        <tr r="O76" s="6"/>
+        <tr r="H65" s="6"/>
+        <tr r="N66" s="6"/>
+        <tr r="G67" s="6"/>
+        <tr r="Q62" s="6"/>
+        <tr r="L79" s="6"/>
+        <tr r="H74" s="6"/>
+        <tr r="P63" s="6"/>
+        <tr r="M69" s="6"/>
+        <tr r="N71" s="6"/>
+        <tr r="O66" s="6"/>
+        <tr r="H71" s="6"/>
+        <tr r="S67" s="6"/>
+        <tr r="K65" s="6"/>
+        <tr r="R80" s="6"/>
+        <tr r="L71" s="6"/>
+        <tr r="M63" s="6"/>
+        <tr r="Q64" s="6"/>
+        <tr r="H69" s="6"/>
+        <tr r="P73" s="6"/>
+        <tr r="G78" s="6"/>
+        <tr r="K72" s="6"/>
+        <tr r="L70" s="6"/>
+        <tr r="M80" s="6"/>
+        <tr r="O77" s="6"/>
+        <tr r="F66" s="6"/>
+        <tr r="K69" s="6"/>
+        <tr r="K75" s="6"/>
+        <tr r="P79" s="6"/>
+        <tr r="I66" s="6"/>
+        <tr r="G72" s="6"/>
+        <tr r="S68" s="6"/>
+        <tr r="Q69" s="6"/>
+        <tr r="L76" s="6"/>
+        <tr r="F70" s="6"/>
+        <tr r="P80" s="6"/>
+        <tr r="S79" s="6"/>
+        <tr r="F64" s="6"/>
+        <tr r="K76" s="6"/>
+        <tr r="R71" s="6"/>
+        <tr r="N70" s="6"/>
+        <tr r="G70" s="6"/>
+        <tr r="R62" s="6"/>
+        <tr r="K78" s="6"/>
+        <tr r="L69" s="6"/>
+        <tr r="P76" s="6"/>
+        <tr r="S64" s="6"/>
+        <tr r="Q76" s="6"/>
+        <tr r="L66" s="6"/>
+        <tr r="P65" s="6"/>
+        <tr r="R72" s="6"/>
+        <tr r="H77" s="6"/>
+        <tr r="Q66" s="6"/>
+        <tr r="Q71" s="6"/>
+        <tr r="Q75" s="6"/>
+        <tr r="N72" s="6"/>
+        <tr r="E74" s="6"/>
+        <tr r="R67" s="6"/>
+        <tr r="N69" s="6"/>
+        <tr r="N73" s="6"/>
+        <tr r="E77" s="6"/>
+        <tr r="L62" s="6"/>
+        <tr r="P68" s="6"/>
+        <tr r="E65" s="6"/>
+        <tr r="O71" s="6"/>
+        <tr r="R69" s="6"/>
+        <tr r="H68" s="6"/>
+        <tr r="I69" s="6"/>
+        <tr r="F72" s="6"/>
+        <tr r="K63" s="6"/>
+        <tr r="L64" s="6"/>
+        <tr r="R68" s="6"/>
+        <tr r="I75" s="6"/>
+        <tr r="E62" s="6"/>
+        <tr r="R64" s="6"/>
+        <tr r="E64" s="6"/>
+        <tr r="N68" s="6"/>
+        <tr r="J66" s="6"/>
+        <tr r="F76" s="6"/>
+        <tr r="O78" s="6"/>
+        <tr r="I76" s="6"/>
+        <tr r="R79" s="6"/>
+        <tr r="J76" s="6"/>
+        <tr r="I78" s="6"/>
+        <tr r="H78" s="6"/>
+        <tr r="E69" s="6"/>
+        <tr r="I72" s="6"/>
+        <tr r="Q65" s="6"/>
+        <tr r="L73" s="6"/>
+        <tr r="F69" s="6"/>
+        <tr r="N63" s="6"/>
+        <tr r="Q74" s="6"/>
+        <tr r="G75" s="6"/>
+        <tr r="K81" s="6"/>
+        <tr r="G63" s="6"/>
+        <tr r="P71" s="6"/>
+        <tr r="I71" s="6"/>
+        <tr r="H72" s="6"/>
+        <tr r="G73" s="6"/>
+        <tr r="I65" s="6"/>
+        <tr r="O65" s="6"/>
+        <tr r="H67" s="6"/>
+        <tr r="O72" s="6"/>
+        <tr r="E81" s="6"/>
+        <tr r="H63" s="6"/>
+        <tr r="S65" s="6"/>
+        <tr r="K77" s="6"/>
+        <tr r="O68" s="6"/>
+        <tr r="G64" s="6"/>
+        <tr r="P64" s="6"/>
+        <tr r="N80" s="6"/>
+        <tr r="J81" s="6"/>
+        <tr r="M62" s="6"/>
+        <tr r="G66" s="6"/>
+        <tr r="R63" s="6"/>
+        <tr r="R65" s="6"/>
+        <tr r="M72" s="6"/>
+        <tr r="M76" s="6"/>
+        <tr r="J63" s="6"/>
+        <tr r="H73" s="6"/>
+        <tr r="M78" s="6"/>
+        <tr r="N77" s="6"/>
+        <tr r="S63" s="6"/>
+        <tr r="P81" s="6"/>
+        <tr r="S73" s="6"/>
+        <tr r="J68" s="6"/>
+        <tr r="L65" s="6"/>
+        <tr r="F75" s="6"/>
+        <tr r="S80" s="6"/>
+        <tr r="E75" s="6"/>
+        <tr r="I73" s="6"/>
+        <tr r="P67" s="6"/>
+        <tr r="R81" s="6"/>
+        <tr r="F78" s="6"/>
+        <tr r="H64" s="6"/>
+        <tr r="M70" s="6"/>
+        <tr r="G79" s="6"/>
+        <tr r="H81" s="6"/>
+        <tr r="E68" s="6"/>
+        <tr r="Q79" s="6"/>
+        <tr r="Q73" s="6"/>
+        <tr r="J69" s="6"/>
+        <tr r="J72" s="6"/>
+        <tr r="L81" s="6"/>
+        <tr r="E67" s="6"/>
+        <tr r="I67" s="6"/>
+        <tr r="R75" s="6"/>
+        <tr r="J78" s="6"/>
+        <tr r="L68" s="6"/>
+        <tr r="E73" s="6"/>
+        <tr r="P72" s="6"/>
+        <tr r="G74" s="6"/>
+        <tr r="O75" s="6"/>
+        <tr r="I74" s="6"/>
+        <tr r="P74" s="6"/>
+        <tr r="M77" s="6"/>
+        <tr r="N79" s="6"/>
+        <tr r="F65" s="6"/>
+        <tr r="K62" s="6"/>
+        <tr r="G76" s="6"/>
+        <tr r="N78" s="6"/>
+        <tr r="M67" s="6"/>
+        <tr r="K70" s="6"/>
+        <tr r="O67" s="6"/>
+        <tr r="O74" s="6"/>
+        <tr r="J73" s="6"/>
+        <tr r="K66" s="6"/>
+        <tr r="I64" s="6"/>
+        <tr r="G65" s="6"/>
+        <tr r="H75" s="6"/>
+        <tr r="G81" s="6"/>
+        <tr r="K73" s="6"/>
+        <tr r="Q68" s="6"/>
+        <tr r="R73" s="6"/>
+        <tr r="I70" s="6"/>
+        <tr r="P77" s="6"/>
+        <tr r="N67" s="6"/>
+        <tr r="F79" s="6"/>
+        <tr r="Q63" s="6"/>
+        <tr r="Q78" s="6"/>
+        <tr r="L74" s="6"/>
+        <tr r="L77" s="6"/>
+        <tr r="H70" s="6"/>
+        <tr r="Q80" s="6"/>
+        <tr r="E66" s="6"/>
+        <tr r="I81" s="6"/>
+        <tr r="O69" s="6"/>
+        <tr r="F67" s="6"/>
+        <tr r="S70" s="6"/>
+        <tr r="F63" s="6"/>
+        <tr r="N74" s="6"/>
+        <tr r="F71" s="6"/>
+        <tr r="Q70" s="6"/>
+        <tr r="J77" s="6"/>
+        <tr r="P69" s="6"/>
+        <tr r="K67" s="6"/>
+        <tr r="O63" s="6"/>
+        <tr r="J70" s="6"/>
+        <tr r="F77" s="6"/>
+        <tr r="P62" s="6"/>
+        <tr r="H80" s="6"/>
+        <tr r="J75" s="6"/>
+        <tr r="E79" s="6"/>
+        <tr r="G68" s="6"/>
+        <tr r="F74" s="6"/>
+        <tr r="J79" s="6"/>
+        <tr r="H76" s="6"/>
+        <tr r="F73" s="6"/>
+        <tr r="I80" s="6"/>
+        <tr r="F80" s="6"/>
+        <tr r="N65" s="6"/>
+        <tr r="O80" s="6"/>
+        <tr r="K71" s="6"/>
+        <tr r="L63" s="6"/>
+        <tr r="E71" s="6"/>
+        <tr r="F81" s="6"/>
+        <tr r="L72" s="6"/>
+        <tr r="I77" s="6"/>
+        <tr r="Q81" s="6"/>
+        <tr r="R66" s="6"/>
         <tr r="F62" s="6"/>
-        <tr r="H68" s="6"/>
-        <tr r="E65" s="6"/>
-        <tr r="P78" s="6"/>
-        <tr r="P66" s="6"/>
-        <tr r="P64" s="6"/>
-        <tr r="Q73" s="6"/>
-        <tr r="G65" s="6"/>
         <tr r="N64" s="6"/>
-        <tr r="R80" s="6"/>
-        <tr r="O76" s="6"/>
-        <tr r="L76" s="6"/>
-        <tr r="L80" s="6"/>
-        <tr r="N80" s="6"/>
-        <tr r="J69" s="6"/>
-        <tr r="L72" s="6"/>
         <tr r="O81" s="6"/>
-        <tr r="P68" s="6"/>
-        <tr r="G69" s="6"/>
-        <tr r="P63" s="6"/>
-        <tr r="R64" s="6"/>
-        <tr r="J81" s="6"/>
-        <tr r="F73" s="6"/>
-        <tr r="H75" s="6"/>
         <tr r="J80" s="6"/>
-        <tr r="M64" s="6"/>
-        <tr r="R77" s="6"/>
-        <tr r="L70" s="6"/>
-        <tr r="E64" s="6"/>
-        <tr r="M62" s="6"/>
-        <tr r="J72" s="6"/>
-        <tr r="G81" s="6"/>
         <tr r="S77" s="6"/>
-        <tr r="F70" s="6"/>
-        <tr r="R69" s="6"/>
-        <tr r="Q62" s="6"/>
-        <tr r="N68" s="6"/>
-        <tr r="G66" s="6"/>
-        <tr r="L81" s="6"/>
-        <tr r="K73" s="6"/>
         <tr r="J67" s="6"/>
-        <tr r="F72" s="6"/>
-        <tr r="I68" s="6"/>
-        <tr r="S67" s="6"/>
-        <tr r="J66" s="6"/>
-        <tr r="R63" s="6"/>
-        <tr r="E67" s="6"/>
-        <tr r="I77" s="6"/>
         <tr r="Q67" s="6"/>
-        <tr r="L71" s="6"/>
-        <tr r="M80" s="6"/>
-        <tr r="P80" s="6"/>
-        <tr r="F76" s="6"/>
-        <tr r="R65" s="6"/>
-        <tr r="I80" s="6"/>
-        <tr r="Q68" s="6"/>
         <tr r="J65" s="6"/>
-        <tr r="Q76" s="6"/>
-        <tr r="E70" s="6"/>
-        <tr r="Q72" s="6"/>
-        <tr r="O78" s="6"/>
-        <tr r="M72" s="6"/>
-        <tr r="I67" s="6"/>
-        <tr r="R73" s="6"/>
         <tr r="G71" s="6"/>
-        <tr r="M73" s="6"/>
-        <tr r="J71" s="6"/>
-        <tr r="O62" s="6"/>
-        <tr r="I76" s="6"/>
-        <tr r="M76" s="6"/>
-        <tr r="R75" s="6"/>
-        <tr r="I70" s="6"/>
         <tr r="K80" s="6"/>
-        <tr r="O77" s="6"/>
-        <tr r="S79" s="6"/>
-        <tr r="S72" s="6"/>
-        <tr r="R79" s="6"/>
-        <tr r="J63" s="6"/>
-        <tr r="J78" s="6"/>
-        <tr r="Q81" s="6"/>
         <tr r="H66" s="6"/>
-        <tr r="N72" s="6"/>
-        <tr r="K63" s="6"/>
-        <tr r="I75" s="6"/>
-        <tr r="J76" s="6"/>
-        <tr r="H73" s="6"/>
-        <tr r="F80" s="6"/>
-        <tr r="P77" s="6"/>
         <tr r="L67" s="6"/>
-        <tr r="K64" s="6"/>
-        <tr r="M63" s="6"/>
-        <tr r="F66" s="6"/>
-        <tr r="I78" s="6"/>
-        <tr r="M78" s="6"/>
-        <tr r="L68" s="6"/>
-        <tr r="N67" s="6"/>
         <tr r="S71" s="6"/>
-        <tr r="F64" s="6"/>
-        <tr r="L62" s="6"/>
-        <tr r="K79" s="6"/>
-        <tr r="H78" s="6"/>
-        <tr r="N77" s="6"/>
-        <tr r="E73" s="6"/>
-        <tr r="F79" s="6"/>
         <tr r="N81" s="6"/>
-        <tr r="M65" s="6"/>
-        <tr r="L75" s="6"/>
-        <tr r="K65" s="6"/>
-        <tr r="E69" s="6"/>
-        <tr r="J75" s="6"/>
-        <tr r="P72" s="6"/>
-        <tr r="Q63" s="6"/>
         <tr r="O73" s="6"/>
-        <tr r="S69" s="6"/>
-        <tr r="H65" s="6"/>
-        <tr r="K76" s="6"/>
-        <tr r="I72" s="6"/>
-        <tr r="S63" s="6"/>
-        <tr r="N65" s="6"/>
-        <tr r="Q78" s="6"/>
         <tr r="J64" s="6"/>
-        <tr r="G67" s="6"/>
-        <tr r="M81" s="6"/>
-        <tr r="H74" s="6"/>
-        <tr r="Q65" s="6"/>
-        <tr r="P81" s="6"/>
-        <tr r="G74" s="6"/>
-        <tr r="R66" s="6"/>
         <tr r="G62" s="6"/>
-        <tr r="M69" s="6"/>
-        <tr r="M71" s="6"/>
-        <tr r="Q64" s="6"/>
-        <tr r="L73" s="6"/>
-        <tr r="S73" s="6"/>
-        <tr r="O75" s="6"/>
-        <tr r="L74" s="6"/>
         <tr r="S75" s="6"/>
-        <tr r="K69" s="6"/>
-        <tr r="R71" s="6"/>
-        <tr r="S62" s="6"/>
-        <tr r="F69" s="6"/>
-        <tr r="E79" s="6"/>
-        <tr r="I74" s="6"/>
-        <tr r="L77" s="6"/>
         <tr r="J74" s="6"/>
-        <tr r="I69" s="6"/>
-        <tr r="O64" s="6"/>
-        <tr r="K68" s="6"/>
-        <tr r="N63" s="6"/>
-        <tr r="J68" s="6"/>
-        <tr r="O80" s="6"/>
-        <tr r="H70" s="6"/>
         <tr r="K74" s="6"/>
-        <tr r="G80" s="6"/>
-        <tr r="N75" s="6"/>
-        <tr r="K75" s="6"/>
-        <tr r="Q74" s="6"/>
-        <tr r="L65" s="6"/>
-        <tr r="P74" s="6"/>
-        <tr r="Q80" s="6"/>
         <tr r="M74" s="6"/>
-        <tr r="N70" s="6"/>
-        <tr r="L66" s="6"/>
-        <tr r="G77" s="6"/>
-        <tr r="G75" s="6"/>
-        <tr r="F75" s="6"/>
-        <tr r="M77" s="6"/>
-        <tr r="E66" s="6"/>
         <tr r="H79" s="6"/>
-        <tr r="S78" s="6"/>
-        <tr r="N71" s="6"/>
-        <tr r="S76" s="6"/>
-        <tr r="K81" s="6"/>
-        <tr r="S80" s="6"/>
-        <tr r="N79" s="6"/>
-        <tr r="I81" s="6"/>
         <tr r="O70" s="6"/>
-        <tr r="H69" s="6"/>
-        <tr r="P79" s="6"/>
-        <tr r="G70" s="6"/>
-        <tr r="G63" s="6"/>
-        <tr r="G68" s="6"/>
-        <tr r="K71" s="6"/>
-        <tr r="O69" s="6"/>
         <tr r="M68" s="6"/>
-        <tr r="P65" s="6"/>
-        <tr r="L79" s="6"/>
-        <tr r="L64" s="6"/>
-        <tr r="P71" s="6"/>
-        <tr r="E75" s="6"/>
-        <tr r="F65" s="6"/>
-        <tr r="F67" s="6"/>
         <tr r="J62" s="6"/>
-        <tr r="E80" s="6"/>
-        <tr r="E78" s="6"/>
-        <tr r="O79" s="6"/>
-        <tr r="I71" s="6"/>
-        <tr r="I73" s="6"/>
-        <tr r="K62" s="6"/>
-        <tr r="S70" s="6"/>
         <tr r="P75" s="6"/>
-        <tr r="I66" s="6"/>
-        <tr r="R62" s="6"/>
-        <tr r="R72" s="6"/>
-        <tr r="H72" s="6"/>
-        <tr r="P67" s="6"/>
-        <tr r="G76" s="6"/>
-        <tr r="F63" s="6"/>
         <tr r="S66" s="6"/>
-        <tr r="E74" s="6"/>
-        <tr r="F68" s="6"/>
-        <tr r="O66" s="6"/>
-        <tr r="G73" s="6"/>
-        <tr r="F74" s="6"/>
-        <tr r="N78" s="6"/>
-        <tr r="N74" s="6"/>
         <tr r="N76" s="6"/>
-        <tr r="S74" s="6"/>
-        <tr r="P73" s="6"/>
-        <tr r="G72" s="6"/>
-        <tr r="I65" s="6"/>
-        <tr r="R81" s="6"/>
-        <tr r="L63" s="6"/>
-        <tr r="F71" s="6"/>
         <tr r="H62" s="6"/>
-        <tr r="K78" s="6"/>
-        <tr r="H77" s="6"/>
-        <tr r="R67" s="6"/>
-        <tr r="O65" s="6"/>
-        <tr r="F78" s="6"/>
-        <tr r="M67" s="6"/>
-        <tr r="Q70" s="6"/>
         <tr r="L78" s="6"/>
-        <tr r="I62" s="6"/>
-        <tr r="M66" s="6"/>
-        <tr r="R74" s="6"/>
-        <tr r="H67" s="6"/>
-        <tr r="H64" s="6"/>
-        <tr r="K70" s="6"/>
-        <tr r="J77" s="6"/>
         <tr r="R70" s="6"/>
-        <tr r="G78" s="6"/>
-        <tr r="S68" s="6"/>
-        <tr r="L69" s="6"/>
-        <tr r="O72" s="6"/>
-        <tr r="J79" s="6"/>
-        <tr r="O67" s="6"/>
-        <tr r="P69" s="6"/>
         <tr r="M79" s="6"/>
-        <tr r="Q66" s="6"/>
-        <tr r="N69" s="6"/>
-        <tr r="R68" s="6"/>
-        <tr r="E81" s="6"/>
-        <tr r="M70" s="6"/>
-        <tr r="E71" s="6"/>
-        <tr r="K67" s="6"/>
         <tr r="I63" s="6"/>
-        <tr r="E62" s="6"/>
-        <tr r="R78" s="6"/>
-        <tr r="N62" s="6"/>
-        <tr r="H63" s="6"/>
-        <tr r="G79" s="6"/>
-        <tr r="O74" s="6"/>
-        <tr r="O63" s="6"/>
         <tr r="E76" s="6"/>
-        <tr r="Q69" s="6"/>
-        <tr r="P76" s="6"/>
-        <tr r="Q71" s="6"/>
-        <tr r="S65" s="6"/>
-        <tr r="H81" s="6"/>
-        <tr r="J73" s="6"/>
-        <tr r="J70" s="6"/>
         <tr r="R76" s="6"/>
-        <tr r="N73" s="6"/>
-        <tr r="O71" s="6"/>
-        <tr r="S81" s="6"/>
-        <tr r="K77" s="6"/>
-        <tr r="E68" s="6"/>
-        <tr r="K66" s="6"/>
-        <tr r="F77" s="6"/>
         <tr r="Q77" s="6"/>
-        <tr r="I79" s="6"/>
-        <tr r="K72" s="6"/>
-        <tr r="N66" s="6"/>
-        <tr r="O68" s="6"/>
-        <tr r="H76" s="6"/>
-        <tr r="F81" s="6"/>
-        <tr r="P62" s="6"/>
         <tr r="P70" s="6"/>
-        <tr r="S64" s="6"/>
-        <tr r="Q75" s="6"/>
-        <tr r="E77" s="6"/>
-        <tr r="G64" s="6"/>
-        <tr r="Q79" s="6"/>
-        <tr r="I64" s="6"/>
-        <tr r="H80" s="6"/>
         <tr r="M75" s="6"/>
-        <tr r="E72" s="6"/>
-        <tr r="H71" s="6"/>
-        <tr r="E63" s="6"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.06c7f756d18f45788a0e75699d42f1a3">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>da01e46c-499e-42d1-b3e8-52df839240b8</stp>
+        <tr r="M31" s="5"/>
+        <tr r="M35" s="5"/>
+        <tr r="I29" s="5"/>
+        <tr r="K35" s="5"/>
+        <tr r="G35" s="5"/>
+        <tr r="I30" s="5"/>
+        <tr r="E29" s="5"/>
+        <tr r="J29" s="5"/>
+        <tr r="K30" s="5"/>
+        <tr r="J31" s="5"/>
+        <tr r="I33" s="5"/>
+        <tr r="M33" s="5"/>
+        <tr r="G29" s="5"/>
+        <tr r="F30" s="5"/>
+        <tr r="E35" s="5"/>
+        <tr r="F35" s="5"/>
+        <tr r="K29" s="5"/>
+        <tr r="J35" s="5"/>
+        <tr r="G30" s="5"/>
+        <tr r="L35" s="5"/>
+        <tr r="L32" s="5"/>
+        <tr r="K32" s="5"/>
+        <tr r="J34" s="5"/>
+        <tr r="E30" s="5"/>
+        <tr r="K34" s="5"/>
+        <tr r="H31" s="5"/>
+        <tr r="H35" s="5"/>
+        <tr r="J33" s="5"/>
+        <tr r="G31" s="5"/>
+        <tr r="M32" s="5"/>
+        <tr r="H33" s="5"/>
+        <tr r="H29" s="5"/>
+        <tr r="E32" s="5"/>
+        <tr r="L34" s="5"/>
+        <tr r="I32" s="5"/>
+        <tr r="L31" s="5"/>
+        <tr r="M34" s="5"/>
+        <tr r="H30" s="5"/>
+        <tr r="F34" s="5"/>
+        <tr r="K31" s="5"/>
+        <tr r="F29" s="5"/>
+        <tr r="L33" s="5"/>
+        <tr r="F32" s="5"/>
+        <tr r="I34" s="5"/>
+        <tr r="H34" s="5"/>
+        <tr r="G32" s="5"/>
+        <tr r="J32" s="5"/>
+        <tr r="E34" s="5"/>
+        <tr r="L30" s="5"/>
+        <tr r="L29" s="5"/>
+        <tr r="H32" s="5"/>
+        <tr r="I35" s="5"/>
+        <tr r="G33" s="5"/>
+        <tr r="E33" s="5"/>
+        <tr r="G34" s="5"/>
+        <tr r="M30" s="5"/>
+        <tr r="J30" s="5"/>
+        <tr r="F31" s="5"/>
+        <tr r="F33" s="5"/>
+        <tr r="I31" s="5"/>
+        <tr r="K33" s="5"/>
+        <tr r="M29" s="5"/>
+        <tr r="E31" s="5"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.06c7f756d18f45788a0e75699d42f1a3">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>56df272e-77ef-4864-a209-252336115009</stp>
+        <tr r="H57" s="9"/>
+        <tr r="I51" s="9"/>
+        <tr r="F61" s="9"/>
+        <tr r="G61" s="9"/>
+        <tr r="G57" s="9"/>
+        <tr r="G55" s="9"/>
+        <tr r="I58" s="9"/>
+        <tr r="F52" s="9"/>
+        <tr r="F51" s="9"/>
+        <tr r="G54" s="9"/>
+        <tr r="J55" s="9"/>
+        <tr r="G53" s="9"/>
+        <tr r="H52" s="9"/>
+        <tr r="J60" s="9"/>
+        <tr r="H51" s="9"/>
+        <tr r="F55" s="9"/>
+        <tr r="F60" s="9"/>
+        <tr r="G60" s="9"/>
+        <tr r="G59" s="9"/>
+        <tr r="J57" s="9"/>
+        <tr r="F53" s="9"/>
+        <tr r="H60" s="9"/>
+        <tr r="I53" s="9"/>
+        <tr r="F59" s="9"/>
+        <tr r="H56" s="9"/>
+        <tr r="G51" s="9"/>
+        <tr r="J56" s="9"/>
+        <tr r="I61" s="9"/>
+        <tr r="H55" s="9"/>
+        <tr r="F56" s="9"/>
+        <tr r="G52" s="9"/>
+        <tr r="I59" s="9"/>
+        <tr r="H58" s="9"/>
+        <tr r="I52" s="9"/>
+        <tr r="G58" s="9"/>
+        <tr r="J54" s="9"/>
+        <tr r="J52" s="9"/>
+        <tr r="H54" s="9"/>
+        <tr r="J61" s="9"/>
+        <tr r="J58" s="9"/>
+        <tr r="F57" s="9"/>
+        <tr r="I56" s="9"/>
+        <tr r="I54" s="9"/>
+        <tr r="J51" s="9"/>
+        <tr r="I55" s="9"/>
+        <tr r="H59" s="9"/>
+        <tr r="I57" s="9"/>
+        <tr r="F54" s="9"/>
+        <tr r="G56" s="9"/>
+        <tr r="I60" s="9"/>
+        <tr r="J59" s="9"/>
+        <tr r="J53" s="9"/>
+        <tr r="F58" s="9"/>
+        <tr r="H53" s="9"/>
+        <tr r="H61" s="9"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.06c7f756d18f45788a0e75699d42f1a3">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e46cae9f-e16a-41cc-a0c8-fd80ef57942d</stp>
+        <tr r="E45" s="5"/>
+        <tr r="F46" s="5"/>
+        <tr r="E46" s="5"/>
+        <tr r="F45" s="5"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.06c7f756d18f45788a0e75699d42f1a3">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a8ac708a-4490-4155-bd71-cd654fab715c</stp>
+        <tr r="H42" s="8"/>
+        <tr r="J34" s="8"/>
+        <tr r="F51" s="8"/>
+        <tr r="H45" s="8"/>
+        <tr r="I42" s="8"/>
+        <tr r="I34" s="8"/>
+        <tr r="G35" s="8"/>
+        <tr r="I35" s="8"/>
+        <tr r="K35" s="8"/>
+        <tr r="E45" s="8"/>
+        <tr r="J50" s="8"/>
+        <tr r="L35" s="8"/>
+        <tr r="H51" s="8"/>
+        <tr r="H33" s="8"/>
+        <tr r="L42" s="8"/>
+        <tr r="K39" s="8"/>
+        <tr r="H34" s="8"/>
+        <tr r="F43" s="8"/>
+        <tr r="F37" s="8"/>
+        <tr r="F36" s="8"/>
+        <tr r="I50" s="8"/>
+        <tr r="E41" s="8"/>
+        <tr r="J32" s="8"/>
+        <tr r="F38" s="8"/>
+        <tr r="G44" s="8"/>
+        <tr r="I37" s="8"/>
+        <tr r="E43" s="8"/>
+        <tr r="H47" s="8"/>
+        <tr r="J39" s="8"/>
+        <tr r="E49" s="8"/>
+        <tr r="J47" s="8"/>
+        <tr r="E37" s="8"/>
+        <tr r="L46" s="8"/>
+        <tr r="G33" s="8"/>
+        <tr r="E50" s="8"/>
+        <tr r="J33" s="8"/>
+        <tr r="L45" s="8"/>
+        <tr r="K37" s="8"/>
+        <tr r="E31" s="8"/>
+        <tr r="K46" s="8"/>
+        <tr r="L36" s="8"/>
+        <tr r="E33" s="8"/>
+        <tr r="J36" s="8"/>
+        <tr r="L39" s="8"/>
+        <tr r="F42" s="8"/>
+        <tr r="H48" s="8"/>
+        <tr r="L43" s="8"/>
+        <tr r="L40" s="8"/>
+        <tr r="G47" s="8"/>
+        <tr r="K36" s="8"/>
+        <tr r="K32" s="8"/>
+        <tr r="K44" s="8"/>
+        <tr r="F33" s="8"/>
+        <tr r="E32" s="8"/>
+        <tr r="H40" s="8"/>
+        <tr r="L33" s="8"/>
+        <tr r="G41" s="8"/>
+        <tr r="F34" s="8"/>
+        <tr r="I51" s="8"/>
+        <tr r="H43" s="8"/>
+        <tr r="I45" s="8"/>
+        <tr r="F39" s="8"/>
+        <tr r="E42" s="8"/>
+        <tr r="G51" s="8"/>
+        <tr r="K42" s="8"/>
+        <tr r="I41" s="8"/>
+        <tr r="H36" s="8"/>
+        <tr r="K33" s="8"/>
+        <tr r="I32" s="8"/>
+        <tr r="G34" s="8"/>
+        <tr r="E47" s="8"/>
+        <tr r="G37" s="8"/>
+        <tr r="E38" s="8"/>
+        <tr r="L38" s="8"/>
+        <tr r="K40" s="8"/>
+        <tr r="L32" s="8"/>
+        <tr r="K47" s="8"/>
+        <tr r="F48" s="8"/>
+        <tr r="I48" s="8"/>
+        <tr r="F32" s="8"/>
+        <tr r="J38" s="8"/>
+        <tr r="L31" s="8"/>
+        <tr r="L37" s="8"/>
+        <tr r="E46" s="8"/>
+        <tr r="F46" s="8"/>
+        <tr r="E51" s="8"/>
+        <tr r="G39" s="8"/>
+        <tr r="K34" s="8"/>
+        <tr r="L49" s="8"/>
+        <tr r="I43" s="8"/>
+        <tr r="G48" s="8"/>
+        <tr r="J31" s="8"/>
+        <tr r="L48" s="8"/>
+        <tr r="J35" s="8"/>
+        <tr r="J45" s="8"/>
+        <tr r="G32" s="8"/>
+        <tr r="E39" s="8"/>
+        <tr r="I47" s="8"/>
+        <tr r="F45" s="8"/>
+        <tr r="I33" s="8"/>
+        <tr r="K41" s="8"/>
+        <tr r="F35" s="8"/>
+        <tr r="H46" s="8"/>
+        <tr r="H37" s="8"/>
+        <tr r="E34" s="8"/>
+        <tr r="J49" s="8"/>
+        <tr r="G45" s="8"/>
+        <tr r="I49" s="8"/>
+        <tr r="G38" s="8"/>
+        <tr r="G40" s="8"/>
+        <tr r="L50" s="8"/>
+        <tr r="J43" s="8"/>
+        <tr r="G49" s="8"/>
+        <tr r="E40" s="8"/>
+        <tr r="J46" s="8"/>
+        <tr r="K45" s="8"/>
+        <tr r="G43" s="8"/>
+        <tr r="L34" s="8"/>
+        <tr r="K50" s="8"/>
+        <tr r="F41" s="8"/>
+        <tr r="K49" s="8"/>
+        <tr r="G36" s="8"/>
+        <tr r="E36" s="8"/>
+        <tr r="H50" s="8"/>
+        <tr r="L41" s="8"/>
+        <tr r="F44" s="8"/>
+        <tr r="K51" s="8"/>
+        <tr r="H31" s="8"/>
+        <tr r="I36" s="8"/>
+        <tr r="J41" s="8"/>
+        <tr r="H35" s="8"/>
+        <tr r="E48" s="8"/>
+        <tr r="K48" s="8"/>
+        <tr r="F49" s="8"/>
+        <tr r="K31" s="8"/>
+        <tr r="H41" s="8"/>
+        <tr r="J42" s="8"/>
+        <tr r="H32" s="8"/>
+        <tr r="G31" s="8"/>
+        <tr r="E44" s="8"/>
+        <tr r="H39" s="8"/>
+        <tr r="J37" s="8"/>
+        <tr r="G46" s="8"/>
+        <tr r="I44" s="8"/>
+        <tr r="I40" s="8"/>
+        <tr r="J44" s="8"/>
+        <tr r="H38" s="8"/>
+        <tr r="F31" s="8"/>
+        <tr r="J40" s="8"/>
+        <tr r="J51" s="8"/>
+        <tr r="L44" s="8"/>
+        <tr r="I39" s="8"/>
+        <tr r="H49" s="8"/>
+        <tr r="I31" s="8"/>
+        <tr r="F50" s="8"/>
+        <tr r="F40" s="8"/>
+        <tr r="H44" s="8"/>
+        <tr r="J48" s="8"/>
+        <tr r="G50" s="8"/>
+        <tr r="I46" s="8"/>
+        <tr r="L47" s="8"/>
+        <tr r="K38" s="8"/>
+        <tr r="G42" s="8"/>
+        <tr r="L51" s="8"/>
+        <tr r="K43" s="8"/>
+        <tr r="F47" s="8"/>
+        <tr r="E35" s="8"/>
+        <tr r="I38" s="8"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>ecb840df-1bef-44b9-8780-2e7903f4fc45</stp>
-        <tr r="F30" s="5"/>
-        <tr r="L29" s="5"/>
-        <tr r="I35" s="5"/>
-        <tr r="F35" s="5"/>
-        <tr r="I30" s="5"/>
-        <tr r="G30" s="5"/>
-        <tr r="G31" s="5"/>
-        <tr r="F34" s="5"/>
-        <tr r="J32" s="5"/>
-        <tr r="J33" s="5"/>
-        <tr r="G33" s="5"/>
-        <tr r="M29" s="5"/>
-        <tr r="E29" s="5"/>
-        <tr r="L35" s="5"/>
-        <tr r="I32" s="5"/>
-        <tr r="K31" s="5"/>
-        <tr r="E32" s="5"/>
-        <tr r="L34" s="5"/>
-        <tr r="E33" s="5"/>
-        <tr r="I29" s="5"/>
-        <tr r="J29" s="5"/>
-        <tr r="L32" s="5"/>
-        <tr r="M32" s="5"/>
-        <tr r="F29" s="5"/>
-        <tr r="L30" s="5"/>
-        <tr r="E35" s="5"/>
-        <tr r="G34" s="5"/>
-        <tr r="K29" s="5"/>
-        <tr r="K30" s="5"/>
-        <tr r="K32" s="5"/>
-        <tr r="L31" s="5"/>
-        <tr r="L33" s="5"/>
-        <tr r="M31" s="5"/>
-        <tr r="H32" s="5"/>
-        <tr r="M30" s="5"/>
-        <tr r="K35" s="5"/>
-        <tr r="J31" s="5"/>
-        <tr r="J34" s="5"/>
-        <tr r="H33" s="5"/>
-        <tr r="F32" s="5"/>
-        <tr r="H35" s="5"/>
-        <tr r="E34" s="5"/>
-        <tr r="J30" s="5"/>
-        <tr r="J35" s="5"/>
-        <tr r="I33" s="5"/>
-        <tr r="E30" s="5"/>
-        <tr r="M34" s="5"/>
-        <tr r="I34" s="5"/>
-        <tr r="I31" s="5"/>
-        <tr r="K33" s="5"/>
-        <tr r="F31" s="5"/>
-        <tr r="E31" s="5"/>
-        <tr r="M33" s="5"/>
-        <tr r="K34" s="5"/>
-        <tr r="H29" s="5"/>
-        <tr r="H34" s="5"/>
-        <tr r="G32" s="5"/>
-        <tr r="M35" s="5"/>
-        <tr r="F33" s="5"/>
-        <tr r="G35" s="5"/>
-        <tr r="G29" s="5"/>
-        <tr r="H31" s="5"/>
-        <tr r="H30" s="5"/>
+        <stp>b33608c9-e67c-48d7-8dfd-9b69cf2eb2ed</stp>
+        <tr r="J47" s="14"/>
+        <tr r="H48" s="14"/>
+        <tr r="K48" s="14"/>
+        <tr r="H47" s="14"/>
+        <tr r="G48" s="14"/>
+        <tr r="J48" s="14"/>
+        <tr r="I47" s="14"/>
+        <tr r="F47" s="14"/>
+        <tr r="I48" s="14"/>
+        <tr r="E48" s="14"/>
+        <tr r="K47" s="14"/>
+        <tr r="F48" s="14"/>
+        <tr r="E47" s="14"/>
+        <tr r="G47" s="14"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>6568cb93-5bc1-4ad4-abb2-5dfb709e2724</stp>
-        <tr r="F46" s="5"/>
-        <tr r="E46" s="5"/>
-        <tr r="F45" s="5"/>
-        <tr r="E45" s="5"/>
+        <stp>e76a0797-7548-40c9-ad75-44210b274db7</stp>
+        <tr r="D17" s="7"/>
+        <tr r="D19" s="7"/>
+        <tr r="D24" s="7"/>
+        <tr r="D23" s="7"/>
+        <tr r="D25" s="7"/>
+        <tr r="D20" s="7"/>
+        <tr r="D16" s="7"/>
+        <tr r="D15" s="7"/>
+        <tr r="D22" s="7"/>
+        <tr r="D18" s="7"/>
+        <tr r="D21" s="7"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>70ee244b-f8b5-4d00-9b9a-96b9fed2c250</stp>
+        <tr r="G40" s="13"/>
+        <tr r="L41" s="13"/>
+        <tr r="J40" s="13"/>
+        <tr r="H49" s="13"/>
+        <tr r="O48" s="13"/>
+        <tr r="H48" s="13"/>
+        <tr r="M48" s="13"/>
+        <tr r="L46" s="13"/>
+        <tr r="J41" s="13"/>
+        <tr r="E39" s="13"/>
+        <tr r="I49" s="13"/>
+        <tr r="G43" s="13"/>
+        <tr r="E48" s="13"/>
+        <tr r="H41" s="13"/>
+        <tr r="F45" s="13"/>
+        <tr r="E47" s="13"/>
+        <tr r="J47" s="13"/>
+        <tr r="F43" s="13"/>
+        <tr r="I42" s="13"/>
+        <tr r="L42" s="13"/>
+        <tr r="M43" s="13"/>
+        <tr r="J44" s="13"/>
+        <tr r="J43" s="13"/>
+        <tr r="N40" s="13"/>
+        <tr r="L43" s="13"/>
+        <tr r="F40" s="13"/>
+        <tr r="M44" s="13"/>
+        <tr r="K44" s="13"/>
+        <tr r="L45" s="13"/>
+        <tr r="I48" s="13"/>
+        <tr r="N41" s="13"/>
+        <tr r="I41" s="13"/>
+        <tr r="H44" s="13"/>
+        <tr r="L44" s="13"/>
+        <tr r="K40" s="13"/>
+        <tr r="J45" s="13"/>
+        <tr r="H42" s="13"/>
+        <tr r="H39" s="13"/>
+        <tr r="M47" s="13"/>
+        <tr r="N43" s="13"/>
+        <tr r="F46" s="13"/>
+        <tr r="G44" s="13"/>
+        <tr r="N39" s="13"/>
+        <tr r="G39" s="13"/>
+        <tr r="K48" s="13"/>
+        <tr r="J48" s="13"/>
+        <tr r="L49" s="13"/>
+        <tr r="I47" s="13"/>
+        <tr r="G48" s="13"/>
+        <tr r="O41" s="13"/>
+        <tr r="O46" s="13"/>
+        <tr r="M42" s="13"/>
+        <tr r="L48" s="13"/>
+        <tr r="I44" s="13"/>
+        <tr r="I46" s="13"/>
+        <tr r="O45" s="13"/>
+        <tr r="G42" s="13"/>
+        <tr r="I40" s="13"/>
+        <tr r="K47" s="13"/>
+        <tr r="O49" s="13"/>
+        <tr r="F48" s="13"/>
+        <tr r="L40" s="13"/>
+        <tr r="H47" s="13"/>
+        <tr r="M45" s="13"/>
+        <tr r="J49" s="13"/>
+        <tr r="F41" s="13"/>
+        <tr r="M40" s="13"/>
+        <tr r="K45" s="13"/>
+        <tr r="F47" s="13"/>
+        <tr r="G45" s="13"/>
+        <tr r="N49" s="13"/>
+        <tr r="I39" s="13"/>
+        <tr r="F49" s="13"/>
+        <tr r="K42" s="13"/>
+        <tr r="O39" s="13"/>
+        <tr r="G49" s="13"/>
+        <tr r="M46" s="13"/>
+        <tr r="F44" s="13"/>
+        <tr r="E41" s="13"/>
+        <tr r="J39" s="13"/>
+        <tr r="H46" s="13"/>
+        <tr r="I43" s="13"/>
+        <tr r="F39" s="13"/>
+        <tr r="K46" s="13"/>
+        <tr r="N46" s="13"/>
+        <tr r="J46" s="13"/>
+        <tr r="N42" s="13"/>
+        <tr r="L47" s="13"/>
+        <tr r="O43" s="13"/>
+        <tr r="L39" s="13"/>
+        <tr r="K49" s="13"/>
+        <tr r="M39" s="13"/>
+        <tr r="N44" s="13"/>
+        <tr r="O40" s="13"/>
+        <tr r="K41" s="13"/>
+        <tr r="I45" s="13"/>
+        <tr r="O42" s="13"/>
+        <tr r="G47" s="13"/>
+        <tr r="E46" s="13"/>
+        <tr r="E43" s="13"/>
+        <tr r="K39" s="13"/>
+        <tr r="H43" s="13"/>
+        <tr r="E44" s="13"/>
+        <tr r="O44" s="13"/>
+        <tr r="F42" s="13"/>
+        <tr r="E40" s="13"/>
+        <tr r="E42" s="13"/>
+        <tr r="G41" s="13"/>
+        <tr r="H40" s="13"/>
+        <tr r="K43" s="13"/>
+        <tr r="N48" s="13"/>
+        <tr r="E49" s="13"/>
+        <tr r="O47" s="13"/>
+        <tr r="M41" s="13"/>
+        <tr r="J42" s="13"/>
+        <tr r="M49" s="13"/>
+        <tr r="E45" s="13"/>
+        <tr r="N45" s="13"/>
+        <tr r="H45" s="13"/>
+        <tr r="N47" s="13"/>
+        <tr r="G46" s="13"/>
       </tp>
     </main>
   </volType>
@@ -4484,7 +4493,7 @@
   <dimension ref="B1:T31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4940,7 +4949,9 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="12" t="s">
+        <v>380</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -6368,7 +6379,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="35">
         <f ca="1">TODAY()</f>
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -6735,7 +6746,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="22">
+  <dataValidations disablePrompts="1" count="15">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Code" sqref="E18 E47 E50" xr:uid="{5186502B-0030-407B-92E0-ECD8ADE97953}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Base Currency" sqref="L18" xr:uid="{45CB02F2-CB9C-492E-BDDE-04F194963C03}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Created" sqref="K47 K50" xr:uid="{289CB227-8390-43BD-999F-17E47A839971}"/>
@@ -6744,20 +6755,13 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sub-Holding Keys" sqref="H18 H47 H50" xr:uid="{B548E53C-5468-47F2-AB40-A144599BD804}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Accounting Method" sqref="G18 G47 G50" xr:uid="{B0BB2118-452B-4B46-BEBA-B2B04C5744C6}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Corporate Action Source" sqref="F18 F47 F50" xr:uid="{E036C10F-2195-400C-A017-D13C52B1130A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The code that the portfolio group will be created with. Together with the scope this uniquely identifies the portfolio group." sqref="O18 G14" xr:uid="{7B8F1A63-CBA7-4EBC-BB02-8C03DFE7E650}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The name of the portfolio group." sqref="P18 H14" xr:uid="{D2EFAE2F-F843-41A3-A72E-AE4781C15264}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime at which the portfolio group was created. Defaults to the current LUSID system datetime if not specified." sqref="Q18 I14" xr:uid="{D1D07E6F-A432-465B-B893-7D6447EEBF22}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The resource identifiers of the portfolios to be contained within the portfolio group." sqref="R18 J14" xr:uid="{C9A31B58-D461-45B0-A5D2-C3C281AED07A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A long form description of the portfolio group." sqref="S18 K14" xr:uid="{7C873E06-DDED-49D8-A1D3-AC76804B1B01}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The resource identifiers of the portfolio groups to be contained within the portfolio group as sub groups." sqref="T18 L14" xr:uid="{8197FD61-582E-4D07-BFD5-81F7427C97C2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A set of unique group properties to add to the portfolio group. Each property must be from the 'PortfolioGroup' domain and should be identified by its key which has the format {domain}/{scope}/{code}, e.g. 'PortfolioGroup/Manager/Id'. These properties..." sqref="U18 M14" xr:uid="{A2ADBC61-3CA7-4B5B-9E54-E8A6C7B9DFEB}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The code that the portfolio group will be created with. Together with the scope this uniquely identifies the portfolio group." sqref="E68" xr:uid="{16063CC4-8537-42C3-AD49-863F0E9AABC7}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The name of the portfolio group." sqref="F68" xr:uid="{03404861-24D6-4AB1-BDD5-C843CE0F427F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime at which the portfolio group was created. Defaults to the current LUSID system datetime if not specified." sqref="G68" xr:uid="{76D15D14-838E-4216-8AE7-E2FA2181F8F9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The resource identifiers of the portfolios to be contained within the portfolio group." sqref="H68" xr:uid="{F57E2183-1B5B-46DD-AB35-14BD28A8E660}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A long form description of the portfolio group." sqref="I68" xr:uid="{91250F28-7994-4B32-AC81-8CDABB63719B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The resource identifiers of the portfolio groups to be contained within the portfolio group as sub groups." sqref="J68" xr:uid="{5C22F768-29EF-4A0E-89E4-69F54A5D58F9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A set of unique group properties to add to the portfolio group. Each property must be from the 'PortfolioGroup' domain and should be identified by its key which has the format {domain}/{scope}/{code}, e.g. 'PortfolioGroup/Manager/Id'. These properties..." sqref="K68" xr:uid="{35D82ACD-4E70-40D8-AFC2-F603A7533545}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The code that the portfolio group will be created with. Together with the scope this uniquely identifies the portfolio group." sqref="O18 G14 E68" xr:uid="{7B8F1A63-CBA7-4EBC-BB02-8C03DFE7E650}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The name of the portfolio group." sqref="P18 H14 F68" xr:uid="{D2EFAE2F-F843-41A3-A72E-AE4781C15264}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime at which the portfolio group was created. Defaults to the current LUSID system datetime if not specified." sqref="Q18 I14 G68" xr:uid="{D1D07E6F-A432-465B-B893-7D6447EEBF22}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The resource identifiers of the portfolios to be contained within the portfolio group." sqref="R18 J14 H68" xr:uid="{C9A31B58-D461-45B0-A5D2-C3C281AED07A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A long form description of the portfolio group." sqref="S18 K14 I68" xr:uid="{7C873E06-DDED-49D8-A1D3-AC76804B1B01}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The resource identifiers of the portfolio groups to be contained within the portfolio group as sub groups." sqref="T18 L14 J68" xr:uid="{8197FD61-582E-4D07-BFD5-81F7427C97C2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A set of unique group properties to add to the portfolio group. Each property must be from the 'PortfolioGroup' domain and should be identified by its key which has the format {domain}/{scope}/{code}, e.g. 'PortfolioGroup/Manager/Id'. These properties..." sqref="U18 M14 K68" xr:uid="{A2ADBC61-3CA7-4B5B-9E54-E8A6C7B9DFEB}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{44027378-72ED-4435-99AC-4D1C18747C76}"/>
@@ -8014,7 +8018,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="30" t="str">
-        <v/>
+        <v>UK_High_Growth_Equities_Fund</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="2"/>
@@ -8032,7 +8036,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="30" t="str">
-        <v/>
+        <v>UK_High_Growth_Equities_Fund_3813-6b8b-1505-2e</v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="2"/>
@@ -8049,8 +8053,8 @@
       <c r="C23" s="12">
         <v>8</v>
       </c>
-      <c r="D23" s="30" t="str">
-        <v/>
+      <c r="D23" s="30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="2"/>
@@ -8067,8 +8071,8 @@
       <c r="C24" s="12">
         <v>9</v>
       </c>
-      <c r="D24" s="30" t="str">
-        <v/>
+      <c r="D24" s="30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="2"/>
@@ -8085,8 +8089,8 @@
       <c r="C25" s="12">
         <v>10</v>
       </c>
-      <c r="D25" s="30" t="str">
-        <v/>
+      <c r="D25" s="30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="2"/>
@@ -8640,7 +8644,7 @@
         <v>ParentPortfolioId Code</v>
       </c>
       <c r="M29" s="65" t="str">
-        <v>[More...]</v>
+        <v>IsDerived</v>
       </c>
       <c r="N29" s="2"/>
       <c r="S29" s="34"/>
@@ -8675,8 +8679,8 @@
       <c r="L30" s="29">
         <v>0</v>
       </c>
-      <c r="M30" s="29" t="str">
-        <v>[More...]</v>
+      <c r="M30" s="29" t="b">
+        <v>0</v>
       </c>
       <c r="N30" s="2"/>
       <c r="S30" s="34"/>
@@ -8711,8 +8715,8 @@
       <c r="L31" s="29">
         <v>0</v>
       </c>
-      <c r="M31" s="29" t="str">
-        <v>[More...]</v>
+      <c r="M31" s="29" t="b">
+        <v>0</v>
       </c>
       <c r="N31" s="2"/>
       <c r="S31" s="34"/>
@@ -8747,8 +8751,8 @@
       <c r="L32" s="29">
         <v>0</v>
       </c>
-      <c r="M32" s="29" t="str">
-        <v>[More...]</v>
+      <c r="M32" s="29" t="b">
+        <v>0</v>
       </c>
       <c r="N32" s="2"/>
       <c r="S32" s="34"/>
@@ -8783,8 +8787,8 @@
       <c r="L33" s="29">
         <v>0</v>
       </c>
-      <c r="M33" s="29" t="str">
-        <v>[More...]</v>
+      <c r="M33" s="29" t="b">
+        <v>0</v>
       </c>
       <c r="N33" s="2"/>
     </row>
@@ -8794,32 +8798,32 @@
       <c r="D34" s="12">
         <v>5</v>
       </c>
-      <c r="E34" s="30" t="str">
-        <v/>
-      </c>
-      <c r="F34" s="29" t="str">
-        <v/>
-      </c>
-      <c r="G34" s="29" t="str">
-        <v/>
-      </c>
-      <c r="H34" s="29" t="str">
-        <v/>
-      </c>
-      <c r="I34" s="30" t="str">
-        <v/>
-      </c>
-      <c r="J34" s="68" t="str">
-        <v/>
-      </c>
-      <c r="K34" s="69" t="str">
-        <v/>
-      </c>
-      <c r="L34" s="29" t="str">
-        <v/>
-      </c>
-      <c r="M34" s="29" t="str">
-        <v/>
+      <c r="E34" s="30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F34" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G34" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H34" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I34" s="30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J34" s="68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K34" s="69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L34" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M34" s="29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N34" s="2"/>
     </row>
@@ -8829,32 +8833,32 @@
       <c r="D35" s="12">
         <v>6</v>
       </c>
-      <c r="E35" s="30" t="str">
-        <v/>
-      </c>
-      <c r="F35" s="29" t="str">
-        <v/>
-      </c>
-      <c r="G35" s="29" t="str">
-        <v/>
-      </c>
-      <c r="H35" s="29" t="str">
-        <v/>
-      </c>
-      <c r="I35" s="30" t="str">
-        <v/>
-      </c>
-      <c r="J35" s="68" t="str">
-        <v/>
-      </c>
-      <c r="K35" s="69" t="str">
-        <v/>
-      </c>
-      <c r="L35" s="29" t="str">
-        <v/>
-      </c>
-      <c r="M35" s="29" t="str">
-        <v/>
+      <c r="E35" s="30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F35" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G35" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H35" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I35" s="30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J35" s="68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K35" s="69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L35" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M35" s="29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N35" s="2"/>
     </row>
@@ -9003,10 +9007,10 @@
       <c r="D45" s="2"/>
       <c r="E45" s="48" t="str">
         <f t="array" ref="E45:F46">_xll.flPortfoliosList(F17,EffectiveDate,AsAtDate,H42)</f>
-        <v/>
+        <v>Transaction</v>
       </c>
       <c r="F45" s="48" t="str">
-        <v/>
+        <v>Transaction</v>
       </c>
       <c r="G45" s="65"/>
       <c r="H45" s="65"/>
@@ -9025,10 +9029,10 @@
         <v>1</v>
       </c>
       <c r="E46" s="30" t="str">
-        <v/>
+        <v>Transaction</v>
       </c>
       <c r="F46" s="30" t="str">
-        <v/>
+        <v>Transaction</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
@@ -10367,29 +10371,29 @@
       <c r="D43" s="12">
         <v>12</v>
       </c>
-      <c r="E43" s="15" t="str">
-        <v/>
-      </c>
-      <c r="F43" s="86" t="str">
-        <v/>
-      </c>
-      <c r="G43" s="84" t="str">
-        <v/>
-      </c>
-      <c r="H43" s="52" t="str">
-        <v/>
-      </c>
-      <c r="I43" s="52" t="str">
-        <v/>
-      </c>
-      <c r="J43" s="81" t="str">
-        <v/>
-      </c>
-      <c r="K43" s="51" t="str">
-        <v/>
-      </c>
-      <c r="L43" s="51" t="str">
-        <v/>
+      <c r="E43" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F43" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G43" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H43" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I43" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J43" s="81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K43" s="51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L43" s="51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="52" t="str">
@@ -10413,29 +10417,29 @@
       <c r="D44" s="12">
         <v>13</v>
       </c>
-      <c r="E44" s="15" t="str">
-        <v/>
-      </c>
-      <c r="F44" s="86" t="str">
-        <v/>
-      </c>
-      <c r="G44" s="84" t="str">
-        <v/>
-      </c>
-      <c r="H44" s="52" t="str">
-        <v/>
-      </c>
-      <c r="I44" s="52" t="str">
-        <v/>
-      </c>
-      <c r="J44" s="81" t="str">
-        <v/>
-      </c>
-      <c r="K44" s="51" t="str">
-        <v/>
-      </c>
-      <c r="L44" s="51" t="str">
-        <v/>
+      <c r="E44" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F44" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G44" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H44" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I44" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J44" s="81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K44" s="51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L44" s="51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="52" t="str">
@@ -10459,29 +10463,29 @@
       <c r="D45" s="12">
         <v>14</v>
       </c>
-      <c r="E45" s="15" t="str">
-        <v/>
-      </c>
-      <c r="F45" s="86" t="str">
-        <v/>
-      </c>
-      <c r="G45" s="84" t="str">
-        <v/>
-      </c>
-      <c r="H45" s="52" t="str">
-        <v/>
-      </c>
-      <c r="I45" s="52" t="str">
-        <v/>
-      </c>
-      <c r="J45" s="81" t="str">
-        <v/>
-      </c>
-      <c r="K45" s="51" t="str">
-        <v/>
-      </c>
-      <c r="L45" s="51" t="str">
-        <v/>
+      <c r="E45" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F45" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G45" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H45" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I45" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J45" s="81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K45" s="51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L45" s="51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="52" t="str">
@@ -10505,29 +10509,29 @@
       <c r="D46" s="12">
         <v>15</v>
       </c>
-      <c r="E46" s="15" t="str">
-        <v/>
-      </c>
-      <c r="F46" s="86" t="str">
-        <v/>
-      </c>
-      <c r="G46" s="84" t="str">
-        <v/>
-      </c>
-      <c r="H46" s="52" t="str">
-        <v/>
-      </c>
-      <c r="I46" s="52" t="str">
-        <v/>
-      </c>
-      <c r="J46" s="81" t="str">
-        <v/>
-      </c>
-      <c r="K46" s="51" t="str">
-        <v/>
-      </c>
-      <c r="L46" s="51" t="str">
-        <v/>
+      <c r="E46" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F46" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G46" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H46" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I46" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J46" s="81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K46" s="51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L46" s="51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="52" t="str">
@@ -10551,29 +10555,29 @@
       <c r="D47" s="12">
         <v>16</v>
       </c>
-      <c r="E47" s="15" t="str">
-        <v/>
-      </c>
-      <c r="F47" s="86" t="str">
-        <v/>
-      </c>
-      <c r="G47" s="84" t="str">
-        <v/>
-      </c>
-      <c r="H47" s="52" t="str">
-        <v/>
-      </c>
-      <c r="I47" s="52" t="str">
-        <v/>
-      </c>
-      <c r="J47" s="81" t="str">
-        <v/>
-      </c>
-      <c r="K47" s="51" t="str">
-        <v/>
-      </c>
-      <c r="L47" s="51" t="str">
-        <v/>
+      <c r="E47" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F47" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G47" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H47" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I47" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J47" s="81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K47" s="51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L47" s="51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="52" t="str">
@@ -10597,29 +10601,29 @@
       <c r="D48" s="12">
         <v>17</v>
       </c>
-      <c r="E48" s="15" t="str">
-        <v/>
-      </c>
-      <c r="F48" s="86" t="str">
-        <v/>
-      </c>
-      <c r="G48" s="84" t="str">
-        <v/>
-      </c>
-      <c r="H48" s="52" t="str">
-        <v/>
-      </c>
-      <c r="I48" s="52" t="str">
-        <v/>
-      </c>
-      <c r="J48" s="81" t="str">
-        <v/>
-      </c>
-      <c r="K48" s="51" t="str">
-        <v/>
-      </c>
-      <c r="L48" s="51" t="str">
-        <v/>
+      <c r="E48" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F48" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G48" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H48" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I48" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J48" s="81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K48" s="51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L48" s="51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="52" t="str">
@@ -10643,29 +10647,29 @@
       <c r="D49" s="12">
         <v>18</v>
       </c>
-      <c r="E49" s="15" t="str">
-        <v/>
-      </c>
-      <c r="F49" s="86" t="str">
-        <v/>
-      </c>
-      <c r="G49" s="84" t="str">
-        <v/>
-      </c>
-      <c r="H49" s="52" t="str">
-        <v/>
-      </c>
-      <c r="I49" s="52" t="str">
-        <v/>
-      </c>
-      <c r="J49" s="81" t="str">
-        <v/>
-      </c>
-      <c r="K49" s="51" t="str">
-        <v/>
-      </c>
-      <c r="L49" s="51" t="str">
-        <v/>
+      <c r="E49" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F49" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G49" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H49" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I49" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J49" s="81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K49" s="51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L49" s="51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="52" t="str">
@@ -10689,29 +10693,29 @@
       <c r="D50" s="12">
         <v>19</v>
       </c>
-      <c r="E50" s="15" t="str">
-        <v/>
-      </c>
-      <c r="F50" s="86" t="str">
-        <v/>
-      </c>
-      <c r="G50" s="84" t="str">
-        <v/>
-      </c>
-      <c r="H50" s="52" t="str">
-        <v/>
-      </c>
-      <c r="I50" s="52" t="str">
-        <v/>
-      </c>
-      <c r="J50" s="81" t="str">
-        <v/>
-      </c>
-      <c r="K50" s="51" t="str">
-        <v/>
-      </c>
-      <c r="L50" s="51" t="str">
-        <v/>
+      <c r="E50" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F50" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G50" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H50" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I50" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J50" s="81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K50" s="51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L50" s="51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="52" t="str">
@@ -10735,29 +10739,29 @@
       <c r="D51" s="12">
         <v>20</v>
       </c>
-      <c r="E51" s="15" t="str">
-        <v/>
-      </c>
-      <c r="F51" s="86" t="str">
-        <v/>
-      </c>
-      <c r="G51" s="84" t="str">
-        <v/>
-      </c>
-      <c r="H51" s="52" t="str">
-        <v/>
-      </c>
-      <c r="I51" s="52" t="str">
-        <v/>
-      </c>
-      <c r="J51" s="81" t="str">
-        <v/>
-      </c>
-      <c r="K51" s="51" t="str">
-        <v/>
-      </c>
-      <c r="L51" s="51" t="str">
-        <v/>
+      <c r="E51" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F51" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G51" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H51" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I51" s="52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J51" s="81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K51" s="51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L51" s="51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="52" t="str">
@@ -11746,8 +11750,8 @@
       <c r="I51" s="65" t="str">
         <v>Figi</v>
       </c>
-      <c r="J51" s="65" t="str">
-        <v/>
+      <c r="J51" s="65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="36"/>
@@ -11771,8 +11775,8 @@
       <c r="I52" s="72" t="str">
         <v>BBG000B9XRY4</v>
       </c>
-      <c r="J52" s="76" t="str">
-        <v/>
+      <c r="J52" s="76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="36"/>
@@ -11796,8 +11800,8 @@
       <c r="I53" s="72" t="str">
         <v>BBG000DMBXR2</v>
       </c>
-      <c r="J53" s="76" t="str">
-        <v/>
+      <c r="J53" s="76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="36"/>
@@ -11821,8 +11825,8 @@
       <c r="I54" s="72" t="str">
         <v>BBG000C059M6</v>
       </c>
-      <c r="J54" s="76" t="str">
-        <v/>
+      <c r="J54" s="76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="36"/>
@@ -11846,8 +11850,8 @@
       <c r="I55" s="72" t="str">
         <v>BBG00DQ4YZ36</v>
       </c>
-      <c r="J55" s="76" t="str">
-        <v/>
+      <c r="J55" s="76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="36"/>
@@ -11871,8 +11875,8 @@
       <c r="I56" s="72" t="str">
         <v>BBG000BCM915</v>
       </c>
-      <c r="J56" s="76" t="str">
-        <v/>
+      <c r="J56" s="76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="36"/>
@@ -11896,8 +11900,8 @@
       <c r="I57" s="72" t="str">
         <v>BBG000BCH458</v>
       </c>
-      <c r="J57" s="76" t="str">
-        <v/>
+      <c r="J57" s="76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="36"/>
@@ -11921,8 +11925,8 @@
       <c r="I58" s="72" t="str">
         <v>BBG000BS1MT4</v>
       </c>
-      <c r="J58" s="76" t="str">
-        <v/>
+      <c r="J58" s="76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="36"/>
@@ -11946,8 +11950,8 @@
       <c r="I59" s="72" t="str">
         <v>BBG000BH4R78</v>
       </c>
-      <c r="J59" s="76" t="str">
-        <v/>
+      <c r="J59" s="76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="36"/>
@@ -11971,8 +11975,8 @@
       <c r="I60" s="72" t="str">
         <v>BBG000BPH459</v>
       </c>
-      <c r="J60" s="76" t="str">
-        <v/>
+      <c r="J60" s="76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="36"/>
@@ -11996,8 +12000,8 @@
       <c r="I61" s="72" t="str">
         <v>BBG000CLY2D3</v>
       </c>
-      <c r="J61" s="76" t="str">
-        <v/>
+      <c r="J61" s="76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="36"/>
@@ -13514,22 +13518,22 @@
         <v>CancelDateTime</v>
       </c>
       <c r="Y33" s="10" t="str">
-        <v>Original Transaction Date</v>
+        <v>Original Settlement Date</v>
       </c>
       <c r="Z33" s="10" t="str">
         <v>Exchange rate from the transaction currency to the portfolio currency.</v>
       </c>
       <c r="AA33" s="10" t="str">
+        <v>SourcePortfolioId</v>
+      </c>
+      <c r="AB33" s="10" t="str">
+        <v>Original Transaction Date</v>
+      </c>
+      <c r="AC33" s="10" t="str">
+        <v>Net holding as a result of the transaction</v>
+      </c>
+      <c r="AD33" s="10" t="str">
         <v>SourcePortfolioScope</v>
-      </c>
-      <c r="AB33" s="10" t="str">
-        <v>Net holding as a result of the transaction</v>
-      </c>
-      <c r="AC33" s="10" t="str">
-        <v>Original Settlement Date</v>
-      </c>
-      <c r="AD33" s="10" t="str">
-        <v>SourcePortfolioId</v>
       </c>
       <c r="AE33" s="10" t="str">
         <v>CostPortfolioCcy Amount</v>
@@ -13543,8 +13547,8 @@
       <c r="AH33" s="10" t="str">
         <v>RealisedCurrency Amount</v>
       </c>
-      <c r="AI33" s="10" t="str">
-        <v/>
+      <c r="AI33" s="10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ33" s="2"/>
     </row>
@@ -13615,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="86" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z34" s="86">
         <v>1</v>
@@ -13623,11 +13627,11 @@
       <c r="AA34" s="86">
         <v>0</v>
       </c>
-      <c r="AB34" s="89">
+      <c r="AB34" s="89" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AC34" s="89">
         <v>80500</v>
-      </c>
-      <c r="AC34" s="89" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD34" s="84">
         <v>0</v>
@@ -13644,8 +13648,8 @@
       <c r="AH34" s="84">
         <v>0</v>
       </c>
-      <c r="AI34" s="86" t="str">
-        <v/>
+      <c r="AI34" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ34" s="2"/>
     </row>
@@ -13716,7 +13720,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="86" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z35" s="86">
         <v>1</v>
@@ -13724,11 +13728,11 @@
       <c r="AA35" s="86">
         <v>0</v>
       </c>
-      <c r="AB35" s="89">
+      <c r="AB35" s="89" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AC35" s="89">
         <v>65440</v>
-      </c>
-      <c r="AC35" s="89" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD35" s="84">
         <v>0</v>
@@ -13745,8 +13749,8 @@
       <c r="AH35" s="84">
         <v>0</v>
       </c>
-      <c r="AI35" s="86" t="str">
-        <v/>
+      <c r="AI35" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ35" s="2"/>
     </row>
@@ -13817,7 +13821,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="86" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z36" s="86">
         <v>1</v>
@@ -13825,11 +13829,11 @@
       <c r="AA36" s="86">
         <v>0</v>
       </c>
-      <c r="AB36" s="89">
+      <c r="AB36" s="89" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AC36" s="89">
         <v>50000</v>
-      </c>
-      <c r="AC36" s="89" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD36" s="84">
         <v>0</v>
@@ -13846,8 +13850,8 @@
       <c r="AH36" s="84">
         <v>0</v>
       </c>
-      <c r="AI36" s="86" t="str">
-        <v/>
+      <c r="AI36" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ36" s="2"/>
     </row>
@@ -13918,7 +13922,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="86" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z37" s="86">
         <v>1</v>
@@ -13926,11 +13930,11 @@
       <c r="AA37" s="86">
         <v>0</v>
       </c>
-      <c r="AB37" s="89">
+      <c r="AB37" s="89" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AC37" s="89">
         <v>8000</v>
-      </c>
-      <c r="AC37" s="89" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD37" s="84">
         <v>0</v>
@@ -13947,8 +13951,8 @@
       <c r="AH37" s="84">
         <v>0</v>
       </c>
-      <c r="AI37" s="86" t="str">
-        <v/>
+      <c r="AI37" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ37" s="2"/>
     </row>
@@ -14019,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="86" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z38" s="86">
         <v>1</v>
@@ -14027,11 +14031,11 @@
       <c r="AA38" s="86">
         <v>0</v>
       </c>
-      <c r="AB38" s="89">
+      <c r="AB38" s="89" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AC38" s="89">
         <v>20500</v>
-      </c>
-      <c r="AC38" s="89" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD38" s="84">
         <v>0</v>
@@ -14048,8 +14052,8 @@
       <c r="AH38" s="84">
         <v>0</v>
       </c>
-      <c r="AI38" s="86" t="str">
-        <v/>
+      <c r="AI38" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ38" s="2"/>
     </row>
@@ -14120,7 +14124,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="86" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z39" s="86">
         <v>1</v>
@@ -14128,11 +14132,11 @@
       <c r="AA39" s="86">
         <v>0</v>
       </c>
-      <c r="AB39" s="89">
+      <c r="AB39" s="89" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AC39" s="89">
         <v>12500</v>
-      </c>
-      <c r="AC39" s="89" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD39" s="84">
         <v>0</v>
@@ -14149,8 +14153,8 @@
       <c r="AH39" s="84">
         <v>0</v>
       </c>
-      <c r="AI39" s="86" t="str">
-        <v/>
+      <c r="AI39" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ39" s="2"/>
     </row>
@@ -14221,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="86" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z40" s="86">
         <v>1</v>
@@ -14229,11 +14233,11 @@
       <c r="AA40" s="86">
         <v>0</v>
       </c>
-      <c r="AB40" s="89">
+      <c r="AB40" s="89" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AC40" s="89">
         <v>95440</v>
-      </c>
-      <c r="AC40" s="89" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD40" s="84">
         <v>0</v>
@@ -14250,8 +14254,8 @@
       <c r="AH40" s="84">
         <v>0</v>
       </c>
-      <c r="AI40" s="86" t="str">
-        <v/>
+      <c r="AI40" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ40" s="2"/>
     </row>
@@ -14322,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="86" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z41" s="86">
         <v>1</v>
@@ -14330,11 +14334,11 @@
       <c r="AA41" s="86">
         <v>0</v>
       </c>
-      <c r="AB41" s="89">
+      <c r="AB41" s="89" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AC41" s="89">
         <v>55050</v>
-      </c>
-      <c r="AC41" s="89" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD41" s="84">
         <v>0</v>
@@ -14351,8 +14355,8 @@
       <c r="AH41" s="84">
         <v>0</v>
       </c>
-      <c r="AI41" s="86" t="str">
-        <v/>
+      <c r="AI41" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ41" s="2"/>
     </row>
@@ -14423,7 +14427,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="86" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z42" s="86">
         <v>1</v>
@@ -14431,11 +14435,11 @@
       <c r="AA42" s="86">
         <v>0</v>
       </c>
-      <c r="AB42" s="89">
+      <c r="AB42" s="89" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AC42" s="89">
         <v>120000</v>
-      </c>
-      <c r="AC42" s="89" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD42" s="84">
         <v>0</v>
@@ -14452,8 +14456,8 @@
       <c r="AH42" s="84">
         <v>0</v>
       </c>
-      <c r="AI42" s="86" t="str">
-        <v/>
+      <c r="AI42" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ42" s="2"/>
     </row>
@@ -14524,7 +14528,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="86" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z43" s="86">
         <v>1</v>
@@ -14532,11 +14536,11 @@
       <c r="AA43" s="86">
         <v>0</v>
       </c>
-      <c r="AB43" s="89">
+      <c r="AB43" s="89" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AC43" s="89">
         <v>35000</v>
-      </c>
-      <c r="AC43" s="89" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD43" s="84">
         <v>0</v>
@@ -14553,8 +14557,8 @@
       <c r="AH43" s="84">
         <v>0</v>
       </c>
-      <c r="AI43" s="86" t="str">
-        <v/>
+      <c r="AI43" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ43" s="2"/>
     </row>
@@ -14631,16 +14635,16 @@
         <v>0</v>
       </c>
       <c r="AA44" s="86" t="str">
+        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
+      </c>
+      <c r="AB44" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="89">
+        <v>92632.941176470587</v>
+      </c>
+      <c r="AD44" s="84" t="str">
         <v>Finbourne-Examples</v>
-      </c>
-      <c r="AB44" s="89">
-        <v>92632.941176470587</v>
-      </c>
-      <c r="AC44" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="84" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
       </c>
       <c r="AE44" s="84">
         <v>168255.11</v>
@@ -14654,8 +14658,8 @@
       <c r="AH44" s="84">
         <v>-168255.11</v>
       </c>
-      <c r="AI44" s="86" t="str">
-        <v/>
+      <c r="AI44" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ44" s="2"/>
     </row>
@@ -14732,16 +14736,16 @@
         <v>0</v>
       </c>
       <c r="AA45" s="86" t="str">
+        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
+      </c>
+      <c r="AB45" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="89">
+        <v>12132.35294117647</v>
+      </c>
+      <c r="AD45" s="84" t="str">
         <v>Finbourne-Examples</v>
-      </c>
-      <c r="AB45" s="89">
-        <v>12132.35294117647</v>
-      </c>
-      <c r="AC45" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="84" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
       </c>
       <c r="AE45" s="84">
         <v>2095.2199999999998</v>
@@ -14755,8 +14759,8 @@
       <c r="AH45" s="84">
         <v>-2095.2199999999998</v>
       </c>
-      <c r="AI45" s="86" t="str">
-        <v/>
+      <c r="AI45" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ45" s="2"/>
     </row>
@@ -14833,16 +14837,16 @@
         <v>0</v>
       </c>
       <c r="AA46" s="86" t="str">
+        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
+      </c>
+      <c r="AB46" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="89">
+        <v>53430.882352941175</v>
+      </c>
+      <c r="AD46" s="84" t="str">
         <v>Finbourne-Examples</v>
-      </c>
-      <c r="AB46" s="89">
-        <v>53430.882352941175</v>
-      </c>
-      <c r="AC46" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="84" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
       </c>
       <c r="AE46" s="84">
         <v>78349.100000000006</v>
@@ -14856,8 +14860,8 @@
       <c r="AH46" s="84">
         <v>-78349.100000000006</v>
       </c>
-      <c r="AI46" s="86" t="str">
-        <v/>
+      <c r="AI46" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ46" s="2"/>
     </row>
@@ -14934,16 +14938,16 @@
         <v>0</v>
       </c>
       <c r="AA47" s="86" t="str">
+        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
+      </c>
+      <c r="AB47" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="89">
+        <v>19897.058823529413</v>
+      </c>
+      <c r="AD47" s="84" t="str">
         <v>Finbourne-Examples</v>
-      </c>
-      <c r="AB47" s="89">
-        <v>19897.058823529413</v>
-      </c>
-      <c r="AC47" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="84" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
       </c>
       <c r="AE47" s="84">
         <v>3954.69</v>
@@ -14957,8 +14961,8 @@
       <c r="AH47" s="84">
         <v>-3954.69</v>
       </c>
-      <c r="AI47" s="86" t="str">
-        <v/>
+      <c r="AI47" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ47" s="2"/>
     </row>
@@ -15035,16 +15039,16 @@
         <v>0</v>
       </c>
       <c r="AA48" s="86" t="str">
+        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
+      </c>
+      <c r="AB48" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="89">
+        <v>82867.647058823524</v>
+      </c>
+      <c r="AD48" s="84" t="str">
         <v>Finbourne-Examples</v>
-      </c>
-      <c r="AB48" s="89">
-        <v>82867.647058823524</v>
-      </c>
-      <c r="AC48" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="84" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
       </c>
       <c r="AE48" s="84">
         <v>0</v>
@@ -15058,8 +15062,8 @@
       <c r="AH48" s="84">
         <v>0</v>
       </c>
-      <c r="AI48" s="86" t="str">
-        <v/>
+      <c r="AI48" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ48" s="2"/>
     </row>
@@ -15136,16 +15140,16 @@
         <v>0</v>
       </c>
       <c r="AA49" s="86" t="str">
+        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
+      </c>
+      <c r="AB49" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="89">
+        <v>67364.705882352937</v>
+      </c>
+      <c r="AD49" s="84" t="str">
         <v>Finbourne-Examples</v>
-      </c>
-      <c r="AB49" s="89">
-        <v>67364.705882352937</v>
-      </c>
-      <c r="AC49" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="84" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
       </c>
       <c r="AE49" s="84">
         <v>0</v>
@@ -15159,8 +15163,8 @@
       <c r="AH49" s="84">
         <v>0</v>
       </c>
-      <c r="AI49" s="86" t="str">
-        <v/>
+      <c r="AI49" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ49" s="2"/>
     </row>
@@ -15237,16 +15241,16 @@
         <v>0</v>
       </c>
       <c r="AA50" s="86" t="str">
+        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
+      </c>
+      <c r="AB50" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="89">
+        <v>36029.411764705881</v>
+      </c>
+      <c r="AD50" s="84" t="str">
         <v>Finbourne-Examples</v>
-      </c>
-      <c r="AB50" s="89">
-        <v>36029.411764705881</v>
-      </c>
-      <c r="AC50" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="84" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
       </c>
       <c r="AE50" s="84">
         <v>0</v>
@@ -15260,8 +15264,8 @@
       <c r="AH50" s="84">
         <v>0</v>
       </c>
-      <c r="AI50" s="86" t="str">
-        <v/>
+      <c r="AI50" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ50" s="2"/>
     </row>
@@ -15338,16 +15342,16 @@
         <v>0</v>
       </c>
       <c r="AA51" s="86" t="str">
+        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
+      </c>
+      <c r="AB51" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="89">
+        <v>51470.588235294119</v>
+      </c>
+      <c r="AD51" s="84" t="str">
         <v>Finbourne-Examples</v>
-      </c>
-      <c r="AB51" s="89">
-        <v>51470.588235294119</v>
-      </c>
-      <c r="AC51" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="84" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
       </c>
       <c r="AE51" s="84">
         <v>0</v>
@@ -15361,8 +15365,8 @@
       <c r="AH51" s="84">
         <v>0</v>
       </c>
-      <c r="AI51" s="86" t="str">
-        <v/>
+      <c r="AI51" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ51" s="2"/>
     </row>
@@ -15372,98 +15376,98 @@
       <c r="D52" s="12">
         <v>19</v>
       </c>
-      <c r="E52" s="15" t="str">
-        <v/>
-      </c>
-      <c r="F52" s="15" t="str">
-        <v/>
-      </c>
-      <c r="G52" s="29" t="str">
-        <v/>
-      </c>
-      <c r="H52" s="86" t="str">
-        <v/>
-      </c>
-      <c r="I52" s="31" t="str">
-        <v/>
-      </c>
-      <c r="J52" s="31" t="str">
-        <v/>
-      </c>
-      <c r="K52" s="87" t="str">
-        <v/>
-      </c>
-      <c r="L52" s="82" t="str">
-        <v/>
-      </c>
-      <c r="M52" s="84" t="str">
-        <v/>
-      </c>
-      <c r="N52" s="27" t="str">
-        <v/>
-      </c>
-      <c r="O52" s="60" t="str">
-        <v/>
-      </c>
-      <c r="P52" s="84" t="str">
-        <v/>
-      </c>
-      <c r="Q52" s="86" t="str">
-        <v/>
-      </c>
-      <c r="R52" s="86" t="str">
-        <v/>
-      </c>
-      <c r="S52" s="86" t="str">
-        <v/>
-      </c>
-      <c r="T52" s="86" t="str">
-        <v/>
-      </c>
-      <c r="U52" s="86" t="str">
-        <v/>
-      </c>
-      <c r="V52" s="86" t="str">
-        <v/>
-      </c>
-      <c r="W52" s="88" t="str">
-        <v/>
-      </c>
-      <c r="X52" s="88" t="str">
-        <v/>
-      </c>
-      <c r="Y52" s="86" t="str">
-        <v/>
-      </c>
-      <c r="Z52" s="86" t="str">
-        <v/>
-      </c>
-      <c r="AA52" s="86" t="str">
-        <v/>
-      </c>
-      <c r="AB52" s="89" t="str">
-        <v/>
-      </c>
-      <c r="AC52" s="89" t="str">
-        <v/>
-      </c>
-      <c r="AD52" s="84" t="str">
-        <v/>
-      </c>
-      <c r="AE52" s="84" t="str">
-        <v/>
-      </c>
-      <c r="AF52" s="84" t="str">
-        <v/>
-      </c>
-      <c r="AG52" s="84" t="str">
-        <v/>
-      </c>
-      <c r="AH52" s="84" t="str">
-        <v/>
-      </c>
-      <c r="AI52" s="86" t="str">
-        <v/>
+      <c r="E52" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F52" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G52" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H52" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I52" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J52" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K52" s="87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L52" s="82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M52" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N52" s="27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O52" s="60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P52" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q52" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R52" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S52" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T52" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U52" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V52" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W52" s="88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X52" s="88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y52" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z52" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA52" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB52" s="89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC52" s="89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD52" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE52" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF52" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG52" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH52" s="84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI52" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ52" s="2"/>
     </row>
@@ -15471,98 +15475,98 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="G53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="H53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="I53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="J53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="K53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="L53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="M53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="N53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="O53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="P53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="Q53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="R53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="S53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="T53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="U53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="V53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="W53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="X53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="Y53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="Z53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="AA53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="AB53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="AC53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="AD53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="AE53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="AF53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="AG53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="AH53" s="2" t="str">
-        <v/>
-      </c>
-      <c r="AI53" s="2" t="str">
-        <v/>
+      <c r="E53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH53" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI53" s="2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AJ53" s="2"/>
     </row>
@@ -15714,944 +15718,944 @@
       </c>
     </row>
     <row r="62" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E62" s="15" t="e">
+      <c r="E62" s="15" t="str">
         <f t="array" ref="E62:S81">_xll.flTransactionsGet(F17,F19,F23,F25,,,F27,E61:S61)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F62" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G62" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H62" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I62" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J62" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K62" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L62" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M62" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N62" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O62" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P62" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q62" s="22" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R62" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S62" s="86" t="e">
-        <v>#VALUE!</v>
+        <v>Active</v>
+      </c>
+      <c r="F62" s="86" t="str">
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="G62" s="29" t="str">
+        <v>AdjustmentIncrease</v>
+      </c>
+      <c r="H62" s="86" t="str">
+        <v>Increase Adjustment</v>
+      </c>
+      <c r="I62" s="31" t="str">
+        <v>LusidInstrumentId:LUID_AQ7JLG30</v>
+      </c>
+      <c r="J62" s="31" t="str">
+        <v>LUID_AQ7JLG30</v>
+      </c>
+      <c r="K62" s="87">
+        <v>43466</v>
+      </c>
+      <c r="L62" s="82">
+        <v>43466</v>
+      </c>
+      <c r="M62" s="84">
+        <v>80500</v>
+      </c>
+      <c r="N62" s="27">
+        <v>231437.5</v>
+      </c>
+      <c r="O62" s="60">
+        <v>2.875</v>
+      </c>
+      <c r="P62" s="84">
+        <v>231437.5</v>
+      </c>
+      <c r="Q62" s="22" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R62" s="86">
+        <v>1</v>
+      </c>
+      <c r="S62" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="63" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E63" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F63" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G63" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H63" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I63" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J63" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K63" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L63" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M63" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N63" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O63" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P63" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q63" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R63" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S63" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E63" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F63" s="15" t="str">
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="G63" s="29" t="str">
+        <v>AdjustmentIncrease</v>
+      </c>
+      <c r="H63" s="86" t="str">
+        <v>Increase Adjustment</v>
+      </c>
+      <c r="I63" s="31" t="str">
+        <v>LusidInstrumentId:LUID_2LW50NUJ</v>
+      </c>
+      <c r="J63" s="31" t="str">
+        <v>LUID_2LW50NUJ</v>
+      </c>
+      <c r="K63" s="87">
+        <v>43466</v>
+      </c>
+      <c r="L63" s="82">
+        <v>43466</v>
+      </c>
+      <c r="M63" s="84">
+        <v>65440</v>
+      </c>
+      <c r="N63" s="27">
+        <v>174070.39999999999</v>
+      </c>
+      <c r="O63" s="60">
+        <v>2.66</v>
+      </c>
+      <c r="P63" s="84">
+        <v>174070.40000000002</v>
+      </c>
+      <c r="Q63" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R63" s="86">
+        <v>1</v>
+      </c>
+      <c r="S63" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="64" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E64" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F64" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G64" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H64" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I64" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J64" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K64" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L64" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M64" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N64" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O64" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P64" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q64" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R64" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S64" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E64" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F64" s="15" t="str">
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="G64" s="29" t="str">
+        <v>AdjustmentIncrease</v>
+      </c>
+      <c r="H64" s="86" t="str">
+        <v>Increase Adjustment</v>
+      </c>
+      <c r="I64" s="31" t="str">
+        <v>LusidInstrumentId:LUID_GB6QXR8W</v>
+      </c>
+      <c r="J64" s="31" t="str">
+        <v>LUID_GB6QXR8W</v>
+      </c>
+      <c r="K64" s="87">
+        <v>43466</v>
+      </c>
+      <c r="L64" s="82">
+        <v>43466</v>
+      </c>
+      <c r="M64" s="84">
+        <v>50000</v>
+      </c>
+      <c r="N64" s="27">
+        <v>94825</v>
+      </c>
+      <c r="O64" s="60">
+        <v>1.8965000000000001</v>
+      </c>
+      <c r="P64" s="84">
+        <v>94825</v>
+      </c>
+      <c r="Q64" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R64" s="86">
+        <v>1</v>
+      </c>
+      <c r="S64" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="65" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E65" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F65" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G65" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H65" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I65" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J65" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K65" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L65" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M65" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N65" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O65" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P65" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q65" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R65" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S65" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E65" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F65" s="15" t="str">
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="G65" s="29" t="str">
+        <v>AdjustmentIncrease</v>
+      </c>
+      <c r="H65" s="86" t="str">
+        <v>Increase Adjustment</v>
+      </c>
+      <c r="I65" s="31" t="str">
+        <v>LusidInstrumentId:LUID_XZ01FKZX</v>
+      </c>
+      <c r="J65" s="31" t="str">
+        <v>LUID_XZ01FKZX</v>
+      </c>
+      <c r="K65" s="87">
+        <v>43466</v>
+      </c>
+      <c r="L65" s="82">
+        <v>43466</v>
+      </c>
+      <c r="M65" s="84">
+        <v>8000</v>
+      </c>
+      <c r="N65" s="27">
+        <v>386800</v>
+      </c>
+      <c r="O65" s="60">
+        <v>48.35</v>
+      </c>
+      <c r="P65" s="84">
+        <v>386800</v>
+      </c>
+      <c r="Q65" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R65" s="86">
+        <v>1</v>
+      </c>
+      <c r="S65" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="66" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E66" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F66" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G66" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H66" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I66" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J66" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K66" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L66" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M66" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N66" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O66" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P66" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q66" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R66" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S66" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E66" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F66" s="15" t="str">
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="G66" s="29" t="str">
+        <v>AdjustmentIncrease</v>
+      </c>
+      <c r="H66" s="86" t="str">
+        <v>Increase Adjustment</v>
+      </c>
+      <c r="I66" s="31" t="str">
+        <v>LusidInstrumentId:LUID_V9OX6CRE</v>
+      </c>
+      <c r="J66" s="31" t="str">
+        <v>LUID_V9OX6CRE</v>
+      </c>
+      <c r="K66" s="87">
+        <v>43466</v>
+      </c>
+      <c r="L66" s="82">
+        <v>43466</v>
+      </c>
+      <c r="M66" s="84">
+        <v>20500</v>
+      </c>
+      <c r="N66" s="27">
+        <v>134459.5</v>
+      </c>
+      <c r="O66" s="60">
+        <v>6.5590000000000002</v>
+      </c>
+      <c r="P66" s="84">
+        <v>134459.5</v>
+      </c>
+      <c r="Q66" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R66" s="86">
+        <v>1</v>
+      </c>
+      <c r="S66" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="67" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E67" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F67" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G67" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H67" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I67" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J67" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K67" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L67" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M67" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N67" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O67" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P67" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q67" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R67" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S67" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E67" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F67" s="15" t="str">
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="G67" s="29" t="str">
+        <v>AdjustmentIncrease</v>
+      </c>
+      <c r="H67" s="86" t="str">
+        <v>Increase Adjustment</v>
+      </c>
+      <c r="I67" s="31" t="str">
+        <v>LusidInstrumentId:LUID_AHX7SPIA</v>
+      </c>
+      <c r="J67" s="31" t="str">
+        <v>LUID_AHX7SPIA</v>
+      </c>
+      <c r="K67" s="87">
+        <v>43466</v>
+      </c>
+      <c r="L67" s="82">
+        <v>43466</v>
+      </c>
+      <c r="M67" s="84">
+        <v>12500</v>
+      </c>
+      <c r="N67" s="27">
+        <v>71237.5</v>
+      </c>
+      <c r="O67" s="60">
+        <v>5.6989999999999998</v>
+      </c>
+      <c r="P67" s="84">
+        <v>71237.5</v>
+      </c>
+      <c r="Q67" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R67" s="86">
+        <v>1</v>
+      </c>
+      <c r="S67" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="68" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E68" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F68" s="81" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G68" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H68" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I68" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J68" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K68" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L68" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M68" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N68" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O68" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P68" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q68" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R68" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S68" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E68" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F68" s="81" t="str">
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="G68" s="29" t="str">
+        <v>AdjustmentIncrease</v>
+      </c>
+      <c r="H68" s="86" t="str">
+        <v>Increase Adjustment</v>
+      </c>
+      <c r="I68" s="31" t="str">
+        <v>LusidInstrumentId:LUID_Y6EBBGXM</v>
+      </c>
+      <c r="J68" s="31" t="str">
+        <v>LUID_Y6EBBGXM</v>
+      </c>
+      <c r="K68" s="87">
+        <v>43466</v>
+      </c>
+      <c r="L68" s="82">
+        <v>43466</v>
+      </c>
+      <c r="M68" s="84">
+        <v>95440</v>
+      </c>
+      <c r="N68" s="27">
+        <v>5720673.5999999996</v>
+      </c>
+      <c r="O68" s="60">
+        <v>59.94</v>
+      </c>
+      <c r="P68" s="84">
+        <v>5720673.5999999996</v>
+      </c>
+      <c r="Q68" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R68" s="86">
+        <v>1</v>
+      </c>
+      <c r="S68" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="69" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E69" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F69" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G69" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H69" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I69" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J69" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K69" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L69" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M69" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N69" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O69" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P69" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q69" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R69" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S69" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E69" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F69" s="15" t="str">
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="G69" s="29" t="str">
+        <v>AdjustmentIncrease</v>
+      </c>
+      <c r="H69" s="86" t="str">
+        <v>Increase Adjustment</v>
+      </c>
+      <c r="I69" s="31" t="str">
+        <v>LusidInstrumentId:LUID_V6OJOXJ1</v>
+      </c>
+      <c r="J69" s="31" t="str">
+        <v>LUID_V6OJOXJ1</v>
+      </c>
+      <c r="K69" s="87">
+        <v>43466</v>
+      </c>
+      <c r="L69" s="82">
+        <v>43466</v>
+      </c>
+      <c r="M69" s="84">
+        <v>55050</v>
+      </c>
+      <c r="N69" s="27">
+        <v>2663869.5</v>
+      </c>
+      <c r="O69" s="60">
+        <v>48.39</v>
+      </c>
+      <c r="P69" s="84">
+        <v>2663869.5</v>
+      </c>
+      <c r="Q69" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R69" s="86">
+        <v>1</v>
+      </c>
+      <c r="S69" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="70" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E70" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F70" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G70" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H70" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I70" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J70" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K70" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L70" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M70" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N70" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O70" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P70" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q70" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R70" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S70" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E70" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F70" s="15" t="str">
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="G70" s="29" t="str">
+        <v>AdjustmentIncrease</v>
+      </c>
+      <c r="H70" s="86" t="str">
+        <v>Increase Adjustment</v>
+      </c>
+      <c r="I70" s="31" t="str">
+        <v>LusidInstrumentId:LUID_RLKHXG2G</v>
+      </c>
+      <c r="J70" s="31" t="str">
+        <v>LUID_RLKHXG2G</v>
+      </c>
+      <c r="K70" s="87">
+        <v>43466</v>
+      </c>
+      <c r="L70" s="82">
+        <v>43466</v>
+      </c>
+      <c r="M70" s="84">
+        <v>120000</v>
+      </c>
+      <c r="N70" s="27">
+        <v>171000</v>
+      </c>
+      <c r="O70" s="60">
+        <v>1.425</v>
+      </c>
+      <c r="P70" s="84">
+        <v>171000</v>
+      </c>
+      <c r="Q70" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R70" s="86">
+        <v>1</v>
+      </c>
+      <c r="S70" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="71" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E71" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F71" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G71" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H71" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I71" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J71" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K71" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L71" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M71" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N71" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O71" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P71" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q71" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R71" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S71" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E71" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F71" s="15" t="str">
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="G71" s="29" t="str">
+        <v>AdjustmentIncrease</v>
+      </c>
+      <c r="H71" s="86" t="str">
+        <v>Increase Adjustment</v>
+      </c>
+      <c r="I71" s="31" t="str">
+        <v>LusidInstrumentId:LUID_12V1ZKJL</v>
+      </c>
+      <c r="J71" s="31" t="str">
+        <v>LUID_12V1ZKJL</v>
+      </c>
+      <c r="K71" s="87">
+        <v>43466</v>
+      </c>
+      <c r="L71" s="82">
+        <v>43466</v>
+      </c>
+      <c r="M71" s="84">
+        <v>35000</v>
+      </c>
+      <c r="N71" s="27">
+        <v>287140</v>
+      </c>
+      <c r="O71" s="60">
+        <v>8.2040000000000006</v>
+      </c>
+      <c r="P71" s="84">
+        <v>287140</v>
+      </c>
+      <c r="Q71" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R71" s="86">
+        <v>1</v>
+      </c>
+      <c r="S71" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="72" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E72" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F72" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G72" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H72" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I72" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J72" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K72" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L72" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M72" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N72" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O72" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P72" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q72" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R72" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S72" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E72" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F72" s="15" t="str">
+        <v>UKEQTY100011</v>
+      </c>
+      <c r="G72" s="29" t="str">
+        <v>Sell</v>
+      </c>
+      <c r="H72" s="86" t="str">
+        <v>Sale</v>
+      </c>
+      <c r="I72" s="31" t="str">
+        <v>Figi:BBG000C0YGB0</v>
+      </c>
+      <c r="J72" s="31" t="str">
+        <v>LUID_Y6EBBGXM</v>
+      </c>
+      <c r="K72" s="87">
+        <v>43570</v>
+      </c>
+      <c r="L72" s="82">
+        <v>43602</v>
+      </c>
+      <c r="M72" s="84">
+        <v>2807.0588235294117</v>
+      </c>
+      <c r="N72" s="27">
+        <v>168255.11</v>
+      </c>
+      <c r="O72" s="60">
+        <v>59.94</v>
+      </c>
+      <c r="P72" s="84">
+        <v>168255.10588235295</v>
+      </c>
+      <c r="Q72" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R72" s="86">
+        <v>1</v>
+      </c>
+      <c r="S72" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="73" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E73" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F73" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G73" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H73" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I73" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J73" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K73" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L73" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M73" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N73" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O73" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P73" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q73" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R73" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S73" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E73" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F73" s="15" t="str">
+        <v>UKEQTY100012</v>
+      </c>
+      <c r="G73" s="29" t="str">
+        <v>Sell</v>
+      </c>
+      <c r="H73" s="86" t="str">
+        <v>Sale</v>
+      </c>
+      <c r="I73" s="31" t="str">
+        <v>Figi:BBG000C059M6</v>
+      </c>
+      <c r="J73" s="31" t="str">
+        <v>LUID_AHX7SPIA</v>
+      </c>
+      <c r="K73" s="87">
+        <v>43570</v>
+      </c>
+      <c r="L73" s="82">
+        <v>43602</v>
+      </c>
+      <c r="M73" s="84">
+        <v>367.64705882352939</v>
+      </c>
+      <c r="N73" s="27">
+        <v>2095.2199999999998</v>
+      </c>
+      <c r="O73" s="60">
+        <v>5.6989999999999998</v>
+      </c>
+      <c r="P73" s="84">
+        <v>2095.2205882352941</v>
+      </c>
+      <c r="Q73" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R73" s="86">
+        <v>1</v>
+      </c>
+      <c r="S73" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="74" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E74" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F74" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G74" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H74" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I74" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J74" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K74" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L74" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M74" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N74" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O74" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P74" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q74" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R74" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S74" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E74" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F74" s="15" t="str">
+        <v>UKEQTY100013</v>
+      </c>
+      <c r="G74" s="29" t="str">
+        <v>Sell</v>
+      </c>
+      <c r="H74" s="86" t="str">
+        <v>Sale</v>
+      </c>
+      <c r="I74" s="31" t="str">
+        <v>Figi:BBG000C2C436</v>
+      </c>
+      <c r="J74" s="31" t="str">
+        <v>LUID_V6OJOXJ1</v>
+      </c>
+      <c r="K74" s="87">
+        <v>43570</v>
+      </c>
+      <c r="L74" s="82">
+        <v>43602</v>
+      </c>
+      <c r="M74" s="84">
+        <v>1619.1176470588234</v>
+      </c>
+      <c r="N74" s="27">
+        <v>78349.100000000006</v>
+      </c>
+      <c r="O74" s="60">
+        <v>48.39</v>
+      </c>
+      <c r="P74" s="84">
+        <v>78349.102941176461</v>
+      </c>
+      <c r="Q74" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R74" s="86">
+        <v>1</v>
+      </c>
+      <c r="S74" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="75" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E75" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F75" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G75" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H75" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I75" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J75" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K75" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L75" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M75" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N75" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O75" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P75" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q75" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R75" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S75" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E75" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F75" s="15" t="str">
+        <v>UKEQTY100014</v>
+      </c>
+      <c r="G75" s="29" t="str">
+        <v>Sell</v>
+      </c>
+      <c r="H75" s="86" t="str">
+        <v>Sale</v>
+      </c>
+      <c r="I75" s="31" t="str">
+        <v>Figi:BBG000BS1MT4</v>
+      </c>
+      <c r="J75" s="31" t="str">
+        <v>LUID_V9OX6CRE</v>
+      </c>
+      <c r="K75" s="87">
+        <v>43570</v>
+      </c>
+      <c r="L75" s="82">
+        <v>43602</v>
+      </c>
+      <c r="M75" s="84">
+        <v>602.94117647058829</v>
+      </c>
+      <c r="N75" s="27">
+        <v>3954.69</v>
+      </c>
+      <c r="O75" s="60">
+        <v>6.5590000000000002</v>
+      </c>
+      <c r="P75" s="84">
+        <v>3954.6911764705887</v>
+      </c>
+      <c r="Q75" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R75" s="86">
+        <v>1</v>
+      </c>
+      <c r="S75" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="76" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E76" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F76" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G76" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H76" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I76" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J76" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K76" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L76" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M76" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N76" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O76" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P76" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q76" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R76" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S76" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E76" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F76" s="15" t="str">
+        <v>UKEQTY100015</v>
+      </c>
+      <c r="G76" s="29" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="H76" s="86" t="str">
+        <v>Purchase</v>
+      </c>
+      <c r="I76" s="31" t="str">
+        <v>Figi:BBG000BDQBV1</v>
+      </c>
+      <c r="J76" s="31" t="str">
+        <v>LUID_AQ7JLG30</v>
+      </c>
+      <c r="K76" s="87">
+        <v>43570</v>
+      </c>
+      <c r="L76" s="82">
+        <v>43602</v>
+      </c>
+      <c r="M76" s="84">
+        <v>2367.6470588235293</v>
+      </c>
+      <c r="N76" s="27">
+        <v>6806.99</v>
+      </c>
+      <c r="O76" s="60">
+        <v>2.875</v>
+      </c>
+      <c r="P76" s="84">
+        <v>6806.9852941176468</v>
+      </c>
+      <c r="Q76" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R76" s="86">
+        <v>1</v>
+      </c>
+      <c r="S76" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="77" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E77" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F77" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G77" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H77" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I77" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J77" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K77" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L77" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M77" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N77" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O77" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P77" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q77" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R77" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S77" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E77" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F77" s="15" t="str">
+        <v>UKEQTY100016</v>
+      </c>
+      <c r="G77" s="29" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="H77" s="86" t="str">
+        <v>Purchase</v>
+      </c>
+      <c r="I77" s="31" t="str">
+        <v>Figi:BBG000BDTRH9</v>
+      </c>
+      <c r="J77" s="31" t="str">
+        <v>LUID_2LW50NUJ</v>
+      </c>
+      <c r="K77" s="87">
+        <v>43570</v>
+      </c>
+      <c r="L77" s="82">
+        <v>43602</v>
+      </c>
+      <c r="M77" s="84">
+        <v>1924.7058823529412</v>
+      </c>
+      <c r="N77" s="27">
+        <v>5119.72</v>
+      </c>
+      <c r="O77" s="60">
+        <v>2.66</v>
+      </c>
+      <c r="P77" s="84">
+        <v>5119.7176470588238</v>
+      </c>
+      <c r="Q77" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R77" s="86">
+        <v>1</v>
+      </c>
+      <c r="S77" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="78" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E78" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F78" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G78" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H78" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I78" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J78" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K78" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L78" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M78" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N78" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O78" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P78" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q78" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R78" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S78" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E78" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F78" s="15" t="str">
+        <v>UKEQTY100017</v>
+      </c>
+      <c r="G78" s="29" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="H78" s="86" t="str">
+        <v>Purchase</v>
+      </c>
+      <c r="I78" s="31" t="str">
+        <v>Figi:BBG000FV67D8</v>
+      </c>
+      <c r="J78" s="31" t="str">
+        <v>LUID_12V1ZKJL</v>
+      </c>
+      <c r="K78" s="87">
+        <v>43570</v>
+      </c>
+      <c r="L78" s="82">
+        <v>43602</v>
+      </c>
+      <c r="M78" s="84">
+        <v>1029.4117647058824</v>
+      </c>
+      <c r="N78" s="27">
+        <v>8445.2900000000009</v>
+      </c>
+      <c r="O78" s="60">
+        <v>8.2040000000000006</v>
+      </c>
+      <c r="P78" s="84">
+        <v>8445.2941176470595</v>
+      </c>
+      <c r="Q78" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R78" s="86">
+        <v>1</v>
+      </c>
+      <c r="S78" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="79" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E79" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F79" s="15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G79" s="29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H79" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I79" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J79" s="31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K79" s="87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L79" s="82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M79" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N79" s="27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O79" s="60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P79" s="84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q79" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R79" s="86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S79" s="86" t="e">
-        <v>#VALUE!</v>
+      <c r="E79" s="15" t="str">
+        <v>Active</v>
+      </c>
+      <c r="F79" s="15" t="str">
+        <v>UKEQTY100018</v>
+      </c>
+      <c r="G79" s="29" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="H79" s="86" t="str">
+        <v>Purchase</v>
+      </c>
+      <c r="I79" s="31" t="str">
+        <v>Figi:BBG000BF4HM7</v>
+      </c>
+      <c r="J79" s="31" t="str">
+        <v>LUID_GB6QXR8W</v>
+      </c>
+      <c r="K79" s="87">
+        <v>43570</v>
+      </c>
+      <c r="L79" s="82">
+        <v>43602</v>
+      </c>
+      <c r="M79" s="84">
+        <v>1470.5882352941176</v>
+      </c>
+      <c r="N79" s="27">
+        <v>2788.97</v>
+      </c>
+      <c r="O79" s="60">
+        <v>1.8965000000000001</v>
+      </c>
+      <c r="P79" s="84">
+        <v>2788.9705882352941</v>
+      </c>
+      <c r="Q79" s="86" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="R79" s="86">
+        <v>1</v>
+      </c>
+      <c r="S79" s="86" t="str">
+        <v/>
       </c>
     </row>
     <row r="80" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E80" s="15" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="F80" s="15" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="G80" s="29" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="H80" s="86" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I80" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J80" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K80" s="87" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="L80" s="82" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M80" s="84" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N80" s="27" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O80" s="60" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P80" s="84" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q80" s="86" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R80" s="86" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S80" s="86" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="F81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="G81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="H81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="I81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="J81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="K81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="L81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="M81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S81" s="2" t="e">
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="5:19" x14ac:dyDescent="0.25">
@@ -17254,7 +17258,7 @@
       </c>
       <c r="F27" s="90">
         <f ca="1">NOW()</f>
-        <v>43837.377939699072</v>
+        <v>43838.45692222222</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -17335,7 +17339,7 @@
       </c>
       <c r="F31" s="90">
         <f ca="1">F27-5/1440</f>
-        <v>43837.374467476853</v>
+        <v>43838.453450000001</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -17507,47 +17511,47 @@
       <c r="D40" s="12"/>
       <c r="E40" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Uid</v>
       </c>
       <c r="F40" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Units</v>
       </c>
       <c r="G40" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Units</v>
       </c>
       <c r="H40" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Units Difference</v>
       </c>
       <c r="I40" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Amount</v>
       </c>
       <c r="J40" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Currency</v>
       </c>
       <c r="K40" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Amount</v>
       </c>
       <c r="L40" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Currency</v>
       </c>
       <c r="M40" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Amount</v>
       </c>
       <c r="N40" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Currency</v>
       </c>
       <c r="O40" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Properties</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
@@ -17556,47 +17560,47 @@
       <c r="D41" s="12"/>
       <c r="E41" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Uid</v>
       </c>
       <c r="F41" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Units</v>
       </c>
       <c r="G41" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Units</v>
       </c>
       <c r="H41" s="93" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Units Difference</v>
       </c>
       <c r="I41" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Amount</v>
       </c>
       <c r="J41" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Currency</v>
       </c>
       <c r="K41" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Amount</v>
       </c>
       <c r="L41" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Currency</v>
       </c>
       <c r="M41" s="91" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Amount</v>
       </c>
       <c r="N41" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Currency</v>
       </c>
       <c r="O41" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Properties</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
@@ -17605,47 +17609,47 @@
       <c r="D42" s="12"/>
       <c r="E42" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Uid</v>
       </c>
       <c r="F42" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Units</v>
       </c>
       <c r="G42" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Units</v>
       </c>
       <c r="H42" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Units Difference</v>
       </c>
       <c r="I42" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Amount</v>
       </c>
       <c r="J42" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Currency</v>
       </c>
       <c r="K42" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Amount</v>
       </c>
       <c r="L42" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Currency</v>
       </c>
       <c r="M42" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Amount</v>
       </c>
       <c r="N42" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Currency</v>
       </c>
       <c r="O42" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Properties</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
@@ -17654,47 +17658,47 @@
       <c r="D43" s="12"/>
       <c r="E43" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Uid</v>
       </c>
       <c r="F43" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Units</v>
       </c>
       <c r="G43" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Units</v>
       </c>
       <c r="H43" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Units Difference</v>
       </c>
       <c r="I43" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Amount</v>
       </c>
       <c r="J43" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Currency</v>
       </c>
       <c r="K43" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Amount</v>
       </c>
       <c r="L43" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Currency</v>
       </c>
       <c r="M43" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Amount</v>
       </c>
       <c r="N43" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Currency</v>
       </c>
       <c r="O43" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Properties</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
@@ -17703,47 +17707,47 @@
       <c r="D44" s="12"/>
       <c r="E44" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Uid</v>
       </c>
       <c r="F44" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Units</v>
       </c>
       <c r="G44" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Units</v>
       </c>
       <c r="H44" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Units Difference</v>
       </c>
       <c r="I44" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Amount</v>
       </c>
       <c r="J44" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Currency</v>
       </c>
       <c r="K44" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Amount</v>
       </c>
       <c r="L44" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Currency</v>
       </c>
       <c r="M44" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Amount</v>
       </c>
       <c r="N44" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Currency</v>
       </c>
       <c r="O44" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Properties</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
@@ -17752,47 +17756,47 @@
       <c r="D45" s="12"/>
       <c r="E45" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Uid</v>
       </c>
       <c r="F45" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Units</v>
       </c>
       <c r="G45" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Units</v>
       </c>
       <c r="H45" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Units Difference</v>
       </c>
       <c r="I45" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Amount</v>
       </c>
       <c r="J45" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Currency</v>
       </c>
       <c r="K45" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Amount</v>
       </c>
       <c r="L45" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Currency</v>
       </c>
       <c r="M45" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Amount</v>
       </c>
       <c r="N45" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Currency</v>
       </c>
       <c r="O45" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Properties</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
@@ -17801,47 +17805,47 @@
       <c r="D46" s="12"/>
       <c r="E46" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Uid</v>
       </c>
       <c r="F46" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Units</v>
       </c>
       <c r="G46" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Units</v>
       </c>
       <c r="H46" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Units Difference</v>
       </c>
       <c r="I46" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Amount</v>
       </c>
       <c r="J46" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Currency</v>
       </c>
       <c r="K46" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Amount</v>
       </c>
       <c r="L46" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Currency</v>
       </c>
       <c r="M46" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Amount</v>
       </c>
       <c r="N46" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Currency</v>
       </c>
       <c r="O46" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Properties</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
@@ -17850,47 +17854,47 @@
       <c r="D47" s="12"/>
       <c r="E47" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Uid</v>
       </c>
       <c r="F47" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Units</v>
       </c>
       <c r="G47" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Units</v>
       </c>
       <c r="H47" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Units Difference</v>
       </c>
       <c r="I47" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Amount</v>
       </c>
       <c r="J47" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Currency</v>
       </c>
       <c r="K47" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Amount</v>
       </c>
       <c r="L47" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Currency</v>
       </c>
       <c r="M47" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Amount</v>
       </c>
       <c r="N47" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Currency</v>
       </c>
       <c r="O47" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Properties</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
@@ -17899,47 +17903,47 @@
       <c r="D48" s="12"/>
       <c r="E48" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Uid</v>
       </c>
       <c r="F48" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Units</v>
       </c>
       <c r="G48" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Units</v>
       </c>
       <c r="H48" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Units Difference</v>
       </c>
       <c r="I48" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Amount</v>
       </c>
       <c r="J48" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Currency</v>
       </c>
       <c r="K48" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Amount</v>
       </c>
       <c r="L48" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Currency</v>
       </c>
       <c r="M48" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Amount</v>
       </c>
       <c r="N48" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Currency</v>
       </c>
       <c r="O48" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Properties</v>
       </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
@@ -17948,47 +17952,47 @@
       <c r="D49" s="12"/>
       <c r="E49" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Uid</v>
       </c>
       <c r="F49" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Units</v>
       </c>
       <c r="G49" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Units</v>
       </c>
       <c r="H49" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Units Difference</v>
       </c>
       <c r="I49" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Amount</v>
       </c>
       <c r="J49" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Left Cost Currency</v>
       </c>
       <c r="K49" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Amount</v>
       </c>
       <c r="L49" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Right Cost Currency</v>
       </c>
       <c r="M49" s="50" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Amount</v>
       </c>
       <c r="N49" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Cost Difference Currency</v>
       </c>
       <c r="O49" s="16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>Instrument Properties</v>
       </c>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
@@ -19639,16 +19643,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F4F0FA1AC8B142BA5BFAEE01329AF1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51d44e6750016a81140edd9302933050">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7f1325bc-d786-4e92-924e-74ffe34b2b40" xmlns:ns3="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbbf5b69800df541767d824f3fbf5177" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19874,6 +19868,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
   <ds:schemaRefs>
@@ -19883,24 +19887,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EDF347-3168-4BEB-9A6E-9322773C07F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19918,4 +19904,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LUSID Excel - Setting up your IBOR.xlsx
+++ b/LUSID Excel - Setting up your IBOR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\work\code\lusid-sdk\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07CA06D-6F30-4578-ABFD-E80C64C72CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C796B1-9655-4738-83B0-59807B5CA656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
+    <workbookView xWindow="810" yWindow="-16320" windowWidth="28110" windowHeight="16440" tabRatio="798" activeTab="5" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Datetime format" sheetId="11" r:id="rId1"/>
@@ -1816,1635 +1816,1639 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.876df04507944d89bfe21dc3f008e3fd">
+    <main first="rtdsrv.b5eecb54378e499998dd3d4e75938e4f">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>8702083b-fb66-4157-ac82-63a5bccb3a0b</stp>
+        <stp>de98f51a-355d-4bc8-9177-b5a14fc842fa</stp>
         <tr r="F45" s="5"/>
         <tr r="F46" s="5"/>
         <tr r="E46" s="5"/>
         <tr r="E45" s="5"/>
       </tp>
     </main>
-    <main first="rtdsrv.876df04507944d89bfe21dc3f008e3fd">
+    <main first="rtdsrv.b5eecb54378e499998dd3d4e75938e4f">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>efb35461-e669-42b1-ad48-e0a19da6f3e1</stp>
-        <tr r="G30" s="9"/>
-        <tr r="E32" s="9"/>
-        <tr r="E34" s="9"/>
-        <tr r="F39" s="9"/>
-        <tr r="G37" s="9"/>
-        <tr r="G33" s="9"/>
-        <tr r="F31" s="9"/>
-        <tr r="G31" s="9"/>
-        <tr r="E33" s="9"/>
-        <tr r="E37" s="9"/>
-        <tr r="F30" s="9"/>
-        <tr r="E36" s="9"/>
-        <tr r="E38" s="9"/>
-        <tr r="F36" s="9"/>
-        <tr r="G32" s="9"/>
-        <tr r="F37" s="9"/>
-        <tr r="F38" s="9"/>
-        <tr r="G28" s="9"/>
-        <tr r="F28" s="9"/>
-        <tr r="E30" s="9"/>
-        <tr r="E29" s="9"/>
-        <tr r="F35" s="9"/>
-        <tr r="F32" s="9"/>
-        <tr r="F34" s="9"/>
-        <tr r="G36" s="9"/>
-        <tr r="G34" s="9"/>
-        <tr r="G38" s="9"/>
-        <tr r="E31" s="9"/>
-        <tr r="E35" s="9"/>
-        <tr r="F29" s="9"/>
-        <tr r="G39" s="9"/>
-        <tr r="G35" s="9"/>
-        <tr r="E28" s="9"/>
-        <tr r="E39" s="9"/>
-        <tr r="F33" s="9"/>
-        <tr r="G29" s="9"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.876df04507944d89bfe21dc3f008e3fd">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a3c6fa77-b652-4dd2-9ff0-cda7ee71c6e2</stp>
-        <tr r="O35" s="8"/>
-        <tr r="Q34" s="8"/>
-        <tr r="R35" s="8"/>
-        <tr r="R41" s="8"/>
-        <tr r="Q51" s="8"/>
-        <tr r="P43" s="8"/>
-        <tr r="Q49" s="8"/>
-        <tr r="N46" s="8"/>
-        <tr r="Q32" s="8"/>
-        <tr r="P48" s="8"/>
-        <tr r="N36" s="8"/>
-        <tr r="R48" s="8"/>
-        <tr r="R47" s="8"/>
-        <tr r="Q40" s="8"/>
-        <tr r="O40" s="8"/>
-        <tr r="R38" s="8"/>
-        <tr r="R36" s="8"/>
-        <tr r="Q42" s="8"/>
-        <tr r="R51" s="8"/>
-        <tr r="R39" s="8"/>
-        <tr r="O41" s="8"/>
-        <tr r="O42" s="8"/>
-        <tr r="N31" s="8"/>
-        <tr r="O37" s="8"/>
-        <tr r="N48" s="8"/>
-        <tr r="N44" s="8"/>
-        <tr r="Q44" s="8"/>
-        <tr r="Q50" s="8"/>
-        <tr r="Q31" s="8"/>
-        <tr r="Q33" s="8"/>
-        <tr r="O48" s="8"/>
-        <tr r="O31" s="8"/>
-        <tr r="R45" s="8"/>
-        <tr r="N50" s="8"/>
-        <tr r="O43" s="8"/>
-        <tr r="P31" s="8"/>
-        <tr r="P38" s="8"/>
-        <tr r="P41" s="8"/>
-        <tr r="N35" s="8"/>
-        <tr r="O33" s="8"/>
-        <tr r="N45" s="8"/>
-        <tr r="N37" s="8"/>
-        <tr r="Q38" s="8"/>
-        <tr r="Q43" s="8"/>
-        <tr r="P49" s="8"/>
-        <tr r="N47" s="8"/>
-        <tr r="O47" s="8"/>
-        <tr r="P36" s="8"/>
-        <tr r="N41" s="8"/>
-        <tr r="P32" s="8"/>
-        <tr r="Q35" s="8"/>
-        <tr r="R34" s="8"/>
-        <tr r="P42" s="8"/>
-        <tr r="Q45" s="8"/>
-        <tr r="P50" s="8"/>
-        <tr r="O45" s="8"/>
-        <tr r="O46" s="8"/>
-        <tr r="R46" s="8"/>
-        <tr r="P44" s="8"/>
-        <tr r="N42" s="8"/>
-        <tr r="R32" s="8"/>
-        <tr r="O50" s="8"/>
-        <tr r="N43" s="8"/>
-        <tr r="O49" s="8"/>
-        <tr r="Q37" s="8"/>
-        <tr r="N49" s="8"/>
-        <tr r="Q39" s="8"/>
-        <tr r="R49" s="8"/>
-        <tr r="R44" s="8"/>
-        <tr r="R31" s="8"/>
-        <tr r="P47" s="8"/>
-        <tr r="Q36" s="8"/>
-        <tr r="O51" s="8"/>
-        <tr r="O39" s="8"/>
-        <tr r="O38" s="8"/>
-        <tr r="P37" s="8"/>
-        <tr r="N38" s="8"/>
-        <tr r="Q48" s="8"/>
-        <tr r="N34" s="8"/>
-        <tr r="P45" s="8"/>
-        <tr r="P51" s="8"/>
-        <tr r="O34" s="8"/>
-        <tr r="N51" s="8"/>
-        <tr r="N33" s="8"/>
-        <tr r="P46" s="8"/>
-        <tr r="Q46" s="8"/>
-        <tr r="N32" s="8"/>
-        <tr r="R37" s="8"/>
-        <tr r="O32" s="8"/>
-        <tr r="N40" s="8"/>
-        <tr r="R42" s="8"/>
-        <tr r="Q41" s="8"/>
-        <tr r="O44" s="8"/>
-        <tr r="R40" s="8"/>
-        <tr r="P33" s="8"/>
-        <tr r="P39" s="8"/>
-        <tr r="R50" s="8"/>
-        <tr r="P40" s="8"/>
-        <tr r="P35" s="8"/>
-        <tr r="O36" s="8"/>
-        <tr r="R43" s="8"/>
-        <tr r="P34" s="8"/>
-        <tr r="N39" s="8"/>
-        <tr r="R33" s="8"/>
-        <tr r="Q47" s="8"/>
+        <stp>4b267ab9-07b7-4cb7-aa5f-834549cd96f2</stp>
+        <tr r="E66" s="9"/>
+        <tr r="E64" s="9"/>
+        <tr r="E72" s="9"/>
+        <tr r="F82" s="9"/>
+        <tr r="E76" s="9"/>
+        <tr r="G73" s="9"/>
+        <tr r="E81" s="9"/>
+        <tr r="F64" s="9"/>
+        <tr r="F69" s="9"/>
+        <tr r="F79" s="9"/>
+        <tr r="G83" s="9"/>
+        <tr r="G71" s="9"/>
+        <tr r="F84" s="9"/>
+        <tr r="E75" s="9"/>
+        <tr r="F72" s="9"/>
+        <tr r="E71" s="9"/>
+        <tr r="G61" s="9"/>
+        <tr r="E82" s="9"/>
+        <tr r="G82" s="9"/>
+        <tr r="E70" s="9"/>
+        <tr r="F78" s="9"/>
+        <tr r="G76" s="9"/>
+        <tr r="G66" s="9"/>
+        <tr r="G77" s="9"/>
+        <tr r="F67" s="9"/>
+        <tr r="E65" s="9"/>
+        <tr r="F74" s="9"/>
+        <tr r="F66" s="9"/>
+        <tr r="F68" s="9"/>
+        <tr r="G69" s="9"/>
+        <tr r="G84" s="9"/>
+        <tr r="G67" s="9"/>
+        <tr r="F71" s="9"/>
+        <tr r="G65" s="9"/>
+        <tr r="F76" s="9"/>
+        <tr r="E62" s="9"/>
+        <tr r="F77" s="9"/>
+        <tr r="E78" s="9"/>
+        <tr r="F80" s="9"/>
+        <tr r="E80" s="9"/>
+        <tr r="G75" s="9"/>
+        <tr r="E61" s="9"/>
+        <tr r="F70" s="9"/>
+        <tr r="F81" s="9"/>
+        <tr r="E77" s="9"/>
+        <tr r="E67" s="9"/>
+        <tr r="G64" s="9"/>
+        <tr r="G78" s="9"/>
+        <tr r="G80" s="9"/>
+        <tr r="F61" s="9"/>
+        <tr r="G74" s="9"/>
+        <tr r="E63" s="9"/>
+        <tr r="G63" s="9"/>
+        <tr r="F62" s="9"/>
+        <tr r="E84" s="9"/>
+        <tr r="F83" s="9"/>
+        <tr r="F75" s="9"/>
+        <tr r="G62" s="9"/>
+        <tr r="G79" s="9"/>
+        <tr r="E68" s="9"/>
+        <tr r="G72" s="9"/>
+        <tr r="E74" s="9"/>
+        <tr r="F73" s="9"/>
+        <tr r="F65" s="9"/>
+        <tr r="G70" s="9"/>
+        <tr r="E83" s="9"/>
+        <tr r="G68" s="9"/>
+        <tr r="F63" s="9"/>
+        <tr r="E69" s="9"/>
+        <tr r="E79" s="9"/>
+        <tr r="E73" s="9"/>
+        <tr r="G81" s="9"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>d619e050-be84-4aaa-85c9-b5319a8a0b1e</stp>
-        <tr r="E69" s="9"/>
-        <tr r="F75" s="9"/>
-        <tr r="E74" s="9"/>
-        <tr r="E76" s="9"/>
-        <tr r="F80" s="9"/>
-        <tr r="E72" s="9"/>
-        <tr r="G63" s="9"/>
-        <tr r="E71" s="9"/>
-        <tr r="G75" s="9"/>
-        <tr r="G72" s="9"/>
-        <tr r="E64" s="9"/>
-        <tr r="E66" s="9"/>
-        <tr r="G70" s="9"/>
-        <tr r="G77" s="9"/>
-        <tr r="F76" s="9"/>
-        <tr r="G66" s="9"/>
-        <tr r="E82" s="9"/>
-        <tr r="E73" s="9"/>
-        <tr r="F61" s="9"/>
-        <tr r="F65" s="9"/>
-        <tr r="E80" s="9"/>
-        <tr r="G76" s="9"/>
-        <tr r="E84" s="9"/>
-        <tr r="G67" s="9"/>
-        <tr r="F67" s="9"/>
-        <tr r="F82" s="9"/>
-        <tr r="G81" s="9"/>
-        <tr r="G83" s="9"/>
-        <tr r="F72" s="9"/>
-        <tr r="G82" s="9"/>
-        <tr r="E81" s="9"/>
-        <tr r="E77" s="9"/>
-        <tr r="G65" s="9"/>
-        <tr r="E70" s="9"/>
-        <tr r="F84" s="9"/>
-        <tr r="E75" s="9"/>
-        <tr r="F69" s="9"/>
-        <tr r="F71" s="9"/>
-        <tr r="G78" s="9"/>
-        <tr r="F62" s="9"/>
-        <tr r="G64" s="9"/>
-        <tr r="F74" s="9"/>
-        <tr r="G73" s="9"/>
-        <tr r="F78" s="9"/>
-        <tr r="G69" s="9"/>
-        <tr r="G84" s="9"/>
-        <tr r="G68" s="9"/>
-        <tr r="F73" s="9"/>
-        <tr r="F83" s="9"/>
-        <tr r="E62" s="9"/>
-        <tr r="F66" s="9"/>
-        <tr r="F68" s="9"/>
-        <tr r="F70" s="9"/>
-        <tr r="E67" s="9"/>
-        <tr r="G79" s="9"/>
-        <tr r="F63" s="9"/>
-        <tr r="E68" s="9"/>
-        <tr r="G80" s="9"/>
-        <tr r="F77" s="9"/>
-        <tr r="E61" s="9"/>
-        <tr r="E63" s="9"/>
-        <tr r="E65" s="9"/>
-        <tr r="F64" s="9"/>
-        <tr r="G71" s="9"/>
-        <tr r="E79" s="9"/>
-        <tr r="G62" s="9"/>
-        <tr r="E78" s="9"/>
-        <tr r="G74" s="9"/>
-        <tr r="F79" s="9"/>
-        <tr r="F81" s="9"/>
-        <tr r="E83" s="9"/>
-        <tr r="G61" s="9"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.876df04507944d89bfe21dc3f008e3fd">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4e6cab75-f756-4061-9fad-acef55804935</stp>
-        <tr r="D19" s="7"/>
-        <tr r="D22" s="7"/>
-        <tr r="D15" s="7"/>
-        <tr r="D16" s="7"/>
-        <tr r="D24" s="7"/>
-        <tr r="D17" s="7"/>
-        <tr r="D23" s="7"/>
-        <tr r="D25" s="7"/>
-        <tr r="D21" s="7"/>
-        <tr r="D18" s="7"/>
-        <tr r="D20" s="7"/>
+        <stp>4d5cee16-db17-4b0f-aa97-5f55ceb62321</stp>
+        <tr r="I50" s="14"/>
+        <tr r="G51" s="14"/>
+        <tr r="F50" s="14"/>
+        <tr r="J51" s="14"/>
+        <tr r="G50" s="14"/>
+        <tr r="I51" s="14"/>
+        <tr r="H51" s="14"/>
+        <tr r="H50" s="14"/>
+        <tr r="E50" s="14"/>
+        <tr r="J50" s="14"/>
+        <tr r="F51" s="14"/>
+        <tr r="K51" s="14"/>
+        <tr r="K50" s="14"/>
+        <tr r="E51" s="14"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>0906ac4f-e177-4074-90d5-2aba54cbcea6</stp>
+        <stp>71d15c04-fc82-4b28-81b4-edf213601232</stp>
+        <tr r="L50" s="8"/>
+        <tr r="H45" s="8"/>
+        <tr r="H46" s="8"/>
+        <tr r="F50" s="8"/>
+        <tr r="J34" s="8"/>
+        <tr r="H39" s="8"/>
+        <tr r="E47" s="8"/>
+        <tr r="J32" s="8"/>
+        <tr r="F40" s="8"/>
+        <tr r="K44" s="8"/>
+        <tr r="L37" s="8"/>
+        <tr r="G48" s="8"/>
+        <tr r="I43" s="8"/>
+        <tr r="J46" s="8"/>
+        <tr r="H51" s="8"/>
+        <tr r="L39" s="8"/>
+        <tr r="J39" s="8"/>
+        <tr r="G36" s="8"/>
+        <tr r="K41" s="8"/>
+        <tr r="H42" s="8"/>
+        <tr r="I36" s="8"/>
+        <tr r="K48" s="8"/>
+        <tr r="E41" s="8"/>
+        <tr r="E39" s="8"/>
+        <tr r="K32" s="8"/>
+        <tr r="K49" s="8"/>
+        <tr r="J37" s="8"/>
+        <tr r="G44" s="8"/>
+        <tr r="G38" s="8"/>
+        <tr r="L40" s="8"/>
+        <tr r="F47" s="8"/>
+        <tr r="E40" s="8"/>
+        <tr r="G35" s="8"/>
+        <tr r="G43" s="8"/>
+        <tr r="F46" s="8"/>
+        <tr r="K51" s="8"/>
+        <tr r="J48" s="8"/>
+        <tr r="J40" s="8"/>
+        <tr r="L44" s="8"/>
+        <tr r="J36" s="8"/>
+        <tr r="F31" s="8"/>
+        <tr r="F41" s="8"/>
+        <tr r="G51" s="8"/>
+        <tr r="E37" s="8"/>
+        <tr r="H44" s="8"/>
+        <tr r="G49" s="8"/>
+        <tr r="L41" s="8"/>
+        <tr r="J31" s="8"/>
+        <tr r="I51" s="8"/>
+        <tr r="G34" s="8"/>
+        <tr r="I49" s="8"/>
+        <tr r="E49" s="8"/>
+        <tr r="K37" s="8"/>
+        <tr r="G32" s="8"/>
+        <tr r="H36" s="8"/>
+        <tr r="L45" s="8"/>
+        <tr r="J49" s="8"/>
+        <tr r="H38" s="8"/>
+        <tr r="G41" s="8"/>
+        <tr r="K43" s="8"/>
+        <tr r="E48" s="8"/>
+        <tr r="F42" s="8"/>
+        <tr r="E42" s="8"/>
+        <tr r="I37" s="8"/>
+        <tr r="E31" s="8"/>
+        <tr r="E38" s="8"/>
+        <tr r="K34" s="8"/>
+        <tr r="J50" s="8"/>
+        <tr r="K50" s="8"/>
+        <tr r="L36" s="8"/>
+        <tr r="F33" s="8"/>
+        <tr r="G33" s="8"/>
+        <tr r="H43" s="8"/>
+        <tr r="K40" s="8"/>
+        <tr r="J35" s="8"/>
+        <tr r="I39" s="8"/>
+        <tr r="G47" s="8"/>
+        <tr r="E43" s="8"/>
+        <tr r="E34" s="8"/>
+        <tr r="H48" s="8"/>
+        <tr r="H37" s="8"/>
+        <tr r="K33" s="8"/>
+        <tr r="I47" s="8"/>
+        <tr r="I35" s="8"/>
+        <tr r="E33" s="8"/>
+        <tr r="H32" s="8"/>
+        <tr r="F43" s="8"/>
+        <tr r="K42" s="8"/>
+        <tr r="I42" s="8"/>
+        <tr r="L49" s="8"/>
+        <tr r="K38" s="8"/>
+        <tr r="E36" s="8"/>
+        <tr r="J33" s="8"/>
+        <tr r="J44" s="8"/>
+        <tr r="F32" s="8"/>
+        <tr r="L51" s="8"/>
+        <tr r="I34" s="8"/>
+        <tr r="H33" s="8"/>
+        <tr r="F38" s="8"/>
+        <tr r="H41" s="8"/>
+        <tr r="L38" s="8"/>
+        <tr r="E44" s="8"/>
+        <tr r="F51" s="8"/>
+        <tr r="I44" s="8"/>
+        <tr r="G40" s="8"/>
+        <tr r="J38" s="8"/>
+        <tr r="E51" s="8"/>
+        <tr r="E46" s="8"/>
+        <tr r="K46" s="8"/>
+        <tr r="L31" s="8"/>
+        <tr r="G37" s="8"/>
+        <tr r="F36" s="8"/>
+        <tr r="L33" s="8"/>
+        <tr r="I45" s="8"/>
+        <tr r="I46" s="8"/>
+        <tr r="F35" s="8"/>
+        <tr r="I33" s="8"/>
+        <tr r="L46" s="8"/>
+        <tr r="H47" s="8"/>
+        <tr r="I50" s="8"/>
+        <tr r="E35" s="8"/>
+        <tr r="G31" s="8"/>
+        <tr r="J42" s="8"/>
+        <tr r="L35" s="8"/>
+        <tr r="J47" s="8"/>
+        <tr r="H31" s="8"/>
+        <tr r="K31" s="8"/>
+        <tr r="G42" s="8"/>
+        <tr r="F34" s="8"/>
+        <tr r="L42" s="8"/>
+        <tr r="J41" s="8"/>
+        <tr r="H40" s="8"/>
+        <tr r="F44" s="8"/>
+        <tr r="L48" s="8"/>
+        <tr r="L47" s="8"/>
+        <tr r="H35" s="8"/>
+        <tr r="H34" s="8"/>
+        <tr r="L43" s="8"/>
+        <tr r="H50" s="8"/>
+        <tr r="G46" s="8"/>
+        <tr r="G45" s="8"/>
+        <tr r="E50" s="8"/>
+        <tr r="I32" s="8"/>
+        <tr r="F49" s="8"/>
+        <tr r="I38" s="8"/>
+        <tr r="E32" s="8"/>
+        <tr r="K36" s="8"/>
+        <tr r="L32" s="8"/>
+        <tr r="F45" s="8"/>
+        <tr r="I40" s="8"/>
+        <tr r="F37" s="8"/>
+        <tr r="K35" s="8"/>
+        <tr r="I41" s="8"/>
+        <tr r="J45" s="8"/>
+        <tr r="K39" s="8"/>
+        <tr r="J43" s="8"/>
+        <tr r="G39" s="8"/>
+        <tr r="L34" s="8"/>
+        <tr r="I48" s="8"/>
+        <tr r="H49" s="8"/>
+        <tr r="K47" s="8"/>
+        <tr r="G50" s="8"/>
+        <tr r="E45" s="8"/>
+        <tr r="I31" s="8"/>
+        <tr r="F48" s="8"/>
+        <tr r="J51" s="8"/>
+        <tr r="K45" s="8"/>
+        <tr r="F39" s="8"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b5eecb54378e499998dd3d4e75938e4f">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>46e04227-6d20-4deb-ab09-06edacc2a2a7</stp>
+        <tr r="Q64" s="6"/>
+        <tr r="G68" s="6"/>
+        <tr r="K63" s="6"/>
+        <tr r="L67" s="6"/>
+        <tr r="M79" s="6"/>
+        <tr r="N78" s="6"/>
+        <tr r="K66" s="6"/>
+        <tr r="N73" s="6"/>
+        <tr r="E74" s="6"/>
+        <tr r="G80" s="6"/>
+        <tr r="I64" s="6"/>
+        <tr r="R64" s="6"/>
+        <tr r="H76" s="6"/>
+        <tr r="K75" s="6"/>
+        <tr r="J62" s="6"/>
+        <tr r="M76" s="6"/>
+        <tr r="H80" s="6"/>
+        <tr r="S73" s="6"/>
+        <tr r="O80" s="6"/>
+        <tr r="E77" s="6"/>
+        <tr r="S78" s="6"/>
+        <tr r="E69" s="6"/>
+        <tr r="Q78" s="6"/>
+        <tr r="E76" s="6"/>
+        <tr r="L73" s="6"/>
+        <tr r="Q72" s="6"/>
+        <tr r="R72" s="6"/>
+        <tr r="P74" s="6"/>
+        <tr r="M67" s="6"/>
+        <tr r="L70" s="6"/>
+        <tr r="R66" s="6"/>
+        <tr r="K74" s="6"/>
+        <tr r="S80" s="6"/>
+        <tr r="M66" s="6"/>
+        <tr r="I66" s="6"/>
+        <tr r="E75" s="6"/>
+        <tr r="I76" s="6"/>
+        <tr r="F81" s="6"/>
+        <tr r="P68" s="6"/>
+        <tr r="Q75" s="6"/>
+        <tr r="S70" s="6"/>
+        <tr r="G69" s="6"/>
+        <tr r="H77" s="6"/>
+        <tr r="H70" s="6"/>
+        <tr r="S68" s="6"/>
+        <tr r="E72" s="6"/>
+        <tr r="H64" s="6"/>
+        <tr r="E67" s="6"/>
+        <tr r="H79" s="6"/>
+        <tr r="J72" s="6"/>
+        <tr r="K73" s="6"/>
+        <tr r="K80" s="6"/>
+        <tr r="P73" s="6"/>
+        <tr r="N76" s="6"/>
+        <tr r="H78" s="6"/>
+        <tr r="E66" s="6"/>
+        <tr r="J77" s="6"/>
+        <tr r="E70" s="6"/>
+        <tr r="F64" s="6"/>
+        <tr r="F69" s="6"/>
+        <tr r="L79" s="6"/>
+        <tr r="R81" s="6"/>
+        <tr r="H67" s="6"/>
+        <tr r="G63" s="6"/>
+        <tr r="M64" s="6"/>
+        <tr r="L71" s="6"/>
+        <tr r="P81" s="6"/>
+        <tr r="L64" s="6"/>
+        <tr r="M65" s="6"/>
+        <tr r="F76" s="6"/>
+        <tr r="S69" s="6"/>
+        <tr r="O63" s="6"/>
+        <tr r="J66" s="6"/>
+        <tr r="R62" s="6"/>
+        <tr r="P79" s="6"/>
+        <tr r="F80" s="6"/>
+        <tr r="H75" s="6"/>
+        <tr r="R71" s="6"/>
+        <tr r="L62" s="6"/>
+        <tr r="N81" s="6"/>
+        <tr r="I68" s="6"/>
+        <tr r="L65" s="6"/>
+        <tr r="E64" s="6"/>
+        <tr r="O78" s="6"/>
+        <tr r="R78" s="6"/>
+        <tr r="O75" s="6"/>
+        <tr r="L72" s="6"/>
+        <tr r="I78" s="6"/>
+        <tr r="E79" s="6"/>
+        <tr r="S67" s="6"/>
+        <tr r="I71" s="6"/>
+        <tr r="N79" s="6"/>
+        <tr r="R79" s="6"/>
+        <tr r="R76" s="6"/>
+        <tr r="O76" s="6"/>
+        <tr r="H68" s="6"/>
+        <tr r="G70" s="6"/>
+        <tr r="R80" s="6"/>
+        <tr r="L76" s="6"/>
+        <tr r="N63" s="6"/>
+        <tr r="K69" s="6"/>
+        <tr r="H69" s="6"/>
+        <tr r="N64" s="6"/>
+        <tr r="P62" s="6"/>
+        <tr r="S79" s="6"/>
+        <tr r="E68" s="6"/>
+        <tr r="S77" s="6"/>
+        <tr r="L81" s="6"/>
+        <tr r="O69" s="6"/>
+        <tr r="G74" s="6"/>
+        <tr r="M68" s="6"/>
+        <tr r="L68" s="6"/>
+        <tr r="H63" s="6"/>
+        <tr r="I80" s="6"/>
+        <tr r="O71" s="6"/>
+        <tr r="J70" s="6"/>
+        <tr r="Q74" s="6"/>
+        <tr r="Q70" s="6"/>
+        <tr r="K64" s="6"/>
+        <tr r="H62" s="6"/>
+        <tr r="J64" s="6"/>
+        <tr r="F78" s="6"/>
+        <tr r="O73" s="6"/>
+        <tr r="N75" s="6"/>
+        <tr r="G64" s="6"/>
+        <tr r="P63" s="6"/>
+        <tr r="K68" s="6"/>
+        <tr r="K65" s="6"/>
+        <tr r="O65" s="6"/>
+        <tr r="Q79" s="6"/>
+        <tr r="G66" s="6"/>
+        <tr r="S81" s="6"/>
+        <tr r="G62" s="6"/>
+        <tr r="F62" s="6"/>
+        <tr r="N62" s="6"/>
+        <tr r="F65" s="6"/>
+        <tr r="M80" s="6"/>
+        <tr r="P67" s="6"/>
+        <tr r="S75" s="6"/>
+        <tr r="G67" s="6"/>
+        <tr r="K77" s="6"/>
+        <tr r="I63" s="6"/>
+        <tr r="M78" s="6"/>
+        <tr r="J75" s="6"/>
+        <tr r="I77" s="6"/>
+        <tr r="O81" s="6"/>
+        <tr r="Q81" s="6"/>
+        <tr r="F72" s="6"/>
+        <tr r="E80" s="6"/>
+        <tr r="P80" s="6"/>
+        <tr r="G78" s="6"/>
+        <tr r="Q80" s="6"/>
+        <tr r="E71" s="6"/>
+        <tr r="G77" s="6"/>
+        <tr r="E63" s="6"/>
+        <tr r="F67" s="6"/>
+        <tr r="N77" s="6"/>
         <tr r="N69" s="6"/>
-        <tr r="R71" s="6"/>
-        <tr r="F65" s="6"/>
-        <tr r="M69" s="6"/>
-        <tr r="M81" s="6"/>
-        <tr r="R68" s="6"/>
-        <tr r="G74" s="6"/>
-        <tr r="Q70" s="6"/>
-        <tr r="O62" s="6"/>
+        <tr r="F70" s="6"/>
+        <tr r="J69" s="6"/>
+        <tr r="N67" s="6"/>
+        <tr r="I81" s="6"/>
+        <tr r="J63" s="6"/>
+        <tr r="Q77" s="6"/>
+        <tr r="M71" s="6"/>
         <tr r="I67" s="6"/>
-        <tr r="R78" s="6"/>
-        <tr r="Q71" s="6"/>
-        <tr r="K72" s="6"/>
-        <tr r="M65" s="6"/>
-        <tr r="N68" s="6"/>
-        <tr r="S62" s="6"/>
-        <tr r="S65" s="6"/>
-        <tr r="I72" s="6"/>
-        <tr r="S70" s="6"/>
-        <tr r="S68" s="6"/>
-        <tr r="K75" s="6"/>
-        <tr r="J75" s="6"/>
-        <tr r="F72" s="6"/>
-        <tr r="F67" s="6"/>
-        <tr r="K70" s="6"/>
-        <tr r="G68" s="6"/>
-        <tr r="J78" s="6"/>
-        <tr r="I79" s="6"/>
-        <tr r="E66" s="6"/>
-        <tr r="N71" s="6"/>
-        <tr r="S72" s="6"/>
-        <tr r="J80" s="6"/>
-        <tr r="K66" s="6"/>
-        <tr r="G73" s="6"/>
-        <tr r="S81" s="6"/>
-        <tr r="O75" s="6"/>
-        <tr r="H69" s="6"/>
-        <tr r="G78" s="6"/>
-        <tr r="I62" s="6"/>
-        <tr r="H71" s="6"/>
-        <tr r="S80" s="6"/>
-        <tr r="G64" s="6"/>
-        <tr r="L65" s="6"/>
-        <tr r="E67" s="6"/>
-        <tr r="G67" s="6"/>
-        <tr r="J70" s="6"/>
-        <tr r="M67" s="6"/>
-        <tr r="J74" s="6"/>
-        <tr r="R62" s="6"/>
-        <tr r="G80" s="6"/>
-        <tr r="L74" s="6"/>
-        <tr r="G62" s="6"/>
-        <tr r="Q65" s="6"/>
-        <tr r="E73" s="6"/>
-        <tr r="O67" s="6"/>
-        <tr r="R70" s="6"/>
-        <tr r="J64" s="6"/>
-        <tr r="P73" s="6"/>
-        <tr r="O65" s="6"/>
-        <tr r="R64" s="6"/>
-        <tr r="L78" s="6"/>
-        <tr r="I73" s="6"/>
-        <tr r="F76" s="6"/>
-        <tr r="Q72" s="6"/>
-        <tr r="F70" s="6"/>
-        <tr r="O72" s="6"/>
+        <tr r="S74" s="6"/>
+        <tr r="K79" s="6"/>
+        <tr r="O64" s="6"/>
         <tr r="R77" s="6"/>
         <tr r="P72" s="6"/>
+        <tr r="F74" s="6"/>
+        <tr r="M75" s="6"/>
+        <tr r="K72" s="6"/>
+        <tr r="E73" s="6"/>
+        <tr r="I69" s="6"/>
+        <tr r="L69" s="6"/>
+        <tr r="E81" s="6"/>
+        <tr r="M69" s="6"/>
+        <tr r="J78" s="6"/>
+        <tr r="J71" s="6"/>
+        <tr r="R69" s="6"/>
+        <tr r="K78" s="6"/>
+        <tr r="Q65" s="6"/>
+        <tr r="P75" s="6"/>
+        <tr r="H65" s="6"/>
+        <tr r="J76" s="6"/>
+        <tr r="I73" s="6"/>
+        <tr r="Q76" s="6"/>
+        <tr r="M62" s="6"/>
+        <tr r="F75" s="6"/>
+        <tr r="I62" s="6"/>
+        <tr r="N80" s="6"/>
+        <tr r="S76" s="6"/>
+        <tr r="L77" s="6"/>
+        <tr r="R75" s="6"/>
+        <tr r="E65" s="6"/>
+        <tr r="F66" s="6"/>
+        <tr r="H71" s="6"/>
+        <tr r="P77" s="6"/>
+        <tr r="O62" s="6"/>
+        <tr r="K81" s="6"/>
+        <tr r="P64" s="6"/>
+        <tr r="F79" s="6"/>
+        <tr r="J68" s="6"/>
+        <tr r="P69" s="6"/>
+        <tr r="K71" s="6"/>
+        <tr r="N66" s="6"/>
+        <tr r="G73" s="6"/>
+        <tr r="L80" s="6"/>
+        <tr r="S63" s="6"/>
+        <tr r="Q62" s="6"/>
+        <tr r="M73" s="6"/>
+        <tr r="S66" s="6"/>
+        <tr r="N74" s="6"/>
+        <tr r="H74" s="6"/>
+        <tr r="L66" s="6"/>
+        <tr r="J74" s="6"/>
+        <tr r="Q63" s="6"/>
+        <tr r="E62" s="6"/>
+        <tr r="R65" s="6"/>
+        <tr r="Q71" s="6"/>
+        <tr r="J67" s="6"/>
+        <tr r="L78" s="6"/>
+        <tr r="K76" s="6"/>
+        <tr r="P66" s="6"/>
+        <tr r="G71" s="6"/>
+        <tr r="J73" s="6"/>
+        <tr r="O66" s="6"/>
+        <tr r="R68" s="6"/>
+        <tr r="O67" s="6"/>
+        <tr r="I74" s="6"/>
+        <tr r="L63" s="6"/>
+        <tr r="S62" s="6"/>
+        <tr r="G72" s="6"/>
+        <tr r="N65" s="6"/>
+        <tr r="G75" s="6"/>
+        <tr r="S71" s="6"/>
+        <tr r="R70" s="6"/>
+        <tr r="R73" s="6"/>
+        <tr r="S65" s="6"/>
+        <tr r="F68" s="6"/>
+        <tr r="Q68" s="6"/>
+        <tr r="N70" s="6"/>
+        <tr r="H73" s="6"/>
+        <tr r="M63" s="6"/>
+        <tr r="N72" s="6"/>
+        <tr r="I65" s="6"/>
+        <tr r="O72" s="6"/>
+        <tr r="R74" s="6"/>
+        <tr r="S64" s="6"/>
+        <tr r="J79" s="6"/>
+        <tr r="K67" s="6"/>
+        <tr r="H72" s="6"/>
+        <tr r="P65" s="6"/>
+        <tr r="P78" s="6"/>
+        <tr r="M74" s="6"/>
+        <tr r="S72" s="6"/>
+        <tr r="G79" s="6"/>
+        <tr r="M70" s="6"/>
+        <tr r="L74" s="6"/>
+        <tr r="G76" s="6"/>
+        <tr r="E78" s="6"/>
+        <tr r="M77" s="6"/>
+        <tr r="I79" s="6"/>
+        <tr r="O74" s="6"/>
+        <tr r="M81" s="6"/>
         <tr r="G81" s="6"/>
-        <tr r="G77" s="6"/>
+        <tr r="F73" s="6"/>
+        <tr r="P76" s="6"/>
+        <tr r="F63" s="6"/>
+        <tr r="Q69" s="6"/>
+        <tr r="P70" s="6"/>
+        <tr r="J81" s="6"/>
+        <tr r="N71" s="6"/>
         <tr r="O68" s="6"/>
+        <tr r="M72" s="6"/>
+        <tr r="Q67" s="6"/>
+        <tr r="J80" s="6"/>
+        <tr r="H81" s="6"/>
+        <tr r="G65" s="6"/>
+        <tr r="N68" s="6"/>
+        <tr r="Q73" s="6"/>
         <tr r="I75" s="6"/>
-        <tr r="K81" s="6"/>
-        <tr r="J63" s="6"/>
-        <tr r="M77" s="6"/>
-        <tr r="H78" s="6"/>
-        <tr r="L67" s="6"/>
-        <tr r="E69" s="6"/>
-        <tr r="Q74" s="6"/>
-        <tr r="P81" s="6"/>
-        <tr r="F68" s="6"/>
-        <tr r="N76" s="6"/>
-        <tr r="S74" s="6"/>
-        <tr r="S66" s="6"/>
-        <tr r="J62" s="6"/>
-        <tr r="G71" s="6"/>
-        <tr r="M74" s="6"/>
-        <tr r="K73" s="6"/>
+        <tr r="O77" s="6"/>
+        <tr r="K70" s="6"/>
         <tr r="F71" s="6"/>
+        <tr r="J65" s="6"/>
+        <tr r="O70" s="6"/>
+        <tr r="H66" s="6"/>
+        <tr r="Q66" s="6"/>
+        <tr r="R67" s="6"/>
+        <tr r="P71" s="6"/>
         <tr r="L75" s="6"/>
-        <tr r="K63" s="6"/>
-        <tr r="N63" s="6"/>
-        <tr r="J77" s="6"/>
-        <tr r="E65" s="6"/>
-        <tr r="E63" s="6"/>
-        <tr r="I80" s="6"/>
-        <tr r="L69" s="6"/>
-        <tr r="P69" s="6"/>
-        <tr r="M73" s="6"/>
-        <tr r="H72" s="6"/>
-        <tr r="N64" s="6"/>
-        <tr r="Q69" s="6"/>
-        <tr r="Q78" s="6"/>
-        <tr r="R66" s="6"/>
-        <tr r="M66" s="6"/>
-        <tr r="M63" s="6"/>
-        <tr r="L80" s="6"/>
-        <tr r="P67" s="6"/>
-        <tr r="K77" s="6"/>
-        <tr r="H67" s="6"/>
-        <tr r="F66" s="6"/>
-        <tr r="Q80" s="6"/>
-        <tr r="P79" s="6"/>
-        <tr r="H70" s="6"/>
-        <tr r="I64" s="6"/>
+        <tr r="R63" s="6"/>
+        <tr r="I70" s="6"/>
+        <tr r="I72" s="6"/>
+        <tr r="F77" s="6"/>
         <tr r="O79" s="6"/>
-        <tr r="P75" s="6"/>
-        <tr r="G75" s="6"/>
-        <tr r="G63" s="6"/>
-        <tr r="O63" s="6"/>
-        <tr r="F78" s="6"/>
-        <tr r="R80" s="6"/>
-        <tr r="R74" s="6"/>
-        <tr r="R69" s="6"/>
-        <tr r="E78" s="6"/>
-        <tr r="L66" s="6"/>
-        <tr r="S71" s="6"/>
-        <tr r="L77" s="6"/>
-        <tr r="J69" s="6"/>
-        <tr r="R79" s="6"/>
-        <tr r="O76" s="6"/>
-        <tr r="R65" s="6"/>
-        <tr r="F73" s="6"/>
-        <tr r="O80" s="6"/>
-        <tr r="M68" s="6"/>
-        <tr r="K64" s="6"/>
-        <tr r="P64" s="6"/>
-        <tr r="Q66" s="6"/>
-        <tr r="K67" s="6"/>
-        <tr r="G76" s="6"/>
-        <tr r="E79" s="6"/>
-        <tr r="F69" s="6"/>
-        <tr r="Q73" s="6"/>
-        <tr r="G72" s="6"/>
-        <tr r="Q68" s="6"/>
-        <tr r="K80" s="6"/>
-        <tr r="R63" s="6"/>
-        <tr r="E72" s="6"/>
-        <tr r="M76" s="6"/>
-        <tr r="S77" s="6"/>
-        <tr r="E80" s="6"/>
-        <tr r="N77" s="6"/>
-        <tr r="J65" s="6"/>
-        <tr r="F81" s="6"/>
-        <tr r="L76" s="6"/>
-        <tr r="O74" s="6"/>
-        <tr r="E70" s="6"/>
-        <tr r="I77" s="6"/>
-        <tr r="I71" s="6"/>
-        <tr r="H81" s="6"/>
-        <tr r="G79" s="6"/>
-        <tr r="L62" s="6"/>
-        <tr r="M70" s="6"/>
-        <tr r="L72" s="6"/>
-        <tr r="P62" s="6"/>
-        <tr r="Q76" s="6"/>
-        <tr r="N80" s="6"/>
-        <tr r="P77" s="6"/>
-        <tr r="I66" s="6"/>
-        <tr r="P63" s="6"/>
-        <tr r="M80" s="6"/>
-        <tr r="H74" s="6"/>
-        <tr r="I63" s="6"/>
-        <tr r="J73" s="6"/>
-        <tr r="L70" s="6"/>
-        <tr r="N78" s="6"/>
-        <tr r="F80" s="6"/>
-        <tr r="Q77" s="6"/>
-        <tr r="G69" s="6"/>
-        <tr r="F62" s="6"/>
-        <tr r="H65" s="6"/>
-        <tr r="P70" s="6"/>
-        <tr r="I74" s="6"/>
-        <tr r="R73" s="6"/>
-        <tr r="O73" s="6"/>
-        <tr r="K71" s="6"/>
-        <tr r="E64" s="6"/>
-        <tr r="H76" s="6"/>
-        <tr r="K76" s="6"/>
-        <tr r="Q64" s="6"/>
-        <tr r="M72" s="6"/>
-        <tr r="R72" s="6"/>
-        <tr r="N67" s="6"/>
-        <tr r="N72" s="6"/>
-        <tr r="F77" s="6"/>
-        <tr r="F74" s="6"/>
-        <tr r="P76" s="6"/>
-        <tr r="E77" s="6"/>
-        <tr r="S69" s="6"/>
-        <tr r="O77" s="6"/>
-        <tr r="F79" s="6"/>
-        <tr r="R67" s="6"/>
-        <tr r="J71" s="6"/>
-        <tr r="H68" s="6"/>
-        <tr r="P78" s="6"/>
-        <tr r="L79" s="6"/>
-        <tr r="S67" s="6"/>
-        <tr r="L64" s="6"/>
-        <tr r="N70" s="6"/>
-        <tr r="E62" s="6"/>
-        <tr r="Q79" s="6"/>
-        <tr r="N74" s="6"/>
-        <tr r="H80" s="6"/>
-        <tr r="L81" s="6"/>
-        <tr r="E76" s="6"/>
-        <tr r="Q63" s="6"/>
-        <tr r="O70" s="6"/>
-        <tr r="P68" s="6"/>
-        <tr r="K79" s="6"/>
-        <tr r="K69" s="6"/>
-        <tr r="G70" s="6"/>
-        <tr r="O81" s="6"/>
-        <tr r="M64" s="6"/>
-        <tr r="O71" s="6"/>
-        <tr r="N79" s="6"/>
-        <tr r="N81" s="6"/>
-        <tr r="S63" s="6"/>
-        <tr r="P65" s="6"/>
-        <tr r="S79" s="6"/>
-        <tr r="M62" s="6"/>
-        <tr r="L68" s="6"/>
-        <tr r="K74" s="6"/>
-        <tr r="E75" s="6"/>
-        <tr r="K68" s="6"/>
-        <tr r="S64" s="6"/>
-        <tr r="S75" s="6"/>
-        <tr r="M78" s="6"/>
-        <tr r="O66" s="6"/>
-        <tr r="P80" s="6"/>
-        <tr r="E71" s="6"/>
-        <tr r="H75" s="6"/>
-        <tr r="M71" s="6"/>
-        <tr r="I70" s="6"/>
         <tr r="K62" s="6"/>
-        <tr r="J76" s="6"/>
-        <tr r="J81" s="6"/>
-        <tr r="S76" s="6"/>
-        <tr r="J66" s="6"/>
-        <tr r="N75" s="6"/>
-        <tr r="N66" s="6"/>
-        <tr r="E74" s="6"/>
-        <tr r="K78" s="6"/>
-        <tr r="P66" s="6"/>
-        <tr r="M79" s="6"/>
-        <tr r="L63" s="6"/>
-        <tr r="R75" s="6"/>
-        <tr r="I81" s="6"/>
-        <tr r="I65" s="6"/>
-        <tr r="H77" s="6"/>
-        <tr r="R76" s="6"/>
-        <tr r="F63" s="6"/>
-        <tr r="S78" s="6"/>
-        <tr r="Q67" s="6"/>
-        <tr r="N65" s="6"/>
-        <tr r="J68" s="6"/>
-        <tr r="P71" s="6"/>
-        <tr r="O78" s="6"/>
-        <tr r="H64" s="6"/>
-        <tr r="H79" s="6"/>
-        <tr r="R81" s="6"/>
-        <tr r="J72" s="6"/>
-        <tr r="H62" s="6"/>
-        <tr r="H73" s="6"/>
-        <tr r="E81" s="6"/>
-        <tr r="G66" s="6"/>
-        <tr r="J67" s="6"/>
-        <tr r="S73" s="6"/>
-        <tr r="O69" s="6"/>
-        <tr r="L73" s="6"/>
-        <tr r="G65" s="6"/>
-        <tr r="H66" s="6"/>
-        <tr r="Q75" s="6"/>
-        <tr r="O64" s="6"/>
-        <tr r="I78" s="6"/>
-        <tr r="F64" s="6"/>
-        <tr r="Q81" s="6"/>
-        <tr r="L71" s="6"/>
-        <tr r="I69" s="6"/>
-        <tr r="N73" s="6"/>
-        <tr r="I68" s="6"/>
-        <tr r="Q62" s="6"/>
-        <tr r="N62" s="6"/>
-        <tr r="E68" s="6"/>
-        <tr r="F75" s="6"/>
-        <tr r="H63" s="6"/>
-        <tr r="P74" s="6"/>
-        <tr r="I76" s="6"/>
-        <tr r="K65" s="6"/>
-        <tr r="J79" s="6"/>
-        <tr r="M75" s="6"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b5eecb54378e499998dd3d4e75938e4f">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f6af6fd0-d42e-43b2-8cfc-8c505aa88caf</stp>
+        <tr r="D20" s="7"/>
+        <tr r="D23" s="7"/>
+        <tr r="D21" s="7"/>
+        <tr r="D15" s="7"/>
+        <tr r="D17" s="7"/>
+        <tr r="D22" s="7"/>
+        <tr r="D16" s="7"/>
+        <tr r="D25" s="7"/>
+        <tr r="D18" s="7"/>
+        <tr r="D19" s="7"/>
+        <tr r="D24" s="7"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b5eecb54378e499998dd3d4e75938e4f">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>29e1ad94-2b4d-45b0-a5e3-c84c783aaf8d</stp>
+        <tr r="P50" s="8"/>
+        <tr r="R47" s="8"/>
+        <tr r="N36" s="8"/>
+        <tr r="Q46" s="8"/>
+        <tr r="O42" s="8"/>
+        <tr r="P31" s="8"/>
+        <tr r="P39" s="8"/>
+        <tr r="R32" s="8"/>
+        <tr r="P35" s="8"/>
+        <tr r="Q36" s="8"/>
+        <tr r="R46" s="8"/>
+        <tr r="Q47" s="8"/>
+        <tr r="R37" s="8"/>
+        <tr r="O45" s="8"/>
+        <tr r="P42" s="8"/>
+        <tr r="O47" s="8"/>
+        <tr r="O38" s="8"/>
+        <tr r="O36" s="8"/>
+        <tr r="O33" s="8"/>
+        <tr r="P32" s="8"/>
+        <tr r="R50" s="8"/>
+        <tr r="Q40" s="8"/>
+        <tr r="O49" s="8"/>
+        <tr r="R48" s="8"/>
+        <tr r="N41" s="8"/>
+        <tr r="Q48" s="8"/>
+        <tr r="R45" s="8"/>
+        <tr r="O51" s="8"/>
+        <tr r="R35" s="8"/>
+        <tr r="O43" s="8"/>
+        <tr r="Q45" s="8"/>
+        <tr r="P36" s="8"/>
+        <tr r="R41" s="8"/>
+        <tr r="N31" s="8"/>
+        <tr r="N32" s="8"/>
+        <tr r="Q42" s="8"/>
+        <tr r="R49" s="8"/>
+        <tr r="N44" s="8"/>
+        <tr r="Q41" s="8"/>
+        <tr r="Q51" s="8"/>
+        <tr r="N50" s="8"/>
+        <tr r="Q44" s="8"/>
+        <tr r="O41" s="8"/>
+        <tr r="P44" s="8"/>
+        <tr r="O50" s="8"/>
+        <tr r="Q50" s="8"/>
+        <tr r="O48" s="8"/>
+        <tr r="O31" s="8"/>
+        <tr r="O32" s="8"/>
+        <tr r="N37" s="8"/>
+        <tr r="N46" s="8"/>
+        <tr r="Q35" s="8"/>
+        <tr r="P49" s="8"/>
+        <tr r="O37" s="8"/>
+        <tr r="N51" s="8"/>
+        <tr r="P43" s="8"/>
+        <tr r="R31" s="8"/>
+        <tr r="N48" s="8"/>
+        <tr r="N42" s="8"/>
+        <tr r="N35" s="8"/>
+        <tr r="N39" s="8"/>
+        <tr r="Q31" s="8"/>
+        <tr r="Q33" s="8"/>
+        <tr r="R36" s="8"/>
+        <tr r="P45" s="8"/>
+        <tr r="Q34" s="8"/>
+        <tr r="N34" s="8"/>
+        <tr r="O40" s="8"/>
+        <tr r="R42" s="8"/>
+        <tr r="R38" s="8"/>
+        <tr r="N47" s="8"/>
+        <tr r="N33" s="8"/>
+        <tr r="R51" s="8"/>
+        <tr r="O34" s="8"/>
+        <tr r="P47" s="8"/>
+        <tr r="Q49" s="8"/>
+        <tr r="Q39" s="8"/>
+        <tr r="P34" s="8"/>
+        <tr r="P41" s="8"/>
+        <tr r="P37" s="8"/>
+        <tr r="O46" s="8"/>
+        <tr r="N38" s="8"/>
+        <tr r="Q43" s="8"/>
+        <tr r="Q32" s="8"/>
+        <tr r="O39" s="8"/>
+        <tr r="P48" s="8"/>
+        <tr r="N45" s="8"/>
+        <tr r="N43" s="8"/>
+        <tr r="Q38" s="8"/>
+        <tr r="R40" s="8"/>
+        <tr r="R34" s="8"/>
+        <tr r="R44" s="8"/>
+        <tr r="R39" s="8"/>
+        <tr r="N49" s="8"/>
+        <tr r="O35" s="8"/>
+        <tr r="P33" s="8"/>
+        <tr r="R33" s="8"/>
+        <tr r="P38" s="8"/>
+        <tr r="R43" s="8"/>
+        <tr r="P40" s="8"/>
+        <tr r="P51" s="8"/>
+        <tr r="O44" s="8"/>
+        <tr r="N40" s="8"/>
+        <tr r="P46" s="8"/>
+        <tr r="Q37" s="8"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>c2a77af3-567c-444e-9e44-fac0e93c620f</stp>
-        <tr r="I51" s="14"/>
-        <tr r="F51" s="14"/>
-        <tr r="J50" s="14"/>
-        <tr r="J51" s="14"/>
-        <tr r="K51" s="14"/>
-        <tr r="I50" s="14"/>
-        <tr r="K50" s="14"/>
-        <tr r="H50" s="14"/>
-        <tr r="G51" s="14"/>
-        <tr r="E51" s="14"/>
-        <tr r="G50" s="14"/>
-        <tr r="E50" s="14"/>
-        <tr r="H51" s="14"/>
-        <tr r="F50" s="14"/>
+        <stp>90468b35-a06a-4ffb-b67c-000529083582</stp>
+        <tr r="L52" s="6"/>
+        <tr r="AG44" s="6"/>
+        <tr r="S36" s="6"/>
+        <tr r="N44" s="6"/>
+        <tr r="N37" s="6"/>
+        <tr r="W43" s="6"/>
+        <tr r="J38" s="6"/>
+        <tr r="U41" s="6"/>
+        <tr r="R48" s="6"/>
+        <tr r="AC48" s="6"/>
+        <tr r="M41" s="6"/>
+        <tr r="L34" s="6"/>
+        <tr r="H48" s="6"/>
+        <tr r="W42" s="6"/>
+        <tr r="Z48" s="6"/>
+        <tr r="Q34" s="6"/>
+        <tr r="G45" s="6"/>
+        <tr r="J53" s="6"/>
+        <tr r="AF34" s="6"/>
+        <tr r="V48" s="6"/>
+        <tr r="AC37" s="6"/>
+        <tr r="E51" s="6"/>
+        <tr r="Z42" s="6"/>
+        <tr r="AB49" s="6"/>
+        <tr r="H37" s="6"/>
+        <tr r="U33" s="6"/>
+        <tr r="N49" s="6"/>
+        <tr r="X39" s="6"/>
+        <tr r="AE49" s="6"/>
+        <tr r="E36" s="6"/>
+        <tr r="S48" s="6"/>
+        <tr r="AA49" s="6"/>
+        <tr r="P51" s="6"/>
+        <tr r="AD52" s="6"/>
+        <tr r="AF42" s="6"/>
+        <tr r="N35" s="6"/>
+        <tr r="AD33" s="6"/>
+        <tr r="AH52" s="6"/>
+        <tr r="I43" s="6"/>
+        <tr r="T48" s="6"/>
+        <tr r="U40" s="6"/>
+        <tr r="I44" s="6"/>
+        <tr r="AD38" s="6"/>
+        <tr r="X46" s="6"/>
+        <tr r="I39" s="6"/>
+        <tr r="AH36" s="6"/>
+        <tr r="Y47" s="6"/>
+        <tr r="Y39" s="6"/>
+        <tr r="AE43" s="6"/>
+        <tr r="Y41" s="6"/>
+        <tr r="Z33" s="6"/>
+        <tr r="AC42" s="6"/>
+        <tr r="N40" s="6"/>
+        <tr r="M51" s="6"/>
+        <tr r="V49" s="6"/>
+        <tr r="AC35" s="6"/>
+        <tr r="G39" s="6"/>
+        <tr r="Z50" s="6"/>
+        <tr r="N38" s="6"/>
+        <tr r="AH42" s="6"/>
+        <tr r="Y53" s="6"/>
+        <tr r="W38" s="6"/>
+        <tr r="I46" s="6"/>
+        <tr r="V38" s="6"/>
+        <tr r="O47" s="6"/>
+        <tr r="Y48" s="6"/>
+        <tr r="R41" s="6"/>
+        <tr r="W41" s="6"/>
+        <tr r="AH49" s="6"/>
+        <tr r="S52" s="6"/>
+        <tr r="E34" s="6"/>
+        <tr r="L35" s="6"/>
+        <tr r="E49" s="6"/>
+        <tr r="R36" s="6"/>
+        <tr r="I52" s="6"/>
+        <tr r="AG36" s="6"/>
+        <tr r="AF48" s="6"/>
+        <tr r="J40" s="6"/>
+        <tr r="AE51" s="6"/>
+        <tr r="AI35" s="6"/>
+        <tr r="AI48" s="6"/>
+        <tr r="AB37" s="6"/>
+        <tr r="AG53" s="6"/>
+        <tr r="AB39" s="6"/>
+        <tr r="I53" s="6"/>
+        <tr r="V50" s="6"/>
+        <tr r="J51" s="6"/>
+        <tr r="T53" s="6"/>
+        <tr r="T39" s="6"/>
+        <tr r="O51" s="6"/>
+        <tr r="AG46" s="6"/>
+        <tr r="AI45" s="6"/>
+        <tr r="AA52" s="6"/>
+        <tr r="AF35" s="6"/>
+        <tr r="F36" s="6"/>
+        <tr r="R51" s="6"/>
+        <tr r="R42" s="6"/>
+        <tr r="AE46" s="6"/>
+        <tr r="U36" s="6"/>
+        <tr r="Z38" s="6"/>
+        <tr r="AF49" s="6"/>
+        <tr r="AC40" s="6"/>
+        <tr r="T43" s="6"/>
+        <tr r="AD49" s="6"/>
+        <tr r="AE45" s="6"/>
+        <tr r="V42" s="6"/>
+        <tr r="O35" s="6"/>
+        <tr r="G40" s="6"/>
+        <tr r="AA43" s="6"/>
+        <tr r="T37" s="6"/>
+        <tr r="AI53" s="6"/>
+        <tr r="V51" s="6"/>
+        <tr r="AC36" s="6"/>
+        <tr r="AH53" s="6"/>
+        <tr r="I49" s="6"/>
+        <tr r="M48" s="6"/>
+        <tr r="L37" s="6"/>
+        <tr r="AG34" s="6"/>
+        <tr r="L53" s="6"/>
+        <tr r="I41" s="6"/>
+        <tr r="AH43" s="6"/>
+        <tr r="I42" s="6"/>
+        <tr r="W49" s="6"/>
+        <tr r="T52" s="6"/>
+        <tr r="W47" s="6"/>
+        <tr r="S46" s="6"/>
+        <tr r="P40" s="6"/>
+        <tr r="Q49" s="6"/>
+        <tr r="W40" s="6"/>
+        <tr r="AE35" s="6"/>
+        <tr r="K40" s="6"/>
+        <tr r="P46" s="6"/>
+        <tr r="AD40" s="6"/>
+        <tr r="AI52" s="6"/>
+        <tr r="AE37" s="6"/>
+        <tr r="J50" s="6"/>
+        <tr r="H44" s="6"/>
+        <tr r="H46" s="6"/>
+        <tr r="N50" s="6"/>
+        <tr r="AD53" s="6"/>
+        <tr r="AI49" s="6"/>
+        <tr r="AC49" s="6"/>
+        <tr r="Y34" s="6"/>
+        <tr r="J47" s="6"/>
+        <tr r="AF51" s="6"/>
+        <tr r="AI51" s="6"/>
+        <tr r="AF41" s="6"/>
+        <tr r="AI34" s="6"/>
+        <tr r="X47" s="6"/>
+        <tr r="Z40" s="6"/>
+        <tr r="G53" s="6"/>
+        <tr r="H39" s="6"/>
+        <tr r="AC47" s="6"/>
+        <tr r="R47" s="6"/>
+        <tr r="T40" s="6"/>
+        <tr r="Z47" s="6"/>
+        <tr r="K48" s="6"/>
+        <tr r="M37" s="6"/>
+        <tr r="P35" s="6"/>
+        <tr r="AI50" s="6"/>
+        <tr r="E40" s="6"/>
+        <tr r="AE52" s="6"/>
+        <tr r="X50" s="6"/>
+        <tr r="O45" s="6"/>
+        <tr r="Z37" s="6"/>
+        <tr r="R33" s="6"/>
+        <tr r="P38" s="6"/>
+        <tr r="AC44" s="6"/>
+        <tr r="Y42" s="6"/>
+        <tr r="Z51" s="6"/>
+        <tr r="T41" s="6"/>
+        <tr r="V47" s="6"/>
+        <tr r="S43" s="6"/>
+        <tr r="M39" s="6"/>
+        <tr r="E38" s="6"/>
+        <tr r="G37" s="6"/>
+        <tr r="V53" s="6"/>
+        <tr r="Q37" s="6"/>
+        <tr r="Z44" s="6"/>
+        <tr r="M49" s="6"/>
+        <tr r="Y44" s="6"/>
+        <tr r="K47" s="6"/>
+        <tr r="H45" s="6"/>
+        <tr r="L46" s="6"/>
+        <tr r="S35" s="6"/>
+        <tr r="AD36" s="6"/>
+        <tr r="H50" s="6"/>
+        <tr r="AC53" s="6"/>
+        <tr r="K39" s="6"/>
+        <tr r="AA50" s="6"/>
+        <tr r="T42" s="6"/>
+        <tr r="Q53" s="6"/>
+        <tr r="AE48" s="6"/>
+        <tr r="P37" s="6"/>
+        <tr r="K52" s="6"/>
+        <tr r="F50" s="6"/>
+        <tr r="X38" s="6"/>
+        <tr r="AF50" s="6"/>
+        <tr r="H41" s="6"/>
+        <tr r="V36" s="6"/>
+        <tr r="M43" s="6"/>
+        <tr r="AI47" s="6"/>
+        <tr r="G44" s="6"/>
+        <tr r="O36" s="6"/>
+        <tr r="X41" s="6"/>
+        <tr r="AF45" s="6"/>
+        <tr r="R53" s="6"/>
+        <tr r="N46" s="6"/>
+        <tr r="X48" s="6"/>
+        <tr r="P39" s="6"/>
+        <tr r="AC34" s="6"/>
+        <tr r="V44" s="6"/>
+        <tr r="Q51" s="6"/>
+        <tr r="T44" s="6"/>
+        <tr r="J46" s="6"/>
+        <tr r="K33" s="6"/>
+        <tr r="Y52" s="6"/>
+        <tr r="G52" s="6"/>
+        <tr r="N51" s="6"/>
+        <tr r="K53" s="6"/>
+        <tr r="J49" s="6"/>
+        <tr r="T38" s="6"/>
+        <tr r="AI39" s="6"/>
+        <tr r="F52" s="6"/>
+        <tr r="N39" s="6"/>
+        <tr r="AD46" s="6"/>
+        <tr r="E37" s="6"/>
+        <tr r="R39" s="6"/>
+        <tr r="Y45" s="6"/>
+        <tr r="U34" s="6"/>
+        <tr r="AB53" s="6"/>
+        <tr r="AC41" s="6"/>
+        <tr r="H49" s="6"/>
+        <tr r="K41" s="6"/>
+        <tr r="AD43" s="6"/>
+        <tr r="X35" s="6"/>
+        <tr r="AE38" s="6"/>
+        <tr r="S45" s="6"/>
+        <tr r="F40" s="6"/>
+        <tr r="AD47" s="6"/>
+        <tr r="E33" s="6"/>
+        <tr r="T34" s="6"/>
+        <tr r="W51" s="6"/>
+        <tr r="E53" s="6"/>
+        <tr r="P53" s="6"/>
+        <tr r="O44" s="6"/>
+        <tr r="M40" s="6"/>
+        <tr r="F33" s="6"/>
+        <tr r="E39" s="6"/>
+        <tr r="V46" s="6"/>
+        <tr r="AE40" s="6"/>
+        <tr r="V43" s="6"/>
+        <tr r="O52" s="6"/>
+        <tr r="P44" s="6"/>
+        <tr r="N36" s="6"/>
+        <tr r="G48" s="6"/>
+        <tr r="H36" s="6"/>
+        <tr r="T50" s="6"/>
+        <tr r="K34" s="6"/>
+        <tr r="AD44" s="6"/>
+        <tr r="X51" s="6"/>
+        <tr r="J33" s="6"/>
+        <tr r="W34" s="6"/>
+        <tr r="Q47" s="6"/>
+        <tr r="F46" s="6"/>
+        <tr r="Q40" s="6"/>
+        <tr r="Y49" s="6"/>
+        <tr r="O48" s="6"/>
+        <tr r="L47" s="6"/>
+        <tr r="AE47" s="6"/>
+        <tr r="AA38" s="6"/>
+        <tr r="G42" s="6"/>
+        <tr r="F37" s="6"/>
+        <tr r="AD39" s="6"/>
+        <tr r="V37" s="6"/>
+        <tr r="L40" s="6"/>
+        <tr r="AB46" s="6"/>
+        <tr r="K51" s="6"/>
+        <tr r="L38" s="6"/>
+        <tr r="P34" s="6"/>
+        <tr r="AH37" s="6"/>
+        <tr r="K36" s="6"/>
+        <tr r="L42" s="6"/>
+        <tr r="F35" s="6"/>
+        <tr r="F49" s="6"/>
+        <tr r="L44" s="6"/>
+        <tr r="F38" s="6"/>
+        <tr r="W35" s="6"/>
+        <tr r="L36" s="6"/>
+        <tr r="T33" s="6"/>
+        <tr r="Q52" s="6"/>
+        <tr r="AA40" s="6"/>
+        <tr r="H42" s="6"/>
+        <tr r="S33" s="6"/>
+        <tr r="Q50" s="6"/>
+        <tr r="AI36" s="6"/>
+        <tr r="U35" s="6"/>
+        <tr r="AG38" s="6"/>
+        <tr r="K43" s="6"/>
+        <tr r="AA51" s="6"/>
+        <tr r="AE36" s="6"/>
+        <tr r="I50" s="6"/>
+        <tr r="J41" s="6"/>
+        <tr r="G38" s="6"/>
+        <tr r="T35" s="6"/>
+        <tr r="H47" s="6"/>
+        <tr r="AI46" s="6"/>
+        <tr r="V40" s="6"/>
+        <tr r="O38" s="6"/>
+        <tr r="F44" s="6"/>
+        <tr r="Y40" s="6"/>
+        <tr r="S49" s="6"/>
+        <tr r="AH38" s="6"/>
+        <tr r="T46" s="6"/>
+        <tr r="AE33" s="6"/>
+        <tr r="T45" s="6"/>
+        <tr r="AB42" s="6"/>
+        <tr r="I33" s="6"/>
+        <tr r="F53" s="6"/>
+        <tr r="AH35" s="6"/>
+        <tr r="AB41" s="6"/>
+        <tr r="AF43" s="6"/>
+        <tr r="G49" s="6"/>
+        <tr r="X44" s="6"/>
+        <tr r="M52" s="6"/>
+        <tr r="I47" s="6"/>
+        <tr r="AC33" s="6"/>
+        <tr r="Q41" s="6"/>
+        <tr r="W50" s="6"/>
+        <tr r="X43" s="6"/>
+        <tr r="AI38" s="6"/>
+        <tr r="U38" s="6"/>
+        <tr r="X53" s="6"/>
+        <tr r="F41" s="6"/>
+        <tr r="P47" s="6"/>
+        <tr r="G33" s="6"/>
+        <tr r="F39" s="6"/>
+        <tr r="U39" s="6"/>
+        <tr r="X37" s="6"/>
+        <tr r="AA48" s="6"/>
+        <tr r="AC38" s="6"/>
+        <tr r="L39" s="6"/>
+        <tr r="AD50" s="6"/>
+        <tr r="AG51" s="6"/>
+        <tr r="O42" s="6"/>
+        <tr r="Y43" s="6"/>
+        <tr r="Q39" s="6"/>
+        <tr r="O33" s="6"/>
+        <tr r="Y51" s="6"/>
+        <tr r="AA47" s="6"/>
+        <tr r="L49" s="6"/>
+        <tr r="U51" s="6"/>
+        <tr r="H35" s="6"/>
+        <tr r="Z52" s="6"/>
+        <tr r="L41" s="6"/>
+        <tr r="AB50" s="6"/>
+        <tr r="H40" s="6"/>
+        <tr r="H38" s="6"/>
+        <tr r="AG40" s="6"/>
+        <tr r="O43" s="6"/>
+        <tr r="AG37" s="6"/>
+        <tr r="AB44" s="6"/>
+        <tr r="AD41" s="6"/>
+        <tr r="AG33" s="6"/>
+        <tr r="S44" s="6"/>
+        <tr r="H52" s="6"/>
+        <tr r="O49" s="6"/>
+        <tr r="K37" s="6"/>
+        <tr r="AF44" s="6"/>
+        <tr r="AH33" s="6"/>
+        <tr r="J52" s="6"/>
+        <tr r="J48" s="6"/>
+        <tr r="U46" s="6"/>
+        <tr r="W46" s="6"/>
+        <tr r="AB36" s="6"/>
+        <tr r="E44" s="6"/>
+        <tr r="G34" s="6"/>
+        <tr r="AE53" s="6"/>
+        <tr r="W53" s="6"/>
+        <tr r="AD34" s="6"/>
+        <tr r="AH44" s="6"/>
+        <tr r="AF53" s="6"/>
+        <tr r="L45" s="6"/>
+        <tr r="AG35" s="6"/>
+        <tr r="AB52" s="6"/>
+        <tr r="N53" s="6"/>
+        <tr r="J35" s="6"/>
+        <tr r="I45" s="6"/>
+        <tr r="I51" s="6"/>
+        <tr r="Z45" s="6"/>
+        <tr r="W37" s="6"/>
+        <tr r="F34" s="6"/>
+        <tr r="AF38" s="6"/>
+        <tr r="R49" s="6"/>
+        <tr r="F42" s="6"/>
+        <tr r="O46" s="6"/>
+        <tr r="AH40" s="6"/>
+        <tr r="Q36" s="6"/>
+        <tr r="H53" s="6"/>
+        <tr r="L51" s="6"/>
+        <tr r="AG52" s="6"/>
+        <tr r="X52" s="6"/>
+        <tr r="R50" s="6"/>
+        <tr r="E43" s="6"/>
+        <tr r="W52" s="6"/>
+        <tr r="N41" s="6"/>
+        <tr r="AA45" s="6"/>
+        <tr r="Z39" s="6"/>
+        <tr r="AC45" s="6"/>
+        <tr r="O41" s="6"/>
+        <tr r="X36" s="6"/>
+        <tr r="N45" s="6"/>
+        <tr r="X34" s="6"/>
+        <tr r="M46" s="6"/>
+        <tr r="P43" s="6"/>
+        <tr r="L43" s="6"/>
+        <tr r="F51" s="6"/>
+        <tr r="M45" s="6"/>
+        <tr r="J44" s="6"/>
+        <tr r="T51" s="6"/>
+        <tr r="M38" s="6"/>
+        <tr r="R37" s="6"/>
+        <tr r="L48" s="6"/>
+        <tr r="F43" s="6"/>
+        <tr r="X45" s="6"/>
+        <tr r="AE41" s="6"/>
+        <tr r="AB45" s="6"/>
+        <tr r="R40" s="6"/>
+        <tr r="Y50" s="6"/>
+        <tr r="AG50" s="6"/>
+        <tr r="AB43" s="6"/>
+        <tr r="P36" s="6"/>
+        <tr r="K50" s="6"/>
+        <tr r="AE39" s="6"/>
+        <tr r="R45" s="6"/>
+        <tr r="AI41" s="6"/>
+        <tr r="AD51" s="6"/>
+        <tr r="M34" s="6"/>
+        <tr r="S39" s="6"/>
+        <tr r="U47" s="6"/>
+        <tr r="E45" s="6"/>
+        <tr r="Y35" s="6"/>
+        <tr r="E46" s="6"/>
+        <tr r="AA42" s="6"/>
+        <tr r="N34" s="6"/>
+        <tr r="S42" s="6"/>
+        <tr r="U50" s="6"/>
+        <tr r="AF46" s="6"/>
+        <tr r="T36" s="6"/>
+        <tr r="G50" s="6"/>
+        <tr r="Z41" s="6"/>
+        <tr r="M47" s="6"/>
+        <tr r="X33" s="6"/>
+        <tr r="AI43" s="6"/>
+        <tr r="AH41" s="6"/>
+        <tr r="G36" s="6"/>
+        <tr r="M44" s="6"/>
+        <tr r="U53" s="6"/>
+        <tr r="AC50" s="6"/>
+        <tr r="H33" s="6"/>
+        <tr r="E52" s="6"/>
+        <tr r="R43" s="6"/>
+        <tr r="Q44" s="6"/>
+        <tr r="E35" s="6"/>
+        <tr r="AA41" s="6"/>
+        <tr r="X40" s="6"/>
+        <tr r="G43" s="6"/>
+        <tr r="AG45" s="6"/>
+        <tr r="P42" s="6"/>
+        <tr r="W39" s="6"/>
+        <tr r="Q35" s="6"/>
+        <tr r="AC52" s="6"/>
+        <tr r="AH48" s="6"/>
+        <tr r="AB38" s="6"/>
+        <tr r="M53" s="6"/>
+        <tr r="AD42" s="6"/>
+        <tr r="G47" s="6"/>
+        <tr r="J45" s="6"/>
+        <tr r="AA33" s="6"/>
+        <tr r="AD48" s="6"/>
+        <tr r="AC46" s="6"/>
+        <tr r="R52" s="6"/>
+        <tr r="I40" s="6"/>
+        <tr r="Z34" s="6"/>
+        <tr r="Y33" s="6"/>
+        <tr r="AF40" s="6"/>
+        <tr r="U52" s="6"/>
+        <tr r="AB40" s="6"/>
+        <tr r="AB48" s="6"/>
+        <tr r="U42" s="6"/>
+        <tr r="AG41" s="6"/>
+        <tr r="S51" s="6"/>
+        <tr r="J39" s="6"/>
+        <tr r="E41" s="6"/>
+        <tr r="O40" s="6"/>
+        <tr r="AF52" s="6"/>
+        <tr r="Q42" s="6"/>
+        <tr r="M35" s="6"/>
+        <tr r="AG39" s="6"/>
+        <tr r="V45" s="6"/>
+        <tr r="K38" s="6"/>
+        <tr r="F45" s="6"/>
+        <tr r="Y37" s="6"/>
+        <tr r="V35" s="6"/>
+        <tr r="AG43" s="6"/>
+        <tr r="V41" s="6"/>
+        <tr r="AI44" s="6"/>
+        <tr r="AA34" s="6"/>
+        <tr r="W36" s="6"/>
+        <tr r="AG42" s="6"/>
+        <tr r="AA53" s="6"/>
+        <tr r="O37" s="6"/>
+        <tr r="Z36" s="6"/>
+        <tr r="W48" s="6"/>
+        <tr r="AF47" s="6"/>
+        <tr r="Y38" s="6"/>
+        <tr r="G35" s="6"/>
+        <tr r="K42" s="6"/>
+        <tr r="S53" s="6"/>
+        <tr r="Z43" s="6"/>
+        <tr r="AA44" s="6"/>
+        <tr r="AF39" s="6"/>
+        <tr r="S41" s="6"/>
+        <tr r="AH45" s="6"/>
+        <tr r="W45" s="6"/>
+        <tr r="AD37" s="6"/>
+        <tr r="P41" s="6"/>
+        <tr r="AH51" s="6"/>
+        <tr r="G41" s="6"/>
+        <tr r="K46" s="6"/>
+        <tr r="E42" s="6"/>
+        <tr r="I34" s="6"/>
+        <tr r="AI42" s="6"/>
+        <tr r="U45" s="6"/>
+        <tr r="Z35" s="6"/>
+        <tr r="I35" s="6"/>
+        <tr r="R35" s="6"/>
+        <tr r="R38" s="6"/>
+        <tr r="AF37" s="6"/>
+        <tr r="K35" s="6"/>
+        <tr r="P50" s="6"/>
+        <tr r="Q38" s="6"/>
+        <tr r="AB51" s="6"/>
+        <tr r="V52" s="6"/>
+        <tr r="U37" s="6"/>
+        <tr r="M42" s="6"/>
+        <tr r="AE34" s="6"/>
+        <tr r="AG47" s="6"/>
+        <tr r="AC43" s="6"/>
+        <tr r="O53" s="6"/>
+        <tr r="J36" s="6"/>
+        <tr r="F48" s="6"/>
+        <tr r="I38" s="6"/>
+        <tr r="V34" s="6"/>
+        <tr r="AA35" s="6"/>
+        <tr r="AF36" s="6"/>
+        <tr r="E47" s="6"/>
+        <tr r="AC39" s="6"/>
+        <tr r="AD35" s="6"/>
+        <tr r="Y36" s="6"/>
+        <tr r="Z53" s="6"/>
+        <tr r="AG49" s="6"/>
+        <tr r="K45" s="6"/>
+        <tr r="AB33" s="6"/>
+        <tr r="G51" s="6"/>
+        <tr r="S40" s="6"/>
+        <tr r="V39" s="6"/>
+        <tr r="AB34" s="6"/>
+        <tr r="M36" s="6"/>
+        <tr r="Z46" s="6"/>
+        <tr r="N47" s="6"/>
+        <tr r="Q48" s="6"/>
+        <tr r="Y46" s="6"/>
+        <tr r="Q43" s="6"/>
+        <tr r="F47" s="6"/>
+        <tr r="E50" s="6"/>
+        <tr r="N43" s="6"/>
+        <tr r="U43" s="6"/>
+        <tr r="AH34" s="6"/>
+        <tr r="AD45" s="6"/>
+        <tr r="P49" s="6"/>
+        <tr r="AH50" s="6"/>
+        <tr r="AE42" s="6"/>
+        <tr r="AI40" s="6"/>
+        <tr r="AC51" s="6"/>
+        <tr r="M33" s="6"/>
+        <tr r="H51" s="6"/>
+        <tr r="I37" s="6"/>
+        <tr r="AI33" s="6"/>
+        <tr r="M50" s="6"/>
+        <tr r="AA37" s="6"/>
+        <tr r="J34" s="6"/>
+        <tr r="S37" s="6"/>
+        <tr r="N42" s="6"/>
+        <tr r="O34" s="6"/>
+        <tr r="V33" s="6"/>
+        <tr r="S34" s="6"/>
+        <tr r="P45" s="6"/>
+        <tr r="R34" s="6"/>
+        <tr r="X49" s="6"/>
+        <tr r="AG48" s="6"/>
+        <tr r="W44" s="6"/>
+        <tr r="L50" s="6"/>
+        <tr r="AI37" s="6"/>
+        <tr r="AA36" s="6"/>
+        <tr r="N48" s="6"/>
+        <tr r="AF33" s="6"/>
+        <tr r="I36" s="6"/>
+        <tr r="AA39" s="6"/>
+        <tr r="T49" s="6"/>
+        <tr r="X42" s="6"/>
+        <tr r="H43" s="6"/>
+        <tr r="S38" s="6"/>
+        <tr r="Q33" s="6"/>
+        <tr r="Z49" s="6"/>
+        <tr r="P48" s="6"/>
+        <tr r="G46" s="6"/>
+        <tr r="H34" s="6"/>
+        <tr r="AE50" s="6"/>
+        <tr r="N52" s="6"/>
+        <tr r="Q45" s="6"/>
+        <tr r="U44" s="6"/>
+        <tr r="AA46" s="6"/>
+        <tr r="U48" s="6"/>
+        <tr r="J43" s="6"/>
+        <tr r="T47" s="6"/>
+        <tr r="P52" s="6"/>
+        <tr r="P33" s="6"/>
+        <tr r="L33" s="6"/>
+        <tr r="E48" s="6"/>
+        <tr r="AH47" s="6"/>
+        <tr r="R44" s="6"/>
+        <tr r="Q46" s="6"/>
+        <tr r="AB35" s="6"/>
+        <tr r="O50" s="6"/>
+        <tr r="S50" s="6"/>
+        <tr r="I48" s="6"/>
+        <tr r="W33" s="6"/>
+        <tr r="AB47" s="6"/>
+        <tr r="N33" s="6"/>
+        <tr r="AE44" s="6"/>
+        <tr r="J37" s="6"/>
+        <tr r="J42" s="6"/>
+        <tr r="K44" s="6"/>
+        <tr r="AH46" s="6"/>
+        <tr r="AH39" s="6"/>
+        <tr r="R46" s="6"/>
+        <tr r="U49" s="6"/>
+        <tr r="O39" s="6"/>
+        <tr r="K49" s="6"/>
+        <tr r="S47" s="6"/>
       </tp>
     </main>
-    <main first="rtdsrv.876df04507944d89bfe21dc3f008e3fd">
+    <main first="rtdsrv.b5eecb54378e499998dd3d4e75938e4f">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>fd9a10da-214f-4cee-840b-d68a47136407</stp>
-        <tr r="L34" s="5"/>
-        <tr r="J30" s="5"/>
-        <tr r="H30" s="5"/>
-        <tr r="G34" s="5"/>
-        <tr r="K33" s="5"/>
-        <tr r="K30" s="5"/>
-        <tr r="K34" s="5"/>
-        <tr r="L30" s="5"/>
-        <tr r="F29" s="5"/>
-        <tr r="H31" s="5"/>
-        <tr r="J29" s="5"/>
-        <tr r="I30" s="5"/>
-        <tr r="L32" s="5"/>
-        <tr r="J31" s="5"/>
-        <tr r="E33" s="5"/>
-        <tr r="I29" s="5"/>
-        <tr r="M32" s="5"/>
-        <tr r="F33" s="5"/>
-        <tr r="G33" s="5"/>
-        <tr r="K35" s="5"/>
-        <tr r="M34" s="5"/>
-        <tr r="G31" s="5"/>
-        <tr r="M35" s="5"/>
-        <tr r="J32" s="5"/>
-        <tr r="G30" s="5"/>
-        <tr r="E34" s="5"/>
-        <tr r="M33" s="5"/>
-        <tr r="E35" s="5"/>
-        <tr r="H33" s="5"/>
-        <tr r="F34" s="5"/>
-        <tr r="E32" s="5"/>
-        <tr r="H34" s="5"/>
-        <tr r="E29" s="5"/>
-        <tr r="F31" s="5"/>
-        <tr r="L29" s="5"/>
-        <tr r="J34" s="5"/>
-        <tr r="M29" s="5"/>
-        <tr r="F35" s="5"/>
-        <tr r="I35" s="5"/>
-        <tr r="J35" s="5"/>
-        <tr r="F32" s="5"/>
-        <tr r="L31" s="5"/>
-        <tr r="K31" s="5"/>
-        <tr r="H35" s="5"/>
-        <tr r="M31" s="5"/>
-        <tr r="E31" s="5"/>
-        <tr r="J33" s="5"/>
-        <tr r="I34" s="5"/>
-        <tr r="I32" s="5"/>
-        <tr r="K32" s="5"/>
-        <tr r="I31" s="5"/>
-        <tr r="G35" s="5"/>
-        <tr r="L35" s="5"/>
-        <tr r="I33" s="5"/>
-        <tr r="H32" s="5"/>
-        <tr r="M30" s="5"/>
-        <tr r="G32" s="5"/>
-        <tr r="H29" s="5"/>
-        <tr r="K29" s="5"/>
-        <tr r="G29" s="5"/>
-        <tr r="L33" s="5"/>
-        <tr r="E30" s="5"/>
-        <tr r="F30" s="5"/>
+        <stp>0b677968-94bf-4287-a657-732ae382b811</stp>
+        <tr r="I43" s="13"/>
+        <tr r="I39" s="13"/>
+        <tr r="K48" s="13"/>
+        <tr r="N41" s="13"/>
+        <tr r="E42" s="13"/>
+        <tr r="M46" s="13"/>
+        <tr r="M40" s="13"/>
+        <tr r="H42" s="13"/>
+        <tr r="K46" s="13"/>
+        <tr r="L43" s="13"/>
+        <tr r="K44" s="13"/>
+        <tr r="L46" s="13"/>
+        <tr r="O44" s="13"/>
+        <tr r="F48" s="13"/>
+        <tr r="I40" s="13"/>
+        <tr r="L49" s="13"/>
+        <tr r="M47" s="13"/>
+        <tr r="I42" s="13"/>
+        <tr r="E39" s="13"/>
+        <tr r="N47" s="13"/>
+        <tr r="J39" s="13"/>
+        <tr r="F46" s="13"/>
+        <tr r="E41" s="13"/>
+        <tr r="L48" s="13"/>
+        <tr r="I44" s="13"/>
+        <tr r="L39" s="13"/>
+        <tr r="K43" s="13"/>
+        <tr r="J41" s="13"/>
+        <tr r="J44" s="13"/>
+        <tr r="M49" s="13"/>
+        <tr r="F39" s="13"/>
+        <tr r="H40" s="13"/>
+        <tr r="L45" s="13"/>
+        <tr r="F42" s="13"/>
+        <tr r="J40" s="13"/>
+        <tr r="N49" s="13"/>
+        <tr r="O43" s="13"/>
+        <tr r="F43" s="13"/>
+        <tr r="O49" s="13"/>
+        <tr r="J48" s="13"/>
+        <tr r="L44" s="13"/>
+        <tr r="O39" s="13"/>
+        <tr r="N44" s="13"/>
+        <tr r="F47" s="13"/>
+        <tr r="N39" s="13"/>
+        <tr r="E47" s="13"/>
+        <tr r="F41" s="13"/>
+        <tr r="N45" s="13"/>
+        <tr r="F44" s="13"/>
+        <tr r="E40" s="13"/>
+        <tr r="G43" s="13"/>
+        <tr r="K39" s="13"/>
+        <tr r="O45" s="13"/>
+        <tr r="F40" s="13"/>
+        <tr r="E46" s="13"/>
+        <tr r="K40" s="13"/>
+        <tr r="M42" s="13"/>
+        <tr r="N40" s="13"/>
+        <tr r="O47" s="13"/>
+        <tr r="G42" s="13"/>
+        <tr r="E44" s="13"/>
+        <tr r="H44" s="13"/>
+        <tr r="O40" s="13"/>
+        <tr r="H41" s="13"/>
+        <tr r="E43" s="13"/>
+        <tr r="O46" s="13"/>
+        <tr r="J46" s="13"/>
+        <tr r="E45" s="13"/>
+        <tr r="G47" s="13"/>
+        <tr r="G49" s="13"/>
+        <tr r="H39" s="13"/>
+        <tr r="J43" s="13"/>
+        <tr r="F49" s="13"/>
+        <tr r="I41" s="13"/>
+        <tr r="I46" s="13"/>
+        <tr r="N43" s="13"/>
+        <tr r="I47" s="13"/>
+        <tr r="H48" s="13"/>
+        <tr r="K41" s="13"/>
+        <tr r="O48" s="13"/>
+        <tr r="H47" s="13"/>
+        <tr r="K49" s="13"/>
+        <tr r="G44" s="13"/>
+        <tr r="E48" s="13"/>
+        <tr r="G46" s="13"/>
+        <tr r="N42" s="13"/>
+        <tr r="L47" s="13"/>
+        <tr r="J47" s="13"/>
+        <tr r="H49" s="13"/>
+        <tr r="G45" s="13"/>
+        <tr r="L40" s="13"/>
+        <tr r="K42" s="13"/>
+        <tr r="G39" s="13"/>
+        <tr r="I45" s="13"/>
+        <tr r="G41" s="13"/>
+        <tr r="O41" s="13"/>
+        <tr r="G40" s="13"/>
+        <tr r="M48" s="13"/>
+        <tr r="M43" s="13"/>
+        <tr r="J45" s="13"/>
+        <tr r="O42" s="13"/>
+        <tr r="I49" s="13"/>
+        <tr r="I48" s="13"/>
+        <tr r="K45" s="13"/>
+        <tr r="M41" s="13"/>
+        <tr r="N48" s="13"/>
+        <tr r="H43" s="13"/>
+        <tr r="E49" s="13"/>
+        <tr r="H45" s="13"/>
+        <tr r="K47" s="13"/>
+        <tr r="J49" s="13"/>
+        <tr r="F45" s="13"/>
+        <tr r="L42" s="13"/>
+        <tr r="M44" s="13"/>
+        <tr r="G48" s="13"/>
+        <tr r="M45" s="13"/>
+        <tr r="M39" s="13"/>
+        <tr r="H46" s="13"/>
+        <tr r="L41" s="13"/>
+        <tr r="J42" s="13"/>
+        <tr r="N46" s="13"/>
       </tp>
     </main>
-    <main first="rtdsrv.876df04507944d89bfe21dc3f008e3fd">
+    <main first="rtdsrv.b5eecb54378e499998dd3d4e75938e4f">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>b42e57ef-5486-431e-815d-2c22594553ea</stp>
-        <tr r="K37" s="8"/>
-        <tr r="G32" s="8"/>
-        <tr r="G31" s="8"/>
-        <tr r="K44" s="8"/>
-        <tr r="F45" s="8"/>
-        <tr r="J41" s="8"/>
-        <tr r="I36" s="8"/>
-        <tr r="H49" s="8"/>
-        <tr r="I51" s="8"/>
-        <tr r="I38" s="8"/>
-        <tr r="H42" s="8"/>
-        <tr r="G51" s="8"/>
-        <tr r="L50" s="8"/>
-        <tr r="H38" s="8"/>
-        <tr r="I43" s="8"/>
-        <tr r="I41" s="8"/>
-        <tr r="F41" s="8"/>
-        <tr r="L36" s="8"/>
-        <tr r="E39" s="8"/>
-        <tr r="I39" s="8"/>
-        <tr r="H37" s="8"/>
-        <tr r="F46" s="8"/>
-        <tr r="J44" s="8"/>
-        <tr r="H50" s="8"/>
-        <tr r="L45" s="8"/>
-        <tr r="K43" s="8"/>
-        <tr r="K41" s="8"/>
-        <tr r="J50" s="8"/>
-        <tr r="L33" s="8"/>
-        <tr r="F40" s="8"/>
-        <tr r="H33" s="8"/>
-        <tr r="E33" s="8"/>
-        <tr r="F47" s="8"/>
-        <tr r="L31" s="8"/>
-        <tr r="L51" s="8"/>
-        <tr r="K45" s="8"/>
-        <tr r="E34" s="8"/>
-        <tr r="L32" s="8"/>
-        <tr r="G40" s="8"/>
-        <tr r="J47" s="8"/>
-        <tr r="E36" s="8"/>
-        <tr r="G39" s="8"/>
-        <tr r="I33" s="8"/>
-        <tr r="I31" s="8"/>
-        <tr r="J42" s="8"/>
-        <tr r="H45" s="8"/>
-        <tr r="G42" s="8"/>
-        <tr r="E40" s="8"/>
-        <tr r="H34" s="8"/>
-        <tr r="F51" s="8"/>
-        <tr r="G48" s="8"/>
-        <tr r="F36" s="8"/>
-        <tr r="K48" s="8"/>
-        <tr r="K47" s="8"/>
-        <tr r="J32" s="8"/>
-        <tr r="E50" s="8"/>
-        <tr r="G43" s="8"/>
-        <tr r="H46" s="8"/>
-        <tr r="J39" s="8"/>
-        <tr r="J45" s="8"/>
-        <tr r="E37" s="8"/>
-        <tr r="E32" s="8"/>
-        <tr r="H31" s="8"/>
-        <tr r="G41" s="8"/>
-        <tr r="K34" s="8"/>
-        <tr r="L48" s="8"/>
-        <tr r="F33" s="8"/>
-        <tr r="K32" s="8"/>
-        <tr r="F39" s="8"/>
-        <tr r="K33" s="8"/>
-        <tr r="J40" s="8"/>
-        <tr r="J34" s="8"/>
-        <tr r="F32" s="8"/>
-        <tr r="H36" s="8"/>
-        <tr r="K36" s="8"/>
-        <tr r="E48" s="8"/>
-        <tr r="J43" s="8"/>
-        <tr r="I45" s="8"/>
-        <tr r="H32" s="8"/>
-        <tr r="I42" s="8"/>
-        <tr r="G36" s="8"/>
-        <tr r="L47" s="8"/>
-        <tr r="J35" s="8"/>
-        <tr r="F38" s="8"/>
-        <tr r="J38" s="8"/>
-        <tr r="E46" s="8"/>
-        <tr r="L34" s="8"/>
-        <tr r="L46" s="8"/>
-        <tr r="J37" s="8"/>
-        <tr r="G38" s="8"/>
-        <tr r="F34" s="8"/>
-        <tr r="J36" s="8"/>
-        <tr r="H39" s="8"/>
-        <tr r="L37" s="8"/>
-        <tr r="I40" s="8"/>
-        <tr r="G50" s="8"/>
-        <tr r="G34" s="8"/>
-        <tr r="F49" s="8"/>
-        <tr r="H40" s="8"/>
-        <tr r="E31" s="8"/>
-        <tr r="H44" s="8"/>
-        <tr r="E43" s="8"/>
-        <tr r="I50" s="8"/>
-        <tr r="G35" s="8"/>
-        <tr r="J46" s="8"/>
-        <tr r="G33" s="8"/>
-        <tr r="G46" s="8"/>
-        <tr r="I47" s="8"/>
-        <tr r="K51" s="8"/>
-        <tr r="E49" s="8"/>
-        <tr r="L49" s="8"/>
-        <tr r="G49" s="8"/>
-        <tr r="F48" s="8"/>
-        <tr r="J49" s="8"/>
-        <tr r="F42" s="8"/>
-        <tr r="K50" s="8"/>
-        <tr r="I46" s="8"/>
-        <tr r="K40" s="8"/>
-        <tr r="E47" s="8"/>
-        <tr r="K31" s="8"/>
-        <tr r="F43" s="8"/>
-        <tr r="G37" s="8"/>
-        <tr r="H35" s="8"/>
-        <tr r="I34" s="8"/>
-        <tr r="L35" s="8"/>
-        <tr r="E51" s="8"/>
-        <tr r="I37" s="8"/>
-        <tr r="I48" s="8"/>
-        <tr r="H47" s="8"/>
-        <tr r="J31" s="8"/>
-        <tr r="I32" s="8"/>
-        <tr r="H41" s="8"/>
-        <tr r="L42" s="8"/>
-        <tr r="K39" s="8"/>
-        <tr r="L43" s="8"/>
-        <tr r="H48" s="8"/>
-        <tr r="F37" s="8"/>
-        <tr r="K46" s="8"/>
-        <tr r="J33" s="8"/>
-        <tr r="E41" s="8"/>
-        <tr r="L40" s="8"/>
-        <tr r="F44" s="8"/>
-        <tr r="L38" s="8"/>
-        <tr r="E45" s="8"/>
-        <tr r="E35" s="8"/>
-        <tr r="H51" s="8"/>
-        <tr r="K35" s="8"/>
-        <tr r="H43" s="8"/>
-        <tr r="E44" s="8"/>
-        <tr r="G45" s="8"/>
-        <tr r="G44" s="8"/>
-        <tr r="I35" s="8"/>
-        <tr r="J48" s="8"/>
-        <tr r="F50" s="8"/>
-        <tr r="F31" s="8"/>
-        <tr r="K49" s="8"/>
-        <tr r="J51" s="8"/>
-        <tr r="I49" s="8"/>
-        <tr r="I44" s="8"/>
-        <tr r="E42" s="8"/>
-        <tr r="L39" s="8"/>
-        <tr r="E38" s="8"/>
-        <tr r="F35" s="8"/>
-        <tr r="L41" s="8"/>
-        <tr r="G47" s="8"/>
-        <tr r="K42" s="8"/>
-        <tr r="L44" s="8"/>
-        <tr r="K38" s="8"/>
+        <stp>07d84016-5306-4932-b716-4ea4238074d0</stp>
+        <tr r="J48" s="14"/>
+        <tr r="F48" s="14"/>
+        <tr r="H48" s="14"/>
+        <tr r="E47" s="14"/>
+        <tr r="I47" s="14"/>
+        <tr r="I48" s="14"/>
+        <tr r="H47" s="14"/>
+        <tr r="K48" s="14"/>
+        <tr r="G47" s="14"/>
+        <tr r="J47" s="14"/>
+        <tr r="G48" s="14"/>
+        <tr r="F47" s="14"/>
+        <tr r="E48" s="14"/>
+        <tr r="K47" s="14"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>4c3150dd-0bbf-450b-a074-819bc97cd1b3</stp>
-        <tr r="S51" s="6"/>
-        <tr r="W51" s="6"/>
-        <tr r="G35" s="6"/>
-        <tr r="K42" s="6"/>
-        <tr r="K43" s="6"/>
-        <tr r="W42" s="6"/>
-        <tr r="T38" s="6"/>
-        <tr r="M39" s="6"/>
-        <tr r="AF52" s="6"/>
-        <tr r="M51" s="6"/>
-        <tr r="X42" s="6"/>
-        <tr r="H43" s="6"/>
-        <tr r="AF38" s="6"/>
-        <tr r="AC51" s="6"/>
-        <tr r="I33" s="6"/>
-        <tr r="J50" s="6"/>
-        <tr r="F47" s="6"/>
-        <tr r="P45" s="6"/>
-        <tr r="AF44" s="6"/>
-        <tr r="AC35" s="6"/>
-        <tr r="R43" s="6"/>
-        <tr r="T45" s="6"/>
-        <tr r="N45" s="6"/>
-        <tr r="Z44" s="6"/>
-        <tr r="AF34" s="6"/>
-        <tr r="Q47" s="6"/>
-        <tr r="V49" s="6"/>
-        <tr r="S46" s="6"/>
-        <tr r="G41" s="6"/>
-        <tr r="AC52" s="6"/>
-        <tr r="AC46" s="6"/>
-        <tr r="M40" s="6"/>
-        <tr r="P38" s="6"/>
-        <tr r="T52" s="6"/>
-        <tr r="M34" s="6"/>
-        <tr r="AE48" s="6"/>
-        <tr r="AA46" s="6"/>
-        <tr r="U44" s="6"/>
-        <tr r="AG47" s="6"/>
-        <tr r="AC42" s="6"/>
-        <tr r="X53" s="6"/>
-        <tr r="I44" s="6"/>
-        <tr r="W47" s="6"/>
-        <tr r="L36" s="6"/>
-        <tr r="R41" s="6"/>
-        <tr r="T48" s="6"/>
-        <tr r="J37" s="6"/>
-        <tr r="J33" s="6"/>
-        <tr r="V43" s="6"/>
-        <tr r="H38" s="6"/>
-        <tr r="Z46" s="6"/>
-        <tr r="L45" s="6"/>
-        <tr r="H44" s="6"/>
-        <tr r="AE49" s="6"/>
-        <tr r="V50" s="6"/>
-        <tr r="AC38" s="6"/>
-        <tr r="Y43" s="6"/>
-        <tr r="T42" s="6"/>
-        <tr r="Q53" s="6"/>
-        <tr r="M47" s="6"/>
-        <tr r="O36" s="6"/>
-        <tr r="O41" s="6"/>
-        <tr r="Z47" s="6"/>
-        <tr r="I42" s="6"/>
-        <tr r="AD35" s="6"/>
-        <tr r="V51" s="6"/>
-        <tr r="W35" s="6"/>
-        <tr r="S53" s="6"/>
-        <tr r="AA51" s="6"/>
-        <tr r="R51" s="6"/>
-        <tr r="AI39" s="6"/>
-        <tr r="F37" s="6"/>
-        <tr r="W43" s="6"/>
-        <tr r="AB45" s="6"/>
-        <tr r="R34" s="6"/>
-        <tr r="S38" s="6"/>
-        <tr r="R49" s="6"/>
-        <tr r="W48" s="6"/>
-        <tr r="F53" s="6"/>
-        <tr r="AB50" s="6"/>
-        <tr r="E50" s="6"/>
-        <tr r="F38" s="6"/>
-        <tr r="AF53" s="6"/>
-        <tr r="G39" s="6"/>
-        <tr r="Q44" s="6"/>
-        <tr r="AA33" s="6"/>
-        <tr r="X34" s="6"/>
-        <tr r="G44" s="6"/>
-        <tr r="V48" s="6"/>
-        <tr r="AA48" s="6"/>
-        <tr r="AD38" s="6"/>
-        <tr r="P40" s="6"/>
-        <tr r="K46" s="6"/>
-        <tr r="AF37" s="6"/>
-        <tr r="R52" s="6"/>
-        <tr r="AG41" s="6"/>
-        <tr r="K41" s="6"/>
-        <tr r="V45" s="6"/>
-        <tr r="AC36" s="6"/>
-        <tr r="P37" s="6"/>
-        <tr r="U48" s="6"/>
-        <tr r="T37" s="6"/>
-        <tr r="AC43" s="6"/>
-        <tr r="K39" s="6"/>
-        <tr r="F40" s="6"/>
-        <tr r="AH44" s="6"/>
-        <tr r="M49" s="6"/>
-        <tr r="T33" s="6"/>
-        <tr r="W41" s="6"/>
-        <tr r="AF49" s="6"/>
-        <tr r="J42" s="6"/>
-        <tr r="N44" s="6"/>
-        <tr r="O52" s="6"/>
-        <tr r="I37" s="6"/>
-        <tr r="Z41" s="6"/>
-        <tr r="AG35" s="6"/>
-        <tr r="H46" s="6"/>
-        <tr r="Y48" s="6"/>
-        <tr r="J51" s="6"/>
-        <tr r="O49" s="6"/>
-        <tr r="Q39" s="6"/>
-        <tr r="AA49" s="6"/>
-        <tr r="L40" s="6"/>
-        <tr r="X33" s="6"/>
-        <tr r="X41" s="6"/>
-        <tr r="I36" s="6"/>
-        <tr r="K48" s="6"/>
-        <tr r="O40" s="6"/>
-        <tr r="AG44" s="6"/>
-        <tr r="V37" s="6"/>
-        <tr r="AH33" s="6"/>
-        <tr r="Z43" s="6"/>
-        <tr r="AE36" s="6"/>
-        <tr r="Z51" s="6"/>
-        <tr r="F52" s="6"/>
-        <tr r="F49" s="6"/>
-        <tr r="AB33" s="6"/>
-        <tr r="G50" s="6"/>
-        <tr r="S39" s="6"/>
-        <tr r="Q33" s="6"/>
-        <tr r="F42" s="6"/>
-        <tr r="M42" s="6"/>
-        <tr r="AH35" s="6"/>
-        <tr r="V39" s="6"/>
-        <tr r="N43" s="6"/>
-        <tr r="AC40" s="6"/>
-        <tr r="V41" s="6"/>
-        <tr r="Z50" s="6"/>
-        <tr r="E35" s="6"/>
-        <tr r="Q46" s="6"/>
-        <tr r="M46" s="6"/>
-        <tr r="AI41" s="6"/>
-        <tr r="AC37" s="6"/>
-        <tr r="E38" s="6"/>
-        <tr r="X49" s="6"/>
-        <tr r="Q49" s="6"/>
-        <tr r="E42" s="6"/>
-        <tr r="N33" s="6"/>
-        <tr r="I40" s="6"/>
-        <tr r="N47" s="6"/>
-        <tr r="W50" s="6"/>
-        <tr r="F46" s="6"/>
-        <tr r="X46" s="6"/>
-        <tr r="K52" s="6"/>
-        <tr r="J43" s="6"/>
-        <tr r="AF48" s="6"/>
-        <tr r="O53" s="6"/>
-        <tr r="W53" s="6"/>
-        <tr r="F41" s="6"/>
-        <tr r="AG40" s="6"/>
-        <tr r="AH53" s="6"/>
-        <tr r="Q52" s="6"/>
-        <tr r="AH49" s="6"/>
-        <tr r="AB39" s="6"/>
-        <tr r="K44" s="6"/>
-        <tr r="M33" s="6"/>
-        <tr r="P44" s="6"/>
-        <tr r="R40" s="6"/>
-        <tr r="Y44" s="6"/>
-        <tr r="AB52" s="6"/>
-        <tr r="N50" s="6"/>
-        <tr r="AF41" s="6"/>
-        <tr r="T53" s="6"/>
-        <tr r="Z48" s="6"/>
-        <tr r="O33" s="6"/>
-        <tr r="AB34" s="6"/>
-        <tr r="AB46" s="6"/>
-        <tr r="AI43" s="6"/>
-        <tr r="AF45" s="6"/>
-        <tr r="R47" s="6"/>
-        <tr r="M37" s="6"/>
-        <tr r="H48" s="6"/>
-        <tr r="L48" s="6"/>
-        <tr r="AI33" s="6"/>
-        <tr r="J52" s="6"/>
-        <tr r="AA44" s="6"/>
-        <tr r="I50" s="6"/>
-        <tr r="T44" s="6"/>
-        <tr r="N39" s="6"/>
-        <tr r="E36" s="6"/>
-        <tr r="Q42" s="6"/>
-        <tr r="P51" s="6"/>
-        <tr r="U47" s="6"/>
-        <tr r="Z49" s="6"/>
-        <tr r="O46" s="6"/>
-        <tr r="J49" s="6"/>
-        <tr r="AB41" s="6"/>
-        <tr r="AF46" s="6"/>
-        <tr r="U43" s="6"/>
-        <tr r="T43" s="6"/>
-        <tr r="AI44" s="6"/>
-        <tr r="N38" s="6"/>
-        <tr r="AA41" s="6"/>
-        <tr r="F44" s="6"/>
-        <tr r="P43" s="6"/>
-        <tr r="AI38" s="6"/>
-        <tr r="E51" s="6"/>
-        <tr r="U39" s="6"/>
-        <tr r="AG48" s="6"/>
-        <tr r="W40" s="6"/>
-        <tr r="I34" s="6"/>
-        <tr r="AB42" s="6"/>
-        <tr r="Z34" s="6"/>
-        <tr r="R33" s="6"/>
-        <tr r="AE46" s="6"/>
-        <tr r="Q40" s="6"/>
-        <tr r="I39" s="6"/>
-        <tr r="F50" s="6"/>
-        <tr r="T47" s="6"/>
-        <tr r="E43" s="6"/>
-        <tr r="J36" s="6"/>
-        <tr r="S34" s="6"/>
-        <tr r="V47" s="6"/>
-        <tr r="O43" s="6"/>
-        <tr r="I49" s="6"/>
-        <tr r="AA40" s="6"/>
-        <tr r="S52" s="6"/>
-        <tr r="X36" s="6"/>
-        <tr r="AH46" s="6"/>
-        <tr r="AF47" s="6"/>
-        <tr r="N36" s="6"/>
-        <tr r="Y50" s="6"/>
-        <tr r="K47" s="6"/>
-        <tr r="N53" s="6"/>
-        <tr r="AD53" s="6"/>
-        <tr r="AH48" s="6"/>
-        <tr r="T39" s="6"/>
-        <tr r="F39" s="6"/>
-        <tr r="Y51" s="6"/>
-        <tr r="M41" s="6"/>
-        <tr r="K51" s="6"/>
-        <tr r="AH41" s="6"/>
-        <tr r="R53" s="6"/>
-        <tr r="AD48" s="6"/>
-        <tr r="P35" s="6"/>
-        <tr r="AE38" s="6"/>
-        <tr r="J39" s="6"/>
-        <tr r="M50" s="6"/>
-        <tr r="J48" s="6"/>
-        <tr r="AF39" s="6"/>
-        <tr r="J41" s="6"/>
-        <tr r="K35" s="6"/>
-        <tr r="AD46" s="6"/>
-        <tr r="AA39" s="6"/>
-        <tr r="J38" s="6"/>
-        <tr r="AD52" s="6"/>
-        <tr r="E45" s="6"/>
-        <tr r="P48" s="6"/>
-        <tr r="AH40" s="6"/>
-        <tr r="AE34" s="6"/>
-        <tr r="AF43" s="6"/>
-        <tr r="U40" s="6"/>
-        <tr r="AH34" s="6"/>
-        <tr r="AD49" s="6"/>
-        <tr r="AA34" s="6"/>
-        <tr r="AH42" s="6"/>
-        <tr r="X40" s="6"/>
-        <tr r="AB35" s="6"/>
-        <tr r="L43" s="6"/>
-        <tr r="W34" s="6"/>
-        <tr r="Z42" s="6"/>
-        <tr r="E53" s="6"/>
-        <tr r="W44" s="6"/>
-        <tr r="AE35" s="6"/>
-        <tr r="AI42" s="6"/>
-        <tr r="AE44" s="6"/>
-        <tr r="Y33" s="6"/>
-        <tr r="N40" s="6"/>
-        <tr r="AC44" s="6"/>
-        <tr r="Y49" s="6"/>
-        <tr r="AH36" s="6"/>
-        <tr r="X38" s="6"/>
-        <tr r="P52" s="6"/>
-        <tr r="J40" s="6"/>
-        <tr r="F48" s="6"/>
-        <tr r="F33" s="6"/>
-        <tr r="AD47" s="6"/>
-        <tr r="AG37" s="6"/>
-        <tr r="M48" s="6"/>
-        <tr r="H42" s="6"/>
-        <tr r="E34" s="6"/>
-        <tr r="AI34" s="6"/>
-        <tr r="AH39" s="6"/>
-        <tr r="AI53" s="6"/>
-        <tr r="G48" s="6"/>
-        <tr r="AG50" s="6"/>
-        <tr r="H45" s="6"/>
-        <tr r="J35" s="6"/>
-        <tr r="AI49" s="6"/>
-        <tr r="I53" s="6"/>
-        <tr r="O51" s="6"/>
-        <tr r="H40" s="6"/>
-        <tr r="AA47" s="6"/>
-        <tr r="K38" s="6"/>
-        <tr r="L38" s="6"/>
-        <tr r="G36" s="6"/>
-        <tr r="N46" s="6"/>
-        <tr r="J46" s="6"/>
-        <tr r="AI50" s="6"/>
-        <tr r="W49" s="6"/>
-        <tr r="Y36" s="6"/>
-        <tr r="AA37" s="6"/>
-        <tr r="U46" s="6"/>
-        <tr r="S41" s="6"/>
-        <tr r="G38" s="6"/>
-        <tr r="Y40" s="6"/>
-        <tr r="E37" s="6"/>
-        <tr r="L39" s="6"/>
-        <tr r="G51" s="6"/>
-        <tr r="AF42" s="6"/>
-        <tr r="Y35" s="6"/>
-        <tr r="G46" s="6"/>
-        <tr r="Q36" s="6"/>
-        <tr r="W52" s="6"/>
-        <tr r="G49" s="6"/>
-        <tr r="O44" s="6"/>
-        <tr r="AD45" s="6"/>
-        <tr r="AE45" s="6"/>
-        <tr r="W36" s="6"/>
-        <tr r="Y53" s="6"/>
-        <tr r="G43" s="6"/>
-        <tr r="AB38" s="6"/>
-        <tr r="F51" s="6"/>
-        <tr r="AA50" s="6"/>
-        <tr r="AB49" s="6"/>
-        <tr r="G37" s="6"/>
-        <tr r="L50" s="6"/>
-        <tr r="K40" s="6"/>
-        <tr r="U45" s="6"/>
-        <tr r="P50" s="6"/>
-        <tr r="AF40" s="6"/>
-        <tr r="AC39" s="6"/>
-        <tr r="AD43" s="6"/>
-        <tr r="O48" s="6"/>
-        <tr r="Y47" s="6"/>
-        <tr r="AF50" s="6"/>
-        <tr r="P33" s="6"/>
-        <tr r="T40" s="6"/>
-        <tr r="I38" s="6"/>
-        <tr r="Z53" s="6"/>
-        <tr r="P47" s="6"/>
-        <tr r="AB44" s="6"/>
-        <tr r="L37" s="6"/>
-        <tr r="S33" s="6"/>
-        <tr r="L35" s="6"/>
-        <tr r="O50" s="6"/>
-        <tr r="R46" s="6"/>
-        <tr r="AD39" s="6"/>
-        <tr r="H36" s="6"/>
-        <tr r="AB43" s="6"/>
-        <tr r="L46" s="6"/>
-        <tr r="I45" s="6"/>
-        <tr r="AC49" s="6"/>
-        <tr r="AE51" s="6"/>
-        <tr r="AG46" s="6"/>
-        <tr r="L44" s="6"/>
-        <tr r="L49" s="6"/>
-        <tr r="M36" s="6"/>
-        <tr r="P34" s="6"/>
-        <tr r="M44" s="6"/>
-        <tr r="X48" s="6"/>
-        <tr r="X47" s="6"/>
-        <tr r="E40" s="6"/>
-        <tr r="AG49" s="6"/>
-        <tr r="S36" s="6"/>
-        <tr r="J34" s="6"/>
-        <tr r="W46" s="6"/>
-        <tr r="AH45" s="6"/>
-        <tr r="T35" s="6"/>
-        <tr r="K33" s="6"/>
-        <tr r="R39" s="6"/>
-        <tr r="AC48" s="6"/>
-        <tr r="U41" s="6"/>
-        <tr r="N35" s="6"/>
-        <tr r="E46" s="6"/>
-        <tr r="H34" s="6"/>
-        <tr r="H53" s="6"/>
-        <tr r="S49" s="6"/>
-        <tr r="X44" s="6"/>
-        <tr r="K37" s="6"/>
-        <tr r="P49" s="6"/>
-        <tr r="V42" s="6"/>
-        <tr r="AG42" s="6"/>
-        <tr r="W38" s="6"/>
-        <tr r="AG45" s="6"/>
-        <tr r="N41" s="6"/>
-        <tr r="M45" s="6"/>
-        <tr r="AD34" s="6"/>
-        <tr r="H37" s="6"/>
-        <tr r="X37" s="6"/>
-        <tr r="AI37" s="6"/>
-        <tr r="P46" s="6"/>
-        <tr r="Z35" s="6"/>
-        <tr r="M53" s="6"/>
-        <tr r="U52" s="6"/>
-        <tr r="Q48" s="6"/>
-        <tr r="X43" s="6"/>
-        <tr r="L47" s="6"/>
-        <tr r="Y39" s="6"/>
-        <tr r="H41" s="6"/>
-        <tr r="L33" s="6"/>
-        <tr r="Q38" s="6"/>
-        <tr r="V34" s="6"/>
-        <tr r="H51" s="6"/>
-        <tr r="S43" s="6"/>
-        <tr r="AD41" s="6"/>
-        <tr r="AG34" s="6"/>
-        <tr r="Q50" s="6"/>
-        <tr r="E49" s="6"/>
-        <tr r="S50" s="6"/>
-        <tr r="U49" s="6"/>
-        <tr r="T36" s="6"/>
-        <tr r="T50" s="6"/>
-        <tr r="P36" s="6"/>
-        <tr r="S35" s="6"/>
-        <tr r="I51" s="6"/>
-        <tr r="Y34" s="6"/>
-        <tr r="AI35" s="6"/>
-        <tr r="AI45" s="6"/>
-        <tr r="Q34" s="6"/>
-        <tr r="U51" s="6"/>
-        <tr r="L34" s="6"/>
-        <tr r="AH37" s="6"/>
-        <tr r="U53" s="6"/>
-        <tr r="P39" s="6"/>
-        <tr r="Z40" s="6"/>
-        <tr r="AE52" s="6"/>
-        <tr r="AD51" s="6"/>
-        <tr r="F43" s="6"/>
-        <tr r="S37" s="6"/>
-        <tr r="AB36" s="6"/>
-        <tr r="W45" s="6"/>
-        <tr r="H47" s="6"/>
-        <tr r="Y52" s="6"/>
-        <tr r="Y45" s="6"/>
-        <tr r="S48" s="6"/>
-        <tr r="M35" s="6"/>
-        <tr r="AD33" s="6"/>
-        <tr r="AA42" s="6"/>
-        <tr r="AE50" s="6"/>
-        <tr r="L51" s="6"/>
-        <tr r="AH38" s="6"/>
-        <tr r="M52" s="6"/>
-        <tr r="H49" s="6"/>
-        <tr r="AH50" s="6"/>
-        <tr r="O35" s="6"/>
-        <tr r="AA53" s="6"/>
-        <tr r="I46" s="6"/>
-        <tr r="P42" s="6"/>
-        <tr r="AA45" s="6"/>
-        <tr r="J44" s="6"/>
-        <tr r="Y38" s="6"/>
-        <tr r="U33" s="6"/>
-        <tr r="P53" s="6"/>
-        <tr r="AA36" s="6"/>
-        <tr r="AD40" s="6"/>
-        <tr r="I35" s="6"/>
-        <tr r="AD42" s="6"/>
-        <tr r="AB40" s="6"/>
-        <tr r="U38" s="6"/>
-        <tr r="U36" s="6"/>
-        <tr r="AE47" s="6"/>
-        <tr r="AE43" s="6"/>
-        <tr r="V36" s="6"/>
-        <tr r="E48" s="6"/>
-        <tr r="AB51" s="6"/>
-        <tr r="AA35" s="6"/>
-        <tr r="E39" s="6"/>
-        <tr r="E33" s="6"/>
-        <tr r="AG33" s="6"/>
-        <tr r="L53" s="6"/>
-        <tr r="AI36" s="6"/>
-        <tr r="R36" s="6"/>
-        <tr r="I48" s="6"/>
-        <tr r="O39" s="6"/>
-        <tr r="AD50" s="6"/>
-        <tr r="K34" s="6"/>
-        <tr r="K50" s="6"/>
-        <tr r="AD36" s="6"/>
-        <tr r="Z45" s="6"/>
-        <tr r="J47" s="6"/>
-        <tr r="AI48" s="6"/>
-        <tr r="AA52" s="6"/>
-        <tr r="L52" s="6"/>
-        <tr r="H35" s="6"/>
-        <tr r="F45" s="6"/>
-        <tr r="K36" s="6"/>
-        <tr r="AC50" s="6"/>
-        <tr r="AC34" s="6"/>
-        <tr r="G53" s="6"/>
-        <tr r="X50" s="6"/>
-        <tr r="N37" s="6"/>
-        <tr r="X45" s="6"/>
-        <tr r="N42" s="6"/>
-        <tr r="E44" s="6"/>
-        <tr r="AD37" s="6"/>
-        <tr r="AI46" s="6"/>
-        <tr r="G52" s="6"/>
-        <tr r="U34" s="6"/>
-        <tr r="Y46" s="6"/>
-        <tr r="S40" s="6"/>
-        <tr r="N34" s="6"/>
-        <tr r="N52" s="6"/>
-        <tr r="AG52" s="6"/>
-        <tr r="T46" s="6"/>
-        <tr r="I47" s="6"/>
-        <tr r="X35" s="6"/>
-        <tr r="AE42" s="6"/>
-        <tr r="AH52" s="6"/>
-        <tr r="O37" s="6"/>
-        <tr r="V38" s="6"/>
-        <tr r="W39" s="6"/>
-        <tr r="Z39" s="6"/>
-        <tr r="T51" s="6"/>
-        <tr r="G45" s="6"/>
-        <tr r="N49" s="6"/>
-        <tr r="G40" s="6"/>
-        <tr r="N48" s="6"/>
-        <tr r="AI52" s="6"/>
-        <tr r="R35" s="6"/>
-        <tr r="G47" s="6"/>
-        <tr r="AB48" s="6"/>
-        <tr r="AG43" s="6"/>
-        <tr r="Z38" s="6"/>
-        <tr r="V53" s="6"/>
-        <tr r="Y41" s="6"/>
-        <tr r="M43" s="6"/>
-        <tr r="AH47" s="6"/>
-        <tr r="V52" s="6"/>
-        <tr r="AF36" s="6"/>
-        <tr r="T49" s="6"/>
-        <tr r="G33" s="6"/>
-        <tr r="AA38" s="6"/>
-        <tr r="I41" s="6"/>
-        <tr r="U35" s="6"/>
-        <tr r="I52" s="6"/>
-        <tr r="W33" s="6"/>
-        <tr r="K49" s="6"/>
-        <tr r="Q41" s="6"/>
-        <tr r="AD44" s="6"/>
-        <tr r="S44" s="6"/>
-        <tr r="H50" s="6"/>
-        <tr r="W37" s="6"/>
-        <tr r="AF51" s="6"/>
-        <tr r="AB37" s="6"/>
-        <tr r="AF35" s="6"/>
-        <tr r="S45" s="6"/>
-        <tr r="Z52" s="6"/>
-        <tr r="AE39" s="6"/>
-        <tr r="L42" s="6"/>
-        <tr r="H33" s="6"/>
-        <tr r="V44" s="6"/>
-        <tr r="H39" s="6"/>
-        <tr r="O45" s="6"/>
-        <tr r="V46" s="6"/>
-        <tr r="E41" s="6"/>
-        <tr r="Y37" s="6"/>
-        <tr r="G34" s="6"/>
-        <tr r="P41" s="6"/>
-        <tr r="V40" s="6"/>
-        <tr r="N51" s="6"/>
-        <tr r="AB53" s="6"/>
-        <tr r="AG51" s="6"/>
-        <tr r="R48" s="6"/>
-        <tr r="O34" s="6"/>
-        <tr r="S42" s="6"/>
-        <tr r="X52" s="6"/>
-        <tr r="AE33" s="6"/>
-        <tr r="AC33" s="6"/>
-        <tr r="R37" s="6"/>
-        <tr r="AI40" s="6"/>
-        <tr r="I43" s="6"/>
-        <tr r="Z36" s="6"/>
-        <tr r="Q45" s="6"/>
-        <tr r="Q35" s="6"/>
-        <tr r="AC45" s="6"/>
-        <tr r="M38" s="6"/>
-        <tr r="K45" s="6"/>
-        <tr r="X39" s="6"/>
-        <tr r="AA43" s="6"/>
-        <tr r="AF33" s="6"/>
-        <tr r="O47" s="6"/>
-        <tr r="R38" s="6"/>
-        <tr r="J45" s="6"/>
-        <tr r="U42" s="6"/>
-        <tr r="Q43" s="6"/>
-        <tr r="Y42" s="6"/>
-        <tr r="Q37" s="6"/>
-        <tr r="Z33" s="6"/>
-        <tr r="AE37" s="6"/>
-        <tr r="R44" s="6"/>
-        <tr r="U37" s="6"/>
-        <tr r="E47" s="6"/>
-        <tr r="J53" s="6"/>
-        <tr r="T34" s="6"/>
-        <tr r="G42" s="6"/>
-        <tr r="AH43" s="6"/>
-        <tr r="AI47" s="6"/>
-        <tr r="AG36" s="6"/>
-        <tr r="AB47" s="6"/>
-        <tr r="S47" s="6"/>
-        <tr r="R42" s="6"/>
-        <tr r="X51" s="6"/>
-        <tr r="H52" s="6"/>
-        <tr r="AC53" s="6"/>
-        <tr r="AG38" s="6"/>
-        <tr r="AI51" s="6"/>
-        <tr r="AG53" s="6"/>
-        <tr r="F36" s="6"/>
-        <tr r="T41" s="6"/>
-        <tr r="L41" s="6"/>
-        <tr r="R45" s="6"/>
-        <tr r="F35" s="6"/>
-        <tr r="F34" s="6"/>
-        <tr r="Q51" s="6"/>
-        <tr r="AC47" s="6"/>
-        <tr r="Z37" s="6"/>
-        <tr r="AE40" s="6"/>
-        <tr r="AE41" s="6"/>
-        <tr r="V35" s="6"/>
-        <tr r="AE53" s="6"/>
-        <tr r="E52" s="6"/>
-        <tr r="O38" s="6"/>
-        <tr r="K53" s="6"/>
-        <tr r="AC41" s="6"/>
-        <tr r="O42" s="6"/>
-        <tr r="AG39" s="6"/>
-        <tr r="V33" s="6"/>
-        <tr r="U50" s="6"/>
-        <tr r="AH51" s="6"/>
-        <tr r="R50" s="6"/>
+        <stp>b3e4e6de-91da-4f42-a587-da560bb2be1f</stp>
+        <tr r="G35" s="5"/>
+        <tr r="K30" s="5"/>
+        <tr r="F33" s="5"/>
+        <tr r="K29" s="5"/>
+        <tr r="H30" s="5"/>
+        <tr r="H34" s="5"/>
+        <tr r="I33" s="5"/>
+        <tr r="G33" s="5"/>
+        <tr r="M32" s="5"/>
+        <tr r="M31" s="5"/>
+        <tr r="L33" s="5"/>
+        <tr r="F31" s="5"/>
+        <tr r="L29" s="5"/>
+        <tr r="F32" s="5"/>
+        <tr r="K35" s="5"/>
+        <tr r="I34" s="5"/>
+        <tr r="E32" s="5"/>
+        <tr r="H33" s="5"/>
+        <tr r="E33" s="5"/>
+        <tr r="K34" s="5"/>
+        <tr r="K33" s="5"/>
+        <tr r="M29" s="5"/>
+        <tr r="G32" s="5"/>
+        <tr r="M34" s="5"/>
+        <tr r="J33" s="5"/>
+        <tr r="J31" s="5"/>
+        <tr r="J35" s="5"/>
+        <tr r="H29" s="5"/>
+        <tr r="G30" s="5"/>
+        <tr r="F35" s="5"/>
+        <tr r="G29" s="5"/>
+        <tr r="M35" s="5"/>
+        <tr r="G34" s="5"/>
+        <tr r="J32" s="5"/>
+        <tr r="L35" s="5"/>
+        <tr r="L31" s="5"/>
+        <tr r="I31" s="5"/>
+        <tr r="H31" s="5"/>
+        <tr r="E29" s="5"/>
+        <tr r="K31" s="5"/>
+        <tr r="M33" s="5"/>
+        <tr r="J34" s="5"/>
+        <tr r="H32" s="5"/>
+        <tr r="E31" s="5"/>
+        <tr r="J29" s="5"/>
+        <tr r="G31" s="5"/>
+        <tr r="H35" s="5"/>
+        <tr r="I30" s="5"/>
+        <tr r="E34" s="5"/>
+        <tr r="E30" s="5"/>
+        <tr r="L34" s="5"/>
+        <tr r="K32" s="5"/>
+        <tr r="L32" s="5"/>
+        <tr r="F30" s="5"/>
+        <tr r="J30" s="5"/>
+        <tr r="F34" s="5"/>
+        <tr r="L30" s="5"/>
+        <tr r="E35" s="5"/>
+        <tr r="I32" s="5"/>
+        <tr r="I29" s="5"/>
+        <tr r="F29" s="5"/>
+        <tr r="I35" s="5"/>
+        <tr r="M30" s="5"/>
       </tp>
+    </main>
+    <main first="rtdsrv.b5eecb54378e499998dd3d4e75938e4f">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>c89cb005-a1d3-4f7f-b007-8f7f273b2b4a</stp>
-        <tr r="J47" s="14"/>
-        <tr r="I47" s="14"/>
-        <tr r="G48" s="14"/>
-        <tr r="I48" s="14"/>
-        <tr r="F48" s="14"/>
-        <tr r="K47" s="14"/>
-        <tr r="F47" s="14"/>
-        <tr r="E48" s="14"/>
-        <tr r="H47" s="14"/>
-        <tr r="E47" s="14"/>
-        <tr r="H48" s="14"/>
-        <tr r="G47" s="14"/>
-        <tr r="J48" s="14"/>
-        <tr r="K48" s="14"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c00044c5-50f6-49e5-982a-044db96241e4</stp>
-        <tr r="E39" s="13"/>
-        <tr r="L41" s="13"/>
-        <tr r="I46" s="13"/>
-        <tr r="I47" s="13"/>
-        <tr r="K41" s="13"/>
-        <tr r="F45" s="13"/>
-        <tr r="N45" s="13"/>
-        <tr r="N42" s="13"/>
-        <tr r="F40" s="13"/>
-        <tr r="I48" s="13"/>
-        <tr r="O43" s="13"/>
-        <tr r="G41" s="13"/>
-        <tr r="K49" s="13"/>
-        <tr r="O44" s="13"/>
-        <tr r="E48" s="13"/>
-        <tr r="O42" s="13"/>
-        <tr r="H46" s="13"/>
-        <tr r="M46" s="13"/>
-        <tr r="I45" s="13"/>
-        <tr r="E49" s="13"/>
-        <tr r="K47" s="13"/>
-        <tr r="K44" s="13"/>
-        <tr r="E43" s="13"/>
-        <tr r="M45" s="13"/>
-        <tr r="F49" s="13"/>
-        <tr r="N41" s="13"/>
-        <tr r="M42" s="13"/>
-        <tr r="G45" s="13"/>
-        <tr r="E47" s="13"/>
-        <tr r="M41" s="13"/>
-        <tr r="J45" s="13"/>
-        <tr r="I39" s="13"/>
-        <tr r="J40" s="13"/>
-        <tr r="J42" s="13"/>
-        <tr r="H43" s="13"/>
-        <tr r="H42" s="13"/>
-        <tr r="G40" s="13"/>
-        <tr r="J44" s="13"/>
-        <tr r="H47" s="13"/>
-        <tr r="I40" s="13"/>
-        <tr r="G49" s="13"/>
-        <tr r="F46" s="13"/>
-        <tr r="J39" s="13"/>
-        <tr r="L48" s="13"/>
-        <tr r="L40" s="13"/>
-        <tr r="K43" s="13"/>
-        <tr r="G48" s="13"/>
-        <tr r="F39" s="13"/>
-        <tr r="K42" s="13"/>
-        <tr r="I42" s="13"/>
-        <tr r="J43" s="13"/>
-        <tr r="O39" s="13"/>
-        <tr r="M43" s="13"/>
-        <tr r="L46" s="13"/>
-        <tr r="M48" s="13"/>
-        <tr r="G43" s="13"/>
-        <tr r="G39" s="13"/>
-        <tr r="E42" s="13"/>
-        <tr r="M40" s="13"/>
-        <tr r="G42" s="13"/>
-        <tr r="O40" s="13"/>
-        <tr r="F44" s="13"/>
-        <tr r="I43" s="13"/>
-        <tr r="E45" s="13"/>
-        <tr r="K40" s="13"/>
-        <tr r="J48" s="13"/>
-        <tr r="H49" s="13"/>
-        <tr r="H48" s="13"/>
-        <tr r="L43" s="13"/>
-        <tr r="J41" s="13"/>
-        <tr r="F48" s="13"/>
-        <tr r="L47" s="13"/>
-        <tr r="J47" s="13"/>
-        <tr r="N47" s="13"/>
-        <tr r="E41" s="13"/>
-        <tr r="O41" s="13"/>
-        <tr r="J49" s="13"/>
-        <tr r="N39" s="13"/>
-        <tr r="M49" s="13"/>
-        <tr r="I49" s="13"/>
-        <tr r="M47" s="13"/>
-        <tr r="F42" s="13"/>
-        <tr r="K45" s="13"/>
-        <tr r="H45" s="13"/>
-        <tr r="O48" s="13"/>
-        <tr r="O46" s="13"/>
-        <tr r="L42" s="13"/>
-        <tr r="M39" s="13"/>
-        <tr r="N48" s="13"/>
-        <tr r="N40" s="13"/>
-        <tr r="L44" s="13"/>
-        <tr r="F43" s="13"/>
-        <tr r="M44" s="13"/>
-        <tr r="F41" s="13"/>
-        <tr r="E40" s="13"/>
-        <tr r="K48" s="13"/>
-        <tr r="H39" s="13"/>
-        <tr r="N49" s="13"/>
-        <tr r="O47" s="13"/>
-        <tr r="K46" s="13"/>
-        <tr r="L39" s="13"/>
-        <tr r="G44" s="13"/>
-        <tr r="J46" s="13"/>
-        <tr r="L49" s="13"/>
-        <tr r="L45" s="13"/>
-        <tr r="I41" s="13"/>
-        <tr r="N43" s="13"/>
-        <tr r="I44" s="13"/>
-        <tr r="F47" s="13"/>
-        <tr r="H44" s="13"/>
-        <tr r="O49" s="13"/>
-        <tr r="H40" s="13"/>
-        <tr r="O45" s="13"/>
-        <tr r="E46" s="13"/>
-        <tr r="N46" s="13"/>
-        <tr r="N44" s="13"/>
-        <tr r="E44" s="13"/>
-        <tr r="H41" s="13"/>
-        <tr r="G46" s="13"/>
-        <tr r="K39" s="13"/>
-        <tr r="G47" s="13"/>
+        <stp>fd211c40-68ef-4e9c-89e2-96ac3a2cc178</stp>
+        <tr r="G33" s="9"/>
+        <tr r="E39" s="9"/>
+        <tr r="F29" s="9"/>
+        <tr r="E37" s="9"/>
+        <tr r="G30" s="9"/>
+        <tr r="G34" s="9"/>
+        <tr r="E34" s="9"/>
+        <tr r="F31" s="9"/>
+        <tr r="G36" s="9"/>
+        <tr r="F38" s="9"/>
+        <tr r="E30" s="9"/>
+        <tr r="F30" s="9"/>
+        <tr r="E31" s="9"/>
+        <tr r="E29" s="9"/>
+        <tr r="E38" s="9"/>
+        <tr r="G32" s="9"/>
+        <tr r="G35" s="9"/>
+        <tr r="F37" s="9"/>
+        <tr r="E36" s="9"/>
+        <tr r="E33" s="9"/>
+        <tr r="E32" s="9"/>
+        <tr r="F28" s="9"/>
+        <tr r="G29" s="9"/>
+        <tr r="F39" s="9"/>
+        <tr r="G37" s="9"/>
+        <tr r="F36" s="9"/>
+        <tr r="F32" s="9"/>
+        <tr r="G31" s="9"/>
+        <tr r="F34" s="9"/>
+        <tr r="F33" s="9"/>
+        <tr r="E28" s="9"/>
+        <tr r="G28" s="9"/>
+        <tr r="G38" s="9"/>
+        <tr r="E35" s="9"/>
+        <tr r="F35" s="9"/>
+        <tr r="G39" s="9"/>
       </tp>
     </main>
   </volType>
@@ -3791,8 +3795,8 @@
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>67237</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2095501</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28972</xdr:rowOff>
     </xdr:to>
@@ -4479,7 +4483,7 @@
   </sheetPr>
   <dimension ref="B1:T31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -6372,7 +6376,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="35">
         <f ca="1">TODAY()</f>
-        <v>43865</v>
+        <v>43900</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -6404,25 +6408,25 @@
       <c r="D47" s="2"/>
       <c r="E47" s="8" t="str">
         <f t="array" ref="E47:K48">_xll.flGroupsGet(F44,E19)</f>
-        <v>Id Scope</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.4051040+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="F47" s="10" t="str">
-        <v>Id Code</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.4051040+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G47" s="10" t="str">
-        <v>DisplayName</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.4051040+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H47" s="10" t="str">
-        <v>Description</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.4051040+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="I47" s="8" t="str">
-        <v>Created</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.4051040+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="J47" s="7" t="str">
-        <v>Portfolios</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.4051040+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="K47" s="10" t="str">
-        <v>SubGroups</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.4051040+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -6435,25 +6439,25 @@
         <v>1</v>
       </c>
       <c r="E48" s="15" t="str">
-        <v>Finbourne-Examples</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.4051040+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="F48" s="80" t="str">
-        <v>US-FI</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.4051040+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G48" s="80" t="str">
-        <v>US Fixed Income group</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.4051040+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H48" s="31" t="str">
-        <v>Contains Finbourne US Fixed Income portfolios</v>
-      </c>
-      <c r="I48" s="81">
-        <v>43812.405906921296</v>
-      </c>
-      <c r="J48" s="89">
-        <v>2</v>
-      </c>
-      <c r="K48" s="85">
-        <v>0</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.4051040+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="I48" s="81" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.4051040+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="J48" s="89" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.4051040+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="K48" s="85" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.4051040+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -6480,25 +6484,25 @@
       <c r="D50" s="2"/>
       <c r="E50" s="8" t="str">
         <f t="array" ref="E50:K51">_xll.flGroupsGet(F44,E20)</f>
-        <v>Id Scope</v>
+        <v>#ERROR: Group with id Finbourne-Examples-Fund in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.5402380+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="F50" s="10" t="str">
-        <v>Id Code</v>
+        <v>#ERROR: Group with id Finbourne-Examples-Fund in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.5402380+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G50" s="10" t="str">
-        <v>DisplayName</v>
+        <v>#ERROR: Group with id Finbourne-Examples-Fund in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.5402380+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H50" s="10" t="str">
-        <v>Description</v>
+        <v>#ERROR: Group with id Finbourne-Examples-Fund in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.5402380+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="I50" s="8" t="str">
-        <v>Created</v>
+        <v>#ERROR: Group with id Finbourne-Examples-Fund in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.5402380+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="J50" s="7" t="str">
-        <v>Portfolios</v>
+        <v>#ERROR: Group with id Finbourne-Examples-Fund in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.5402380+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="K50" s="10" t="str">
-        <v>SubGroups</v>
+        <v>#ERROR: Group with id Finbourne-Examples-Fund in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.5402380+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -6511,25 +6515,25 @@
         <v>1</v>
       </c>
       <c r="E51" s="15" t="str">
-        <v>Finbourne-Examples</v>
+        <v>#ERROR: Group with id Finbourne-Examples-Fund in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.5402380+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="F51" s="80" t="str">
-        <v>Finbourne-Examples-Fund</v>
+        <v>#ERROR: Group with id Finbourne-Examples-Fund in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.5402380+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G51" s="80" t="str">
-        <v>Finbourne Examples group</v>
+        <v>#ERROR: Group with id Finbourne-Examples-Fund in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.5402380+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H51" s="31" t="str">
-        <v>Contains Finbourne Examples portfolios</v>
-      </c>
-      <c r="I51" s="81">
-        <v>43812.405910162037</v>
-      </c>
-      <c r="J51" s="89">
-        <v>2</v>
-      </c>
-      <c r="K51" s="85">
-        <v>1</v>
+        <v>#ERROR: Group with id Finbourne-Examples-Fund in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.5402380+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="I51" s="81" t="str">
+        <v>#ERROR: Group with id Finbourne-Examples-Fund in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.5402380+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="J51" s="89" t="str">
+        <v>#ERROR: Group with id Finbourne-Examples-Fund in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.5402380+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="K51" s="85" t="str">
+        <v>#ERROR: Group with id Finbourne-Examples-Fund in scope Finbourne-Examples does not exist at EffectiveAt: '2020-03-10T16:38:52.5402380+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -6739,7 +6743,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="22">
+  <dataValidations disablePrompts="1" count="15">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Code" sqref="E18 E47 E50" xr:uid="{5186502B-0030-407B-92E0-ECD8ADE97953}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Base Currency" sqref="L18" xr:uid="{45CB02F2-CB9C-492E-BDDE-04F194963C03}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Created" sqref="K47 K50" xr:uid="{289CB227-8390-43BD-999F-17E47A839971}"/>
@@ -6748,20 +6752,13 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sub-Holding Keys" sqref="H18 H47 H50" xr:uid="{B548E53C-5468-47F2-AB40-A144599BD804}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Accounting Method" sqref="G18 G47 G50" xr:uid="{B0BB2118-452B-4B46-BEBA-B2B04C5744C6}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Corporate Action Source" sqref="F18 F47 F50" xr:uid="{E036C10F-2195-400C-A017-D13C52B1130A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The code that the portfolio group will be created with. Together with the scope this uniquely identifies the portfolio group." sqref="O18 G14" xr:uid="{7B8F1A63-CBA7-4EBC-BB02-8C03DFE7E650}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The name of the portfolio group." sqref="P18 H14" xr:uid="{D2EFAE2F-F843-41A3-A72E-AE4781C15264}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime at which the portfolio group was created. Defaults to the current LUSID system datetime if not specified." sqref="Q18 I14" xr:uid="{D1D07E6F-A432-465B-B893-7D6447EEBF22}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The resource identifiers of the portfolios to be contained within the portfolio group." sqref="R18 J14" xr:uid="{C9A31B58-D461-45B0-A5D2-C3C281AED07A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A long form description of the portfolio group." sqref="S18 K14" xr:uid="{7C873E06-DDED-49D8-A1D3-AC76804B1B01}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The resource identifiers of the portfolio groups to be contained within the portfolio group as sub groups." sqref="T18 L14" xr:uid="{8197FD61-582E-4D07-BFD5-81F7427C97C2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A set of unique group properties to add to the portfolio group. Each property must be from the 'PortfolioGroup' domain and should be identified by its key which has the format {domain}/{scope}/{code}, e.g. 'PortfolioGroup/Manager/Id'. These properties..." sqref="U18 M14" xr:uid="{A2ADBC61-3CA7-4B5B-9E54-E8A6C7B9DFEB}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The code that the portfolio group will be created with. Together with the scope this uniquely identifies the portfolio group." sqref="E68" xr:uid="{62BD8C21-BC94-48B3-B284-46E99E17BEEB}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The name of the portfolio group." sqref="F68" xr:uid="{079B2A45-0A21-4EE8-BCAD-99C52239AB8D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime at which the portfolio group was created. Defaults to the current LUSID system datetime if not specified." sqref="G68" xr:uid="{846AC8C3-534E-4F6D-800E-21C03D272D62}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The resource identifiers of the portfolios to be contained within the portfolio group." sqref="H68" xr:uid="{B23A8087-7C4D-47CC-A08A-7D382F4ABA60}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A long form description of the portfolio group." sqref="I68" xr:uid="{A5157915-567A-4908-9F5E-055B0EF95846}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The resource identifiers of the portfolio groups to be contained within the portfolio group as sub groups." sqref="J68" xr:uid="{39E1E874-8824-4422-91C1-582B8FEE54B3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A set of unique group properties to add to the portfolio group. Each property must be from the 'PortfolioGroup' domain and should be identified by its key which has the format {domain}/{scope}/{code}, e.g. 'PortfolioGroup/Manager/Id'. These properties..." sqref="K68" xr:uid="{E4A337B0-B1CD-4249-BBA8-93C644F119A7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The code that the portfolio group will be created with. Together with the scope this uniquely identifies the portfolio group." sqref="O18 G14 E68" xr:uid="{7B8F1A63-CBA7-4EBC-BB02-8C03DFE7E650}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The name of the portfolio group." sqref="P18 H14 F68" xr:uid="{D2EFAE2F-F843-41A3-A72E-AE4781C15264}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime at which the portfolio group was created. Defaults to the current LUSID system datetime if not specified." sqref="Q18 I14 G68" xr:uid="{D1D07E6F-A432-465B-B893-7D6447EEBF22}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The resource identifiers of the portfolios to be contained within the portfolio group." sqref="R18 J14 H68" xr:uid="{C9A31B58-D461-45B0-A5D2-C3C281AED07A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A long form description of the portfolio group." sqref="S18 K14 I68" xr:uid="{7C873E06-DDED-49D8-A1D3-AC76804B1B01}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The resource identifiers of the portfolio groups to be contained within the portfolio group as sub groups." sqref="T18 L14 J68" xr:uid="{8197FD61-582E-4D07-BFD5-81F7427C97C2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A set of unique group properties to add to the portfolio group. Each property must be from the 'PortfolioGroup' domain and should be identified by its key which has the format {domain}/{scope}/{code}, e.g. 'PortfolioGroup/Manager/Id'. These properties..." sqref="U18 M14 K68" xr:uid="{A2ADBC61-3CA7-4B5B-9E54-E8A6C7B9DFEB}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{44027378-72ED-4435-99AC-4D1C18747C76}"/>
@@ -7706,7 +7703,7 @@
   <dimension ref="B1:M26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7964,7 +7961,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="30" t="str">
-        <v>Demo</v>
+        <v>testscope</v>
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="2"/>
@@ -7982,7 +7979,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="30" t="str">
-        <v>HSDummy</v>
+        <v>test_group</v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="2"/>
@@ -8000,7 +7997,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="30" t="str">
-        <v>FinbourneBondVillains</v>
+        <v>equities_system_1f33</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="2"/>
@@ -8018,7 +8015,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="30" t="str">
-        <v>UK_High_Growth_Equities_Fund</v>
+        <v>combined_systems_c660</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="2"/>
@@ -8036,7 +8033,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="30" t="str">
-        <v>UK_High_Growth_Equities_Fund_3813-6b8b-1505-2e</v>
+        <v>UK_High_Growth_Equities_Fund_37bd-e89d-66bb-0c</v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="2"/>
@@ -8054,7 +8051,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="30" t="str">
-        <v>client-high_street_pension_fund</v>
+        <v>my_test_scope_10</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="2"/>
@@ -8072,7 +8069,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="30" t="str">
-        <v>client-strategy-high_street_pension_fund-3823-1c13-87a7-e2</v>
+        <v>test-client-37bd-e8b9-6c31-86</v>
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="2"/>
@@ -8153,7 +8150,7 @@
   <dimension ref="B1:S92"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8698,16 +8695,16 @@
         <v>Finbourne-Examples</v>
       </c>
       <c r="G31" s="29" t="str">
-        <v>Global-Equity-prop</v>
+        <v>UK-Equities</v>
       </c>
       <c r="H31" s="29" t="str">
-        <v>Global Equity</v>
-      </c>
-      <c r="I31" s="30" t="str">
-        <v>Global equity portfolio</v>
+        <v>UK Equity Fund</v>
+      </c>
+      <c r="I31" s="30">
+        <v>0</v>
       </c>
       <c r="J31" s="67">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="K31" s="68">
         <v>0</v>
@@ -8734,10 +8731,10 @@
         <v>Finbourne-Examples</v>
       </c>
       <c r="G32" s="29" t="str">
-        <v>UK-Equities</v>
+        <v>US-Corporate-Bond</v>
       </c>
       <c r="H32" s="29" t="str">
-        <v>UK Equity Fund</v>
+        <v>US Corporate Bond Fund</v>
       </c>
       <c r="I32" s="30">
         <v>0</v>
@@ -8770,10 +8767,10 @@
         <v>Finbourne-Examples</v>
       </c>
       <c r="G33" s="29" t="str">
-        <v>US-Corporate-Bond</v>
+        <v>US-Treasury-Bond</v>
       </c>
       <c r="H33" s="29" t="str">
-        <v>US Corporate Bond Fund</v>
+        <v>US$ Treasury Bond Fund</v>
       </c>
       <c r="I33" s="30">
         <v>0</v>
@@ -8799,31 +8796,31 @@
         <v>5</v>
       </c>
       <c r="E34" s="30" t="str">
-        <v>Transaction</v>
+        <v/>
       </c>
       <c r="F34" s="29" t="str">
-        <v>Finbourne-Examples</v>
+        <v/>
       </c>
       <c r="G34" s="29" t="str">
-        <v>US-Treasury-Bond</v>
+        <v/>
       </c>
       <c r="H34" s="29" t="str">
-        <v>US$ Treasury Bond Fund</v>
-      </c>
-      <c r="I34" s="30">
-        <v>0</v>
-      </c>
-      <c r="J34" s="67">
-        <v>43466</v>
-      </c>
-      <c r="K34" s="68">
-        <v>0</v>
-      </c>
-      <c r="L34" s="29">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="I34" s="30" t="str">
+        <v/>
+      </c>
+      <c r="J34" s="67" t="str">
+        <v/>
+      </c>
+      <c r="K34" s="68" t="str">
+        <v/>
+      </c>
+      <c r="L34" s="29" t="str">
+        <v/>
       </c>
       <c r="M34" s="29" t="str">
-        <v>[More...]</v>
+        <v/>
       </c>
       <c r="N34" s="2"/>
     </row>
@@ -9321,7 +9318,7 @@
   <dimension ref="B1:S52"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9333,7 +9330,8 @@
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="12" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="51.7109375" customWidth="1"/>
     <col min="13" max="13" width="4.85546875" customWidth="1"/>
     <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.85546875" customWidth="1"/>
@@ -9600,7 +9598,7 @@
         <v>203</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>204</v>
@@ -9847,41 +9845,41 @@
         <v>1</v>
       </c>
       <c r="E32" s="16" t="str">
-        <v>LUID_IL5ZILG9</v>
+        <v>LUID_WWGCPZBI</v>
       </c>
       <c r="F32" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G32" s="50">
-        <v>-5823529.4117647056</v>
+        <v>-5520220.5882352944</v>
       </c>
       <c r="H32" s="52">
-        <v>-5823529.4117647056</v>
+        <v>-5520220.5882352944</v>
       </c>
       <c r="I32" s="52">
-        <v>-7025708.1799999997</v>
+        <v>-5625523.4900000002</v>
       </c>
       <c r="J32" s="28" t="str">
         <v>USD</v>
       </c>
       <c r="K32" s="51">
-        <v>-7025708.1799999997</v>
+        <v>-5625523.4900000002</v>
       </c>
       <c r="L32" s="51" t="str">
         <v>USD</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="52" t="str">
-        <v>Active</v>
+        <v>Inactive</v>
       </c>
       <c r="O32" s="75" t="str">
-        <v>LUID_IL5ZILG9</v>
+        <v>LUID_WWGCPZBI</v>
       </c>
       <c r="P32" s="51" t="str">
-        <v>T 7.125% Feb 15, 2023</v>
+        <v>GOLDMAN 6.75% Oct 01, 2037</v>
       </c>
       <c r="Q32" s="51" t="str">
-        <v>BBG000DFN2D7</v>
+        <v>BBG0000H5309</v>
       </c>
       <c r="R32" s="51">
         <v>0</v>
@@ -9894,41 +9892,41 @@
         <v>2</v>
       </c>
       <c r="E33" s="15" t="str">
-        <v>LUID_ML2CVX99</v>
+        <v>LUID_3BQB9BX4</v>
       </c>
       <c r="F33" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G33" s="50">
-        <v>8735294.1176470593</v>
+        <v>-65000000</v>
       </c>
       <c r="H33" s="52">
-        <v>8735294.1176470593</v>
+        <v>-65000000</v>
       </c>
       <c r="I33" s="52">
-        <v>8805197.5800000001</v>
+        <v>-67524816.670000002</v>
       </c>
       <c r="J33" s="28" t="str">
         <v>USD</v>
       </c>
       <c r="K33" s="51">
-        <v>8805197.5800000001</v>
+        <v>-67524816.670000002</v>
       </c>
       <c r="L33" s="51" t="str">
         <v>USD</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="52" t="str">
-        <v>Active</v>
+        <v>Inactive</v>
       </c>
       <c r="O33" s="75" t="str">
-        <v>LUID_ML2CVX99</v>
+        <v>LUID_3BQB9BX4</v>
       </c>
       <c r="P33" s="51" t="str">
-        <v>T 2.25% Apr 30, 2021</v>
+        <v>APPLE 2.4% May 03, 2023</v>
       </c>
       <c r="Q33" s="51" t="str">
-        <v>BBG006C082Q1</v>
+        <v>BBG004HST063</v>
       </c>
       <c r="R33" s="51">
         <v>0</v>
@@ -9942,41 +9940,41 @@
         <v>3</v>
       </c>
       <c r="E34" s="15" t="str">
-        <v>LUID_W9BBY0LX</v>
+        <v>LUID_YQNTQZC6</v>
       </c>
       <c r="F34" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G34" s="50">
-        <v>45617647.058823526</v>
+        <v>113750000</v>
       </c>
       <c r="H34" s="52">
-        <v>45617647.058823526</v>
+        <v>113750000</v>
       </c>
       <c r="I34" s="52">
-        <v>45775402.840000004</v>
+        <v>113423766.64</v>
       </c>
       <c r="J34" s="28" t="str">
         <v>USD</v>
       </c>
       <c r="K34" s="51">
-        <v>45775402.840000004</v>
+        <v>113423766.64</v>
       </c>
       <c r="L34" s="51" t="str">
         <v>USD</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="52" t="str">
-        <v>Active</v>
+        <v>Inactive</v>
       </c>
       <c r="O34" s="75" t="str">
-        <v>LUID_W9BBY0LX</v>
+        <v>LUID_YQNTQZC6</v>
       </c>
       <c r="P34" s="51" t="str">
-        <v>T 2.375% Aug 15, 2024</v>
+        <v>VERIZON 4.862% Aug 21, 2046</v>
       </c>
       <c r="Q34" s="51" t="str">
-        <v>BBG006XYRVX1</v>
+        <v>BBG0083CP3G1</v>
       </c>
       <c r="R34" s="51">
         <v>0</v>
@@ -9990,41 +9988,41 @@
         <v>4</v>
       </c>
       <c r="E35" s="15" t="str">
-        <v>LUID_XKJ2TLPQ</v>
+        <v>LUID_9HM40Q88</v>
       </c>
       <c r="F35" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G35" s="50">
-        <v>52500000</v>
+        <v>-28389705.882352941</v>
       </c>
       <c r="H35" s="52">
-        <v>52500000</v>
+        <v>-28389705.882352941</v>
       </c>
       <c r="I35" s="52">
-        <v>52592273.829999998</v>
+        <v>-31362013.460000001</v>
       </c>
       <c r="J35" s="28" t="str">
         <v>USD</v>
       </c>
       <c r="K35" s="51">
-        <v>51089637.43</v>
+        <v>-31362013.460000001</v>
       </c>
       <c r="L35" s="51" t="str">
         <v>USD</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="52" t="str">
-        <v>Active</v>
+        <v>Inactive</v>
       </c>
       <c r="O35" s="75" t="str">
-        <v>LUID_XKJ2TLPQ</v>
+        <v>LUID_9HM40Q88</v>
       </c>
       <c r="P35" s="51" t="str">
-        <v>T 2.25% Nov 15, 2024</v>
+        <v>ANHEUSER-BUSCH 3.3% Feb 01, 2023</v>
       </c>
       <c r="Q35" s="51" t="str">
-        <v>BBG007GY2HH4</v>
+        <v>BBG00BW1LJT1</v>
       </c>
       <c r="R35" s="51">
         <v>0</v>
@@ -10038,41 +10036,41 @@
         <v>5</v>
       </c>
       <c r="E36" s="15" t="str">
-        <v>LUID_ZL27Q2SK</v>
+        <v>LUID_170RKPSC</v>
       </c>
       <c r="F36" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G36" s="50">
-        <v>21617647.05882353</v>
+        <v>-40147058.823529415</v>
       </c>
       <c r="H36" s="52">
-        <v>21617647.05882353</v>
+        <v>-40147058.823529415</v>
       </c>
       <c r="I36" s="52">
-        <v>21332310.539999999</v>
+        <v>-41063660.780000001</v>
       </c>
       <c r="J36" s="28" t="str">
         <v>USD</v>
       </c>
       <c r="K36" s="51">
-        <v>20722815.949999999</v>
+        <v>-39890413.329999998</v>
       </c>
       <c r="L36" s="51" t="str">
         <v>USD</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="52" t="str">
-        <v>Active</v>
+        <v>Inactive</v>
       </c>
       <c r="O36" s="75" t="str">
-        <v>LUID_ZL27Q2SK</v>
+        <v>LUID_170RKPSC</v>
       </c>
       <c r="P36" s="51" t="str">
-        <v>T 2% Feb 15, 2025</v>
+        <v>ANHEUSER-BUSCH 4.9% Feb 01, 2046</v>
       </c>
       <c r="Q36" s="51" t="str">
-        <v>BBG00827QXY6</v>
+        <v>BBG00BW1V2M4</v>
       </c>
       <c r="R36" s="51">
         <v>0</v>
@@ -10086,41 +10084,41 @@
         <v>6</v>
       </c>
       <c r="E37" s="15" t="str">
-        <v>LUID_4UWFBX63</v>
+        <v>LUID_8TVSW9VR</v>
       </c>
       <c r="F37" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G37" s="50">
-        <v>155000000</v>
+        <v>22080882.352941178</v>
       </c>
       <c r="H37" s="52">
-        <v>155000000</v>
+        <v>22080882.352941178</v>
       </c>
       <c r="I37" s="52">
-        <v>152782404.88999999</v>
+        <v>20694851.93</v>
       </c>
       <c r="J37" s="28" t="str">
         <v>USD</v>
       </c>
       <c r="K37" s="51">
-        <v>152782404.88999999</v>
+        <v>20694851.93</v>
       </c>
       <c r="L37" s="51" t="str">
         <v>USD</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="52" t="str">
-        <v>Active</v>
+        <v>Inactive</v>
       </c>
       <c r="O37" s="75" t="str">
-        <v>LUID_4UWFBX63</v>
+        <v>LUID_8TVSW9VR</v>
       </c>
       <c r="P37" s="51" t="str">
-        <v>T 1.75% Feb 28, 2022</v>
+        <v>GE 4.418% Nov 15, 2035</v>
       </c>
       <c r="Q37" s="51" t="str">
-        <v>BBG0084GPDG9</v>
+        <v>BBG00D1PBRL9</v>
       </c>
       <c r="R37" s="51">
         <v>0</v>
@@ -10134,41 +10132,41 @@
         <v>7</v>
       </c>
       <c r="E38" s="15" t="str">
-        <v>LUID_BC4CQTWU</v>
+        <v>LUID_1A0OVPSZ</v>
       </c>
       <c r="F38" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G38" s="50">
-        <v>58235294.117647059</v>
+        <v>70257352.941176474</v>
       </c>
       <c r="H38" s="52">
-        <v>58235294.117647059</v>
+        <v>70257352.941176474</v>
       </c>
       <c r="I38" s="52">
-        <v>56940383.289999999</v>
+        <v>71394975.620000005</v>
       </c>
       <c r="J38" s="28" t="str">
         <v>USD</v>
       </c>
       <c r="K38" s="51">
-        <v>56940383.289999999</v>
+        <v>69355119.170000002</v>
       </c>
       <c r="L38" s="51" t="str">
         <v>USD</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="52" t="str">
-        <v>Active</v>
+        <v>Inactive</v>
       </c>
       <c r="O38" s="75" t="str">
-        <v>LUID_BC4CQTWU</v>
+        <v>LUID_1A0OVPSZ</v>
       </c>
       <c r="P38" s="51" t="str">
-        <v>T 2% Aug 15, 2025</v>
+        <v>CVS 3.7% Mar 09, 2023</v>
       </c>
       <c r="Q38" s="51" t="str">
-        <v>BBG009R4CLR3</v>
+        <v>BBG00K85TYW4</v>
       </c>
       <c r="R38" s="51">
         <v>0</v>
@@ -10182,41 +10180,41 @@
         <v>8</v>
       </c>
       <c r="E39" s="15" t="str">
-        <v>LUID_MO46KHZY</v>
+        <v>LUID_I0H0D3XV</v>
       </c>
       <c r="F39" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G39" s="50">
-        <v>75000000</v>
+        <v>12617647.05882353</v>
       </c>
       <c r="H39" s="52">
-        <v>75000000</v>
+        <v>12617647.05882353</v>
       </c>
       <c r="I39" s="52">
-        <v>74034476.900000006</v>
+        <v>12571522.550000001</v>
       </c>
       <c r="J39" s="28" t="str">
         <v>USD</v>
       </c>
       <c r="K39" s="51">
-        <v>74034476.900000006</v>
+        <v>12571522.550000001</v>
       </c>
       <c r="L39" s="51" t="str">
         <v>USD</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="52" t="str">
-        <v>Active</v>
+        <v>Inactive</v>
       </c>
       <c r="O39" s="75" t="str">
-        <v>LUID_MO46KHZY</v>
+        <v>LUID_I0H0D3XV</v>
       </c>
       <c r="P39" s="51" t="str">
-        <v>T 1.875% Aug 31, 2022</v>
+        <v>CVS 4.3% Mar 25, 2028</v>
       </c>
       <c r="Q39" s="51" t="str">
-        <v>BBG009TCBQV8</v>
+        <v>BBG00K85WG22</v>
       </c>
       <c r="R39" s="51">
         <v>0</v>
@@ -10230,41 +10228,41 @@
         <v>9</v>
       </c>
       <c r="E40" s="15" t="str">
-        <v>LUID_CJKHJ5T4</v>
+        <v>LUID_WWDKQRD8</v>
       </c>
       <c r="F40" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G40" s="50">
-        <v>-14558823.529411765</v>
+        <v>8363970.5882352944</v>
       </c>
       <c r="H40" s="52">
-        <v>-14558823.529411765</v>
+        <v>8363970.5882352944</v>
       </c>
       <c r="I40" s="52">
-        <v>-14550729.710000001</v>
+        <v>10410763.65</v>
       </c>
       <c r="J40" s="28" t="str">
         <v>USD</v>
       </c>
       <c r="K40" s="51">
-        <v>-14550729.710000001</v>
+        <v>10113313.26</v>
       </c>
       <c r="L40" s="51" t="str">
         <v>USD</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="52" t="str">
-        <v>Active</v>
+        <v>Inactive</v>
       </c>
       <c r="O40" s="75" t="str">
-        <v>LUID_CJKHJ5T4</v>
+        <v>LUID_WWDKQRD8</v>
       </c>
       <c r="P40" s="51" t="str">
-        <v>T 2.875% Nov 15, 2046</v>
+        <v>CVS 5.05% Mar 25, 2048</v>
       </c>
       <c r="Q40" s="51" t="str">
-        <v>BBG00F5RQCH8</v>
+        <v>BBG00K85WH93</v>
       </c>
       <c r="R40" s="51">
         <v>0</v>
@@ -10278,41 +10276,41 @@
         <v>10</v>
       </c>
       <c r="E41" s="15" t="str">
-        <v>LUID_CKHSLEUF</v>
+        <v>LUID_I3S0X4PL</v>
       </c>
       <c r="F41" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G41" s="50">
-        <v>76676470.588235289</v>
+        <v>15772058.823529411</v>
       </c>
       <c r="H41" s="52">
-        <v>76676470.588235289</v>
+        <v>15772058.823529411</v>
       </c>
       <c r="I41" s="52">
-        <v>75677902.540000007</v>
+        <v>16894209.260000002</v>
       </c>
       <c r="J41" s="28" t="str">
         <v>USD</v>
       </c>
       <c r="K41" s="51">
-        <v>75677902.540000007</v>
+        <v>16894209.260000002</v>
       </c>
       <c r="L41" s="51" t="str">
         <v>USD</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="52" t="str">
-        <v>Active</v>
+        <v>Inactive</v>
       </c>
       <c r="O41" s="75" t="str">
-        <v>LUID_CKHSLEUF</v>
+        <v>LUID_I3S0X4PL</v>
       </c>
       <c r="P41" s="51" t="str">
-        <v>T 2.25% Feb 15, 2027</v>
+        <v>VERIZON 4.329% Sep 21, 2028</v>
       </c>
       <c r="Q41" s="51" t="str">
-        <v>BBG00FX263Y5</v>
+        <v>BBG00M1BQWX0</v>
       </c>
       <c r="R41" s="51">
         <v>0</v>
@@ -10331,13 +10329,13 @@
         <v>B</v>
       </c>
       <c r="G42" s="78">
-        <v>2906731.0895352615</v>
+        <v>-764876.14887050667</v>
       </c>
       <c r="H42" s="52">
-        <v>2906731.0895352615</v>
+        <v>-764876.14887050667</v>
       </c>
       <c r="I42" s="52">
-        <v>2906731.09</v>
+        <v>-764876.15</v>
       </c>
       <c r="J42" s="75" t="str">
         <v>USD</v>
@@ -10808,7 +10806,7 @@
   <drawing r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CEADBFD3-A8CF-4B82-A053-3B498C79531D}">
           <x14:formula1>
             <xm:f>'View portfolios'!$E$67:$E$70</xm:f>
@@ -10829,7 +10827,7 @@
   <dimension ref="B1:P84"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11124,7 +11122,7 @@
         <v>203</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>204</v>
@@ -11271,13 +11269,13 @@
       <c r="D28" s="2"/>
       <c r="E28" s="66" t="str">
         <f t="array" ref="E28:G39">_xll.flAggregatePortfolio(F17,F19,I28:J34,J35)</f>
-        <v>PVSum</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="F28" s="66" t="str">
-        <v>PVProportion</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="G28" s="64" t="str">
-        <v>Name</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="64" t="s">
@@ -11295,14 +11293,14 @@
       <c r="B29" s="12"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="69">
-        <v>1698975386.2224</v>
-      </c>
-      <c r="F29" s="70">
-        <v>1.0179622386170473E-2</v>
+      <c r="E29" s="69" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
+      </c>
+      <c r="F29" s="70" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="G29" s="71" t="str">
-        <v>Apple</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="29" t="s">
@@ -11318,14 +11316,14 @@
       <c r="B30" s="12"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="69">
-        <v>1196453005.2941177</v>
-      </c>
-      <c r="F30" s="70">
-        <v>7.1686970249600903E-3</v>
+      <c r="E30" s="69" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
+      </c>
+      <c r="F30" s="70" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="G30" s="71" t="str">
-        <v>Volkswagen</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="29" t="s">
@@ -11341,14 +11339,14 @@
       <c r="B31" s="12"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="69">
-        <v>71434758458.823532</v>
-      </c>
-      <c r="F31" s="70">
-        <v>0.42801024208771621</v>
+      <c r="E31" s="69" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
+      </c>
+      <c r="F31" s="70" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="G31" s="71" t="str">
-        <v>Toyota Motor</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="29" t="s">
@@ -11367,14 +11365,14 @@
       <c r="B32" s="12"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="69">
-        <v>-856756066.24705887</v>
-      </c>
-      <c r="F32" s="70">
-        <v>-5.1333605549446449E-3</v>
+      <c r="E32" s="69" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
+      </c>
+      <c r="F32" s="70" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="G32" s="71" t="str">
-        <v>Walt Disney</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="29" t="s">
@@ -11394,14 +11392,14 @@
       <c r="B33" s="12"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="69">
-        <v>1079778818.3294117</v>
-      </c>
-      <c r="F33" s="70">
-        <v>6.4696291190059268E-3</v>
+      <c r="E33" s="69" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
+      </c>
+      <c r="F33" s="70" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="G33" s="71" t="str">
-        <v>Microsoft</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="29" t="s">
@@ -11421,14 +11419,14 @@
       <c r="B34" s="12"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="69">
-        <v>312585764.70588237</v>
-      </c>
-      <c r="F34" s="70">
-        <v>1.8728964962072051E-3</v>
+      <c r="E34" s="69" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
+      </c>
+      <c r="F34" s="70" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="G34" s="71" t="str">
-        <v>HSBC Holdings</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="29" t="s">
@@ -11446,14 +11444,14 @@
       <c r="B35" s="12"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="69">
-        <v>1598373764.7058823</v>
-      </c>
-      <c r="F35" s="70">
-        <v>9.5768552555932571E-3</v>
+      <c r="E35" s="69" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
+      </c>
+      <c r="F35" s="70" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="G35" s="71" t="str">
-        <v>BP</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="29" t="s">
@@ -11473,14 +11471,14 @@
       <c r="B36" s="12"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="69">
-        <v>85448500000</v>
-      </c>
-      <c r="F36" s="70">
-        <v>0.51197531789952855</v>
+      <c r="E36" s="69" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
+      </c>
+      <c r="F36" s="70" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="G36" s="71" t="str">
-        <v>Softbank</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="29"/>
@@ -11496,14 +11494,14 @@
       <c r="B37" s="12"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="69">
-        <v>1827989421.1764705</v>
-      </c>
-      <c r="F37" s="70">
-        <v>1.0952626026481433E-2</v>
+      <c r="E37" s="69" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
+      </c>
+      <c r="F37" s="70" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="G37" s="71" t="str">
-        <v>JPMorgan Chase</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="29"/>
@@ -11519,14 +11517,14 @@
       <c r="B38" s="12"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="69">
-        <v>1147378941.1764705</v>
-      </c>
-      <c r="F38" s="70">
-        <v>6.874663664781103E-3</v>
+      <c r="E38" s="69" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
+      </c>
+      <c r="F38" s="70" t="str">
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="G38" s="71" t="str">
-        <v>Anheuser-Busch InBev</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="29"/>
@@ -11543,13 +11541,13 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="69" t="str">
-        <v>[More...]</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="F39" s="70" t="str">
-        <v>[More...]</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="G39" s="71" t="str">
-        <v>[More...]</v>
+        <v>#ERROR: Failed to resolve market data item [Provider: Client, PriceSource: , InstrumentId: BBG0000H5309, InstrumentIdType: Figi, QuoteType: Price, Field: mid] with supplier [Client] for effective date [01/01/2020 00:00:00], quoteInterval [None] and with predicate [AsAt=Latest]. This occurred because failed to find analytics quote in store.</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="29"/>
@@ -11900,13 +11898,13 @@
       <c r="D61" s="2"/>
       <c r="E61" s="66" t="str">
         <f t="array" ref="E61:G84">_xll.flAggregatePortfolioGroup(F50,F52,I61:J67,J35)</f>
-        <v>PVSum</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="F61" s="66" t="str">
-        <v>PVProportion</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G61" s="64" t="str">
-        <v>Name</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="64" t="s">
@@ -11924,14 +11922,14 @@
       <c r="B62" s="12"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="69">
-        <v>-692605516.54411769</v>
-      </c>
-      <c r="F62" s="70">
-        <v>-1.1888159283080095E-2</v>
+      <c r="E62" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F62" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G62" s="71" t="str">
-        <v>GOLDMAN 6.75% Oct 01, 2037</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="29" t="s">
@@ -11947,14 +11945,14 @@
       <c r="B63" s="12"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="69">
-        <v>-6441890000</v>
-      </c>
-      <c r="F63" s="70">
-        <v>-0.11057118745776362</v>
+      <c r="E63" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F63" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G63" s="71" t="str">
-        <v>APPLE 2.4% May 03, 2023</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="29" t="s">
@@ -11970,14 +11968,14 @@
       <c r="B64" s="12"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="69">
-        <v>12514547500</v>
-      </c>
-      <c r="F64" s="70">
-        <v>0.21480471997683709</v>
+      <c r="E64" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F64" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G64" s="71" t="str">
-        <v>VERIZON 4.862% Aug 21, 2046</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="29" t="s">
@@ -11996,14 +11994,14 @@
       <c r="B65" s="12"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="69">
-        <v>-2879227191.1764708</v>
-      </c>
-      <c r="F65" s="70">
-        <v>-4.9420212001301443E-2</v>
+      <c r="E65" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F65" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G65" s="71" t="str">
-        <v>ANHEUSER-BUSCH 3.3% Feb 01, 2023</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="29" t="s">
@@ -12021,14 +12019,14 @@
       <c r="B66" s="12"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="69">
-        <v>-4112022352.9411764</v>
-      </c>
-      <c r="F66" s="70">
-        <v>-7.0580403331564665E-2</v>
+      <c r="E66" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F66" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G66" s="71" t="str">
-        <v>ANHEUSER-BUSCH 4.9% Feb 01, 2046</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="29" t="s">
@@ -12046,14 +12044,14 @@
       <c r="B67" s="12"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="69">
-        <v>2096646022.0588236</v>
-      </c>
-      <c r="F67" s="70">
-        <v>3.5987674477155084E-2</v>
+      <c r="E67" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F67" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G67" s="71" t="str">
-        <v>GE 4.418% Nov 15, 2035</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="29" t="s">
@@ -12069,14 +12067,14 @@
       <c r="B68" s="12"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="69">
-        <v>7149599007.3529415</v>
-      </c>
-      <c r="F68" s="70">
-        <v>0.12271858912366755</v>
+      <c r="E68" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F68" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G68" s="71" t="str">
-        <v>CVS 3.7% Mar 09, 2023</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="29" t="s">
@@ -12094,14 +12092,14 @@
       <c r="B69" s="12"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="69">
-        <v>1288627676.4705882</v>
-      </c>
-      <c r="F69" s="70">
-        <v>2.211852303878082E-2</v>
+      <c r="E69" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F69" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G69" s="71" t="str">
-        <v>CVS 4.3% Mar 25, 2028</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="29"/>
@@ -12115,14 +12113,14 @@
       <c r="B70" s="12"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="69">
-        <v>835507600.7352941</v>
-      </c>
-      <c r="F70" s="70">
-        <v>1.4340988055258399E-2</v>
+      <c r="E70" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F70" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G70" s="71" t="str">
-        <v>CVS 5.05% Mar 25, 2048</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="29"/>
@@ -12136,14 +12134,14 @@
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="69">
-        <v>1693130514.7058823</v>
-      </c>
-      <c r="F71" s="70">
-        <v>2.9061572229889664E-2</v>
+      <c r="E71" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F71" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G71" s="71" t="str">
-        <v>VERIZON 4.329% Sep 21, 2028</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="29"/>
@@ -12157,14 +12155,14 @@
       <c r="B72" s="12"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="69">
-        <v>2141854.9406647547</v>
-      </c>
-      <c r="F72" s="70">
-        <v>3.6763658515059986E-5</v>
+      <c r="E72" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F72" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G72" s="71" t="str">
-        <v>USD</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="29"/>
@@ -12178,14 +12176,14 @@
       <c r="B73" s="12"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="69">
-        <v>-684446691.17647064</v>
-      </c>
-      <c r="F73" s="70">
-        <v>-1.1748117927334925E-2</v>
+      <c r="E73" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F73" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G73" s="71" t="str">
-        <v>T 7.125% Feb 15, 2023</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="29"/>
@@ -12199,14 +12197,14 @@
       <c r="B74" s="12"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="69">
-        <v>873802389.70588231</v>
-      </c>
-      <c r="F74" s="70">
-        <v>1.4998295194921201E-2</v>
+      <c r="E74" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F74" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G74" s="71" t="str">
-        <v>T 2.25% Apr 30, 2021</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="29"/>
@@ -12220,14 +12218,14 @@
       <c r="B75" s="12"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="69">
-        <v>4597403492.6470585</v>
-      </c>
-      <c r="F75" s="70">
-        <v>7.8911680175298732E-2</v>
+      <c r="E75" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F75" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G75" s="71" t="str">
-        <v>T 2.375% Aug 15, 2024</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="29"/>
@@ -12241,14 +12239,14 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="69">
-        <v>5254921875</v>
-      </c>
-      <c r="F76" s="70">
-        <v>9.0197589793760483E-2</v>
+      <c r="E76" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F76" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G76" s="71" t="str">
-        <v>T 2.25% Nov 15, 2024</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -12262,14 +12260,14 @@
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="69">
-        <v>2134067095.5882354</v>
-      </c>
-      <c r="F77" s="70">
-        <v>3.6629984814042449E-2</v>
+      <c r="E77" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F77" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G77" s="71" t="str">
-        <v>T 2% Feb 15, 2025</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -12283,14 +12281,14 @@
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="69">
-        <v>15311093750</v>
-      </c>
-      <c r="F78" s="70">
-        <v>0.26280576309353976</v>
+      <c r="E78" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F78" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G78" s="71" t="str">
-        <v>T 1.75% Feb 28, 2022</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -12304,14 +12302,14 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="69">
-        <v>5734356617.6470585</v>
-      </c>
-      <c r="F79" s="70">
-        <v>9.8426800289902541E-2</v>
+      <c r="E79" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F79" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G79" s="71" t="str">
-        <v>T 2% Aug 15, 2025</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -12325,14 +12323,14 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="69">
-        <v>7429687500</v>
-      </c>
-      <c r="F80" s="70">
-        <v>0.12752614051390246</v>
+      <c r="E80" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F80" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G80" s="71" t="str">
-        <v>T 1.875% Aug 31, 2022</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -12346,14 +12344,14 @@
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="69">
-        <v>-1474535845.5882354</v>
-      </c>
-      <c r="F81" s="70">
-        <v>-2.5309525526783096E-2</v>
+      <c r="E81" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F81" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G81" s="71" t="str">
-        <v>T 2.875% Nov 15, 2046</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -12367,14 +12365,14 @@
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="69">
-        <v>7629308823.5294113</v>
-      </c>
-      <c r="F82" s="70">
-        <v>0.13095252109235653</v>
+      <c r="E82" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
+      </c>
+      <c r="F82" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G82" s="71" t="str">
-        <v>T 2.25% Feb 15, 2027</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -12389,13 +12387,13 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="69" t="str">
-        <v/>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="F83" s="70" t="str">
-        <v/>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G83" s="71" t="str">
-        <v/>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -12410,13 +12408,13 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="str">
-        <v/>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="F84" s="2" t="str">
-        <v/>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="G84" s="2" t="str">
-        <v/>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-10T16:38:51.9559760+00:00'</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -12431,7 +12429,7 @@
     <mergeCell ref="J35:M42"/>
     <mergeCell ref="J68:M75"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="7">
+  <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O25:P25" xr:uid="{8CFF6141-B29D-4FB9-B082-3C7FFE7B5747}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Recipe scope" sqref="O26" xr:uid="{FAF4CFB0-6DFD-4ACA-BEA1-FD1CCCBF199D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Recipe key" sqref="O27" xr:uid="{0E47C501-EB94-4B2F-ABA5-85864BB9ADFB}"/>
@@ -12450,7 +12448,7 @@
   <drawing r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C8D30F9-F073-491D-B948-1710395F0972}">
           <x14:formula1>
             <xm:f>'View portfolios'!$E$67:$E$70</xm:f>
@@ -12470,7 +12468,9 @@
   </sheetPr>
   <dimension ref="B1:AJ110"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12862,7 +12862,7 @@
         <v>203</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>204</v>
@@ -13271,19 +13271,19 @@
         <v>Original Transaction Date</v>
       </c>
       <c r="Z33" s="10" t="str">
+        <v>SourcePortfolioScope</v>
+      </c>
+      <c r="AA33" s="10" t="str">
+        <v>Exchange rate from the transaction currency to the portfolio currency.</v>
+      </c>
+      <c r="AB33" s="10" t="str">
+        <v>Net holding as a result of the transaction</v>
+      </c>
+      <c r="AC33" s="10" t="str">
         <v>SourcePortfolioId</v>
       </c>
-      <c r="AA33" s="10" t="str">
-        <v>SourcePortfolioScope</v>
-      </c>
-      <c r="AB33" s="10" t="str">
-        <v>Exchange rate from the transaction currency to the portfolio currency.</v>
-      </c>
-      <c r="AC33" s="10" t="str">
+      <c r="AD33" s="10" t="str">
         <v>Original Settlement Date</v>
-      </c>
-      <c r="AD33" s="10" t="str">
-        <v>Net holding as a result of the transaction</v>
       </c>
       <c r="AE33" s="10" t="str">
         <v>CostPortfolioCcy Amount</v>
@@ -13315,16 +13315,16 @@
         <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G34" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>AdjustmentDecrease</v>
       </c>
       <c r="H34" s="16" t="str">
-        <v>Increase Adjustment</v>
+        <v>Decrease Adjustment</v>
       </c>
       <c r="I34" s="31" t="str">
-        <v>LusidInstrumentId:LUID_AQ7JLG30</v>
+        <v>LusidInstrumentId:LUID_WWGCPZBI</v>
       </c>
       <c r="J34" s="31" t="str">
-        <v>LUID_AQ7JLG30</v>
+        <v>LUID_WWGCPZBI</v>
       </c>
       <c r="K34" s="81">
         <v>43466</v>
@@ -13333,19 +13333,19 @@
         <v>43466</v>
       </c>
       <c r="M34" s="78">
-        <v>80500</v>
+        <v>5687500</v>
       </c>
       <c r="N34" s="27">
-        <v>231437.5</v>
+        <v>5795993.9000000004</v>
       </c>
       <c r="O34" s="59">
-        <v>2.875</v>
+        <v>101.495085</v>
       </c>
       <c r="P34" s="78">
-        <v>231437.5</v>
+        <v>-5795993.8968749996</v>
       </c>
       <c r="Q34" s="22" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R34" s="16">
         <v>1</v>
@@ -13354,7 +13354,7 @@
         <v>1</v>
       </c>
       <c r="T34" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U34" s="80">
         <v>0</v>
@@ -13363,7 +13363,7 @@
         <v/>
       </c>
       <c r="W34" s="82">
-        <v>43812.405921053243</v>
+        <v>43727.503217835649</v>
       </c>
       <c r="X34" s="82">
         <v>0</v>
@@ -13375,16 +13375,16 @@
         <v>0</v>
       </c>
       <c r="AA34" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="83">
+        <v>-5687500</v>
+      </c>
+      <c r="AC34" s="83">
         <v>0</v>
       </c>
-      <c r="AB34" s="83">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="83" t="str">
+      <c r="AD34" s="78" t="str">
         <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD34" s="78">
-        <v>80500</v>
       </c>
       <c r="AE34" s="78">
         <v>0</v>
@@ -13416,16 +13416,16 @@
         <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G35" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>AdjustmentDecrease</v>
       </c>
       <c r="H35" s="16" t="str">
-        <v>Increase Adjustment</v>
+        <v>Decrease Adjustment</v>
       </c>
       <c r="I35" s="31" t="str">
-        <v>LusidInstrumentId:LUID_2LW50NUJ</v>
+        <v>LusidInstrumentId:LUID_3BQB9BX4</v>
       </c>
       <c r="J35" s="31" t="str">
-        <v>LUID_2LW50NUJ</v>
+        <v>LUID_3BQB9BX4</v>
       </c>
       <c r="K35" s="81">
         <v>43466</v>
@@ -13434,19 +13434,19 @@
         <v>43466</v>
       </c>
       <c r="M35" s="78">
-        <v>65440</v>
+        <v>65000000</v>
       </c>
       <c r="N35" s="27">
-        <v>174070.39999999999</v>
+        <v>67524816.670000002</v>
       </c>
       <c r="O35" s="59">
-        <v>2.66</v>
+        <v>102.751</v>
       </c>
       <c r="P35" s="78">
-        <v>174070.40000000002</v>
+        <v>-67524816.666666672</v>
       </c>
       <c r="Q35" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R35" s="16">
         <v>1</v>
@@ -13455,7 +13455,7 @@
         <v>1</v>
       </c>
       <c r="T35" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U35" s="80">
         <v>0</v>
@@ -13464,7 +13464,7 @@
         <v/>
       </c>
       <c r="W35" s="82">
-        <v>43812.405921053243</v>
+        <v>43727.503217835649</v>
       </c>
       <c r="X35" s="82">
         <v>0</v>
@@ -13476,16 +13476,16 @@
         <v>0</v>
       </c>
       <c r="AA35" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="83">
+        <v>-65000000</v>
+      </c>
+      <c r="AC35" s="83">
         <v>0</v>
       </c>
-      <c r="AB35" s="83">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="83" t="str">
+      <c r="AD35" s="78" t="str">
         <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD35" s="78">
-        <v>65440</v>
       </c>
       <c r="AE35" s="78">
         <v>0</v>
@@ -13523,10 +13523,10 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I36" s="31" t="str">
-        <v>LusidInstrumentId:LUID_GB6QXR8W</v>
+        <v>LusidInstrumentId:LUID_YQNTQZC6</v>
       </c>
       <c r="J36" s="31" t="str">
-        <v>LUID_GB6QXR8W</v>
+        <v>LUID_YQNTQZC6</v>
       </c>
       <c r="K36" s="81">
         <v>43466</v>
@@ -13535,19 +13535,19 @@
         <v>43466</v>
       </c>
       <c r="M36" s="78">
-        <v>50000</v>
+        <v>113750000</v>
       </c>
       <c r="N36" s="27">
-        <v>94825</v>
+        <v>113423766.64</v>
       </c>
       <c r="O36" s="59">
-        <v>1.8965000000000001</v>
+        <v>98.875856999999996</v>
       </c>
       <c r="P36" s="78">
-        <v>94825</v>
+        <v>113423766.64305556</v>
       </c>
       <c r="Q36" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R36" s="16">
         <v>1</v>
@@ -13556,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="T36" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U36" s="80">
         <v>0</v>
@@ -13565,7 +13565,7 @@
         <v/>
       </c>
       <c r="W36" s="82">
-        <v>43812.405921053243</v>
+        <v>43727.503217835649</v>
       </c>
       <c r="X36" s="82">
         <v>0</v>
@@ -13577,16 +13577,16 @@
         <v>0</v>
       </c>
       <c r="AA36" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="83">
+        <v>113750000</v>
+      </c>
+      <c r="AC36" s="83">
         <v>0</v>
       </c>
-      <c r="AB36" s="83">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="83" t="str">
+      <c r="AD36" s="78" t="str">
         <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD36" s="78">
-        <v>50000</v>
       </c>
       <c r="AE36" s="78">
         <v>0</v>
@@ -13618,16 +13618,16 @@
         <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G37" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>AdjustmentDecrease</v>
       </c>
       <c r="H37" s="16" t="str">
-        <v>Increase Adjustment</v>
+        <v>Decrease Adjustment</v>
       </c>
       <c r="I37" s="31" t="str">
-        <v>LusidInstrumentId:LUID_XZ01FKZX</v>
+        <v>LusidInstrumentId:LUID_9HM40Q88</v>
       </c>
       <c r="J37" s="31" t="str">
-        <v>LUID_XZ01FKZX</v>
+        <v>LUID_9HM40Q88</v>
       </c>
       <c r="K37" s="81">
         <v>43466</v>
@@ -13636,19 +13636,19 @@
         <v>43466</v>
       </c>
       <c r="M37" s="78">
-        <v>8000</v>
+        <v>29250000</v>
       </c>
       <c r="N37" s="27">
-        <v>386800</v>
+        <v>32312377.5</v>
       </c>
       <c r="O37" s="59">
-        <v>48.35</v>
+        <v>109.718</v>
       </c>
       <c r="P37" s="78">
-        <v>386800</v>
+        <v>-32312377.5</v>
       </c>
       <c r="Q37" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R37" s="16">
         <v>1</v>
@@ -13657,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="T37" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U37" s="80">
         <v>0</v>
@@ -13666,7 +13666,7 @@
         <v/>
       </c>
       <c r="W37" s="82">
-        <v>43812.405921053243</v>
+        <v>43727.503217835649</v>
       </c>
       <c r="X37" s="82">
         <v>0</v>
@@ -13678,16 +13678,16 @@
         <v>0</v>
       </c>
       <c r="AA37" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="83">
+        <v>-29250000</v>
+      </c>
+      <c r="AC37" s="83">
         <v>0</v>
       </c>
-      <c r="AB37" s="83">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="83" t="str">
+      <c r="AD37" s="78" t="str">
         <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD37" s="78">
-        <v>8000</v>
       </c>
       <c r="AE37" s="78">
         <v>0</v>
@@ -13719,16 +13719,16 @@
         <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G38" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>AdjustmentDecrease</v>
       </c>
       <c r="H38" s="16" t="str">
-        <v>Increase Adjustment</v>
+        <v>Decrease Adjustment</v>
       </c>
       <c r="I38" s="31" t="str">
-        <v>LusidInstrumentId:LUID_V9OX6CRE</v>
+        <v>LusidInstrumentId:LUID_170RKPSC</v>
       </c>
       <c r="J38" s="31" t="str">
-        <v>LUID_V9OX6CRE</v>
+        <v>LUID_170RKPSC</v>
       </c>
       <c r="K38" s="81">
         <v>43466</v>
@@ -13737,19 +13737,19 @@
         <v>43466</v>
       </c>
       <c r="M38" s="78">
-        <v>20500</v>
+        <v>39000000</v>
       </c>
       <c r="N38" s="27">
-        <v>134459.5</v>
+        <v>39890413.329999998</v>
       </c>
       <c r="O38" s="59">
-        <v>6.5590000000000002</v>
+        <v>101.167</v>
       </c>
       <c r="P38" s="78">
-        <v>134459.5</v>
+        <v>-39890413.333333336</v>
       </c>
       <c r="Q38" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R38" s="16">
         <v>1</v>
@@ -13758,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="T38" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U38" s="80">
         <v>0</v>
@@ -13767,7 +13767,7 @@
         <v/>
       </c>
       <c r="W38" s="82">
-        <v>43812.405921053243</v>
+        <v>43727.503217835649</v>
       </c>
       <c r="X38" s="82">
         <v>0</v>
@@ -13779,16 +13779,16 @@
         <v>0</v>
       </c>
       <c r="AA38" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="83">
+        <v>-39000000</v>
+      </c>
+      <c r="AC38" s="83">
         <v>0</v>
       </c>
-      <c r="AB38" s="83">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="83" t="str">
+      <c r="AD38" s="78" t="str">
         <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD38" s="78">
-        <v>20500</v>
       </c>
       <c r="AE38" s="78">
         <v>0</v>
@@ -13826,10 +13826,10 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I39" s="31" t="str">
-        <v>LusidInstrumentId:LUID_AHX7SPIA</v>
+        <v>LusidInstrumentId:LUID_8TVSW9VR</v>
       </c>
       <c r="J39" s="31" t="str">
-        <v>LUID_AHX7SPIA</v>
+        <v>LUID_8TVSW9VR</v>
       </c>
       <c r="K39" s="81">
         <v>43466</v>
@@ -13838,19 +13838,19 @@
         <v>43466</v>
       </c>
       <c r="M39" s="78">
-        <v>12500</v>
+        <v>22750000</v>
       </c>
       <c r="N39" s="27">
-        <v>71237.5</v>
+        <v>21321968.649999999</v>
       </c>
       <c r="O39" s="59">
-        <v>5.6989999999999998</v>
+        <v>91.783928000000003</v>
       </c>
       <c r="P39" s="78">
-        <v>71237.5</v>
+        <v>21321968.647777777</v>
       </c>
       <c r="Q39" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R39" s="16">
         <v>1</v>
@@ -13859,7 +13859,7 @@
         <v>1</v>
       </c>
       <c r="T39" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U39" s="80">
         <v>0</v>
@@ -13868,7 +13868,7 @@
         <v/>
       </c>
       <c r="W39" s="82">
-        <v>43812.405921053243</v>
+        <v>43727.503217835649</v>
       </c>
       <c r="X39" s="82">
         <v>0</v>
@@ -13880,16 +13880,16 @@
         <v>0</v>
       </c>
       <c r="AA39" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="83">
+        <v>22750000</v>
+      </c>
+      <c r="AC39" s="83">
         <v>0</v>
       </c>
-      <c r="AB39" s="83">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="83" t="str">
+      <c r="AD39" s="78" t="str">
         <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD39" s="78">
-        <v>12500</v>
       </c>
       <c r="AE39" s="78">
         <v>0</v>
@@ -13927,10 +13927,10 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I40" s="31" t="str">
-        <v>LusidInstrumentId:LUID_Y6EBBGXM</v>
+        <v>LusidInstrumentId:LUID_1A0OVPSZ</v>
       </c>
       <c r="J40" s="31" t="str">
-        <v>LUID_Y6EBBGXM</v>
+        <v>LUID_1A0OVPSZ</v>
       </c>
       <c r="K40" s="81">
         <v>43466</v>
@@ -13939,19 +13939,19 @@
         <v>43466</v>
       </c>
       <c r="M40" s="78">
-        <v>95440</v>
+        <v>68250000</v>
       </c>
       <c r="N40" s="27">
-        <v>5720673.5999999996</v>
+        <v>69355119.170000002</v>
       </c>
       <c r="O40" s="59">
-        <v>59.94</v>
+        <v>101.167</v>
       </c>
       <c r="P40" s="78">
-        <v>5720673.5999999996</v>
+        <v>69355119.166666672</v>
       </c>
       <c r="Q40" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R40" s="16">
         <v>1</v>
@@ -13960,7 +13960,7 @@
         <v>1</v>
       </c>
       <c r="T40" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U40" s="80">
         <v>0</v>
@@ -13969,7 +13969,7 @@
         <v/>
       </c>
       <c r="W40" s="82">
-        <v>43812.405921053243</v>
+        <v>43727.503217835649</v>
       </c>
       <c r="X40" s="82">
         <v>0</v>
@@ -13981,16 +13981,16 @@
         <v>0</v>
       </c>
       <c r="AA40" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="83">
+        <v>68250000</v>
+      </c>
+      <c r="AC40" s="83">
         <v>0</v>
       </c>
-      <c r="AB40" s="83">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="83" t="str">
+      <c r="AD40" s="78" t="str">
         <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD40" s="78">
-        <v>95440</v>
       </c>
       <c r="AE40" s="78">
         <v>0</v>
@@ -14028,10 +14028,10 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I41" s="31" t="str">
-        <v>LusidInstrumentId:LUID_V6OJOXJ1</v>
+        <v>LusidInstrumentId:LUID_I0H0D3XV</v>
       </c>
       <c r="J41" s="31" t="str">
-        <v>LUID_V6OJOXJ1</v>
+        <v>LUID_I0H0D3XV</v>
       </c>
       <c r="K41" s="81">
         <v>43466</v>
@@ -14040,19 +14040,19 @@
         <v>43466</v>
       </c>
       <c r="M41" s="78">
-        <v>55050</v>
+        <v>13000000</v>
       </c>
       <c r="N41" s="27">
-        <v>2663869.5</v>
+        <v>12952477.779999999</v>
       </c>
       <c r="O41" s="59">
-        <v>48.39</v>
+        <v>99.3</v>
       </c>
       <c r="P41" s="78">
-        <v>2663869.5</v>
+        <v>12952477.777777778</v>
       </c>
       <c r="Q41" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R41" s="16">
         <v>1</v>
@@ -14061,7 +14061,7 @@
         <v>1</v>
       </c>
       <c r="T41" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U41" s="80">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v/>
       </c>
       <c r="W41" s="82">
-        <v>43812.405921053243</v>
+        <v>43727.503217835649</v>
       </c>
       <c r="X41" s="82">
         <v>0</v>
@@ -14082,16 +14082,16 @@
         <v>0</v>
       </c>
       <c r="AA41" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="83">
+        <v>13000000</v>
+      </c>
+      <c r="AC41" s="83">
         <v>0</v>
       </c>
-      <c r="AB41" s="83">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="83" t="str">
+      <c r="AD41" s="78" t="str">
         <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD41" s="78">
-        <v>55050</v>
       </c>
       <c r="AE41" s="78">
         <v>0</v>
@@ -14129,10 +14129,10 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I42" s="31" t="str">
-        <v>LusidInstrumentId:LUID_RLKHXG2G</v>
+        <v>LusidInstrumentId:LUID_WWDKQRD8</v>
       </c>
       <c r="J42" s="31" t="str">
-        <v>LUID_RLKHXG2G</v>
+        <v>LUID_WWDKQRD8</v>
       </c>
       <c r="K42" s="81">
         <v>43466</v>
@@ -14141,19 +14141,19 @@
         <v>43466</v>
       </c>
       <c r="M42" s="78">
-        <v>120000</v>
+        <v>8125000</v>
       </c>
       <c r="N42" s="27">
-        <v>171000</v>
+        <v>10113313.26</v>
       </c>
       <c r="O42" s="59">
-        <v>1.425</v>
+        <v>124.07877000000001</v>
       </c>
       <c r="P42" s="78">
-        <v>171000</v>
+        <v>10113313.256944444</v>
       </c>
       <c r="Q42" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R42" s="16">
         <v>1</v>
@@ -14162,7 +14162,7 @@
         <v>1</v>
       </c>
       <c r="T42" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U42" s="80">
         <v>0</v>
@@ -14171,7 +14171,7 @@
         <v/>
       </c>
       <c r="W42" s="82">
-        <v>43812.405921053243</v>
+        <v>43727.503217835649</v>
       </c>
       <c r="X42" s="82">
         <v>0</v>
@@ -14183,16 +14183,16 @@
         <v>0</v>
       </c>
       <c r="AA42" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="83">
+        <v>8125000</v>
+      </c>
+      <c r="AC42" s="83">
         <v>0</v>
       </c>
-      <c r="AB42" s="83">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="83" t="str">
+      <c r="AD42" s="78" t="str">
         <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD42" s="78">
-        <v>120000</v>
       </c>
       <c r="AE42" s="78">
         <v>0</v>
@@ -14230,10 +14230,10 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I43" s="31" t="str">
-        <v>LusidInstrumentId:LUID_12V1ZKJL</v>
+        <v>LusidInstrumentId:LUID_I3S0X4PL</v>
       </c>
       <c r="J43" s="31" t="str">
-        <v>LUID_12V1ZKJL</v>
+        <v>LUID_I3S0X4PL</v>
       </c>
       <c r="K43" s="81">
         <v>43466</v>
@@ -14242,19 +14242,19 @@
         <v>43466</v>
       </c>
       <c r="M43" s="78">
-        <v>35000</v>
+        <v>16250000</v>
       </c>
       <c r="N43" s="27">
-        <v>287140</v>
+        <v>17406155</v>
       </c>
       <c r="O43" s="59">
-        <v>8.2040000000000006</v>
+        <v>106.73</v>
       </c>
       <c r="P43" s="78">
-        <v>287140</v>
+        <v>17406155</v>
       </c>
       <c r="Q43" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R43" s="16">
         <v>1</v>
@@ -14263,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="T43" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U43" s="80">
         <v>0</v>
@@ -14272,7 +14272,7 @@
         <v/>
       </c>
       <c r="W43" s="82">
-        <v>43812.405921053243</v>
+        <v>43727.503217835649</v>
       </c>
       <c r="X43" s="82">
         <v>0</v>
@@ -14284,16 +14284,16 @@
         <v>0</v>
       </c>
       <c r="AA43" s="80">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="83">
+        <v>16250000</v>
+      </c>
+      <c r="AC43" s="83">
         <v>0</v>
       </c>
-      <c r="AB43" s="83">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="83" t="str">
+      <c r="AD43" s="78" t="str">
         <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD43" s="78">
-        <v>35000</v>
       </c>
       <c r="AE43" s="78">
         <v>0</v>
@@ -14322,7 +14322,7 @@
         <v>Active</v>
       </c>
       <c r="F44" s="15" t="str">
-        <v>UKEQTY100011</v>
+        <v>USC100011</v>
       </c>
       <c r="G44" s="29" t="str">
         <v>Sell</v>
@@ -14331,10 +14331,10 @@
         <v>Sale</v>
       </c>
       <c r="I44" s="31" t="str">
-        <v>Figi:BBG000C0YGB0</v>
+        <v>Figi:BBG00M1BQWX0</v>
       </c>
       <c r="J44" s="31" t="str">
-        <v>LUID_Y6EBBGXM</v>
+        <v>LUID_I3S0X4PL</v>
       </c>
       <c r="K44" s="81">
         <v>43570</v>
@@ -14343,19 +14343,19 @@
         <v>43602</v>
       </c>
       <c r="M44" s="78">
-        <v>2807.0588235294117</v>
+        <v>477941.17647058825</v>
       </c>
       <c r="N44" s="27">
-        <v>168255.11</v>
+        <v>511945.74</v>
       </c>
       <c r="O44" s="59">
-        <v>59.94</v>
+        <v>106.73</v>
       </c>
       <c r="P44" s="78">
-        <v>168255.10588235295</v>
+        <v>511945.73529411771</v>
       </c>
       <c r="Q44" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R44" s="16">
         <v>1</v>
@@ -14364,7 +14364,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U44" s="80">
         <v>0</v>
@@ -14373,7 +14373,7 @@
         <v>Client</v>
       </c>
       <c r="W44" s="82">
-        <v>43812.405935312498</v>
+        <v>43727.50323603009</v>
       </c>
       <c r="X44" s="82">
         <v>0</v>
@@ -14382,31 +14382,31 @@
         <v>0</v>
       </c>
       <c r="Z44" s="80" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
-      </c>
-      <c r="AA44" s="80" t="str">
         <v>Finbourne-Examples</v>
       </c>
+      <c r="AA44" s="80">
+        <v>0</v>
+      </c>
       <c r="AB44" s="83">
+        <v>15772058.823529411</v>
+      </c>
+      <c r="AC44" s="83" t="str">
+        <v>731bee9e-4728-4fa1-8b2f-ff0f09759ee9</v>
+      </c>
+      <c r="AD44" s="78">
         <v>0</v>
       </c>
-      <c r="AC44" s="83">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="78">
-        <v>92632.941176470587</v>
-      </c>
       <c r="AE44" s="78">
-        <v>168255.11</v>
+        <v>511945.74</v>
       </c>
       <c r="AF44" s="78">
-        <v>-168255.11</v>
+        <v>-511945.74</v>
       </c>
       <c r="AG44" s="78">
         <v>0</v>
       </c>
       <c r="AH44" s="78">
-        <v>-168255.11</v>
+        <v>-511945.74</v>
       </c>
       <c r="AI44" s="80" t="str">
         <v/>
@@ -14423,7 +14423,7 @@
         <v>Active</v>
       </c>
       <c r="F45" s="15" t="str">
-        <v>UKEQTY100012</v>
+        <v>USC100012</v>
       </c>
       <c r="G45" s="29" t="str">
         <v>Sell</v>
@@ -14432,10 +14432,10 @@
         <v>Sale</v>
       </c>
       <c r="I45" s="31" t="str">
-        <v>Figi:BBG000C059M6</v>
+        <v>Figi:BBG00D1PBRL9</v>
       </c>
       <c r="J45" s="31" t="str">
-        <v>LUID_AHX7SPIA</v>
+        <v>LUID_8TVSW9VR</v>
       </c>
       <c r="K45" s="81">
         <v>43570</v>
@@ -14444,19 +14444,19 @@
         <v>43602</v>
       </c>
       <c r="M45" s="78">
-        <v>367.64705882352939</v>
+        <v>669117.6470588235</v>
       </c>
       <c r="N45" s="27">
-        <v>2095.2199999999998</v>
+        <v>627116.72</v>
       </c>
       <c r="O45" s="59">
-        <v>5.6989999999999998</v>
+        <v>91.783928000000003</v>
       </c>
       <c r="P45" s="78">
-        <v>2095.2205882352941</v>
+        <v>627116.72493464046</v>
       </c>
       <c r="Q45" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R45" s="16">
         <v>1</v>
@@ -14465,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U45" s="80">
         <v>0</v>
@@ -14474,7 +14474,7 @@
         <v>Client</v>
       </c>
       <c r="W45" s="82">
-        <v>43812.405935312498</v>
+        <v>43727.50323603009</v>
       </c>
       <c r="X45" s="82">
         <v>0</v>
@@ -14483,31 +14483,31 @@
         <v>0</v>
       </c>
       <c r="Z45" s="80" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
-      </c>
-      <c r="AA45" s="80" t="str">
         <v>Finbourne-Examples</v>
       </c>
+      <c r="AA45" s="80">
+        <v>0</v>
+      </c>
       <c r="AB45" s="83">
+        <v>22080882.352941178</v>
+      </c>
+      <c r="AC45" s="83" t="str">
+        <v>731bee9e-4728-4fa1-8b2f-ff0f09759ee9</v>
+      </c>
+      <c r="AD45" s="78">
         <v>0</v>
       </c>
-      <c r="AC45" s="83">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="78">
-        <v>12132.35294117647</v>
-      </c>
       <c r="AE45" s="78">
-        <v>2095.2199999999998</v>
+        <v>627116.72</v>
       </c>
       <c r="AF45" s="78">
-        <v>-2095.2199999999998</v>
+        <v>-627116.72</v>
       </c>
       <c r="AG45" s="78">
         <v>0</v>
       </c>
       <c r="AH45" s="78">
-        <v>-2095.2199999999998</v>
+        <v>-627116.72</v>
       </c>
       <c r="AI45" s="80" t="str">
         <v/>
@@ -14524,7 +14524,7 @@
         <v>Active</v>
       </c>
       <c r="F46" s="15" t="str">
-        <v>UKEQTY100013</v>
+        <v>USC100013</v>
       </c>
       <c r="G46" s="29" t="str">
         <v>Sell</v>
@@ -14533,10 +14533,10 @@
         <v>Sale</v>
       </c>
       <c r="I46" s="31" t="str">
-        <v>Figi:BBG000C2C436</v>
+        <v>Figi:BBG00BW1V2M4</v>
       </c>
       <c r="J46" s="31" t="str">
-        <v>LUID_V6OJOXJ1</v>
+        <v>LUID_170RKPSC</v>
       </c>
       <c r="K46" s="81">
         <v>43570</v>
@@ -14545,19 +14545,19 @@
         <v>43602</v>
       </c>
       <c r="M46" s="78">
-        <v>1619.1176470588234</v>
+        <v>1147058.8235294118</v>
       </c>
       <c r="N46" s="27">
-        <v>78349.100000000006</v>
+        <v>1173247.45</v>
       </c>
       <c r="O46" s="59">
-        <v>48.39</v>
+        <v>101.167</v>
       </c>
       <c r="P46" s="78">
-        <v>78349.102941176461</v>
+        <v>1173247.4509803923</v>
       </c>
       <c r="Q46" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R46" s="16">
         <v>1</v>
@@ -14566,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U46" s="80">
         <v>0</v>
@@ -14575,7 +14575,7 @@
         <v>Client</v>
       </c>
       <c r="W46" s="82">
-        <v>43812.405935312498</v>
+        <v>43727.50323603009</v>
       </c>
       <c r="X46" s="82">
         <v>0</v>
@@ -14584,31 +14584,31 @@
         <v>0</v>
       </c>
       <c r="Z46" s="80" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
-      </c>
-      <c r="AA46" s="80" t="str">
         <v>Finbourne-Examples</v>
       </c>
+      <c r="AA46" s="80">
+        <v>0</v>
+      </c>
       <c r="AB46" s="83">
+        <v>-40147058.823529415</v>
+      </c>
+      <c r="AC46" s="83" t="str">
+        <v>731bee9e-4728-4fa1-8b2f-ff0f09759ee9</v>
+      </c>
+      <c r="AD46" s="78">
         <v>0</v>
       </c>
-      <c r="AC46" s="83">
+      <c r="AE46" s="78">
         <v>0</v>
       </c>
-      <c r="AD46" s="78">
-        <v>53430.882352941175</v>
-      </c>
-      <c r="AE46" s="78">
-        <v>78349.100000000006</v>
-      </c>
       <c r="AF46" s="78">
-        <v>-78349.100000000006</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="78">
         <v>0</v>
       </c>
       <c r="AH46" s="78">
-        <v>-78349.100000000006</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="80" t="str">
         <v/>
@@ -14625,7 +14625,7 @@
         <v>Active</v>
       </c>
       <c r="F47" s="15" t="str">
-        <v>UKEQTY100014</v>
+        <v>USC100014</v>
       </c>
       <c r="G47" s="29" t="str">
         <v>Sell</v>
@@ -14634,10 +14634,10 @@
         <v>Sale</v>
       </c>
       <c r="I47" s="31" t="str">
-        <v>Figi:BBG000BS1MT4</v>
+        <v>Figi:BBG00K85WG22</v>
       </c>
       <c r="J47" s="31" t="str">
-        <v>LUID_V9OX6CRE</v>
+        <v>LUID_I0H0D3XV</v>
       </c>
       <c r="K47" s="81">
         <v>43570</v>
@@ -14646,19 +14646,19 @@
         <v>43602</v>
       </c>
       <c r="M47" s="78">
-        <v>602.94117647058829</v>
+        <v>382352.9411764706</v>
       </c>
       <c r="N47" s="27">
-        <v>3954.69</v>
+        <v>380955.23</v>
       </c>
       <c r="O47" s="59">
-        <v>6.5590000000000002</v>
+        <v>99.3</v>
       </c>
       <c r="P47" s="78">
-        <v>3954.6911764705887</v>
+        <v>380955.22875816992</v>
       </c>
       <c r="Q47" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R47" s="16">
         <v>1</v>
@@ -14667,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U47" s="80">
         <v>0</v>
@@ -14676,7 +14676,7 @@
         <v>Client</v>
       </c>
       <c r="W47" s="82">
-        <v>43812.405935312498</v>
+        <v>43727.50323603009</v>
       </c>
       <c r="X47" s="82">
         <v>0</v>
@@ -14685,31 +14685,31 @@
         <v>0</v>
       </c>
       <c r="Z47" s="80" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
-      </c>
-      <c r="AA47" s="80" t="str">
         <v>Finbourne-Examples</v>
       </c>
+      <c r="AA47" s="80">
+        <v>0</v>
+      </c>
       <c r="AB47" s="83">
+        <v>12617647.05882353</v>
+      </c>
+      <c r="AC47" s="83" t="str">
+        <v>731bee9e-4728-4fa1-8b2f-ff0f09759ee9</v>
+      </c>
+      <c r="AD47" s="78">
         <v>0</v>
       </c>
-      <c r="AC47" s="83">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="78">
-        <v>19897.058823529413</v>
-      </c>
       <c r="AE47" s="78">
-        <v>3954.69</v>
+        <v>380955.23</v>
       </c>
       <c r="AF47" s="78">
-        <v>-3954.69</v>
+        <v>-380955.23</v>
       </c>
       <c r="AG47" s="78">
         <v>0</v>
       </c>
       <c r="AH47" s="78">
-        <v>-3954.69</v>
+        <v>-380955.23</v>
       </c>
       <c r="AI47" s="80" t="str">
         <v/>
@@ -14726,7 +14726,7 @@
         <v>Active</v>
       </c>
       <c r="F48" s="15" t="str">
-        <v>UKEQTY100015</v>
+        <v>USC100015</v>
       </c>
       <c r="G48" s="29" t="str">
         <v>Buy</v>
@@ -14735,10 +14735,10 @@
         <v>Purchase</v>
       </c>
       <c r="I48" s="31" t="str">
-        <v>Figi:BBG000BDQBV1</v>
+        <v>Figi:BBG00K85WH93</v>
       </c>
       <c r="J48" s="31" t="str">
-        <v>LUID_AQ7JLG30</v>
+        <v>LUID_WWDKQRD8</v>
       </c>
       <c r="K48" s="81">
         <v>43570</v>
@@ -14747,19 +14747,19 @@
         <v>43602</v>
       </c>
       <c r="M48" s="78">
-        <v>2367.6470588235293</v>
+        <v>238970.58823529413</v>
       </c>
       <c r="N48" s="27">
-        <v>6806.99</v>
+        <v>297450.39</v>
       </c>
       <c r="O48" s="59">
-        <v>2.875</v>
+        <v>124.07877000000001</v>
       </c>
       <c r="P48" s="78">
-        <v>6806.9852941176468</v>
+        <v>297450.3899101307</v>
       </c>
       <c r="Q48" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R48" s="16">
         <v>1</v>
@@ -14768,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U48" s="80">
         <v>0</v>
@@ -14777,7 +14777,7 @@
         <v>Client</v>
       </c>
       <c r="W48" s="82">
-        <v>43812.405935312498</v>
+        <v>43727.50323603009</v>
       </c>
       <c r="X48" s="82">
         <v>0</v>
@@ -14786,19 +14786,19 @@
         <v>0</v>
       </c>
       <c r="Z48" s="80" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
-      </c>
-      <c r="AA48" s="80" t="str">
         <v>Finbourne-Examples</v>
       </c>
+      <c r="AA48" s="80">
+        <v>0</v>
+      </c>
       <c r="AB48" s="83">
+        <v>8363970.5882352944</v>
+      </c>
+      <c r="AC48" s="83" t="str">
+        <v>731bee9e-4728-4fa1-8b2f-ff0f09759ee9</v>
+      </c>
+      <c r="AD48" s="78">
         <v>0</v>
-      </c>
-      <c r="AC48" s="83">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="78">
-        <v>82867.647058823524</v>
       </c>
       <c r="AE48" s="78">
         <v>0</v>
@@ -14827,7 +14827,7 @@
         <v>Active</v>
       </c>
       <c r="F49" s="15" t="str">
-        <v>UKEQTY100016</v>
+        <v>USC100016</v>
       </c>
       <c r="G49" s="29" t="str">
         <v>Buy</v>
@@ -14836,10 +14836,10 @@
         <v>Purchase</v>
       </c>
       <c r="I49" s="31" t="str">
-        <v>Figi:BBG000BDTRH9</v>
+        <v>Figi:BBG0000H5309</v>
       </c>
       <c r="J49" s="31" t="str">
-        <v>LUID_2LW50NUJ</v>
+        <v>LUID_WWGCPZBI</v>
       </c>
       <c r="K49" s="81">
         <v>43570</v>
@@ -14848,19 +14848,19 @@
         <v>43602</v>
       </c>
       <c r="M49" s="78">
-        <v>1924.7058823529412</v>
+        <v>167279.41176470587</v>
       </c>
       <c r="N49" s="27">
-        <v>5119.72</v>
+        <v>170470.41</v>
       </c>
       <c r="O49" s="59">
-        <v>2.66</v>
+        <v>101.495085</v>
       </c>
       <c r="P49" s="78">
-        <v>5119.7176470588238</v>
+        <v>170470.40873161764</v>
       </c>
       <c r="Q49" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R49" s="16">
         <v>1</v>
@@ -14869,7 +14869,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U49" s="80">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>Client</v>
       </c>
       <c r="W49" s="82">
-        <v>43812.405935312498</v>
+        <v>43727.50323603009</v>
       </c>
       <c r="X49" s="82">
         <v>0</v>
@@ -14887,31 +14887,31 @@
         <v>0</v>
       </c>
       <c r="Z49" s="80" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
-      </c>
-      <c r="AA49" s="80" t="str">
         <v>Finbourne-Examples</v>
       </c>
+      <c r="AA49" s="80">
+        <v>0</v>
+      </c>
       <c r="AB49" s="83">
+        <v>-5520220.5882352944</v>
+      </c>
+      <c r="AC49" s="83" t="str">
+        <v>731bee9e-4728-4fa1-8b2f-ff0f09759ee9</v>
+      </c>
+      <c r="AD49" s="78">
         <v>0</v>
       </c>
-      <c r="AC49" s="83">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="78">
-        <v>67364.705882352937</v>
-      </c>
       <c r="AE49" s="78">
-        <v>0</v>
+        <v>-170470.41</v>
       </c>
       <c r="AF49" s="78">
-        <v>0</v>
+        <v>170470.41</v>
       </c>
       <c r="AG49" s="78">
         <v>0</v>
       </c>
       <c r="AH49" s="78">
-        <v>0</v>
+        <v>170470.41</v>
       </c>
       <c r="AI49" s="80" t="str">
         <v/>
@@ -14928,7 +14928,7 @@
         <v>Active</v>
       </c>
       <c r="F50" s="15" t="str">
-        <v>UKEQTY100017</v>
+        <v>USC100017</v>
       </c>
       <c r="G50" s="29" t="str">
         <v>Buy</v>
@@ -14937,10 +14937,10 @@
         <v>Purchase</v>
       </c>
       <c r="I50" s="31" t="str">
-        <v>Figi:BBG000FV67D8</v>
+        <v>Figi:BBG00K85TYW4</v>
       </c>
       <c r="J50" s="31" t="str">
-        <v>LUID_12V1ZKJL</v>
+        <v>LUID_1A0OVPSZ</v>
       </c>
       <c r="K50" s="81">
         <v>43570</v>
@@ -14949,19 +14949,19 @@
         <v>43602</v>
       </c>
       <c r="M50" s="78">
-        <v>1029.4117647058824</v>
+        <v>2007352.9411764704</v>
       </c>
       <c r="N50" s="27">
-        <v>8445.2900000000009</v>
+        <v>2039856.45</v>
       </c>
       <c r="O50" s="59">
-        <v>8.2040000000000006</v>
+        <v>101.167</v>
       </c>
       <c r="P50" s="78">
-        <v>8445.2941176470595</v>
+        <v>2039856.4460784316</v>
       </c>
       <c r="Q50" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R50" s="16">
         <v>1</v>
@@ -14970,7 +14970,7 @@
         <v>0</v>
       </c>
       <c r="T50" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U50" s="80">
         <v>0</v>
@@ -14979,7 +14979,7 @@
         <v>Client</v>
       </c>
       <c r="W50" s="82">
-        <v>43812.405935312498</v>
+        <v>43727.50323603009</v>
       </c>
       <c r="X50" s="82">
         <v>0</v>
@@ -14988,19 +14988,19 @@
         <v>0</v>
       </c>
       <c r="Z50" s="80" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
-      </c>
-      <c r="AA50" s="80" t="str">
         <v>Finbourne-Examples</v>
       </c>
+      <c r="AA50" s="80">
+        <v>0</v>
+      </c>
       <c r="AB50" s="83">
+        <v>70257352.941176474</v>
+      </c>
+      <c r="AC50" s="83" t="str">
+        <v>731bee9e-4728-4fa1-8b2f-ff0f09759ee9</v>
+      </c>
+      <c r="AD50" s="78">
         <v>0</v>
-      </c>
-      <c r="AC50" s="83">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="78">
-        <v>36029.411764705881</v>
       </c>
       <c r="AE50" s="78">
         <v>0</v>
@@ -15029,7 +15029,7 @@
         <v>Active</v>
       </c>
       <c r="F51" s="15" t="str">
-        <v>UKEQTY100018</v>
+        <v>USC100018</v>
       </c>
       <c r="G51" s="29" t="str">
         <v>Buy</v>
@@ -15038,10 +15038,10 @@
         <v>Purchase</v>
       </c>
       <c r="I51" s="31" t="str">
-        <v>Figi:BBG000BF4HM7</v>
+        <v>Figi:BBG00BW1LJT1</v>
       </c>
       <c r="J51" s="31" t="str">
-        <v>LUID_GB6QXR8W</v>
+        <v>LUID_9HM40Q88</v>
       </c>
       <c r="K51" s="81">
         <v>43570</v>
@@ -15050,19 +15050,19 @@
         <v>43602</v>
       </c>
       <c r="M51" s="78">
-        <v>1470.5882352941176</v>
+        <v>860294.1176470588</v>
       </c>
       <c r="N51" s="27">
-        <v>2788.97</v>
+        <v>950364.04</v>
       </c>
       <c r="O51" s="59">
-        <v>1.8965000000000001</v>
+        <v>109.718</v>
       </c>
       <c r="P51" s="78">
-        <v>2788.9705882352941</v>
+        <v>950364.04411764722</v>
       </c>
       <c r="Q51" s="16" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R51" s="16">
         <v>1</v>
@@ -15071,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="T51" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="U51" s="80">
         <v>0</v>
@@ -15080,7 +15080,7 @@
         <v>Client</v>
       </c>
       <c r="W51" s="82">
-        <v>43812.405935312498</v>
+        <v>43727.50323603009</v>
       </c>
       <c r="X51" s="82">
         <v>0</v>
@@ -15089,31 +15089,31 @@
         <v>0</v>
       </c>
       <c r="Z51" s="80" t="str">
-        <v>df11d5fd-29d6-4480-8141-3e0fee9c454d</v>
-      </c>
-      <c r="AA51" s="80" t="str">
         <v>Finbourne-Examples</v>
       </c>
+      <c r="AA51" s="80">
+        <v>0</v>
+      </c>
       <c r="AB51" s="83">
+        <v>-28389705.882352941</v>
+      </c>
+      <c r="AC51" s="83" t="str">
+        <v>731bee9e-4728-4fa1-8b2f-ff0f09759ee9</v>
+      </c>
+      <c r="AD51" s="78">
         <v>0</v>
       </c>
-      <c r="AC51" s="83">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="78">
-        <v>51470.588235294119</v>
-      </c>
       <c r="AE51" s="78">
-        <v>0</v>
+        <v>-950364.04</v>
       </c>
       <c r="AF51" s="78">
-        <v>0</v>
+        <v>950364.04</v>
       </c>
       <c r="AG51" s="78">
         <v>0</v>
       </c>
       <c r="AH51" s="78">
-        <v>0</v>
+        <v>950364.04</v>
       </c>
       <c r="AI51" s="80" t="str">
         <v/>
@@ -15476,16 +15476,16 @@
         <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G62" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>AdjustmentDecrease</v>
       </c>
       <c r="H62" s="80" t="str">
-        <v>Increase Adjustment</v>
+        <v>Decrease Adjustment</v>
       </c>
       <c r="I62" s="31" t="str">
-        <v>LusidInstrumentId:LUID_AQ7JLG30</v>
+        <v>LusidInstrumentId:LUID_WWGCPZBI</v>
       </c>
       <c r="J62" s="31" t="str">
-        <v>LUID_AQ7JLG30</v>
+        <v>LUID_WWGCPZBI</v>
       </c>
       <c r="K62" s="81">
         <v>43466</v>
@@ -15494,19 +15494,19 @@
         <v>43466</v>
       </c>
       <c r="M62" s="78">
-        <v>80500</v>
+        <v>5687500</v>
       </c>
       <c r="N62" s="27">
-        <v>231437.5</v>
+        <v>5795993.9000000004</v>
       </c>
       <c r="O62" s="59">
-        <v>2.875</v>
+        <v>101.495085</v>
       </c>
       <c r="P62" s="78">
-        <v>231437.5</v>
+        <v>-5795993.8968749996</v>
       </c>
       <c r="Q62" s="22" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R62" s="80">
         <v>1</v>
@@ -15523,16 +15523,16 @@
         <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G63" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>AdjustmentDecrease</v>
       </c>
       <c r="H63" s="80" t="str">
-        <v>Increase Adjustment</v>
+        <v>Decrease Adjustment</v>
       </c>
       <c r="I63" s="31" t="str">
-        <v>LusidInstrumentId:LUID_2LW50NUJ</v>
+        <v>LusidInstrumentId:LUID_3BQB9BX4</v>
       </c>
       <c r="J63" s="31" t="str">
-        <v>LUID_2LW50NUJ</v>
+        <v>LUID_3BQB9BX4</v>
       </c>
       <c r="K63" s="81">
         <v>43466</v>
@@ -15541,19 +15541,19 @@
         <v>43466</v>
       </c>
       <c r="M63" s="78">
-        <v>65440</v>
+        <v>65000000</v>
       </c>
       <c r="N63" s="27">
-        <v>174070.39999999999</v>
+        <v>67524816.670000002</v>
       </c>
       <c r="O63" s="59">
-        <v>2.66</v>
+        <v>102.751</v>
       </c>
       <c r="P63" s="78">
-        <v>174070.40000000002</v>
+        <v>-67524816.666666672</v>
       </c>
       <c r="Q63" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R63" s="80">
         <v>1</v>
@@ -15576,10 +15576,10 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I64" s="31" t="str">
-        <v>LusidInstrumentId:LUID_GB6QXR8W</v>
+        <v>LusidInstrumentId:LUID_YQNTQZC6</v>
       </c>
       <c r="J64" s="31" t="str">
-        <v>LUID_GB6QXR8W</v>
+        <v>LUID_YQNTQZC6</v>
       </c>
       <c r="K64" s="81">
         <v>43466</v>
@@ -15588,19 +15588,19 @@
         <v>43466</v>
       </c>
       <c r="M64" s="78">
-        <v>50000</v>
+        <v>113750000</v>
       </c>
       <c r="N64" s="27">
-        <v>94825</v>
+        <v>113423766.64</v>
       </c>
       <c r="O64" s="59">
-        <v>1.8965000000000001</v>
+        <v>98.875856999999996</v>
       </c>
       <c r="P64" s="78">
-        <v>94825</v>
+        <v>113423766.64305556</v>
       </c>
       <c r="Q64" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R64" s="80">
         <v>1</v>
@@ -15617,16 +15617,16 @@
         <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G65" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>AdjustmentDecrease</v>
       </c>
       <c r="H65" s="80" t="str">
-        <v>Increase Adjustment</v>
+        <v>Decrease Adjustment</v>
       </c>
       <c r="I65" s="31" t="str">
-        <v>LusidInstrumentId:LUID_XZ01FKZX</v>
+        <v>LusidInstrumentId:LUID_9HM40Q88</v>
       </c>
       <c r="J65" s="31" t="str">
-        <v>LUID_XZ01FKZX</v>
+        <v>LUID_9HM40Q88</v>
       </c>
       <c r="K65" s="81">
         <v>43466</v>
@@ -15635,19 +15635,19 @@
         <v>43466</v>
       </c>
       <c r="M65" s="78">
-        <v>8000</v>
+        <v>29250000</v>
       </c>
       <c r="N65" s="27">
-        <v>386800</v>
+        <v>32312377.5</v>
       </c>
       <c r="O65" s="59">
-        <v>48.35</v>
+        <v>109.718</v>
       </c>
       <c r="P65" s="78">
-        <v>386800</v>
+        <v>-32312377.5</v>
       </c>
       <c r="Q65" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R65" s="80">
         <v>1</v>
@@ -15664,16 +15664,16 @@
         <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G66" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>AdjustmentDecrease</v>
       </c>
       <c r="H66" s="80" t="str">
-        <v>Increase Adjustment</v>
+        <v>Decrease Adjustment</v>
       </c>
       <c r="I66" s="31" t="str">
-        <v>LusidInstrumentId:LUID_V9OX6CRE</v>
+        <v>LusidInstrumentId:LUID_170RKPSC</v>
       </c>
       <c r="J66" s="31" t="str">
-        <v>LUID_V9OX6CRE</v>
+        <v>LUID_170RKPSC</v>
       </c>
       <c r="K66" s="81">
         <v>43466</v>
@@ -15682,19 +15682,19 @@
         <v>43466</v>
       </c>
       <c r="M66" s="78">
-        <v>20500</v>
+        <v>39000000</v>
       </c>
       <c r="N66" s="27">
-        <v>134459.5</v>
+        <v>39890413.329999998</v>
       </c>
       <c r="O66" s="59">
-        <v>6.5590000000000002</v>
+        <v>101.167</v>
       </c>
       <c r="P66" s="78">
-        <v>134459.5</v>
+        <v>-39890413.333333336</v>
       </c>
       <c r="Q66" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R66" s="80">
         <v>1</v>
@@ -15717,10 +15717,10 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I67" s="31" t="str">
-        <v>LusidInstrumentId:LUID_AHX7SPIA</v>
+        <v>LusidInstrumentId:LUID_8TVSW9VR</v>
       </c>
       <c r="J67" s="31" t="str">
-        <v>LUID_AHX7SPIA</v>
+        <v>LUID_8TVSW9VR</v>
       </c>
       <c r="K67" s="81">
         <v>43466</v>
@@ -15729,19 +15729,19 @@
         <v>43466</v>
       </c>
       <c r="M67" s="78">
-        <v>12500</v>
+        <v>22750000</v>
       </c>
       <c r="N67" s="27">
-        <v>71237.5</v>
+        <v>21321968.649999999</v>
       </c>
       <c r="O67" s="59">
-        <v>5.6989999999999998</v>
+        <v>91.783928000000003</v>
       </c>
       <c r="P67" s="78">
-        <v>71237.5</v>
+        <v>21321968.647777777</v>
       </c>
       <c r="Q67" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R67" s="80">
         <v>1</v>
@@ -15764,10 +15764,10 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I68" s="31" t="str">
-        <v>LusidInstrumentId:LUID_Y6EBBGXM</v>
+        <v>LusidInstrumentId:LUID_1A0OVPSZ</v>
       </c>
       <c r="J68" s="31" t="str">
-        <v>LUID_Y6EBBGXM</v>
+        <v>LUID_1A0OVPSZ</v>
       </c>
       <c r="K68" s="81">
         <v>43466</v>
@@ -15776,19 +15776,19 @@
         <v>43466</v>
       </c>
       <c r="M68" s="78">
-        <v>95440</v>
+        <v>68250000</v>
       </c>
       <c r="N68" s="27">
-        <v>5720673.5999999996</v>
+        <v>69355119.170000002</v>
       </c>
       <c r="O68" s="59">
-        <v>59.94</v>
+        <v>101.167</v>
       </c>
       <c r="P68" s="78">
-        <v>5720673.5999999996</v>
+        <v>69355119.166666672</v>
       </c>
       <c r="Q68" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R68" s="80">
         <v>1</v>
@@ -15811,10 +15811,10 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I69" s="31" t="str">
-        <v>LusidInstrumentId:LUID_V6OJOXJ1</v>
+        <v>LusidInstrumentId:LUID_I0H0D3XV</v>
       </c>
       <c r="J69" s="31" t="str">
-        <v>LUID_V6OJOXJ1</v>
+        <v>LUID_I0H0D3XV</v>
       </c>
       <c r="K69" s="81">
         <v>43466</v>
@@ -15823,19 +15823,19 @@
         <v>43466</v>
       </c>
       <c r="M69" s="78">
-        <v>55050</v>
+        <v>13000000</v>
       </c>
       <c r="N69" s="27">
-        <v>2663869.5</v>
+        <v>12952477.779999999</v>
       </c>
       <c r="O69" s="59">
-        <v>48.39</v>
+        <v>99.3</v>
       </c>
       <c r="P69" s="78">
-        <v>2663869.5</v>
+        <v>12952477.777777778</v>
       </c>
       <c r="Q69" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R69" s="80">
         <v>1</v>
@@ -15858,10 +15858,10 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I70" s="31" t="str">
-        <v>LusidInstrumentId:LUID_RLKHXG2G</v>
+        <v>LusidInstrumentId:LUID_WWDKQRD8</v>
       </c>
       <c r="J70" s="31" t="str">
-        <v>LUID_RLKHXG2G</v>
+        <v>LUID_WWDKQRD8</v>
       </c>
       <c r="K70" s="81">
         <v>43466</v>
@@ -15870,19 +15870,19 @@
         <v>43466</v>
       </c>
       <c r="M70" s="78">
-        <v>120000</v>
+        <v>8125000</v>
       </c>
       <c r="N70" s="27">
-        <v>171000</v>
+        <v>10113313.26</v>
       </c>
       <c r="O70" s="59">
-        <v>1.425</v>
+        <v>124.07877000000001</v>
       </c>
       <c r="P70" s="78">
-        <v>171000</v>
+        <v>10113313.256944444</v>
       </c>
       <c r="Q70" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R70" s="80">
         <v>1</v>
@@ -15905,10 +15905,10 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I71" s="31" t="str">
-        <v>LusidInstrumentId:LUID_12V1ZKJL</v>
+        <v>LusidInstrumentId:LUID_I3S0X4PL</v>
       </c>
       <c r="J71" s="31" t="str">
-        <v>LUID_12V1ZKJL</v>
+        <v>LUID_I3S0X4PL</v>
       </c>
       <c r="K71" s="81">
         <v>43466</v>
@@ -15917,19 +15917,19 @@
         <v>43466</v>
       </c>
       <c r="M71" s="78">
-        <v>35000</v>
+        <v>16250000</v>
       </c>
       <c r="N71" s="27">
-        <v>287140</v>
+        <v>17406155</v>
       </c>
       <c r="O71" s="59">
-        <v>8.2040000000000006</v>
+        <v>106.73</v>
       </c>
       <c r="P71" s="78">
-        <v>287140</v>
+        <v>17406155</v>
       </c>
       <c r="Q71" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R71" s="80">
         <v>1</v>
@@ -15943,7 +15943,7 @@
         <v>Active</v>
       </c>
       <c r="F72" s="15" t="str">
-        <v>UKEQTY100011</v>
+        <v>USC100011</v>
       </c>
       <c r="G72" s="29" t="str">
         <v>Sell</v>
@@ -15952,10 +15952,10 @@
         <v>Sale</v>
       </c>
       <c r="I72" s="31" t="str">
-        <v>Figi:BBG000C0YGB0</v>
+        <v>Figi:BBG00M1BQWX0</v>
       </c>
       <c r="J72" s="31" t="str">
-        <v>LUID_Y6EBBGXM</v>
+        <v>LUID_I3S0X4PL</v>
       </c>
       <c r="K72" s="81">
         <v>43570</v>
@@ -15964,19 +15964,19 @@
         <v>43602</v>
       </c>
       <c r="M72" s="78">
-        <v>2807.0588235294117</v>
+        <v>477941.17647058825</v>
       </c>
       <c r="N72" s="27">
-        <v>168255.11</v>
+        <v>511945.74</v>
       </c>
       <c r="O72" s="59">
-        <v>59.94</v>
+        <v>106.73</v>
       </c>
       <c r="P72" s="78">
-        <v>168255.10588235295</v>
+        <v>511945.73529411771</v>
       </c>
       <c r="Q72" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R72" s="80">
         <v>1</v>
@@ -15990,7 +15990,7 @@
         <v>Active</v>
       </c>
       <c r="F73" s="15" t="str">
-        <v>UKEQTY100012</v>
+        <v>USC100012</v>
       </c>
       <c r="G73" s="29" t="str">
         <v>Sell</v>
@@ -15999,10 +15999,10 @@
         <v>Sale</v>
       </c>
       <c r="I73" s="31" t="str">
-        <v>Figi:BBG000C059M6</v>
+        <v>Figi:BBG00D1PBRL9</v>
       </c>
       <c r="J73" s="31" t="str">
-        <v>LUID_AHX7SPIA</v>
+        <v>LUID_8TVSW9VR</v>
       </c>
       <c r="K73" s="81">
         <v>43570</v>
@@ -16011,19 +16011,19 @@
         <v>43602</v>
       </c>
       <c r="M73" s="78">
-        <v>367.64705882352939</v>
+        <v>669117.6470588235</v>
       </c>
       <c r="N73" s="27">
-        <v>2095.2199999999998</v>
+        <v>627116.72</v>
       </c>
       <c r="O73" s="59">
-        <v>5.6989999999999998</v>
+        <v>91.783928000000003</v>
       </c>
       <c r="P73" s="78">
-        <v>2095.2205882352941</v>
+        <v>627116.72493464046</v>
       </c>
       <c r="Q73" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R73" s="80">
         <v>1</v>
@@ -16037,7 +16037,7 @@
         <v>Active</v>
       </c>
       <c r="F74" s="15" t="str">
-        <v>UKEQTY100013</v>
+        <v>USC100013</v>
       </c>
       <c r="G74" s="29" t="str">
         <v>Sell</v>
@@ -16046,10 +16046,10 @@
         <v>Sale</v>
       </c>
       <c r="I74" s="31" t="str">
-        <v>Figi:BBG000C2C436</v>
+        <v>Figi:BBG00BW1V2M4</v>
       </c>
       <c r="J74" s="31" t="str">
-        <v>LUID_V6OJOXJ1</v>
+        <v>LUID_170RKPSC</v>
       </c>
       <c r="K74" s="81">
         <v>43570</v>
@@ -16058,19 +16058,19 @@
         <v>43602</v>
       </c>
       <c r="M74" s="78">
-        <v>1619.1176470588234</v>
+        <v>1147058.8235294118</v>
       </c>
       <c r="N74" s="27">
-        <v>78349.100000000006</v>
+        <v>1173247.45</v>
       </c>
       <c r="O74" s="59">
-        <v>48.39</v>
+        <v>101.167</v>
       </c>
       <c r="P74" s="78">
-        <v>78349.102941176461</v>
+        <v>1173247.4509803923</v>
       </c>
       <c r="Q74" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R74" s="80">
         <v>1</v>
@@ -16084,7 +16084,7 @@
         <v>Active</v>
       </c>
       <c r="F75" s="15" t="str">
-        <v>UKEQTY100014</v>
+        <v>USC100014</v>
       </c>
       <c r="G75" s="29" t="str">
         <v>Sell</v>
@@ -16093,10 +16093,10 @@
         <v>Sale</v>
       </c>
       <c r="I75" s="31" t="str">
-        <v>Figi:BBG000BS1MT4</v>
+        <v>Figi:BBG00K85WG22</v>
       </c>
       <c r="J75" s="31" t="str">
-        <v>LUID_V9OX6CRE</v>
+        <v>LUID_I0H0D3XV</v>
       </c>
       <c r="K75" s="81">
         <v>43570</v>
@@ -16105,19 +16105,19 @@
         <v>43602</v>
       </c>
       <c r="M75" s="78">
-        <v>602.94117647058829</v>
+        <v>382352.9411764706</v>
       </c>
       <c r="N75" s="27">
-        <v>3954.69</v>
+        <v>380955.23</v>
       </c>
       <c r="O75" s="59">
-        <v>6.5590000000000002</v>
+        <v>99.3</v>
       </c>
       <c r="P75" s="78">
-        <v>3954.6911764705887</v>
+        <v>380955.22875816992</v>
       </c>
       <c r="Q75" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R75" s="80">
         <v>1</v>
@@ -16131,7 +16131,7 @@
         <v>Active</v>
       </c>
       <c r="F76" s="15" t="str">
-        <v>UKEQTY100015</v>
+        <v>USC100015</v>
       </c>
       <c r="G76" s="29" t="str">
         <v>Buy</v>
@@ -16140,10 +16140,10 @@
         <v>Purchase</v>
       </c>
       <c r="I76" s="31" t="str">
-        <v>Figi:BBG000BDQBV1</v>
+        <v>Figi:BBG00K85WH93</v>
       </c>
       <c r="J76" s="31" t="str">
-        <v>LUID_AQ7JLG30</v>
+        <v>LUID_WWDKQRD8</v>
       </c>
       <c r="K76" s="81">
         <v>43570</v>
@@ -16152,19 +16152,19 @@
         <v>43602</v>
       </c>
       <c r="M76" s="78">
-        <v>2367.6470588235293</v>
+        <v>238970.58823529413</v>
       </c>
       <c r="N76" s="27">
-        <v>6806.99</v>
+        <v>297450.39</v>
       </c>
       <c r="O76" s="59">
-        <v>2.875</v>
+        <v>124.07877000000001</v>
       </c>
       <c r="P76" s="78">
-        <v>6806.9852941176468</v>
+        <v>297450.3899101307</v>
       </c>
       <c r="Q76" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R76" s="80">
         <v>1</v>
@@ -16178,7 +16178,7 @@
         <v>Active</v>
       </c>
       <c r="F77" s="15" t="str">
-        <v>UKEQTY100016</v>
+        <v>USC100016</v>
       </c>
       <c r="G77" s="29" t="str">
         <v>Buy</v>
@@ -16187,10 +16187,10 @@
         <v>Purchase</v>
       </c>
       <c r="I77" s="31" t="str">
-        <v>Figi:BBG000BDTRH9</v>
+        <v>Figi:BBG0000H5309</v>
       </c>
       <c r="J77" s="31" t="str">
-        <v>LUID_2LW50NUJ</v>
+        <v>LUID_WWGCPZBI</v>
       </c>
       <c r="K77" s="81">
         <v>43570</v>
@@ -16199,19 +16199,19 @@
         <v>43602</v>
       </c>
       <c r="M77" s="78">
-        <v>1924.7058823529412</v>
+        <v>167279.41176470587</v>
       </c>
       <c r="N77" s="27">
-        <v>5119.72</v>
+        <v>170470.41</v>
       </c>
       <c r="O77" s="59">
-        <v>2.66</v>
+        <v>101.495085</v>
       </c>
       <c r="P77" s="78">
-        <v>5119.7176470588238</v>
+        <v>170470.40873161764</v>
       </c>
       <c r="Q77" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R77" s="80">
         <v>1</v>
@@ -16225,7 +16225,7 @@
         <v>Active</v>
       </c>
       <c r="F78" s="15" t="str">
-        <v>UKEQTY100017</v>
+        <v>USC100017</v>
       </c>
       <c r="G78" s="29" t="str">
         <v>Buy</v>
@@ -16234,10 +16234,10 @@
         <v>Purchase</v>
       </c>
       <c r="I78" s="31" t="str">
-        <v>Figi:BBG000FV67D8</v>
+        <v>Figi:BBG00K85TYW4</v>
       </c>
       <c r="J78" s="31" t="str">
-        <v>LUID_12V1ZKJL</v>
+        <v>LUID_1A0OVPSZ</v>
       </c>
       <c r="K78" s="81">
         <v>43570</v>
@@ -16246,19 +16246,19 @@
         <v>43602</v>
       </c>
       <c r="M78" s="78">
-        <v>1029.4117647058824</v>
+        <v>2007352.9411764704</v>
       </c>
       <c r="N78" s="27">
-        <v>8445.2900000000009</v>
+        <v>2039856.45</v>
       </c>
       <c r="O78" s="59">
-        <v>8.2040000000000006</v>
+        <v>101.167</v>
       </c>
       <c r="P78" s="78">
-        <v>8445.2941176470595</v>
+        <v>2039856.4460784316</v>
       </c>
       <c r="Q78" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R78" s="80">
         <v>1</v>
@@ -16272,7 +16272,7 @@
         <v>Active</v>
       </c>
       <c r="F79" s="15" t="str">
-        <v>UKEQTY100018</v>
+        <v>USC100018</v>
       </c>
       <c r="G79" s="29" t="str">
         <v>Buy</v>
@@ -16281,10 +16281,10 @@
         <v>Purchase</v>
       </c>
       <c r="I79" s="31" t="str">
-        <v>Figi:BBG000BF4HM7</v>
+        <v>Figi:BBG00BW1LJT1</v>
       </c>
       <c r="J79" s="31" t="str">
-        <v>LUID_GB6QXR8W</v>
+        <v>LUID_9HM40Q88</v>
       </c>
       <c r="K79" s="81">
         <v>43570</v>
@@ -16293,19 +16293,19 @@
         <v>43602</v>
       </c>
       <c r="M79" s="78">
-        <v>1470.5882352941176</v>
+        <v>860294.1176470588</v>
       </c>
       <c r="N79" s="27">
-        <v>2788.97</v>
+        <v>950364.04</v>
       </c>
       <c r="O79" s="59">
-        <v>1.8965000000000001</v>
+        <v>109.718</v>
       </c>
       <c r="P79" s="78">
-        <v>2788.9705882352941</v>
+        <v>950364.04411764722</v>
       </c>
       <c r="Q79" s="80" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="R79" s="80">
         <v>1</v>
@@ -17008,7 +17008,7 @@
       </c>
       <c r="F27" s="84">
         <f ca="1">NOW()</f>
-        <v>43865.396689120367</v>
+        <v>43900.69716909722</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -17089,7 +17089,7 @@
       </c>
       <c r="F31" s="84">
         <f ca="1">F27-5/1440</f>
-        <v>43865.393216898148</v>
+        <v>43900.693696875001</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>

--- a/LUSID Excel - Setting up your IBOR.xlsx
+++ b/LUSID Excel - Setting up your IBOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3F82EF-921A-4A7F-B7CF-E21927D0D62D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE38A6-F47D-4D2B-91CE-99713F752605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="13320" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Datetime format" sheetId="11" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="392">
   <si>
     <t>Code</t>
   </si>
@@ -1377,12 +1377,18 @@
   <si>
     <t>FinbourneExamplesRecipeLusidFlatFX</t>
   </si>
+  <si>
+    <t>Holding/default/PV:Sum,Holding/default/PV:Proportion,Instrument/default/Name:Value,Holding/default/ExchangeRate:Value</t>
+  </si>
+  <si>
+    <t>Here all FX rates are 1. This is obviously a daft scenario, but it shows how the recipes can be swapped in to dramatically change the valuation details</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="ddd\-dd\-mmm\-yy\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm:ss.00"/>
@@ -1396,6 +1402,7 @@
     <numFmt numFmtId="174" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="175" formatCode="dd\-mmm\-yy\ h:mm:ss"/>
     <numFmt numFmtId="176" formatCode="dd\-mmm\-yy\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1611,7 +1618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1829,6 +1836,12 @@
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1857,1845 +1870,1851 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.b4a1451cdcf3425abd0aa25987aacf77">
+    <main first="rtdsrv.65da0fdadb0f4c92ba90b35c062623cd">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>469579a1-fe00-449e-8e98-805fef8858c5</stp>
-        <tr r="H48" s="14"/>
-        <tr r="K48" s="14"/>
-        <tr r="I47" s="14"/>
-        <tr r="J47" s="14"/>
-        <tr r="F47" s="14"/>
-        <tr r="E47" s="14"/>
-        <tr r="G47" s="14"/>
-        <tr r="H47" s="14"/>
-        <tr r="K47" s="14"/>
-        <tr r="J48" s="14"/>
-        <tr r="E48" s="14"/>
-        <tr r="G48" s="14"/>
-        <tr r="I48" s="14"/>
-        <tr r="F48" s="14"/>
+        <stp>b64beb2c-9a58-4b9c-936a-502d283cc08e</stp>
+        <tr r="G53" s="15"/>
+        <tr r="G55" s="15"/>
+        <tr r="G57" s="15"/>
+        <tr r="F56" s="15"/>
+        <tr r="F48" s="15"/>
+        <tr r="G48" s="15"/>
+        <tr r="E51" s="15"/>
+        <tr r="G56" s="15"/>
+        <tr r="E49" s="15"/>
+        <tr r="G52" s="15"/>
+        <tr r="G51" s="15"/>
+        <tr r="F52" s="15"/>
+        <tr r="E55" s="15"/>
+        <tr r="G58" s="15"/>
+        <tr r="E48" s="15"/>
+        <tr r="E56" s="15"/>
+        <tr r="E57" s="15"/>
+        <tr r="E53" s="15"/>
+        <tr r="F50" s="15"/>
+        <tr r="F47" s="15"/>
+        <tr r="F54" s="15"/>
+        <tr r="E54" s="15"/>
+        <tr r="E52" s="15"/>
+        <tr r="F51" s="15"/>
+        <tr r="E47" s="15"/>
+        <tr r="F53" s="15"/>
+        <tr r="G54" s="15"/>
+        <tr r="F58" s="15"/>
+        <tr r="F57" s="15"/>
+        <tr r="E50" s="15"/>
+        <tr r="E58" s="15"/>
+        <tr r="G47" s="15"/>
+        <tr r="G50" s="15"/>
+        <tr r="F55" s="15"/>
+        <tr r="G49" s="15"/>
+        <tr r="F49" s="15"/>
       </tp>
     </main>
-    <main first="rtdsrv.b4a1451cdcf3425abd0aa25987aacf77">
+    <main first="rtdsrv.65da0fdadb0f4c92ba90b35c062623cd">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>5a28244c-27d3-4ee3-95d2-8643a920eba2</stp>
-        <tr r="Z48" s="6"/>
-        <tr r="L44" s="6"/>
-        <tr r="S45" s="6"/>
-        <tr r="W43" s="6"/>
-        <tr r="Q42" s="6"/>
-        <tr r="G51" s="6"/>
-        <tr r="M35" s="6"/>
-        <tr r="R48" s="6"/>
-        <tr r="T52" s="6"/>
-        <tr r="F46" s="6"/>
-        <tr r="Y49" s="6"/>
-        <tr r="G42" s="6"/>
-        <tr r="S51" s="6"/>
-        <tr r="I42" s="6"/>
-        <tr r="O40" s="6"/>
-        <tr r="H48" s="6"/>
-        <tr r="AE38" s="6"/>
-        <tr r="W49" s="6"/>
-        <tr r="AG49" s="6"/>
-        <tr r="AD51" s="6"/>
-        <tr r="N37" s="6"/>
-        <tr r="V46" s="6"/>
-        <tr r="AE40" s="6"/>
-        <tr r="E50" s="6"/>
-        <tr r="N43" s="6"/>
-        <tr r="U43" s="6"/>
-        <tr r="AH34" s="6"/>
-        <tr r="AD45" s="6"/>
-        <tr r="P49" s="6"/>
-        <tr r="AH50" s="6"/>
-        <tr r="AE42" s="6"/>
-        <tr r="AI40" s="6"/>
-        <tr r="AF52" s="6"/>
-        <tr r="I44" s="6"/>
-        <tr r="AH44" s="6"/>
-        <tr r="AG40" s="6"/>
-        <tr r="O43" s="6"/>
-        <tr r="AG37" s="6"/>
-        <tr r="AB44" s="6"/>
-        <tr r="AD41" s="6"/>
-        <tr r="AG33" s="6"/>
-        <tr r="S44" s="6"/>
-        <tr r="H52" s="6"/>
-        <tr r="M34" s="6"/>
-        <tr r="AC36" s="6"/>
-        <tr r="X46" s="6"/>
-        <tr r="I39" s="6"/>
-        <tr r="AH36" s="6"/>
-        <tr r="Y47" s="6"/>
-        <tr r="Y39" s="6"/>
-        <tr r="AE43" s="6"/>
-        <tr r="Y41" s="6"/>
-        <tr r="Z33" s="6"/>
-        <tr r="AC35" s="6"/>
-        <tr r="G39" s="6"/>
-        <tr r="Z50" s="6"/>
-        <tr r="N38" s="6"/>
-        <tr r="AH42" s="6"/>
-        <tr r="Y53" s="6"/>
-        <tr r="W38" s="6"/>
-        <tr r="I46" s="6"/>
-        <tr r="V38" s="6"/>
-        <tr r="O47" s="6"/>
-        <tr r="G41" s="6"/>
-        <tr r="U48" s="6"/>
-        <tr r="J43" s="6"/>
-        <tr r="T47" s="6"/>
-        <tr r="P52" s="6"/>
-        <tr r="P33" s="6"/>
-        <tr r="L33" s="6"/>
-        <tr r="E48" s="6"/>
-        <tr r="AH47" s="6"/>
-        <tr r="R44" s="6"/>
-        <tr r="W42" s="6"/>
-        <tr r="R51" s="6"/>
-        <tr r="Z51" s="6"/>
-        <tr r="T44" s="6"/>
-        <tr r="K35" s="6"/>
-        <tr r="Y40" s="6"/>
-        <tr r="K33" s="6"/>
-        <tr r="Y52" s="6"/>
-        <tr r="G52" s="6"/>
-        <tr r="N51" s="6"/>
-        <tr r="K53" s="6"/>
-        <tr r="V50" s="6"/>
-        <tr r="J51" s="6"/>
-        <tr r="T53" s="6"/>
-        <tr r="T39" s="6"/>
-        <tr r="O51" s="6"/>
-        <tr r="AG46" s="6"/>
-        <tr r="AI45" s="6"/>
-        <tr r="AA52" s="6"/>
-        <tr r="AF35" s="6"/>
-        <tr r="F36" s="6"/>
-        <tr r="F39" s="6"/>
-        <tr r="M39" s="6"/>
-        <tr r="F49" s="6"/>
-        <tr r="E36" s="6"/>
-        <tr r="L39" s="6"/>
-        <tr r="S48" s="6"/>
-        <tr r="AG51" s="6"/>
-        <tr r="V48" s="6"/>
-        <tr r="AC37" s="6"/>
-        <tr r="Z42" s="6"/>
-        <tr r="AB49" s="6"/>
-        <tr r="H37" s="6"/>
-        <tr r="U33" s="6"/>
-        <tr r="N49" s="6"/>
-        <tr r="X39" s="6"/>
-        <tr r="AF34" s="6"/>
-        <tr r="H38" s="6"/>
-        <tr r="I37" s="6"/>
-        <tr r="R40" s="6"/>
-        <tr r="Y50" s="6"/>
-        <tr r="AG50" s="6"/>
-        <tr r="AB43" s="6"/>
-        <tr r="P36" s="6"/>
-        <tr r="K50" s="6"/>
-        <tr r="AE39" s="6"/>
-        <tr r="R45" s="6"/>
-        <tr r="W47" s="6"/>
-        <tr r="M49" s="6"/>
-        <tr r="AH53" s="6"/>
-        <tr r="I49" s="6"/>
-        <tr r="M48" s="6"/>
-        <tr r="L37" s="6"/>
-        <tr r="AG34" s="6"/>
-        <tr r="L53" s="6"/>
-        <tr r="I41" s="6"/>
-        <tr r="AH43" s="6"/>
-        <tr r="S46" s="6"/>
-        <tr r="P40" s="6"/>
-        <tr r="Q49" s="6"/>
-        <tr r="W40" s="6"/>
-        <tr r="AE35" s="6"/>
-        <tr r="K40" s="6"/>
-        <tr r="P46" s="6"/>
-        <tr r="AD40" s="6"/>
-        <tr r="AI52" s="6"/>
-        <tr r="AE37" s="6"/>
-        <tr r="R41" s="6"/>
-        <tr r="W41" s="6"/>
-        <tr r="AH49" s="6"/>
-        <tr r="S52" s="6"/>
-        <tr r="E34" s="6"/>
-        <tr r="L35" s="6"/>
-        <tr r="E49" s="6"/>
-        <tr r="R36" s="6"/>
-        <tr r="I52" s="6"/>
-        <tr r="AG36" s="6"/>
-        <tr r="AC51" s="6"/>
-        <tr r="W48" s="6"/>
-        <tr r="M42" s="6"/>
-        <tr r="J49" s="6"/>
-        <tr r="AE34" s="6"/>
-        <tr r="W52" s="6"/>
-        <tr r="S49" s="6"/>
-        <tr r="AH38" s="6"/>
-        <tr r="T46" s="6"/>
-        <tr r="AE33" s="6"/>
-        <tr r="K43" s="6"/>
-        <tr r="Z47" s="6"/>
-        <tr r="K48" s="6"/>
-        <tr r="M37" s="6"/>
-        <tr r="P35" s="6"/>
-        <tr r="AI50" s="6"/>
-        <tr r="E40" s="6"/>
-        <tr r="AE52" s="6"/>
-        <tr r="X50" s="6"/>
-        <tr r="O45" s="6"/>
-        <tr r="Z37" s="6"/>
-        <tr r="O49" s="6"/>
-        <tr r="Q34" s="6"/>
-        <tr r="F37" s="6"/>
-        <tr r="AA39" s="6"/>
-        <tr r="AC48" s="6"/>
-        <tr r="Y46" s="6"/>
-        <tr r="O42" s="6"/>
-        <tr r="E51" s="6"/>
-        <tr r="J50" s="6"/>
-        <tr r="AB50" s="6"/>
-        <tr r="V39" s="6"/>
-        <tr r="AF46" s="6"/>
-        <tr r="U40" s="6"/>
-        <tr r="O44" s="6"/>
-        <tr r="K37" s="6"/>
-        <tr r="H49" s="6"/>
-        <tr r="X35" s="6"/>
-        <tr r="R37" s="6"/>
-        <tr r="F47" s="6"/>
-        <tr r="K41" s="6"/>
-        <tr r="W50" s="6"/>
-        <tr r="AE46" s="6"/>
-        <tr r="AC44" s="6"/>
-        <tr r="AD43" s="6"/>
-        <tr r="X43" s="6"/>
-        <tr r="U36" s="6"/>
-        <tr r="Z38" s="6"/>
-        <tr r="Y42" s="6"/>
-        <tr r="X53" s="6"/>
-        <tr r="T42" s="6"/>
-        <tr r="AA49" s="6"/>
-        <tr r="AB34" s="6"/>
-        <tr r="M41" s="6"/>
-        <tr r="K38" s="6"/>
-        <tr r="M36" s="6"/>
-        <tr r="L34" s="6"/>
-        <tr r="F45" s="6"/>
-        <tr r="Y37" s="6"/>
-        <tr r="V35" s="6"/>
-        <tr r="Z46" s="6"/>
-        <tr r="Z41" s="6"/>
-        <tr r="Y44" s="6"/>
-        <tr r="K47" s="6"/>
-        <tr r="H45" s="6"/>
-        <tr r="L46" s="6"/>
-        <tr r="S35" s="6"/>
-        <tr r="AD36" s="6"/>
-        <tr r="H50" s="6"/>
-        <tr r="AC53" s="6"/>
-        <tr r="AE48" s="6"/>
-        <tr r="P37" s="6"/>
-        <tr r="K52" s="6"/>
-        <tr r="F50" s="6"/>
-        <tr r="X38" s="6"/>
-        <tr r="AF50" s="6"/>
-        <tr r="H41" s="6"/>
-        <tr r="V36" s="6"/>
-        <tr r="M43" s="6"/>
-        <tr r="AI47" s="6"/>
-        <tr r="H44" s="6"/>
-        <tr r="H46" s="6"/>
-        <tr r="N50" s="6"/>
-        <tr r="AD53" s="6"/>
-        <tr r="AI49" s="6"/>
-        <tr r="AC49" s="6"/>
-        <tr r="Y34" s="6"/>
-        <tr r="J47" s="6"/>
-        <tr r="AF51" s="6"/>
-        <tr r="AI51" s="6"/>
-        <tr r="T45" s="6"/>
-        <tr r="AA33" s="6"/>
-        <tr r="Q46" s="6"/>
-        <tr r="F44" s="6"/>
-        <tr r="AB35" s="6"/>
-        <tr r="AB38" s="6"/>
-        <tr r="N41" s="6"/>
-        <tr r="AA45" s="6"/>
-        <tr r="Z39" s="6"/>
-        <tr r="AC45" s="6"/>
-        <tr r="T38" s="6"/>
-        <tr r="AI39" s="6"/>
-        <tr r="F52" s="6"/>
-        <tr r="N39" s="6"/>
-        <tr r="AD46" s="6"/>
-        <tr r="E37" s="6"/>
-        <tr r="R39" s="6"/>
-        <tr r="Y45" s="6"/>
-        <tr r="U34" s="6"/>
-        <tr r="AB53" s="6"/>
-        <tr r="AC41" s="6"/>
-        <tr r="G44" s="6"/>
-        <tr r="AA50" s="6"/>
-        <tr r="G45" s="6"/>
-        <tr r="P38" s="6"/>
-        <tr r="F41" s="6"/>
-        <tr r="AD47" s="6"/>
-        <tr r="S43" s="6"/>
-        <tr r="G33" s="6"/>
-        <tr r="W51" s="6"/>
-        <tr r="V37" s="6"/>
-        <tr r="M50" s="6"/>
-        <tr r="J34" s="6"/>
-        <tr r="S37" s="6"/>
-        <tr r="N42" s="6"/>
-        <tr r="O34" s="6"/>
-        <tr r="Q53" s="6"/>
-        <tr r="L40" s="6"/>
-        <tr r="AB46" s="6"/>
-        <tr r="K51" s="6"/>
-        <tr r="L38" s="6"/>
-        <tr r="P34" s="6"/>
-        <tr r="AH37" s="6"/>
-        <tr r="K36" s="6"/>
-        <tr r="L42" s="6"/>
-        <tr r="F35" s="6"/>
-        <tr r="L36" s="6"/>
-        <tr r="T33" s="6"/>
-        <tr r="Q52" s="6"/>
-        <tr r="AA40" s="6"/>
-        <tr r="H42" s="6"/>
-        <tr r="S33" s="6"/>
-        <tr r="Q50" s="6"/>
-        <tr r="AI36" s="6"/>
-        <tr r="U35" s="6"/>
-        <tr r="AG38" s="6"/>
-        <tr r="O36" s="6"/>
-        <tr r="X41" s="6"/>
-        <tr r="AF45" s="6"/>
-        <tr r="R53" s="6"/>
-        <tr r="N46" s="6"/>
-        <tr r="X48" s="6"/>
-        <tr r="P39" s="6"/>
-        <tr r="AC34" s="6"/>
-        <tr r="V44" s="6"/>
-        <tr r="Q51" s="6"/>
-        <tr r="AC52" s="6"/>
-        <tr r="AF37" s="6"/>
-        <tr r="N33" s="6"/>
-        <tr r="AB42" s="6"/>
-        <tr r="AE44" s="6"/>
-        <tr r="P50" s="6"/>
-        <tr r="M53" s="6"/>
-        <tr r="AD42" s="6"/>
-        <tr r="G47" s="6"/>
-        <tr r="J45" s="6"/>
-        <tr r="I33" s="6"/>
-        <tr r="F53" s="6"/>
-        <tr r="AH35" s="6"/>
-        <tr r="AB41" s="6"/>
-        <tr r="AF43" s="6"/>
-        <tr r="G49" s="6"/>
-        <tr r="X44" s="6"/>
-        <tr r="M52" s="6"/>
-        <tr r="I47" s="6"/>
-        <tr r="AC33" s="6"/>
-        <tr r="AI38" s="6"/>
-        <tr r="Y38" s="6"/>
-        <tr r="K45" s="6"/>
-        <tr r="F40" s="6"/>
-        <tr r="V47" s="6"/>
-        <tr r="P47" s="6"/>
-        <tr r="E33" s="6"/>
-        <tr r="T34" s="6"/>
-        <tr r="V51" s="6"/>
-        <tr r="AI33" s="6"/>
-        <tr r="AA37" s="6"/>
-        <tr r="V33" s="6"/>
-        <tr r="M40" s="6"/>
-        <tr r="AG41" s="6"/>
-        <tr r="N47" s="6"/>
-        <tr r="R33" s="6"/>
-        <tr r="N40" s="6"/>
-        <tr r="AC39" s="6"/>
-        <tr r="Q48" s="6"/>
-        <tr r="U38" s="6"/>
-        <tr r="AG43" s="6"/>
-        <tr r="Q43" s="6"/>
-        <tr r="V43" s="6"/>
-        <tr r="O52" s="6"/>
-        <tr r="P44" s="6"/>
-        <tr r="N36" s="6"/>
-        <tr r="G48" s="6"/>
-        <tr r="H36" s="6"/>
-        <tr r="T50" s="6"/>
-        <tr r="K34" s="6"/>
-        <tr r="AD44" s="6"/>
-        <tr r="X51" s="6"/>
-        <tr r="M51" s="6"/>
-        <tr r="AB45" s="6"/>
-        <tr r="G50" s="6"/>
-        <tr r="P51" s="6"/>
-        <tr r="AD52" s="6"/>
-        <tr r="AF42" s="6"/>
-        <tr r="N35" s="6"/>
-        <tr r="AD33" s="6"/>
-        <tr r="AH52" s="6"/>
-        <tr r="I43" s="6"/>
-        <tr r="G35" s="6"/>
-        <tr r="W35" s="6"/>
-        <tr r="AH33" s="6"/>
-        <tr r="J52" s="6"/>
-        <tr r="J48" s="6"/>
-        <tr r="U46" s="6"/>
-        <tr r="W46" s="6"/>
-        <tr r="AB36" s="6"/>
-        <tr r="E44" s="6"/>
-        <tr r="G34" s="6"/>
-        <tr r="AE53" s="6"/>
-        <tr r="L45" s="6"/>
-        <tr r="AG35" s="6"/>
-        <tr r="AB52" s="6"/>
-        <tr r="N53" s="6"/>
-        <tr r="J35" s="6"/>
-        <tr r="I45" s="6"/>
-        <tr r="I51" s="6"/>
-        <tr r="Z45" s="6"/>
-        <tr r="W37" s="6"/>
-        <tr r="F34" s="6"/>
-        <tr r="AA51" s="6"/>
-        <tr r="AE36" s="6"/>
-        <tr r="I50" s="6"/>
-        <tr r="J41" s="6"/>
-        <tr r="G38" s="6"/>
-        <tr r="T35" s="6"/>
-        <tr r="H47" s="6"/>
-        <tr r="AI46" s="6"/>
-        <tr r="V40" s="6"/>
-        <tr r="O38" s="6"/>
-        <tr r="U44" s="6"/>
-        <tr r="T37" s="6"/>
-        <tr r="AF48" s="6"/>
-        <tr r="E43" s="6"/>
-        <tr r="J40" s="6"/>
-        <tr r="T40" s="6"/>
-        <tr r="Q38" s="6"/>
-        <tr r="AB51" s="6"/>
-        <tr r="V52" s="6"/>
-        <tr r="U37" s="6"/>
-        <tr r="N45" s="6"/>
-        <tr r="X34" s="6"/>
-        <tr r="M46" s="6"/>
-        <tr r="P43" s="6"/>
-        <tr r="L43" s="6"/>
-        <tr r="F51" s="6"/>
-        <tr r="M45" s="6"/>
-        <tr r="J44" s="6"/>
-        <tr r="T51" s="6"/>
-        <tr r="M38" s="6"/>
-        <tr r="Z44" s="6"/>
-        <tr r="W34" s="6"/>
-        <tr r="AC42" s="6"/>
-        <tr r="K39" s="6"/>
-        <tr r="S34" s="6"/>
-        <tr r="Z53" s="6"/>
-        <tr r="E39" s="6"/>
-        <tr r="J53" s="6"/>
-        <tr r="Q39" s="6"/>
-        <tr r="O33" s="6"/>
-        <tr r="Y51" s="6"/>
-        <tr r="L49" s="6"/>
-        <tr r="U51" s="6"/>
-        <tr r="H35" s="6"/>
-        <tr r="Z52" s="6"/>
-        <tr r="L41" s="6"/>
-        <tr r="P45" s="6"/>
-        <tr r="F38" s="6"/>
-        <tr r="AC40" s="6"/>
-        <tr r="T43" s="6"/>
-        <tr r="AD49" s="6"/>
-        <tr r="AE45" s="6"/>
-        <tr r="V42" s="6"/>
-        <tr r="O35" s="6"/>
-        <tr r="G40" s="6"/>
-        <tr r="AA43" s="6"/>
-        <tr r="X42" s="6"/>
-        <tr r="R34" s="6"/>
-        <tr r="S39" s="6"/>
-        <tr r="U47" s="6"/>
-        <tr r="E45" s="6"/>
-        <tr r="Y35" s="6"/>
-        <tr r="E46" s="6"/>
-        <tr r="AA42" s="6"/>
-        <tr r="N34" s="6"/>
-        <tr r="S42" s="6"/>
-        <tr r="U50" s="6"/>
-        <tr r="M47" s="6"/>
-        <tr r="X33" s="6"/>
-        <tr r="AI43" s="6"/>
-        <tr r="AH41" s="6"/>
-        <tr r="G36" s="6"/>
-        <tr r="M44" s="6"/>
-        <tr r="U53" s="6"/>
-        <tr r="AC50" s="6"/>
-        <tr r="H33" s="6"/>
-        <tr r="E52" s="6"/>
-        <tr r="R49" s="6"/>
-        <tr r="F42" s="6"/>
-        <tr r="O46" s="6"/>
-        <tr r="AH40" s="6"/>
-        <tr r="Q36" s="6"/>
-        <tr r="H53" s="6"/>
-        <tr r="L51" s="6"/>
-        <tr r="AG52" s="6"/>
-        <tr r="X52" s="6"/>
-        <tr r="R50" s="6"/>
-        <tr r="T48" s="6"/>
-        <tr r="AF49" s="6"/>
-        <tr r="AB39" s="6"/>
-        <tr r="X36" s="6"/>
-        <tr r="AI34" s="6"/>
-        <tr r="O50" s="6"/>
-        <tr r="S50" s="6"/>
-        <tr r="I48" s="6"/>
-        <tr r="W33" s="6"/>
-        <tr r="AB47" s="6"/>
-        <tr r="AC46" s="6"/>
-        <tr r="R52" s="6"/>
-        <tr r="I40" s="6"/>
-        <tr r="Z34" s="6"/>
-        <tr r="Y33" s="6"/>
-        <tr r="AF40" s="6"/>
-        <tr r="U52" s="6"/>
-        <tr r="AB40" s="6"/>
-        <tr r="AB48" s="6"/>
-        <tr r="U42" s="6"/>
-        <tr r="AI41" s="6"/>
-        <tr r="AD34" s="6"/>
-        <tr r="W53" s="6"/>
-        <tr r="F33" s="6"/>
-        <tr r="H51" s="6"/>
-        <tr r="T49" s="6"/>
-        <tr r="Y43" s="6"/>
-        <tr r="AA47" s="6"/>
-        <tr r="J33" s="6"/>
-        <tr r="N44" s="6"/>
-        <tr r="M33" s="6"/>
-        <tr r="AF47" s="6"/>
-        <tr r="AI53" s="6"/>
-        <tr r="AD39" s="6"/>
-        <tr r="T36" s="6"/>
-        <tr r="AD50" s="6"/>
-        <tr r="Q41" s="6"/>
-        <tr r="R42" s="6"/>
-        <tr r="AD35" s="6"/>
-        <tr r="AG44" s="6"/>
-        <tr r="L48" s="6"/>
-        <tr r="J39" s="6"/>
-        <tr r="Y36" s="6"/>
-        <tr r="S36" s="6"/>
-        <tr r="F43" s="6"/>
-        <tr r="X45" s="6"/>
-        <tr r="E41" s="6"/>
-        <tr r="AE41" s="6"/>
-        <tr r="Q47" s="6"/>
-        <tr r="AA48" s="6"/>
-        <tr r="E38" s="6"/>
-        <tr r="U39" s="6"/>
-        <tr r="E53" s="6"/>
-        <tr r="G37" s="6"/>
-        <tr r="X37" s="6"/>
-        <tr r="P53" s="6"/>
-        <tr r="V53" s="6"/>
-        <tr r="Q37" s="6"/>
-        <tr r="AF44" s="6"/>
-        <tr r="AF53" s="6"/>
-        <tr r="V41" s="6"/>
-        <tr r="AI44" s="6"/>
-        <tr r="AA34" s="6"/>
-        <tr r="W36" s="6"/>
-        <tr r="AG42" s="6"/>
-        <tr r="AA53" s="6"/>
-        <tr r="O37" s="6"/>
-        <tr r="Z36" s="6"/>
-        <tr r="K42" s="6"/>
-        <tr r="S53" s="6"/>
-        <tr r="Z43" s="6"/>
-        <tr r="AA44" s="6"/>
-        <tr r="AF39" s="6"/>
-        <tr r="S41" s="6"/>
-        <tr r="AH45" s="6"/>
-        <tr r="W45" s="6"/>
-        <tr r="AD37" s="6"/>
-        <tr r="P41" s="6"/>
-        <tr r="AH51" s="6"/>
-        <tr r="Q44" s="6"/>
-        <tr r="E35" s="6"/>
-        <tr r="AA41" s="6"/>
-        <tr r="X40" s="6"/>
-        <tr r="G43" s="6"/>
-        <tr r="AG45" s="6"/>
-        <tr r="P42" s="6"/>
-        <tr r="W39" s="6"/>
-        <tr r="Q35" s="6"/>
-        <tr r="R43" s="6"/>
-        <tr r="AE49" s="6"/>
-        <tr r="Y48" s="6"/>
-        <tr r="AF41" s="6"/>
-        <tr r="AH48" s="6"/>
-        <tr r="I53" s="6"/>
-        <tr r="AE51" s="6"/>
-        <tr r="AI35" s="6"/>
-        <tr r="AI48" s="6"/>
-        <tr r="AB37" s="6"/>
-        <tr r="AG53" s="6"/>
-        <tr r="AG47" s="6"/>
-        <tr r="AC43" s="6"/>
-        <tr r="O53" s="6"/>
-        <tr r="J36" s="6"/>
-        <tr r="F48" s="6"/>
-        <tr r="I38" s="6"/>
-        <tr r="V34" s="6"/>
-        <tr r="AA35" s="6"/>
-        <tr r="AF36" s="6"/>
-        <tr r="E47" s="6"/>
-        <tr r="AC38" s="6"/>
-        <tr r="H40" s="6"/>
-        <tr r="L52" s="6"/>
-        <tr r="T41" s="6"/>
-        <tr r="AB33" s="6"/>
-        <tr r="J38" s="6"/>
-        <tr r="U41" s="6"/>
-        <tr r="S40" s="6"/>
-        <tr r="AG39" s="6"/>
-        <tr r="V45" s="6"/>
-        <tr r="Q40" s="6"/>
-        <tr r="O48" s="6"/>
-        <tr r="L47" s="6"/>
-        <tr r="AE47" s="6"/>
-        <tr r="AA38" s="6"/>
-        <tr r="V49" s="6"/>
-        <tr r="AD38" s="6"/>
-        <tr r="X49" s="6"/>
-        <tr r="AG48" s="6"/>
-        <tr r="W44" s="6"/>
-        <tr r="L50" s="6"/>
-        <tr r="AI37" s="6"/>
-        <tr r="AA36" s="6"/>
-        <tr r="N48" s="6"/>
-        <tr r="AF33" s="6"/>
-        <tr r="H43" s="6"/>
-        <tr r="S38" s="6"/>
-        <tr r="Q33" s="6"/>
-        <tr r="Z49" s="6"/>
-        <tr r="P48" s="6"/>
-        <tr r="G46" s="6"/>
-        <tr r="H34" s="6"/>
-        <tr r="AE50" s="6"/>
-        <tr r="N52" s="6"/>
-        <tr r="Q45" s="6"/>
-        <tr r="AF38" s="6"/>
-        <tr r="K46" s="6"/>
-        <tr r="E42" s="6"/>
-        <tr r="I34" s="6"/>
-        <tr r="AI42" s="6"/>
-        <tr r="U45" s="6"/>
-        <tr r="Z35" s="6"/>
-        <tr r="I35" s="6"/>
-        <tr r="R35" s="6"/>
-        <tr r="R38" s="6"/>
-        <tr r="AA46" s="6"/>
-        <tr r="O41" s="6"/>
-        <tr r="I36" s="6"/>
-        <tr r="R47" s="6"/>
-        <tr r="AD48" s="6"/>
-        <tr r="J46" s="6"/>
-        <tr r="X47" s="6"/>
-        <tr r="Z40" s="6"/>
-        <tr r="G53" s="6"/>
-        <tr r="H39" s="6"/>
-        <tr r="AC47" s="6"/>
-        <tr r="J37" s="6"/>
-        <tr r="J42" s="6"/>
-        <tr r="K44" s="6"/>
-        <tr r="AH46" s="6"/>
-        <tr r="AH39" s="6"/>
-        <tr r="R46" s="6"/>
-        <tr r="U49" s="6"/>
-        <tr r="O39" s="6"/>
-        <tr r="K49" s="6"/>
-        <tr r="S47" s="6"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b4a1451cdcf3425abd0aa25987aacf77">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>53b64d57-08dc-4662-84e4-bf3f01a8b651</stp>
-        <tr r="G47" s="15"/>
-        <tr r="F56" s="15"/>
-        <tr r="E51" s="15"/>
-        <tr r="E55" s="15"/>
-        <tr r="F54" s="15"/>
-        <tr r="F51" s="15"/>
-        <tr r="G54" s="15"/>
-        <tr r="F52" s="15"/>
-        <tr r="G55" s="15"/>
-        <tr r="G49" s="15"/>
-        <tr r="G56" s="15"/>
-        <tr r="F50" s="15"/>
-        <tr r="E56" s="15"/>
-        <tr r="E47" s="15"/>
-        <tr r="F58" s="15"/>
-        <tr r="E58" s="15"/>
-        <tr r="G50" s="15"/>
-        <tr r="F48" s="15"/>
-        <tr r="E49" s="15"/>
-        <tr r="G58" s="15"/>
-        <tr r="E54" s="15"/>
-        <tr r="F53" s="15"/>
-        <tr r="F57" s="15"/>
-        <tr r="E53" s="15"/>
-        <tr r="F55" s="15"/>
-        <tr r="G48" s="15"/>
-        <tr r="G52" s="15"/>
-        <tr r="E48" s="15"/>
-        <tr r="E52" s="15"/>
-        <tr r="E57" s="15"/>
-        <tr r="E50" s="15"/>
-        <tr r="G53" s="15"/>
-        <tr r="G57" s="15"/>
-        <tr r="F49" s="15"/>
-        <tr r="G51" s="15"/>
-        <tr r="F47" s="15"/>
+        <stp>f3aa247a-46e3-4a9f-b2a2-0a3c9ccc11aa</stp>
+        <tr r="K51" s="14"/>
+        <tr r="J50" s="14"/>
+        <tr r="E50" s="14"/>
+        <tr r="J51" s="14"/>
+        <tr r="F51" s="14"/>
+        <tr r="G51" s="14"/>
+        <tr r="E51" s="14"/>
+        <tr r="H50" s="14"/>
+        <tr r="F50" s="14"/>
+        <tr r="K50" s="14"/>
+        <tr r="G50" s="14"/>
+        <tr r="H51" s="14"/>
+        <tr r="I51" s="14"/>
+        <tr r="I50" s="14"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>15b7061f-b121-422a-8d7a-9b5cbbe4ef97</stp>
+        <stp>5fd70cd2-6859-4ff0-9d07-fc2e1617dcc7</stp>
+        <tr r="F116" s="15"/>
+        <tr r="G113" s="15"/>
+        <tr r="E124" s="15"/>
+        <tr r="E106" s="15"/>
+        <tr r="F124" s="15"/>
+        <tr r="E105" s="15"/>
+        <tr r="G121" s="15"/>
+        <tr r="E115" s="15"/>
+        <tr r="G105" s="15"/>
+        <tr r="G110" s="15"/>
+        <tr r="G111" s="15"/>
+        <tr r="F104" s="15"/>
+        <tr r="G125" s="15"/>
+        <tr r="F115" s="15"/>
+        <tr r="G112" s="15"/>
+        <tr r="E111" s="15"/>
+        <tr r="G104" s="15"/>
+        <tr r="E119" s="15"/>
+        <tr r="G106" s="15"/>
+        <tr r="G116" s="15"/>
+        <tr r="E125" s="15"/>
+        <tr r="F111" s="15"/>
+        <tr r="E116" s="15"/>
+        <tr r="E104" s="15"/>
+        <tr r="G123" s="15"/>
+        <tr r="G109" s="15"/>
+        <tr r="E110" s="15"/>
+        <tr r="E107" s="15"/>
+        <tr r="E112" s="15"/>
+        <tr r="G124" s="15"/>
+        <tr r="G108" s="15"/>
+        <tr r="G114" s="15"/>
+        <tr r="G107" s="15"/>
+        <tr r="G120" s="15"/>
+        <tr r="F114" s="15"/>
+        <tr r="E120" s="15"/>
+        <tr r="F110" s="15"/>
+        <tr r="E108" s="15"/>
+        <tr r="F103" s="15"/>
+        <tr r="E126" s="15"/>
+        <tr r="G117" s="15"/>
+        <tr r="G126" s="15"/>
+        <tr r="F122" s="15"/>
+        <tr r="F107" s="15"/>
+        <tr r="F123" s="15"/>
+        <tr r="F109" s="15"/>
+        <tr r="F105" s="15"/>
+        <tr r="E117" s="15"/>
+        <tr r="F120" s="15"/>
+        <tr r="F117" s="15"/>
+        <tr r="F126" s="15"/>
+        <tr r="E103" s="15"/>
+        <tr r="F108" s="15"/>
+        <tr r="E109" s="15"/>
+        <tr r="E114" s="15"/>
+        <tr r="G122" s="15"/>
+        <tr r="F118" s="15"/>
+        <tr r="F121" s="15"/>
+        <tr r="E121" s="15"/>
+        <tr r="G118" s="15"/>
+        <tr r="E118" s="15"/>
+        <tr r="E122" s="15"/>
+        <tr r="F112" s="15"/>
+        <tr r="F119" s="15"/>
+        <tr r="F125" s="15"/>
+        <tr r="F106" s="15"/>
+        <tr r="G103" s="15"/>
+        <tr r="G119" s="15"/>
+        <tr r="F113" s="15"/>
+        <tr r="E123" s="15"/>
+        <tr r="G115" s="15"/>
+        <tr r="E113" s="15"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.65da0fdadb0f4c92ba90b35c062623cd">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0e004a90-5026-4400-9194-2ed2ebd31403</stp>
+        <tr r="N40" s="8"/>
+        <tr r="R32" s="8"/>
+        <tr r="R38" s="8"/>
+        <tr r="O42" s="8"/>
+        <tr r="O33" s="8"/>
+        <tr r="O44" s="8"/>
+        <tr r="Q33" s="8"/>
+        <tr r="Q31" s="8"/>
+        <tr r="P34" s="8"/>
+        <tr r="N32" s="8"/>
+        <tr r="P49" s="8"/>
+        <tr r="R33" s="8"/>
+        <tr r="P33" s="8"/>
+        <tr r="O38" s="8"/>
+        <tr r="N49" s="8"/>
+        <tr r="N39" s="8"/>
+        <tr r="R35" s="8"/>
+        <tr r="Q45" s="8"/>
+        <tr r="R48" s="8"/>
+        <tr r="R37" s="8"/>
+        <tr r="O51" s="8"/>
+        <tr r="P35" s="8"/>
+        <tr r="N33" s="8"/>
+        <tr r="P38" s="8"/>
+        <tr r="N37" s="8"/>
+        <tr r="Q39" s="8"/>
+        <tr r="P31" s="8"/>
+        <tr r="R31" s="8"/>
+        <tr r="R49" s="8"/>
+        <tr r="R41" s="8"/>
+        <tr r="O36" s="8"/>
+        <tr r="R43" s="8"/>
+        <tr r="N43" s="8"/>
+        <tr r="P46" s="8"/>
+        <tr r="Q44" s="8"/>
+        <tr r="Q32" s="8"/>
+        <tr r="P51" s="8"/>
+        <tr r="R40" s="8"/>
+        <tr r="P50" s="8"/>
+        <tr r="R51" s="8"/>
+        <tr r="O31" s="8"/>
+        <tr r="N44" s="8"/>
+        <tr r="Q34" s="8"/>
+        <tr r="O39" s="8"/>
+        <tr r="P43" s="8"/>
+        <tr r="P44" s="8"/>
+        <tr r="O50" s="8"/>
+        <tr r="N42" s="8"/>
+        <tr r="P36" s="8"/>
+        <tr r="R42" s="8"/>
+        <tr r="Q36" s="8"/>
+        <tr r="P41" s="8"/>
+        <tr r="R39" s="8"/>
+        <tr r="P48" s="8"/>
+        <tr r="P42" s="8"/>
+        <tr r="R50" s="8"/>
+        <tr r="O41" s="8"/>
+        <tr r="O32" s="8"/>
+        <tr r="P37" s="8"/>
+        <tr r="O45" s="8"/>
+        <tr r="N41" s="8"/>
+        <tr r="Q41" s="8"/>
+        <tr r="Q35" s="8"/>
+        <tr r="Q37" s="8"/>
+        <tr r="N35" s="8"/>
+        <tr r="O37" s="8"/>
+        <tr r="O35" s="8"/>
+        <tr r="Q38" s="8"/>
+        <tr r="Q43" s="8"/>
+        <tr r="N50" s="8"/>
+        <tr r="P47" s="8"/>
+        <tr r="R34" s="8"/>
+        <tr r="R44" s="8"/>
+        <tr r="N51" s="8"/>
+        <tr r="O43" s="8"/>
+        <tr r="N34" s="8"/>
+        <tr r="R47" s="8"/>
+        <tr r="N31" s="8"/>
+        <tr r="O34" s="8"/>
+        <tr r="N48" s="8"/>
+        <tr r="N46" s="8"/>
+        <tr r="P40" s="8"/>
+        <tr r="O49" s="8"/>
+        <tr r="R45" s="8"/>
+        <tr r="P45" s="8"/>
+        <tr r="Q51" s="8"/>
+        <tr r="Q46" s="8"/>
+        <tr r="Q42" s="8"/>
+        <tr r="R36" s="8"/>
+        <tr r="N38" s="8"/>
+        <tr r="N45" s="8"/>
+        <tr r="N36" s="8"/>
+        <tr r="Q48" s="8"/>
+        <tr r="N47" s="8"/>
         <tr r="O40" s="8"/>
-        <tr r="O38" s="8"/>
-        <tr r="R49" s="8"/>
-        <tr r="O45" s="8"/>
-        <tr r="N32" s="8"/>
-        <tr r="Q46" s="8"/>
-        <tr r="P49" s="8"/>
-        <tr r="O31" s="8"/>
-        <tr r="P37" s="8"/>
         <tr r="O47" s="8"/>
-        <tr r="P43" s="8"/>
-        <tr r="P47" s="8"/>
-        <tr r="O51" s="8"/>
-        <tr r="R38" s="8"/>
-        <tr r="R39" s="8"/>
-        <tr r="N36" s="8"/>
-        <tr r="O44" s="8"/>
-        <tr r="P34" s="8"/>
-        <tr r="O35" s="8"/>
-        <tr r="R45" s="8"/>
-        <tr r="Q44" s="8"/>
-        <tr r="N44" s="8"/>
-        <tr r="N37" s="8"/>
+        <tr r="P39" s="8"/>
+        <tr r="Q50" s="8"/>
+        <tr r="O48" s="8"/>
         <tr r="R46" s="8"/>
-        <tr r="N50" s="8"/>
-        <tr r="R31" s="8"/>
-        <tr r="N48" s="8"/>
-        <tr r="P50" s="8"/>
-        <tr r="N41" s="8"/>
+        <tr r="Q40" s="8"/>
+        <tr r="O46" s="8"/>
         <tr r="P32" s="8"/>
-        <tr r="Q31" s="8"/>
-        <tr r="R51" s="8"/>
-        <tr r="P33" s="8"/>
-        <tr r="R48" s="8"/>
-        <tr r="R40" s="8"/>
-        <tr r="N45" s="8"/>
-        <tr r="R44" s="8"/>
-        <tr r="N33" s="8"/>
-        <tr r="Q34" s="8"/>
-        <tr r="Q45" s="8"/>
-        <tr r="O49" s="8"/>
-        <tr r="O41" s="8"/>
-        <tr r="O42" s="8"/>
-        <tr r="Q40" s="8"/>
-        <tr r="Q51" s="8"/>
-        <tr r="P51" s="8"/>
-        <tr r="R35" s="8"/>
-        <tr r="P42" s="8"/>
-        <tr r="P31" s="8"/>
-        <tr r="N43" s="8"/>
-        <tr r="O48" s="8"/>
-        <tr r="R37" s="8"/>
-        <tr r="P41" s="8"/>
-        <tr r="N42" s="8"/>
-        <tr r="Q35" s="8"/>
-        <tr r="R33" s="8"/>
-        <tr r="R32" s="8"/>
-        <tr r="O37" s="8"/>
-        <tr r="N39" s="8"/>
-        <tr r="P46" s="8"/>
-        <tr r="O33" s="8"/>
-        <tr r="O43" s="8"/>
-        <tr r="O36" s="8"/>
-        <tr r="Q39" s="8"/>
-        <tr r="O39" s="8"/>
-        <tr r="O34" s="8"/>
-        <tr r="R41" s="8"/>
-        <tr r="O50" s="8"/>
-        <tr r="O46" s="8"/>
-        <tr r="Q42" s="8"/>
-        <tr r="P44" s="8"/>
-        <tr r="R43" s="8"/>
-        <tr r="N35" s="8"/>
-        <tr r="N40" s="8"/>
-        <tr r="O32" s="8"/>
-        <tr r="R34" s="8"/>
-        <tr r="P35" s="8"/>
-        <tr r="N38" s="8"/>
-        <tr r="N34" s="8"/>
-        <tr r="R50" s="8"/>
-        <tr r="N31" s="8"/>
+        <tr r="Q47" s="8"/>
         <tr r="Q49" s="8"/>
-        <tr r="Q38" s="8"/>
-        <tr r="P45" s="8"/>
-        <tr r="Q32" s="8"/>
-        <tr r="P39" s="8"/>
-        <tr r="Q43" s="8"/>
-        <tr r="Q37" s="8"/>
-        <tr r="R42" s="8"/>
-        <tr r="Q33" s="8"/>
-        <tr r="N46" s="8"/>
-        <tr r="N47" s="8"/>
-        <tr r="Q41" s="8"/>
-        <tr r="Q47" s="8"/>
-        <tr r="P40" s="8"/>
-        <tr r="R47" s="8"/>
-        <tr r="P36" s="8"/>
-        <tr r="N49" s="8"/>
-        <tr r="Q48" s="8"/>
-        <tr r="P48" s="8"/>
-        <tr r="N51" s="8"/>
-        <tr r="P38" s="8"/>
-        <tr r="Q36" s="8"/>
-        <tr r="R36" s="8"/>
-        <tr r="Q50" s="8"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.65da0fdadb0f4c92ba90b35c062623cd">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0f746a6e-7a56-4c23-8a2e-37e3a692483d</stp>
+        <tr r="F32" s="8"/>
+        <tr r="H45" s="8"/>
+        <tr r="G38" s="8"/>
+        <tr r="I46" s="8"/>
+        <tr r="I39" s="8"/>
+        <tr r="H51" s="8"/>
+        <tr r="G49" s="8"/>
+        <tr r="F40" s="8"/>
+        <tr r="F46" s="8"/>
+        <tr r="K37" s="8"/>
+        <tr r="K43" s="8"/>
+        <tr r="F38" s="8"/>
+        <tr r="H32" s="8"/>
+        <tr r="J45" s="8"/>
+        <tr r="I33" s="8"/>
+        <tr r="I32" s="8"/>
+        <tr r="L43" s="8"/>
+        <tr r="J32" s="8"/>
+        <tr r="E49" s="8"/>
+        <tr r="G33" s="8"/>
+        <tr r="I51" s="8"/>
+        <tr r="J51" s="8"/>
+        <tr r="I49" s="8"/>
+        <tr r="E34" s="8"/>
+        <tr r="F45" s="8"/>
+        <tr r="L39" s="8"/>
+        <tr r="H31" s="8"/>
+        <tr r="H41" s="8"/>
+        <tr r="L44" s="8"/>
+        <tr r="F35" s="8"/>
+        <tr r="F39" s="8"/>
+        <tr r="L41" s="8"/>
+        <tr r="E48" s="8"/>
+        <tr r="F36" s="8"/>
+        <tr r="L51" s="8"/>
+        <tr r="L35" s="8"/>
+        <tr r="F43" s="8"/>
+        <tr r="E31" s="8"/>
+        <tr r="L46" s="8"/>
+        <tr r="G31" s="8"/>
+        <tr r="I41" s="8"/>
+        <tr r="G51" s="8"/>
+        <tr r="K31" s="8"/>
+        <tr r="F50" s="8"/>
+        <tr r="H43" s="8"/>
+        <tr r="E50" s="8"/>
+        <tr r="I45" s="8"/>
+        <tr r="J46" s="8"/>
+        <tr r="J50" s="8"/>
+        <tr r="G35" s="8"/>
+        <tr r="H46" s="8"/>
+        <tr r="L31" s="8"/>
+        <tr r="E39" s="8"/>
+        <tr r="J47" s="8"/>
+        <tr r="E47" s="8"/>
+        <tr r="K51" s="8"/>
+        <tr r="J36" s="8"/>
+        <tr r="G47" s="8"/>
+        <tr r="F42" s="8"/>
+        <tr r="K42" s="8"/>
+        <tr r="L38" s="8"/>
+        <tr r="H47" s="8"/>
+        <tr r="K34" s="8"/>
+        <tr r="E37" s="8"/>
+        <tr r="G42" s="8"/>
+        <tr r="H49" s="8"/>
+        <tr r="G34" s="8"/>
+        <tr r="F49" s="8"/>
+        <tr r="G44" s="8"/>
+        <tr r="K40" s="8"/>
+        <tr r="K45" s="8"/>
+        <tr r="E42" s="8"/>
+        <tr r="J33" s="8"/>
+        <tr r="I34" s="8"/>
+        <tr r="I38" s="8"/>
+        <tr r="I36" s="8"/>
+        <tr r="H44" s="8"/>
+        <tr r="K44" s="8"/>
+        <tr r="F34" s="8"/>
+        <tr r="J34" s="8"/>
+        <tr r="K47" s="8"/>
+        <tr r="J43" s="8"/>
+        <tr r="K32" s="8"/>
+        <tr r="G48" s="8"/>
+        <tr r="L47" s="8"/>
+        <tr r="F37" s="8"/>
+        <tr r="K50" s="8"/>
+        <tr r="E43" s="8"/>
+        <tr r="L40" s="8"/>
+        <tr r="G37" s="8"/>
+        <tr r="H50" s="8"/>
+        <tr r="I37" s="8"/>
+        <tr r="H35" s="8"/>
+        <tr r="L45" s="8"/>
+        <tr r="J35" s="8"/>
+        <tr r="J41" s="8"/>
+        <tr r="G32" s="8"/>
+        <tr r="H37" s="8"/>
+        <tr r="J39" s="8"/>
+        <tr r="K48" s="8"/>
+        <tr r="K35" s="8"/>
+        <tr r="F51" s="8"/>
+        <tr r="L42" s="8"/>
+        <tr r="L49" s="8"/>
+        <tr r="G50" s="8"/>
+        <tr r="L50" s="8"/>
+        <tr r="E32" s="8"/>
+        <tr r="J48" s="8"/>
+        <tr r="I31" s="8"/>
+        <tr r="E38" s="8"/>
+        <tr r="E44" s="8"/>
+        <tr r="K38" s="8"/>
+        <tr r="K49" s="8"/>
+        <tr r="H36" s="8"/>
+        <tr r="I43" s="8"/>
+        <tr r="K36" s="8"/>
+        <tr r="G39" s="8"/>
+        <tr r="H38" s="8"/>
+        <tr r="E40" s="8"/>
+        <tr r="J31" s="8"/>
+        <tr r="K33" s="8"/>
+        <tr r="H40" s="8"/>
+        <tr r="I44" s="8"/>
+        <tr r="G40" s="8"/>
+        <tr r="F41" s="8"/>
+        <tr r="L37" s="8"/>
+        <tr r="F31" s="8"/>
+        <tr r="E45" s="8"/>
+        <tr r="I40" s="8"/>
+        <tr r="G36" s="8"/>
+        <tr r="E46" s="8"/>
+        <tr r="K39" s="8"/>
+        <tr r="K41" s="8"/>
+        <tr r="J44" s="8"/>
+        <tr r="G46" s="8"/>
+        <tr r="F47" s="8"/>
+        <tr r="L33" s="8"/>
+        <tr r="F48" s="8"/>
+        <tr r="E36" s="8"/>
+        <tr r="J49" s="8"/>
+        <tr r="G43" s="8"/>
+        <tr r="L34" s="8"/>
+        <tr r="G41" s="8"/>
+        <tr r="H39" s="8"/>
+        <tr r="I47" s="8"/>
+        <tr r="F44" s="8"/>
+        <tr r="E41" s="8"/>
+        <tr r="J42" s="8"/>
+        <tr r="J38" s="8"/>
+        <tr r="L48" s="8"/>
+        <tr r="H34" s="8"/>
+        <tr r="H48" s="8"/>
+        <tr r="L36" s="8"/>
+        <tr r="I50" s="8"/>
+        <tr r="L32" s="8"/>
+        <tr r="G45" s="8"/>
+        <tr r="I42" s="8"/>
+        <tr r="I48" s="8"/>
+        <tr r="H33" s="8"/>
+        <tr r="K46" s="8"/>
+        <tr r="I35" s="8"/>
+        <tr r="E33" s="8"/>
+        <tr r="H42" s="8"/>
+        <tr r="J37" s="8"/>
+        <tr r="E51" s="8"/>
+        <tr r="J40" s="8"/>
+        <tr r="F33" s="8"/>
+        <tr r="E35" s="8"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>288a79db-0f3d-497f-86fe-27c6eedca21e</stp>
-        <tr r="E46" s="5"/>
-        <tr r="F46" s="5"/>
-        <tr r="E45" s="5"/>
-        <tr r="F45" s="5"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b4a1451cdcf3425abd0aa25987aacf77">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>14135a36-b0ef-4ccd-b15f-563b8f7d5f1f</stp>
-        <tr r="G28" s="9"/>
-        <tr r="F30" s="9"/>
-        <tr r="E29" s="9"/>
-        <tr r="E37" s="9"/>
-        <tr r="G32" s="9"/>
-        <tr r="E30" s="9"/>
-        <tr r="E38" s="9"/>
-        <tr r="E33" s="9"/>
-        <tr r="G34" s="9"/>
-        <tr r="F29" s="9"/>
-        <tr r="F32" s="9"/>
-        <tr r="G39" s="9"/>
-        <tr r="G37" s="9"/>
-        <tr r="F34" s="9"/>
-        <tr r="E36" s="9"/>
-        <tr r="G29" s="9"/>
-        <tr r="F28" s="9"/>
-        <tr r="F31" s="9"/>
-        <tr r="F37" s="9"/>
-        <tr r="G36" s="9"/>
-        <tr r="E35" s="9"/>
-        <tr r="F35" s="9"/>
-        <tr r="E31" s="9"/>
-        <tr r="E34" s="9"/>
-        <tr r="G38" s="9"/>
-        <tr r="E32" s="9"/>
-        <tr r="E39" s="9"/>
-        <tr r="G35" s="9"/>
-        <tr r="F33" s="9"/>
-        <tr r="G33" s="9"/>
-        <tr r="F39" s="9"/>
-        <tr r="G31" s="9"/>
-        <tr r="G30" s="9"/>
-        <tr r="F38" s="9"/>
-        <tr r="E28" s="9"/>
-        <tr r="F36" s="9"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b4a1451cdcf3425abd0aa25987aacf77">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5efd7384-3e3b-4818-a593-37b414771080</stp>
-        <tr r="I50" s="14"/>
-        <tr r="J50" s="14"/>
-        <tr r="E50" s="14"/>
-        <tr r="J51" s="14"/>
-        <tr r="K51" s="14"/>
-        <tr r="H50" s="14"/>
-        <tr r="G51" s="14"/>
-        <tr r="K50" s="14"/>
-        <tr r="H51" s="14"/>
-        <tr r="E51" s="14"/>
-        <tr r="F51" s="14"/>
-        <tr r="G50" s="14"/>
-        <tr r="F50" s="14"/>
-        <tr r="I51" s="14"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b4a1451cdcf3425abd0aa25987aacf77">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>22d0c6b0-73af-49e9-9d0d-043fc53a70cb</stp>
-        <tr r="L32" s="8"/>
-        <tr r="F45" s="8"/>
-        <tr r="I40" s="8"/>
-        <tr r="F37" s="8"/>
-        <tr r="K41" s="8"/>
-        <tr r="L39" s="8"/>
-        <tr r="J50" s="8"/>
-        <tr r="J43" s="8"/>
-        <tr r="K50" s="8"/>
-        <tr r="E38" s="8"/>
-        <tr r="J44" s="8"/>
-        <tr r="F32" s="8"/>
-        <tr r="E32" s="8"/>
-        <tr r="E43" s="8"/>
-        <tr r="E44" s="8"/>
-        <tr r="G46" s="8"/>
-        <tr r="G45" s="8"/>
-        <tr r="H31" s="8"/>
-        <tr r="G35" s="8"/>
-        <tr r="H45" s="8"/>
-        <tr r="G38" s="8"/>
-        <tr r="H41" s="8"/>
-        <tr r="H46" s="8"/>
-        <tr r="F49" s="8"/>
-        <tr r="L40" s="8"/>
-        <tr r="F47" s="8"/>
-        <tr r="I42" s="8"/>
-        <tr r="L44" s="8"/>
-        <tr r="L31" s="8"/>
-        <tr r="G36" s="8"/>
-        <tr r="G37" s="8"/>
-        <tr r="K38" s="8"/>
-        <tr r="L33" s="8"/>
-        <tr r="I45" s="8"/>
-        <tr r="I46" s="8"/>
-        <tr r="F35" s="8"/>
-        <tr r="E39" s="8"/>
-        <tr r="K32" s="8"/>
-        <tr r="K49" s="8"/>
-        <tr r="H50" s="8"/>
-        <tr r="H36" s="8"/>
-        <tr r="F48" s="8"/>
-        <tr r="J51" s="8"/>
-        <tr r="I39" s="8"/>
-        <tr r="F39" s="8"/>
-        <tr r="G44" s="8"/>
-        <tr r="G48" s="8"/>
-        <tr r="I43" s="8"/>
-        <tr r="J46" s="8"/>
-        <tr r="H51" s="8"/>
-        <tr r="J47" s="8"/>
-        <tr r="E46" s="8"/>
-        <tr r="I37" s="8"/>
-        <tr r="E36" s="8"/>
-        <tr r="L47" s="8"/>
-        <tr r="H35" s="8"/>
-        <tr r="G49" s="8"/>
-        <tr r="L41" s="8"/>
-        <tr r="F40" s="8"/>
-        <tr r="E47" s="8"/>
-        <tr r="L45" s="8"/>
-        <tr r="K36" s="8"/>
-        <tr r="J49" s="8"/>
-        <tr r="I49" s="8"/>
-        <tr r="G43" s="8"/>
-        <tr r="F46" s="8"/>
-        <tr r="K51" s="8"/>
-        <tr r="J48" s="8"/>
-        <tr r="K37" s="8"/>
-        <tr r="J36" s="8"/>
-        <tr r="K39" s="8"/>
-        <tr r="G39" s="8"/>
-        <tr r="L34" s="8"/>
-        <tr r="I48" s="8"/>
-        <tr r="K40" s="8"/>
-        <tr r="K45" s="8"/>
-        <tr r="J35" s="8"/>
-        <tr r="H33" s="8"/>
-        <tr r="G47" s="8"/>
-        <tr r="H38" s="8"/>
-        <tr r="G41" s="8"/>
-        <tr r="K43" s="8"/>
-        <tr r="E48" s="8"/>
-        <tr r="F42" s="8"/>
-        <tr r="E42" s="8"/>
-        <tr r="J41" s="8"/>
-        <tr r="K46" s="8"/>
-        <tr r="F36" s="8"/>
-        <tr r="J33" s="8"/>
-        <tr r="G32" s="8"/>
-        <tr r="E40" s="8"/>
-        <tr r="H39" s="8"/>
-        <tr r="L51" s="8"/>
-        <tr r="I34" s="8"/>
-        <tr r="I31" s="8"/>
-        <tr r="J31" s="8"/>
-        <tr r="E34" s="8"/>
-        <tr r="F38" s="8"/>
-        <tr r="L35" s="8"/>
-        <tr r="H37" s="8"/>
-        <tr r="K33" s="8"/>
-        <tr r="I47" s="8"/>
-        <tr r="I35" s="8"/>
-        <tr r="E33" s="8"/>
-        <tr r="H32" s="8"/>
-        <tr r="F43" s="8"/>
-        <tr r="K42" s="8"/>
-        <tr r="I38" s="8"/>
-        <tr r="J39" s="8"/>
-        <tr r="H40" s="8"/>
-        <tr r="F44" s="8"/>
-        <tr r="H42" s="8"/>
-        <tr r="J45" s="8"/>
-        <tr r="E31" s="8"/>
-        <tr r="L38" s="8"/>
-        <tr r="I36" s="8"/>
-        <tr r="K48" s="8"/>
-        <tr r="E41" s="8"/>
-        <tr r="I33" s="8"/>
-        <tr r="L46" s="8"/>
-        <tr r="H47" s="8"/>
-        <tr r="G31" s="8"/>
-        <tr r="J42" s="8"/>
-        <tr r="J37" s="8"/>
-        <tr r="I32" s="8"/>
-        <tr r="I44" s="8"/>
-        <tr r="G40" s="8"/>
-        <tr r="J38" s="8"/>
-        <tr r="E51" s="8"/>
-        <tr r="I41" s="8"/>
-        <tr r="K34" s="8"/>
-        <tr r="K35" s="8"/>
-        <tr r="F41" s="8"/>
-        <tr r="L48" s="8"/>
-        <tr r="G51" s="8"/>
-        <tr r="E37" s="8"/>
-        <tr r="H44" s="8"/>
-        <tr r="H34" s="8"/>
-        <tr r="L43" s="8"/>
-        <tr r="J32" s="8"/>
-        <tr r="K44" s="8"/>
-        <tr r="F51" s="8"/>
-        <tr r="L37" s="8"/>
-        <tr r="H48" s="8"/>
-        <tr r="K31" s="8"/>
-        <tr r="G42" s="8"/>
-        <tr r="F34" s="8"/>
-        <tr r="L42" s="8"/>
-        <tr r="J40" s="8"/>
-        <tr r="E49" s="8"/>
-        <tr r="F50" s="8"/>
-        <tr r="J34" s="8"/>
-        <tr r="L49" s="8"/>
-        <tr r="F31" s="8"/>
-        <tr r="L36" s="8"/>
-        <tr r="F33" s="8"/>
-        <tr r="G33" s="8"/>
-        <tr r="H43" s="8"/>
-        <tr r="H49" s="8"/>
-        <tr r="K47" s="8"/>
-        <tr r="G50" s="8"/>
-        <tr r="E45" s="8"/>
-        <tr r="L50" s="8"/>
-        <tr r="I50" s="8"/>
-        <tr r="E35" s="8"/>
-        <tr r="I51" s="8"/>
-        <tr r="E50" s="8"/>
-        <tr r="G34" s="8"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b4a1451cdcf3425abd0aa25987aacf77">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>fc6fb15e-d06a-47c2-ad97-fabd7ed596d5</stp>
+        <stp>b8933cf5-d503-4564-8c68-9360d4c252f4</stp>
+        <tr r="D17" s="7"/>
+        <tr r="D23" s="7"/>
         <tr r="D18" s="7"/>
         <tr r="D22" s="7"/>
-        <tr r="D15" s="7"/>
-        <tr r="D17" s="7"/>
-        <tr r="D20" s="7"/>
-        <tr r="D21" s="7"/>
         <tr r="D24" s="7"/>
         <tr r="D16" s="7"/>
-        <tr r="D23" s="7"/>
         <tr r="D25" s="7"/>
+        <tr r="D20" s="7"/>
+        <tr r="D15" s="7"/>
+        <tr r="D21" s="7"/>
         <tr r="D19" s="7"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>011926ba-9cd9-470f-87a4-137c6032a48c</stp>
-        <tr r="E36" s="15"/>
-        <tr r="E39" s="15"/>
-        <tr r="E29" s="15"/>
-        <tr r="E37" s="15"/>
-        <tr r="E35" s="15"/>
-        <tr r="E32" s="15"/>
-        <tr r="E33" s="15"/>
-        <tr r="E31" s="15"/>
-        <tr r="E34" s="15"/>
-        <tr r="G28" s="15"/>
-        <tr r="G29" s="15"/>
-        <tr r="F36" s="15"/>
-        <tr r="G33" s="15"/>
-        <tr r="G38" s="15"/>
-        <tr r="G36" s="15"/>
-        <tr r="F38" s="15"/>
-        <tr r="G39" s="15"/>
-        <tr r="F39" s="15"/>
-        <tr r="G30" s="15"/>
-        <tr r="G35" s="15"/>
-        <tr r="E28" s="15"/>
-        <tr r="F37" s="15"/>
-        <tr r="G32" s="15"/>
-        <tr r="G34" s="15"/>
-        <tr r="G31" s="15"/>
-        <tr r="E38" s="15"/>
-        <tr r="F28" s="15"/>
-        <tr r="F31" s="15"/>
-        <tr r="F30" s="15"/>
-        <tr r="F35" s="15"/>
-        <tr r="F34" s="15"/>
-        <tr r="F32" s="15"/>
-        <tr r="E30" s="15"/>
-        <tr r="F33" s="15"/>
-        <tr r="G37" s="15"/>
-        <tr r="F29" s="15"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b4a1451cdcf3425abd0aa25987aacf77">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d96bac44-b60d-49b3-9d3c-cfbbf2c38b62</stp>
-        <tr r="F116" s="15"/>
-        <tr r="E106" s="15"/>
-        <tr r="G119" s="15"/>
-        <tr r="G110" s="15"/>
-        <tr r="G104" s="15"/>
-        <tr r="G108" s="15"/>
-        <tr r="F105" s="15"/>
-        <tr r="E109" s="15"/>
-        <tr r="G120" s="15"/>
-        <tr r="G124" s="15"/>
-        <tr r="G115" s="15"/>
-        <tr r="E119" s="15"/>
-        <tr r="E126" s="15"/>
-        <tr r="E117" s="15"/>
-        <tr r="E114" s="15"/>
-        <tr r="F125" s="15"/>
-        <tr r="F103" s="15"/>
-        <tr r="G111" s="15"/>
-        <tr r="G107" s="15"/>
-        <tr r="G122" s="15"/>
-        <tr r="G123" s="15"/>
-        <tr r="F119" s="15"/>
-        <tr r="E105" s="15"/>
-        <tr r="F104" s="15"/>
-        <tr r="G106" s="15"/>
-        <tr r="G117" s="15"/>
-        <tr r="F114" s="15"/>
-        <tr r="E107" s="15"/>
-        <tr r="G126" s="15"/>
-        <tr r="F120" s="15"/>
-        <tr r="F118" s="15"/>
-        <tr r="G113" s="15"/>
-        <tr r="F106" s="15"/>
-        <tr r="F113" s="15"/>
-        <tr r="G125" s="15"/>
-        <tr r="G116" s="15"/>
-        <tr r="G114" s="15"/>
-        <tr r="F122" s="15"/>
-        <tr r="F117" s="15"/>
-        <tr r="F121" s="15"/>
-        <tr r="G109" s="15"/>
-        <tr r="F110" s="15"/>
-        <tr r="G121" s="15"/>
-        <tr r="F115" s="15"/>
-        <tr r="E125" s="15"/>
-        <tr r="F107" s="15"/>
-        <tr r="E121" s="15"/>
-        <tr r="E120" s="15"/>
-        <tr r="F112" s="15"/>
-        <tr r="F126" s="15"/>
-        <tr r="G118" s="15"/>
-        <tr r="E124" s="15"/>
-        <tr r="E112" s="15"/>
-        <tr r="E115" s="15"/>
-        <tr r="G112" s="15"/>
-        <tr r="F111" s="15"/>
-        <tr r="F123" s="15"/>
-        <tr r="E103" s="15"/>
-        <tr r="E110" s="15"/>
-        <tr r="G103" s="15"/>
-        <tr r="E123" s="15"/>
-        <tr r="E111" s="15"/>
-        <tr r="E116" s="15"/>
-        <tr r="E108" s="15"/>
-        <tr r="G105" s="15"/>
-        <tr r="E113" s="15"/>
-        <tr r="E104" s="15"/>
-        <tr r="F109" s="15"/>
-        <tr r="F108" s="15"/>
-        <tr r="E118" s="15"/>
-        <tr r="E122" s="15"/>
-        <tr r="F124" s="15"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b4a1451cdcf3425abd0aa25987aacf77">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>ff5ef4e0-221c-42fc-8983-99eb4ff8bd06</stp>
-        <tr r="G73" s="15"/>
-        <tr r="G77" s="15"/>
-        <tr r="E75" s="15"/>
-        <tr r="G67" s="15"/>
-        <tr r="F72" s="15"/>
-        <tr r="E74" s="15"/>
-        <tr r="E76" s="15"/>
-        <tr r="E67" s="15"/>
-        <tr r="G69" s="15"/>
-        <tr r="G75" s="15"/>
-        <tr r="F77" s="15"/>
-        <tr r="F76" s="15"/>
-        <tr r="E73" s="15"/>
-        <tr r="E71" s="15"/>
-        <tr r="G76" s="15"/>
-        <tr r="F73" s="15"/>
-        <tr r="G70" s="15"/>
-        <tr r="G72" s="15"/>
-        <tr r="G74" s="15"/>
-        <tr r="F74" s="15"/>
-        <tr r="F67" s="15"/>
-        <tr r="E69" s="15"/>
-        <tr r="F70" s="15"/>
-        <tr r="F68" s="15"/>
-        <tr r="F71" s="15"/>
-        <tr r="F75" s="15"/>
-        <tr r="G68" s="15"/>
-        <tr r="E77" s="15"/>
-        <tr r="E66" s="15"/>
-        <tr r="E68" s="15"/>
-        <tr r="E70" s="15"/>
-        <tr r="E72" s="15"/>
-        <tr r="F69" s="15"/>
-        <tr r="G66" s="15"/>
-        <tr r="G71" s="15"/>
-        <tr r="F66" s="15"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b4a1451cdcf3425abd0aa25987aacf77">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>ae0d757b-6270-49fc-91bb-c10eea0f93fc</stp>
-        <tr r="F48" s="13"/>
-        <tr r="E41" s="13"/>
-        <tr r="G47" s="13"/>
-        <tr r="N44" s="13"/>
-        <tr r="I42" s="13"/>
-        <tr r="G40" s="13"/>
-        <tr r="E47" s="13"/>
-        <tr r="O41" s="13"/>
-        <tr r="N47" s="13"/>
-        <tr r="M46" s="13"/>
-        <tr r="N39" s="13"/>
-        <tr r="E48" s="13"/>
-        <tr r="H40" s="13"/>
-        <tr r="O47" s="13"/>
-        <tr r="H44" s="13"/>
-        <tr r="J41" s="13"/>
-        <tr r="H45" s="13"/>
-        <tr r="I40" s="13"/>
-        <tr r="L39" s="13"/>
-        <tr r="E46" s="13"/>
-        <tr r="M48" s="13"/>
-        <tr r="J46" s="13"/>
-        <tr r="O40" s="13"/>
-        <tr r="O43" s="13"/>
-        <tr r="F42" s="13"/>
-        <tr r="G46" s="13"/>
-        <tr r="M42" s="13"/>
-        <tr r="K42" s="13"/>
-        <tr r="L48" s="13"/>
-        <tr r="L41" s="13"/>
-        <tr r="L46" s="13"/>
-        <tr r="F46" s="13"/>
-        <tr r="H47" s="13"/>
-        <tr r="M49" s="13"/>
-        <tr r="G43" s="13"/>
-        <tr r="M40" s="13"/>
-        <tr r="K41" s="13"/>
-        <tr r="L40" s="13"/>
-        <tr r="H49" s="13"/>
-        <tr r="E49" s="13"/>
-        <tr r="O46" s="13"/>
-        <tr r="L49" s="13"/>
-        <tr r="L44" s="13"/>
-        <tr r="O45" s="13"/>
-        <tr r="I44" s="13"/>
-        <tr r="M41" s="13"/>
-        <tr r="O49" s="13"/>
-        <tr r="I41" s="13"/>
-        <tr r="F39" s="13"/>
-        <tr r="J43" s="13"/>
-        <tr r="F40" s="13"/>
-        <tr r="I47" s="13"/>
-        <tr r="J44" s="13"/>
-        <tr r="F45" s="13"/>
-        <tr r="H46" s="13"/>
-        <tr r="L43" s="13"/>
-        <tr r="I45" s="13"/>
-        <tr r="G49" s="13"/>
-        <tr r="H42" s="13"/>
-        <tr r="M45" s="13"/>
-        <tr r="M44" s="13"/>
-        <tr r="M47" s="13"/>
-        <tr r="I49" s="13"/>
-        <tr r="E43" s="13"/>
-        <tr r="I43" s="13"/>
-        <tr r="E39" s="13"/>
-        <tr r="N46" s="13"/>
-        <tr r="J47" s="13"/>
-        <tr r="H48" s="13"/>
-        <tr r="I46" s="13"/>
-        <tr r="J48" s="13"/>
-        <tr r="M39" s="13"/>
-        <tr r="K45" s="13"/>
-        <tr r="L45" s="13"/>
-        <tr r="K46" s="13"/>
-        <tr r="J42" s="13"/>
-        <tr r="F41" s="13"/>
-        <tr r="G41" s="13"/>
-        <tr r="N48" s="13"/>
-        <tr r="I39" s="13"/>
-        <tr r="J39" s="13"/>
-        <tr r="K40" s="13"/>
-        <tr r="G42" s="13"/>
-        <tr r="K44" s="13"/>
-        <tr r="M43" s="13"/>
-        <tr r="F44" s="13"/>
-        <tr r="E40" s="13"/>
-        <tr r="J40" s="13"/>
-        <tr r="G45" s="13"/>
-        <tr r="N42" s="13"/>
-        <tr r="O48" s="13"/>
-        <tr r="N49" s="13"/>
-        <tr r="G44" s="13"/>
-        <tr r="I48" s="13"/>
-        <tr r="K39" s="13"/>
-        <tr r="N43" s="13"/>
-        <tr r="K49" s="13"/>
-        <tr r="K47" s="13"/>
-        <tr r="K48" s="13"/>
-        <tr r="E44" s="13"/>
-        <tr r="L47" s="13"/>
-        <tr r="F49" s="13"/>
-        <tr r="H39" s="13"/>
-        <tr r="F43" s="13"/>
-        <tr r="N41" s="13"/>
-        <tr r="N45" s="13"/>
-        <tr r="G48" s="13"/>
-        <tr r="K43" s="13"/>
-        <tr r="G39" s="13"/>
-        <tr r="O39" s="13"/>
-        <tr r="E45" s="13"/>
-        <tr r="F47" s="13"/>
-        <tr r="E42" s="13"/>
-        <tr r="H41" s="13"/>
-        <tr r="O44" s="13"/>
-        <tr r="J45" s="13"/>
-        <tr r="L42" s="13"/>
-        <tr r="J49" s="13"/>
-        <tr r="N40" s="13"/>
-        <tr r="O42" s="13"/>
-        <tr r="H43" s="13"/>
+        <stp>51c5b8cb-857a-4b79-9d0c-b1410e3eee65</stp>
+        <tr r="J48" s="14"/>
+        <tr r="G47" s="14"/>
+        <tr r="H47" s="14"/>
+        <tr r="G48" s="14"/>
+        <tr r="K48" s="14"/>
+        <tr r="K47" s="14"/>
+        <tr r="I48" s="14"/>
+        <tr r="H48" s="14"/>
+        <tr r="E48" s="14"/>
+        <tr r="I47" s="14"/>
+        <tr r="F48" s="14"/>
+        <tr r="J47" s="14"/>
+        <tr r="F47" s="14"/>
+        <tr r="E47" s="14"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>f3345780-317d-412b-a888-49416552eead</stp>
-        <tr r="E35" s="5"/>
-        <tr r="I32" s="5"/>
-        <tr r="I29" s="5"/>
-        <tr r="M35" s="5"/>
-        <tr r="M31" s="5"/>
-        <tr r="K31" s="5"/>
-        <tr r="K30" s="5"/>
-        <tr r="L30" s="5"/>
-        <tr r="K35" s="5"/>
-        <tr r="K34" s="5"/>
-        <tr r="K29" s="5"/>
-        <tr r="J33" s="5"/>
-        <tr r="F32" s="5"/>
-        <tr r="L31" s="5"/>
-        <tr r="H30" s="5"/>
-        <tr r="H34" s="5"/>
-        <tr r="I33" s="5"/>
-        <tr r="G33" s="5"/>
-        <tr r="H33" s="5"/>
-        <tr r="K32" s="5"/>
-        <tr r="L32" s="5"/>
-        <tr r="F30" s="5"/>
-        <tr r="G30" s="5"/>
-        <tr r="K33" s="5"/>
-        <tr r="M29" s="5"/>
-        <tr r="G32" s="5"/>
-        <tr r="M34" s="5"/>
-        <tr r="L34" s="5"/>
-        <tr r="J31" s="5"/>
-        <tr r="I31" s="5"/>
-        <tr r="J32" s="5"/>
-        <tr r="I34" s="5"/>
-        <tr r="E31" s="5"/>
-        <tr r="F35" s="5"/>
-        <tr r="G29" s="5"/>
-        <tr r="M32" s="5"/>
-        <tr r="E29" s="5"/>
-        <tr r="G34" s="5"/>
-        <tr r="F31" s="5"/>
-        <tr r="G35" s="5"/>
-        <tr r="M33" s="5"/>
-        <tr r="L29" s="5"/>
-        <tr r="E33" s="5"/>
-        <tr r="E32" s="5"/>
-        <tr r="L35" s="5"/>
-        <tr r="J29" s="5"/>
-        <tr r="G31" s="5"/>
-        <tr r="H35" s="5"/>
-        <tr r="I35" s="5"/>
-        <tr r="J35" s="5"/>
-        <tr r="L33" s="5"/>
-        <tr r="H29" s="5"/>
-        <tr r="J30" s="5"/>
-        <tr r="F34" s="5"/>
-        <tr r="J34" s="5"/>
-        <tr r="H32" s="5"/>
-        <tr r="I30" s="5"/>
-        <tr r="E34" s="5"/>
-        <tr r="E30" s="5"/>
-        <tr r="F29" s="5"/>
-        <tr r="H31" s="5"/>
-        <tr r="F33" s="5"/>
-        <tr r="M30" s="5"/>
+        <stp>9257ddd5-b331-49a1-8f73-f78ac950c3d1</stp>
+        <tr r="F46" s="5"/>
+        <tr r="E46" s="5"/>
+        <tr r="E45" s="5"/>
+        <tr r="F45" s="5"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.65da0fdadb0f4c92ba90b35c062623cd">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>721416d2-7e87-4390-b0f1-8409b4973701</stp>
+        <tr r="Y47" s="6"/>
+        <tr r="O51" s="6"/>
+        <tr r="M42" s="6"/>
+        <tr r="Y37" s="6"/>
+        <tr r="P38" s="6"/>
+        <tr r="Q52" s="6"/>
+        <tr r="AF43" s="6"/>
+        <tr r="G48" s="6"/>
+        <tr r="J41" s="6"/>
+        <tr r="J44" s="6"/>
+        <tr r="U47" s="6"/>
+        <tr r="H33" s="6"/>
+        <tr r="AI34" s="6"/>
+        <tr r="I40" s="6"/>
+        <tr r="AI41" s="6"/>
+        <tr r="J33" s="6"/>
+        <tr r="F43" s="6"/>
+        <tr r="K42" s="6"/>
+        <tr r="AD37" s="6"/>
+        <tr r="AG45" s="6"/>
+        <tr r="AH48" s="6"/>
+        <tr r="AC43" s="6"/>
+        <tr r="E47" s="6"/>
+        <tr r="S40" s="6"/>
+        <tr r="V49" s="6"/>
+        <tr r="N48" s="6"/>
+        <tr r="H34" s="6"/>
+        <tr r="AI42" s="6"/>
+        <tr r="I36" s="6"/>
+        <tr r="AC47" s="6"/>
+        <tr r="O39" s="6"/>
+        <tr r="L44" s="6"/>
+        <tr r="F46" s="6"/>
+        <tr r="W49" s="6"/>
+        <tr r="U43" s="6"/>
+        <tr r="I44" s="6"/>
+        <tr r="S44" s="6"/>
+        <tr r="Y39" s="6"/>
+        <tr r="AH42" s="6"/>
+        <tr r="J43" s="6"/>
+        <tr r="W42" s="6"/>
+        <tr r="G52" s="6"/>
+        <tr r="AG46" s="6"/>
+        <tr r="E36" s="6"/>
+        <tr r="H37" s="6"/>
+        <tr r="Y50" s="6"/>
+        <tr r="M49" s="6"/>
+        <tr r="AH43" s="6"/>
+        <tr r="AD40" s="6"/>
+        <tr r="L35" s="6"/>
+        <tr r="J49" s="6"/>
+        <tr r="Z47" s="6"/>
+        <tr r="O45" s="6"/>
+        <tr r="O42" s="6"/>
+        <tr r="K37" s="6"/>
+        <tr r="AC44" s="6"/>
+        <tr r="AA49" s="6"/>
+        <tr r="V35" s="6"/>
+        <tr r="AD36" s="6"/>
+        <tr r="AF50" s="6"/>
+        <tr r="AD53" s="6"/>
+        <tr r="AA33" s="6"/>
+        <tr r="AC45" s="6"/>
+        <tr r="Y45" s="6"/>
+        <tr r="F41" s="6"/>
+        <tr r="S37" s="6"/>
+        <tr r="P34" s="6"/>
+        <tr r="AA40" s="6"/>
+        <tr r="X41" s="6"/>
+        <tr r="Q51" s="6"/>
+        <tr r="AD42" s="6"/>
+        <tr r="G49" s="6"/>
+        <tr r="F40" s="6"/>
+        <tr r="V33" s="6"/>
+        <tr r="U38" s="6"/>
+        <tr r="H36" s="6"/>
+        <tr r="P51" s="6"/>
+        <tr r="W35" s="6"/>
+        <tr r="G34" s="6"/>
+        <tr r="I51" s="6"/>
+        <tr r="G38" s="6"/>
+        <tr r="AF48" s="6"/>
+        <tr r="N45" s="6"/>
+        <tr r="T51" s="6"/>
+        <tr r="E39" s="6"/>
+        <tr r="Z52" s="6"/>
+        <tr r="V42" s="6"/>
+        <tr r="E45" s="6"/>
+        <tr r="X33" s="6"/>
+        <tr r="E52" s="6"/>
+        <tr r="AG52" s="6"/>
+        <tr r="O50" s="6"/>
+        <tr r="Z34" s="6"/>
+        <tr r="AD34" s="6"/>
+        <tr r="N44" s="6"/>
+        <tr r="R42" s="6"/>
+        <tr r="X45" s="6"/>
+        <tr r="G37" s="6"/>
+        <tr r="AI44" s="6"/>
+        <tr r="S53" s="6"/>
+        <tr r="P41" s="6"/>
+        <tr r="P42" s="6"/>
+        <tr r="I53" s="6"/>
+        <tr r="O53" s="6"/>
+        <tr r="AC38" s="6"/>
+        <tr r="AG39" s="6"/>
+        <tr r="AD38" s="6"/>
+        <tr r="AF33" s="6"/>
+        <tr r="AE50" s="6"/>
+        <tr r="U45" s="6"/>
+        <tr r="R47" s="6"/>
+        <tr r="J37" s="6"/>
+        <tr r="K49" s="6"/>
+        <tr r="AE38" s="6"/>
+        <tr r="AB49" s="6"/>
+        <tr r="Y46" s="6"/>
+        <tr r="R39" s="6"/>
+        <tr r="M53" s="6"/>
+        <tr r="Q48" s="6"/>
+        <tr r="Z53" s="6"/>
+        <tr r="Q41" s="6"/>
+        <tr r="S45" s="6"/>
+        <tr r="AH34" s="6"/>
+        <tr r="AH44" s="6"/>
+        <tr r="H52" s="6"/>
+        <tr r="AE43" s="6"/>
+        <tr r="Y53" s="6"/>
+        <tr r="T47" s="6"/>
+        <tr r="R51" s="6"/>
+        <tr r="N51" s="6"/>
+        <tr r="AI45" s="6"/>
+        <tr r="L39" s="6"/>
+        <tr r="U33" s="6"/>
+        <tr r="AG50" s="6"/>
+        <tr r="AH53" s="6"/>
+        <tr r="S46" s="6"/>
+        <tr r="AI52" s="6"/>
+        <tr r="E49" s="6"/>
+        <tr r="AE34" s="6"/>
+        <tr r="K48" s="6"/>
+        <tr r="Z37" s="6"/>
+        <tr r="E51" s="6"/>
+        <tr r="H49" s="6"/>
+        <tr r="AD43" s="6"/>
+        <tr r="AB34" s="6"/>
+        <tr r="Z46" s="6"/>
+        <tr r="H50" s="6"/>
+        <tr r="H41" s="6"/>
+        <tr r="AI49" s="6"/>
+        <tr r="Q46" s="6"/>
+        <tr r="T38" s="6"/>
+        <tr r="U34" s="6"/>
+        <tr r="AD47" s="6"/>
+        <tr r="N42" s="6"/>
+        <tr r="AH37" s="6"/>
+        <tr r="H42" s="6"/>
+        <tr r="AF45" s="6"/>
+        <tr r="AC52" s="6"/>
+        <tr r="G47" s="6"/>
+        <tr r="X44" s="6"/>
+        <tr r="V47" s="6"/>
+        <tr r="M40" s="6"/>
+        <tr r="AG43" s="6"/>
+        <tr r="T50" s="6"/>
+        <tr r="AD52" s="6"/>
+        <tr r="AH33" s="6"/>
+        <tr r="AE53" s="6"/>
+        <tr r="Z45" s="6"/>
+        <tr r="T35" s="6"/>
+        <tr r="E43" s="6"/>
+        <tr r="X34" s="6"/>
+        <tr r="M38" s="6"/>
+        <tr r="J53" s="6"/>
+        <tr r="L41" s="6"/>
+        <tr r="O35" s="6"/>
+        <tr r="Y35" s="6"/>
+        <tr r="AI43" s="6"/>
+        <tr r="R49" s="6"/>
+        <tr r="X52" s="6"/>
+        <tr r="S50" s="6"/>
+        <tr r="Y33" s="6"/>
+        <tr r="W53" s="6"/>
+        <tr r="M33" s="6"/>
+        <tr r="AD35" s="6"/>
+        <tr r="E41" s="6"/>
+        <tr r="X37" s="6"/>
+        <tr r="AA34" s="6"/>
+        <tr r="Z43" s="6"/>
+        <tr r="AH51" s="6"/>
+        <tr r="W39" s="6"/>
+        <tr r="AE51" s="6"/>
+        <tr r="J36" s="6"/>
+        <tr r="H40" s="6"/>
+        <tr r="V45" s="6"/>
+        <tr r="X49" s="6"/>
+        <tr r="H43" s="6"/>
+        <tr r="N52" s="6"/>
+        <tr r="Z35" s="6"/>
+        <tr r="AD48" s="6"/>
+        <tr r="J42" s="6"/>
+        <tr r="S47" s="6"/>
+        <tr r="Z48" s="6"/>
+        <tr r="N38" s="6"/>
+        <tr r="R40" s="6"/>
+        <tr r="X50" s="6"/>
+        <tr r="S35" s="6"/>
+        <tr r="J34" s="6"/>
+        <tr r="O36" s="6"/>
+        <tr r="AA37" s="6"/>
+        <tr r="I45" s="6"/>
+        <tr r="H35" s="6"/>
+        <tr r="M47" s="6"/>
+        <tr r="E53" s="6"/>
+        <tr r="AG49" s="6"/>
+        <tr r="G42" s="6"/>
+        <tr r="AD45" s="6"/>
+        <tr r="M34" s="6"/>
+        <tr r="W38" s="6"/>
+        <tr r="Z51" s="6"/>
+        <tr r="AA52" s="6"/>
+        <tr r="N49" s="6"/>
+        <tr r="P40" s="6"/>
+        <tr r="R36" s="6"/>
+        <tr r="M37" s="6"/>
+        <tr r="J50" s="6"/>
+        <tr r="X43" s="6"/>
+        <tr r="Z41" s="6"/>
+        <tr r="AC53" s="6"/>
+        <tr r="V36" s="6"/>
+        <tr r="AC49" s="6"/>
+        <tr r="AI39" s="6"/>
+        <tr r="AB53" s="6"/>
+        <tr r="S43" s="6"/>
+        <tr r="O34" s="6"/>
+        <tr r="K36" s="6"/>
+        <tr r="S33" s="6"/>
+        <tr r="R53" s="6"/>
+        <tr r="AF37" s="6"/>
+        <tr r="J45" s="6"/>
+        <tr r="M52" s="6"/>
+        <tr r="P47" s="6"/>
+        <tr r="AG41" s="6"/>
+        <tr r="Q43" s="6"/>
+        <tr r="K34" s="6"/>
+        <tr r="AF42" s="6"/>
+        <tr r="J52" s="6"/>
+        <tr r="L45" s="6"/>
+        <tr r="W37" s="6"/>
+        <tr r="H47" s="6"/>
+        <tr r="J40" s="6"/>
+        <tr r="M46" s="6"/>
+        <tr r="Z44" s="6"/>
+        <tr r="Q39" s="6"/>
+        <tr r="P45" s="6"/>
+        <tr r="G40" s="6"/>
+        <tr r="E46" s="6"/>
+        <tr r="AH41" s="6"/>
+        <tr r="F42" s="6"/>
+        <tr r="R50" s="6"/>
+        <tr r="I48" s="6"/>
+        <tr r="AF40" s="6"/>
+        <tr r="F33" s="6"/>
+        <tr r="AF47" s="6"/>
+        <tr r="AG44" s="6"/>
+        <tr r="AE41" s="6"/>
+        <tr r="P53" s="6"/>
+        <tr r="W36" s="6"/>
+        <tr r="AA44" s="6"/>
+        <tr r="Q44" s="6"/>
+        <tr r="Q35" s="6"/>
+        <tr r="AI35" s="6"/>
+        <tr r="F48" s="6"/>
+        <tr r="L52" s="6"/>
+        <tr r="Q40" s="6"/>
+        <tr r="AG48" s="6"/>
+        <tr r="S38" s="6"/>
+        <tr r="Q45" s="6"/>
+        <tr r="I35" s="6"/>
+        <tr r="J46" s="6"/>
+        <tr r="K44" s="6"/>
+        <tr r="AG33" s="6"/>
+        <tr r="F49" s="6"/>
+        <tr r="E34" s="6"/>
+        <tr r="AE46" s="6"/>
+        <tr r="N50" s="6"/>
+        <tr r="L38" s="6"/>
+        <tr r="V44" s="6"/>
+        <tr r="K45" s="6"/>
+        <tr r="G50" s="6"/>
+        <tr r="U37" s="6"/>
+        <tr r="AE45" s="6"/>
+        <tr r="L51" s="6"/>
+        <tr r="V41" s="6"/>
+        <tr r="Y49" s="6"/>
+        <tr r="W43" s="6"/>
+        <tr r="AD51" s="6"/>
+        <tr r="AG40" s="6"/>
+        <tr r="Y41" s="6"/>
+        <tr r="P52" s="6"/>
+        <tr r="K53" s="6"/>
+        <tr r="S48" s="6"/>
+        <tr r="AB43" s="6"/>
+        <tr r="I49" s="6"/>
+        <tr r="AE37" s="6"/>
+        <tr r="W52" s="6"/>
+        <tr r="O49" s="6"/>
+        <tr r="X35" s="6"/>
+        <tr r="M41" s="6"/>
+        <tr r="F44" s="6"/>
+        <tr r="Q42" s="6"/>
+        <tr r="S51" s="6"/>
+        <tr r="N37" s="6"/>
+        <tr r="P49" s="6"/>
+        <tr r="O43" s="6"/>
+        <tr r="AC36" s="6"/>
+        <tr r="Z33" s="6"/>
+        <tr r="I46" s="6"/>
+        <tr r="P33" s="6"/>
+        <tr r="T44" s="6"/>
+        <tr r="V50" s="6"/>
+        <tr r="AF35" s="6"/>
+        <tr r="AG51" s="6"/>
+        <tr r="X39" s="6"/>
+        <tr r="P36" s="6"/>
+        <tr r="M48" s="6"/>
+        <tr r="Q49" s="6"/>
+        <tr r="R41" s="6"/>
+        <tr r="I52" s="6"/>
+        <tr r="S49" s="6"/>
+        <tr r="P35" s="6"/>
+        <tr r="Q34" s="6"/>
+        <tr r="AB50" s="6"/>
+        <tr r="R37" s="6"/>
+        <tr r="U36" s="6"/>
+        <tr r="K38" s="6"/>
+        <tr r="Y44" s="6"/>
+        <tr r="AE48" s="6"/>
+        <tr r="M43" s="6"/>
+        <tr r="Y34" s="6"/>
+        <tr r="AB35" s="6"/>
+        <tr r="F52" s="6"/>
+        <tr r="AC41" s="6"/>
+        <tr r="G33" s="6"/>
+        <tr r="Q53" s="6"/>
+        <tr r="L42" s="6"/>
+        <tr r="Q50" s="6"/>
+        <tr r="N46" s="6"/>
+        <tr r="N33" s="6"/>
+        <tr r="I33" s="6"/>
+        <tr r="I47" s="6"/>
+        <tr r="E33" s="6"/>
+        <tr r="N47" s="6"/>
+        <tr r="V43" s="6"/>
+        <tr r="AD44" s="6"/>
+        <tr r="N35" s="6"/>
+        <tr r="J48" s="6"/>
+        <tr r="AG35" s="6"/>
+        <tr r="F34" s="6"/>
+        <tr r="AI46" s="6"/>
+        <tr r="T40" s="6"/>
+        <tr r="P43" s="6"/>
+        <tr r="W34" s="6"/>
+        <tr r="O33" s="6"/>
+        <tr r="F38" s="6"/>
+        <tr r="AA43" s="6"/>
+        <tr r="AA42" s="6"/>
+        <tr r="G36" s="6"/>
+        <tr r="O46" s="6"/>
+        <tr r="T48" s="6"/>
+        <tr r="W33" s="6"/>
+        <tr r="U52" s="6"/>
+        <tr r="H51" s="6"/>
+        <tr r="AI53" s="6"/>
+        <tr r="L48" s="6"/>
+        <tr r="Q47" s="6"/>
+        <tr r="V53" s="6"/>
+        <tr r="AG42" s="6"/>
+        <tr r="AF39" s="6"/>
+        <tr r="E35" s="6"/>
+        <tr r="R43" s="6"/>
+        <tr r="AI48" s="6"/>
+        <tr r="I38" s="6"/>
+        <tr r="T41" s="6"/>
+        <tr r="O48" s="6"/>
+        <tr r="W44" s="6"/>
+        <tr r="Q33" s="6"/>
+        <tr r="AF38" s="6"/>
+        <tr r="R35" s="6"/>
+        <tr r="X47" s="6"/>
+        <tr r="AH46" s="6"/>
+        <tr r="N43" s="6"/>
+        <tr r="Y52" s="6"/>
+        <tr r="P46" s="6"/>
+        <tr r="T42" s="6"/>
+        <tr r="Z39" s="6"/>
+        <tr r="E44" s="6"/>
+        <tr r="I42" s="6"/>
+        <tr r="V46" s="6"/>
+        <tr r="AH50" s="6"/>
+        <tr r="AG37" s="6"/>
+        <tr r="X46" s="6"/>
+        <tr r="AC35" s="6"/>
+        <tr r="V38" s="6"/>
+        <tr r="L33" s="6"/>
+        <tr r="K35" s="6"/>
+        <tr r="J51" s="6"/>
+        <tr r="F36" s="6"/>
+        <tr r="V48" s="6"/>
+        <tr r="AF34" s="6"/>
+        <tr r="K50" s="6"/>
+        <tr r="L37" s="6"/>
+        <tr r="W40" s="6"/>
+        <tr r="W41" s="6"/>
+        <tr r="AG36" s="6"/>
+        <tr r="AH38" s="6"/>
+        <tr r="AI50" s="6"/>
+        <tr r="F37" s="6"/>
+        <tr r="V39" s="6"/>
+        <tr r="F47" s="6"/>
+        <tr r="Z38" s="6"/>
+        <tr r="M36" s="6"/>
+        <tr r="K47" s="6"/>
+        <tr r="P37" s="6"/>
+        <tr r="AI47" s="6"/>
+        <tr r="J47" s="6"/>
+        <tr r="AB38" s="6"/>
+        <tr r="N39" s="6"/>
+        <tr r="G44" s="6"/>
+        <tr r="W51" s="6"/>
+        <tr r="L40" s="6"/>
+        <tr r="F35" s="6"/>
+        <tr r="AI36" s="6"/>
+        <tr r="X48" s="6"/>
+        <tr r="AB42" s="6"/>
+        <tr r="F53" s="6"/>
+        <tr r="AC33" s="6"/>
+        <tr r="T34" s="6"/>
+        <tr r="R33" s="6"/>
+        <tr r="O52" s="6"/>
+        <tr r="X51" s="6"/>
+        <tr r="AD33" s="6"/>
+        <tr r="U46" s="6"/>
+        <tr r="AB52" s="6"/>
+        <tr r="AA51" s="6"/>
+        <tr r="V40" s="6"/>
+        <tr r="Q38" s="6"/>
+        <tr r="L43" s="6"/>
+        <tr r="AC42" s="6"/>
+        <tr r="Y51" s="6"/>
+        <tr r="AC40" s="6"/>
+        <tr r="X42" s="6"/>
+        <tr r="N34" s="6"/>
+        <tr r="M44" s="6"/>
+        <tr r="AH40" s="6"/>
+        <tr r="AF49" s="6"/>
+        <tr r="AB47" s="6"/>
+        <tr r="AB40" s="6"/>
+        <tr r="T49" s="6"/>
+        <tr r="AD39" s="6"/>
+        <tr r="J39" s="6"/>
+        <tr r="AA48" s="6"/>
+        <tr r="Q37" s="6"/>
+        <tr r="AA53" s="6"/>
+        <tr r="S41" s="6"/>
+        <tr r="AA41" s="6"/>
+        <tr r="AE49" s="6"/>
+        <tr r="AB37" s="6"/>
+        <tr r="V34" s="6"/>
+        <tr r="AB33" s="6"/>
+        <tr r="L47" s="6"/>
+        <tr r="L50" s="6"/>
+        <tr r="Z49" s="6"/>
+        <tr r="K46" s="6"/>
+        <tr r="R38" s="6"/>
+        <tr r="Z40" s="6"/>
+        <tr r="AH39" s="6"/>
+        <tr r="AF52" s="6"/>
+        <tr r="R44" s="6"/>
+        <tr r="I41" s="6"/>
+        <tr r="O44" s="6"/>
+        <tr r="T45" s="6"/>
+        <tr r="T37" s="6"/>
+        <tr r="O40" s="6"/>
+        <tr r="AE42" s="6"/>
+        <tr r="AB44" s="6"/>
+        <tr r="I39" s="6"/>
+        <tr r="G39" s="6"/>
+        <tr r="O47" s="6"/>
+        <tr r="E48" s="6"/>
+        <tr r="Y40" s="6"/>
+        <tr r="T53" s="6"/>
+        <tr r="F39" s="6"/>
+        <tr r="AC37" s="6"/>
+        <tr r="H38" s="6"/>
+        <tr r="AE39" s="6"/>
+        <tr r="AG34" s="6"/>
+        <tr r="AE35" s="6"/>
+        <tr r="AH49" s="6"/>
+        <tr r="AC51" s="6"/>
+        <tr r="T46" s="6"/>
+        <tr r="E40" s="6"/>
+        <tr r="AA39" s="6"/>
+        <tr r="AF46" s="6"/>
+        <tr r="K41" s="6"/>
+        <tr r="Y42" s="6"/>
+        <tr r="L34" s="6"/>
+        <tr r="H45" s="6"/>
+        <tr r="K52" s="6"/>
+        <tr r="H44" s="6"/>
+        <tr r="AF51" s="6"/>
+        <tr r="N41" s="6"/>
+        <tr r="AD46" s="6"/>
+        <tr r="AA50" s="6"/>
+        <tr r="V37" s="6"/>
+        <tr r="AB46" s="6"/>
+        <tr r="L36" s="6"/>
+        <tr r="U35" s="6"/>
+        <tr r="P39" s="6"/>
+        <tr r="AE44" s="6"/>
+        <tr r="AH35" s="6"/>
+        <tr r="AI38" s="6"/>
+        <tr r="V51" s="6"/>
+        <tr r="N40" s="6"/>
+        <tr r="P44" s="6"/>
+        <tr r="M51" s="6"/>
+        <tr r="AH52" s="6"/>
+        <tr r="W46" s="6"/>
+        <tr r="N53" s="6"/>
+        <tr r="AE36" s="6"/>
+        <tr r="O38" s="6"/>
+        <tr r="AB51" s="6"/>
+        <tr r="F51" s="6"/>
+        <tr r="K39" s="6"/>
+        <tr r="L49" s="6"/>
+        <tr r="T43" s="6"/>
+        <tr r="R34" s="6"/>
+        <tr r="S42" s="6"/>
+        <tr r="U53" s="6"/>
+        <tr r="Q36" s="6"/>
+        <tr r="AB39" s="6"/>
+        <tr r="AC46" s="6"/>
+        <tr r="AB48" s="6"/>
+        <tr r="Y43" s="6"/>
+        <tr r="T36" s="6"/>
+        <tr r="Y36" s="6"/>
+        <tr r="E38" s="6"/>
+        <tr r="AF44" s="6"/>
+        <tr r="O37" s="6"/>
+        <tr r="AH45" s="6"/>
+        <tr r="X40" s="6"/>
+        <tr r="Y48" s="6"/>
+        <tr r="AG53" s="6"/>
+        <tr r="AA35" s="6"/>
+        <tr r="J38" s="6"/>
+        <tr r="AE47" s="6"/>
+        <tr r="AI37" s="6"/>
+        <tr r="P48" s="6"/>
+        <tr r="E42" s="6"/>
+        <tr r="AA46" s="6"/>
+        <tr r="G53" s="6"/>
+        <tr r="R46" s="6"/>
+        <tr r="T52" s="6"/>
+        <tr r="U48" s="6"/>
+        <tr r="W47" s="6"/>
+        <tr r="K43" s="6"/>
+        <tr r="X38" s="6"/>
+        <tr r="G35" s="6"/>
+        <tr r="G51" s="6"/>
+        <tr r="M35" s="6"/>
+        <tr r="AE40" s="6"/>
+        <tr r="R48" s="6"/>
+        <tr r="H48" s="6"/>
+        <tr r="E50" s="6"/>
+        <tr r="AI40" s="6"/>
+        <tr r="AD41" s="6"/>
+        <tr r="AH36" s="6"/>
+        <tr r="Z50" s="6"/>
+        <tr r="G41" s="6"/>
+        <tr r="AH47" s="6"/>
+        <tr r="K33" s="6"/>
+        <tr r="T39" s="6"/>
+        <tr r="M39" s="6"/>
+        <tr r="Z42" s="6"/>
+        <tr r="I37" s="6"/>
+        <tr r="R45" s="6"/>
+        <tr r="L53" s="6"/>
+        <tr r="K40" s="6"/>
+        <tr r="S52" s="6"/>
+        <tr r="W48" s="6"/>
+        <tr r="AE33" s="6"/>
+        <tr r="AE52" s="6"/>
+        <tr r="AC48" s="6"/>
+        <tr r="U40" s="6"/>
+        <tr r="W50" s="6"/>
+        <tr r="X53" s="6"/>
+        <tr r="F45" s="6"/>
+        <tr r="L46" s="6"/>
+        <tr r="F50" s="6"/>
+        <tr r="H46" s="6"/>
+        <tr r="AI51" s="6"/>
+        <tr r="AA45" s="6"/>
+        <tr r="E37" s="6"/>
+        <tr r="G45" s="6"/>
+        <tr r="M50" s="6"/>
+        <tr r="K51" s="6"/>
+        <tr r="T33" s="6"/>
+        <tr r="AG38" s="6"/>
+        <tr r="AC34" s="6"/>
+        <tr r="P50" s="6"/>
+        <tr r="AB41" s="6"/>
+        <tr r="Y38" s="6"/>
+        <tr r="AI33" s="6"/>
+        <tr r="AC39" s="6"/>
+        <tr r="N36" s="6"/>
+        <tr r="AB45" s="6"/>
+        <tr r="I43" s="6"/>
+        <tr r="AB36" s="6"/>
+        <tr r="J35" s="6"/>
+        <tr r="I50" s="6"/>
+        <tr r="U44" s="6"/>
+        <tr r="V52" s="6"/>
+        <tr r="M45" s="6"/>
+        <tr r="S34" s="6"/>
+        <tr r="U51" s="6"/>
+        <tr r="AD49" s="6"/>
+        <tr r="S39" s="6"/>
+        <tr r="U50" s="6"/>
+        <tr r="AC50" s="6"/>
+        <tr r="H53" s="6"/>
+        <tr r="X36" s="6"/>
+        <tr r="R52" s="6"/>
+        <tr r="U42" s="6"/>
+        <tr r="AA47" s="6"/>
+        <tr r="AD50" s="6"/>
+        <tr r="S36" s="6"/>
+        <tr r="U39" s="6"/>
+        <tr r="AF53" s="6"/>
+        <tr r="Z36" s="6"/>
+        <tr r="W45" s="6"/>
+        <tr r="G43" s="6"/>
+        <tr r="AF41" s="6"/>
+        <tr r="AG47" s="6"/>
+        <tr r="AF36" s="6"/>
+        <tr r="U41" s="6"/>
+        <tr r="AA38" s="6"/>
+        <tr r="AA36" s="6"/>
+        <tr r="G46" s="6"/>
+        <tr r="I34" s="6"/>
+        <tr r="O41" s="6"/>
+        <tr r="H39" s="6"/>
+        <tr r="U49" s="6"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>b77dbf62-e864-430f-95bc-3d1ba1977a91</stp>
-        <tr r="E65" s="9"/>
-        <tr r="G66" s="9"/>
-        <tr r="F76" s="9"/>
-        <tr r="G67" s="9"/>
-        <tr r="F77" s="9"/>
-        <tr r="E74" s="9"/>
-        <tr r="F69" s="9"/>
-        <tr r="E77" s="9"/>
-        <tr r="F75" s="9"/>
-        <tr r="E66" s="9"/>
-        <tr r="E64" s="9"/>
-        <tr r="E75" s="9"/>
-        <tr r="G69" s="9"/>
-        <tr r="G68" s="9"/>
-        <tr r="E84" s="9"/>
-        <tr r="E73" s="9"/>
-        <tr r="F78" s="9"/>
-        <tr r="G65" s="9"/>
-        <tr r="G81" s="9"/>
-        <tr r="F68" s="9"/>
-        <tr r="F70" s="9"/>
-        <tr r="G79" s="9"/>
-        <tr r="F73" s="9"/>
-        <tr r="G78" s="9"/>
-        <tr r="G64" s="9"/>
-        <tr r="E80" s="9"/>
-        <tr r="F83" s="9"/>
-        <tr r="G62" s="9"/>
-        <tr r="E70" s="9"/>
-        <tr r="E79" s="9"/>
-        <tr r="E61" s="9"/>
-        <tr r="F64" s="9"/>
-        <tr r="G75" s="9"/>
-        <tr r="G72" s="9"/>
-        <tr r="G71" s="9"/>
-        <tr r="F74" s="9"/>
-        <tr r="G84" s="9"/>
-        <tr r="G73" s="9"/>
-        <tr r="F72" s="9"/>
-        <tr r="G74" s="9"/>
-        <tr r="F84" s="9"/>
-        <tr r="E63" s="9"/>
-        <tr r="F63" s="9"/>
-        <tr r="E62" s="9"/>
-        <tr r="E72" s="9"/>
-        <tr r="F66" s="9"/>
-        <tr r="F80" s="9"/>
-        <tr r="F79" s="9"/>
-        <tr r="E83" s="9"/>
-        <tr r="F67" s="9"/>
-        <tr r="G80" s="9"/>
-        <tr r="F71" s="9"/>
-        <tr r="F82" s="9"/>
-        <tr r="E78" s="9"/>
-        <tr r="G70" s="9"/>
-        <tr r="G76" s="9"/>
-        <tr r="E71" s="9"/>
-        <tr r="G61" s="9"/>
-        <tr r="G77" s="9"/>
-        <tr r="F81" s="9"/>
-        <tr r="E67" s="9"/>
-        <tr r="F61" s="9"/>
-        <tr r="E76" s="9"/>
-        <tr r="G82" s="9"/>
-        <tr r="F65" s="9"/>
-        <tr r="E68" s="9"/>
-        <tr r="E69" s="9"/>
-        <tr r="G83" s="9"/>
-        <tr r="E81" s="9"/>
-        <tr r="G63" s="9"/>
-        <tr r="E82" s="9"/>
-        <tr r="F62" s="9"/>
+        <stp>b78f4a57-a0bd-4bec-9974-e2ba1b59ca2d</stp>
+        <tr r="E32" s="15"/>
+        <tr r="E33" s="15"/>
+        <tr r="E34" s="15"/>
+        <tr r="E39" s="15"/>
+        <tr r="E29" s="15"/>
+        <tr r="E36" s="15"/>
+        <tr r="E37" s="15"/>
+        <tr r="E35" s="15"/>
+        <tr r="E31" s="15"/>
+        <tr r="G32" s="15"/>
+        <tr r="F39" s="15"/>
+        <tr r="G31" s="15"/>
+        <tr r="F30" s="15"/>
+        <tr r="G33" s="15"/>
+        <tr r="G30" s="15"/>
+        <tr r="E38" s="15"/>
+        <tr r="F35" s="15"/>
+        <tr r="F36" s="15"/>
+        <tr r="G39" s="15"/>
+        <tr r="G38" s="15"/>
+        <tr r="G29" s="15"/>
+        <tr r="G34" s="15"/>
+        <tr r="F34" s="15"/>
+        <tr r="E30" s="15"/>
+        <tr r="G36" s="15"/>
+        <tr r="G35" s="15"/>
+        <tr r="F28" s="15"/>
+        <tr r="F33" s="15"/>
+        <tr r="G28" s="15"/>
+        <tr r="F38" s="15"/>
+        <tr r="E28" s="15"/>
+        <tr r="F32" s="15"/>
+        <tr r="G37" s="15"/>
+        <tr r="F37" s="15"/>
+        <tr r="F29" s="15"/>
+        <tr r="F31" s="15"/>
       </tp>
-    </main>
-    <main first="rtdsrv.b4a1451cdcf3425abd0aa25987aacf77">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>0ee057e4-d769-4853-931c-fa500b4bc17e</stp>
+        <stp>896e43b8-f8aa-436b-8f8c-f48154c2ad2b</stp>
+        <tr r="E66" s="15"/>
+        <tr r="F66" s="15"/>
+        <tr r="G66" s="15"/>
+        <tr r="H66" s="15"/>
+        <tr r="E67" s="15"/>
+        <tr r="F67" s="15"/>
+        <tr r="G67" s="15"/>
+        <tr r="H67" s="15"/>
+        <tr r="E68" s="15"/>
+        <tr r="F68" s="15"/>
+        <tr r="G68" s="15"/>
+        <tr r="H68" s="15"/>
+        <tr r="E69" s="15"/>
+        <tr r="F69" s="15"/>
+        <tr r="G69" s="15"/>
+        <tr r="H69" s="15"/>
+        <tr r="E70" s="15"/>
+        <tr r="F70" s="15"/>
+        <tr r="G70" s="15"/>
+        <tr r="H70" s="15"/>
+        <tr r="E71" s="15"/>
+        <tr r="F71" s="15"/>
+        <tr r="G71" s="15"/>
+        <tr r="H71" s="15"/>
+        <tr r="E72" s="15"/>
+        <tr r="F72" s="15"/>
+        <tr r="G72" s="15"/>
+        <tr r="H72" s="15"/>
+        <tr r="E73" s="15"/>
+        <tr r="F73" s="15"/>
+        <tr r="G73" s="15"/>
+        <tr r="H73" s="15"/>
+        <tr r="E74" s="15"/>
+        <tr r="F74" s="15"/>
+        <tr r="G74" s="15"/>
+        <tr r="H74" s="15"/>
+        <tr r="E75" s="15"/>
+        <tr r="F75" s="15"/>
+        <tr r="G75" s="15"/>
+        <tr r="H75" s="15"/>
+        <tr r="E76" s="15"/>
+        <tr r="F76" s="15"/>
+        <tr r="G76" s="15"/>
+        <tr r="H76" s="15"/>
+        <tr r="E77" s="15"/>
+        <tr r="F77" s="15"/>
+        <tr r="G77" s="15"/>
+        <tr r="H77" s="15"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.65da0fdadb0f4c92ba90b35c062623cd">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>eab3d0e8-fc02-4523-8ea5-7ea2f5a4db98</stp>
+        <tr r="F42" s="13"/>
+        <tr r="L46" s="13"/>
+        <tr r="I47" s="13"/>
+        <tr r="E47" s="13"/>
+        <tr r="N39" s="13"/>
+        <tr r="J46" s="13"/>
+        <tr r="G46" s="13"/>
+        <tr r="F46" s="13"/>
+        <tr r="F45" s="13"/>
+        <tr r="H42" s="13"/>
+        <tr r="I46" s="13"/>
+        <tr r="K46" s="13"/>
+        <tr r="N48" s="13"/>
+        <tr r="N49" s="13"/>
+        <tr r="N43" s="13"/>
+        <tr r="L47" s="13"/>
+        <tr r="E42" s="13"/>
+        <tr r="J49" s="13"/>
+        <tr r="G40" s="13"/>
+        <tr r="M46" s="13"/>
+        <tr r="M48" s="13"/>
+        <tr r="G49" s="13"/>
+        <tr r="E48" s="13"/>
+        <tr r="M42" s="13"/>
+        <tr r="H47" s="13"/>
+        <tr r="K41" s="13"/>
+        <tr r="H49" s="13"/>
+        <tr r="M41" s="13"/>
+        <tr r="M45" s="13"/>
+        <tr r="I49" s="13"/>
+        <tr r="J42" s="13"/>
+        <tr r="I39" s="13"/>
+        <tr r="K49" s="13"/>
+        <tr r="F49" s="13"/>
+        <tr r="H41" s="13"/>
+        <tr r="N40" s="13"/>
+        <tr r="I44" s="13"/>
+        <tr r="F48" s="13"/>
+        <tr r="H40" s="13"/>
+        <tr r="J41" s="13"/>
+        <tr r="K42" s="13"/>
+        <tr r="M49" s="13"/>
+        <tr r="E49" s="13"/>
+        <tr r="O49" s="13"/>
+        <tr r="M44" s="13"/>
+        <tr r="E43" s="13"/>
+        <tr r="F41" s="13"/>
+        <tr r="J39" s="13"/>
+        <tr r="K47" s="13"/>
+        <tr r="H39" s="13"/>
+        <tr r="O42" s="13"/>
+        <tr r="E41" s="13"/>
+        <tr r="O47" s="13"/>
+        <tr r="I43" s="13"/>
+        <tr r="K40" s="13"/>
+        <tr r="E40" s="13"/>
+        <tr r="K48" s="13"/>
+        <tr r="F43" s="13"/>
+        <tr r="K43" s="13"/>
+        <tr r="H43" s="13"/>
+        <tr r="I41" s="13"/>
+        <tr r="G47" s="13"/>
+        <tr r="I40" s="13"/>
+        <tr r="M40" s="13"/>
+        <tr r="L49" s="13"/>
+        <tr r="F39" s="13"/>
+        <tr r="J44" s="13"/>
+        <tr r="H46" s="13"/>
+        <tr r="E39" s="13"/>
+        <tr r="J48" s="13"/>
+        <tr r="G42" s="13"/>
+        <tr r="J40" s="13"/>
+        <tr r="E44" s="13"/>
+        <tr r="N41" s="13"/>
+        <tr r="G39" s="13"/>
+        <tr r="H45" s="13"/>
+        <tr r="L48" s="13"/>
+        <tr r="G43" s="13"/>
+        <tr r="O46" s="13"/>
+        <tr r="N44" s="13"/>
+        <tr r="O41" s="13"/>
+        <tr r="L39" s="13"/>
+        <tr r="O40" s="13"/>
+        <tr r="L40" s="13"/>
+        <tr r="L44" s="13"/>
+        <tr r="J43" s="13"/>
+        <tr r="L43" s="13"/>
+        <tr r="N46" s="13"/>
+        <tr r="M39" s="13"/>
+        <tr r="K44" s="13"/>
+        <tr r="G45" s="13"/>
+        <tr r="G44" s="13"/>
+        <tr r="N45" s="13"/>
+        <tr r="O39" s="13"/>
+        <tr r="O44" s="13"/>
+        <tr r="I42" s="13"/>
+        <tr r="N47" s="13"/>
+        <tr r="H44" s="13"/>
+        <tr r="E46" s="13"/>
+        <tr r="O43" s="13"/>
+        <tr r="L41" s="13"/>
+        <tr r="O45" s="13"/>
+        <tr r="F40" s="13"/>
+        <tr r="I45" s="13"/>
+        <tr r="M47" s="13"/>
+        <tr r="J47" s="13"/>
+        <tr r="K45" s="13"/>
+        <tr r="G41" s="13"/>
+        <tr r="M43" s="13"/>
+        <tr r="N42" s="13"/>
+        <tr r="I48" s="13"/>
+        <tr r="G48" s="13"/>
+        <tr r="E45" s="13"/>
+        <tr r="J45" s="13"/>
+        <tr r="H48" s="13"/>
+        <tr r="L45" s="13"/>
+        <tr r="F44" s="13"/>
+        <tr r="O48" s="13"/>
+        <tr r="K39" s="13"/>
+        <tr r="F47" s="13"/>
+        <tr r="L42" s="13"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b2ff9bdf-4de1-4e50-bd6f-593d9818f4e4</stp>
+        <tr r="E73" s="9"/>
+        <tr r="F64" s="9"/>
+        <tr r="F79" s="9"/>
+        <tr r="G82" s="9"/>
+        <tr r="E65" s="9"/>
+        <tr r="F78" s="9"/>
+        <tr r="E83" s="9"/>
+        <tr r="F65" s="9"/>
+        <tr r="G66" s="9"/>
+        <tr r="G65" s="9"/>
+        <tr r="G72" s="9"/>
+        <tr r="E63" s="9"/>
+        <tr r="F67" s="9"/>
+        <tr r="G61" s="9"/>
+        <tr r="E68" s="9"/>
+        <tr r="F76" s="9"/>
+        <tr r="E64" s="9"/>
+        <tr r="G81" s="9"/>
+        <tr r="F83" s="9"/>
+        <tr r="G71" s="9"/>
+        <tr r="F63" s="9"/>
+        <tr r="G80" s="9"/>
+        <tr r="G77" s="9"/>
+        <tr r="E69" s="9"/>
+        <tr r="G67" s="9"/>
+        <tr r="E75" s="9"/>
+        <tr r="F68" s="9"/>
+        <tr r="G62" s="9"/>
+        <tr r="F74" s="9"/>
+        <tr r="E62" s="9"/>
+        <tr r="F71" s="9"/>
+        <tr r="F81" s="9"/>
+        <tr r="G83" s="9"/>
+        <tr r="G75" s="9"/>
+        <tr r="E77" s="9"/>
+        <tr r="G78" s="9"/>
+        <tr r="G74" s="9"/>
+        <tr r="G76" s="9"/>
+        <tr r="F62" s="9"/>
+        <tr r="F75" s="9"/>
+        <tr r="G64" s="9"/>
+        <tr r="E71" s="9"/>
+        <tr r="E66" s="9"/>
+        <tr r="E80" s="9"/>
+        <tr r="F77" s="9"/>
+        <tr r="G69" s="9"/>
+        <tr r="F70" s="9"/>
+        <tr r="E70" s="9"/>
+        <tr r="G84" s="9"/>
+        <tr r="E72" s="9"/>
+        <tr r="F82" s="9"/>
+        <tr r="E67" s="9"/>
+        <tr r="E81" s="9"/>
+        <tr r="E74" s="9"/>
+        <tr r="G68" s="9"/>
+        <tr r="G79" s="9"/>
+        <tr r="E79" s="9"/>
+        <tr r="G73" s="9"/>
+        <tr r="F66" s="9"/>
+        <tr r="E78" s="9"/>
+        <tr r="F61" s="9"/>
+        <tr r="G63" s="9"/>
+        <tr r="F69" s="9"/>
+        <tr r="E84" s="9"/>
+        <tr r="F73" s="9"/>
+        <tr r="E61" s="9"/>
+        <tr r="F72" s="9"/>
+        <tr r="F80" s="9"/>
+        <tr r="G70" s="9"/>
+        <tr r="E76" s="9"/>
+        <tr r="E82" s="9"/>
+        <tr r="F84" s="9"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.65da0fdadb0f4c92ba90b35c062623cd">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>031b91d5-eec5-47e6-b870-f982299702ca</stp>
+        <tr r="E35" s="5"/>
+        <tr r="M31" s="5"/>
+        <tr r="K31" s="5"/>
+        <tr r="K34" s="5"/>
+        <tr r="J33" s="5"/>
+        <tr r="K32" s="5"/>
+        <tr r="G32" s="5"/>
+        <tr r="G29" s="5"/>
+        <tr r="G34" s="5"/>
+        <tr r="L33" s="5"/>
+        <tr r="E34" s="5"/>
+        <tr r="H33" s="5"/>
+        <tr r="I32" s="5"/>
+        <tr r="G30" s="5"/>
+        <tr r="M34" s="5"/>
+        <tr r="E31" s="5"/>
+        <tr r="J34" s="5"/>
+        <tr r="M35" s="5"/>
+        <tr r="I31" s="5"/>
+        <tr r="G35" s="5"/>
+        <tr r="I29" s="5"/>
+        <tr r="K30" s="5"/>
+        <tr r="L31" s="5"/>
+        <tr r="H30" s="5"/>
+        <tr r="L32" s="5"/>
+        <tr r="J32" s="5"/>
+        <tr r="F31" s="5"/>
+        <tr r="M33" s="5"/>
+        <tr r="E33" s="5"/>
+        <tr r="J29" s="5"/>
+        <tr r="H32" s="5"/>
+        <tr r="E30" s="5"/>
+        <tr r="H31" s="5"/>
+        <tr r="E32" s="5"/>
+        <tr r="G31" s="5"/>
+        <tr r="I35" s="5"/>
+        <tr r="M30" s="5"/>
+        <tr r="L30" s="5"/>
+        <tr r="F32" s="5"/>
+        <tr r="H34" s="5"/>
+        <tr r="L34" s="5"/>
+        <tr r="L35" s="5"/>
+        <tr r="H35" s="5"/>
+        <tr r="H29" s="5"/>
+        <tr r="K35" s="5"/>
+        <tr r="I33" s="5"/>
+        <tr r="F30" s="5"/>
+        <tr r="K33" s="5"/>
+        <tr r="J31" s="5"/>
+        <tr r="I34" s="5"/>
+        <tr r="M32" s="5"/>
+        <tr r="L29" s="5"/>
+        <tr r="J30" s="5"/>
+        <tr r="F33" s="5"/>
+        <tr r="K29" s="5"/>
+        <tr r="G33" s="5"/>
+        <tr r="E29" s="5"/>
+        <tr r="F29" s="5"/>
+        <tr r="M29" s="5"/>
+        <tr r="F35" s="5"/>
+        <tr r="J35" s="5"/>
+        <tr r="F34" s="5"/>
+        <tr r="I30" s="5"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.65da0fdadb0f4c92ba90b35c062623cd">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d336e5b7-f460-4c8a-b952-e80f4204de74</stp>
+        <tr r="J73" s="6"/>
+        <tr r="G76" s="6"/>
+        <tr r="J75" s="6"/>
+        <tr r="R75" s="6"/>
+        <tr r="E75" s="6"/>
+        <tr r="I63" s="6"/>
+        <tr r="E68" s="6"/>
+        <tr r="F75" s="6"/>
+        <tr r="O66" s="6"/>
+        <tr r="J74" s="6"/>
+        <tr r="N70" s="6"/>
+        <tr r="J78" s="6"/>
+        <tr r="H68" s="6"/>
+        <tr r="J81" s="6"/>
+        <tr r="R70" s="6"/>
+        <tr r="O70" s="6"/>
+        <tr r="S81" s="6"/>
+        <tr r="N74" s="6"/>
+        <tr r="E63" s="6"/>
+        <tr r="P75" s="6"/>
+        <tr r="F81" s="6"/>
+        <tr r="J79" s="6"/>
+        <tr r="Q64" s="6"/>
+        <tr r="I75" s="6"/>
+        <tr r="I76" s="6"/>
+        <tr r="I64" s="6"/>
+        <tr r="N62" s="6"/>
+        <tr r="Q78" s="6"/>
+        <tr r="S79" s="6"/>
+        <tr r="G72" s="6"/>
+        <tr r="G67" s="6"/>
+        <tr r="R74" s="6"/>
+        <tr r="M75" s="6"/>
+        <tr r="O67" s="6"/>
+        <tr r="Q63" s="6"/>
+        <tr r="G80" s="6"/>
+        <tr r="F77" s="6"/>
+        <tr r="N69" s="6"/>
+        <tr r="K71" s="6"/>
+        <tr r="J76" s="6"/>
+        <tr r="Q81" s="6"/>
+        <tr r="P76" s="6"/>
+        <tr r="F79" s="6"/>
+        <tr r="S70" s="6"/>
+        <tr r="F74" s="6"/>
+        <tr r="Q68" s="6"/>
+        <tr r="J65" s="6"/>
+        <tr r="S64" s="6"/>
+        <tr r="P65" s="6"/>
+        <tr r="P81" s="6"/>
         <tr r="I77" s="6"/>
+        <tr r="O68" s="6"/>
+        <tr r="E66" s="6"/>
+        <tr r="Q80" s="6"/>
+        <tr r="H73" s="6"/>
+        <tr r="K63" s="6"/>
+        <tr r="H64" s="6"/>
+        <tr r="L67" s="6"/>
+        <tr r="O63" s="6"/>
+        <tr r="H66" s="6"/>
+        <tr r="M73" s="6"/>
+        <tr r="J67" s="6"/>
+        <tr r="I71" s="6"/>
+        <tr r="K66" s="6"/>
+        <tr r="P68" s="6"/>
+        <tr r="I79" s="6"/>
+        <tr r="G70" s="6"/>
+        <tr r="O77" s="6"/>
+        <tr r="G73" s="6"/>
+        <tr r="G69" s="6"/>
+        <tr r="L68" s="6"/>
+        <tr r="M67" s="6"/>
+        <tr r="L64" s="6"/>
+        <tr r="G64" s="6"/>
+        <tr r="E64" s="6"/>
+        <tr r="G63" s="6"/>
+        <tr r="G65" s="6"/>
+        <tr r="H70" s="6"/>
+        <tr r="H77" s="6"/>
+        <tr r="N71" s="6"/>
+        <tr r="F70" s="6"/>
+        <tr r="N66" s="6"/>
+        <tr r="R64" s="6"/>
+        <tr r="M72" s="6"/>
+        <tr r="H71" s="6"/>
+        <tr r="J68" s="6"/>
+        <tr r="S74" s="6"/>
+        <tr r="R76" s="6"/>
+        <tr r="Q76" s="6"/>
+        <tr r="K76" s="6"/>
+        <tr r="P70" s="6"/>
+        <tr r="E72" s="6"/>
+        <tr r="L75" s="6"/>
+        <tr r="L74" s="6"/>
+        <tr r="R81" s="6"/>
         <tr r="M65" s="6"/>
+        <tr r="S69" s="6"/>
+        <tr r="N68" s="6"/>
+        <tr r="N78" s="6"/>
+        <tr r="H79" s="6"/>
+        <tr r="L76" s="6"/>
+        <tr r="F72" s="6"/>
+        <tr r="R73" s="6"/>
+        <tr r="I72" s="6"/>
+        <tr r="M70" s="6"/>
+        <tr r="M64" s="6"/>
+        <tr r="L69" s="6"/>
+        <tr r="Q75" s="6"/>
+        <tr r="N63" s="6"/>
+        <tr r="O80" s="6"/>
+        <tr r="N65" s="6"/>
+        <tr r="P69" s="6"/>
+        <tr r="I70" s="6"/>
+        <tr r="K64" s="6"/>
+        <tr r="F66" s="6"/>
+        <tr r="H62" s="6"/>
+        <tr r="M63" s="6"/>
+        <tr r="E74" s="6"/>
+        <tr r="R68" s="6"/>
+        <tr r="I74" s="6"/>
+        <tr r="S73" s="6"/>
+        <tr r="Q77" s="6"/>
+        <tr r="F73" s="6"/>
+        <tr r="O81" s="6"/>
+        <tr r="J69" s="6"/>
+        <tr r="J77" s="6"/>
+        <tr r="R69" s="6"/>
+        <tr r="O71" s="6"/>
+        <tr r="P77" s="6"/>
+        <tr r="P78" s="6"/>
+        <tr r="R63" s="6"/>
+        <tr r="E71" s="6"/>
+        <tr r="N76" s="6"/>
+        <tr r="O74" s="6"/>
+        <tr r="S78" s="6"/>
+        <tr r="H80" s="6"/>
+        <tr r="P63" s="6"/>
+        <tr r="L78" s="6"/>
+        <tr r="J64" s="6"/>
+        <tr r="M71" s="6"/>
+        <tr r="G62" s="6"/>
+        <tr r="F76" s="6"/>
+        <tr r="N67" s="6"/>
+        <tr r="R78" s="6"/>
+        <tr r="H76" s="6"/>
+        <tr r="Q69" s="6"/>
+        <tr r="K74" s="6"/>
+        <tr r="O72" s="6"/>
+        <tr r="Q79" s="6"/>
+        <tr r="R66" s="6"/>
+        <tr r="K79" s="6"/>
+        <tr r="M74" s="6"/>
+        <tr r="L71" s="6"/>
+        <tr r="P62" s="6"/>
+        <tr r="H65" s="6"/>
+        <tr r="S76" s="6"/>
+        <tr r="E79" s="6"/>
+        <tr r="Q65" s="6"/>
+        <tr r="Q73" s="6"/>
+        <tr r="K72" s="6"/>
+        <tr r="Q66" s="6"/>
+        <tr r="O64" s="6"/>
+        <tr r="K77" s="6"/>
+        <tr r="E80" s="6"/>
+        <tr r="G81" s="6"/>
+        <tr r="K80" s="6"/>
+        <tr r="Q62" s="6"/>
+        <tr r="I73" s="6"/>
+        <tr r="Q72" s="6"/>
+        <tr r="N79" s="6"/>
+        <tr r="L65" s="6"/>
+        <tr r="K69" s="6"/>
+        <tr r="I62" s="6"/>
+        <tr r="S80" s="6"/>
+        <tr r="N81" s="6"/>
+        <tr r="O75" s="6"/>
+        <tr r="M79" s="6"/>
+        <tr r="E69" s="6"/>
+        <tr r="P80" s="6"/>
+        <tr r="R62" s="6"/>
+        <tr r="K68" s="6"/>
+        <tr r="E67" s="6"/>
+        <tr r="S77" s="6"/>
+        <tr r="J62" s="6"/>
+        <tr r="F78" s="6"/>
+        <tr r="H69" s="6"/>
+        <tr r="O79" s="6"/>
+        <tr r="L63" s="6"/>
+        <tr r="I81" s="6"/>
+        <tr r="M77" s="6"/>
+        <tr r="K78" s="6"/>
+        <tr r="M62" s="6"/>
+        <tr r="P74" s="6"/>
+        <tr r="R79" s="6"/>
+        <tr r="G66" s="6"/>
+        <tr r="Q74" s="6"/>
+        <tr r="J66" s="6"/>
+        <tr r="P66" s="6"/>
+        <tr r="L62" s="6"/>
+        <tr r="L70" s="6"/>
+        <tr r="I69" s="6"/>
+        <tr r="J70" s="6"/>
+        <tr r="S67" s="6"/>
+        <tr r="S65" s="6"/>
+        <tr r="R67" s="6"/>
+        <tr r="Q71" s="6"/>
+        <tr r="E73" s="6"/>
+        <tr r="E76" s="6"/>
+        <tr r="K70" s="6"/>
+        <tr r="E62" s="6"/>
+        <tr r="S68" s="6"/>
+        <tr r="L66" s="6"/>
+        <tr r="L77" s="6"/>
+        <tr r="N73" s="6"/>
+        <tr r="L80" s="6"/>
+        <tr r="I78" s="6"/>
+        <tr r="N80" s="6"/>
+        <tr r="M66" s="6"/>
+        <tr r="I68" s="6"/>
+        <tr r="H72" s="6"/>
+        <tr r="G77" s="6"/>
+        <tr r="F69" s="6"/>
+        <tr r="K75" s="6"/>
+        <tr r="P79" s="6"/>
+        <tr r="K65" s="6"/>
+        <tr r="P67" s="6"/>
+        <tr r="L81" s="6"/>
+        <tr r="F67" s="6"/>
+        <tr r="O73" s="6"/>
+        <tr r="F65" s="6"/>
+        <tr r="F62" s="6"/>
+        <tr r="J80" s="6"/>
+        <tr r="E70" s="6"/>
+        <tr r="K67" s="6"/>
+        <tr r="G74" s="6"/>
+        <tr r="O62" s="6"/>
+        <tr r="N72" s="6"/>
+        <tr r="M69" s="6"/>
         <tr r="S71" s="6"/>
-        <tr r="E79" s="6"/>
-        <tr r="I69" s="6"/>
+        <tr r="J63" s="6"/>
+        <tr r="S63" s="6"/>
+        <tr r="G79" s="6"/>
+        <tr r="M81" s="6"/>
+        <tr r="F63" s="6"/>
+        <tr r="G71" s="6"/>
         <tr r="G78" s="6"/>
-        <tr r="Q76" s="6"/>
-        <tr r="F75" s="6"/>
-        <tr r="O68" s="6"/>
-        <tr r="S69" s="6"/>
-        <tr r="R66" s="6"/>
-        <tr r="Q65" s="6"/>
-        <tr r="J70" s="6"/>
         <tr r="H67" s="6"/>
-        <tr r="J73" s="6"/>
-        <tr r="O66" s="6"/>
-        <tr r="E66" s="6"/>
-        <tr r="N68" s="6"/>
-        <tr r="Q74" s="6"/>
-        <tr r="Q73" s="6"/>
-        <tr r="S67" s="6"/>
         <tr r="J72" s="6"/>
+        <tr r="F68" s="6"/>
+        <tr r="P71" s="6"/>
+        <tr r="H78" s="6"/>
+        <tr r="G75" s="6"/>
+        <tr r="L73" s="6"/>
+        <tr r="F71" s="6"/>
+        <tr r="E81" s="6"/>
+        <tr r="S66" s="6"/>
+        <tr r="E78" s="6"/>
+        <tr r="R72" s="6"/>
+        <tr r="G68" s="6"/>
+        <tr r="M80" s="6"/>
+        <tr r="H63" s="6"/>
+        <tr r="I66" s="6"/>
+        <tr r="R71" s="6"/>
+        <tr r="L72" s="6"/>
+        <tr r="E77" s="6"/>
+        <tr r="L79" s="6"/>
+        <tr r="S62" s="6"/>
+        <tr r="F80" s="6"/>
+        <tr r="I67" s="6"/>
+        <tr r="H74" s="6"/>
+        <tr r="O69" s="6"/>
+        <tr r="K73" s="6"/>
+        <tr r="N75" s="6"/>
+        <tr r="R77" s="6"/>
+        <tr r="K62" s="6"/>
+        <tr r="I80" s="6"/>
+        <tr r="P73" s="6"/>
+        <tr r="J71" s="6"/>
+        <tr r="M68" s="6"/>
+        <tr r="K81" s="6"/>
+        <tr r="I65" s="6"/>
+        <tr r="P72" s="6"/>
         <tr r="F64" s="6"/>
-        <tr r="J74" s="6"/>
-        <tr r="Q80" s="6"/>
-        <tr r="N78" s="6"/>
-        <tr r="E71" s="6"/>
-        <tr r="K72" s="6"/>
-        <tr r="S65" s="6"/>
-        <tr r="F68" s="6"/>
-        <tr r="Q68" s="6"/>
-        <tr r="N70" s="6"/>
-        <tr r="H73" s="6"/>
-        <tr r="H79" s="6"/>
-        <tr r="J63" s="6"/>
-        <tr r="Q66" s="6"/>
-        <tr r="R67" s="6"/>
-        <tr r="P71" s="6"/>
-        <tr r="K76" s="6"/>
-        <tr r="J78" s="6"/>
-        <tr r="K63" s="6"/>
-        <tr r="L76" s="6"/>
-        <tr r="K79" s="6"/>
-        <tr r="O64" s="6"/>
-        <tr r="Q71" s="6"/>
-        <tr r="H78" s="6"/>
-        <tr r="G76" s="6"/>
-        <tr r="H68" s="6"/>
-        <tr r="H64" s="6"/>
-        <tr r="K77" s="6"/>
-        <tr r="E73" s="6"/>
-        <tr r="G75" s="6"/>
-        <tr r="P70" s="6"/>
-        <tr r="J81" s="6"/>
-        <tr r="L67" s="6"/>
-        <tr r="F72" s="6"/>
-        <tr r="M74" s="6"/>
-        <tr r="E80" s="6"/>
-        <tr r="E76" s="6"/>
-        <tr r="L73" s="6"/>
-        <tr r="J75" s="6"/>
-        <tr r="R70" s="6"/>
-        <tr r="O63" s="6"/>
-        <tr r="R73" s="6"/>
-        <tr r="J66" s="6"/>
-        <tr r="G81" s="6"/>
-        <tr r="K70" s="6"/>
-        <tr r="F71" s="6"/>
-        <tr r="J65" s="6"/>
-        <tr r="O70" s="6"/>
-        <tr r="H66" s="6"/>
-        <tr r="I72" s="6"/>
-        <tr r="N76" s="6"/>
-        <tr r="K80" s="6"/>
-        <tr r="E62" s="6"/>
-        <tr r="E81" s="6"/>
         <tr r="M78" s="6"/>
-        <tr r="S81" s="6"/>
-        <tr r="M73" s="6"/>
-        <tr r="M70" s="6"/>
-        <tr r="S63" s="6"/>
-        <tr r="Q62" s="6"/>
-        <tr r="S68" s="6"/>
-        <tr r="S66" s="6"/>
-        <tr r="E72" s="6"/>
-        <tr r="N74" s="6"/>
-        <tr r="J67" s="6"/>
-        <tr r="I73" s="6"/>
-        <tr r="L66" s="6"/>
-        <tr r="E78" s="6"/>
         <tr r="S72" s="6"/>
-        <tr r="E63" s="6"/>
-        <tr r="I71" s="6"/>
-        <tr r="M64" s="6"/>
-        <tr r="L71" s="6"/>
-        <tr r="Q72" s="6"/>
-        <tr r="L77" s="6"/>
-        <tr r="R72" s="6"/>
-        <tr r="R75" s="6"/>
-        <tr r="P75" s="6"/>
-        <tr r="K66" s="6"/>
-        <tr r="L69" s="6"/>
-        <tr r="G79" s="6"/>
-        <tr r="N79" s="6"/>
-        <tr r="N73" s="6"/>
-        <tr r="G68" s="6"/>
-        <tr r="L75" s="6"/>
-        <tr r="F81" s="6"/>
-        <tr r="P68" s="6"/>
-        <tr r="Q75" s="6"/>
-        <tr r="P66" s="6"/>
-        <tr r="L65" s="6"/>
-        <tr r="L80" s="6"/>
-        <tr r="M80" s="6"/>
-        <tr r="S64" s="6"/>
-        <tr r="J79" s="6"/>
-        <tr r="I79" s="6"/>
-        <tr r="N63" s="6"/>
-        <tr r="O74" s="6"/>
-        <tr r="K69" s="6"/>
-        <tr r="I78" s="6"/>
-        <tr r="Q64" s="6"/>
-        <tr r="G70" s="6"/>
-        <tr r="O80" s="6"/>
-        <tr r="S78" s="6"/>
-        <tr r="I62" s="6"/>
-        <tr r="N80" s="6"/>
-        <tr r="H63" s="6"/>
         <tr r="Q70" s="6"/>
-        <tr r="I75" s="6"/>
-        <tr r="O77" s="6"/>
-        <tr r="N65" s="6"/>
-        <tr r="P62" s="6"/>
-        <tr r="S80" s="6"/>
-        <tr r="M66" s="6"/>
-        <tr r="I66" s="6"/>
-        <tr r="E75" s="6"/>
-        <tr r="I76" s="6"/>
-        <tr r="G73" s="6"/>
-        <tr r="P69" s="6"/>
-        <tr r="L62" s="6"/>
-        <tr r="N81" s="6"/>
-        <tr r="I68" s="6"/>
-        <tr r="R71" s="6"/>
-        <tr r="L74" s="6"/>
-        <tr r="I64" s="6"/>
-        <tr r="G69" s="6"/>
-        <tr r="I70" s="6"/>
-        <tr r="M81" s="6"/>
-        <tr r="O75" s="6"/>
-        <tr r="H72" s="6"/>
-        <tr r="L72" s="6"/>
-        <tr r="P65" s="6"/>
-        <tr r="N62" s="6"/>
-        <tr r="H65" s="6"/>
-        <tr r="M79" s="6"/>
-        <tr r="G77" s="6"/>
-        <tr r="E77" s="6"/>
-        <tr r="I63" s="6"/>
-        <tr r="Q78" s="6"/>
-        <tr r="L68" s="6"/>
-        <tr r="K64" s="6"/>
-        <tr r="F63" s="6"/>
-        <tr r="E69" s="6"/>
-        <tr r="F69" s="6"/>
-        <tr r="L79" s="6"/>
-        <tr r="R81" s="6"/>
-        <tr r="S79" s="6"/>
-        <tr r="M67" s="6"/>
-        <tr r="F66" s="6"/>
-        <tr r="L70" s="6"/>
-        <tr r="P80" s="6"/>
-        <tr r="K75" s="6"/>
-        <tr r="S62" s="6"/>
-        <tr r="P81" s="6"/>
-        <tr r="G72" s="6"/>
-        <tr r="L64" s="6"/>
-        <tr r="H62" s="6"/>
-        <tr r="H80" s="6"/>
-        <tr r="R62" s="6"/>
-        <tr r="P79" s="6"/>
-        <tr r="F80" s="6"/>
         <tr r="H75" s="6"/>
-        <tr r="G67" s="6"/>
-        <tr r="G64" s="6"/>
-        <tr r="M63" s="6"/>
-        <tr r="P63" s="6"/>
-        <tr r="K68" s="6"/>
-        <tr r="K65" s="6"/>
-        <tr r="I67" s="6"/>
         <tr r="O65" s="6"/>
-        <tr r="R74" s="6"/>
-        <tr r="E64" s="6"/>
-        <tr r="E74" s="6"/>
-        <tr r="L78" s="6"/>
-        <tr r="E67" s="6"/>
-        <tr r="P67" s="6"/>
-        <tr r="H74" s="6"/>
         <tr r="S75" s="6"/>
-        <tr r="M75" s="6"/>
-        <tr r="R68" s="6"/>
-        <tr r="G71" s="6"/>
-        <tr r="S77" s="6"/>
-        <tr r="L81" s="6"/>
-        <tr r="O69" s="6"/>
-        <tr r="E68" s="6"/>
-        <tr r="O67" s="6"/>
-        <tr r="G63" s="6"/>
-        <tr r="I74" s="6"/>
-        <tr r="S76" s="6"/>
-        <tr r="J62" s="6"/>
-        <tr r="F67" s="6"/>
-        <tr r="K73" s="6"/>
         <tr r="N77" s="6"/>
-        <tr r="Q63" s="6"/>
-        <tr r="G65" s="6"/>
-        <tr r="S73" s="6"/>
-        <tr r="J64" s="6"/>
-        <tr r="F78" s="6"/>
-        <tr r="O73" s="6"/>
-        <tr r="N75" s="6"/>
         <tr r="N64" s="6"/>
-        <tr r="G80" s="6"/>
-        <tr r="H70" s="6"/>
-        <tr r="Q77" s="6"/>
-        <tr r="M71" s="6"/>
-        <tr r="H69" s="6"/>
-        <tr r="F65" s="6"/>
-        <tr r="R77" s="6"/>
         <tr r="O76" s="6"/>
-        <tr r="F77" s="6"/>
-        <tr r="H77" s="6"/>
-        <tr r="F73" s="6"/>
-        <tr r="G62" s="6"/>
-        <tr r="O79" s="6"/>
-        <tr r="F62" s="6"/>
-        <tr r="K62" s="6"/>
-        <tr r="N71" s="6"/>
-        <tr r="O81" s="6"/>
-        <tr r="F76" s="6"/>
-        <tr r="L63" s="6"/>
-        <tr r="J80" s="6"/>
-        <tr r="I80" s="6"/>
         <tr r="H81" s="6"/>
-        <tr r="N69" s="6"/>
-        <tr r="F70" s="6"/>
-        <tr r="J69" s="6"/>
-        <tr r="N67" s="6"/>
-        <tr r="I81" s="6"/>
-        <tr r="E70" s="6"/>
-        <tr r="P73" s="6"/>
         <tr r="R80" s="6"/>
-        <tr r="K71" s="6"/>
-        <tr r="N66" s="6"/>
-        <tr r="J77" s="6"/>
-        <tr r="R78" s="6"/>
-        <tr r="M77" s="6"/>
-        <tr r="K67" s="6"/>
-        <tr r="J71" s="6"/>
         <tr r="O78" s="6"/>
-        <tr r="J76" s="6"/>
-        <tr r="R64" s="6"/>
-        <tr r="R69" s="6"/>
-        <tr r="H76" s="6"/>
-        <tr r="K78" s="6"/>
         <tr r="E65" s="6"/>
-        <tr r="Q81" s="6"/>
-        <tr r="M72" s="6"/>
-        <tr r="O71" s="6"/>
-        <tr r="Q69" s="6"/>
-        <tr r="M62" s="6"/>
-        <tr r="G74" s="6"/>
-        <tr r="M68" s="6"/>
         <tr r="Q67" s="6"/>
-        <tr r="P76" s="6"/>
-        <tr r="H71" s="6"/>
-        <tr r="P77" s="6"/>
-        <tr r="K74" s="6"/>
-        <tr r="P74" s="6"/>
-        <tr r="O62" s="6"/>
-        <tr r="K81" s="6"/>
         <tr r="P64" s="6"/>
-        <tr r="F79" s="6"/>
-        <tr r="J68" s="6"/>
-        <tr r="P78" s="6"/>
-        <tr r="O72" s="6"/>
-        <tr r="R79" s="6"/>
-        <tr r="N72" s="6"/>
-        <tr r="I65" s="6"/>
         <tr r="M76" s="6"/>
-        <tr r="S70" s="6"/>
-        <tr r="S74" s="6"/>
-        <tr r="R63" s="6"/>
-        <tr r="Q79" s="6"/>
-        <tr r="G66" s="6"/>
-        <tr r="M69" s="6"/>
-        <tr r="P72" s="6"/>
         <tr r="R65" s="6"/>
-        <tr r="F74" s="6"/>
-        <tr r="R76" s="6"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>827905e3-7554-46dd-bcef-ba8e084fa063</stp>
+        <tr r="G39" s="9"/>
+        <tr r="E31" s="9"/>
+        <tr r="G33" s="9"/>
+        <tr r="G37" s="9"/>
+        <tr r="F34" s="9"/>
+        <tr r="F31" s="9"/>
+        <tr r="E34" s="9"/>
+        <tr r="F39" s="9"/>
+        <tr r="G28" s="9"/>
+        <tr r="E30" s="9"/>
+        <tr r="E36" s="9"/>
+        <tr r="F37" s="9"/>
+        <tr r="G38" s="9"/>
+        <tr r="G31" s="9"/>
+        <tr r="G29" s="9"/>
+        <tr r="G36" s="9"/>
+        <tr r="E32" s="9"/>
+        <tr r="G30" s="9"/>
+        <tr r="E38" s="9"/>
+        <tr r="E29" s="9"/>
+        <tr r="E33" s="9"/>
+        <tr r="F28" s="9"/>
+        <tr r="E35" s="9"/>
+        <tr r="F38" s="9"/>
+        <tr r="F30" s="9"/>
+        <tr r="E37" s="9"/>
+        <tr r="G34" s="9"/>
+        <tr r="E39" s="9"/>
+        <tr r="E28" s="9"/>
+        <tr r="G32" s="9"/>
+        <tr r="F29" s="9"/>
+        <tr r="G35" s="9"/>
+        <tr r="F36" s="9"/>
+        <tr r="F32" s="9"/>
+        <tr r="F35" s="9"/>
+        <tr r="F33" s="9"/>
       </tp>
     </main>
   </volType>
@@ -4797,7 +4816,7 @@
   <dimension ref="B1:T31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7557,7 +7576,7 @@
         <v>Contains Finbourne US Fixed Income portfolios</v>
       </c>
       <c r="I48" s="81">
-        <v>43556</v>
+        <v>43873.761164120369</v>
       </c>
       <c r="J48" s="89">
         <v>2</v>
@@ -7633,7 +7652,7 @@
         <v>Contains Finbourne Examples portfolios</v>
       </c>
       <c r="I51" s="81">
-        <v>43556</v>
+        <v>43873.761166921293</v>
       </c>
       <c r="J51" s="89">
         <v>2</v>
@@ -9031,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="30" t="str">
-        <v>Testdemob35cafba-e67b-4708-ba4f-0c5707b32e5f</v>
+        <v>default</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="2"/>
@@ -9049,7 +9068,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="30" t="str">
-        <v>my_test_scope_8</v>
+        <v>Finbourne-Examples</v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="2"/>
@@ -9067,7 +9086,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="30" t="str">
-        <v>Testdemo-a3380f3a-3349-4fd5-b6a4-b88ebfed846a</v>
+        <v>Test1</v>
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="2"/>
@@ -9085,7 +9104,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="30" t="str">
-        <v>Testdemo-738a33c8-7636-48ee-9e82-f6f2b3e695bf</v>
+        <v>FinbourneMarketData</v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="2"/>
@@ -9103,7 +9122,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="30" t="str">
-        <v>Testdemo-ce92c9d7-6df9-459f-a150-9c03e66e8e53</v>
+        <v>TraderMadeFxData</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="2"/>
@@ -9121,7 +9140,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="30" t="str">
-        <v>Testdemo-b55edbc2-ba4b-4fc7-a077-ba8cbea8fade</v>
+        <v/>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="2"/>
@@ -9139,7 +9158,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="30" t="str">
-        <v>Testdemo-db6c5eb2-095f-4ee5-a6ec-e499b21778d8</v>
+        <v/>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="2"/>
@@ -9157,7 +9176,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="30" t="str">
-        <v>Testdemo2769d418-3c1e-4b0a-b3e2-ad1ad48b6651</v>
+        <v/>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="2"/>
@@ -9175,7 +9194,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="30" t="str">
-        <v>Testdemo-519437a3-7bd5-4278-b67c-60ecbdbf18e1</v>
+        <v/>
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="2"/>
@@ -9193,7 +9212,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="30" t="str">
-        <v>[More...]</v>
+        <v/>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="2"/>
@@ -9768,13 +9787,13 @@
         <v>Global-Equity</v>
       </c>
       <c r="H30" s="29" t="str">
-        <v>Global Equity</v>
-      </c>
-      <c r="I30" s="30" t="str">
-        <v>Global equity portfolio</v>
+        <v>Global Equity Fund</v>
+      </c>
+      <c r="I30" s="30">
+        <v>0</v>
       </c>
       <c r="J30" s="67">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="K30" s="68">
         <v>0</v>
@@ -9810,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="67">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="K31" s="68">
         <v>0</v>
@@ -9846,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="67">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="K32" s="68">
         <v>0</v>
@@ -9882,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="67">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="K33" s="68">
         <v>0</v>
@@ -10424,7 +10443,7 @@
   <dimension ref="B1:S52"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="K39" sqref="I39:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10703,7 +10722,7 @@
         <v>203</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>343</v>
+        <v>229</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>204</v>
@@ -10937,10 +10956,10 @@
         <v>Name</v>
       </c>
       <c r="Q31" s="7" t="str">
-        <v>EdiKey</v>
+        <v>Figi</v>
       </c>
       <c r="R31" s="7" t="str">
-        <v>[More...]</v>
+        <v>Currency</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
@@ -10950,44 +10969,44 @@
         <v>1</v>
       </c>
       <c r="E32" s="16" t="str">
-        <v>LUID_D78YNNLM</v>
+        <v>LUID_GLIJZG4R</v>
       </c>
       <c r="F32" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G32" s="50">
-        <v>45617647.058823533</v>
+        <v>12000000</v>
       </c>
       <c r="H32" s="52">
-        <v>45617647.058823533</v>
+        <v>12000000</v>
       </c>
       <c r="I32" s="52">
-        <v>45775402.840000004</v>
+        <v>2390760000</v>
       </c>
       <c r="J32" s="28" t="str">
         <v>USD</v>
       </c>
       <c r="K32" s="51">
-        <v>45775402.840000004</v>
+        <v>1822715424</v>
       </c>
       <c r="L32" s="51" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="52" t="str">
         <v>Active</v>
       </c>
       <c r="O32" s="75" t="str">
-        <v>LUID_D78YNNLM</v>
+        <v>LUID_GLIJZG4R</v>
       </c>
       <c r="P32" s="51" t="str">
-        <v>T 2.375% Aug 15, 2024</v>
+        <v>Apple</v>
       </c>
       <c r="Q32" s="51" t="str">
-        <v>4323239--</v>
-      </c>
-      <c r="R32" s="51" t="str">
-        <v>[More...]</v>
+        <v>BBG000B9XRY4</v>
+      </c>
+      <c r="R32" s="51">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
@@ -10997,44 +11016,44 @@
         <v>2</v>
       </c>
       <c r="E33" s="15" t="str">
-        <v>LUID_152B114A</v>
+        <v>LUID_8F8Y9YAF</v>
       </c>
       <c r="F33" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G33" s="50">
-        <v>58235294.117647059</v>
+        <v>8390273.5294117648</v>
       </c>
       <c r="H33" s="52">
-        <v>58235294.117647059</v>
+        <v>8390273.5294117648</v>
       </c>
       <c r="I33" s="52">
-        <v>56940383.289999999</v>
+        <v>1329858354.4100001</v>
       </c>
       <c r="J33" s="28" t="str">
-        <v>USD</v>
+        <v>EUR</v>
       </c>
       <c r="K33" s="51">
-        <v>56940383.289999999</v>
+        <v>1146538515.6600001</v>
       </c>
       <c r="L33" s="51" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="52" t="str">
         <v>Active</v>
       </c>
       <c r="O33" s="75" t="str">
-        <v>LUID_152B114A</v>
+        <v>LUID_8F8Y9YAF</v>
       </c>
       <c r="P33" s="51" t="str">
-        <v>T 2% Aug 15, 2025</v>
+        <v>Volkswagen</v>
       </c>
       <c r="Q33" s="51" t="str">
-        <v>4580582--</v>
-      </c>
-      <c r="R33" s="51" t="str">
-        <v>[More...]</v>
+        <v>BBG000BCH458</v>
+      </c>
+      <c r="R33" s="51">
+        <v>0</v>
       </c>
       <c r="S33" s="40"/>
     </row>
@@ -11045,44 +11064,44 @@
         <v>3</v>
       </c>
       <c r="E34" s="15" t="str">
-        <v>LUID_87W56LPF</v>
+        <v>LUID_1GWUAY54</v>
       </c>
       <c r="F34" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G34" s="50">
-        <v>76676470.588235289</v>
+        <v>10986582.352941176</v>
       </c>
       <c r="H34" s="52">
-        <v>76676470.588235289</v>
+        <v>10986582.352941176</v>
       </c>
       <c r="I34" s="52">
-        <v>75677902.540000007</v>
+        <v>71971057729</v>
       </c>
       <c r="J34" s="28" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="K34" s="51">
-        <v>75677902.540000007</v>
+        <v>489629528.97000003</v>
       </c>
       <c r="L34" s="51" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="52" t="str">
         <v>Active</v>
       </c>
       <c r="O34" s="75" t="str">
-        <v>LUID_87W56LPF</v>
+        <v>LUID_1GWUAY54</v>
       </c>
       <c r="P34" s="51" t="str">
-        <v>T 2.25% Feb 15, 2027</v>
+        <v>Toyota Motor</v>
       </c>
       <c r="Q34" s="51" t="str">
-        <v>5043642--</v>
-      </c>
-      <c r="R34" s="51" t="str">
-        <v>[More...]</v>
+        <v>BBG000BCM915</v>
+      </c>
+      <c r="R34" s="51">
+        <v>0</v>
       </c>
       <c r="S34" s="40"/>
     </row>
@@ -11093,44 +11112,44 @@
         <v>4</v>
       </c>
       <c r="E35" s="15" t="str">
-        <v>LUID_M2JUXPV3</v>
+        <v>LUID_QUL3RUG6</v>
       </c>
       <c r="F35" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G35" s="50">
-        <v>8735294.1176470593</v>
+        <v>-8191470.5882352944</v>
       </c>
       <c r="H35" s="52">
-        <v>8735294.1176470593</v>
+        <v>-8191470.5882352944</v>
       </c>
       <c r="I35" s="52">
-        <v>8805197.5800000001</v>
+        <v>-1092849358.8199999</v>
       </c>
       <c r="J35" s="28" t="str">
         <v>USD</v>
       </c>
       <c r="K35" s="51">
-        <v>8805197.5800000001</v>
+        <v>-822451808.32000005</v>
       </c>
       <c r="L35" s="51" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="52" t="str">
         <v>Active</v>
       </c>
       <c r="O35" s="75" t="str">
-        <v>LUID_M2JUXPV3</v>
+        <v>LUID_QUL3RUG6</v>
       </c>
       <c r="P35" s="51" t="str">
-        <v>T 2.25% Apr 30, 2021</v>
+        <v>Walt Disney</v>
       </c>
       <c r="Q35" s="51" t="str">
-        <v>4251386--</v>
-      </c>
-      <c r="R35" s="51" t="str">
-        <v>[More...]</v>
+        <v>BBG000BH4R78</v>
+      </c>
+      <c r="R35" s="51">
+        <v>0</v>
       </c>
       <c r="S35" s="40"/>
     </row>
@@ -11141,44 +11160,44 @@
         <v>5</v>
       </c>
       <c r="E36" s="15" t="str">
-        <v>LUID_EPPYX828</v>
+        <v>LUID_08HCN078</v>
       </c>
       <c r="F36" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G36" s="50">
-        <v>52500000</v>
+        <v>10859705.882352941</v>
       </c>
       <c r="H36" s="52">
-        <v>52500000</v>
+        <v>10859705.882352941</v>
       </c>
       <c r="I36" s="52">
-        <v>52592273.829999998</v>
+        <v>1314567397.0599999</v>
       </c>
       <c r="J36" s="28" t="str">
         <v>USD</v>
       </c>
       <c r="K36" s="51">
-        <v>51089637.43</v>
+        <v>1002226183.52</v>
       </c>
       <c r="L36" s="51" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="52" t="str">
         <v>Active</v>
       </c>
       <c r="O36" s="75" t="str">
-        <v>LUID_EPPYX828</v>
+        <v>LUID_08HCN078</v>
       </c>
       <c r="P36" s="51" t="str">
-        <v>T 2.25% Nov 15, 2024</v>
+        <v>Microsoft</v>
       </c>
       <c r="Q36" s="51" t="str">
-        <v>4379995--</v>
-      </c>
-      <c r="R36" s="51" t="str">
-        <v>[More...]</v>
+        <v>BBG000BPH459</v>
+      </c>
+      <c r="R36" s="51">
+        <v>0</v>
       </c>
       <c r="S36" s="40"/>
     </row>
@@ -11189,44 +11208,44 @@
         <v>6</v>
       </c>
       <c r="E37" s="15" t="str">
-        <v>LUID_G7OGCEIQ</v>
+        <v>LUID_14R6XKE5</v>
       </c>
       <c r="F37" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G37" s="50">
-        <v>-14558823.529411765</v>
+        <v>474117.6470588235</v>
       </c>
       <c r="H37" s="52">
-        <v>-14558823.529411765</v>
+        <v>474117.6470588235</v>
       </c>
       <c r="I37" s="52">
-        <v>-14550729.710000001</v>
+        <v>310973764.70999998</v>
       </c>
       <c r="J37" s="28" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="K37" s="51">
-        <v>-14550729.710000001</v>
+        <v>310973764.70999998</v>
       </c>
       <c r="L37" s="51" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="52" t="str">
         <v>Active</v>
       </c>
       <c r="O37" s="75" t="str">
-        <v>LUID_G7OGCEIQ</v>
+        <v>LUID_14R6XKE5</v>
       </c>
       <c r="P37" s="51" t="str">
-        <v>T 2.875% Nov 15, 2046</v>
+        <v>HSBC Holdings</v>
       </c>
       <c r="Q37" s="51" t="str">
-        <v>4956250--</v>
-      </c>
-      <c r="R37" s="51" t="str">
-        <v>[More...]</v>
+        <v>BBG000BS1MT4</v>
+      </c>
+      <c r="R37" s="51">
+        <v>0</v>
       </c>
       <c r="S37" s="40"/>
     </row>
@@ -11237,44 +11256,44 @@
         <v>7</v>
       </c>
       <c r="E38" s="15" t="str">
-        <v>LUID_WFMD7KKA</v>
+        <v>LUID_AUZOX8G4</v>
       </c>
       <c r="F38" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G38" s="50">
-        <v>21617647.05882353</v>
+        <v>2937647.0588235296</v>
       </c>
       <c r="H38" s="52">
-        <v>21617647.05882353</v>
+        <v>2937647.0588235296</v>
       </c>
       <c r="I38" s="52">
-        <v>21332310.539999999</v>
+        <v>1390072117.6500001</v>
       </c>
       <c r="J38" s="28" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="K38" s="51">
-        <v>20722815.949999999</v>
+        <v>1322168000</v>
       </c>
       <c r="L38" s="51" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="52" t="str">
         <v>Active</v>
       </c>
       <c r="O38" s="75" t="str">
-        <v>LUID_WFMD7KKA</v>
+        <v>LUID_AUZOX8G4</v>
       </c>
       <c r="P38" s="51" t="str">
-        <v>T 2% Feb 15, 2025</v>
+        <v>BP</v>
       </c>
       <c r="Q38" s="51" t="str">
-        <v>4442680--</v>
-      </c>
-      <c r="R38" s="51" t="str">
-        <v>[More...]</v>
+        <v>BBG000C059M6</v>
+      </c>
+      <c r="R38" s="51">
+        <v>0</v>
       </c>
       <c r="S38" s="40"/>
     </row>
@@ -11285,44 +11304,44 @@
         <v>8</v>
       </c>
       <c r="E39" s="15" t="str">
-        <v>LUID_B5O2WNS5</v>
+        <v>LUID_UWD2WF3J</v>
       </c>
       <c r="F39" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G39" s="50">
-        <v>-5823529.4117647056</v>
+        <v>8300000</v>
       </c>
       <c r="H39" s="52">
-        <v>-5823529.4117647056</v>
+        <v>8300000</v>
       </c>
       <c r="I39" s="52">
-        <v>-7025708.1799999997</v>
+        <v>98147500000</v>
       </c>
       <c r="J39" s="28" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="K39" s="51">
-        <v>-7025708.1799999997</v>
+        <v>668044384.09000003</v>
       </c>
       <c r="L39" s="51" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="52" t="str">
         <v>Active</v>
       </c>
       <c r="O39" s="75" t="str">
-        <v>LUID_B5O2WNS5</v>
+        <v>LUID_UWD2WF3J</v>
       </c>
       <c r="P39" s="51" t="str">
-        <v>T 7.125% Feb 15, 2023</v>
+        <v>Softbank</v>
       </c>
       <c r="Q39" s="51" t="str">
-        <v>683431--</v>
-      </c>
-      <c r="R39" s="51" t="str">
-        <v>[More...]</v>
+        <v>BBG000CLY2D3</v>
+      </c>
+      <c r="R39" s="51">
+        <v>0</v>
       </c>
       <c r="S39" s="40"/>
     </row>
@@ -11333,44 +11352,44 @@
         <v>9</v>
       </c>
       <c r="E40" s="15" t="str">
-        <v>LUID_Q7Q51QDN</v>
+        <v>LUID_BTHCLT3V</v>
       </c>
       <c r="F40" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G40" s="50">
-        <v>75000000</v>
+        <v>21352941.176470589</v>
       </c>
       <c r="H40" s="52">
-        <v>75000000</v>
+        <v>21352941.176470589</v>
       </c>
       <c r="I40" s="52">
-        <v>74034476.900000006</v>
+        <v>2379056470.5900002</v>
       </c>
       <c r="J40" s="28" t="str">
         <v>USD</v>
       </c>
       <c r="K40" s="51">
-        <v>74034476.900000006</v>
+        <v>1760183376</v>
       </c>
       <c r="L40" s="51" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="52" t="str">
         <v>Active</v>
       </c>
       <c r="O40" s="75" t="str">
-        <v>LUID_Q7Q51QDN</v>
+        <v>LUID_BTHCLT3V</v>
       </c>
       <c r="P40" s="51" t="str">
-        <v>T 1.875% Aug 31, 2022</v>
+        <v>JPMorgan Chase</v>
       </c>
       <c r="Q40" s="51" t="str">
-        <v>4594248--</v>
-      </c>
-      <c r="R40" s="51" t="str">
-        <v>[More...]</v>
+        <v>BBG000DMBXR2</v>
+      </c>
+      <c r="R40" s="51">
+        <v>0</v>
       </c>
       <c r="S40" s="40"/>
     </row>
@@ -11381,44 +11400,44 @@
         <v>10</v>
       </c>
       <c r="E41" s="15" t="str">
-        <v>LUID_9KQYU3S7</v>
+        <v>LUID_C3GLNXZJ</v>
       </c>
       <c r="F41" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G41" s="50">
-        <v>155000000</v>
+        <v>15568235.294117648</v>
       </c>
       <c r="H41" s="52">
-        <v>155000000</v>
+        <v>15568235.294117648</v>
       </c>
       <c r="I41" s="52">
-        <v>152782404.88999999</v>
+        <v>1257652294.1199999</v>
       </c>
       <c r="J41" s="28" t="str">
-        <v>USD</v>
+        <v>EUR</v>
       </c>
       <c r="K41" s="51">
-        <v>152782404.88999999</v>
+        <v>1050759285.3099999</v>
       </c>
       <c r="L41" s="51" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="52" t="str">
         <v>Active</v>
       </c>
       <c r="O41" s="75" t="str">
-        <v>LUID_9KQYU3S7</v>
+        <v>LUID_C3GLNXZJ</v>
       </c>
       <c r="P41" s="51" t="str">
-        <v>T 1.75% Feb 28, 2022</v>
+        <v>Anheuser-Busch InBev</v>
       </c>
       <c r="Q41" s="51" t="str">
-        <v>4450492--</v>
-      </c>
-      <c r="R41" s="51" t="str">
-        <v>[More...]</v>
+        <v>BBG00DQ4YZ36</v>
+      </c>
+      <c r="R41" s="51">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
@@ -11434,13 +11453,13 @@
         <v>B</v>
       </c>
       <c r="G42" s="78">
-        <v>2906731.0895352671</v>
+        <v>-24505476.47058823</v>
       </c>
       <c r="H42" s="52">
-        <v>2906731.0895352671</v>
+        <v>-24505476.47058823</v>
       </c>
       <c r="I42" s="52">
-        <v>2906731.09</v>
+        <v>-24505476.469999999</v>
       </c>
       <c r="J42" s="75" t="str">
         <v>USD</v>
@@ -11449,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="51" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="52" t="str">
@@ -11465,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="51" t="str">
-        <v>[More...]</v>
+        <v>USD</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
@@ -11475,28 +11494,28 @@
         <v>12</v>
       </c>
       <c r="E43" s="15" t="str">
-        <v/>
+        <v>CCY_GBP</v>
       </c>
       <c r="F43" s="80" t="str">
-        <v/>
-      </c>
-      <c r="G43" s="78" t="str">
-        <v/>
-      </c>
-      <c r="H43" s="52" t="str">
-        <v/>
-      </c>
-      <c r="I43" s="52" t="str">
-        <v/>
+        <v>B</v>
+      </c>
+      <c r="G43" s="78">
+        <v>-27346764.705882356</v>
+      </c>
+      <c r="H43" s="52">
+        <v>-27346764.705882356</v>
+      </c>
+      <c r="I43" s="52">
+        <v>-27346764.710000001</v>
       </c>
       <c r="J43" s="75" t="str">
-        <v/>
-      </c>
-      <c r="K43" s="51" t="str">
-        <v/>
+        <v>GBP</v>
+      </c>
+      <c r="K43" s="51">
+        <v>0</v>
       </c>
       <c r="L43" s="51" t="str">
-        <v/>
+        <v>GBP</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="52" t="str">
@@ -11521,28 +11540,28 @@
         <v>13</v>
       </c>
       <c r="E44" s="15" t="str">
-        <v/>
+        <v>CCY_EUR</v>
       </c>
       <c r="F44" s="80" t="str">
-        <v/>
-      </c>
-      <c r="G44" s="78" t="str">
-        <v/>
-      </c>
-      <c r="H44" s="52" t="str">
-        <v/>
-      </c>
-      <c r="I44" s="52" t="str">
-        <v/>
+        <v>B</v>
+      </c>
+      <c r="G44" s="78">
+        <v>2076854226.4705884</v>
+      </c>
+      <c r="H44" s="52">
+        <v>2076854226.4705884</v>
+      </c>
+      <c r="I44" s="52">
+        <v>2076854226.47</v>
       </c>
       <c r="J44" s="75" t="str">
-        <v/>
-      </c>
-      <c r="K44" s="51" t="str">
-        <v/>
+        <v>EUR</v>
+      </c>
+      <c r="K44" s="51">
+        <v>0</v>
       </c>
       <c r="L44" s="51" t="str">
-        <v/>
+        <v>GBP</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="52" t="str">
@@ -11567,28 +11586,28 @@
         <v>14</v>
       </c>
       <c r="E45" s="15" t="str">
-        <v/>
+        <v>CCY_JPY</v>
       </c>
       <c r="F45" s="80" t="str">
-        <v/>
-      </c>
-      <c r="G45" s="78" t="str">
-        <v/>
-      </c>
-      <c r="H45" s="52" t="str">
-        <v/>
-      </c>
-      <c r="I45" s="52" t="str">
-        <v/>
+        <v>B</v>
+      </c>
+      <c r="G45" s="78">
+        <v>-35846029.411764704</v>
+      </c>
+      <c r="H45" s="52">
+        <v>-35846029.411764704</v>
+      </c>
+      <c r="I45" s="52">
+        <v>-35846029</v>
       </c>
       <c r="J45" s="75" t="str">
-        <v/>
-      </c>
-      <c r="K45" s="51" t="str">
-        <v/>
+        <v>JPY</v>
+      </c>
+      <c r="K45" s="51">
+        <v>0</v>
       </c>
       <c r="L45" s="51" t="str">
-        <v/>
+        <v>GBP</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="52" t="str">
@@ -11911,7 +11930,7 @@
   <drawing r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CEADBFD3-A8CF-4B82-A053-3B498C79531D}">
           <x14:formula1>
             <xm:f>'View portfolios'!$E$67:$E$70</xm:f>
@@ -12399,10 +12418,10 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="69">
-        <v>1880608415.6019599</v>
+        <v>1880486184</v>
       </c>
       <c r="F29" s="70">
-        <v>0.20395141653287455</v>
+        <v>0.203938221951178</v>
       </c>
       <c r="G29" s="71" t="str">
         <v>Apple</v>
@@ -12422,13 +12441,13 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="69">
-        <v>1831550742</v>
+        <v>1252860850.1068258</v>
       </c>
       <c r="F30" s="70">
-        <v>0.19863112659908494</v>
+        <v>0.13587242293880494</v>
       </c>
       <c r="G30" s="71" t="str">
-        <v>JPMorgan Chase</v>
+        <v>Volkswagen</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="29" t="s">
@@ -12445,13 +12464,13 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="69">
-        <v>1317064000</v>
+        <v>503438109.29149401</v>
       </c>
       <c r="F31" s="70">
-        <v>0.14283519431049277</v>
+        <v>5.4597727834925752E-2</v>
       </c>
       <c r="G31" s="71" t="str">
-        <v>BP</v>
+        <v>Toyota Motor</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="29" t="s">
@@ -12471,13 +12490,13 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="69">
-        <v>1069697092.0949062</v>
+        <v>-831822953.54999995</v>
       </c>
       <c r="F32" s="70">
-        <v>0.11600832761562462</v>
+        <v>-9.0210976059563713E-2</v>
       </c>
       <c r="G32" s="71" t="str">
-        <v>Anheuser-Busch InBev</v>
+        <v>Walt Disney</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="29" t="s">
@@ -12498,13 +12517,13 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="69">
-        <v>503438109.29149401</v>
+        <v>1052663160.9</v>
       </c>
       <c r="F33" s="70">
-        <v>5.459771139743979E-2</v>
+        <v>0.11416103727537559</v>
       </c>
       <c r="G33" s="71" t="str">
-        <v>Toyota Motor</v>
+        <v>Microsoft</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="29" t="s">
@@ -12525,13 +12544,13 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="69">
-        <v>1252860850.1068258</v>
+        <v>486545000</v>
       </c>
       <c r="F34" s="70">
-        <v>0.1358723820323216</v>
+        <v>5.2765674666204243E-2</v>
       </c>
       <c r="G34" s="71" t="str">
-        <v>Volkswagen</v>
+        <v>HSBC Holdings</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="29" t="s">
@@ -12550,13 +12569,13 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="69">
-        <v>486545000</v>
+        <v>1317064000</v>
       </c>
       <c r="F35" s="70">
-        <v>5.2765658780286079E-2</v>
+        <v>0.14283523731323849</v>
       </c>
       <c r="G35" s="71" t="str">
-        <v>HSBC Holdings</v>
+        <v>BP</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="29" t="s">
@@ -12577,13 +12596,13 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="69">
-        <v>-831822953.54999995</v>
+        <v>658379731.1255275</v>
       </c>
       <c r="F36" s="70">
-        <v>-9.0210948900161458E-2</v>
+        <v>7.1401105138050147E-2</v>
       </c>
       <c r="G36" s="71" t="str">
-        <v>Walt Disney</v>
+        <v>Softbank</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="29"/>
@@ -12600,13 +12619,13 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="69">
-        <v>1052663160.9</v>
+        <v>1831550742</v>
       </c>
       <c r="F37" s="70">
-        <v>0.11416100290543893</v>
+        <v>0.19863118640005958</v>
       </c>
       <c r="G37" s="71" t="str">
-        <v>Microsoft</v>
+        <v>JPMorgan Chase</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="29"/>
@@ -12623,13 +12642,13 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="69">
-        <v>658379731.1255275</v>
+        <v>1069697092.0949062</v>
       </c>
       <c r="F38" s="70">
-        <v>7.1401083641648933E-2</v>
+        <v>0.11600836254172696</v>
       </c>
       <c r="G38" s="71" t="str">
-        <v>Softbank</v>
+        <v>Anheuser-Busch InBev</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="29"/>
@@ -12645,14 +12664,14 @@
       <c r="B39" s="12"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="69">
-        <v>-119455.51878</v>
-      </c>
-      <c r="F39" s="70">
-        <v>-1.2954915050750775E-5</v>
+      <c r="E39" s="69" t="str">
+        <v/>
+      </c>
+      <c r="F39" s="70" t="str">
+        <v/>
       </c>
       <c r="G39" s="71" t="str">
-        <v>USD</v>
+        <v/>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="29"/>
@@ -13003,13 +13022,13 @@
       <c r="D61" s="2"/>
       <c r="E61" s="66" t="str">
         <f t="array" ref="E61:G84">_xll.flAggregatePortfolioGroup(F50,F52,I61:J67,J35)</f>
-        <v>PVSum</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="F61" s="66" t="str">
-        <v>PVProportion</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G61" s="64" t="str">
-        <v>Name</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="64" t="s">
@@ -13027,14 +13046,14 @@
       <c r="B62" s="12"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="69">
-        <v>1693130514.7058823</v>
-      </c>
-      <c r="F62" s="70">
-        <v>2.9056740670949429E-2</v>
+      <c r="E62" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F62" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G62" s="71" t="str">
-        <v>VERIZON 4.329% Sep 21, 2028</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="29" t="s">
@@ -13050,14 +13069,14 @@
       <c r="B63" s="12"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="69">
-        <v>2096646022.0588236</v>
-      </c>
-      <c r="F63" s="70">
-        <v>3.5981691436424088E-2</v>
+      <c r="E63" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F63" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G63" s="71" t="str">
-        <v>GE 4.418% Nov 15, 2035</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="29" t="s">
@@ -13073,14 +13092,14 @@
       <c r="B64" s="12"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="69">
-        <v>-4112022352.9411764</v>
-      </c>
-      <c r="F64" s="70">
-        <v>-7.0568669163295156E-2</v>
+      <c r="E64" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F64" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G64" s="71" t="str">
-        <v>ANHEUSER-BUSCH 4.9% Feb 01, 2046</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="29" t="s">
@@ -13099,14 +13118,14 @@
       <c r="B65" s="12"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="69">
-        <v>1288627676.4705882</v>
-      </c>
-      <c r="F65" s="70">
-        <v>2.2114845779103078E-2</v>
+      <c r="E65" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F65" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G65" s="71" t="str">
-        <v>CVS 4.3% Mar 25, 2028</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="29" t="s">
@@ -13124,14 +13143,14 @@
       <c r="B66" s="12"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="69">
-        <v>835507600.7352941</v>
-      </c>
-      <c r="F66" s="70">
-        <v>1.4338603830189567E-2</v>
+      <c r="E66" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F66" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G66" s="71" t="str">
-        <v>CVS 5.05% Mar 25, 2048</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="29" t="s">
@@ -13149,14 +13168,14 @@
       <c r="B67" s="12"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="69">
-        <v>-692605516.54411769</v>
-      </c>
-      <c r="F67" s="70">
-        <v>-1.188618284691853E-2</v>
+      <c r="E67" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F67" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G67" s="71" t="str">
-        <v>GOLDMAN 6.75% Oct 01, 2037</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="29" t="s">
@@ -13172,14 +13191,14 @@
       <c r="B68" s="12"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="69">
-        <v>7149599007.3529415</v>
-      </c>
-      <c r="F68" s="70">
-        <v>0.12269818685183852</v>
+      <c r="E68" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F68" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G68" s="71" t="str">
-        <v>CVS 3.7% Mar 09, 2023</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="29" t="s">
@@ -13197,14 +13216,14 @@
       <c r="B69" s="12"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="69">
-        <v>-2879227191.1764708</v>
-      </c>
-      <c r="F69" s="70">
-        <v>-4.9411995767670504E-2</v>
+      <c r="E69" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F69" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G69" s="71" t="str">
-        <v>ANHEUSER-BUSCH 3.3% Feb 01, 2023</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="29"/>
@@ -13218,14 +13237,14 @@
       <c r="B70" s="12"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="69">
-        <v>12514547500</v>
-      </c>
-      <c r="F70" s="70">
-        <v>0.21476900815584549</v>
+      <c r="E70" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F70" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G70" s="71" t="str">
-        <v>VERIZON 4.862% Aug 21, 2046</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="29"/>
@@ -13239,14 +13258,14 @@
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="69">
-        <v>-6441890000</v>
-      </c>
-      <c r="F71" s="70">
-        <v>-0.11055280472178954</v>
+      <c r="E71" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F71" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G71" s="71" t="str">
-        <v>APPLE 2.4% May 03, 2023</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="29"/>
@@ -13260,14 +13279,14 @@
       <c r="B72" s="12"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="69">
-        <v>2141854.9406647589</v>
-      </c>
-      <c r="F72" s="70">
-        <v>3.6757546465045382E-5</v>
+      <c r="E72" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F72" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G72" s="71" t="str">
-        <v>USD</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="29"/>
@@ -13281,14 +13300,14 @@
       <c r="B73" s="12"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="69">
-        <v>4597403492.6470585</v>
-      </c>
-      <c r="F73" s="70">
-        <v>7.8898560911453544E-2</v>
+      <c r="E73" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F73" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G73" s="71" t="str">
-        <v>T 2.375% Aug 15, 2024</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="29"/>
@@ -13302,14 +13321,14 @@
       <c r="B74" s="12"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="69">
-        <v>5734356617.6470585</v>
-      </c>
-      <c r="F74" s="70">
-        <v>9.8410436588615591E-2</v>
+      <c r="E74" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F74" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G74" s="71" t="str">
-        <v>T 2% Aug 15, 2025</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="29"/>
@@ -13323,14 +13342,14 @@
       <c r="B75" s="12"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="69">
-        <v>7629308823.5294113</v>
-      </c>
-      <c r="F75" s="70">
-        <v>0.13093074990878031</v>
+      <c r="E75" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F75" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G75" s="71" t="str">
-        <v>T 2.25% Feb 15, 2027</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="29"/>
@@ -13344,14 +13363,14 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="69">
-        <v>873802389.70588231</v>
-      </c>
-      <c r="F76" s="70">
-        <v>1.4995801690899325E-2</v>
+      <c r="E76" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F76" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G76" s="71" t="str">
-        <v>T 2.25% Apr 30, 2021</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -13365,14 +13384,14 @@
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="69">
-        <v>5254921875</v>
-      </c>
-      <c r="F77" s="70">
-        <v>9.0182594219264084E-2</v>
+      <c r="E77" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F77" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G77" s="71" t="str">
-        <v>T 2.25% Nov 15, 2024</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -13386,14 +13405,14 @@
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="69">
-        <v>-1474535845.5882354</v>
-      </c>
-      <c r="F78" s="70">
-        <v>-2.5305317754974858E-2</v>
+      <c r="E78" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F78" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G78" s="71" t="str">
-        <v>T 2.875% Nov 15, 2046</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -13407,14 +13426,14 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="69">
-        <v>2134067095.5882351</v>
-      </c>
-      <c r="F79" s="70">
-        <v>3.6623894987614307E-2</v>
+      <c r="E79" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F79" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G79" s="71" t="str">
-        <v>T 2% Feb 15, 2025</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -13428,14 +13447,14 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="69">
-        <v>-684446691.17647064</v>
-      </c>
-      <c r="F80" s="70">
-        <v>-1.1746164773398389E-2</v>
+      <c r="E80" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F80" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G80" s="71" t="str">
-        <v>T 7.125% Feb 15, 2023</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -13449,14 +13468,14 @@
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="69">
-        <v>7429687500</v>
-      </c>
-      <c r="F81" s="70">
-        <v>0.12750493897465195</v>
+      <c r="E81" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F81" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G81" s="71" t="str">
-        <v>T 1.875% Aug 31, 2022</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -13470,14 +13489,14 @@
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="69">
-        <v>15320781250</v>
-      </c>
-      <c r="F82" s="70">
-        <v>0.26292832347595263</v>
+      <c r="E82" s="69" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
+      </c>
+      <c r="F82" s="70" t="str">
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G82" s="71" t="str">
-        <v>T 1.75% Feb 28, 2022</v>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -13492,13 +13511,13 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="69" t="str">
-        <v/>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="F83" s="70" t="str">
-        <v/>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G83" s="71" t="str">
-        <v/>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -13513,13 +13532,13 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="str">
-        <v/>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="F84" s="2" t="str">
-        <v/>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="G84" s="2" t="str">
-        <v/>
+        <v>#ERROR: Group with id US-FI in scope Finbourne-Examples does not exist at EffectiveAt: '2020-01-01T00:00:00.0000000+00:00' AsAt: 'AsAt=2020-03-18T17:19:45.5447040+00:00'</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -13571,10 +13590,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:P126"/>
+  <dimension ref="B1:Q126"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14045,10 +14064,10 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="69">
-        <v>1880608415.6019599</v>
+        <v>1880486184</v>
       </c>
       <c r="F29" s="70">
-        <v>0.20395141653287455</v>
+        <v>0.203938221951178</v>
       </c>
       <c r="G29" s="71" t="str">
         <v>Apple</v>
@@ -14071,13 +14090,13 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="69">
-        <v>1831550742</v>
+        <v>1252860850.1068258</v>
       </c>
       <c r="F30" s="70">
-        <v>0.19863112659908494</v>
+        <v>0.13587242293880494</v>
       </c>
       <c r="G30" s="71" t="str">
-        <v>JPMorgan Chase</v>
+        <v>Volkswagen</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="29" t="s">
@@ -14096,13 +14115,13 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="69">
-        <v>1317064000</v>
+        <v>503438109.29149401</v>
       </c>
       <c r="F31" s="70">
-        <v>0.14283519431049277</v>
+        <v>5.4597727834925752E-2</v>
       </c>
       <c r="G31" s="71" t="str">
-        <v>BP</v>
+        <v>Toyota Motor</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="29" t="s">
@@ -14122,13 +14141,13 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="69">
-        <v>1069697092.0949062</v>
+        <v>-831822953.54999995</v>
       </c>
       <c r="F32" s="70">
-        <v>0.11600832761562462</v>
+        <v>-9.0210976059563713E-2</v>
       </c>
       <c r="G32" s="71" t="str">
-        <v>Anheuser-Busch InBev</v>
+        <v>Walt Disney</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="29" t="s">
@@ -14149,13 +14168,13 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="69">
-        <v>503438109.29149401</v>
+        <v>1052663160.9</v>
       </c>
       <c r="F33" s="70">
-        <v>5.459771139743979E-2</v>
+        <v>0.11416103727537559</v>
       </c>
       <c r="G33" s="71" t="str">
-        <v>Toyota Motor</v>
+        <v>Microsoft</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="29" t="s">
@@ -14176,13 +14195,13 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="69">
-        <v>1252860850.1068258</v>
+        <v>486545000</v>
       </c>
       <c r="F34" s="70">
-        <v>0.1358723820323216</v>
+        <v>5.2765674666204243E-2</v>
       </c>
       <c r="G34" s="71" t="str">
-        <v>Volkswagen</v>
+        <v>HSBC Holdings</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="29" t="s">
@@ -14201,13 +14220,13 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="69">
-        <v>486545000</v>
+        <v>1317064000</v>
       </c>
       <c r="F35" s="70">
-        <v>5.2765658780286079E-2</v>
+        <v>0.14283523731323849</v>
       </c>
       <c r="G35" s="71" t="str">
-        <v>HSBC Holdings</v>
+        <v>BP</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="29" t="s">
@@ -14226,13 +14245,13 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="69">
-        <v>-831822953.54999995</v>
+        <v>658379731.1255275</v>
       </c>
       <c r="F36" s="70">
-        <v>-9.0210948900161458E-2</v>
+        <v>7.1401105138050147E-2</v>
       </c>
       <c r="G36" s="71" t="str">
-        <v>Walt Disney</v>
+        <v>Softbank</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="29"/>
@@ -14249,13 +14268,13 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="69">
-        <v>1052663160.9</v>
+        <v>1831550742</v>
       </c>
       <c r="F37" s="70">
-        <v>0.11416100290543893</v>
+        <v>0.19863118640005958</v>
       </c>
       <c r="G37" s="71" t="str">
-        <v>Microsoft</v>
+        <v>JPMorgan Chase</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="29"/>
@@ -14272,13 +14291,13 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="69">
-        <v>658379731.1255275</v>
+        <v>1069697092.0949062</v>
       </c>
       <c r="F38" s="70">
-        <v>7.1401083641648933E-2</v>
+        <v>0.11600836254172696</v>
       </c>
       <c r="G38" s="71" t="str">
-        <v>Softbank</v>
+        <v>Anheuser-Busch InBev</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="29"/>
@@ -14294,14 +14313,14 @@
       <c r="B39" s="12"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="69">
-        <v>-119455.51878</v>
-      </c>
-      <c r="F39" s="70">
-        <v>-1.2954915050750775E-5</v>
+      <c r="E39" s="69" t="str">
+        <v/>
+      </c>
+      <c r="F39" s="70" t="str">
+        <v/>
       </c>
       <c r="G39" s="71" t="str">
-        <v>USD</v>
+        <v/>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="29"/>
@@ -14471,10 +14490,10 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="69">
-        <v>1861802331.4459405</v>
+        <v>1861681322.1600001</v>
       </c>
       <c r="F48" s="70">
-        <v>0.203951443221497</v>
+        <v>0.203938221951178</v>
       </c>
       <c r="G48" s="71" t="str">
         <v>Apple</v>
@@ -14497,18 +14516,18 @@
       <c r="O48" s="36"/>
       <c r="P48" s="53"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="69">
-        <v>1813235234.5799999</v>
+        <v>1240332241.6057575</v>
       </c>
       <c r="F49" s="70">
-        <v>0.19863115259150624</v>
+        <v>0.13587242293880494</v>
       </c>
       <c r="G49" s="71" t="str">
-        <v>JPMorgan Chase</v>
+        <v>Volkswagen</v>
       </c>
       <c r="H49" s="71" t="b">
         <f t="shared" ref="H49:H57" si="0">E49/E30=99%</f>
@@ -14527,18 +14546,18 @@
       <c r="O49" s="36"/>
       <c r="P49" s="53"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="69">
-        <v>1303893360</v>
+        <v>498403728.19857907</v>
       </c>
       <c r="F50" s="70">
-        <v>0.14283521300158419</v>
+        <v>5.4597727834925752E-2</v>
       </c>
       <c r="G50" s="71" t="str">
-        <v>BP</v>
+        <v>Toyota Motor</v>
       </c>
       <c r="H50" s="71" t="b">
         <f t="shared" si="0"/>
@@ -14558,18 +14577,18 @@
       <c r="O50" s="36"/>
       <c r="P50" s="53"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="69">
-        <v>1059000121.1739572</v>
+        <v>-823504724.01450002</v>
       </c>
       <c r="F51" s="70">
-        <v>0.11600834279621275</v>
+        <v>-9.0210976059563713E-2</v>
       </c>
       <c r="G51" s="71" t="str">
-        <v>Anheuser-Busch InBev</v>
+        <v>Walt Disney</v>
       </c>
       <c r="H51" s="71" t="b">
         <f t="shared" si="0"/>
@@ -14588,18 +14607,18 @@
       <c r="O51" s="36"/>
       <c r="P51" s="53"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="69">
-        <v>498403728.19857907</v>
+        <v>1042136529.291</v>
       </c>
       <c r="F52" s="70">
-        <v>5.4597718541973178E-2</v>
+        <v>0.11416103727537559</v>
       </c>
       <c r="G52" s="71" t="str">
-        <v>Toyota Motor</v>
+        <v>Microsoft</v>
       </c>
       <c r="H52" s="71" t="b">
         <f t="shared" si="0"/>
@@ -14618,18 +14637,18 @@
       <c r="O52" s="36"/>
       <c r="P52" s="53"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="69">
-        <v>1240332241.6057575</v>
+        <v>481679550</v>
       </c>
       <c r="F53" s="70">
-        <v>0.13587239981227511</v>
+        <v>5.2765674666204243E-2</v>
       </c>
       <c r="G53" s="71" t="str">
-        <v>Volkswagen</v>
+        <v>HSBC Holdings</v>
       </c>
       <c r="H53" s="71" t="b">
         <f t="shared" si="0"/>
@@ -14646,18 +14665,18 @@
       <c r="O53" s="36"/>
       <c r="P53" s="53"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="69">
-        <v>481679550</v>
+        <v>1303893360</v>
       </c>
       <c r="F54" s="70">
-        <v>5.2765665685081196E-2</v>
+        <v>0.14283523731323849</v>
       </c>
       <c r="G54" s="71" t="str">
-        <v>HSBC Holdings</v>
+        <v>BP</v>
       </c>
       <c r="H54" s="71" t="b">
         <f t="shared" si="0"/>
@@ -14674,18 +14693,18 @@
       <c r="O54" s="36"/>
       <c r="P54" s="53"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="69">
-        <v>-823504724.01450002</v>
+        <v>651795933.81427217</v>
       </c>
       <c r="F55" s="70">
-        <v>-9.0210960704962803E-2</v>
+        <v>7.1401105138050147E-2</v>
       </c>
       <c r="G55" s="71" t="str">
-        <v>Walt Disney</v>
+        <v>Softbank</v>
       </c>
       <c r="H55" s="71" t="b">
         <f t="shared" si="0"/>
@@ -14700,18 +14719,18 @@
       <c r="O55" s="36"/>
       <c r="P55" s="53"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="69">
-        <v>1042136529.291</v>
+        <v>1813235234.5799999</v>
       </c>
       <c r="F56" s="70">
-        <v>0.11416101784429032</v>
+        <v>0.19863118640005958</v>
       </c>
       <c r="G56" s="71" t="str">
-        <v>Microsoft</v>
+        <v>JPMorgan Chase</v>
       </c>
       <c r="H56" s="71" t="b">
         <f t="shared" si="0"/>
@@ -14726,18 +14745,18 @@
       <c r="O56" s="36"/>
       <c r="P56" s="53"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="69">
-        <v>651795933.81427217</v>
+        <v>1059000121.1739572</v>
       </c>
       <c r="F57" s="70">
-        <v>7.1401092985033721E-2</v>
+        <v>0.11600836254172696</v>
       </c>
       <c r="G57" s="71" t="str">
-        <v>Softbank</v>
+        <v>Anheuser-Busch InBev</v>
       </c>
       <c r="H57" s="71" t="b">
         <f t="shared" si="0"/>
@@ -14752,18 +14771,18 @@
       <c r="O57" s="36"/>
       <c r="P57" s="53"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="69">
-        <v>-119455.51878</v>
-      </c>
-      <c r="F58" s="70">
-        <v>-1.3085774490910852E-5</v>
+      <c r="E58" s="69" t="str">
+        <v/>
+      </c>
+      <c r="F58" s="70" t="str">
+        <v/>
       </c>
       <c r="G58" s="71" t="str">
-        <v>USD</v>
+        <v/>
       </c>
       <c r="H58" s="71"/>
       <c r="I58" s="29"/>
@@ -14775,7 +14794,7 @@
       <c r="O58" s="36"/>
       <c r="P58" s="53"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -14792,7 +14811,7 @@
       <c r="O59" s="36"/>
       <c r="P59" s="53"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -14809,7 +14828,7 @@
       <c r="O60" s="36"/>
       <c r="P60" s="53"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -14826,7 +14845,7 @@
       <c r="O61" s="36"/>
       <c r="P61" s="53"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -14843,7 +14862,7 @@
       <c r="O62" s="36"/>
       <c r="P62" s="53"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -14860,7 +14879,7 @@
       <c r="O63" s="36"/>
       <c r="P63" s="53"/>
     </row>
-    <row r="64" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
       <c r="C64" s="13" t="s">
         <v>387</v>
@@ -14878,10 +14897,11 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="53"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O64" s="2"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="53"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -14890,20 +14910,23 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
+      <c r="J65" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="53"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O65" s="2"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="53"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="66" t="str">
-        <f t="array" ref="E66:G77">_xll.flAggregatePortfolio(F17,F19,I66:J72,J73)</f>
+        <f t="array" ref="E66:H77">_xll.flAggregatePortfolio(F17,F19,J66:K72,K73)</f>
         <v>PVSum</v>
       </c>
       <c r="F66" s="66" t="str">
@@ -14912,351 +14935,389 @@
       <c r="G66" s="64" t="str">
         <v>Name</v>
       </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="64" t="s">
+      <c r="H66" s="65" t="str">
+        <v>Exchange Rate</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="J66" s="72" t="s">
+      <c r="K66" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="K66" s="73"/>
       <c r="L66" s="73"/>
       <c r="M66" s="73"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="53"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N66" s="73"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="53"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="69">
-        <v>1880608415.6019599</v>
+        <v>2446320000</v>
       </c>
       <c r="F67" s="70">
-        <v>0.20395141788797636</v>
+        <v>1.3689311074144497E-2</v>
       </c>
       <c r="G67" s="71" t="str">
         <v>Apple</v>
       </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="29" t="s">
+      <c r="H67" s="94">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="J67" s="54" t="str">
+      <c r="K67" s="54" t="str">
         <f>J48</f>
         <v>Finbourne-Examples</v>
       </c>
-      <c r="K67" s="56"/>
       <c r="L67" s="56"/>
       <c r="M67" s="56"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="53"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N67" s="56"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="53"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="69">
-        <v>1831550742</v>
+        <v>1449420000</v>
       </c>
       <c r="F68" s="70">
-        <v>0.19863112791883747</v>
+        <v>8.1107791528036051E-3</v>
       </c>
       <c r="G68" s="71" t="str">
-        <v>JPMorgan Chase</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="29" t="s">
+        <v>Volkswagen</v>
+      </c>
+      <c r="H68" s="94">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="J68" s="54" t="s">
+      <c r="K68" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="K68" s="56"/>
       <c r="L68" s="56"/>
       <c r="M68" s="56"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="53"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N68" s="56"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="53"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="69">
-        <v>1317064000</v>
+        <v>73272610600</v>
       </c>
       <c r="F69" s="70">
-        <v>0.14283519525952382</v>
+        <v>0.4100246736804905</v>
       </c>
       <c r="G69" s="71" t="str">
-        <v>BP</v>
-      </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="29" t="s">
+        <v>Toyota Motor</v>
+      </c>
+      <c r="H69" s="94">
+        <v>1</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="J69" s="55">
-        <f>J50</f>
+      <c r="K69" s="55">
         <v>43575</v>
       </c>
-      <c r="K69" s="57"/>
       <c r="L69" s="57"/>
       <c r="M69" s="57"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="53"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N69" s="57"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="53"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="69">
-        <v>1069697092.49192</v>
+        <v>-1082116500</v>
       </c>
       <c r="F70" s="70">
-        <v>0.11600832842946759</v>
+        <v>-6.055393156645281E-3</v>
       </c>
       <c r="G70" s="71" t="str">
-        <v>Anheuser-Busch InBev</v>
-      </c>
-      <c r="H70" s="2"/>
-      <c r="I70" s="29" t="s">
+        <v>Walt Disney</v>
+      </c>
+      <c r="H70" s="94">
+        <v>1</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="J70" s="54" t="s">
-        <v>255</v>
-      </c>
-      <c r="K70" s="56"/>
+      <c r="K70" s="54" t="s">
+        <v>390</v>
+      </c>
       <c r="L70" s="56"/>
       <c r="M70" s="56"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="53"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N70" s="56"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="53"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="69">
-        <v>503438082.37039238</v>
+        <v>1369407000</v>
       </c>
       <c r="F71" s="70">
-        <v>5.4597708840614607E-2</v>
+        <v>7.6630360746390474E-3</v>
       </c>
       <c r="G71" s="71" t="str">
-        <v>Toyota Motor</v>
-      </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="29" t="s">
+        <v>Microsoft</v>
+      </c>
+      <c r="H71" s="94">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="J71" s="54" t="s">
+      <c r="K71" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="K71" s="56"/>
       <c r="L71" s="56"/>
       <c r="M71" s="56"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="53"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N71" s="56"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="53"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="69">
-        <v>1252860850.57182</v>
+        <v>486545000</v>
       </c>
       <c r="F72" s="70">
-        <v>0.13587238298551857</v>
+        <v>2.7226470194290338E-3</v>
       </c>
       <c r="G72" s="71" t="str">
-        <v>Volkswagen</v>
-      </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="29" t="s">
+        <v>HSBC Holdings</v>
+      </c>
+      <c r="H72" s="94">
+        <v>1</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="J72" s="54"/>
-      <c r="K72" s="56"/>
+      <c r="K72" s="54"/>
       <c r="L72" s="56"/>
       <c r="M72" s="56"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="53"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N72" s="56"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="53"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="69">
-        <v>486545000</v>
+        <v>1317064000</v>
       </c>
       <c r="F73" s="70">
-        <v>5.2765659130873686E-2</v>
+        <v>7.3701309724635566E-3</v>
       </c>
       <c r="G73" s="71" t="str">
-        <v>HSBC Holdings</v>
-      </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="29" t="s">
+        <v>BP</v>
+      </c>
+      <c r="H73" s="94">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="J73" s="91"/>
-      <c r="K73" s="92"/>
+      <c r="K73" s="91"/>
       <c r="L73" s="92"/>
       <c r="M73" s="92"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="53"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N73" s="92"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="53"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="69">
-        <v>-831822953.54999995</v>
+        <v>95823500000</v>
       </c>
       <c r="F74" s="70">
-        <v>-9.0210949499544488E-2</v>
+        <v>0.53621672541339038</v>
       </c>
       <c r="G74" s="71" t="str">
-        <v>Walt Disney</v>
-      </c>
-      <c r="H74" s="2"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="91"/>
-      <c r="K74" s="92"/>
+        <v>Softbank</v>
+      </c>
+      <c r="H74" s="94">
+        <v>1</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="91"/>
       <c r="L74" s="92"/>
       <c r="M74" s="92"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="36"/>
-      <c r="P74" s="53"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N74" s="92"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="53"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="69">
-        <v>1052663160.9</v>
+        <v>2382660000</v>
       </c>
       <c r="F75" s="70">
-        <v>0.11416100366395182</v>
+        <v>1.3333077407665853E-2</v>
       </c>
       <c r="G75" s="71" t="str">
-        <v>Microsoft</v>
-      </c>
-      <c r="H75" s="2"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="91"/>
-      <c r="K75" s="92"/>
+        <v>JPMorgan Chase</v>
+      </c>
+      <c r="H75" s="94">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="91"/>
       <c r="L75" s="92"/>
       <c r="M75" s="92"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="36"/>
-      <c r="P75" s="53"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N75" s="92"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="53"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="69">
-        <v>658379695.91900003</v>
+        <v>1237520000</v>
       </c>
       <c r="F76" s="70">
-        <v>7.1401080297917405E-2</v>
+        <v>6.9250123616187978E-3</v>
       </c>
       <c r="G76" s="71" t="str">
-        <v>Softbank</v>
-      </c>
-      <c r="H76" s="2"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="91"/>
-      <c r="K76" s="92"/>
+        <v>Anheuser-Busch InBev</v>
+      </c>
+      <c r="H76" s="94">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="91"/>
       <c r="L76" s="92"/>
       <c r="M76" s="92"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="36"/>
-      <c r="P76" s="53"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N76" s="92"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="53"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="69">
-        <v>-119455.51878</v>
-      </c>
-      <c r="F77" s="70">
-        <v>-1.2954915136826315E-5</v>
+      <c r="E77" s="69" t="str">
+        <v/>
+      </c>
+      <c r="F77" s="70" t="str">
+        <v/>
       </c>
       <c r="G77" s="71" t="str">
-        <v>USD</v>
-      </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="91"/>
-      <c r="K77" s="92"/>
+        <v/>
+      </c>
+      <c r="H77" s="94" t="str">
+        <v/>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="91"/>
       <c r="L77" s="92"/>
       <c r="M77" s="92"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="53"/>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N77" s="92"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="53"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="69"/>
       <c r="F78" s="70"/>
       <c r="G78" s="71"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="91"/>
-      <c r="K78" s="92"/>
+      <c r="H78" s="93"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="91"/>
       <c r="L78" s="92"/>
       <c r="M78" s="92"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="53"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N78" s="92"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="53"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="69"/>
       <c r="F79" s="70"/>
       <c r="G79" s="71"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="91"/>
-      <c r="K79" s="92"/>
+      <c r="H79" s="93"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="91"/>
       <c r="L79" s="92"/>
       <c r="M79" s="92"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="53"/>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N79" s="92"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="53"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="69"/>
       <c r="F80" s="70"/>
       <c r="G80" s="71"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="91"/>
-      <c r="K80" s="92"/>
+      <c r="H80" s="93"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="91"/>
       <c r="L80" s="92"/>
       <c r="M80" s="92"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="53"/>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N80" s="92"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="53"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -15270,10 +15331,11 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
-      <c r="O81" s="36"/>
-      <c r="P81" s="53"/>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O81" s="2"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="53"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -15290,7 +15352,7 @@
       <c r="O82" s="36"/>
       <c r="P82" s="53"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -15307,7 +15369,7 @@
       <c r="O83" s="36"/>
       <c r="P83" s="53"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -15324,7 +15386,7 @@
       <c r="O84" s="36"/>
       <c r="P84" s="53"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -15341,11 +15403,11 @@
       <c r="O85" s="36"/>
       <c r="P85" s="53"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="O86" s="36"/>
       <c r="P86" s="53"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -15360,7 +15422,7 @@
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B88" s="2"/>
       <c r="C88" s="13" t="s">
         <v>375</v>
@@ -15377,7 +15439,7 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -15392,7 +15454,7 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -15409,7 +15471,7 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -15424,7 +15486,7 @@
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -15445,7 +15507,7 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -15460,7 +15522,7 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -15479,7 +15541,7 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -15494,7 +15556,7 @@
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -16143,7 +16205,7 @@
     <mergeCell ref="J35:M42"/>
     <mergeCell ref="J110:M117"/>
     <mergeCell ref="J54:M61"/>
-    <mergeCell ref="J73:M80"/>
+    <mergeCell ref="K73:N80"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sort" sqref="O31" xr:uid="{E2C1CD1B-C419-4048-9522-718382CD5247}"/>
@@ -16982,22 +17044,22 @@
         <v>CancelDateTime</v>
       </c>
       <c r="Y33" s="10" t="str">
-        <v>Original Settlement Date</v>
+        <v>SourcePortfolioId</v>
       </c>
       <c r="Z33" s="10" t="str">
         <v>Exchange rate from the transaction currency to the portfolio currency.</v>
       </c>
       <c r="AA33" s="10" t="str">
-        <v>SourcePortfolioId</v>
+        <v>Original Transaction Date</v>
       </c>
       <c r="AB33" s="10" t="str">
-        <v>Original Transaction Date</v>
+        <v>Net holding as a result of the transaction</v>
       </c>
       <c r="AC33" s="10" t="str">
-        <v>Net holding as a result of the transaction</v>
+        <v>SourcePortfolioScope</v>
       </c>
       <c r="AD33" s="10" t="str">
-        <v>SourcePortfolioScope</v>
+        <v>Original Settlement Date</v>
       </c>
       <c r="AE33" s="10" t="str">
         <v>CostPortfolioCcy Amount</v>
@@ -17026,7 +17088,7 @@
         <v>Active</v>
       </c>
       <c r="F34" s="16" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G34" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -17035,28 +17097,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I34" s="31" t="str">
-        <v>LusidInstrumentId:LUID_L3O09Q40</v>
+        <v>LusidInstrumentId:LUID_P51ADRAW</v>
       </c>
       <c r="J34" s="31" t="str">
-        <v>LUID_L3O09Q40</v>
+        <v>LUID_P51ADRAW</v>
       </c>
       <c r="K34" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L34" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M34" s="78">
-        <v>95440</v>
+        <v>80500</v>
       </c>
       <c r="N34" s="27">
-        <v>5720673.5999999996</v>
+        <v>231437.5</v>
       </c>
       <c r="O34" s="59">
-        <v>59.94</v>
+        <v>2.875</v>
       </c>
       <c r="P34" s="78">
-        <v>5720673.5999999996</v>
+        <v>231437.5</v>
       </c>
       <c r="Q34" s="22" t="str">
         <v>GBP</v>
@@ -17077,28 +17139,28 @@
         <v/>
       </c>
       <c r="W34" s="82">
-        <v>43907.736983182869</v>
+        <v>43873.761178379631</v>
       </c>
       <c r="X34" s="82">
         <v>0</v>
       </c>
-      <c r="Y34" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="Y34" s="80">
+        <v>0</v>
       </c>
       <c r="Z34" s="80">
         <v>1</v>
       </c>
-      <c r="AA34" s="80">
+      <c r="AA34" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AB34" s="83">
+        <v>80500</v>
+      </c>
+      <c r="AC34" s="83">
         <v>0</v>
       </c>
-      <c r="AB34" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AC34" s="83">
-        <v>95440</v>
-      </c>
-      <c r="AD34" s="78">
-        <v>0</v>
+      <c r="AD34" s="78" t="str">
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AE34" s="78">
         <v>0</v>
@@ -17127,7 +17189,7 @@
         <v>Active</v>
       </c>
       <c r="F35" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G35" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -17136,28 +17198,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I35" s="31" t="str">
-        <v>LusidInstrumentId:LUID_0ITNEGH1</v>
+        <v>LusidInstrumentId:LUID_2QQAUIKO</v>
       </c>
       <c r="J35" s="31" t="str">
-        <v>LUID_0ITNEGH1</v>
+        <v>LUID_2QQAUIKO</v>
       </c>
       <c r="K35" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L35" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M35" s="78">
-        <v>12500</v>
+        <v>65440</v>
       </c>
       <c r="N35" s="27">
-        <v>71237.5</v>
+        <v>174070.39999999999</v>
       </c>
       <c r="O35" s="59">
-        <v>5.6989999999999998</v>
+        <v>2.66</v>
       </c>
       <c r="P35" s="78">
-        <v>71237.5</v>
+        <v>174070.40000000002</v>
       </c>
       <c r="Q35" s="16" t="str">
         <v>GBP</v>
@@ -17178,28 +17240,28 @@
         <v/>
       </c>
       <c r="W35" s="82">
-        <v>43907.736983182869</v>
+        <v>43873.761178379631</v>
       </c>
       <c r="X35" s="82">
         <v>0</v>
       </c>
-      <c r="Y35" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="Y35" s="80">
+        <v>0</v>
       </c>
       <c r="Z35" s="80">
         <v>1</v>
       </c>
-      <c r="AA35" s="80">
+      <c r="AA35" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AB35" s="83">
+        <v>65440</v>
+      </c>
+      <c r="AC35" s="83">
         <v>0</v>
       </c>
-      <c r="AB35" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AC35" s="83">
-        <v>12500</v>
-      </c>
-      <c r="AD35" s="78">
-        <v>0</v>
+      <c r="AD35" s="78" t="str">
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AE35" s="78">
         <v>0</v>
@@ -17228,7 +17290,7 @@
         <v>Active</v>
       </c>
       <c r="F36" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G36" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -17237,28 +17299,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I36" s="31" t="str">
-        <v>LusidInstrumentId:LUID_LCWEFLH0</v>
+        <v>LusidInstrumentId:LUID_RMTIB4MT</v>
       </c>
       <c r="J36" s="31" t="str">
-        <v>LUID_LCWEFLH0</v>
+        <v>LUID_RMTIB4MT</v>
       </c>
       <c r="K36" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L36" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M36" s="78">
-        <v>55050</v>
+        <v>50000</v>
       </c>
       <c r="N36" s="27">
-        <v>2663869.5</v>
+        <v>94825</v>
       </c>
       <c r="O36" s="59">
-        <v>48.39</v>
+        <v>1.8965000000000001</v>
       </c>
       <c r="P36" s="78">
-        <v>2663869.5</v>
+        <v>94825</v>
       </c>
       <c r="Q36" s="16" t="str">
         <v>GBP</v>
@@ -17279,28 +17341,28 @@
         <v/>
       </c>
       <c r="W36" s="82">
-        <v>43907.736983182869</v>
+        <v>43873.761178379631</v>
       </c>
       <c r="X36" s="82">
         <v>0</v>
       </c>
-      <c r="Y36" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="Y36" s="80">
+        <v>0</v>
       </c>
       <c r="Z36" s="80">
         <v>1</v>
       </c>
-      <c r="AA36" s="80">
+      <c r="AA36" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AB36" s="83">
+        <v>50000</v>
+      </c>
+      <c r="AC36" s="83">
         <v>0</v>
       </c>
-      <c r="AB36" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AC36" s="83">
-        <v>55050</v>
-      </c>
-      <c r="AD36" s="78">
-        <v>0</v>
+      <c r="AD36" s="78" t="str">
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AE36" s="78">
         <v>0</v>
@@ -17329,7 +17391,7 @@
         <v>Active</v>
       </c>
       <c r="F37" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G37" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -17338,28 +17400,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I37" s="31" t="str">
-        <v>LusidInstrumentId:LUID_2HVMDHG0</v>
+        <v>LusidInstrumentId:LUID_0GHU6DD4</v>
       </c>
       <c r="J37" s="31" t="str">
-        <v>LUID_2HVMDHG0</v>
+        <v>LUID_0GHU6DD4</v>
       </c>
       <c r="K37" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L37" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M37" s="78">
-        <v>20500</v>
+        <v>8000</v>
       </c>
       <c r="N37" s="27">
-        <v>134459.5</v>
+        <v>386800</v>
       </c>
       <c r="O37" s="59">
-        <v>6.5590000000000002</v>
+        <v>48.35</v>
       </c>
       <c r="P37" s="78">
-        <v>134459.5</v>
+        <v>386800</v>
       </c>
       <c r="Q37" s="16" t="str">
         <v>GBP</v>
@@ -17380,28 +17442,28 @@
         <v/>
       </c>
       <c r="W37" s="82">
-        <v>43907.736983182869</v>
+        <v>43873.761178379631</v>
       </c>
       <c r="X37" s="82">
         <v>0</v>
       </c>
-      <c r="Y37" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="Y37" s="80">
+        <v>0</v>
       </c>
       <c r="Z37" s="80">
         <v>1</v>
       </c>
-      <c r="AA37" s="80">
+      <c r="AA37" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AB37" s="83">
+        <v>8000</v>
+      </c>
+      <c r="AC37" s="83">
         <v>0</v>
       </c>
-      <c r="AB37" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AC37" s="83">
-        <v>20500</v>
-      </c>
-      <c r="AD37" s="78">
-        <v>0</v>
+      <c r="AD37" s="78" t="str">
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AE37" s="78">
         <v>0</v>
@@ -17430,7 +17492,7 @@
         <v>Active</v>
       </c>
       <c r="F38" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G38" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -17439,28 +17501,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I38" s="31" t="str">
-        <v>LusidInstrumentId:LUID_R7SOGVUX</v>
+        <v>LusidInstrumentId:LUID_14R6XKE5</v>
       </c>
       <c r="J38" s="31" t="str">
-        <v>LUID_R7SOGVUX</v>
+        <v>LUID_14R6XKE5</v>
       </c>
       <c r="K38" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L38" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M38" s="78">
-        <v>80500</v>
+        <v>20500</v>
       </c>
       <c r="N38" s="27">
-        <v>231437.5</v>
+        <v>134459.5</v>
       </c>
       <c r="O38" s="59">
-        <v>2.875</v>
+        <v>6.5590000000000002</v>
       </c>
       <c r="P38" s="78">
-        <v>231437.5</v>
+        <v>134459.5</v>
       </c>
       <c r="Q38" s="16" t="str">
         <v>GBP</v>
@@ -17481,28 +17543,28 @@
         <v/>
       </c>
       <c r="W38" s="82">
-        <v>43907.736983182869</v>
+        <v>43873.761178379631</v>
       </c>
       <c r="X38" s="82">
         <v>0</v>
       </c>
-      <c r="Y38" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="Y38" s="80">
+        <v>0</v>
       </c>
       <c r="Z38" s="80">
         <v>1</v>
       </c>
-      <c r="AA38" s="80">
+      <c r="AA38" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AB38" s="83">
+        <v>20500</v>
+      </c>
+      <c r="AC38" s="83">
         <v>0</v>
       </c>
-      <c r="AB38" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AC38" s="83">
-        <v>80500</v>
-      </c>
-      <c r="AD38" s="78">
-        <v>0</v>
+      <c r="AD38" s="78" t="str">
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AE38" s="78">
         <v>0</v>
@@ -17531,7 +17593,7 @@
         <v>Active</v>
       </c>
       <c r="F39" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G39" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -17540,28 +17602,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I39" s="31" t="str">
-        <v>LusidInstrumentId:LUID_SDV4XAKG</v>
+        <v>LusidInstrumentId:LUID_AUZOX8G4</v>
       </c>
       <c r="J39" s="31" t="str">
-        <v>LUID_SDV4XAKG</v>
+        <v>LUID_AUZOX8G4</v>
       </c>
       <c r="K39" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L39" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M39" s="78">
-        <v>65440</v>
+        <v>12500</v>
       </c>
       <c r="N39" s="27">
-        <v>174070.39999999999</v>
+        <v>71237.5</v>
       </c>
       <c r="O39" s="59">
-        <v>2.66</v>
+        <v>5.6989999999999998</v>
       </c>
       <c r="P39" s="78">
-        <v>174070.39999999999</v>
+        <v>71237.5</v>
       </c>
       <c r="Q39" s="16" t="str">
         <v>GBP</v>
@@ -17582,28 +17644,28 @@
         <v/>
       </c>
       <c r="W39" s="82">
-        <v>43907.736983182869</v>
+        <v>43873.761178379631</v>
       </c>
       <c r="X39" s="82">
         <v>0</v>
       </c>
-      <c r="Y39" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="Y39" s="80">
+        <v>0</v>
       </c>
       <c r="Z39" s="80">
         <v>1</v>
       </c>
-      <c r="AA39" s="80">
+      <c r="AA39" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AB39" s="83">
+        <v>12500</v>
+      </c>
+      <c r="AC39" s="83">
         <v>0</v>
       </c>
-      <c r="AB39" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AC39" s="83">
-        <v>65440</v>
-      </c>
-      <c r="AD39" s="78">
-        <v>0</v>
+      <c r="AD39" s="78" t="str">
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AE39" s="78">
         <v>0</v>
@@ -17632,7 +17694,7 @@
         <v>Active</v>
       </c>
       <c r="F40" s="75" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G40" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -17641,28 +17703,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I40" s="31" t="str">
-        <v>LusidInstrumentId:LUID_LGGQLBK7</v>
+        <v>LusidInstrumentId:LUID_B69SIVD5</v>
       </c>
       <c r="J40" s="31" t="str">
-        <v>LUID_LGGQLBK7</v>
+        <v>LUID_B69SIVD5</v>
       </c>
       <c r="K40" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L40" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M40" s="78">
-        <v>35000</v>
+        <v>95440</v>
       </c>
       <c r="N40" s="27">
-        <v>287140</v>
+        <v>5720673.5999999996</v>
       </c>
       <c r="O40" s="59">
-        <v>8.2040000000000006</v>
+        <v>59.94</v>
       </c>
       <c r="P40" s="78">
-        <v>287140</v>
+        <v>5720673.5999999996</v>
       </c>
       <c r="Q40" s="16" t="str">
         <v>GBP</v>
@@ -17683,28 +17745,28 @@
         <v/>
       </c>
       <c r="W40" s="82">
-        <v>43907.736983182869</v>
+        <v>43873.761178379631</v>
       </c>
       <c r="X40" s="82">
         <v>0</v>
       </c>
-      <c r="Y40" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="Y40" s="80">
+        <v>0</v>
       </c>
       <c r="Z40" s="80">
         <v>1</v>
       </c>
-      <c r="AA40" s="80">
+      <c r="AA40" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AB40" s="83">
+        <v>95440</v>
+      </c>
+      <c r="AC40" s="83">
         <v>0</v>
       </c>
-      <c r="AB40" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AC40" s="83">
-        <v>35000</v>
-      </c>
-      <c r="AD40" s="78">
-        <v>0</v>
+      <c r="AD40" s="78" t="str">
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AE40" s="78">
         <v>0</v>
@@ -17733,7 +17795,7 @@
         <v>Active</v>
       </c>
       <c r="F41" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G41" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -17742,28 +17804,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I41" s="31" t="str">
-        <v>LusidInstrumentId:LUID_R4W4NPCP</v>
+        <v>LusidInstrumentId:LUID_NJKL7IL7</v>
       </c>
       <c r="J41" s="31" t="str">
-        <v>LUID_R4W4NPCP</v>
+        <v>LUID_NJKL7IL7</v>
       </c>
       <c r="K41" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L41" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M41" s="78">
-        <v>50000</v>
+        <v>55050</v>
       </c>
       <c r="N41" s="27">
-        <v>94825</v>
+        <v>2663869.5</v>
       </c>
       <c r="O41" s="59">
-        <v>1.8965000000000001</v>
+        <v>48.39</v>
       </c>
       <c r="P41" s="78">
-        <v>94825</v>
+        <v>2663869.5</v>
       </c>
       <c r="Q41" s="16" t="str">
         <v>GBP</v>
@@ -17784,28 +17846,28 @@
         <v/>
       </c>
       <c r="W41" s="82">
-        <v>43907.736983182869</v>
+        <v>43873.761178379631</v>
       </c>
       <c r="X41" s="82">
         <v>0</v>
       </c>
-      <c r="Y41" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="Y41" s="80">
+        <v>0</v>
       </c>
       <c r="Z41" s="80">
         <v>1</v>
       </c>
-      <c r="AA41" s="80">
+      <c r="AA41" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AB41" s="83">
+        <v>55050</v>
+      </c>
+      <c r="AC41" s="83">
         <v>0</v>
       </c>
-      <c r="AB41" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AC41" s="83">
-        <v>50000</v>
-      </c>
-      <c r="AD41" s="78">
-        <v>0</v>
+      <c r="AD41" s="78" t="str">
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AE41" s="78">
         <v>0</v>
@@ -17834,7 +17896,7 @@
         <v>Active</v>
       </c>
       <c r="F42" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G42" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -17843,16 +17905,16 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I42" s="31" t="str">
-        <v>LusidInstrumentId:LUID_T2UDZX9H</v>
+        <v>LusidInstrumentId:LUID_M4K3HG7R</v>
       </c>
       <c r="J42" s="31" t="str">
-        <v>LUID_T2UDZX9H</v>
+        <v>LUID_M4K3HG7R</v>
       </c>
       <c r="K42" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L42" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M42" s="78">
         <v>120000</v>
@@ -17885,28 +17947,28 @@
         <v/>
       </c>
       <c r="W42" s="82">
-        <v>43907.736983182869</v>
+        <v>43873.761178379631</v>
       </c>
       <c r="X42" s="82">
         <v>0</v>
       </c>
-      <c r="Y42" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="Y42" s="80">
+        <v>0</v>
       </c>
       <c r="Z42" s="80">
         <v>1</v>
       </c>
-      <c r="AA42" s="80">
+      <c r="AA42" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AB42" s="83">
+        <v>120000</v>
+      </c>
+      <c r="AC42" s="83">
         <v>0</v>
       </c>
-      <c r="AB42" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AC42" s="83">
-        <v>120000</v>
-      </c>
-      <c r="AD42" s="78">
-        <v>0</v>
+      <c r="AD42" s="78" t="str">
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AE42" s="78">
         <v>0</v>
@@ -17935,7 +17997,7 @@
         <v>Active</v>
       </c>
       <c r="F43" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G43" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -17944,28 +18006,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I43" s="31" t="str">
-        <v>LusidInstrumentId:LUID_SXNMW7VD</v>
+        <v>LusidInstrumentId:LUID_3YNQOQT2</v>
       </c>
       <c r="J43" s="31" t="str">
-        <v>LUID_SXNMW7VD</v>
+        <v>LUID_3YNQOQT2</v>
       </c>
       <c r="K43" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L43" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M43" s="78">
-        <v>8000</v>
+        <v>35000</v>
       </c>
       <c r="N43" s="27">
-        <v>386800</v>
+        <v>287140</v>
       </c>
       <c r="O43" s="59">
-        <v>48.35</v>
+        <v>8.2040000000000006</v>
       </c>
       <c r="P43" s="78">
-        <v>386800</v>
+        <v>287140</v>
       </c>
       <c r="Q43" s="16" t="str">
         <v>GBP</v>
@@ -17986,28 +18048,28 @@
         <v/>
       </c>
       <c r="W43" s="82">
-        <v>43907.736983182869</v>
+        <v>43873.761178379631</v>
       </c>
       <c r="X43" s="82">
         <v>0</v>
       </c>
-      <c r="Y43" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="Y43" s="80">
+        <v>0</v>
       </c>
       <c r="Z43" s="80">
         <v>1</v>
       </c>
-      <c r="AA43" s="80">
+      <c r="AA43" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
+      </c>
+      <c r="AB43" s="83">
+        <v>35000</v>
+      </c>
+      <c r="AC43" s="83">
         <v>0</v>
       </c>
-      <c r="AB43" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AC43" s="83">
-        <v>8000</v>
-      </c>
-      <c r="AD43" s="78">
-        <v>0</v>
+      <c r="AD43" s="78" t="str">
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AE43" s="78">
         <v>0</v>
@@ -18048,7 +18110,7 @@
         <v>Figi:BBG000C0YGB0</v>
       </c>
       <c r="J44" s="31" t="str">
-        <v>LUID_L3O09Q40</v>
+        <v>LUID_B69SIVD5</v>
       </c>
       <c r="K44" s="81">
         <v>43570</v>
@@ -18057,7 +18119,7 @@
         <v>43602</v>
       </c>
       <c r="M44" s="78">
-        <v>2807.0588235294099</v>
+        <v>2807.0588235294117</v>
       </c>
       <c r="N44" s="27">
         <v>168255.11</v>
@@ -18066,7 +18128,7 @@
         <v>59.94</v>
       </c>
       <c r="P44" s="78">
-        <v>168255.105882353</v>
+        <v>168255.10588235295</v>
       </c>
       <c r="Q44" s="16" t="str">
         <v>GBP</v>
@@ -18087,28 +18149,28 @@
         <v>Client</v>
       </c>
       <c r="W44" s="82">
-        <v>43907.736952546293</v>
+        <v>43873.761195648149</v>
       </c>
       <c r="X44" s="82">
         <v>0</v>
       </c>
-      <c r="Y44" s="80">
-        <v>0</v>
+      <c r="Y44" s="80" t="str">
+        <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="Z44" s="80">
         <v>0</v>
       </c>
-      <c r="AA44" s="80" t="str">
-        <v>a075fd8d-8df8-47ce-974b-1651f67301eb</v>
+      <c r="AA44" s="80">
+        <v>0</v>
       </c>
       <c r="AB44" s="83">
+        <v>92632.941176470587</v>
+      </c>
+      <c r="AC44" s="83" t="str">
+        <v>Finbourne-Examples</v>
+      </c>
+      <c r="AD44" s="78">
         <v>0</v>
-      </c>
-      <c r="AC44" s="83">
-        <v>92632.941176470602</v>
-      </c>
-      <c r="AD44" s="78" t="str">
-        <v>Finbourne-Examples</v>
       </c>
       <c r="AE44" s="78">
         <v>168255.11</v>
@@ -18149,7 +18211,7 @@
         <v>Figi:BBG000C059M6</v>
       </c>
       <c r="J45" s="31" t="str">
-        <v>LUID_0ITNEGH1</v>
+        <v>LUID_AUZOX8G4</v>
       </c>
       <c r="K45" s="81">
         <v>43570</v>
@@ -18158,7 +18220,7 @@
         <v>43602</v>
       </c>
       <c r="M45" s="78">
-        <v>367.64705882352899</v>
+        <v>367.64705882352939</v>
       </c>
       <c r="N45" s="27">
         <v>2095.2199999999998</v>
@@ -18167,7 +18229,7 @@
         <v>5.6989999999999998</v>
       </c>
       <c r="P45" s="78">
-        <v>2095.2205882352901</v>
+        <v>2095.2205882352941</v>
       </c>
       <c r="Q45" s="16" t="str">
         <v>GBP</v>
@@ -18188,28 +18250,28 @@
         <v>Client</v>
       </c>
       <c r="W45" s="82">
-        <v>43907.736952546293</v>
+        <v>43873.761195648149</v>
       </c>
       <c r="X45" s="82">
         <v>0</v>
       </c>
-      <c r="Y45" s="80">
-        <v>0</v>
+      <c r="Y45" s="80" t="str">
+        <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="Z45" s="80">
         <v>0</v>
       </c>
-      <c r="AA45" s="80" t="str">
-        <v>a075fd8d-8df8-47ce-974b-1651f67301eb</v>
+      <c r="AA45" s="80">
+        <v>0</v>
       </c>
       <c r="AB45" s="83">
+        <v>12132.35294117647</v>
+      </c>
+      <c r="AC45" s="83" t="str">
+        <v>Finbourne-Examples</v>
+      </c>
+      <c r="AD45" s="78">
         <v>0</v>
-      </c>
-      <c r="AC45" s="83">
-        <v>12132.352941176472</v>
-      </c>
-      <c r="AD45" s="78" t="str">
-        <v>Finbourne-Examples</v>
       </c>
       <c r="AE45" s="78">
         <v>2095.2199999999998</v>
@@ -18250,7 +18312,7 @@
         <v>Figi:BBG000C2C436</v>
       </c>
       <c r="J46" s="31" t="str">
-        <v>LUID_LCWEFLH0</v>
+        <v>LUID_NJKL7IL7</v>
       </c>
       <c r="K46" s="81">
         <v>43570</v>
@@ -18259,7 +18321,7 @@
         <v>43602</v>
       </c>
       <c r="M46" s="78">
-        <v>1619.11764705882</v>
+        <v>1619.1176470588234</v>
       </c>
       <c r="N46" s="27">
         <v>78349.100000000006</v>
@@ -18268,7 +18330,7 @@
         <v>48.39</v>
       </c>
       <c r="P46" s="78">
-        <v>78349.102941176505</v>
+        <v>78349.102941176461</v>
       </c>
       <c r="Q46" s="16" t="str">
         <v>GBP</v>
@@ -18289,28 +18351,28 @@
         <v>Client</v>
       </c>
       <c r="W46" s="82">
-        <v>43907.736952546293</v>
+        <v>43873.761195648149</v>
       </c>
       <c r="X46" s="82">
         <v>0</v>
       </c>
-      <c r="Y46" s="80">
-        <v>0</v>
+      <c r="Y46" s="80" t="str">
+        <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="Z46" s="80">
         <v>0</v>
       </c>
-      <c r="AA46" s="80" t="str">
-        <v>a075fd8d-8df8-47ce-974b-1651f67301eb</v>
+      <c r="AA46" s="80">
+        <v>0</v>
       </c>
       <c r="AB46" s="83">
+        <v>53430.882352941175</v>
+      </c>
+      <c r="AC46" s="83" t="str">
+        <v>Finbourne-Examples</v>
+      </c>
+      <c r="AD46" s="78">
         <v>0</v>
-      </c>
-      <c r="AC46" s="83">
-        <v>53430.882352941182</v>
-      </c>
-      <c r="AD46" s="78" t="str">
-        <v>Finbourne-Examples</v>
       </c>
       <c r="AE46" s="78">
         <v>78349.100000000006</v>
@@ -18351,7 +18413,7 @@
         <v>Figi:BBG000BS1MT4</v>
       </c>
       <c r="J47" s="31" t="str">
-        <v>LUID_2HVMDHG0</v>
+        <v>LUID_14R6XKE5</v>
       </c>
       <c r="K47" s="81">
         <v>43570</v>
@@ -18360,7 +18422,7 @@
         <v>43602</v>
       </c>
       <c r="M47" s="78">
-        <v>602.94117647058795</v>
+        <v>602.94117647058829</v>
       </c>
       <c r="N47" s="27">
         <v>3954.69</v>
@@ -18369,7 +18431,7 @@
         <v>6.5590000000000002</v>
       </c>
       <c r="P47" s="78">
-        <v>3954.6911764705901</v>
+        <v>3954.6911764705887</v>
       </c>
       <c r="Q47" s="16" t="str">
         <v>GBP</v>
@@ -18390,28 +18452,28 @@
         <v>Client</v>
       </c>
       <c r="W47" s="82">
-        <v>43907.736952546293</v>
+        <v>43873.761195648149</v>
       </c>
       <c r="X47" s="82">
         <v>0</v>
       </c>
-      <c r="Y47" s="80">
-        <v>0</v>
+      <c r="Y47" s="80" t="str">
+        <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="Z47" s="80">
         <v>0</v>
       </c>
-      <c r="AA47" s="80" t="str">
-        <v>a075fd8d-8df8-47ce-974b-1651f67301eb</v>
+      <c r="AA47" s="80">
+        <v>0</v>
       </c>
       <c r="AB47" s="83">
+        <v>19897.058823529413</v>
+      </c>
+      <c r="AC47" s="83" t="str">
+        <v>Finbourne-Examples</v>
+      </c>
+      <c r="AD47" s="78">
         <v>0</v>
-      </c>
-      <c r="AC47" s="83">
-        <v>19897.058823529413</v>
-      </c>
-      <c r="AD47" s="78" t="str">
-        <v>Finbourne-Examples</v>
       </c>
       <c r="AE47" s="78">
         <v>3954.69</v>
@@ -18452,7 +18514,7 @@
         <v>Figi:BBG000BDQBV1</v>
       </c>
       <c r="J48" s="31" t="str">
-        <v>LUID_R7SOGVUX</v>
+        <v>LUID_P51ADRAW</v>
       </c>
       <c r="K48" s="81">
         <v>43570</v>
@@ -18461,7 +18523,7 @@
         <v>43602</v>
       </c>
       <c r="M48" s="78">
-        <v>2367.6470588235302</v>
+        <v>2367.6470588235293</v>
       </c>
       <c r="N48" s="27">
         <v>6806.99</v>
@@ -18470,7 +18532,7 @@
         <v>2.875</v>
       </c>
       <c r="P48" s="78">
-        <v>6806.9852941176496</v>
+        <v>6806.9852941176468</v>
       </c>
       <c r="Q48" s="16" t="str">
         <v>GBP</v>
@@ -18491,28 +18553,28 @@
         <v>Client</v>
       </c>
       <c r="W48" s="82">
-        <v>43907.736952546293</v>
+        <v>43873.761195648149</v>
       </c>
       <c r="X48" s="82">
         <v>0</v>
       </c>
-      <c r="Y48" s="80">
-        <v>0</v>
+      <c r="Y48" s="80" t="str">
+        <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="Z48" s="80">
         <v>0</v>
       </c>
-      <c r="AA48" s="80" t="str">
-        <v>a075fd8d-8df8-47ce-974b-1651f67301eb</v>
+      <c r="AA48" s="80">
+        <v>0</v>
       </c>
       <c r="AB48" s="83">
+        <v>82867.647058823524</v>
+      </c>
+      <c r="AC48" s="83" t="str">
+        <v>Finbourne-Examples</v>
+      </c>
+      <c r="AD48" s="78">
         <v>0</v>
-      </c>
-      <c r="AC48" s="83">
-        <v>82867.647058823524</v>
-      </c>
-      <c r="AD48" s="78" t="str">
-        <v>Finbourne-Examples</v>
       </c>
       <c r="AE48" s="78">
         <v>0</v>
@@ -18553,7 +18615,7 @@
         <v>Figi:BBG000BDTRH9</v>
       </c>
       <c r="J49" s="31" t="str">
-        <v>LUID_SDV4XAKG</v>
+        <v>LUID_2QQAUIKO</v>
       </c>
       <c r="K49" s="81">
         <v>43570</v>
@@ -18562,7 +18624,7 @@
         <v>43602</v>
       </c>
       <c r="M49" s="78">
-        <v>1924.7058823529401</v>
+        <v>1924.7058823529412</v>
       </c>
       <c r="N49" s="27">
         <v>5119.72</v>
@@ -18571,7 +18633,7 @@
         <v>2.66</v>
       </c>
       <c r="P49" s="78">
-        <v>5119.7176470588201</v>
+        <v>5119.7176470588238</v>
       </c>
       <c r="Q49" s="16" t="str">
         <v>GBP</v>
@@ -18592,28 +18654,28 @@
         <v>Client</v>
       </c>
       <c r="W49" s="82">
-        <v>43907.736952546293</v>
+        <v>43873.761195648149</v>
       </c>
       <c r="X49" s="82">
         <v>0</v>
       </c>
-      <c r="Y49" s="80">
-        <v>0</v>
+      <c r="Y49" s="80" t="str">
+        <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="Z49" s="80">
         <v>0</v>
       </c>
-      <c r="AA49" s="80" t="str">
-        <v>a075fd8d-8df8-47ce-974b-1651f67301eb</v>
+      <c r="AA49" s="80">
+        <v>0</v>
       </c>
       <c r="AB49" s="83">
+        <v>67364.705882352951</v>
+      </c>
+      <c r="AC49" s="83" t="str">
+        <v>Finbourne-Examples</v>
+      </c>
+      <c r="AD49" s="78">
         <v>0</v>
-      </c>
-      <c r="AC49" s="83">
-        <v>67364.705882352937</v>
-      </c>
-      <c r="AD49" s="78" t="str">
-        <v>Finbourne-Examples</v>
       </c>
       <c r="AE49" s="78">
         <v>0</v>
@@ -18654,7 +18716,7 @@
         <v>Figi:BBG000FV67D8</v>
       </c>
       <c r="J50" s="31" t="str">
-        <v>LUID_LGGQLBK7</v>
+        <v>LUID_3YNQOQT2</v>
       </c>
       <c r="K50" s="81">
         <v>43570</v>
@@ -18663,7 +18725,7 @@
         <v>43602</v>
       </c>
       <c r="M50" s="78">
-        <v>1029.4117647058799</v>
+        <v>1029.4117647058824</v>
       </c>
       <c r="N50" s="27">
         <v>8445.2900000000009</v>
@@ -18693,28 +18755,28 @@
         <v>Client</v>
       </c>
       <c r="W50" s="82">
-        <v>43907.736952546293</v>
+        <v>43873.761195648149</v>
       </c>
       <c r="X50" s="82">
         <v>0</v>
       </c>
-      <c r="Y50" s="80">
-        <v>0</v>
+      <c r="Y50" s="80" t="str">
+        <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="Z50" s="80">
         <v>0</v>
       </c>
-      <c r="AA50" s="80" t="str">
-        <v>a075fd8d-8df8-47ce-974b-1651f67301eb</v>
+      <c r="AA50" s="80">
+        <v>0</v>
       </c>
       <c r="AB50" s="83">
+        <v>36029.411764705881</v>
+      </c>
+      <c r="AC50" s="83" t="str">
+        <v>Finbourne-Examples</v>
+      </c>
+      <c r="AD50" s="78">
         <v>0</v>
-      </c>
-      <c r="AC50" s="83">
-        <v>36029.411764705881</v>
-      </c>
-      <c r="AD50" s="78" t="str">
-        <v>Finbourne-Examples</v>
       </c>
       <c r="AE50" s="78">
         <v>0</v>
@@ -18755,7 +18817,7 @@
         <v>Figi:BBG000BF4HM7</v>
       </c>
       <c r="J51" s="31" t="str">
-        <v>LUID_R4W4NPCP</v>
+        <v>LUID_RMTIB4MT</v>
       </c>
       <c r="K51" s="81">
         <v>43570</v>
@@ -18764,7 +18826,7 @@
         <v>43602</v>
       </c>
       <c r="M51" s="78">
-        <v>1470.5882352941201</v>
+        <v>1470.5882352941176</v>
       </c>
       <c r="N51" s="27">
         <v>2788.97</v>
@@ -18773,7 +18835,7 @@
         <v>1.8965000000000001</v>
       </c>
       <c r="P51" s="78">
-        <v>2788.9705882352901</v>
+        <v>2788.9705882352941</v>
       </c>
       <c r="Q51" s="16" t="str">
         <v>GBP</v>
@@ -18794,28 +18856,28 @@
         <v>Client</v>
       </c>
       <c r="W51" s="82">
-        <v>43907.736952546293</v>
+        <v>43873.761195648149</v>
       </c>
       <c r="X51" s="82">
         <v>0</v>
       </c>
-      <c r="Y51" s="80">
-        <v>0</v>
+      <c r="Y51" s="80" t="str">
+        <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="Z51" s="80">
         <v>0</v>
       </c>
-      <c r="AA51" s="80" t="str">
-        <v>a075fd8d-8df8-47ce-974b-1651f67301eb</v>
+      <c r="AA51" s="80">
+        <v>0</v>
       </c>
       <c r="AB51" s="83">
+        <v>51470.588235294119</v>
+      </c>
+      <c r="AC51" s="83" t="str">
+        <v>Finbourne-Examples</v>
+      </c>
+      <c r="AD51" s="78">
         <v>0</v>
-      </c>
-      <c r="AC51" s="83">
-        <v>51470.588235294119</v>
-      </c>
-      <c r="AD51" s="78" t="str">
-        <v>Finbourne-Examples</v>
       </c>
       <c r="AE51" s="78">
         <v>0</v>
@@ -19187,7 +19249,7 @@
         <v>Active</v>
       </c>
       <c r="F62" s="80" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G62" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -19196,28 +19258,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I62" s="31" t="str">
-        <v>LusidInstrumentId:LUID_L3O09Q40</v>
+        <v>LusidInstrumentId:LUID_P51ADRAW</v>
       </c>
       <c r="J62" s="31" t="str">
-        <v>LUID_L3O09Q40</v>
+        <v>LUID_P51ADRAW</v>
       </c>
       <c r="K62" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L62" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M62" s="78">
-        <v>95440</v>
+        <v>80500</v>
       </c>
       <c r="N62" s="27">
-        <v>5720673.5999999996</v>
+        <v>231437.5</v>
       </c>
       <c r="O62" s="59">
-        <v>59.94</v>
+        <v>2.875</v>
       </c>
       <c r="P62" s="78">
-        <v>5720673.5999999996</v>
+        <v>231437.5</v>
       </c>
       <c r="Q62" s="22" t="str">
         <v>GBP</v>
@@ -19234,7 +19296,7 @@
         <v>Active</v>
       </c>
       <c r="F63" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G63" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -19243,28 +19305,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I63" s="31" t="str">
-        <v>LusidInstrumentId:LUID_0ITNEGH1</v>
+        <v>LusidInstrumentId:LUID_2QQAUIKO</v>
       </c>
       <c r="J63" s="31" t="str">
-        <v>LUID_0ITNEGH1</v>
+        <v>LUID_2QQAUIKO</v>
       </c>
       <c r="K63" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L63" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M63" s="78">
-        <v>12500</v>
+        <v>65440</v>
       </c>
       <c r="N63" s="27">
-        <v>71237.5</v>
+        <v>174070.39999999999</v>
       </c>
       <c r="O63" s="59">
-        <v>5.6989999999999998</v>
+        <v>2.66</v>
       </c>
       <c r="P63" s="78">
-        <v>71237.5</v>
+        <v>174070.40000000002</v>
       </c>
       <c r="Q63" s="80" t="str">
         <v>GBP</v>
@@ -19281,7 +19343,7 @@
         <v>Active</v>
       </c>
       <c r="F64" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G64" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -19290,28 +19352,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I64" s="31" t="str">
-        <v>LusidInstrumentId:LUID_LCWEFLH0</v>
+        <v>LusidInstrumentId:LUID_RMTIB4MT</v>
       </c>
       <c r="J64" s="31" t="str">
-        <v>LUID_LCWEFLH0</v>
+        <v>LUID_RMTIB4MT</v>
       </c>
       <c r="K64" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L64" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M64" s="78">
-        <v>55050</v>
+        <v>50000</v>
       </c>
       <c r="N64" s="27">
-        <v>2663869.5</v>
+        <v>94825</v>
       </c>
       <c r="O64" s="59">
-        <v>48.39</v>
+        <v>1.8965000000000001</v>
       </c>
       <c r="P64" s="78">
-        <v>2663869.5</v>
+        <v>94825</v>
       </c>
       <c r="Q64" s="80" t="str">
         <v>GBP</v>
@@ -19328,7 +19390,7 @@
         <v>Active</v>
       </c>
       <c r="F65" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G65" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -19337,28 +19399,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I65" s="31" t="str">
-        <v>LusidInstrumentId:LUID_2HVMDHG0</v>
+        <v>LusidInstrumentId:LUID_0GHU6DD4</v>
       </c>
       <c r="J65" s="31" t="str">
-        <v>LUID_2HVMDHG0</v>
+        <v>LUID_0GHU6DD4</v>
       </c>
       <c r="K65" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L65" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M65" s="78">
-        <v>20500</v>
+        <v>8000</v>
       </c>
       <c r="N65" s="27">
-        <v>134459.5</v>
+        <v>386800</v>
       </c>
       <c r="O65" s="59">
-        <v>6.5590000000000002</v>
+        <v>48.35</v>
       </c>
       <c r="P65" s="78">
-        <v>134459.5</v>
+        <v>386800</v>
       </c>
       <c r="Q65" s="80" t="str">
         <v>GBP</v>
@@ -19375,7 +19437,7 @@
         <v>Active</v>
       </c>
       <c r="F66" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G66" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -19384,28 +19446,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I66" s="31" t="str">
-        <v>LusidInstrumentId:LUID_R7SOGVUX</v>
+        <v>LusidInstrumentId:LUID_14R6XKE5</v>
       </c>
       <c r="J66" s="31" t="str">
-        <v>LUID_R7SOGVUX</v>
+        <v>LUID_14R6XKE5</v>
       </c>
       <c r="K66" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L66" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M66" s="78">
-        <v>80500</v>
+        <v>20500</v>
       </c>
       <c r="N66" s="27">
-        <v>231437.5</v>
+        <v>134459.5</v>
       </c>
       <c r="O66" s="59">
-        <v>2.875</v>
+        <v>6.5590000000000002</v>
       </c>
       <c r="P66" s="78">
-        <v>231437.5</v>
+        <v>134459.5</v>
       </c>
       <c r="Q66" s="80" t="str">
         <v>GBP</v>
@@ -19422,7 +19484,7 @@
         <v>Active</v>
       </c>
       <c r="F67" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G67" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -19431,28 +19493,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I67" s="31" t="str">
-        <v>LusidInstrumentId:LUID_SDV4XAKG</v>
+        <v>LusidInstrumentId:LUID_AUZOX8G4</v>
       </c>
       <c r="J67" s="31" t="str">
-        <v>LUID_SDV4XAKG</v>
+        <v>LUID_AUZOX8G4</v>
       </c>
       <c r="K67" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L67" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M67" s="78">
-        <v>65440</v>
+        <v>12500</v>
       </c>
       <c r="N67" s="27">
-        <v>174070.39999999999</v>
+        <v>71237.5</v>
       </c>
       <c r="O67" s="59">
-        <v>2.66</v>
+        <v>5.6989999999999998</v>
       </c>
       <c r="P67" s="78">
-        <v>174070.39999999999</v>
+        <v>71237.5</v>
       </c>
       <c r="Q67" s="80" t="str">
         <v>GBP</v>
@@ -19469,7 +19531,7 @@
         <v>Active</v>
       </c>
       <c r="F68" s="75" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G68" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -19478,28 +19540,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I68" s="31" t="str">
-        <v>LusidInstrumentId:LUID_LGGQLBK7</v>
+        <v>LusidInstrumentId:LUID_B69SIVD5</v>
       </c>
       <c r="J68" s="31" t="str">
-        <v>LUID_LGGQLBK7</v>
+        <v>LUID_B69SIVD5</v>
       </c>
       <c r="K68" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L68" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M68" s="78">
-        <v>35000</v>
+        <v>95440</v>
       </c>
       <c r="N68" s="27">
-        <v>287140</v>
+        <v>5720673.5999999996</v>
       </c>
       <c r="O68" s="59">
-        <v>8.2040000000000006</v>
+        <v>59.94</v>
       </c>
       <c r="P68" s="78">
-        <v>287140</v>
+        <v>5720673.5999999996</v>
       </c>
       <c r="Q68" s="80" t="str">
         <v>GBP</v>
@@ -19516,7 +19578,7 @@
         <v>Active</v>
       </c>
       <c r="F69" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G69" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -19525,28 +19587,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I69" s="31" t="str">
-        <v>LusidInstrumentId:LUID_R4W4NPCP</v>
+        <v>LusidInstrumentId:LUID_NJKL7IL7</v>
       </c>
       <c r="J69" s="31" t="str">
-        <v>LUID_R4W4NPCP</v>
+        <v>LUID_NJKL7IL7</v>
       </c>
       <c r="K69" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L69" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M69" s="78">
-        <v>50000</v>
+        <v>55050</v>
       </c>
       <c r="N69" s="27">
-        <v>94825</v>
+        <v>2663869.5</v>
       </c>
       <c r="O69" s="59">
-        <v>1.8965000000000001</v>
+        <v>48.39</v>
       </c>
       <c r="P69" s="78">
-        <v>94825</v>
+        <v>2663869.5</v>
       </c>
       <c r="Q69" s="80" t="str">
         <v>GBP</v>
@@ -19563,7 +19625,7 @@
         <v>Active</v>
       </c>
       <c r="F70" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G70" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -19572,16 +19634,16 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I70" s="31" t="str">
-        <v>LusidInstrumentId:LUID_T2UDZX9H</v>
+        <v>LusidInstrumentId:LUID_M4K3HG7R</v>
       </c>
       <c r="J70" s="31" t="str">
-        <v>LUID_T2UDZX9H</v>
+        <v>LUID_M4K3HG7R</v>
       </c>
       <c r="K70" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L70" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M70" s="78">
         <v>120000</v>
@@ -19610,7 +19672,7 @@
         <v>Active</v>
       </c>
       <c r="F71" s="15" t="str">
-        <v>2019-04-10T00:00:00.0000000+00:00</v>
+        <v>2019-01-01T00:00:00.0000000+00:00</v>
       </c>
       <c r="G71" s="29" t="str">
         <v>AdjustmentIncrease</v>
@@ -19619,28 +19681,28 @@
         <v>Increase Adjustment</v>
       </c>
       <c r="I71" s="31" t="str">
-        <v>LusidInstrumentId:LUID_SXNMW7VD</v>
+        <v>LusidInstrumentId:LUID_3YNQOQT2</v>
       </c>
       <c r="J71" s="31" t="str">
-        <v>LUID_SXNMW7VD</v>
+        <v>LUID_3YNQOQT2</v>
       </c>
       <c r="K71" s="81">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="L71" s="76">
-        <v>43565</v>
+        <v>43466</v>
       </c>
       <c r="M71" s="78">
-        <v>8000</v>
+        <v>35000</v>
       </c>
       <c r="N71" s="27">
-        <v>386800</v>
+        <v>287140</v>
       </c>
       <c r="O71" s="59">
-        <v>48.35</v>
+        <v>8.2040000000000006</v>
       </c>
       <c r="P71" s="78">
-        <v>386800</v>
+        <v>287140</v>
       </c>
       <c r="Q71" s="80" t="str">
         <v>GBP</v>
@@ -19669,7 +19731,7 @@
         <v>Figi:BBG000C0YGB0</v>
       </c>
       <c r="J72" s="31" t="str">
-        <v>LUID_L3O09Q40</v>
+        <v>LUID_B69SIVD5</v>
       </c>
       <c r="K72" s="81">
         <v>43570</v>
@@ -19678,7 +19740,7 @@
         <v>43602</v>
       </c>
       <c r="M72" s="78">
-        <v>2807.0588235294099</v>
+        <v>2807.0588235294117</v>
       </c>
       <c r="N72" s="27">
         <v>168255.11</v>
@@ -19687,7 +19749,7 @@
         <v>59.94</v>
       </c>
       <c r="P72" s="78">
-        <v>168255.105882353</v>
+        <v>168255.10588235295</v>
       </c>
       <c r="Q72" s="80" t="str">
         <v>GBP</v>
@@ -19716,7 +19778,7 @@
         <v>Figi:BBG000C059M6</v>
       </c>
       <c r="J73" s="31" t="str">
-        <v>LUID_0ITNEGH1</v>
+        <v>LUID_AUZOX8G4</v>
       </c>
       <c r="K73" s="81">
         <v>43570</v>
@@ -19725,7 +19787,7 @@
         <v>43602</v>
       </c>
       <c r="M73" s="78">
-        <v>367.64705882352899</v>
+        <v>367.64705882352939</v>
       </c>
       <c r="N73" s="27">
         <v>2095.2199999999998</v>
@@ -19734,7 +19796,7 @@
         <v>5.6989999999999998</v>
       </c>
       <c r="P73" s="78">
-        <v>2095.2205882352901</v>
+        <v>2095.2205882352941</v>
       </c>
       <c r="Q73" s="80" t="str">
         <v>GBP</v>
@@ -19763,7 +19825,7 @@
         <v>Figi:BBG000C2C436</v>
       </c>
       <c r="J74" s="31" t="str">
-        <v>LUID_LCWEFLH0</v>
+        <v>LUID_NJKL7IL7</v>
       </c>
       <c r="K74" s="81">
         <v>43570</v>
@@ -19772,7 +19834,7 @@
         <v>43602</v>
       </c>
       <c r="M74" s="78">
-        <v>1619.11764705882</v>
+        <v>1619.1176470588234</v>
       </c>
       <c r="N74" s="27">
         <v>78349.100000000006</v>
@@ -19781,7 +19843,7 @@
         <v>48.39</v>
       </c>
       <c r="P74" s="78">
-        <v>78349.102941176505</v>
+        <v>78349.102941176461</v>
       </c>
       <c r="Q74" s="80" t="str">
         <v>GBP</v>
@@ -19810,7 +19872,7 @@
         <v>Figi:BBG000BS1MT4</v>
       </c>
       <c r="J75" s="31" t="str">
-        <v>LUID_2HVMDHG0</v>
+        <v>LUID_14R6XKE5</v>
       </c>
       <c r="K75" s="81">
         <v>43570</v>
@@ -19819,7 +19881,7 @@
         <v>43602</v>
       </c>
       <c r="M75" s="78">
-        <v>602.94117647058795</v>
+        <v>602.94117647058829</v>
       </c>
       <c r="N75" s="27">
         <v>3954.69</v>
@@ -19828,7 +19890,7 @@
         <v>6.5590000000000002</v>
       </c>
       <c r="P75" s="78">
-        <v>3954.6911764705901</v>
+        <v>3954.6911764705887</v>
       </c>
       <c r="Q75" s="80" t="str">
         <v>GBP</v>
@@ -19857,7 +19919,7 @@
         <v>Figi:BBG000BDQBV1</v>
       </c>
       <c r="J76" s="31" t="str">
-        <v>LUID_R7SOGVUX</v>
+        <v>LUID_P51ADRAW</v>
       </c>
       <c r="K76" s="81">
         <v>43570</v>
@@ -19866,7 +19928,7 @@
         <v>43602</v>
       </c>
       <c r="M76" s="78">
-        <v>2367.6470588235302</v>
+        <v>2367.6470588235293</v>
       </c>
       <c r="N76" s="27">
         <v>6806.99</v>
@@ -19875,7 +19937,7 @@
         <v>2.875</v>
       </c>
       <c r="P76" s="78">
-        <v>6806.9852941176496</v>
+        <v>6806.9852941176468</v>
       </c>
       <c r="Q76" s="80" t="str">
         <v>GBP</v>
@@ -19904,7 +19966,7 @@
         <v>Figi:BBG000BDTRH9</v>
       </c>
       <c r="J77" s="31" t="str">
-        <v>LUID_SDV4XAKG</v>
+        <v>LUID_2QQAUIKO</v>
       </c>
       <c r="K77" s="81">
         <v>43570</v>
@@ -19913,7 +19975,7 @@
         <v>43602</v>
       </c>
       <c r="M77" s="78">
-        <v>1924.7058823529401</v>
+        <v>1924.7058823529412</v>
       </c>
       <c r="N77" s="27">
         <v>5119.72</v>
@@ -19922,7 +19984,7 @@
         <v>2.66</v>
       </c>
       <c r="P77" s="78">
-        <v>5119.7176470588201</v>
+        <v>5119.7176470588238</v>
       </c>
       <c r="Q77" s="80" t="str">
         <v>GBP</v>
@@ -19951,7 +20013,7 @@
         <v>Figi:BBG000FV67D8</v>
       </c>
       <c r="J78" s="31" t="str">
-        <v>LUID_LGGQLBK7</v>
+        <v>LUID_3YNQOQT2</v>
       </c>
       <c r="K78" s="81">
         <v>43570</v>
@@ -19960,7 +20022,7 @@
         <v>43602</v>
       </c>
       <c r="M78" s="78">
-        <v>1029.4117647058799</v>
+        <v>1029.4117647058824</v>
       </c>
       <c r="N78" s="27">
         <v>8445.2900000000009</v>
@@ -19998,7 +20060,7 @@
         <v>Figi:BBG000BF4HM7</v>
       </c>
       <c r="J79" s="31" t="str">
-        <v>LUID_R4W4NPCP</v>
+        <v>LUID_RMTIB4MT</v>
       </c>
       <c r="K79" s="81">
         <v>43570</v>
@@ -20007,7 +20069,7 @@
         <v>43602</v>
       </c>
       <c r="M79" s="78">
-        <v>1470.5882352941201</v>
+        <v>1470.5882352941176</v>
       </c>
       <c r="N79" s="27">
         <v>2788.97</v>
@@ -20016,7 +20078,7 @@
         <v>1.8965000000000001</v>
       </c>
       <c r="P79" s="78">
-        <v>2788.9705882352901</v>
+        <v>2788.9705882352941</v>
       </c>
       <c r="Q79" s="80" t="str">
         <v>GBP</v>
@@ -20722,7 +20784,7 @@
       </c>
       <c r="F27" s="84">
         <f ca="1">NOW()</f>
-        <v>43908.539591782406</v>
+        <v>43908.887660879627</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -20803,7 +20865,7 @@
       </c>
       <c r="F31" s="84">
         <f ca="1">F27-5/1440</f>
-        <v>43908.536119560187</v>
+        <v>43908.884188657408</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -22305,6 +22367,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F4F0FA1AC8B142BA5BFAEE01329AF1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51d44e6750016a81140edd9302933050">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7f1325bc-d786-4e92-924e-74ffe34b2b40" xmlns:ns3="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbbf5b69800df541767d824f3fbf5177" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22530,26 +22611,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EDF347-3168-4BEB-9A6E-9322773C07F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22567,30 +22655,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LUSID Excel - Setting up your IBOR.xlsx
+++ b/LUSID Excel - Setting up your IBOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A99B16-E6AC-46AB-B534-16E5FB8A7D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DA8AEB-D48F-4286-8544-91307DC3E55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="798" activeTab="5" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Datetime format" sheetId="11" r:id="rId1"/>
@@ -47,6 +47,7 @@
     <definedName name="fbnTransactionsAdd_Template_ref" localSheetId="6">'Upload transactions'!$F$37:$Q$37</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="396">
   <si>
     <t>Code</t>
   </si>
@@ -1386,6 +1387,15 @@
   <si>
     <t>N.B we set the quote interval here to 2Y to ensure the quotes in the past can be used for this valuation</t>
   </si>
+  <si>
+    <t>Step 5: Specifiy the portfolio group and parameters</t>
+  </si>
+  <si>
+    <t>Step 6: Run a Valuation</t>
+  </si>
+  <si>
+    <t>Step 7: Specifiy the portfolio group and parameters</t>
+  </si>
 </sst>
 </file>
 
@@ -1407,7 +1417,7 @@
     <numFmt numFmtId="176" formatCode="dd\-mmm\-yy\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1500,6 +1510,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1876,1780 +1892,1930 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.552b6025665c456ba4b67600f5d164cc">
+    <main first="rtdsrv.e6a90c06bc2a43c6af935351522bc97d">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>a8cbb57e-b6b0-4be0-a984-4d8941875f63</stp>
-        <tr r="D20" s="7"/>
-        <tr r="D16" s="7"/>
-        <tr r="D19" s="7"/>
-        <tr r="D18" s="7"/>
-        <tr r="D22" s="7"/>
-        <tr r="D24" s="7"/>
-        <tr r="D15" s="7"/>
-        <tr r="D25" s="7"/>
-        <tr r="D21" s="7"/>
-        <tr r="D17" s="7"/>
-        <tr r="D23" s="7"/>
+        <stp>c686f6f3-32b8-4eb9-9475-0fea4adee395</stp>
+        <tr r="K46" s="13"/>
+        <tr r="L48" s="13"/>
+        <tr r="I45" s="13"/>
+        <tr r="I44" s="13"/>
+        <tr r="E45" s="13"/>
+        <tr r="G46" s="13"/>
+        <tr r="F47" s="13"/>
+        <tr r="F40" s="13"/>
+        <tr r="L40" s="13"/>
+        <tr r="J41" s="13"/>
+        <tr r="E42" s="13"/>
+        <tr r="M43" s="13"/>
+        <tr r="H43" s="13"/>
+        <tr r="E43" s="13"/>
+        <tr r="J47" s="13"/>
+        <tr r="J49" s="13"/>
+        <tr r="J42" s="13"/>
+        <tr r="K42" s="13"/>
+        <tr r="F39" s="13"/>
+        <tr r="G49" s="13"/>
+        <tr r="L44" s="13"/>
+        <tr r="E39" s="13"/>
+        <tr r="O40" s="13"/>
+        <tr r="E49" s="13"/>
+        <tr r="N46" s="13"/>
+        <tr r="K47" s="13"/>
+        <tr r="O43" s="13"/>
+        <tr r="H40" s="13"/>
+        <tr r="F44" s="13"/>
+        <tr r="H39" s="13"/>
+        <tr r="H42" s="13"/>
+        <tr r="K43" s="13"/>
+        <tr r="K41" s="13"/>
+        <tr r="K48" s="13"/>
+        <tr r="O42" s="13"/>
+        <tr r="G41" s="13"/>
+        <tr r="M39" s="13"/>
+        <tr r="O46" s="13"/>
+        <tr r="H47" s="13"/>
+        <tr r="K39" s="13"/>
+        <tr r="N47" s="13"/>
+        <tr r="N40" s="13"/>
+        <tr r="E46" s="13"/>
+        <tr r="H41" s="13"/>
+        <tr r="J39" s="13"/>
+        <tr r="L42" s="13"/>
+        <tr r="K49" s="13"/>
+        <tr r="J46" s="13"/>
+        <tr r="M44" s="13"/>
+        <tr r="E41" s="13"/>
+        <tr r="I47" s="13"/>
+        <tr r="I41" s="13"/>
+        <tr r="N44" s="13"/>
+        <tr r="M42" s="13"/>
+        <tr r="E48" s="13"/>
+        <tr r="I48" s="13"/>
+        <tr r="K44" s="13"/>
+        <tr r="I49" s="13"/>
+        <tr r="F49" s="13"/>
+        <tr r="L39" s="13"/>
+        <tr r="F48" s="13"/>
+        <tr r="L43" s="13"/>
+        <tr r="O49" s="13"/>
+        <tr r="G44" s="13"/>
+        <tr r="F41" s="13"/>
+        <tr r="H45" s="13"/>
+        <tr r="N48" s="13"/>
+        <tr r="J43" s="13"/>
+        <tr r="L49" s="13"/>
+        <tr r="M45" s="13"/>
+        <tr r="O45" s="13"/>
+        <tr r="F46" s="13"/>
+        <tr r="L45" s="13"/>
+        <tr r="E47" s="13"/>
+        <tr r="I39" s="13"/>
+        <tr r="H44" s="13"/>
+        <tr r="N41" s="13"/>
+        <tr r="N42" s="13"/>
+        <tr r="G48" s="13"/>
+        <tr r="O48" s="13"/>
+        <tr r="O39" s="13"/>
+        <tr r="I43" s="13"/>
+        <tr r="M40" s="13"/>
+        <tr r="M47" s="13"/>
+        <tr r="M41" s="13"/>
+        <tr r="E44" s="13"/>
+        <tr r="O41" s="13"/>
+        <tr r="E40" s="13"/>
+        <tr r="J45" s="13"/>
+        <tr r="L41" s="13"/>
+        <tr r="F43" s="13"/>
+        <tr r="O47" s="13"/>
+        <tr r="M49" s="13"/>
+        <tr r="N49" s="13"/>
+        <tr r="M48" s="13"/>
+        <tr r="L46" s="13"/>
+        <tr r="I46" s="13"/>
+        <tr r="N43" s="13"/>
+        <tr r="G45" s="13"/>
+        <tr r="H49" s="13"/>
+        <tr r="G42" s="13"/>
+        <tr r="L47" s="13"/>
+        <tr r="G43" s="13"/>
+        <tr r="G40" s="13"/>
+        <tr r="F45" s="13"/>
+        <tr r="N45" s="13"/>
+        <tr r="I40" s="13"/>
+        <tr r="O44" s="13"/>
+        <tr r="H46" s="13"/>
+        <tr r="I42" s="13"/>
+        <tr r="G39" s="13"/>
+        <tr r="G47" s="13"/>
+        <tr r="M46" s="13"/>
+        <tr r="K45" s="13"/>
+        <tr r="K40" s="13"/>
+        <tr r="J48" s="13"/>
+        <tr r="F42" s="13"/>
+        <tr r="H48" s="13"/>
+        <tr r="J44" s="13"/>
+        <tr r="N39" s="13"/>
+        <tr r="J40" s="13"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>e0d4adad-91d6-4229-aa72-15f3d68634be</stp>
-        <tr r="J47" s="14"/>
-        <tr r="J48" s="14"/>
-        <tr r="E48" s="14"/>
-        <tr r="K47" s="14"/>
-        <tr r="H48" s="14"/>
-        <tr r="I48" s="14"/>
-        <tr r="G48" s="14"/>
-        <tr r="F48" s="14"/>
-        <tr r="F47" s="14"/>
-        <tr r="I47" s="14"/>
-        <tr r="G47" s="14"/>
-        <tr r="E47" s="14"/>
-        <tr r="H47" s="14"/>
-        <tr r="K48" s="14"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.552b6025665c456ba4b67600f5d164cc">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c61c3f2b-7002-40e3-9e1d-0106aa627b17</stp>
-        <tr r="E70" s="15"/>
-        <tr r="F67" s="15"/>
-        <tr r="H70" s="15"/>
-        <tr r="H68" s="15"/>
-        <tr r="F66" s="15"/>
-        <tr r="E76" s="15"/>
-        <tr r="G76" s="15"/>
-        <tr r="F71" s="15"/>
-        <tr r="G74" s="15"/>
-        <tr r="H72" s="15"/>
-        <tr r="H74" s="15"/>
-        <tr r="F70" s="15"/>
-        <tr r="F73" s="15"/>
-        <tr r="F69" s="15"/>
-        <tr r="F72" s="15"/>
-        <tr r="E66" s="15"/>
-        <tr r="G75" s="15"/>
-        <tr r="H75" s="15"/>
-        <tr r="G67" s="15"/>
-        <tr r="G70" s="15"/>
-        <tr r="H71" s="15"/>
-        <tr r="H69" s="15"/>
-        <tr r="E74" s="15"/>
-        <tr r="F68" s="15"/>
-        <tr r="F75" s="15"/>
-        <tr r="H67" s="15"/>
-        <tr r="E73" s="15"/>
-        <tr r="G73" s="15"/>
-        <tr r="H73" s="15"/>
-        <tr r="E69" s="15"/>
-        <tr r="G66" s="15"/>
-        <tr r="G72" s="15"/>
-        <tr r="G77" s="15"/>
-        <tr r="E68" s="15"/>
-        <tr r="E67" s="15"/>
-        <tr r="G68" s="15"/>
-        <tr r="E75" s="15"/>
-        <tr r="G69" s="15"/>
-        <tr r="F77" s="15"/>
-        <tr r="E77" s="15"/>
-        <tr r="H77" s="15"/>
-        <tr r="E71" s="15"/>
-        <tr r="H76" s="15"/>
-        <tr r="G71" s="15"/>
-        <tr r="F74" s="15"/>
-        <tr r="H66" s="15"/>
-        <tr r="F76" s="15"/>
-        <tr r="E72" s="15"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.552b6025665c456ba4b67600f5d164cc">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>45fe1528-2916-434e-a608-ec039abf672c</stp>
-        <tr r="F30" s="5"/>
-        <tr r="F32" s="5"/>
-        <tr r="K30" s="5"/>
-        <tr r="L33" s="5"/>
-        <tr r="L35" s="5"/>
-        <tr r="F33" s="5"/>
-        <tr r="H34" s="5"/>
-        <tr r="G33" s="5"/>
-        <tr r="L34" s="5"/>
-        <tr r="I34" s="5"/>
-        <tr r="E34" s="5"/>
-        <tr r="L29" s="5"/>
-        <tr r="F35" s="5"/>
-        <tr r="I33" s="5"/>
-        <tr r="G29" s="5"/>
-        <tr r="G30" s="5"/>
-        <tr r="K34" s="5"/>
-        <tr r="H33" s="5"/>
-        <tr r="J30" s="5"/>
-        <tr r="F34" s="5"/>
-        <tr r="I29" s="5"/>
-        <tr r="K33" s="5"/>
-        <tr r="G34" s="5"/>
-        <tr r="M35" s="5"/>
-        <tr r="K32" s="5"/>
-        <tr r="M34" s="5"/>
-        <tr r="E35" s="5"/>
-        <tr r="H32" s="5"/>
-        <tr r="M29" s="5"/>
-        <tr r="G32" s="5"/>
-        <tr r="J33" s="5"/>
-        <tr r="L31" s="5"/>
-        <tr r="F31" s="5"/>
-        <tr r="I31" s="5"/>
-        <tr r="E29" s="5"/>
-        <tr r="E31" s="5"/>
-        <tr r="M31" s="5"/>
-        <tr r="J31" s="5"/>
-        <tr r="H29" s="5"/>
-        <tr r="J34" s="5"/>
-        <tr r="K31" s="5"/>
-        <tr r="J32" s="5"/>
-        <tr r="J29" s="5"/>
-        <tr r="M33" s="5"/>
-        <tr r="F29" s="5"/>
-        <tr r="G35" s="5"/>
-        <tr r="H30" s="5"/>
-        <tr r="L32" s="5"/>
-        <tr r="I32" s="5"/>
-        <tr r="I35" s="5"/>
-        <tr r="E30" s="5"/>
-        <tr r="J35" s="5"/>
-        <tr r="E33" s="5"/>
-        <tr r="E32" s="5"/>
-        <tr r="K29" s="5"/>
-        <tr r="H35" s="5"/>
-        <tr r="M30" s="5"/>
-        <tr r="K35" s="5"/>
-        <tr r="G31" s="5"/>
-        <tr r="I30" s="5"/>
-        <tr r="H31" s="5"/>
-        <tr r="L30" s="5"/>
-        <tr r="M32" s="5"/>
+        <stp>76ec3120-1bcb-4710-b174-9d0b3c7c29d1</stp>
+        <tr r="E38" s="15"/>
+        <tr r="E29" s="15"/>
+        <tr r="F35" s="15"/>
+        <tr r="E31" s="15"/>
+        <tr r="F36" s="15"/>
+        <tr r="E34" s="15"/>
+        <tr r="G29" s="15"/>
+        <tr r="G32" s="15"/>
+        <tr r="F31" s="15"/>
+        <tr r="G31" s="15"/>
+        <tr r="F33" s="15"/>
+        <tr r="G38" s="15"/>
+        <tr r="F30" s="15"/>
+        <tr r="G37" s="15"/>
+        <tr r="E39" s="15"/>
+        <tr r="G36" s="15"/>
+        <tr r="G28" s="15"/>
+        <tr r="F38" s="15"/>
+        <tr r="G39" s="15"/>
+        <tr r="F29" s="15"/>
+        <tr r="G35" s="15"/>
+        <tr r="E28" s="15"/>
+        <tr r="F37" s="15"/>
+        <tr r="E35" s="15"/>
+        <tr r="E33" s="15"/>
+        <tr r="G33" s="15"/>
+        <tr r="E32" s="15"/>
+        <tr r="E30" s="15"/>
+        <tr r="G30" s="15"/>
+        <tr r="F32" s="15"/>
+        <tr r="E37" s="15"/>
+        <tr r="G34" s="15"/>
+        <tr r="F28" s="15"/>
+        <tr r="E36" s="15"/>
+        <tr r="F34" s="15"/>
+        <tr r="F39" s="15"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>a3339ab4-0c29-46d3-9acd-c5a518907bfa</stp>
+        <stp>4d3196ef-9288-458c-8ec9-575740d6ebad</stp>
+        <tr r="K48" s="14"/>
+        <tr r="G47" s="14"/>
+        <tr r="K47" s="14"/>
+        <tr r="E48" s="14"/>
+        <tr r="I47" s="14"/>
+        <tr r="H48" s="14"/>
+        <tr r="E47" s="14"/>
+        <tr r="F48" s="14"/>
+        <tr r="I48" s="14"/>
+        <tr r="J48" s="14"/>
+        <tr r="G48" s="14"/>
+        <tr r="J47" s="14"/>
+        <tr r="F47" s="14"/>
+        <tr r="H47" s="14"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e6a90c06bc2a43c6af935351522bc97d">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>fbdca188-9b48-49f7-8281-0e37b2f5c158</stp>
+        <tr r="G74" s="15"/>
+        <tr r="E72" s="15"/>
+        <tr r="E66" s="15"/>
+        <tr r="G69" s="15"/>
+        <tr r="E69" s="15"/>
+        <tr r="F77" s="15"/>
+        <tr r="G70" s="15"/>
+        <tr r="E70" s="15"/>
+        <tr r="G76" s="15"/>
+        <tr r="F75" s="15"/>
+        <tr r="F67" s="15"/>
+        <tr r="F71" s="15"/>
+        <tr r="H66" s="15"/>
+        <tr r="E68" s="15"/>
+        <tr r="F72" s="15"/>
+        <tr r="F73" s="15"/>
+        <tr r="G72" s="15"/>
+        <tr r="H76" s="15"/>
+        <tr r="F76" s="15"/>
+        <tr r="F66" s="15"/>
+        <tr r="G75" s="15"/>
+        <tr r="F69" s="15"/>
+        <tr r="G68" s="15"/>
+        <tr r="H74" s="15"/>
+        <tr r="F68" s="15"/>
+        <tr r="H75" s="15"/>
+        <tr r="H67" s="15"/>
+        <tr r="E77" s="15"/>
+        <tr r="F74" s="15"/>
+        <tr r="H72" s="15"/>
+        <tr r="H77" s="15"/>
+        <tr r="H73" s="15"/>
+        <tr r="G67" s="15"/>
+        <tr r="E75" s="15"/>
+        <tr r="G66" s="15"/>
+        <tr r="H70" s="15"/>
+        <tr r="E76" s="15"/>
+        <tr r="H71" s="15"/>
+        <tr r="F70" s="15"/>
+        <tr r="E73" s="15"/>
+        <tr r="G77" s="15"/>
+        <tr r="H68" s="15"/>
+        <tr r="E74" s="15"/>
+        <tr r="H69" s="15"/>
+        <tr r="G73" s="15"/>
+        <tr r="E71" s="15"/>
+        <tr r="G71" s="15"/>
+        <tr r="E67" s="15"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e6a90c06bc2a43c6af935351522bc97d">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>143e441f-3481-482b-b585-2e4be245981b</stp>
+        <tr r="G79" s="9"/>
+        <tr r="E72" s="9"/>
+        <tr r="E79" s="9"/>
+        <tr r="F73" s="9"/>
+        <tr r="E78" s="9"/>
+        <tr r="F83" s="9"/>
+        <tr r="F64" s="9"/>
+        <tr r="F78" s="9"/>
+        <tr r="E76" s="9"/>
+        <tr r="E80" s="9"/>
+        <tr r="F77" s="9"/>
+        <tr r="F76" s="9"/>
+        <tr r="G74" s="9"/>
+        <tr r="E68" s="9"/>
+        <tr r="E62" s="9"/>
+        <tr r="F62" s="9"/>
+        <tr r="G80" s="9"/>
+        <tr r="F66" s="9"/>
+        <tr r="F63" s="9"/>
+        <tr r="E77" s="9"/>
+        <tr r="G75" s="9"/>
+        <tr r="G71" s="9"/>
+        <tr r="F74" s="9"/>
+        <tr r="F65" s="9"/>
+        <tr r="E65" s="9"/>
+        <tr r="E81" s="9"/>
+        <tr r="F79" s="9"/>
+        <tr r="G83" s="9"/>
+        <tr r="G81" s="9"/>
+        <tr r="E66" s="9"/>
+        <tr r="E67" s="9"/>
+        <tr r="E74" s="9"/>
+        <tr r="G62" s="9"/>
+        <tr r="F75" s="9"/>
+        <tr r="G72" s="9"/>
+        <tr r="E61" s="9"/>
+        <tr r="G64" s="9"/>
+        <tr r="E64" s="9"/>
+        <tr r="G66" s="9"/>
+        <tr r="G82" s="9"/>
+        <tr r="G70" s="9"/>
+        <tr r="E75" s="9"/>
+        <tr r="F82" s="9"/>
+        <tr r="G73" s="9"/>
+        <tr r="E82" s="9"/>
+        <tr r="G76" s="9"/>
+        <tr r="E83" s="9"/>
+        <tr r="F61" s="9"/>
+        <tr r="G78" s="9"/>
+        <tr r="G63" s="9"/>
+        <tr r="F72" s="9"/>
+        <tr r="G84" s="9"/>
+        <tr r="G69" s="9"/>
+        <tr r="F80" s="9"/>
+        <tr r="F71" s="9"/>
+        <tr r="G68" s="9"/>
+        <tr r="F68" s="9"/>
+        <tr r="E70" s="9"/>
+        <tr r="E84" s="9"/>
+        <tr r="F67" s="9"/>
+        <tr r="F81" s="9"/>
+        <tr r="G77" s="9"/>
+        <tr r="E69" s="9"/>
+        <tr r="E71" s="9"/>
+        <tr r="G65" s="9"/>
+        <tr r="E63" s="9"/>
+        <tr r="G61" s="9"/>
+        <tr r="G67" s="9"/>
+        <tr r="F84" s="9"/>
+        <tr r="E73" s="9"/>
+        <tr r="F69" s="9"/>
+        <tr r="F70" s="9"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e6a90c06bc2a43c6af935351522bc97d">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>3a424e4e-acd3-4479-b479-cc75291db4d7</stp>
+        <tr r="E36" s="9"/>
+        <tr r="F28" s="9"/>
+        <tr r="E31" s="9"/>
+        <tr r="G33" s="9"/>
+        <tr r="F36" s="9"/>
+        <tr r="E39" s="9"/>
+        <tr r="G38" s="9"/>
+        <tr r="G28" s="9"/>
+        <tr r="F39" s="9"/>
+        <tr r="F30" s="9"/>
+        <tr r="E34" s="9"/>
+        <tr r="E29" s="9"/>
+        <tr r="F34" s="9"/>
+        <tr r="G39" s="9"/>
+        <tr r="E33" s="9"/>
+        <tr r="F33" s="9"/>
+        <tr r="F31" s="9"/>
+        <tr r="G36" s="9"/>
+        <tr r="G31" s="9"/>
+        <tr r="E37" s="9"/>
+        <tr r="F29" s="9"/>
+        <tr r="E32" s="9"/>
+        <tr r="G34" s="9"/>
+        <tr r="F37" s="9"/>
+        <tr r="G35" s="9"/>
+        <tr r="G30" s="9"/>
+        <tr r="G29" s="9"/>
+        <tr r="F32" s="9"/>
+        <tr r="E35" s="9"/>
+        <tr r="G37" s="9"/>
+        <tr r="F38" s="9"/>
+        <tr r="E28" s="9"/>
+        <tr r="E30" s="9"/>
+        <tr r="G32" s="9"/>
+        <tr r="F35" s="9"/>
+        <tr r="E38" s="9"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a7ccf6ba-467a-40fb-9b00-1a1cfdb7df40</stp>
+        <tr r="J79" s="6"/>
+        <tr r="G71" s="6"/>
+        <tr r="G70" s="6"/>
+        <tr r="K72" s="6"/>
+        <tr r="I64" s="6"/>
+        <tr r="R77" s="6"/>
+        <tr r="I68" s="6"/>
+        <tr r="H72" s="6"/>
+        <tr r="O77" s="6"/>
+        <tr r="I70" s="6"/>
+        <tr r="S73" s="6"/>
+        <tr r="S80" s="6"/>
+        <tr r="S67" s="6"/>
+        <tr r="P62" s="6"/>
+        <tr r="P66" s="6"/>
+        <tr r="Q80" s="6"/>
+        <tr r="J75" s="6"/>
+        <tr r="J77" s="6"/>
+        <tr r="F71" s="6"/>
+        <tr r="H77" s="6"/>
+        <tr r="K75" s="6"/>
+        <tr r="J63" s="6"/>
+        <tr r="E68" s="6"/>
+        <tr r="E67" s="6"/>
+        <tr r="M77" s="6"/>
+        <tr r="F64" s="6"/>
+        <tr r="K65" s="6"/>
+        <tr r="R66" s="6"/>
+        <tr r="L74" s="6"/>
+        <tr r="O65" s="6"/>
+        <tr r="Q65" s="6"/>
+        <tr r="N76" s="6"/>
+        <tr r="Q67" s="6"/>
+        <tr r="M69" s="6"/>
+        <tr r="K73" s="6"/>
+        <tr r="L73" s="6"/>
+        <tr r="I74" s="6"/>
+        <tr r="O76" s="6"/>
+        <tr r="M71" s="6"/>
+        <tr r="L80" s="6"/>
+        <tr r="N78" s="6"/>
+        <tr r="R75" s="6"/>
+        <tr r="L75" s="6"/>
+        <tr r="O72" s="6"/>
+        <tr r="M78" s="6"/>
+        <tr r="M76" s="6"/>
+        <tr r="I67" s="6"/>
+        <tr r="E66" s="6"/>
+        <tr r="N62" s="6"/>
+        <tr r="Q69" s="6"/>
+        <tr r="N71" s="6"/>
+        <tr r="G68" s="6"/>
+        <tr r="G75" s="6"/>
+        <tr r="S76" s="6"/>
+        <tr r="K79" s="6"/>
+        <tr r="K66" s="6"/>
+        <tr r="F67" s="6"/>
+        <tr r="I76" s="6"/>
+        <tr r="H66" s="6"/>
+        <tr r="S64" s="6"/>
+        <tr r="G72" s="6"/>
+        <tr r="S74" s="6"/>
+        <tr r="E76" s="6"/>
+        <tr r="M64" s="6"/>
+        <tr r="H65" s="6"/>
+        <tr r="R62" s="6"/>
+        <tr r="J80" s="6"/>
+        <tr r="O75" s="6"/>
+        <tr r="L79" s="6"/>
+        <tr r="L70" s="6"/>
+        <tr r="K81" s="6"/>
+        <tr r="G62" s="6"/>
+        <tr r="P68" s="6"/>
+        <tr r="O71" s="6"/>
+        <tr r="S63" s="6"/>
+        <tr r="F81" s="6"/>
+        <tr r="G76" s="6"/>
+        <tr r="R69" s="6"/>
+        <tr r="M68" s="6"/>
+        <tr r="F75" s="6"/>
+        <tr r="J71" s="6"/>
+        <tr r="F68" s="6"/>
+        <tr r="R74" s="6"/>
+        <tr r="J64" s="6"/>
+        <tr r="I72" s="6"/>
+        <tr r="Q75" s="6"/>
+        <tr r="N66" s="6"/>
+        <tr r="P75" s="6"/>
+        <tr r="H67" s="6"/>
+        <tr r="R76" s="6"/>
+        <tr r="S79" s="6"/>
+        <tr r="N79" s="6"/>
+        <tr r="S66" s="6"/>
+        <tr r="M65" s="6"/>
+        <tr r="G73" s="6"/>
+        <tr r="F62" s="6"/>
+        <tr r="S75" s="6"/>
+        <tr r="S81" s="6"/>
+        <tr r="S62" s="6"/>
+        <tr r="J68" s="6"/>
+        <tr r="L78" s="6"/>
+        <tr r="Q79" s="6"/>
+        <tr r="K68" s="6"/>
+        <tr r="E73" s="6"/>
+        <tr r="Q78" s="6"/>
+        <tr r="P77" s="6"/>
+        <tr r="E70" s="6"/>
+        <tr r="S71" s="6"/>
+        <tr r="M81" s="6"/>
+        <tr r="E81" s="6"/>
+        <tr r="H75" s="6"/>
+        <tr r="M67" s="6"/>
+        <tr r="N69" s="6"/>
+        <tr r="L69" s="6"/>
+        <tr r="S72" s="6"/>
+        <tr r="I73" s="6"/>
+        <tr r="L77" s="6"/>
+        <tr r="E75" s="6"/>
+        <tr r="H79" s="6"/>
+        <tr r="L67" s="6"/>
+        <tr r="Q63" s="6"/>
+        <tr r="R81" s="6"/>
+        <tr r="P67" s="6"/>
+        <tr r="G80" s="6"/>
+        <tr r="J65" s="6"/>
+        <tr r="Q70" s="6"/>
+        <tr r="P76" s="6"/>
+        <tr r="N63" s="6"/>
+        <tr r="O81" s="6"/>
+        <tr r="L71" s="6"/>
+        <tr r="O67" s="6"/>
+        <tr r="R79" s="6"/>
+        <tr r="I81" s="6"/>
+        <tr r="O74" s="6"/>
+        <tr r="G74" s="6"/>
+        <tr r="M63" s="6"/>
+        <tr r="E74" s="6"/>
+        <tr r="E80" s="6"/>
+        <tr r="J73" s="6"/>
+        <tr r="P79" s="6"/>
+        <tr r="K77" s="6"/>
+        <tr r="H70" s="6"/>
+        <tr r="G77" s="6"/>
+        <tr r="I80" s="6"/>
+        <tr r="N77" s="6"/>
+        <tr r="N80" s="6"/>
+        <tr r="H74" s="6"/>
+        <tr r="S78" s="6"/>
+        <tr r="I77" s="6"/>
+        <tr r="O62" s="6"/>
+        <tr r="Q72" s="6"/>
+        <tr r="O63" s="6"/>
+        <tr r="O66" s="6"/>
+        <tr r="R71" s="6"/>
+        <tr r="H78" s="6"/>
+        <tr r="G65" s="6"/>
+        <tr r="F66" s="6"/>
+        <tr r="H71" s="6"/>
+        <tr r="Q62" s="6"/>
+        <tr r="O79" s="6"/>
+        <tr r="P78" s="6"/>
+        <tr r="N81" s="6"/>
+        <tr r="E64" s="6"/>
+        <tr r="Q76" s="6"/>
+        <tr r="R72" s="6"/>
+        <tr r="K80" s="6"/>
+        <tr r="J70" s="6"/>
+        <tr r="G79" s="6"/>
+        <tr r="G63" s="6"/>
+        <tr r="E79" s="6"/>
+        <tr r="J81" s="6"/>
+        <tr r="J69" s="6"/>
+        <tr r="M72" s="6"/>
+        <tr r="M75" s="6"/>
+        <tr r="K67" s="6"/>
+        <tr r="F65" s="6"/>
+        <tr r="Q64" s="6"/>
+        <tr r="R70" s="6"/>
+        <tr r="F73" s="6"/>
+        <tr r="N72" s="6"/>
+        <tr r="E65" s="6"/>
+        <tr r="G81" s="6"/>
+        <tr r="O70" s="6"/>
+        <tr r="E63" s="6"/>
+        <tr r="H76" s="6"/>
+        <tr r="P81" s="6"/>
+        <tr r="Q81" s="6"/>
+        <tr r="F78" s="6"/>
+        <tr r="S77" s="6"/>
+        <tr r="Q71" s="6"/>
+        <tr r="G64" s="6"/>
+        <tr r="K74" s="6"/>
+        <tr r="S68" s="6"/>
+        <tr r="I79" s="6"/>
+        <tr r="O69" s="6"/>
+        <tr r="J72" s="6"/>
+        <tr r="I78" s="6"/>
+        <tr r="N74" s="6"/>
+        <tr r="G66" s="6"/>
+        <tr r="K78" s="6"/>
+        <tr r="L64" s="6"/>
+        <tr r="H63" s="6"/>
+        <tr r="R63" s="6"/>
+        <tr r="H81" s="6"/>
+        <tr r="R68" s="6"/>
+        <tr r="E62" s="6"/>
+        <tr r="L66" s="6"/>
+        <tr r="E78" s="6"/>
+        <tr r="I63" s="6"/>
+        <tr r="H64" s="6"/>
+        <tr r="O80" s="6"/>
+        <tr r="L65" s="6"/>
+        <tr r="O68" s="6"/>
+        <tr r="J67" s="6"/>
+        <tr r="E69" s="6"/>
+        <tr r="H73" s="6"/>
+        <tr r="K63" s="6"/>
+        <tr r="H62" s="6"/>
+        <tr r="S69" s="6"/>
+        <tr r="K64" s="6"/>
+        <tr r="K71" s="6"/>
+        <tr r="P74" s="6"/>
+        <tr r="J66" s="6"/>
+        <tr r="G67" s="6"/>
+        <tr r="M74" s="6"/>
+        <tr r="G78" s="6"/>
+        <tr r="L68" s="6"/>
+        <tr r="K69" s="6"/>
+        <tr r="J62" s="6"/>
+        <tr r="L81" s="6"/>
+        <tr r="Q73" s="6"/>
+        <tr r="L72" s="6"/>
+        <tr r="M80" s="6"/>
+        <tr r="F80" s="6"/>
+        <tr r="N67" s="6"/>
+        <tr r="R80" s="6"/>
+        <tr r="G69" s="6"/>
+        <tr r="L63" s="6"/>
+        <tr r="N68" s="6"/>
+        <tr r="M73" s="6"/>
+        <tr r="F72" s="6"/>
+        <tr r="R78" s="6"/>
+        <tr r="Q74" s="6"/>
+        <tr r="F79" s="6"/>
+        <tr r="I65" s="6"/>
+        <tr r="P73" s="6"/>
+        <tr r="N64" s="6"/>
+        <tr r="P72" s="6"/>
+        <tr r="P69" s="6"/>
+        <tr r="S70" s="6"/>
+        <tr r="Q66" s="6"/>
+        <tr r="I71" s="6"/>
+        <tr r="N75" s="6"/>
+        <tr r="K62" s="6"/>
+        <tr r="I69" s="6"/>
+        <tr r="O73" s="6"/>
+        <tr r="F63" s="6"/>
+        <tr r="O78" s="6"/>
+        <tr r="M79" s="6"/>
+        <tr r="I66" s="6"/>
+        <tr r="F74" s="6"/>
+        <tr r="P70" s="6"/>
+        <tr r="O64" s="6"/>
+        <tr r="F69" s="6"/>
+        <tr r="N73" s="6"/>
+        <tr r="P65" s="6"/>
+        <tr r="N70" s="6"/>
+        <tr r="F76" s="6"/>
+        <tr r="I75" s="6"/>
+        <tr r="F70" s="6"/>
+        <tr r="K70" s="6"/>
+        <tr r="J78" s="6"/>
+        <tr r="M62" s="6"/>
+        <tr r="M70" s="6"/>
+        <tr r="H69" s="6"/>
+        <tr r="Q68" s="6"/>
+        <tr r="P63" s="6"/>
+        <tr r="H68" s="6"/>
+        <tr r="R64" s="6"/>
+        <tr r="E71" s="6"/>
+        <tr r="N65" s="6"/>
+        <tr r="R67" s="6"/>
+        <tr r="J74" s="6"/>
+        <tr r="L76" s="6"/>
+        <tr r="H80" s="6"/>
+        <tr r="Q77" s="6"/>
+        <tr r="J76" s="6"/>
+        <tr r="R73" s="6"/>
+        <tr r="P80" s="6"/>
+        <tr r="K76" s="6"/>
+        <tr r="M66" s="6"/>
+        <tr r="S65" s="6"/>
+        <tr r="E77" s="6"/>
+        <tr r="F77" s="6"/>
+        <tr r="I62" s="6"/>
+        <tr r="L62" s="6"/>
+        <tr r="P64" s="6"/>
+        <tr r="E72" s="6"/>
+        <tr r="P71" s="6"/>
+        <tr r="R65" s="6"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>994bf0a2-b101-45df-bcc7-33d2e5a5a3e3</stp>
+        <tr r="E120" s="15"/>
+        <tr r="F111" s="15"/>
+        <tr r="G113" s="15"/>
+        <tr r="G126" s="15"/>
+        <tr r="E123" s="15"/>
+        <tr r="F117" s="15"/>
+        <tr r="G106" s="15"/>
+        <tr r="G108" s="15"/>
+        <tr r="E111" s="15"/>
+        <tr r="E107" s="15"/>
+        <tr r="G123" s="15"/>
+        <tr r="E110" s="15"/>
+        <tr r="G118" s="15"/>
+        <tr r="F120" s="15"/>
+        <tr r="E113" s="15"/>
+        <tr r="G114" s="15"/>
+        <tr r="F127" s="15"/>
+        <tr r="F106" s="15"/>
+        <tr r="F108" s="15"/>
+        <tr r="E117" s="15"/>
+        <tr r="F105" s="15"/>
+        <tr r="G107" s="15"/>
+        <tr r="E108" s="15"/>
+        <tr r="G117" s="15"/>
+        <tr r="G105" s="15"/>
+        <tr r="G127" s="15"/>
+        <tr r="G124" s="15"/>
+        <tr r="E127" s="15"/>
+        <tr r="E106" s="15"/>
+        <tr r="E109" s="15"/>
+        <tr r="E126" s="15"/>
+        <tr r="E105" s="15"/>
+        <tr r="E121" s="15"/>
+        <tr r="E115" s="15"/>
+        <tr r="F114" s="15"/>
+        <tr r="G112" s="15"/>
+        <tr r="F125" s="15"/>
+        <tr r="E122" s="15"/>
+        <tr r="F124" s="15"/>
+        <tr r="G119" s="15"/>
+        <tr r="E104" s="15"/>
+        <tr r="F123" s="15"/>
+        <tr r="E112" s="15"/>
+        <tr r="F118" s="15"/>
+        <tr r="F112" s="15"/>
+        <tr r="G122" s="15"/>
+        <tr r="F119" s="15"/>
+        <tr r="G121" s="15"/>
+        <tr r="F121" s="15"/>
+        <tr r="E124" s="15"/>
+        <tr r="G120" s="15"/>
+        <tr r="F104" s="15"/>
+        <tr r="G115" s="15"/>
+        <tr r="G109" s="15"/>
+        <tr r="F109" s="15"/>
+        <tr r="G116" s="15"/>
+        <tr r="E119" s="15"/>
+        <tr r="F113" s="15"/>
+        <tr r="E116" s="15"/>
+        <tr r="E118" s="15"/>
+        <tr r="E125" s="15"/>
+        <tr r="F110" s="15"/>
+        <tr r="F107" s="15"/>
+        <tr r="F122" s="15"/>
+        <tr r="E114" s="15"/>
+        <tr r="F116" s="15"/>
+        <tr r="F126" s="15"/>
+        <tr r="G110" s="15"/>
+        <tr r="F115" s="15"/>
+        <tr r="G111" s="15"/>
+        <tr r="G125" s="15"/>
+        <tr r="G104" s="15"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e6a90c06bc2a43c6af935351522bc97d">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f4160f6e-5ec4-42d0-b3d4-5ab4d4b7f97f</stp>
+        <tr r="D16" s="7"/>
+        <tr r="D25" s="7"/>
+        <tr r="D18" s="7"/>
+        <tr r="D22" s="7"/>
+        <tr r="D21" s="7"/>
+        <tr r="D24" s="7"/>
+        <tr r="D15" s="7"/>
+        <tr r="D17" s="7"/>
+        <tr r="D23" s="7"/>
+        <tr r="D20" s="7"/>
+        <tr r="D19" s="7"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>37909668-8031-4397-ae4f-1e9ec35e8200</stp>
         <tr r="E45" s="5"/>
         <tr r="F46" s="5"/>
         <tr r="F45" s="5"/>
         <tr r="E46" s="5"/>
       </tp>
     </main>
-    <main first="rtdsrv.552b6025665c456ba4b67600f5d164cc">
+    <main first="rtdsrv.e6a90c06bc2a43c6af935351522bc97d">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>768d8127-df3f-4d03-93a9-d85dbfb8122c</stp>
+        <stp>342d76d0-5752-45ac-868a-d0af0212d2b0</stp>
+        <tr r="X33" s="6"/>
+        <tr r="L42" s="6"/>
+        <tr r="E53" s="6"/>
+        <tr r="P36" s="6"/>
+        <tr r="R40" s="6"/>
+        <tr r="N45" s="6"/>
+        <tr r="E40" s="6"/>
+        <tr r="AD33" s="6"/>
+        <tr r="AA52" s="6"/>
+        <tr r="P48" s="6"/>
+        <tr r="AI40" s="6"/>
+        <tr r="S49" s="6"/>
+        <tr r="N39" s="6"/>
+        <tr r="P51" s="6"/>
+        <tr r="W38" s="6"/>
+        <tr r="H51" s="6"/>
+        <tr r="AG49" s="6"/>
         <tr r="AI35" s="6"/>
+        <tr r="N47" s="6"/>
+        <tr r="E47" s="6"/>
+        <tr r="G41" s="6"/>
+        <tr r="AC53" s="6"/>
+        <tr r="AD42" s="6"/>
+        <tr r="H39" s="6"/>
+        <tr r="AE48" s="6"/>
+        <tr r="Z48" s="6"/>
+        <tr r="K34" s="6"/>
+        <tr r="AH36" s="6"/>
+        <tr r="AF34" s="6"/>
+        <tr r="R38" s="6"/>
+        <tr r="AD36" s="6"/>
+        <tr r="R48" s="6"/>
+        <tr r="Z43" s="6"/>
+        <tr r="G39" s="6"/>
+        <tr r="M51" s="6"/>
+        <tr r="AC47" s="6"/>
+        <tr r="AB48" s="6"/>
+        <tr r="AI36" s="6"/>
+        <tr r="P50" s="6"/>
+        <tr r="G36" s="6"/>
+        <tr r="R50" s="6"/>
+        <tr r="Q53" s="6"/>
+        <tr r="R35" s="6"/>
+        <tr r="R39" s="6"/>
+        <tr r="E45" s="6"/>
+        <tr r="AC49" s="6"/>
+        <tr r="F47" s="6"/>
+        <tr r="I34" s="6"/>
+        <tr r="V39" s="6"/>
+        <tr r="AE34" s="6"/>
+        <tr r="U49" s="6"/>
+        <tr r="AA44" s="6"/>
+        <tr r="I52" s="6"/>
+        <tr r="K51" s="6"/>
+        <tr r="U45" s="6"/>
+        <tr r="M45" s="6"/>
+        <tr r="J34" s="6"/>
+        <tr r="AD48" s="6"/>
+        <tr r="AE35" s="6"/>
+        <tr r="H35" s="6"/>
+        <tr r="H41" s="6"/>
+        <tr r="AB45" s="6"/>
+        <tr r="AH45" s="6"/>
+        <tr r="O42" s="6"/>
+        <tr r="X38" s="6"/>
+        <tr r="AE37" s="6"/>
+        <tr r="J45" s="6"/>
+        <tr r="M33" s="6"/>
+        <tr r="R46" s="6"/>
+        <tr r="H50" s="6"/>
+        <tr r="N44" s="6"/>
+        <tr r="G33" s="6"/>
+        <tr r="Y42" s="6"/>
+        <tr r="AE40" s="6"/>
+        <tr r="AH37" s="6"/>
+        <tr r="W43" s="6"/>
+        <tr r="AE46" s="6"/>
+        <tr r="AD40" s="6"/>
+        <tr r="V52" s="6"/>
+        <tr r="AE43" s="6"/>
+        <tr r="Z36" s="6"/>
+        <tr r="Y33" s="6"/>
+        <tr r="AI38" s="6"/>
+        <tr r="W34" s="6"/>
+        <tr r="T53" s="6"/>
+        <tr r="AF33" s="6"/>
+        <tr r="U44" s="6"/>
+        <tr r="V40" s="6"/>
+        <tr r="N52" s="6"/>
+        <tr r="Q37" s="6"/>
+        <tr r="H37" s="6"/>
+        <tr r="L43" s="6"/>
+        <tr r="G51" s="6"/>
+        <tr r="AE49" s="6"/>
+        <tr r="AF49" s="6"/>
+        <tr r="AC33" s="6"/>
+        <tr r="AF42" s="6"/>
+        <tr r="V48" s="6"/>
+        <tr r="I35" s="6"/>
+        <tr r="X37" s="6"/>
+        <tr r="AC35" s="6"/>
+        <tr r="R44" s="6"/>
+        <tr r="N42" s="6"/>
+        <tr r="K40" s="6"/>
+        <tr r="T48" s="6"/>
+        <tr r="AA39" s="6"/>
+        <tr r="AD37" s="6"/>
+        <tr r="L34" s="6"/>
+        <tr r="J33" s="6"/>
+        <tr r="AA33" s="6"/>
+        <tr r="W46" s="6"/>
+        <tr r="E43" s="6"/>
+        <tr r="E36" s="6"/>
+        <tr r="AG34" s="6"/>
+        <tr r="U48" s="6"/>
+        <tr r="E39" s="6"/>
+        <tr r="S34" s="6"/>
         <tr r="AF41" s="6"/>
+        <tr r="V53" s="6"/>
+        <tr r="I43" s="6"/>
+        <tr r="AC45" s="6"/>
+        <tr r="K38" s="6"/>
+        <tr r="O48" s="6"/>
+        <tr r="AH53" s="6"/>
+        <tr r="AA41" s="6"/>
+        <tr r="J49" s="6"/>
+        <tr r="AF43" s="6"/>
+        <tr r="G43" s="6"/>
+        <tr r="K46" s="6"/>
+        <tr r="U53" s="6"/>
+        <tr r="AH34" s="6"/>
+        <tr r="S36" s="6"/>
+        <tr r="Z44" s="6"/>
+        <tr r="AB53" s="6"/>
+        <tr r="W48" s="6"/>
+        <tr r="AD34" s="6"/>
+        <tr r="T33" s="6"/>
+        <tr r="V47" s="6"/>
+        <tr r="N43" s="6"/>
+        <tr r="S46" s="6"/>
+        <tr r="X39" s="6"/>
+        <tr r="S45" s="6"/>
+        <tr r="N34" s="6"/>
+        <tr r="Q44" s="6"/>
+        <tr r="AA49" s="6"/>
+        <tr r="Y49" s="6"/>
+        <tr r="X43" s="6"/>
+        <tr r="M49" s="6"/>
+        <tr r="Y40" s="6"/>
+        <tr r="N38" s="6"/>
+        <tr r="G46" s="6"/>
+        <tr r="AB50" s="6"/>
+        <tr r="J40" s="6"/>
+        <tr r="AI46" s="6"/>
+        <tr r="L41" s="6"/>
+        <tr r="AI44" s="6"/>
+        <tr r="Y43" s="6"/>
+        <tr r="R47" s="6"/>
+        <tr r="AD49" s="6"/>
+        <tr r="Y34" s="6"/>
+        <tr r="S38" s="6"/>
+        <tr r="X51" s="6"/>
+        <tr r="AC39" s="6"/>
+        <tr r="M53" s="6"/>
+        <tr r="X36" s="6"/>
+        <tr r="AH40" s="6"/>
+        <tr r="F46" s="6"/>
+        <tr r="AE52" s="6"/>
+        <tr r="H46" s="6"/>
+        <tr r="AG48" s="6"/>
+        <tr r="O35" s="6"/>
+        <tr r="X44" s="6"/>
+        <tr r="M35" s="6"/>
+        <tr r="AD50" s="6"/>
+        <tr r="Z51" s="6"/>
+        <tr r="J37" s="6"/>
+        <tr r="N33" s="6"/>
+        <tr r="I36" s="6"/>
+        <tr r="L50" s="6"/>
+        <tr r="W39" s="6"/>
+        <tr r="U43" s="6"/>
+        <tr r="F33" s="6"/>
+        <tr r="AD45" s="6"/>
+        <tr r="AG46" s="6"/>
+        <tr r="AE47" s="6"/>
+        <tr r="M38" s="6"/>
+        <tr r="T41" s="6"/>
+        <tr r="H44" s="6"/>
+        <tr r="I40" s="6"/>
+        <tr r="AH52" s="6"/>
+        <tr r="K43" s="6"/>
+        <tr r="AE41" s="6"/>
+        <tr r="AF46" s="6"/>
+        <tr r="G40" s="6"/>
+        <tr r="G52" s="6"/>
+        <tr r="T46" s="6"/>
+        <tr r="M48" s="6"/>
+        <tr r="R49" s="6"/>
+        <tr r="AC41" s="6"/>
+        <tr r="AA36" s="6"/>
+        <tr r="AB38" s="6"/>
+        <tr r="Y36" s="6"/>
+        <tr r="AH33" s="6"/>
+        <tr r="AC46" s="6"/>
+        <tr r="S41" s="6"/>
+        <tr r="AG37" s="6"/>
         <tr r="G48" s="6"/>
+        <tr r="AH41" s="6"/>
+        <tr r="Y51" s="6"/>
+        <tr r="O36" s="6"/>
+        <tr r="AH51" s="6"/>
+        <tr r="U51" s="6"/>
+        <tr r="Q47" s="6"/>
+        <tr r="U40" s="6"/>
+        <tr r="X52" s="6"/>
+        <tr r="AH42" s="6"/>
+        <tr r="Y48" s="6"/>
+        <tr r="S42" s="6"/>
+        <tr r="E37" s="6"/>
+        <tr r="AA34" s="6"/>
+        <tr r="N41" s="6"/>
+        <tr r="Z33" s="6"/>
+        <tr r="AE38" s="6"/>
+        <tr r="AF47" s="6"/>
+        <tr r="AC52" s="6"/>
+        <tr r="Z41" s="6"/>
+        <tr r="J50" s="6"/>
+        <tr r="G38" s="6"/>
+        <tr r="K49" s="6"/>
+        <tr r="AF38" s="6"/>
+        <tr r="Y37" s="6"/>
+        <tr r="L36" s="6"/>
+        <tr r="F52" s="6"/>
+        <tr r="P38" s="6"/>
+        <tr r="F34" s="6"/>
+        <tr r="J48" s="6"/>
+        <tr r="F48" s="6"/>
+        <tr r="J35" s="6"/>
+        <tr r="W36" s="6"/>
+        <tr r="AI47" s="6"/>
+        <tr r="E44" s="6"/>
+        <tr r="U33" s="6"/>
+        <tr r="AD43" s="6"/>
+        <tr r="AF37" s="6"/>
+        <tr r="Y38" s="6"/>
+        <tr r="N53" s="6"/>
+        <tr r="V50" s="6"/>
+        <tr r="L35" s="6"/>
+        <tr r="AB51" s="6"/>
+        <tr r="AB35" s="6"/>
+        <tr r="AI34" s="6"/>
+        <tr r="P37" s="6"/>
+        <tr r="W53" s="6"/>
+        <tr r="AE45" s="6"/>
+        <tr r="G34" s="6"/>
+        <tr r="S43" s="6"/>
+        <tr r="Z49" s="6"/>
+        <tr r="P35" s="6"/>
+        <tr r="V38" s="6"/>
+        <tr r="G42" s="6"/>
+        <tr r="X45" s="6"/>
+        <tr r="AA47" s="6"/>
+        <tr r="AE44" s="6"/>
+        <tr r="E34" s="6"/>
+        <tr r="W42" s="6"/>
+        <tr r="W40" s="6"/>
+        <tr r="J53" s="6"/>
+        <tr r="W37" s="6"/>
+        <tr r="P45" s="6"/>
+        <tr r="O40" s="6"/>
+        <tr r="P39" s="6"/>
+        <tr r="Q33" s="6"/>
+        <tr r="AD38" s="6"/>
+        <tr r="I50" s="6"/>
+        <tr r="S33" s="6"/>
+        <tr r="T47" s="6"/>
+        <tr r="E50" s="6"/>
+        <tr r="W35" s="6"/>
+        <tr r="AE33" s="6"/>
+        <tr r="AD53" s="6"/>
+        <tr r="AB40" s="6"/>
+        <tr r="AB34" s="6"/>
+        <tr r="F43" s="6"/>
+        <tr r="F49" s="6"/>
+        <tr r="W47" s="6"/>
+        <tr r="X47" s="6"/>
+        <tr r="Z34" s="6"/>
+        <tr r="J51" s="6"/>
+        <tr r="AC40" s="6"/>
+        <tr r="AD46" s="6"/>
+        <tr r="AA48" s="6"/>
+        <tr r="AA46" s="6"/>
+        <tr r="O51" s="6"/>
+        <tr r="E42" s="6"/>
+        <tr r="R36" s="6"/>
+        <tr r="X48" s="6"/>
+        <tr r="G45" s="6"/>
+        <tr r="AI37" s="6"/>
         <tr r="R42" s="6"/>
+        <tr r="V37" s="6"/>
+        <tr r="H53" s="6"/>
+        <tr r="Z53" s="6"/>
+        <tr r="X35" s="6"/>
+        <tr r="I53" s="6"/>
+        <tr r="Y44" s="6"/>
+        <tr r="AA45" s="6"/>
+        <tr r="S51" s="6"/>
+        <tr r="M46" s="6"/>
+        <tr r="K45" s="6"/>
+        <tr r="R43" s="6"/>
+        <tr r="P41" s="6"/>
+        <tr r="J43" s="6"/>
+        <tr r="P40" s="6"/>
+        <tr r="E33" s="6"/>
+        <tr r="G50" s="6"/>
+        <tr r="U37" s="6"/>
+        <tr r="Q40" s="6"/>
+        <tr r="X42" s="6"/>
+        <tr r="AA40" s="6"/>
+        <tr r="K33" s="6"/>
+        <tr r="K35" s="6"/>
+        <tr r="H52" s="6"/>
+        <tr r="K47" s="6"/>
+        <tr r="G49" s="6"/>
+        <tr r="AC48" s="6"/>
+        <tr r="AD35" s="6"/>
+        <tr r="Q34" s="6"/>
+        <tr r="M40" s="6"/>
+        <tr r="J39" s="6"/>
+        <tr r="N50" s="6"/>
+        <tr r="Q41" s="6"/>
+        <tr r="AB43" s="6"/>
+        <tr r="L51" s="6"/>
+        <tr r="AH43" s="6"/>
+        <tr r="R34" s="6"/>
+        <tr r="AB42" s="6"/>
+        <tr r="L45" s="6"/>
+        <tr r="L33" s="6"/>
+        <tr r="AF45" s="6"/>
+        <tr r="J36" s="6"/>
+        <tr r="J52" s="6"/>
+        <tr r="U34" s="6"/>
+        <tr r="M37" s="6"/>
+        <tr r="J47" s="6"/>
+        <tr r="AI51" s="6"/>
+        <tr r="AH49" s="6"/>
+        <tr r="AB37" s="6"/>
+        <tr r="AG38" s="6"/>
+        <tr r="E41" s="6"/>
+        <tr r="S40" s="6"/>
+        <tr r="AD51" s="6"/>
+        <tr r="N46" s="6"/>
+        <tr r="I45" s="6"/>
+        <tr r="AH39" s="6"/>
+        <tr r="S48" s="6"/>
+        <tr r="S37" s="6"/>
+        <tr r="P33" s="6"/>
+        <tr r="I44" s="6"/>
+        <tr r="AE51" s="6"/>
+        <tr r="T49" s="6"/>
+        <tr r="X34" s="6"/>
+        <tr r="F36" s="6"/>
+        <tr r="K53" s="6"/>
+        <tr r="N48" s="6"/>
+        <tr r="AF53" s="6"/>
+        <tr r="E51" s="6"/>
+        <tr r="Z35" s="6"/>
+        <tr r="O41" s="6"/>
+        <tr r="L52" s="6"/>
+        <tr r="AF39" s="6"/>
+        <tr r="Z47" s="6"/>
+        <tr r="AC50" s="6"/>
+        <tr r="M44" s="6"/>
+        <tr r="X50" s="6"/>
+        <tr r="L47" s="6"/>
+        <tr r="H40" s="6"/>
+        <tr r="L44" s="6"/>
+        <tr r="AH44" s="6"/>
+        <tr r="AB41" s="6"/>
+        <tr r="M43" s="6"/>
+        <tr r="Z42" s="6"/>
+        <tr r="J38" s="6"/>
+        <tr r="Q39" s="6"/>
+        <tr r="AC34" s="6"/>
+        <tr r="AE42" s="6"/>
+        <tr r="O47" s="6"/>
+        <tr r="Z50" s="6"/>
+        <tr r="AG44" s="6"/>
+        <tr r="Y52" s="6"/>
         <tr r="Z46" s="6"/>
+        <tr r="AF35" s="6"/>
+        <tr r="AG53" s="6"/>
+        <tr r="AG47" s="6"/>
+        <tr r="AG39" s="6"/>
+        <tr r="S47" s="6"/>
+        <tr r="K41" s="6"/>
+        <tr r="T42" s="6"/>
+        <tr r="U52" s="6"/>
+        <tr r="F35" s="6"/>
+        <tr r="AD47" s="6"/>
+        <tr r="T44" s="6"/>
+        <tr r="I51" s="6"/>
+        <tr r="AC36" s="6"/>
+        <tr r="AF48" s="6"/>
+        <tr r="AA51" s="6"/>
+        <tr r="AF40" s="6"/>
+        <tr r="V49" s="6"/>
+        <tr r="L38" s="6"/>
+        <tr r="O37" s="6"/>
+        <tr r="V43" s="6"/>
+        <tr r="K50" s="6"/>
+        <tr r="M42" s="6"/>
+        <tr r="AB46" s="6"/>
+        <tr r="L39" s="6"/>
+        <tr r="U41" s="6"/>
+        <tr r="AB33" s="6"/>
+        <tr r="N49" s="6"/>
+        <tr r="I39" s="6"/>
+        <tr r="T34" s="6"/>
+        <tr r="T35" s="6"/>
+        <tr r="K42" s="6"/>
+        <tr r="Z39" s="6"/>
+        <tr r="H33" s="6"/>
+        <tr r="P44" s="6"/>
+        <tr r="I33" s="6"/>
+        <tr r="AH48" s="6"/>
+        <tr r="AA42" s="6"/>
+        <tr r="Q51" s="6"/>
+        <tr r="AG40" s="6"/>
+        <tr r="V44" s="6"/>
+        <tr r="S39" s="6"/>
+        <tr r="Y47" s="6"/>
+        <tr r="V34" s="6"/>
+        <tr r="V41" s="6"/>
+        <tr r="W49" s="6"/>
+        <tr r="Q42" s="6"/>
+        <tr r="T50" s="6"/>
+        <tr r="I37" s="6"/>
+        <tr r="AB36" s="6"/>
+        <tr r="O53" s="6"/>
+        <tr r="T52" s="6"/>
+        <tr r="X53" s="6"/>
+        <tr r="O46" s="6"/>
+        <tr r="H47" s="6"/>
+        <tr r="G37" s="6"/>
+        <tr r="E52" s="6"/>
+        <tr r="L37" s="6"/>
+        <tr r="AI42" s="6"/>
+        <tr r="AB39" s="6"/>
+        <tr r="AA43" s="6"/>
+        <tr r="O45" s="6"/>
+        <tr r="I38" s="6"/>
+        <tr r="Z38" s="6"/>
+        <tr r="Y45" s="6"/>
+        <tr r="L53" s="6"/>
+        <tr r="K36" s="6"/>
+        <tr r="J42" s="6"/>
+        <tr r="F38" s="6"/>
+        <tr r="X41" s="6"/>
+        <tr r="AD41" s="6"/>
+        <tr r="S35" s="6"/>
+        <tr r="AG43" s="6"/>
+        <tr r="M39" s="6"/>
+        <tr r="V51" s="6"/>
+        <tr r="X46" s="6"/>
+        <tr r="AB49" s="6"/>
+        <tr r="Y46" s="6"/>
+        <tr r="O52" s="6"/>
+        <tr r="U35" s="6"/>
+        <tr r="AC43" s="6"/>
+        <tr r="L49" s="6"/>
+        <tr r="AA50" s="6"/>
+        <tr r="E46" s="6"/>
+        <tr r="U39" s="6"/>
+        <tr r="X49" s="6"/>
+        <tr r="AB47" s="6"/>
+        <tr r="Y50" s="6"/>
+        <tr r="T51" s="6"/>
+        <tr r="O39" s="6"/>
+        <tr r="AG52" s="6"/>
+        <tr r="AI48" s="6"/>
         <tr r="R51" s="6"/>
+        <tr r="G47" s="6"/>
+        <tr r="Q52" s="6"/>
+        <tr r="U42" s="6"/>
+        <tr r="AC51" s="6"/>
+        <tr r="Z45" s="6"/>
+        <tr r="M34" s="6"/>
+        <tr r="J41" s="6"/>
+        <tr r="F41" s="6"/>
+        <tr r="E35" s="6"/>
+        <tr r="AD44" s="6"/>
+        <tr r="K52" s="6"/>
+        <tr r="R37" s="6"/>
+        <tr r="O34" s="6"/>
+        <tr r="I47" s="6"/>
+        <tr r="Q49" s="6"/>
+        <tr r="F37" s="6"/>
+        <tr r="T37" s="6"/>
+        <tr r="P34" s="6"/>
+        <tr r="AH47" s="6"/>
+        <tr r="H43" s="6"/>
+        <tr r="T43" s="6"/>
+        <tr r="K39" s="6"/>
+        <tr r="Y39" s="6"/>
+        <tr r="X40" s="6"/>
+        <tr r="AH46" s="6"/>
+        <tr r="P43" s="6"/>
+        <tr r="Y41" s="6"/>
+        <tr r="AD39" s="6"/>
+        <tr r="H36" s="6"/>
+        <tr r="S52" s="6"/>
+        <tr r="W41" s="6"/>
+        <tr r="Z37" s="6"/>
+        <tr r="L40" s="6"/>
+        <tr r="E48" s="6"/>
+        <tr r="F40" s="6"/>
+        <tr r="M52" s="6"/>
+        <tr r="V45" s="6"/>
+        <tr r="F51" s="6"/>
+        <tr r="AG35" s="6"/>
+        <tr r="S44" s="6"/>
+        <tr r="L48" s="6"/>
+        <tr r="AI33" s="6"/>
+        <tr r="Y53" s="6"/>
+        <tr r="O43" s="6"/>
+        <tr r="AI43" s="6"/>
+        <tr r="AA53" s="6"/>
+        <tr r="AC44" s="6"/>
+        <tr r="O44" s="6"/>
+        <tr r="P49" s="6"/>
+        <tr r="Q50" s="6"/>
+        <tr r="AG51" s="6"/>
+        <tr r="Z40" s="6"/>
+        <tr r="O50" s="6"/>
+        <tr r="M50" s="6"/>
+        <tr r="W51" s="6"/>
+        <tr r="AD52" s="6"/>
+        <tr r="Q38" s="6"/>
+        <tr r="AC38" s="6"/>
+        <tr r="G53" s="6"/>
+        <tr r="R52" s="6"/>
+        <tr r="P52" s="6"/>
+        <tr r="J44" s="6"/>
+        <tr r="G44" s="6"/>
+        <tr r="V36" s="6"/>
+        <tr r="T40" s="6"/>
+        <tr r="Q35" s="6"/>
+        <tr r="AF44" s="6"/>
+        <tr r="V42" s="6"/>
+        <tr r="T38" s="6"/>
+        <tr r="AE36" s="6"/>
+        <tr r="Q43" s="6"/>
+        <tr r="S50" s="6"/>
+        <tr r="Y35" s="6"/>
+        <tr r="T39" s="6"/>
+        <tr r="Z52" s="6"/>
+        <tr r="F50" s="6"/>
+        <tr r="AA37" s="6"/>
+        <tr r="H45" s="6"/>
+        <tr r="AH35" s="6"/>
+        <tr r="I49" s="6"/>
+        <tr r="U38" s="6"/>
+        <tr r="W45" s="6"/>
+        <tr r="AB44" s="6"/>
+        <tr r="H49" s="6"/>
+        <tr r="V46" s="6"/>
+        <tr r="W33" s="6"/>
+        <tr r="E49" s="6"/>
+        <tr r="P46" s="6"/>
+        <tr r="O38" s="6"/>
         <tr r="G35" s="6"/>
-        <tr r="H40" s="6"/>
-        <tr r="N47" s="6"/>
-        <tr r="V53" s="6"/>
-        <tr r="AH41" s="6"/>
-        <tr r="O47" s="6"/>
-        <tr r="AF35" s="6"/>
-        <tr r="W33" s="6"/>
         <tr r="W44" s="6"/>
-        <tr r="AC40" s="6"/>
-        <tr r="E47" s="6"/>
-        <tr r="I43" s="6"/>
-        <tr r="Y51" s="6"/>
-        <tr r="V37" s="6"/>
-        <tr r="AG53" s="6"/>
-        <tr r="G47" s="6"/>
         <tr r="AH50" s="6"/>
-        <tr r="AA50" s="6"/>
-        <tr r="G41" s="6"/>
-        <tr r="AC45" s="6"/>
-        <tr r="O36" s="6"/>
-        <tr r="Z50" s="6"/>
-        <tr r="AG47" s="6"/>
-        <tr r="E49" s="6"/>
         <tr r="N35" s="6"/>
-        <tr r="X33" s="6"/>
-        <tr r="AC53" s="6"/>
-        <tr r="K38" s="6"/>
-        <tr r="AH51" s="6"/>
-        <tr r="H53" s="6"/>
-        <tr r="AG39" s="6"/>
-        <tr r="Q52" s="6"/>
         <tr r="AG50" s="6"/>
-        <tr r="AA36" s="6"/>
-        <tr r="AD42" s="6"/>
-        <tr r="O48" s="6"/>
-        <tr r="U51" s="6"/>
-        <tr r="AG44" s="6"/>
-        <tr r="S47" s="6"/>
-        <tr r="P46" s="6"/>
         <tr r="R45" s="6"/>
-        <tr r="X37" s="6"/>
-        <tr r="H39" s="6"/>
-        <tr r="AH53" s="6"/>
-        <tr r="Q47" s="6"/>
-        <tr r="Z53" s="6"/>
-        <tr r="K41" s="6"/>
-        <tr r="U42" s="6"/>
         <tr r="N37" s="6"/>
-        <tr r="AA37" s="6"/>
-        <tr r="AE48" s="6"/>
-        <tr r="AA41" s="6"/>
-        <tr r="U40" s="6"/>
-        <tr r="Y52" s="6"/>
-        <tr r="T42" s="6"/>
-        <tr r="O38" s="6"/>
         <tr r="W50" s="6"/>
-        <tr r="L44" s="6"/>
-        <tr r="Z48" s="6"/>
-        <tr r="J49" s="6"/>
-        <tr r="X52" s="6"/>
-        <tr r="X35" s="6"/>
-        <tr r="U52" s="6"/>
-        <tr r="AC51" s="6"/>
         <tr r="U50" s="6"/>
-        <tr r="E46" s="6"/>
-        <tr r="K34" s="6"/>
-        <tr r="AF43" s="6"/>
-        <tr r="AH42" s="6"/>
-        <tr r="I53" s="6"/>
-        <tr r="F35" s="6"/>
-        <tr r="Z45" s="6"/>
         <tr r="AC42" s="6"/>
-        <tr r="AD46" s="6"/>
-        <tr r="AH36" s="6"/>
-        <tr r="G43" s="6"/>
-        <tr r="Y48" s="6"/>
-        <tr r="Y44" s="6"/>
-        <tr r="AD47" s="6"/>
-        <tr r="M34" s="6"/>
         <tr r="AG33" s="6"/>
-        <tr r="L42" s="6"/>
-        <tr r="AF34" s="6"/>
-        <tr r="K46" s="6"/>
-        <tr r="S42" s="6"/>
-        <tr r="AA45" s="6"/>
-        <tr r="T44" s="6"/>
-        <tr r="J41" s="6"/>
         <tr r="P53" s="6"/>
-        <tr r="AC35" s="6"/>
-        <tr r="R38" s="6"/>
-        <tr r="U53" s="6"/>
-        <tr r="E37" s="6"/>
-        <tr r="S51" s="6"/>
-        <tr r="I51" s="6"/>
-        <tr r="F41" s="6"/>
         <tr r="AG41" s="6"/>
-        <tr r="AB38" s="6"/>
-        <tr r="AD36" s="6"/>
-        <tr r="AH34" s="6"/>
-        <tr r="AA34" s="6"/>
-        <tr r="M46" s="6"/>
-        <tr r="AC36" s="6"/>
-        <tr r="E35" s="6"/>
         <tr r="AB52" s="6"/>
-        <tr r="H45" s="6"/>
-        <tr r="R48" s="6"/>
-        <tr r="S36" s="6"/>
-        <tr r="N41" s="6"/>
-        <tr r="K45" s="6"/>
-        <tr r="AF48" s="6"/>
-        <tr r="AD44" s="6"/>
         <tr r="AF50" s="6"/>
-        <tr r="AH44" s="6"/>
-        <tr r="Z43" s="6"/>
-        <tr r="Z44" s="6"/>
-        <tr r="Z33" s="6"/>
-        <tr r="R43" s="6"/>
-        <tr r="AA51" s="6"/>
-        <tr r="K52" s="6"/>
         <tr r="H48" s="6"/>
-        <tr r="U39" s="6"/>
-        <tr r="G39" s="6"/>
-        <tr r="AB53" s="6"/>
-        <tr r="AE38" s="6"/>
-        <tr r="P41" s="6"/>
-        <tr r="AF40" s="6"/>
-        <tr r="R37" s="6"/>
         <tr r="I42" s="6"/>
-        <tr r="AA48" s="6"/>
-        <tr r="M51" s="6"/>
-        <tr r="W48" s="6"/>
-        <tr r="AF47" s="6"/>
-        <tr r="J43" s="6"/>
-        <tr r="V49" s="6"/>
-        <tr r="O34" s="6"/>
         <tr r="AE50" s="6"/>
-        <tr r="E53" s="6"/>
-        <tr r="AC47" s="6"/>
-        <tr r="AD34" s="6"/>
-        <tr r="AC52" s="6"/>
-        <tr r="P40" s="6"/>
-        <tr r="L38" s="6"/>
-        <tr r="I47" s="6"/>
         <tr r="AG36" s="6"/>
-        <tr r="R44" s="6"/>
-        <tr r="AB48" s="6"/>
-        <tr r="T33" s="6"/>
-        <tr r="Z41" s="6"/>
-        <tr r="E33" s="6"/>
-        <tr r="O37" s="6"/>
-        <tr r="Q49" s="6"/>
         <tr r="K37" s="6"/>
-        <tr r="AH35" s="6"/>
-        <tr r="AI36" s="6"/>
-        <tr r="V47" s="6"/>
-        <tr r="J50" s="6"/>
-        <tr r="G50" s="6"/>
-        <tr r="V43" s="6"/>
-        <tr r="F37" s="6"/>
         <tr r="T45" s="6"/>
-        <tr r="Y36" s="6"/>
-        <tr r="P50" s="6"/>
-        <tr r="N43" s="6"/>
-        <tr r="G38" s="6"/>
-        <tr r="U37" s="6"/>
-        <tr r="K50" s="6"/>
-        <tr r="T37" s="6"/>
         <tr r="E38" s="6"/>
-        <tr r="AB41" s="6"/>
-        <tr r="G36" s="6"/>
-        <tr r="S46" s="6"/>
-        <tr r="K49" s="6"/>
-        <tr r="Q40" s="6"/>
-        <tr r="M42" s="6"/>
-        <tr r="P34" s="6"/>
         <tr r="AI45" s="6"/>
-        <tr r="X49" s="6"/>
-        <tr r="R50" s="6"/>
-        <tr r="X39" s="6"/>
-        <tr r="AF38" s="6"/>
-        <tr r="X42" s="6"/>
-        <tr r="AB46" s="6"/>
-        <tr r="AH47" s="6"/>
         <tr r="AF36" s="6"/>
-        <tr r="AA46" s="6"/>
-        <tr r="Q53" s="6"/>
-        <tr r="S45" s="6"/>
-        <tr r="Y37" s="6"/>
-        <tr r="AA40" s="6"/>
-        <tr r="L39" s="6"/>
-        <tr r="H43" s="6"/>
         <tr r="I48" s="6"/>
-        <tr r="P36" s="6"/>
-        <tr r="R35" s="6"/>
-        <tr r="N34" s="6"/>
-        <tr r="L36" s="6"/>
-        <tr r="K33" s="6"/>
-        <tr r="U41" s="6"/>
-        <tr r="T43" s="6"/>
         <tr r="K44" s="6"/>
-        <tr r="N42" s="6"/>
-        <tr r="R39" s="6"/>
-        <tr r="Q44" s="6"/>
-        <tr r="F52" s="6"/>
-        <tr r="K35" s="6"/>
-        <tr r="AB33" s="6"/>
-        <tr r="K39" s="6"/>
         <tr r="L46" s="6"/>
-        <tr r="I49" s="6"/>
-        <tr r="E45" s="6"/>
-        <tr r="AA49" s="6"/>
-        <tr r="P38" s="6"/>
-        <tr r="H52" s="6"/>
-        <tr r="N49" s="6"/>
-        <tr r="Y39" s="6"/>
         <tr r="P42" s="6"/>
-        <tr r="AH33" s="6"/>
-        <tr r="AC49" s="6"/>
-        <tr r="Y49" s="6"/>
-        <tr r="F34" s="6"/>
-        <tr r="K47" s="6"/>
-        <tr r="I39" s="6"/>
-        <tr r="X40" s="6"/>
         <tr r="N36" s="6"/>
-        <tr r="M43" s="6"/>
-        <tr r="F47" s="6"/>
-        <tr r="X43" s="6"/>
-        <tr r="J48" s="6"/>
-        <tr r="G49" s="6"/>
-        <tr r="T34" s="6"/>
-        <tr r="AH46" s="6"/>
         <tr r="AE53" s="6"/>
-        <tr r="AB47" s="6"/>
-        <tr r="I34" s="6"/>
-        <tr r="M49" s="6"/>
-        <tr r="F48" s="6"/>
-        <tr r="AC48" s="6"/>
-        <tr r="T35" s="6"/>
-        <tr r="P43" s="6"/>
         <tr r="AA35" s="6"/>
-        <tr r="O51" s="6"/>
-        <tr r="V39" s="6"/>
-        <tr r="Y40" s="6"/>
-        <tr r="J35" s="6"/>
-        <tr r="AD35" s="6"/>
-        <tr r="K42" s="6"/>
-        <tr r="Y41" s="6"/>
         <tr r="U47" s="6"/>
-        <tr r="U38" s="6"/>
-        <tr r="AE34" s="6"/>
-        <tr r="N38" s="6"/>
-        <tr r="W36" s="6"/>
-        <tr r="Q34" s="6"/>
-        <tr r="Z39" s="6"/>
-        <tr r="AD39" s="6"/>
         <tr r="N40" s="6"/>
-        <tr r="K40" s="6"/>
-        <tr r="U49" s="6"/>
-        <tr r="G46" s="6"/>
-        <tr r="AI47" s="6"/>
-        <tr r="M40" s="6"/>
-        <tr r="H33" s="6"/>
-        <tr r="H36" s="6"/>
         <tr r="K48" s="6"/>
-        <tr r="R40" s="6"/>
-        <tr r="AA44" s="6"/>
-        <tr r="AB50" s="6"/>
-        <tr r="E44" s="6"/>
-        <tr r="J39" s="6"/>
-        <tr r="P44" s="6"/>
-        <tr r="S52" s="6"/>
-        <tr r="Z42" s="6"/>
-        <tr r="I52" s="6"/>
-        <tr r="J40" s="6"/>
-        <tr r="U33" s="6"/>
-        <tr r="N50" s="6"/>
-        <tr r="I33" s="6"/>
-        <tr r="W41" s="6"/>
         <tr r="AF52" s="6"/>
-        <tr r="AC46" s="6"/>
-        <tr r="K51" s="6"/>
-        <tr r="AI46" s="6"/>
-        <tr r="AD43" s="6"/>
-        <tr r="Q41" s="6"/>
-        <tr r="AH48" s="6"/>
-        <tr r="Z37" s="6"/>
         <tr r="R53" s="6"/>
-        <tr r="Y50" s="6"/>
-        <tr r="U45" s="6"/>
-        <tr r="L41" s="6"/>
-        <tr r="AF37" s="6"/>
-        <tr r="AB43" s="6"/>
-        <tr r="AA42" s="6"/>
-        <tr r="L40" s="6"/>
         <tr r="H38" s="6"/>
-        <tr r="E42" s="6"/>
-        <tr r="M45" s="6"/>
-        <tr r="AI44" s="6"/>
-        <tr r="Y38" s="6"/>
-        <tr r="L51" s="6"/>
-        <tr r="Q51" s="6"/>
         <tr r="AE39" s="6"/>
-        <tr r="W45" s="6"/>
-        <tr r="J34" s="6"/>
-        <tr r="Y43" s="6"/>
-        <tr r="N53" s="6"/>
-        <tr r="AH43" s="6"/>
-        <tr r="AG40" s="6"/>
-        <tr r="E48" s="6"/>
         <tr r="I41" s="6"/>
-        <tr r="J38" s="6"/>
-        <tr r="AD48" s="6"/>
-        <tr r="R47" s="6"/>
-        <tr r="V50" s="6"/>
-        <tr r="R34" s="6"/>
-        <tr r="V44" s="6"/>
-        <tr r="F40" s="6"/>
         <tr r="P47" s="6"/>
-        <tr r="T48" s="6"/>
-        <tr r="AE35" s="6"/>
-        <tr r="AD49" s="6"/>
-        <tr r="L35" s="6"/>
-        <tr r="AB42" s="6"/>
-        <tr r="S39" s="6"/>
-        <tr r="M52" s="6"/>
         <tr r="O49" s="6"/>
-        <tr r="N45" s="6"/>
-        <tr r="H35" s="6"/>
-        <tr r="Y34" s="6"/>
-        <tr r="AB51" s="6"/>
-        <tr r="L45" s="6"/>
-        <tr r="Y47" s="6"/>
-        <tr r="V45" s="6"/>
         <tr r="AG45" s="6"/>
-        <tr r="T51" s="6"/>
-        <tr r="H41" s="6"/>
-        <tr r="S38" s="6"/>
-        <tr r="AB35" s="6"/>
-        <tr r="L33" s="6"/>
-        <tr r="V34" s="6"/>
-        <tr r="F51" s="6"/>
         <tr r="F45" s="6"/>
-        <tr r="R36" s="6"/>
-        <tr r="AB45" s="6"/>
-        <tr r="X51" s="6"/>
-        <tr r="AI34" s="6"/>
-        <tr r="AF45" s="6"/>
-        <tr r="V41" s="6"/>
-        <tr r="AG35" s="6"/>
         <tr r="M36" s="6"/>
-        <tr r="AB44" s="6"/>
-        <tr r="AH45" s="6"/>
-        <tr r="AC39" s="6"/>
-        <tr r="P37" s="6"/>
-        <tr r="J36" s="6"/>
-        <tr r="W49" s="6"/>
-        <tr r="S44" s="6"/>
         <tr r="AI49" s="6"/>
-        <tr r="Q39" s="6"/>
-        <tr r="O42" s="6"/>
-        <tr r="M53" s="6"/>
-        <tr r="W53" s="6"/>
-        <tr r="J52" s="6"/>
-        <tr r="Q42" s="6"/>
-        <tr r="L48" s="6"/>
         <tr r="R33" s="6"/>
-        <tr r="AA39" s="6"/>
-        <tr r="X38" s="6"/>
-        <tr r="X36" s="6"/>
-        <tr r="AE45" s="6"/>
-        <tr r="U34" s="6"/>
-        <tr r="T50" s="6"/>
-        <tr r="AI33" s="6"/>
         <tr r="F44" s="6"/>
-        <tr r="E40" s="6"/>
-        <tr r="AE37" s="6"/>
-        <tr r="AH40" s="6"/>
-        <tr r="G34" s="6"/>
-        <tr r="M37" s="6"/>
-        <tr r="I37" s="6"/>
-        <tr r="Y53" s="6"/>
         <tr r="Q48" s="6"/>
-        <tr r="S41" s="6"/>
-        <tr r="J45" s="6"/>
-        <tr r="F46" s="6"/>
-        <tr r="S43" s="6"/>
-        <tr r="J47" s="6"/>
-        <tr r="AB36" s="6"/>
-        <tr r="O43" s="6"/>
         <tr r="AH38" s="6"/>
-        <tr r="O39" s="6"/>
-        <tr r="M33" s="6"/>
-        <tr r="AE52" s="6"/>
-        <tr r="Z49" s="6"/>
-        <tr r="AI51" s="6"/>
-        <tr r="O53" s="6"/>
-        <tr r="AI43" s="6"/>
         <tr r="W52" s="6"/>
-        <tr r="X48" s="6"/>
-        <tr r="R46" s="6"/>
-        <tr r="H46" s="6"/>
-        <tr r="P35" s="6"/>
-        <tr r="AH49" s="6"/>
-        <tr r="T52" s="6"/>
-        <tr r="AA53" s="6"/>
         <tr r="V35" s="6"/>
-        <tr r="AD37" s="6"/>
-        <tr r="H50" s="6"/>
-        <tr r="AG48" s="6"/>
-        <tr r="V38" s="6"/>
-        <tr r="AB37" s="6"/>
-        <tr r="X53" s="6"/>
-        <tr r="AC44" s="6"/>
         <tr r="M47" s="6"/>
-        <tr r="H49" s="6"/>
-        <tr r="N44" s="6"/>
-        <tr r="O35" s="6"/>
-        <tr r="G42" s="6"/>
-        <tr r="AG38" s="6"/>
-        <tr r="O46" s="6"/>
-        <tr r="O44" s="6"/>
         <tr r="T36" s="6"/>
-        <tr r="AC34" s="6"/>
-        <tr r="G33" s="6"/>
-        <tr r="X44" s="6"/>
-        <tr r="X45" s="6"/>
-        <tr r="E41" s="6"/>
-        <tr r="H47" s="6"/>
-        <tr r="P49" s="6"/>
         <tr r="AG42" s="6"/>
-        <tr r="AD33" s="6"/>
-        <tr r="Y42" s="6"/>
-        <tr r="M35" s="6"/>
-        <tr r="AA47" s="6"/>
-        <tr r="S40" s="6"/>
-        <tr r="G37" s="6"/>
-        <tr r="Q50" s="6"/>
         <tr r="U46" s="6"/>
-        <tr r="L34" s="6"/>
-        <tr r="AE40" s="6"/>
-        <tr r="AD50" s="6"/>
-        <tr r="AE44" s="6"/>
-        <tr r="AD51" s="6"/>
-        <tr r="E52" s="6"/>
-        <tr r="AG51" s="6"/>
         <tr r="H34" s="6"/>
-        <tr r="AG52" s="6"/>
-        <tr r="AH37" s="6"/>
-        <tr r="Z51" s="6"/>
-        <tr r="E34" s="6"/>
-        <tr r="N46" s="6"/>
-        <tr r="L37" s="6"/>
-        <tr r="Z40" s="6"/>
         <tr r="Q36" s="6"/>
-        <tr r="G45" s="6"/>
-        <tr r="W43" s="6"/>
-        <tr r="J37" s="6"/>
-        <tr r="W42" s="6"/>
-        <tr r="I45" s="6"/>
-        <tr r="AI42" s="6"/>
-        <tr r="O50" s="6"/>
         <tr r="H42" s="6"/>
-        <tr r="AA52" s="6"/>
-        <tr r="AE46" s="6"/>
-        <tr r="N33" s="6"/>
-        <tr r="W40" s="6"/>
-        <tr r="AH39" s="6"/>
-        <tr r="AB39" s="6"/>
-        <tr r="M50" s="6"/>
         <tr r="J46" s="6"/>
-        <tr r="J33" s="6"/>
-        <tr r="AD40" s="6"/>
-        <tr r="I36" s="6"/>
-        <tr r="J53" s="6"/>
-        <tr r="S48" s="6"/>
-        <tr r="AA43" s="6"/>
-        <tr r="W51" s="6"/>
         <tr r="AC37" s="6"/>
-        <tr r="P48" s="6"/>
-        <tr r="V52" s="6"/>
-        <tr r="L50" s="6"/>
-        <tr r="W37" s="6"/>
-        <tr r="S37" s="6"/>
-        <tr r="O45" s="6"/>
-        <tr r="AD52" s="6"/>
         <tr r="Q45" s="6"/>
-        <tr r="AA33" s="6"/>
-        <tr r="AE43" s="6"/>
-        <tr r="W39" s="6"/>
-        <tr r="P45" s="6"/>
-        <tr r="P33" s="6"/>
-        <tr r="I38" s="6"/>
-        <tr r="Q38" s="6"/>
         <tr r="AF51" s="6"/>
-        <tr r="AI40" s="6"/>
-        <tr r="Z36" s="6"/>
-        <tr r="U43" s="6"/>
-        <tr r="O40" s="6"/>
-        <tr r="I44" s="6"/>
-        <tr r="Z38" s="6"/>
-        <tr r="AC38" s="6"/>
         <tr r="AI53" s="6"/>
-        <tr r="W46" s="6"/>
-        <tr r="Y33" s="6"/>
-        <tr r="F33" s="6"/>
-        <tr r="P39" s="6"/>
-        <tr r="AE51" s="6"/>
-        <tr r="Y45" s="6"/>
-        <tr r="G53" s="6"/>
         <tr r="AI52" s="6"/>
-        <tr r="S49" s="6"/>
-        <tr r="AI38" s="6"/>
-        <tr r="AD45" s="6"/>
-        <tr r="Q33" s="6"/>
-        <tr r="T49" s="6"/>
-        <tr r="L53" s="6"/>
-        <tr r="R52" s="6"/>
         <tr r="AI50" s="6"/>
-        <tr r="E43" s="6"/>
-        <tr r="W34" s="6"/>
-        <tr r="AG46" s="6"/>
-        <tr r="AD38" s="6"/>
-        <tr r="X34" s="6"/>
-        <tr r="K36" s="6"/>
-        <tr r="P52" s="6"/>
         <tr r="O33" s="6"/>
-        <tr r="N39" s="6"/>
-        <tr r="T53" s="6"/>
-        <tr r="AE47" s="6"/>
-        <tr r="I50" s="6"/>
-        <tr r="F36" s="6"/>
-        <tr r="J42" s="6"/>
-        <tr r="J44" s="6"/>
         <tr r="F42" s="6"/>
-        <tr r="E36" s="6"/>
-        <tr r="AF33" s="6"/>
-        <tr r="M38" s="6"/>
-        <tr r="S33" s="6"/>
-        <tr r="K53" s="6"/>
-        <tr r="F38" s="6"/>
-        <tr r="G44" s="6"/>
         <tr r="F39" s="6"/>
-        <tr r="AI37" s="6"/>
-        <tr r="U44" s="6"/>
-        <tr r="T41" s="6"/>
-        <tr r="T47" s="6"/>
-        <tr r="N48" s="6"/>
-        <tr r="X41" s="6"/>
-        <tr r="V36" s="6"/>
         <tr r="I46" s="6"/>
-        <tr r="AI48" s="6"/>
-        <tr r="V40" s="6"/>
-        <tr r="H44" s="6"/>
-        <tr r="E50" s="6"/>
-        <tr r="AF53" s="6"/>
-        <tr r="AD41" s="6"/>
-        <tr r="T40" s="6"/>
         <tr r="N51" s="6"/>
-        <tr r="P51" s="6"/>
-        <tr r="N52" s="6"/>
-        <tr r="I40" s="6"/>
-        <tr r="W35" s="6"/>
-        <tr r="E51" s="6"/>
-        <tr r="S35" s="6"/>
-        <tr r="Q35" s="6"/>
         <tr r="U36" s="6"/>
-        <tr r="V46" s="6"/>
-        <tr r="Q37" s="6"/>
-        <tr r="AH52" s="6"/>
-        <tr r="AE33" s="6"/>
-        <tr r="AG43" s="6"/>
-        <tr r="AF44" s="6"/>
         <tr r="S53" s="6"/>
-        <tr r="AE42" s="6"/>
-        <tr r="H37" s="6"/>
-        <tr r="K43" s="6"/>
-        <tr r="AD53" s="6"/>
-        <tr r="Z35" s="6"/>
-        <tr r="M39" s="6"/>
-        <tr r="V42" s="6"/>
         <tr r="R41" s="6"/>
-        <tr r="AG34" s="6"/>
-        <tr r="L43" s="6"/>
-        <tr r="AE41" s="6"/>
-        <tr r="AB40" s="6"/>
-        <tr r="O41" s="6"/>
-        <tr r="V51" s="6"/>
-        <tr r="T38" s="6"/>
         <tr r="AI41" s="6"/>
-        <tr r="AG37" s="6"/>
-        <tr r="G51" s="6"/>
-        <tr r="AF46" s="6"/>
-        <tr r="AB34" s="6"/>
-        <tr r="L52" s="6"/>
-        <tr r="X46" s="6"/>
-        <tr r="AE36" s="6"/>
         <tr r="AI39" s="6"/>
-        <tr r="W38" s="6"/>
-        <tr r="AE49" s="6"/>
-        <tr r="G40" s="6"/>
-        <tr r="F43" s="6"/>
-        <tr r="AF39" s="6"/>
-        <tr r="AB49" s="6"/>
-        <tr r="Q43" s="6"/>
         <tr r="F53" s="6"/>
-        <tr r="U48" s="6"/>
-        <tr r="AF49" s="6"/>
-        <tr r="G52" s="6"/>
-        <tr r="F49" s="6"/>
-        <tr r="Z47" s="6"/>
-        <tr r="Y46" s="6"/>
-        <tr r="S50" s="6"/>
         <tr r="M41" s="6"/>
-        <tr r="H51" s="6"/>
-        <tr r="AC33" s="6"/>
-        <tr r="T46" s="6"/>
-        <tr r="W47" s="6"/>
-        <tr r="AC50" s="6"/>
-        <tr r="O52" s="6"/>
-        <tr r="Y35" s="6"/>
         <tr r="V33" s="6"/>
-        <tr r="E39" s="6"/>
-        <tr r="AF42" s="6"/>
-        <tr r="M48" s="6"/>
-        <tr r="X47" s="6"/>
-        <tr r="M44" s="6"/>
-        <tr r="U35" s="6"/>
-        <tr r="T39" s="6"/>
         <tr r="AA38" s="6"/>
-        <tr r="S34" s="6"/>
-        <tr r="V48" s="6"/>
-        <tr r="R49" s="6"/>
-        <tr r="Z34" s="6"/>
-        <tr r="X50" s="6"/>
-        <tr r="AC43" s="6"/>
-        <tr r="Z52" s="6"/>
         <tr r="Q46" s="6"/>
-        <tr r="AG49" s="6"/>
-        <tr r="I35" s="6"/>
-        <tr r="AC41" s="6"/>
-        <tr r="J51" s="6"/>
-        <tr r="L47" s="6"/>
-        <tr r="L49" s="6"/>
-        <tr r="F50" s="6"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e6a90c06bc2a43c6af935351522bc97d">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c0445dd7-1218-4741-99d4-c2524bf9b7ad</stp>
+        <tr r="I51" s="14"/>
+        <tr r="G50" s="14"/>
+        <tr r="E50" s="14"/>
+        <tr r="I50" s="14"/>
+        <tr r="J51" s="14"/>
+        <tr r="J50" s="14"/>
+        <tr r="G51" s="14"/>
+        <tr r="K50" s="14"/>
+        <tr r="H50" s="14"/>
+        <tr r="K51" s="14"/>
+        <tr r="H51" s="14"/>
+        <tr r="F51" s="14"/>
+        <tr r="E51" s="14"/>
+        <tr r="F50" s="14"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>b0be6544-b281-4b47-97ad-25f05b7d0966</stp>
-        <tr r="E33" s="15"/>
-        <tr r="E34" s="15"/>
-        <tr r="E29" s="15"/>
-        <tr r="E35" s="15"/>
-        <tr r="E32" s="15"/>
-        <tr r="E39" s="15"/>
-        <tr r="E36" s="15"/>
-        <tr r="E37" s="15"/>
-        <tr r="E31" s="15"/>
-        <tr r="G36" s="15"/>
-        <tr r="G37" s="15"/>
-        <tr r="F31" s="15"/>
-        <tr r="G32" s="15"/>
-        <tr r="E28" s="15"/>
-        <tr r="F32" s="15"/>
-        <tr r="F37" s="15"/>
-        <tr r="G39" s="15"/>
-        <tr r="G30" s="15"/>
-        <tr r="F33" s="15"/>
-        <tr r="G35" s="15"/>
-        <tr r="G34" s="15"/>
-        <tr r="F28" s="15"/>
-        <tr r="F39" s="15"/>
-        <tr r="F30" s="15"/>
-        <tr r="F36" s="15"/>
-        <tr r="E30" s="15"/>
-        <tr r="F29" s="15"/>
-        <tr r="E38" s="15"/>
-        <tr r="G31" s="15"/>
-        <tr r="G29" s="15"/>
-        <tr r="G33" s="15"/>
-        <tr r="F38" s="15"/>
-        <tr r="F34" s="15"/>
-        <tr r="F35" s="15"/>
-        <tr r="G38" s="15"/>
-        <tr r="G28" s="15"/>
+        <stp>be009e87-7cbb-488e-85d9-c59d712b4ee7</stp>
+        <tr r="F51" s="15"/>
+        <tr r="G49" s="15"/>
+        <tr r="E50" s="15"/>
+        <tr r="F58" s="15"/>
+        <tr r="E49" s="15"/>
+        <tr r="F47" s="15"/>
+        <tr r="G47" s="15"/>
+        <tr r="G51" s="15"/>
+        <tr r="F56" s="15"/>
+        <tr r="E58" s="15"/>
+        <tr r="E48" s="15"/>
+        <tr r="E57" s="15"/>
+        <tr r="F54" s="15"/>
+        <tr r="E56" s="15"/>
+        <tr r="G52" s="15"/>
+        <tr r="E47" s="15"/>
+        <tr r="G55" s="15"/>
+        <tr r="E55" s="15"/>
+        <tr r="G57" s="15"/>
+        <tr r="F52" s="15"/>
+        <tr r="E54" s="15"/>
+        <tr r="F57" s="15"/>
+        <tr r="E53" s="15"/>
+        <tr r="G58" s="15"/>
+        <tr r="G50" s="15"/>
+        <tr r="E52" s="15"/>
+        <tr r="F55" s="15"/>
+        <tr r="E51" s="15"/>
+        <tr r="G56" s="15"/>
+        <tr r="F48" s="15"/>
+        <tr r="F50" s="15"/>
+        <tr r="F53" s="15"/>
+        <tr r="F49" s="15"/>
+        <tr r="G54" s="15"/>
+        <tr r="G53" s="15"/>
+        <tr r="G48" s="15"/>
       </tp>
     </main>
-    <main first="rtdsrv.552b6025665c456ba4b67600f5d164cc">
+    <main first="rtdsrv.e6a90c06bc2a43c6af935351522bc97d">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>cbae4606-1841-44d8-9259-54604090d754</stp>
-        <tr r="F51" s="15"/>
-        <tr r="G50" s="15"/>
-        <tr r="F48" s="15"/>
-        <tr r="E52" s="15"/>
-        <tr r="F50" s="15"/>
-        <tr r="G47" s="15"/>
-        <tr r="G48" s="15"/>
-        <tr r="E53" s="15"/>
-        <tr r="E58" s="15"/>
-        <tr r="F56" s="15"/>
-        <tr r="G52" s="15"/>
-        <tr r="G58" s="15"/>
-        <tr r="F55" s="15"/>
-        <tr r="F47" s="15"/>
-        <tr r="F53" s="15"/>
-        <tr r="E54" s="15"/>
-        <tr r="G51" s="15"/>
-        <tr r="G53" s="15"/>
-        <tr r="F58" s="15"/>
-        <tr r="E48" s="15"/>
-        <tr r="E56" s="15"/>
-        <tr r="G55" s="15"/>
-        <tr r="E55" s="15"/>
-        <tr r="G57" s="15"/>
-        <tr r="E50" s="15"/>
-        <tr r="F52" s="15"/>
-        <tr r="E49" s="15"/>
-        <tr r="F54" s="15"/>
-        <tr r="G54" s="15"/>
-        <tr r="F49" s="15"/>
-        <tr r="E57" s="15"/>
-        <tr r="F57" s="15"/>
-        <tr r="G49" s="15"/>
-        <tr r="G56" s="15"/>
-        <tr r="E51" s="15"/>
-        <tr r="E47" s="15"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.552b6025665c456ba4b67600f5d164cc">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>71b7c3ff-3561-47c6-90ab-96d46c2585ef</stp>
+        <stp>33e6c63d-03d1-4c74-8d0d-13ec56eedbac</stp>
+        <tr r="N50" s="8"/>
+        <tr r="R38" s="8"/>
+        <tr r="R37" s="8"/>
+        <tr r="R31" s="8"/>
+        <tr r="Q40" s="8"/>
+        <tr r="O42" s="8"/>
+        <tr r="Q46" s="8"/>
+        <tr r="O35" s="8"/>
+        <tr r="N51" s="8"/>
+        <tr r="P49" s="8"/>
+        <tr r="P37" s="8"/>
+        <tr r="Q43" s="8"/>
+        <tr r="O44" s="8"/>
+        <tr r="O49" s="8"/>
+        <tr r="N39" s="8"/>
+        <tr r="O38" s="8"/>
+        <tr r="R51" s="8"/>
+        <tr r="Q51" s="8"/>
+        <tr r="Q47" s="8"/>
+        <tr r="O51" s="8"/>
+        <tr r="R35" s="8"/>
+        <tr r="O46" s="8"/>
+        <tr r="Q35" s="8"/>
+        <tr r="Q49" s="8"/>
+        <tr r="R34" s="8"/>
+        <tr r="Q48" s="8"/>
+        <tr r="P31" s="8"/>
+        <tr r="P46" s="8"/>
+        <tr r="O50" s="8"/>
+        <tr r="O39" s="8"/>
+        <tr r="P40" s="8"/>
+        <tr r="P42" s="8"/>
+        <tr r="Q44" s="8"/>
+        <tr r="P38" s="8"/>
+        <tr r="O34" s="8"/>
+        <tr r="N32" s="8"/>
+        <tr r="R43" s="8"/>
+        <tr r="R46" s="8"/>
+        <tr r="R45" s="8"/>
+        <tr r="N41" s="8"/>
+        <tr r="N36" s="8"/>
+        <tr r="N47" s="8"/>
+        <tr r="R33" s="8"/>
+        <tr r="P48" s="8"/>
+        <tr r="Q32" s="8"/>
+        <tr r="R39" s="8"/>
+        <tr r="P41" s="8"/>
+        <tr r="N43" s="8"/>
+        <tr r="Q37" s="8"/>
+        <tr r="R42" s="8"/>
+        <tr r="P47" s="8"/>
         <tr r="P35" s="8"/>
-        <tr r="R40" s="8"/>
-        <tr r="O36" s="8"/>
-        <tr r="Q32" s="8"/>
-        <tr r="Q44" s="8"/>
-        <tr r="R47" s="8"/>
-        <tr r="P51" s="8"/>
-        <tr r="O49" s="8"/>
-        <tr r="R44" s="8"/>
-        <tr r="P36" s="8"/>
-        <tr r="O32" s="8"/>
-        <tr r="N38" s="8"/>
-        <tr r="O45" s="8"/>
-        <tr r="O38" s="8"/>
-        <tr r="N37" s="8"/>
-        <tr r="P42" s="8"/>
-        <tr r="O35" s="8"/>
-        <tr r="Q47" s="8"/>
-        <tr r="R50" s="8"/>
-        <tr r="R43" s="8"/>
-        <tr r="O41" s="8"/>
-        <tr r="N42" s="8"/>
-        <tr r="R39" s="8"/>
-        <tr r="O31" s="8"/>
-        <tr r="R37" s="8"/>
-        <tr r="Q51" s="8"/>
-        <tr r="P48" s="8"/>
-        <tr r="R38" s="8"/>
-        <tr r="P49" s="8"/>
-        <tr r="O40" s="8"/>
-        <tr r="N50" s="8"/>
-        <tr r="Q49" s="8"/>
-        <tr r="O39" s="8"/>
-        <tr r="N48" s="8"/>
-        <tr r="O44" s="8"/>
-        <tr r="N46" s="8"/>
-        <tr r="N47" s="8"/>
-        <tr r="Q33" s="8"/>
-        <tr r="Q31" s="8"/>
-        <tr r="P39" s="8"/>
-        <tr r="N43" s="8"/>
-        <tr r="Q39" s="8"/>
-        <tr r="P32" s="8"/>
-        <tr r="Q36" s="8"/>
-        <tr r="Q37" s="8"/>
-        <tr r="N45" s="8"/>
-        <tr r="P33" s="8"/>
-        <tr r="Q43" s="8"/>
-        <tr r="P50" s="8"/>
-        <tr r="Q34" s="8"/>
-        <tr r="P43" s="8"/>
-        <tr r="P31" s="8"/>
-        <tr r="R33" s="8"/>
-        <tr r="R42" s="8"/>
-        <tr r="O51" s="8"/>
-        <tr r="O48" s="8"/>
-        <tr r="P45" s="8"/>
-        <tr r="R49" s="8"/>
-        <tr r="R41" s="8"/>
-        <tr r="N49" s="8"/>
-        <tr r="R31" s="8"/>
-        <tr r="P47" s="8"/>
         <tr r="O33" s="8"/>
-        <tr r="Q40" s="8"/>
-        <tr r="N33" s="8"/>
-        <tr r="P41" s="8"/>
-        <tr r="N39" s="8"/>
-        <tr r="R45" s="8"/>
-        <tr r="N40" s="8"/>
-        <tr r="O42" s="8"/>
-        <tr r="N34" s="8"/>
-        <tr r="Q35" s="8"/>
-        <tr r="R34" s="8"/>
-        <tr r="P38" s="8"/>
-        <tr r="Q45" s="8"/>
-        <tr r="Q42" s="8"/>
-        <tr r="P37" s="8"/>
         <tr r="N31" s="8"/>
         <tr r="P44" s="8"/>
+        <tr r="O43" s="8"/>
+        <tr r="N46" s="8"/>
+        <tr r="Q31" s="8"/>
+        <tr r="R40" s="8"/>
+        <tr r="N33" s="8"/>
+        <tr r="R36" s="8"/>
+        <tr r="P33" s="8"/>
+        <tr r="Q39" s="8"/>
+        <tr r="R49" s="8"/>
+        <tr r="O32" s="8"/>
+        <tr r="P51" s="8"/>
+        <tr r="P36" s="8"/>
+        <tr r="P45" s="8"/>
+        <tr r="O40" s="8"/>
         <tr r="R32" s="8"/>
-        <tr r="P46" s="8"/>
-        <tr r="R35" s="8"/>
-        <tr r="N32" s="8"/>
-        <tr r="N51" s="8"/>
-        <tr r="O34" s="8"/>
+        <tr r="O31" s="8"/>
         <tr r="P34" s="8"/>
-        <tr r="O43" s="8"/>
+        <tr r="Q50" s="8"/>
+        <tr r="Q33" s="8"/>
+        <tr r="O48" s="8"/>
+        <tr r="R48" s="8"/>
+        <tr r="N45" s="8"/>
+        <tr r="N48" s="8"/>
+        <tr r="O45" s="8"/>
+        <tr r="N40" s="8"/>
+        <tr r="Q36" s="8"/>
+        <tr r="N34" s="8"/>
+        <tr r="R41" s="8"/>
+        <tr r="N37" s="8"/>
+        <tr r="Q41" s="8"/>
+        <tr r="R44" s="8"/>
         <tr r="O37" s="8"/>
+        <tr r="Q42" s="8"/>
+        <tr r="P39" s="8"/>
+        <tr r="N35" s="8"/>
+        <tr r="Q45" s="8"/>
+        <tr r="N42" s="8"/>
+        <tr r="N49" s="8"/>
+        <tr r="O41" s="8"/>
+        <tr r="O36" s="8"/>
+        <tr r="P50" s="8"/>
+        <tr r="P32" s="8"/>
+        <tr r="P43" s="8"/>
+        <tr r="R47" s="8"/>
+        <tr r="Q38" s="8"/>
+        <tr r="R50" s="8"/>
+        <tr r="Q34" s="8"/>
+        <tr r="N38" s="8"/>
         <tr r="O47" s="8"/>
-        <tr r="Q46" s="8"/>
-        <tr r="Q38" s="8"/>
-        <tr r="Q50" s="8"/>
-        <tr r="Q41" s="8"/>
-        <tr r="R51" s="8"/>
-        <tr r="N36" s="8"/>
-        <tr r="O50" s="8"/>
-        <tr r="N41" s="8"/>
-        <tr r="R46" s="8"/>
-        <tr r="Q48" s="8"/>
-        <tr r="R36" s="8"/>
-        <tr r="O46" s="8"/>
-        <tr r="N35" s="8"/>
-        <tr r="R48" s="8"/>
         <tr r="N44" s="8"/>
-        <tr r="P40" s="8"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.552b6025665c456ba4b67600f5d164cc">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>811a7124-5871-4866-8d05-a443970b61b2</stp>
-        <tr r="E28" s="9"/>
-        <tr r="F28" s="9"/>
-        <tr r="G28" s="9"/>
-        <tr r="E29" s="9"/>
-        <tr r="F29" s="9"/>
-        <tr r="G29" s="9"/>
-        <tr r="E30" s="9"/>
-        <tr r="F30" s="9"/>
-        <tr r="G30" s="9"/>
-        <tr r="E31" s="9"/>
-        <tr r="F31" s="9"/>
-        <tr r="G31" s="9"/>
-        <tr r="E32" s="9"/>
-        <tr r="F32" s="9"/>
-        <tr r="G32" s="9"/>
-        <tr r="E33" s="9"/>
-        <tr r="F33" s="9"/>
-        <tr r="G33" s="9"/>
-        <tr r="E34" s="9"/>
-        <tr r="F34" s="9"/>
-        <tr r="G34" s="9"/>
-        <tr r="E35" s="9"/>
-        <tr r="F35" s="9"/>
-        <tr r="G35" s="9"/>
-        <tr r="E36" s="9"/>
-        <tr r="F36" s="9"/>
-        <tr r="G36" s="9"/>
-        <tr r="E37" s="9"/>
-        <tr r="F37" s="9"/>
-        <tr r="G37" s="9"/>
-        <tr r="E38" s="9"/>
-        <tr r="F38" s="9"/>
-        <tr r="G38" s="9"/>
-        <tr r="E39" s="9"/>
-        <tr r="F39" s="9"/>
-        <tr r="G39" s="9"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.552b6025665c456ba4b67600f5d164cc">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>36e0a237-da33-4950-9186-eec926ccc8f0</stp>
-        <tr r="E51" s="14"/>
-        <tr r="J51" s="14"/>
-        <tr r="H51" s="14"/>
-        <tr r="G51" s="14"/>
-        <tr r="F50" s="14"/>
-        <tr r="I51" s="14"/>
-        <tr r="G50" s="14"/>
-        <tr r="J50" s="14"/>
-        <tr r="F51" s="14"/>
-        <tr r="K50" s="14"/>
-        <tr r="E50" s="14"/>
-        <tr r="K51" s="14"/>
-        <tr r="I50" s="14"/>
-        <tr r="H50" s="14"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.552b6025665c456ba4b67600f5d164cc">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e8671a4d-021b-4ec7-bc70-6ba7f3b35527</stp>
-        <tr r="F81" s="9"/>
-        <tr r="E72" s="9"/>
-        <tr r="E74" s="9"/>
-        <tr r="E61" s="9"/>
-        <tr r="E68" s="9"/>
-        <tr r="G64" s="9"/>
-        <tr r="E82" s="9"/>
-        <tr r="G61" s="9"/>
-        <tr r="E66" s="9"/>
-        <tr r="F65" s="9"/>
-        <tr r="E81" s="9"/>
-        <tr r="F83" s="9"/>
-        <tr r="E62" s="9"/>
-        <tr r="E64" s="9"/>
-        <tr r="G76" s="9"/>
-        <tr r="F80" s="9"/>
-        <tr r="G67" s="9"/>
-        <tr r="E67" s="9"/>
-        <tr r="F73" s="9"/>
-        <tr r="F64" s="9"/>
-        <tr r="F62" s="9"/>
-        <tr r="G66" s="9"/>
-        <tr r="E83" s="9"/>
-        <tr r="G79" s="9"/>
-        <tr r="F74" s="9"/>
-        <tr r="F84" s="9"/>
-        <tr r="G62" s="9"/>
-        <tr r="F78" s="9"/>
-        <tr r="G80" s="9"/>
-        <tr r="G82" s="9"/>
-        <tr r="F61" s="9"/>
-        <tr r="F71" s="9"/>
-        <tr r="G77" s="9"/>
-        <tr r="E65" s="9"/>
-        <tr r="F79" s="9"/>
-        <tr r="E76" s="9"/>
-        <tr r="F66" s="9"/>
-        <tr r="G70" s="9"/>
-        <tr r="G78" s="9"/>
-        <tr r="G68" s="9"/>
-        <tr r="E69" s="9"/>
-        <tr r="E79" s="9"/>
-        <tr r="E78" s="9"/>
-        <tr r="E80" s="9"/>
-        <tr r="F63" s="9"/>
-        <tr r="E75" s="9"/>
-        <tr r="G63" s="9"/>
-        <tr r="F68" s="9"/>
-        <tr r="E71" s="9"/>
-        <tr r="E73" s="9"/>
-        <tr r="F75" s="9"/>
-        <tr r="F77" s="9"/>
-        <tr r="E77" s="9"/>
-        <tr r="G81" s="9"/>
-        <tr r="F72" s="9"/>
-        <tr r="E70" s="9"/>
-        <tr r="G65" s="9"/>
-        <tr r="F69" s="9"/>
-        <tr r="G83" s="9"/>
-        <tr r="F76" s="9"/>
-        <tr r="G75" s="9"/>
-        <tr r="F82" s="9"/>
-        <tr r="G84" s="9"/>
-        <tr r="E84" s="9"/>
-        <tr r="E63" s="9"/>
-        <tr r="F70" s="9"/>
-        <tr r="G72" s="9"/>
-        <tr r="G74" s="9"/>
-        <tr r="G71" s="9"/>
-        <tr r="G73" s="9"/>
-        <tr r="G69" s="9"/>
-        <tr r="F67" s="9"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.552b6025665c456ba4b67600f5d164cc">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4d3eec27-6085-4788-b6a7-b4205ae2728c</stp>
-        <tr r="O43" s="13"/>
-        <tr r="H40" s="13"/>
-        <tr r="L42" s="13"/>
-        <tr r="L39" s="13"/>
-        <tr r="I39" s="13"/>
-        <tr r="F43" s="13"/>
-        <tr r="N45" s="13"/>
-        <tr r="L48" s="13"/>
-        <tr r="H41" s="13"/>
-        <tr r="F44" s="13"/>
-        <tr r="K49" s="13"/>
-        <tr r="F48" s="13"/>
-        <tr r="H44" s="13"/>
-        <tr r="O47" s="13"/>
-        <tr r="I40" s="13"/>
-        <tr r="I45" s="13"/>
-        <tr r="H39" s="13"/>
-        <tr r="J46" s="13"/>
-        <tr r="L43" s="13"/>
-        <tr r="N41" s="13"/>
-        <tr r="K46" s="13"/>
-        <tr r="O44" s="13"/>
-        <tr r="I44" s="13"/>
-        <tr r="K42" s="13"/>
-        <tr r="H42" s="13"/>
-        <tr r="M44" s="13"/>
-        <tr r="O49" s="13"/>
-        <tr r="N42" s="13"/>
-        <tr r="F45" s="13"/>
-        <tr r="H46" s="13"/>
-        <tr r="E45" s="13"/>
-        <tr r="K43" s="13"/>
-        <tr r="E41" s="13"/>
-        <tr r="G44" s="13"/>
-        <tr r="G48" s="13"/>
-        <tr r="M49" s="13"/>
-        <tr r="I42" s="13"/>
-        <tr r="G46" s="13"/>
-        <tr r="J39" s="13"/>
-        <tr r="K41" s="13"/>
-        <tr r="I47" s="13"/>
-        <tr r="F41" s="13"/>
-        <tr r="O48" s="13"/>
-        <tr r="N49" s="13"/>
-        <tr r="G39" s="13"/>
-        <tr r="F47" s="13"/>
-        <tr r="K48" s="13"/>
-        <tr r="I41" s="13"/>
-        <tr r="H45" s="13"/>
-        <tr r="O39" s="13"/>
-        <tr r="M48" s="13"/>
-        <tr r="G47" s="13"/>
-        <tr r="F40" s="13"/>
-        <tr r="E47" s="13"/>
-        <tr r="O42" s="13"/>
-        <tr r="N44" s="13"/>
-        <tr r="N48" s="13"/>
-        <tr r="I43" s="13"/>
-        <tr r="L46" s="13"/>
-        <tr r="M46" s="13"/>
-        <tr r="L40" s="13"/>
-        <tr r="M42" s="13"/>
-        <tr r="J43" s="13"/>
-        <tr r="M40" s="13"/>
-        <tr r="I46" s="13"/>
-        <tr r="K45" s="13"/>
-        <tr r="J41" s="13"/>
-        <tr r="F39" s="13"/>
-        <tr r="G41" s="13"/>
-        <tr r="E48" s="13"/>
-        <tr r="L49" s="13"/>
-        <tr r="M47" s="13"/>
-        <tr r="N43" s="13"/>
-        <tr r="K40" s="13"/>
-        <tr r="E42" s="13"/>
-        <tr r="G49" s="13"/>
-        <tr r="M39" s="13"/>
-        <tr r="M41" s="13"/>
-        <tr r="G45" s="13"/>
-        <tr r="J48" s="13"/>
-        <tr r="M43" s="13"/>
-        <tr r="L44" s="13"/>
-        <tr r="O46" s="13"/>
-        <tr r="I48" s="13"/>
-        <tr r="M45" s="13"/>
-        <tr r="E44" s="13"/>
-        <tr r="H49" s="13"/>
-        <tr r="F42" s="13"/>
-        <tr r="H43" s="13"/>
-        <tr r="E39" s="13"/>
-        <tr r="H47" s="13"/>
-        <tr r="K44" s="13"/>
-        <tr r="O41" s="13"/>
-        <tr r="G42" s="13"/>
-        <tr r="H48" s="13"/>
-        <tr r="E43" s="13"/>
-        <tr r="O40" s="13"/>
-        <tr r="K39" s="13"/>
-        <tr r="I49" s="13"/>
-        <tr r="O45" s="13"/>
-        <tr r="E40" s="13"/>
-        <tr r="L47" s="13"/>
-        <tr r="J44" s="13"/>
-        <tr r="J47" s="13"/>
-        <tr r="E49" s="13"/>
-        <tr r="N47" s="13"/>
-        <tr r="F46" s="13"/>
-        <tr r="J45" s="13"/>
-        <tr r="G43" s="13"/>
-        <tr r="N39" s="13"/>
-        <tr r="J49" s="13"/>
-        <tr r="N46" s="13"/>
-        <tr r="N40" s="13"/>
-        <tr r="F49" s="13"/>
-        <tr r="L45" s="13"/>
-        <tr r="L41" s="13"/>
-        <tr r="G40" s="13"/>
-        <tr r="J40" s="13"/>
-        <tr r="J42" s="13"/>
-        <tr r="K47" s="13"/>
-        <tr r="E46" s="13"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>7310186c-2666-497d-a7fa-ce8155debd3e</stp>
-        <tr r="H41" s="8"/>
-        <tr r="I37" s="8"/>
-        <tr r="H32" s="8"/>
-        <tr r="F43" s="8"/>
-        <tr r="K46" s="8"/>
-        <tr r="H49" s="8"/>
-        <tr r="K39" s="8"/>
-        <tr r="E36" s="8"/>
-        <tr r="I45" s="8"/>
-        <tr r="E49" s="8"/>
-        <tr r="K51" s="8"/>
-        <tr r="H37" s="8"/>
-        <tr r="F51" s="8"/>
-        <tr r="L40" s="8"/>
-        <tr r="F36" s="8"/>
-        <tr r="L51" s="8"/>
-        <tr r="L32" s="8"/>
-        <tr r="E40" s="8"/>
-        <tr r="I34" s="8"/>
-        <tr r="E47" s="8"/>
-        <tr r="F32" s="8"/>
-        <tr r="K40" s="8"/>
-        <tr r="J39" s="8"/>
-        <tr r="L38" s="8"/>
-        <tr r="E31" s="8"/>
-        <tr r="G47" s="8"/>
-        <tr r="G41" s="8"/>
-        <tr r="J41" s="8"/>
-        <tr r="F42" s="8"/>
-        <tr r="H43" s="8"/>
-        <tr r="L42" s="8"/>
-        <tr r="K34" s="8"/>
-        <tr r="L34" s="8"/>
-        <tr r="E38" s="8"/>
-        <tr r="K44" s="8"/>
-        <tr r="K42" s="8"/>
-        <tr r="I47" s="8"/>
-        <tr r="I46" s="8"/>
-        <tr r="L45" s="8"/>
-        <tr r="E37" s="8"/>
-        <tr r="H51" s="8"/>
-        <tr r="E39" s="8"/>
-        <tr r="G49" s="8"/>
-        <tr r="L43" s="8"/>
-        <tr r="F49" s="8"/>
-        <tr r="H31" s="8"/>
-        <tr r="J31" s="8"/>
-        <tr r="J49" s="8"/>
-        <tr r="I36" s="8"/>
-        <tr r="E46" s="8"/>
-        <tr r="E42" s="8"/>
-        <tr r="K31" s="8"/>
-        <tr r="K47" s="8"/>
-        <tr r="G39" s="8"/>
-        <tr r="K41" s="8"/>
-        <tr r="J43" s="8"/>
-        <tr r="F31" s="8"/>
-        <tr r="J38" s="8"/>
-        <tr r="J45" s="8"/>
-        <tr r="L31" s="8"/>
-        <tr r="J35" s="8"/>
-        <tr r="G46" s="8"/>
-        <tr r="E43" s="8"/>
-        <tr r="I51" s="8"/>
-        <tr r="E44" s="8"/>
-        <tr r="G45" s="8"/>
-        <tr r="J46" s="8"/>
-        <tr r="E32" s="8"/>
-        <tr r="F45" s="8"/>
-        <tr r="H47" s="8"/>
-        <tr r="F48" s="8"/>
-        <tr r="H42" s="8"/>
-        <tr r="J37" s="8"/>
-        <tr r="J33" s="8"/>
-        <tr r="K38" s="8"/>
-        <tr r="H33" s="8"/>
-        <tr r="H35" s="8"/>
-        <tr r="F35" s="8"/>
-        <tr r="L50" s="8"/>
-        <tr r="G31" s="8"/>
-        <tr r="H36" s="8"/>
-        <tr r="G50" s="8"/>
-        <tr r="I31" s="8"/>
-        <tr r="I48" s="8"/>
-        <tr r="H40" s="8"/>
-        <tr r="I43" s="8"/>
-        <tr r="E48" s="8"/>
-        <tr r="H45" s="8"/>
-        <tr r="L35" s="8"/>
-        <tr r="J48" s="8"/>
-        <tr r="J40" s="8"/>
-        <tr r="F33" s="8"/>
-        <tr r="I41" s="8"/>
-        <tr r="G40" s="8"/>
-        <tr r="F41" s="8"/>
-        <tr r="G32" s="8"/>
-        <tr r="I38" s="8"/>
-        <tr r="J47" s="8"/>
-        <tr r="J36" s="8"/>
-        <tr r="J51" s="8"/>
-        <tr r="K33" s="8"/>
-        <tr r="L44" s="8"/>
-        <tr r="G44" s="8"/>
-        <tr r="F44" s="8"/>
-        <tr r="H39" s="8"/>
-        <tr r="I33" s="8"/>
-        <tr r="H44" s="8"/>
-        <tr r="J42" s="8"/>
-        <tr r="L36" s="8"/>
-        <tr r="J50" s="8"/>
-        <tr r="E35" s="8"/>
-        <tr r="H38" s="8"/>
-        <tr r="F47" s="8"/>
-        <tr r="G36" s="8"/>
-        <tr r="I42" s="8"/>
-        <tr r="E34" s="8"/>
-        <tr r="G51" s="8"/>
-        <tr r="E33" s="8"/>
-        <tr r="F39" s="8"/>
-        <tr r="L49" s="8"/>
-        <tr r="L47" s="8"/>
-        <tr r="G42" s="8"/>
-        <tr r="I39" s="8"/>
-        <tr r="K35" s="8"/>
-        <tr r="F34" s="8"/>
-        <tr r="G34" s="8"/>
-        <tr r="L46" s="8"/>
-        <tr r="K49" s="8"/>
-        <tr r="K45" s="8"/>
-        <tr r="L39" s="8"/>
-        <tr r="L37" s="8"/>
-        <tr r="F40" s="8"/>
-        <tr r="L41" s="8"/>
-        <tr r="L48" s="8"/>
-        <tr r="E41" s="8"/>
-        <tr r="G33" s="8"/>
-        <tr r="J34" s="8"/>
-        <tr r="H48" s="8"/>
-        <tr r="F38" s="8"/>
-        <tr r="G38" s="8"/>
-        <tr r="H46" s="8"/>
-        <tr r="G37" s="8"/>
-        <tr r="I44" s="8"/>
-        <tr r="G43" s="8"/>
-        <tr r="K48" s="8"/>
-        <tr r="J44" s="8"/>
-        <tr r="I35" s="8"/>
-        <tr r="K50" s="8"/>
-        <tr r="G35" s="8"/>
-        <tr r="F46" s="8"/>
-        <tr r="K36" s="8"/>
-        <tr r="G48" s="8"/>
-        <tr r="F50" s="8"/>
-        <tr r="H50" s="8"/>
-        <tr r="E50" s="8"/>
-        <tr r="I49" s="8"/>
-        <tr r="K37" s="8"/>
-        <tr r="K43" s="8"/>
-        <tr r="F37" s="8"/>
-        <tr r="E45" s="8"/>
-        <tr r="H34" s="8"/>
-        <tr r="K32" s="8"/>
-        <tr r="I50" s="8"/>
-        <tr r="J32" s="8"/>
-        <tr r="I32" s="8"/>
-        <tr r="I40" s="8"/>
-        <tr r="L33" s="8"/>
-        <tr r="E51" s="8"/>
+        <stp>a410b9c0-a3c3-4437-aa96-90acd0f96799</stp>
+        <tr r="G148" s="15"/>
+        <tr r="F151" s="15"/>
+        <tr r="E154" s="15"/>
+        <tr r="G156" s="15"/>
+        <tr r="F159" s="15"/>
+        <tr r="E162" s="15"/>
+        <tr r="G164" s="15"/>
+        <tr r="F167" s="15"/>
+        <tr r="E170" s="15"/>
+        <tr r="F152" s="15"/>
+        <tr r="F160" s="15"/>
+        <tr r="F168" s="15"/>
+        <tr r="G158" s="15"/>
+        <tr r="G166" s="15"/>
+        <tr r="E159" s="15"/>
+        <tr r="E167" s="15"/>
+        <tr r="E149" s="15"/>
+        <tr r="G151" s="15"/>
+        <tr r="F154" s="15"/>
+        <tr r="E157" s="15"/>
+        <tr r="G159" s="15"/>
+        <tr r="F162" s="15"/>
+        <tr r="E165" s="15"/>
+        <tr r="G167" s="15"/>
+        <tr r="F170" s="15"/>
+        <tr r="E147" s="15"/>
+        <tr r="E155" s="15"/>
+        <tr r="G157" s="15"/>
+        <tr r="E163" s="15"/>
+        <tr r="E148" s="15"/>
+        <tr r="F161" s="15"/>
+        <tr r="G153" s="15"/>
+        <tr r="G169" s="15"/>
+        <tr r="F164" s="15"/>
+        <tr r="F156" s="15"/>
+        <tr r="F148" s="15"/>
+        <tr r="E164" s="15"/>
+        <tr r="E156" s="15"/>
+        <tr r="G150" s="15"/>
+        <tr r="E169" s="15"/>
+        <tr r="F166" s="15"/>
+        <tr r="G163" s="15"/>
+        <tr r="E161" s="15"/>
+        <tr r="F158" s="15"/>
+        <tr r="G155" s="15"/>
+        <tr r="E153" s="15"/>
+        <tr r="F150" s="15"/>
+        <tr r="G147" s="15"/>
+        <tr r="G168" s="15"/>
+        <tr r="E166" s="15"/>
+        <tr r="F163" s="15"/>
+        <tr r="G160" s="15"/>
+        <tr r="E158" s="15"/>
+        <tr r="F155" s="15"/>
+        <tr r="G152" s="15"/>
+        <tr r="E150" s="15"/>
+        <tr r="F147" s="15"/>
+        <tr r="G161" s="15"/>
+        <tr r="E151" s="15"/>
+        <tr r="F169" s="15"/>
+        <tr r="F153" s="15"/>
+        <tr r="G165" s="15"/>
+        <tr r="G149" s="15"/>
+        <tr r="G170" s="15"/>
+        <tr r="E168" s="15"/>
+        <tr r="F165" s="15"/>
+        <tr r="G162" s="15"/>
+        <tr r="E160" s="15"/>
+        <tr r="F157" s="15"/>
+        <tr r="G154" s="15"/>
+        <tr r="E152" s="15"/>
+        <tr r="F149" s="15"/>
       </tp>
-    </main>
-    <main first="rtdsrv.552b6025665c456ba4b67600f5d164cc">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>78f0b91f-b784-4f71-961b-dfc4d83ca724</stp>
-        <tr r="Q64" s="6"/>
-        <tr r="H76" s="6"/>
-        <tr r="P70" s="6"/>
-        <tr r="O64" s="6"/>
-        <tr r="J69" s="6"/>
-        <tr r="H77" s="6"/>
-        <tr r="S64" s="6"/>
-        <tr r="L78" s="6"/>
-        <tr r="H70" s="6"/>
-        <tr r="P81" s="6"/>
-        <tr r="G67" s="6"/>
-        <tr r="F69" s="6"/>
-        <tr r="J66" s="6"/>
-        <tr r="K75" s="6"/>
-        <tr r="G72" s="6"/>
-        <tr r="Q79" s="6"/>
-        <tr r="R70" s="6"/>
-        <tr r="Q81" s="6"/>
-        <tr r="M74" s="6"/>
-        <tr r="N73" s="6"/>
-        <tr r="F74" s="6"/>
-        <tr r="J63" s="6"/>
-        <tr r="S74" s="6"/>
-        <tr r="K68" s="6"/>
-        <tr r="G77" s="6"/>
-        <tr r="F78" s="6"/>
-        <tr r="G78" s="6"/>
-        <tr r="P65" s="6"/>
-        <tr r="E80" s="6"/>
-        <tr r="E68" s="6"/>
-        <tr r="E76" s="6"/>
-        <tr r="E73" s="6"/>
-        <tr r="F73" s="6"/>
-        <tr r="S77" s="6"/>
-        <tr r="L68" s="6"/>
-        <tr r="N70" s="6"/>
-        <tr r="S75" s="6"/>
-        <tr r="E67" s="6"/>
-        <tr r="M64" s="6"/>
-        <tr r="Q78" s="6"/>
-        <tr r="I80" s="6"/>
-        <tr r="Q71" s="6"/>
-        <tr r="K69" s="6"/>
-        <tr r="F76" s="6"/>
-        <tr r="J79" s="6"/>
-        <tr r="M77" s="6"/>
-        <tr r="H65" s="6"/>
-        <tr r="P77" s="6"/>
-        <tr r="N72" s="6"/>
-        <tr r="G64" s="6"/>
-        <tr r="J62" s="6"/>
-        <tr r="I75" s="6"/>
-        <tr r="F67" s="6"/>
-        <tr r="F64" s="6"/>
-        <tr r="R62" s="6"/>
-        <tr r="E70" s="6"/>
-        <tr r="N77" s="6"/>
-        <tr r="K74" s="6"/>
-        <tr r="L81" s="6"/>
-        <tr r="F70" s="6"/>
-        <tr r="M72" s="6"/>
-        <tr r="K65" s="6"/>
-        <tr r="J80" s="6"/>
-        <tr r="S71" s="6"/>
-        <tr r="E65" s="6"/>
-        <tr r="S68" s="6"/>
-        <tr r="Q73" s="6"/>
-        <tr r="K70" s="6"/>
-        <tr r="J73" s="6"/>
-        <tr r="R66" s="6"/>
-        <tr r="O75" s="6"/>
-        <tr r="M81" s="6"/>
-        <tr r="N80" s="6"/>
-        <tr r="I79" s="6"/>
-        <tr r="L72" s="6"/>
-        <tr r="J78" s="6"/>
-        <tr r="S81" s="6"/>
-        <tr r="L74" s="6"/>
-        <tr r="L79" s="6"/>
-        <tr r="E81" s="6"/>
-        <tr r="G81" s="6"/>
-        <tr r="O69" s="6"/>
-        <tr r="M80" s="6"/>
-        <tr r="M62" s="6"/>
-        <tr r="G71" s="6"/>
-        <tr r="O65" s="6"/>
-        <tr r="L70" s="6"/>
-        <tr r="H75" s="6"/>
-        <tr r="H74" s="6"/>
-        <tr r="J72" s="6"/>
-        <tr r="F80" s="6"/>
-        <tr r="M70" s="6"/>
-        <tr r="M75" s="6"/>
-        <tr r="Q65" s="6"/>
-        <tr r="K81" s="6"/>
-        <tr r="M67" s="6"/>
-        <tr r="S78" s="6"/>
-        <tr r="I78" s="6"/>
-        <tr r="N67" s="6"/>
-        <tr r="H69" s="6"/>
-        <tr r="P79" s="6"/>
-        <tr r="N76" s="6"/>
-        <tr r="G62" s="6"/>
-        <tr r="N69" s="6"/>
-        <tr r="O70" s="6"/>
-        <tr r="N74" s="6"/>
-        <tr r="R80" s="6"/>
-        <tr r="Q68" s="6"/>
-        <tr r="I76" s="6"/>
-        <tr r="Q67" s="6"/>
-        <tr r="P68" s="6"/>
-        <tr r="L69" s="6"/>
-        <tr r="I77" s="6"/>
-        <tr r="G66" s="6"/>
-        <tr r="G69" s="6"/>
-        <tr r="P63" s="6"/>
-        <tr r="G70" s="6"/>
-        <tr r="M69" s="6"/>
-        <tr r="O71" s="6"/>
-        <tr r="S72" s="6"/>
-        <tr r="O62" s="6"/>
-        <tr r="K78" s="6"/>
-        <tr r="L63" s="6"/>
-        <tr r="H68" s="6"/>
-        <tr r="K67" s="6"/>
-        <tr r="K73" s="6"/>
-        <tr r="S63" s="6"/>
-        <tr r="I73" s="6"/>
-        <tr r="Q72" s="6"/>
-        <tr r="L64" s="6"/>
-        <tr r="N68" s="6"/>
-        <tr r="R64" s="6"/>
-        <tr r="S62" s="6"/>
-        <tr r="L73" s="6"/>
-        <tr r="F81" s="6"/>
-        <tr r="L77" s="6"/>
-        <tr r="E63" s="6"/>
-        <tr r="H63" s="6"/>
-        <tr r="M73" s="6"/>
-        <tr r="E71" s="6"/>
-        <tr r="K72" s="6"/>
-        <tr r="I74" s="6"/>
-        <tr r="G76" s="6"/>
-        <tr r="E75" s="6"/>
-        <tr r="O63" s="6"/>
-        <tr r="R63" s="6"/>
-        <tr r="F72" s="6"/>
-        <tr r="N65" s="6"/>
-        <tr r="I64" s="6"/>
-        <tr r="O76" s="6"/>
-        <tr r="R69" s="6"/>
-        <tr r="H79" s="6"/>
-        <tr r="O66" s="6"/>
-        <tr r="H81" s="6"/>
-        <tr r="R78" s="6"/>
-        <tr r="R67" s="6"/>
-        <tr r="K77" s="6"/>
-        <tr r="M71" s="6"/>
-        <tr r="M68" s="6"/>
-        <tr r="L67" s="6"/>
-        <tr r="R71" s="6"/>
-        <tr r="R68" s="6"/>
-        <tr r="Q74" s="6"/>
-        <tr r="J74" s="6"/>
-        <tr r="F65" s="6"/>
-        <tr r="L80" s="6"/>
-        <tr r="F75" s="6"/>
-        <tr r="Q63" s="6"/>
-        <tr r="H78" s="6"/>
-        <tr r="E62" s="6"/>
-        <tr r="F79" s="6"/>
-        <tr r="L76" s="6"/>
-        <tr r="R77" s="6"/>
-        <tr r="N78" s="6"/>
-        <tr r="J71" s="6"/>
-        <tr r="R81" s="6"/>
-        <tr r="G65" s="6"/>
-        <tr r="L66" s="6"/>
-        <tr r="I65" s="6"/>
-        <tr r="H80" s="6"/>
-        <tr r="I68" s="6"/>
-        <tr r="R75" s="6"/>
-        <tr r="F68" s="6"/>
-        <tr r="P67" s="6"/>
-        <tr r="F66" s="6"/>
-        <tr r="E78" s="6"/>
-        <tr r="P73" s="6"/>
-        <tr r="Q77" s="6"/>
-        <tr r="J68" s="6"/>
-        <tr r="L75" s="6"/>
-        <tr r="R74" s="6"/>
-        <tr r="G80" s="6"/>
-        <tr r="H71" s="6"/>
-        <tr r="I63" s="6"/>
-        <tr r="N64" s="6"/>
-        <tr r="J76" s="6"/>
-        <tr r="H72" s="6"/>
-        <tr r="O72" s="6"/>
-        <tr r="J64" s="6"/>
-        <tr r="J65" s="6"/>
-        <tr r="Q62" s="6"/>
-        <tr r="H64" s="6"/>
-        <tr r="P72" s="6"/>
-        <tr r="R73" s="6"/>
-        <tr r="H66" s="6"/>
-        <tr r="M78" s="6"/>
-        <tr r="I72" s="6"/>
-        <tr r="Q70" s="6"/>
-        <tr r="O79" s="6"/>
-        <tr r="O80" s="6"/>
-        <tr r="P69" s="6"/>
-        <tr r="P80" s="6"/>
-        <tr r="O77" s="6"/>
-        <tr r="M76" s="6"/>
-        <tr r="Q75" s="6"/>
-        <tr r="P76" s="6"/>
-        <tr r="P78" s="6"/>
-        <tr r="L65" s="6"/>
-        <tr r="S70" s="6"/>
-        <tr r="K76" s="6"/>
-        <tr r="I70" s="6"/>
-        <tr r="I67" s="6"/>
-        <tr r="N66" s="6"/>
-        <tr r="N63" s="6"/>
-        <tr r="N81" s="6"/>
-        <tr r="O68" s="6"/>
-        <tr r="Q66" s="6"/>
-        <tr r="M66" s="6"/>
-        <tr r="S73" s="6"/>
-        <tr r="E66" s="6"/>
-        <tr r="P75" s="6"/>
-        <tr r="O81" s="6"/>
-        <tr r="E64" s="6"/>
-        <tr r="J67" s="6"/>
-        <tr r="I71" s="6"/>
-        <tr r="S65" s="6"/>
-        <tr r="S80" s="6"/>
-        <tr r="N62" s="6"/>
-        <tr r="H67" s="6"/>
-        <tr r="L71" s="6"/>
-        <tr r="Q76" s="6"/>
-        <tr r="E69" s="6"/>
-        <tr r="N75" s="6"/>
-        <tr r="E77" s="6"/>
-        <tr r="S67" s="6"/>
-        <tr r="Q69" s="6"/>
-        <tr r="R76" s="6"/>
-        <tr r="O67" s="6"/>
-        <tr r="R72" s="6"/>
-        <tr r="H73" s="6"/>
-        <tr r="K62" s="6"/>
-        <tr r="F77" s="6"/>
-        <tr r="P62" s="6"/>
-        <tr r="N71" s="6"/>
-        <tr r="S79" s="6"/>
-        <tr r="R79" s="6"/>
-        <tr r="K80" s="6"/>
-        <tr r="K63" s="6"/>
-        <tr r="I69" s="6"/>
-        <tr r="I62" s="6"/>
-        <tr r="P66" s="6"/>
-        <tr r="G68" s="6"/>
-        <tr r="N79" s="6"/>
-        <tr r="I81" s="6"/>
-        <tr r="J70" s="6"/>
-        <tr r="H62" s="6"/>
-        <tr r="O73" s="6"/>
-        <tr r="L62" s="6"/>
-        <tr r="Q80" s="6"/>
-        <tr r="G75" s="6"/>
-        <tr r="S66" s="6"/>
-        <tr r="O74" s="6"/>
-        <tr r="G79" s="6"/>
-        <tr r="S69" s="6"/>
-        <tr r="F63" s="6"/>
-        <tr r="P64" s="6"/>
-        <tr r="J75" s="6"/>
-        <tr r="S76" s="6"/>
-        <tr r="M65" s="6"/>
-        <tr r="G74" s="6"/>
-        <tr r="G63" s="6"/>
-        <tr r="K64" s="6"/>
-        <tr r="O78" s="6"/>
-        <tr r="E72" s="6"/>
-        <tr r="J77" s="6"/>
-        <tr r="K79" s="6"/>
-        <tr r="G73" s="6"/>
-        <tr r="M63" s="6"/>
-        <tr r="E79" s="6"/>
-        <tr r="K71" s="6"/>
-        <tr r="M79" s="6"/>
-        <tr r="P71" s="6"/>
-        <tr r="F71" s="6"/>
-        <tr r="K66" s="6"/>
-        <tr r="F62" s="6"/>
-        <tr r="E74" s="6"/>
-        <tr r="J81" s="6"/>
-        <tr r="P74" s="6"/>
-        <tr r="I66" s="6"/>
-        <tr r="R65" s="6"/>
+        <stp>76faa1aa-248d-4821-9973-19e04fa8592d</stp>
+        <tr r="H34" s="5"/>
+        <tr r="I33" s="5"/>
+        <tr r="K33" s="5"/>
+        <tr r="H32" s="5"/>
+        <tr r="E29" s="5"/>
+        <tr r="M33" s="5"/>
+        <tr r="J35" s="5"/>
+        <tr r="I30" s="5"/>
+        <tr r="F30" s="5"/>
+        <tr r="G33" s="5"/>
+        <tr r="G30" s="5"/>
+        <tr r="G34" s="5"/>
+        <tr r="M29" s="5"/>
+        <tr r="E31" s="5"/>
+        <tr r="F29" s="5"/>
+        <tr r="E33" s="5"/>
+        <tr r="H31" s="5"/>
+        <tr r="G29" s="5"/>
+        <tr r="F32" s="5"/>
+        <tr r="L34" s="5"/>
+        <tr r="K34" s="5"/>
+        <tr r="M35" s="5"/>
+        <tr r="M31" s="5"/>
+        <tr r="G35" s="5"/>
+        <tr r="E32" s="5"/>
+        <tr r="L30" s="5"/>
+        <tr r="K30" s="5"/>
+        <tr r="I34" s="5"/>
+        <tr r="K32" s="5"/>
+        <tr r="G32" s="5"/>
+        <tr r="J31" s="5"/>
+        <tr r="H30" s="5"/>
+        <tr r="L32" s="5"/>
+        <tr r="K29" s="5"/>
+        <tr r="H35" s="5"/>
+        <tr r="M32" s="5"/>
+        <tr r="L33" s="5"/>
+        <tr r="E34" s="5"/>
+        <tr r="H33" s="5"/>
+        <tr r="M34" s="5"/>
+        <tr r="J33" s="5"/>
+        <tr r="H29" s="5"/>
+        <tr r="J34" s="5"/>
+        <tr r="I32" s="5"/>
+        <tr r="M30" s="5"/>
+        <tr r="L35" s="5"/>
+        <tr r="L29" s="5"/>
+        <tr r="J30" s="5"/>
+        <tr r="L31" s="5"/>
+        <tr r="K31" s="5"/>
+        <tr r="I35" s="5"/>
+        <tr r="K35" s="5"/>
+        <tr r="F33" s="5"/>
+        <tr r="F35" s="5"/>
+        <tr r="F34" s="5"/>
+        <tr r="F31" s="5"/>
+        <tr r="J32" s="5"/>
+        <tr r="I29" s="5"/>
+        <tr r="E35" s="5"/>
+        <tr r="I31" s="5"/>
+        <tr r="J29" s="5"/>
+        <tr r="E30" s="5"/>
+        <tr r="G31" s="5"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e6a90c06bc2a43c6af935351522bc97d">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>809e7cbb-c10d-47df-9a4c-140961a673be</stp>
+        <tr r="G36" s="8"/>
+        <tr r="I49" s="8"/>
+        <tr r="H40" s="8"/>
+        <tr r="G40" s="8"/>
+        <tr r="E48" s="8"/>
+        <tr r="I45" s="8"/>
+        <tr r="J34" s="8"/>
+        <tr r="J38" s="8"/>
+        <tr r="K44" s="8"/>
+        <tr r="I50" s="8"/>
+        <tr r="J51" s="8"/>
+        <tr r="I41" s="8"/>
+        <tr r="L32" s="8"/>
+        <tr r="H36" s="8"/>
+        <tr r="K48" s="8"/>
+        <tr r="I37" s="8"/>
+        <tr r="G45" s="8"/>
+        <tr r="L39" s="8"/>
+        <tr r="G49" s="8"/>
+        <tr r="H44" s="8"/>
+        <tr r="K34" s="8"/>
+        <tr r="L43" s="8"/>
+        <tr r="J42" s="8"/>
+        <tr r="J49" s="8"/>
+        <tr r="I47" s="8"/>
+        <tr r="K33" s="8"/>
+        <tr r="I32" s="8"/>
+        <tr r="H31" s="8"/>
+        <tr r="J50" s="8"/>
+        <tr r="E37" s="8"/>
+        <tr r="L45" s="8"/>
+        <tr r="G44" s="8"/>
+        <tr r="L33" s="8"/>
+        <tr r="G41" s="8"/>
+        <tr r="J33" s="8"/>
+        <tr r="E34" s="8"/>
+        <tr r="H38" s="8"/>
+        <tr r="H41" s="8"/>
+        <tr r="J40" s="8"/>
+        <tr r="L35" s="8"/>
+        <tr r="E42" s="8"/>
+        <tr r="L49" s="8"/>
+        <tr r="G39" s="8"/>
+        <tr r="L34" s="8"/>
+        <tr r="G50" s="8"/>
+        <tr r="G48" s="8"/>
+        <tr r="I34" s="8"/>
+        <tr r="G51" s="8"/>
+        <tr r="G31" s="8"/>
+        <tr r="G46" s="8"/>
+        <tr r="G34" s="8"/>
+        <tr r="K51" s="8"/>
+        <tr r="K41" s="8"/>
+        <tr r="F39" s="8"/>
+        <tr r="E50" s="8"/>
+        <tr r="F50" s="8"/>
+        <tr r="I42" s="8"/>
+        <tr r="F49" s="8"/>
+        <tr r="E33" s="8"/>
+        <tr r="I51" s="8"/>
+        <tr r="E40" s="8"/>
+        <tr r="I39" s="8"/>
+        <tr r="K47" s="8"/>
+        <tr r="G32" s="8"/>
+        <tr r="H51" s="8"/>
+        <tr r="H39" s="8"/>
+        <tr r="E36" s="8"/>
+        <tr r="G47" s="8"/>
+        <tr r="J48" s="8"/>
+        <tr r="H50" s="8"/>
+        <tr r="J46" s="8"/>
+        <tr r="L37" s="8"/>
+        <tr r="H32" s="8"/>
+        <tr r="E32" s="8"/>
+        <tr r="F40" s="8"/>
+        <tr r="H37" s="8"/>
+        <tr r="J35" s="8"/>
+        <tr r="F34" s="8"/>
+        <tr r="G33" s="8"/>
+        <tr r="H47" s="8"/>
+        <tr r="L48" s="8"/>
+        <tr r="L40" s="8"/>
+        <tr r="E43" s="8"/>
+        <tr r="L46" s="8"/>
+        <tr r="E46" s="8"/>
+        <tr r="E31" s="8"/>
+        <tr r="H48" s="8"/>
+        <tr r="K31" s="8"/>
+        <tr r="L38" s="8"/>
+        <tr r="E35" s="8"/>
+        <tr r="I38" s="8"/>
+        <tr r="J44" s="8"/>
+        <tr r="K35" s="8"/>
+        <tr r="K49" s="8"/>
+        <tr r="I36" s="8"/>
+        <tr r="F47" s="8"/>
+        <tr r="J43" s="8"/>
+        <tr r="E38" s="8"/>
+        <tr r="J47" s="8"/>
+        <tr r="K32" s="8"/>
+        <tr r="K38" s="8"/>
+        <tr r="F38" s="8"/>
+        <tr r="F43" s="8"/>
+        <tr r="H33" s="8"/>
+        <tr r="G38" s="8"/>
+        <tr r="K46" s="8"/>
+        <tr r="F45" s="8"/>
+        <tr r="L41" s="8"/>
+        <tr r="H49" s="8"/>
+        <tr r="F35" s="8"/>
+        <tr r="G37" s="8"/>
+        <tr r="K39" s="8"/>
+        <tr r="F48" s="8"/>
+        <tr r="E41" s="8"/>
+        <tr r="E44" s="8"/>
+        <tr r="L51" s="8"/>
+        <tr r="E49" s="8"/>
+        <tr r="H45" s="8"/>
+        <tr r="L36" s="8"/>
+        <tr r="J31" s="8"/>
+        <tr r="H34" s="8"/>
+        <tr r="J45" s="8"/>
+        <tr r="L31" s="8"/>
+        <tr r="E45" s="8"/>
+        <tr r="F31" s="8"/>
+        <tr r="L47" s="8"/>
+        <tr r="F44" s="8"/>
+        <tr r="E39" s="8"/>
+        <tr r="I33" s="8"/>
+        <tr r="H42" s="8"/>
+        <tr r="I31" s="8"/>
+        <tr r="I35" s="8"/>
+        <tr r="E47" s="8"/>
+        <tr r="I48" s="8"/>
+        <tr r="K50" s="8"/>
+        <tr r="F51" s="8"/>
+        <tr r="H35" s="8"/>
+        <tr r="H46" s="8"/>
+        <tr r="K40" s="8"/>
+        <tr r="I43" s="8"/>
+        <tr r="F46" s="8"/>
+        <tr r="F36" s="8"/>
+        <tr r="L50" s="8"/>
+        <tr r="I44" s="8"/>
+        <tr r="G43" s="8"/>
+        <tr r="J41" s="8"/>
+        <tr r="F32" s="8"/>
+        <tr r="H43" s="8"/>
+        <tr r="J39" s="8"/>
+        <tr r="K45" s="8"/>
+        <tr r="F33" s="8"/>
+        <tr r="G35" s="8"/>
+        <tr r="K43" s="8"/>
+        <tr r="K36" s="8"/>
+        <tr r="J37" s="8"/>
+        <tr r="E51" s="8"/>
+        <tr r="G42" s="8"/>
+        <tr r="J36" s="8"/>
+        <tr r="K42" s="8"/>
+        <tr r="J32" s="8"/>
+        <tr r="F42" s="8"/>
+        <tr r="K37" s="8"/>
+        <tr r="I46" s="8"/>
+        <tr r="L44" s="8"/>
+        <tr r="I40" s="8"/>
+        <tr r="L42" s="8"/>
+        <tr r="F41" s="8"/>
+        <tr r="F37" s="8"/>
       </tp>
     </main>
   </volType>
@@ -4194,8 +4360,8 @@
       <xdr:rowOff>61010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>751419</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>392832</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>37876</xdr:rowOff>
     </xdr:to>
@@ -4750,9 +4916,7 @@
   </sheetPr>
   <dimension ref="B1:T31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6700,7 +6864,7 @@
   <dimension ref="B1:N69"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H55" sqref="A55:H55"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10378,8 +10542,8 @@
   </sheetPr>
   <dimension ref="B1:S52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K39" sqref="I39:K39"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10658,7 +10822,7 @@
         <v>203</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>204</v>
@@ -10905,25 +11069,25 @@
         <v>1</v>
       </c>
       <c r="E32" s="16" t="str">
-        <v>LUID_GLIJZG4R</v>
+        <v>LUID_P51ADRAW</v>
       </c>
       <c r="F32" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G32" s="50">
-        <v>12000781</v>
+        <v>82867.647058823524</v>
       </c>
       <c r="H32" s="52">
-        <v>12000781</v>
+        <v>82867.647058823524</v>
       </c>
       <c r="I32" s="52">
-        <v>2390878783.54</v>
+        <v>238244.49</v>
       </c>
       <c r="J32" s="28" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="K32" s="51">
-        <v>1822715424</v>
+        <v>231437.5</v>
       </c>
       <c r="L32" s="51" t="str">
         <v>[More...]</v>
@@ -10933,13 +11097,13 @@
         <v>Active</v>
       </c>
       <c r="O32" s="75" t="str">
-        <v>LUID_GLIJZG4R</v>
+        <v>LUID_P51ADRAW</v>
       </c>
       <c r="P32" s="51" t="str">
-        <v>Apple</v>
+        <v>LEGAL&amp;GEN.</v>
       </c>
       <c r="Q32" s="51" t="str">
-        <v>BBG000B9XRY4</v>
+        <v>BBG000BDQBV1</v>
       </c>
       <c r="R32" s="51">
         <v>0</v>
@@ -10952,25 +11116,25 @@
         <v>2</v>
       </c>
       <c r="E33" s="15" t="str">
-        <v>LUID_8F8Y9YAF</v>
+        <v>LUID_2QQAUIKO</v>
       </c>
       <c r="F33" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G33" s="50">
-        <v>8390273.5294117648</v>
+        <v>67364.705882352951</v>
       </c>
       <c r="H33" s="52">
-        <v>8390273.5294117648</v>
+        <v>67364.705882352951</v>
       </c>
       <c r="I33" s="52">
-        <v>1329858354.4100001</v>
+        <v>179190.12</v>
       </c>
       <c r="J33" s="28" t="str">
-        <v>EUR</v>
+        <v>GBP</v>
       </c>
       <c r="K33" s="51">
-        <v>1146538515.6600001</v>
+        <v>174070.39999999999</v>
       </c>
       <c r="L33" s="51" t="str">
         <v>[More...]</v>
@@ -10980,13 +11144,13 @@
         <v>Active</v>
       </c>
       <c r="O33" s="75" t="str">
-        <v>LUID_8F8Y9YAF</v>
+        <v>LUID_2QQAUIKO</v>
       </c>
       <c r="P33" s="51" t="str">
-        <v>Volkswagen</v>
+        <v>MARKS &amp; SP.</v>
       </c>
       <c r="Q33" s="51" t="str">
-        <v>BBG000BCH458</v>
+        <v>BBG000BDTRH9</v>
       </c>
       <c r="R33" s="51">
         <v>0</v>
@@ -11000,25 +11164,25 @@
         <v>3</v>
       </c>
       <c r="E34" s="15" t="str">
-        <v>LUID_1GWUAY54</v>
+        <v>LUID_RMTIB4MT</v>
       </c>
       <c r="F34" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G34" s="50">
-        <v>10986582.352941176</v>
+        <v>51470.588235294119</v>
       </c>
       <c r="H34" s="52">
-        <v>10986582.352941176</v>
+        <v>51470.588235294119</v>
       </c>
       <c r="I34" s="52">
-        <v>71971057729</v>
+        <v>97613.97</v>
       </c>
       <c r="J34" s="28" t="str">
-        <v>JPY</v>
+        <v>GBP</v>
       </c>
       <c r="K34" s="51">
-        <v>489629528.97000003</v>
+        <v>94825</v>
       </c>
       <c r="L34" s="51" t="str">
         <v>[More...]</v>
@@ -11028,13 +11192,13 @@
         <v>Active</v>
       </c>
       <c r="O34" s="75" t="str">
-        <v>LUID_1GWUAY54</v>
+        <v>LUID_RMTIB4MT</v>
       </c>
       <c r="P34" s="51" t="str">
-        <v>Toyota Motor</v>
+        <v>TAYLOR WIMPEY</v>
       </c>
       <c r="Q34" s="51" t="str">
-        <v>BBG000BCM915</v>
+        <v>BBG000BF4HM7</v>
       </c>
       <c r="R34" s="51">
         <v>0</v>
@@ -11048,25 +11212,25 @@
         <v>4</v>
       </c>
       <c r="E35" s="15" t="str">
-        <v>LUID_QUL3RUG6</v>
+        <v>LUID_0GHU6DD4</v>
       </c>
       <c r="F35" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G35" s="50">
-        <v>-8191470.5882352944</v>
+        <v>8000</v>
       </c>
       <c r="H35" s="52">
-        <v>-8191470.5882352944</v>
+        <v>8000</v>
       </c>
       <c r="I35" s="52">
-        <v>-1092849358.8199999</v>
+        <v>386800</v>
       </c>
       <c r="J35" s="28" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="K35" s="51">
-        <v>-822451808.32000005</v>
+        <v>386800</v>
       </c>
       <c r="L35" s="51" t="str">
         <v>[More...]</v>
@@ -11076,13 +11240,13 @@
         <v>Active</v>
       </c>
       <c r="O35" s="75" t="str">
-        <v>LUID_QUL3RUG6</v>
+        <v>LUID_0GHU6DD4</v>
       </c>
       <c r="P35" s="51" t="str">
-        <v>Walt Disney</v>
+        <v>WHITBREAD</v>
       </c>
       <c r="Q35" s="51" t="str">
-        <v>BBG000BH4R78</v>
+        <v>BBG000BRVG61</v>
       </c>
       <c r="R35" s="51">
         <v>0</v>
@@ -11096,25 +11260,25 @@
         <v>5</v>
       </c>
       <c r="E36" s="15" t="str">
-        <v>LUID_08HCN078</v>
+        <v>LUID_14R6XKE5</v>
       </c>
       <c r="F36" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G36" s="50">
-        <v>10859705.882352941</v>
+        <v>19897.058823529413</v>
       </c>
       <c r="H36" s="52">
-        <v>10859705.882352941</v>
+        <v>19897.058823529413</v>
       </c>
       <c r="I36" s="52">
-        <v>1314567397.0599999</v>
+        <v>130504.81</v>
       </c>
       <c r="J36" s="28" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="K36" s="51">
-        <v>1002226183.52</v>
+        <v>130504.81</v>
       </c>
       <c r="L36" s="51" t="str">
         <v>[More...]</v>
@@ -11124,13 +11288,13 @@
         <v>Active</v>
       </c>
       <c r="O36" s="75" t="str">
-        <v>LUID_08HCN078</v>
+        <v>LUID_14R6XKE5</v>
       </c>
       <c r="P36" s="51" t="str">
-        <v>Microsoft</v>
+        <v>HSBC Holdings</v>
       </c>
       <c r="Q36" s="51" t="str">
-        <v>BBG000BPH459</v>
+        <v>BBG000BS1MT4</v>
       </c>
       <c r="R36" s="51">
         <v>0</v>
@@ -11144,25 +11308,25 @@
         <v>6</v>
       </c>
       <c r="E37" s="15" t="str">
-        <v>LUID_14R6XKE5</v>
+        <v>LUID_AUZOX8G4</v>
       </c>
       <c r="F37" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G37" s="50">
-        <v>474117.6470588235</v>
+        <v>12132.35294117647</v>
       </c>
       <c r="H37" s="52">
-        <v>474117.6470588235</v>
+        <v>12132.35294117647</v>
       </c>
       <c r="I37" s="52">
-        <v>310973764.70999998</v>
+        <v>69142.28</v>
       </c>
       <c r="J37" s="28" t="str">
         <v>GBP</v>
       </c>
       <c r="K37" s="51">
-        <v>310973764.70999998</v>
+        <v>69142.28</v>
       </c>
       <c r="L37" s="51" t="str">
         <v>[More...]</v>
@@ -11172,13 +11336,13 @@
         <v>Active</v>
       </c>
       <c r="O37" s="75" t="str">
-        <v>LUID_14R6XKE5</v>
+        <v>LUID_AUZOX8G4</v>
       </c>
       <c r="P37" s="51" t="str">
-        <v>HSBC Holdings</v>
+        <v>BP</v>
       </c>
       <c r="Q37" s="51" t="str">
-        <v>BBG000BS1MT4</v>
+        <v>BBG000C059M6</v>
       </c>
       <c r="R37" s="51">
         <v>0</v>
@@ -11192,25 +11356,25 @@
         <v>7</v>
       </c>
       <c r="E38" s="15" t="str">
-        <v>LUID_AUZOX8G4</v>
+        <v>LUID_B69SIVD5</v>
       </c>
       <c r="F38" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G38" s="50">
-        <v>2937647.0588235296</v>
+        <v>92632.941176470587</v>
       </c>
       <c r="H38" s="52">
-        <v>2937647.0588235296</v>
+        <v>92632.941176470587</v>
       </c>
       <c r="I38" s="52">
-        <v>1390072117.6500001</v>
+        <v>5552418.4900000002</v>
       </c>
       <c r="J38" s="28" t="str">
         <v>GBP</v>
       </c>
       <c r="K38" s="51">
-        <v>1322168000</v>
+        <v>5552418.4900000002</v>
       </c>
       <c r="L38" s="51" t="str">
         <v>[More...]</v>
@@ -11220,13 +11384,13 @@
         <v>Active</v>
       </c>
       <c r="O38" s="75" t="str">
-        <v>LUID_AUZOX8G4</v>
+        <v>LUID_B69SIVD5</v>
       </c>
       <c r="P38" s="51" t="str">
-        <v>BP</v>
+        <v>ASTRAZENECA</v>
       </c>
       <c r="Q38" s="51" t="str">
-        <v>BBG000C059M6</v>
+        <v>BBG000C0YGB0</v>
       </c>
       <c r="R38" s="51">
         <v>0</v>
@@ -11240,25 +11404,25 @@
         <v>8</v>
       </c>
       <c r="E39" s="15" t="str">
-        <v>LUID_UWD2WF3J</v>
+        <v>LUID_NJKL7IL7</v>
       </c>
       <c r="F39" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G39" s="50">
-        <v>8300000</v>
+        <v>53430.882352941175</v>
       </c>
       <c r="H39" s="52">
-        <v>8300000</v>
+        <v>53430.882352941175</v>
       </c>
       <c r="I39" s="52">
-        <v>98147500000</v>
+        <v>2585520.4</v>
       </c>
       <c r="J39" s="28" t="str">
-        <v>JPY</v>
+        <v>GBP</v>
       </c>
       <c r="K39" s="51">
-        <v>668044384.09000003</v>
+        <v>2585520.4</v>
       </c>
       <c r="L39" s="51" t="str">
         <v>[More...]</v>
@@ -11268,13 +11432,13 @@
         <v>Active</v>
       </c>
       <c r="O39" s="75" t="str">
-        <v>LUID_UWD2WF3J</v>
+        <v>LUID_NJKL7IL7</v>
       </c>
       <c r="P39" s="51" t="str">
-        <v>Softbank</v>
+        <v>INTERCON. HOTEL</v>
       </c>
       <c r="Q39" s="51" t="str">
-        <v>BBG000CLY2D3</v>
+        <v>BBG000C2C436</v>
       </c>
       <c r="R39" s="51">
         <v>0</v>
@@ -11288,25 +11452,25 @@
         <v>9</v>
       </c>
       <c r="E40" s="15" t="str">
-        <v>LUID_BTHCLT3V</v>
+        <v>LUID_M4K3HG7R</v>
       </c>
       <c r="F40" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G40" s="50">
-        <v>21352941.176470589</v>
+        <v>120000</v>
       </c>
       <c r="H40" s="52">
-        <v>21352941.176470589</v>
+        <v>120000</v>
       </c>
       <c r="I40" s="52">
-        <v>2379056470.5900002</v>
+        <v>171000</v>
       </c>
       <c r="J40" s="28" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="K40" s="51">
-        <v>1760183376</v>
+        <v>171000</v>
       </c>
       <c r="L40" s="51" t="str">
         <v>[More...]</v>
@@ -11316,13 +11480,13 @@
         <v>Active</v>
       </c>
       <c r="O40" s="75" t="str">
-        <v>LUID_BTHCLT3V</v>
+        <v>LUID_M4K3HG7R</v>
       </c>
       <c r="P40" s="51" t="str">
-        <v>JPMorgan Chase</v>
+        <v>VODAFONE GRP.</v>
       </c>
       <c r="Q40" s="51" t="str">
-        <v>BBG000DMBXR2</v>
+        <v>BBG000C6K5W3</v>
       </c>
       <c r="R40" s="51">
         <v>0</v>
@@ -11336,25 +11500,25 @@
         <v>10</v>
       </c>
       <c r="E41" s="15" t="str">
-        <v>LUID_C3GLNXZJ</v>
+        <v>LUID_3YNQOQT2</v>
       </c>
       <c r="F41" s="16" t="str">
         <v>P</v>
       </c>
       <c r="G41" s="50">
-        <v>15568235.294117648</v>
+        <v>36029.411764705881</v>
       </c>
       <c r="H41" s="52">
-        <v>15568235.294117648</v>
+        <v>36029.411764705881</v>
       </c>
       <c r="I41" s="52">
-        <v>1257652294.1199999</v>
+        <v>295585.28999999998</v>
       </c>
       <c r="J41" s="28" t="str">
-        <v>EUR</v>
+        <v>GBP</v>
       </c>
       <c r="K41" s="51">
-        <v>1050759285.3099999</v>
+        <v>287140</v>
       </c>
       <c r="L41" s="51" t="str">
         <v>[More...]</v>
@@ -11364,13 +11528,13 @@
         <v>Active</v>
       </c>
       <c r="O41" s="75" t="str">
-        <v>LUID_C3GLNXZJ</v>
+        <v>LUID_3YNQOQT2</v>
       </c>
       <c r="P41" s="51" t="str">
-        <v>Anheuser-Busch InBev</v>
+        <v>NATIONAL GRID</v>
       </c>
       <c r="Q41" s="51" t="str">
-        <v>BBG00DQ4YZ36</v>
+        <v>BBG000FV67D8</v>
       </c>
       <c r="R41" s="51">
         <v>0</v>
@@ -11383,22 +11547,22 @@
         <v>11</v>
       </c>
       <c r="E42" s="15" t="str">
-        <v>CCY_USD</v>
+        <v>CCY_GBP</v>
       </c>
       <c r="F42" s="80" t="str">
         <v>B</v>
       </c>
       <c r="G42" s="78">
-        <v>-24661082.910588227</v>
+        <v>229493.15294117646</v>
       </c>
       <c r="H42" s="52">
-        <v>-24661082.910588227</v>
+        <v>229493.15294117646</v>
       </c>
       <c r="I42" s="52">
-        <v>-24661082.91</v>
+        <v>229493.15</v>
       </c>
       <c r="J42" s="75" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="K42" s="51">
         <v>0</v>
@@ -11411,16 +11575,16 @@
         <v>Active</v>
       </c>
       <c r="O42" s="75" t="str">
-        <v>CCY_USD</v>
+        <v>CCY_GBP</v>
       </c>
       <c r="P42" s="51" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="Q42" s="51">
         <v>0</v>
       </c>
       <c r="R42" s="51" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.45">
@@ -11430,28 +11594,28 @@
         <v>12</v>
       </c>
       <c r="E43" s="15" t="str">
-        <v>CCY_GBP</v>
+        <v/>
       </c>
       <c r="F43" s="80" t="str">
-        <v>B</v>
-      </c>
-      <c r="G43" s="78">
-        <v>-27346764.705882356</v>
-      </c>
-      <c r="H43" s="52">
-        <v>-27346764.705882356</v>
-      </c>
-      <c r="I43" s="52">
-        <v>-27346764.710000001</v>
+        <v/>
+      </c>
+      <c r="G43" s="78" t="str">
+        <v/>
+      </c>
+      <c r="H43" s="52" t="str">
+        <v/>
+      </c>
+      <c r="I43" s="52" t="str">
+        <v/>
       </c>
       <c r="J43" s="75" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="K43" s="51">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="K43" s="51" t="str">
+        <v/>
       </c>
       <c r="L43" s="51" t="str">
-        <v>[More...]</v>
+        <v/>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="52" t="str">
@@ -11476,28 +11640,28 @@
         <v>13</v>
       </c>
       <c r="E44" s="15" t="str">
-        <v>CCY_EUR</v>
+        <v/>
       </c>
       <c r="F44" s="80" t="str">
-        <v>B</v>
-      </c>
-      <c r="G44" s="78">
-        <v>2076854226.4705884</v>
-      </c>
-      <c r="H44" s="52">
-        <v>2076854226.4705884</v>
-      </c>
-      <c r="I44" s="52">
-        <v>2076854226.47</v>
+        <v/>
+      </c>
+      <c r="G44" s="78" t="str">
+        <v/>
+      </c>
+      <c r="H44" s="52" t="str">
+        <v/>
+      </c>
+      <c r="I44" s="52" t="str">
+        <v/>
       </c>
       <c r="J44" s="75" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="K44" s="51">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="K44" s="51" t="str">
+        <v/>
       </c>
       <c r="L44" s="51" t="str">
-        <v>[More...]</v>
+        <v/>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="52" t="str">
@@ -11522,28 +11686,28 @@
         <v>14</v>
       </c>
       <c r="E45" s="15" t="str">
-        <v>CCY_JPY</v>
+        <v/>
       </c>
       <c r="F45" s="80" t="str">
-        <v>B</v>
-      </c>
-      <c r="G45" s="78">
-        <v>-35846029.411764704</v>
-      </c>
-      <c r="H45" s="52">
-        <v>-35846029.411764704</v>
-      </c>
-      <c r="I45" s="52">
-        <v>-35846029</v>
+        <v/>
+      </c>
+      <c r="G45" s="78" t="str">
+        <v/>
+      </c>
+      <c r="H45" s="52" t="str">
+        <v/>
+      </c>
+      <c r="I45" s="52" t="str">
+        <v/>
       </c>
       <c r="J45" s="75" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="K45" s="51">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="K45" s="51" t="str">
+        <v/>
       </c>
       <c r="L45" s="51" t="str">
-        <v>[More...]</v>
+        <v/>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="52" t="str">
@@ -11886,8 +12050,8 @@
   </sheetPr>
   <dimension ref="B1:P84"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" topLeftCell="B44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13602,11 +13766,9 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:Q99"/>
+  <dimension ref="B1:Q170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -13619,12 +13781,12 @@
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="18.86328125" customWidth="1"/>
     <col min="10" max="10" width="23.265625" customWidth="1"/>
-    <col min="11" max="11" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.1328125" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.06640625" customWidth="1"/>
+    <col min="13" max="13" width="12.265625" customWidth="1"/>
     <col min="14" max="14" width="13.86328125" customWidth="1"/>
-    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.86328125" customWidth="1"/>
+    <col min="15" max="15" width="9.3984375" customWidth="1"/>
+    <col min="16" max="16" width="15.265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9.265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -14245,9 +14407,9 @@
         <v>270</v>
       </c>
       <c r="J35" s="93"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
       <c r="N35" s="2"/>
       <c r="O35" s="36"/>
       <c r="P35" s="53"/>
@@ -14268,9 +14430,9 @@
       <c r="H36" s="2"/>
       <c r="I36" s="29"/>
       <c r="J36" s="93"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
       <c r="N36" s="2"/>
       <c r="O36" s="36"/>
       <c r="P36" s="53"/>
@@ -14291,9 +14453,9 @@
       <c r="H37" s="2"/>
       <c r="I37" s="29"/>
       <c r="J37" s="93"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
       <c r="N37" s="2"/>
       <c r="O37" s="36"/>
       <c r="P37" s="53"/>
@@ -14314,9 +14476,9 @@
       <c r="H38" s="2"/>
       <c r="I38" s="29"/>
       <c r="J38" s="93"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
       <c r="N38" s="2"/>
       <c r="O38" s="36"/>
       <c r="P38" s="53"/>
@@ -14337,9 +14499,9 @@
       <c r="H39" s="2"/>
       <c r="I39" s="29"/>
       <c r="J39" s="93"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
       <c r="N39" s="2"/>
       <c r="O39" s="36"/>
       <c r="P39" s="53"/>
@@ -14354,9 +14516,9 @@
       <c r="H40" s="2"/>
       <c r="I40" s="29"/>
       <c r="J40" s="93"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="M40" s="94"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
       <c r="N40" s="2"/>
       <c r="O40" s="36"/>
       <c r="P40" s="53"/>
@@ -14371,9 +14533,9 @@
       <c r="H41" s="2"/>
       <c r="I41" s="29"/>
       <c r="J41" s="93"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
       <c r="N41" s="2"/>
       <c r="O41" s="36"/>
       <c r="P41" s="53"/>
@@ -14388,9 +14550,9 @@
       <c r="H42" s="2"/>
       <c r="I42" s="29"/>
       <c r="J42" s="93"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
       <c r="N42" s="2"/>
       <c r="O42" s="36"/>
       <c r="P42" s="53"/>
@@ -14698,9 +14860,9 @@
         <v>270</v>
       </c>
       <c r="J54" s="93"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="95"/>
       <c r="N54" s="2"/>
       <c r="O54" s="36"/>
       <c r="P54" s="53"/>
@@ -14724,9 +14886,9 @@
       </c>
       <c r="I55" s="29"/>
       <c r="J55" s="93"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="95"/>
+      <c r="M55" s="95"/>
       <c r="N55" s="2"/>
       <c r="O55" s="36"/>
       <c r="P55" s="53"/>
@@ -14750,9 +14912,9 @@
       </c>
       <c r="I56" s="29"/>
       <c r="J56" s="93"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
-      <c r="M56" s="94"/>
+      <c r="K56" s="95"/>
+      <c r="L56" s="95"/>
+      <c r="M56" s="95"/>
       <c r="N56" s="2"/>
       <c r="O56" s="36"/>
       <c r="P56" s="53"/>
@@ -14776,9 +14938,9 @@
       </c>
       <c r="I57" s="29"/>
       <c r="J57" s="93"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="94"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="95"/>
       <c r="N57" s="2"/>
       <c r="O57" s="36"/>
       <c r="P57" s="53"/>
@@ -14799,9 +14961,9 @@
       <c r="H58" s="71"/>
       <c r="I58" s="29"/>
       <c r="J58" s="93"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="94"/>
-      <c r="M58" s="94"/>
+      <c r="K58" s="95"/>
+      <c r="L58" s="95"/>
+      <c r="M58" s="95"/>
       <c r="N58" s="2"/>
       <c r="O58" s="36"/>
       <c r="P58" s="53"/>
@@ -14816,9 +14978,9 @@
       <c r="H59" s="71"/>
       <c r="I59" s="29"/>
       <c r="J59" s="93"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="94"/>
-      <c r="M59" s="94"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="95"/>
       <c r="N59" s="2"/>
       <c r="O59" s="36"/>
       <c r="P59" s="53"/>
@@ -14833,9 +14995,9 @@
       <c r="H60" s="71"/>
       <c r="I60" s="29"/>
       <c r="J60" s="93"/>
-      <c r="K60" s="94"/>
-      <c r="L60" s="94"/>
-      <c r="M60" s="94"/>
+      <c r="K60" s="95"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="95"/>
       <c r="N60" s="2"/>
       <c r="O60" s="36"/>
       <c r="P60" s="53"/>
@@ -14850,9 +15012,9 @@
       <c r="H61" s="71"/>
       <c r="I61" s="29"/>
       <c r="J61" s="93"/>
-      <c r="K61" s="94"/>
-      <c r="L61" s="94"/>
-      <c r="M61" s="94"/>
+      <c r="K61" s="95"/>
+      <c r="L61" s="95"/>
+      <c r="M61" s="95"/>
       <c r="N61" s="2"/>
       <c r="O61" s="36"/>
       <c r="P61" s="53"/>
@@ -15164,9 +15326,9 @@
         <v>270</v>
       </c>
       <c r="K73" s="93"/>
-      <c r="L73" s="94"/>
-      <c r="M73" s="94"/>
-      <c r="N73" s="94"/>
+      <c r="L73" s="95"/>
+      <c r="M73" s="95"/>
+      <c r="N73" s="95"/>
       <c r="O73" s="2"/>
       <c r="P73" s="36"/>
       <c r="Q73" s="53"/>
@@ -15190,9 +15352,9 @@
       <c r="I74" s="2"/>
       <c r="J74" s="29"/>
       <c r="K74" s="93"/>
-      <c r="L74" s="94"/>
-      <c r="M74" s="94"/>
-      <c r="N74" s="94"/>
+      <c r="L74" s="95"/>
+      <c r="M74" s="95"/>
+      <c r="N74" s="95"/>
       <c r="O74" s="2"/>
       <c r="P74" s="36"/>
       <c r="Q74" s="53"/>
@@ -15216,9 +15378,9 @@
       <c r="I75" s="2"/>
       <c r="J75" s="29"/>
       <c r="K75" s="93"/>
-      <c r="L75" s="94"/>
-      <c r="M75" s="94"/>
-      <c r="N75" s="94"/>
+      <c r="L75" s="95"/>
+      <c r="M75" s="95"/>
+      <c r="N75" s="95"/>
       <c r="O75" s="2"/>
       <c r="P75" s="36"/>
       <c r="Q75" s="53"/>
@@ -15242,9 +15404,9 @@
       <c r="I76" s="2"/>
       <c r="J76" s="29"/>
       <c r="K76" s="93"/>
-      <c r="L76" s="94"/>
-      <c r="M76" s="94"/>
-      <c r="N76" s="94"/>
+      <c r="L76" s="95"/>
+      <c r="M76" s="95"/>
+      <c r="N76" s="95"/>
       <c r="O76" s="2"/>
       <c r="P76" s="36"/>
       <c r="Q76" s="53"/>
@@ -15268,9 +15430,9 @@
       <c r="I77" s="2"/>
       <c r="J77" s="29"/>
       <c r="K77" s="93"/>
-      <c r="L77" s="94"/>
-      <c r="M77" s="94"/>
-      <c r="N77" s="94"/>
+      <c r="L77" s="95"/>
+      <c r="M77" s="95"/>
+      <c r="N77" s="95"/>
       <c r="O77" s="2"/>
       <c r="P77" s="36"/>
       <c r="Q77" s="53"/>
@@ -15286,9 +15448,9 @@
       <c r="I78" s="2"/>
       <c r="J78" s="29"/>
       <c r="K78" s="93"/>
-      <c r="L78" s="94"/>
-      <c r="M78" s="94"/>
-      <c r="N78" s="94"/>
+      <c r="L78" s="95"/>
+      <c r="M78" s="95"/>
+      <c r="N78" s="95"/>
       <c r="O78" s="2"/>
       <c r="P78" s="36"/>
       <c r="Q78" s="53"/>
@@ -15304,9 +15466,9 @@
       <c r="I79" s="2"/>
       <c r="J79" s="29"/>
       <c r="K79" s="93"/>
-      <c r="L79" s="94"/>
-      <c r="M79" s="94"/>
-      <c r="N79" s="94"/>
+      <c r="L79" s="95"/>
+      <c r="M79" s="95"/>
+      <c r="N79" s="95"/>
       <c r="O79" s="2"/>
       <c r="P79" s="36"/>
       <c r="Q79" s="53"/>
@@ -15322,9 +15484,9 @@
       <c r="I80" s="2"/>
       <c r="J80" s="29"/>
       <c r="K80" s="93"/>
-      <c r="L80" s="94"/>
-      <c r="M80" s="94"/>
-      <c r="N80" s="94"/>
+      <c r="L80" s="95"/>
+      <c r="M80" s="95"/>
+      <c r="N80" s="95"/>
       <c r="O80" s="2"/>
       <c r="P80" s="36"/>
       <c r="Q80" s="53"/>
@@ -15437,7 +15599,7 @@
     <row r="88" spans="2:17" ht="21" x14ac:dyDescent="0.65">
       <c r="B88" s="2"/>
       <c r="C88" s="13" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="2"/>
@@ -15508,9 +15670,7 @@
       <c r="F92" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>194</v>
-      </c>
+      <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -15576,7 +15736,7 @@
         <v>219</v>
       </c>
       <c r="F96" s="41">
-        <v>43831</v>
+        <v>43925</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -15631,12 +15791,1341 @@
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
     </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="2:14" ht="21" x14ac:dyDescent="0.65">
+      <c r="B102" s="2"/>
+      <c r="C102" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="K103" s="45"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="66" t="str">
+        <f t="array" ref="E104:G127">_xll.flAggregatePortfolioGroup(F92,F94,I104:J110,J111)</f>
+        <v>PVSum</v>
+      </c>
+      <c r="F104" s="66" t="str">
+        <v>PVProportion</v>
+      </c>
+      <c r="G104" s="64" t="str">
+        <v>Name</v>
+      </c>
+      <c r="H104" s="2"/>
+      <c r="I104" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="J104" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="K104" s="73"/>
+      <c r="L104" s="73"/>
+      <c r="M104" s="73"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B105" s="12"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="69">
+        <v>-684446691.17647064</v>
+      </c>
+      <c r="F105" s="70">
+        <v>-1.1746164773398389E-2</v>
+      </c>
+      <c r="G105" s="71" t="str">
+        <v>T 7.125% Feb 15, 2023</v>
+      </c>
+      <c r="H105" s="2"/>
+      <c r="I105" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="J105" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="K105" s="56"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="56"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B106" s="12"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="69">
+        <v>873802389.70588231</v>
+      </c>
+      <c r="F106" s="70">
+        <v>1.4995801690899325E-2</v>
+      </c>
+      <c r="G106" s="71" t="str">
+        <v>T 2.25% Apr 30, 2021</v>
+      </c>
+      <c r="H106" s="2"/>
+      <c r="I106" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J106" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="K106" s="56"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="56"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B107" s="12"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="69">
+        <v>4597403492.6470585</v>
+      </c>
+      <c r="F107" s="70">
+        <v>7.8898560911453544E-2</v>
+      </c>
+      <c r="G107" s="71" t="str">
+        <v>T 2.375% Aug 15, 2024</v>
+      </c>
+      <c r="H107" s="2"/>
+      <c r="I107" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="J107" s="55">
+        <f>F96</f>
+        <v>43925</v>
+      </c>
+      <c r="K107" s="57"/>
+      <c r="L107" s="57"/>
+      <c r="M107" s="57"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B108" s="12"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="69">
+        <v>5254921875</v>
+      </c>
+      <c r="F108" s="70">
+        <v>9.0182594219264084E-2</v>
+      </c>
+      <c r="G108" s="71" t="str">
+        <v>T 2.25% Nov 15, 2024</v>
+      </c>
+      <c r="H108" s="2"/>
+      <c r="I108" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="J108" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="K108" s="56"/>
+      <c r="L108" s="56"/>
+      <c r="M108" s="56"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B109" s="12"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="69">
+        <v>2134067095.5882354</v>
+      </c>
+      <c r="F109" s="70">
+        <v>3.6623894987614307E-2</v>
+      </c>
+      <c r="G109" s="71" t="str">
+        <v>T 2% Feb 15, 2025</v>
+      </c>
+      <c r="H109" s="2"/>
+      <c r="I109" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="J109" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="K109" s="56"/>
+      <c r="L109" s="56"/>
+      <c r="M109" s="56"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B110" s="12"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="69">
+        <v>15320781250</v>
+      </c>
+      <c r="F110" s="70">
+        <v>0.26292832347595263</v>
+      </c>
+      <c r="G110" s="71" t="str">
+        <v>T 1.75% Feb 28, 2022</v>
+      </c>
+      <c r="H110" s="2"/>
+      <c r="I110" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J110" s="54"/>
+      <c r="K110" s="56"/>
+      <c r="L110" s="56"/>
+      <c r="M110" s="56"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B111" s="12"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="69">
+        <v>5734356617.6470585</v>
+      </c>
+      <c r="F111" s="70">
+        <v>9.8410436588615577E-2</v>
+      </c>
+      <c r="G111" s="71" t="str">
+        <v>T 2% Aug 15, 2025</v>
+      </c>
+      <c r="H111" s="2"/>
+      <c r="I111" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J111" s="93"/>
+      <c r="K111" s="95"/>
+      <c r="L111" s="95"/>
+      <c r="M111" s="95"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B112" s="12"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="69">
+        <v>7429687500</v>
+      </c>
+      <c r="F112" s="70">
+        <v>0.12750493897465195</v>
+      </c>
+      <c r="G112" s="71" t="str">
+        <v>T 1.875% Aug 31, 2022</v>
+      </c>
+      <c r="H112" s="2"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="93"/>
+      <c r="K112" s="95"/>
+      <c r="L112" s="95"/>
+      <c r="M112" s="95"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B113" s="12"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="69">
+        <v>-1474535845.5882354</v>
+      </c>
+      <c r="F113" s="70">
+        <v>-2.5305317754974858E-2</v>
+      </c>
+      <c r="G113" s="71" t="str">
+        <v>T 2.875% Nov 15, 2046</v>
+      </c>
+      <c r="H113" s="2"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="93"/>
+      <c r="K113" s="95"/>
+      <c r="L113" s="95"/>
+      <c r="M113" s="95"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B114" s="12"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="69">
+        <v>7629308823.5294113</v>
+      </c>
+      <c r="F114" s="70">
+        <v>0.13093074990878034</v>
+      </c>
+      <c r="G114" s="71" t="str">
+        <v>T 2.25% Feb 15, 2027</v>
+      </c>
+      <c r="H114" s="2"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="93"/>
+      <c r="K114" s="95"/>
+      <c r="L114" s="95"/>
+      <c r="M114" s="95"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B115" s="12"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="69">
+        <v>2141854.9406647547</v>
+      </c>
+      <c r="F115" s="70">
+        <v>3.6757546465045314E-5</v>
+      </c>
+      <c r="G115" s="71" t="str">
+        <v>USD</v>
+      </c>
+      <c r="H115" s="2"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="93"/>
+      <c r="K115" s="95"/>
+      <c r="L115" s="95"/>
+      <c r="M115" s="95"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B116" s="12"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="69">
+        <v>-692605516.54411769</v>
+      </c>
+      <c r="F116" s="70">
+        <v>-1.188618284691853E-2</v>
+      </c>
+      <c r="G116" s="71" t="str">
+        <v>GOLDMAN 6.75% Oct 01, 2037</v>
+      </c>
+      <c r="H116" s="2"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="93"/>
+      <c r="K116" s="95"/>
+      <c r="L116" s="95"/>
+      <c r="M116" s="95"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B117" s="12"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="69">
+        <v>-6441890000</v>
+      </c>
+      <c r="F117" s="70">
+        <v>-0.11055280472178954</v>
+      </c>
+      <c r="G117" s="71" t="str">
+        <v>APPLE 2.4% May 03, 2023</v>
+      </c>
+      <c r="H117" s="2"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="93"/>
+      <c r="K117" s="95"/>
+      <c r="L117" s="95"/>
+      <c r="M117" s="95"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B118" s="12"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="69">
+        <v>12514547500</v>
+      </c>
+      <c r="F118" s="70">
+        <v>0.21476900815584549</v>
+      </c>
+      <c r="G118" s="71" t="str">
+        <v>VERIZON 4.862% Aug 21, 2046</v>
+      </c>
+      <c r="H118" s="2"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="93"/>
+      <c r="K118" s="95"/>
+      <c r="L118" s="95"/>
+      <c r="M118" s="95"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="69">
+        <v>-2879227191.1764708</v>
+      </c>
+      <c r="F119" s="70">
+        <v>-4.9411995767670504E-2</v>
+      </c>
+      <c r="G119" s="71" t="str">
+        <v>ANHEUSER-BUSCH 3.3% Feb 01, 2023</v>
+      </c>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="69">
+        <v>-4112022352.9411764</v>
+      </c>
+      <c r="F120" s="70">
+        <v>-7.0568669163295156E-2</v>
+      </c>
+      <c r="G120" s="71" t="str">
+        <v>ANHEUSER-BUSCH 4.9% Feb 01, 2046</v>
+      </c>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="69">
+        <v>2096646022.0588236</v>
+      </c>
+      <c r="F121" s="70">
+        <v>3.5981691436424088E-2</v>
+      </c>
+      <c r="G121" s="71" t="str">
+        <v>GE 4.418% Nov 15, 2035</v>
+      </c>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="69">
+        <v>7149599007.3529415</v>
+      </c>
+      <c r="F122" s="70">
+        <v>0.12269818685183852</v>
+      </c>
+      <c r="G122" s="71" t="str">
+        <v>CVS 3.7% Mar 09, 2023</v>
+      </c>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="69">
+        <v>1288627676.4705882</v>
+      </c>
+      <c r="F123" s="70">
+        <v>2.2114845779103078E-2</v>
+      </c>
+      <c r="G123" s="71" t="str">
+        <v>CVS 4.3% Mar 25, 2028</v>
+      </c>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="69">
+        <v>835507600.7352941</v>
+      </c>
+      <c r="F124" s="70">
+        <v>1.4338603830189567E-2</v>
+      </c>
+      <c r="G124" s="71" t="str">
+        <v>CVS 5.05% Mar 25, 2048</v>
+      </c>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="69">
+        <v>1693130514.7058823</v>
+      </c>
+      <c r="F125" s="70">
+        <v>2.9056740670949429E-2</v>
+      </c>
+      <c r="G125" s="71" t="str">
+        <v>VERIZON 4.329% Sep 21, 2028</v>
+      </c>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="69" t="str">
+        <v/>
+      </c>
+      <c r="F126" s="70" t="str">
+        <v/>
+      </c>
+      <c r="G126" s="71" t="str">
+        <v/>
+      </c>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F127" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G127" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+    </row>
+    <row r="131" spans="2:14" ht="21" x14ac:dyDescent="0.65">
+      <c r="B131" s="2"/>
+      <c r="C131" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D131" s="13"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+    </row>
+    <row r="134" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+    </row>
+    <row r="135" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F135" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+    </row>
+    <row r="136" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+    </row>
+    <row r="137" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="F137" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+    </row>
+    <row r="138" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+    </row>
+    <row r="139" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F139" s="41">
+        <v>43925</v>
+      </c>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+    </row>
+    <row r="145" spans="2:13" ht="21" x14ac:dyDescent="0.65">
+      <c r="B145" s="2"/>
+      <c r="C145" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="K146" s="45"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="66" t="str">
+        <f t="array" ref="E147:G170">_xll.flAggregatePortfolioGroup(F135,F137,I147:J153,J154)</f>
+        <v>PVSum</v>
+      </c>
+      <c r="F147" s="66" t="str">
+        <v>PVProportion</v>
+      </c>
+      <c r="G147" s="64" t="str">
+        <v>Name</v>
+      </c>
+      <c r="H147" s="2"/>
+      <c r="I147" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="J147" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="K147" s="73"/>
+      <c r="L147" s="73"/>
+      <c r="M147" s="73"/>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B148" s="12"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="69">
+        <v>1698975527.7944801</v>
+      </c>
+      <c r="F148" s="70">
+        <v>2.4310225793889497E-2</v>
+      </c>
+      <c r="G148" s="71" t="str">
+        <v>Apple</v>
+      </c>
+      <c r="H148" s="2"/>
+      <c r="I148" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="J148" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="K148" s="56"/>
+      <c r="L148" s="56"/>
+      <c r="M148" s="56"/>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B149" s="12"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="69">
+        <v>1056364109.6779912</v>
+      </c>
+      <c r="F149" s="70">
+        <v>1.5115255992044814E-2</v>
+      </c>
+      <c r="G149" s="71" t="str">
+        <v>Volkswagen</v>
+      </c>
+      <c r="H149" s="2"/>
+      <c r="I149" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J149" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="K149" s="56"/>
+      <c r="L149" s="56"/>
+      <c r="M149" s="56"/>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B150" s="12"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="69">
+        <v>514727366.725802</v>
+      </c>
+      <c r="F150" s="70">
+        <v>7.3651081505819588E-3</v>
+      </c>
+      <c r="G150" s="71" t="str">
+        <v>Toyota Motor</v>
+      </c>
+      <c r="H150" s="2"/>
+      <c r="I150" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="J150" s="55">
+        <f>F139</f>
+        <v>43925</v>
+      </c>
+      <c r="K150" s="57"/>
+      <c r="L150" s="57"/>
+      <c r="M150" s="57"/>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B151" s="12"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="69">
+        <v>-856756066.24705887</v>
+      </c>
+      <c r="F151" s="70">
+        <v>-1.225911325973498E-2</v>
+      </c>
+      <c r="G151" s="71" t="str">
+        <v>Walt Disney</v>
+      </c>
+      <c r="H151" s="2"/>
+      <c r="I151" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="J151" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="K151" s="56"/>
+      <c r="L151" s="56"/>
+      <c r="M151" s="56"/>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B152" s="12"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="69">
+        <v>1079778818.3294117</v>
+      </c>
+      <c r="F152" s="70">
+        <v>1.5450291338288499E-2</v>
+      </c>
+      <c r="G152" s="71" t="str">
+        <v>Microsoft</v>
+      </c>
+      <c r="H152" s="2"/>
+      <c r="I152" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="J152" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="K152" s="56"/>
+      <c r="L152" s="56"/>
+      <c r="M152" s="56"/>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B153" s="12"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="69">
+        <v>325703895.58823526</v>
+      </c>
+      <c r="F153" s="70">
+        <v>4.6604174775713532E-3</v>
+      </c>
+      <c r="G153" s="71" t="str">
+        <v>HSBC Holdings</v>
+      </c>
+      <c r="H153" s="2"/>
+      <c r="I153" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J153" s="54"/>
+      <c r="K153" s="56"/>
+      <c r="L153" s="56"/>
+      <c r="M153" s="56"/>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B154" s="12"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="69">
+        <v>1604974977.9411764</v>
+      </c>
+      <c r="F154" s="70">
+        <v>2.2965194888912268E-2</v>
+      </c>
+      <c r="G154" s="71" t="str">
+        <v>BP</v>
+      </c>
+      <c r="H154" s="2"/>
+      <c r="I154" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J154" s="93"/>
+      <c r="K154" s="95"/>
+      <c r="L154" s="95"/>
+      <c r="M154" s="95"/>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B155" s="12"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="69">
+        <v>615704208.21150005</v>
+      </c>
+      <c r="F155" s="70">
+        <v>8.809961108327477E-3</v>
+      </c>
+      <c r="G155" s="71" t="str">
+        <v>Softbank</v>
+      </c>
+      <c r="H155" s="2"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="93"/>
+      <c r="K155" s="95"/>
+      <c r="L155" s="95"/>
+      <c r="M155" s="95"/>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B156" s="12"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="69">
+        <v>1827989421.1764705</v>
+      </c>
+      <c r="F156" s="70">
+        <v>2.6156254078202944E-2</v>
+      </c>
+      <c r="G156" s="71" t="str">
+        <v>JPMorgan Chase</v>
+      </c>
+      <c r="H156" s="2"/>
+      <c r="I156" s="29"/>
+      <c r="J156" s="93"/>
+      <c r="K156" s="95"/>
+      <c r="L156" s="95"/>
+      <c r="M156" s="95"/>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B157" s="12"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="69">
+        <v>1013035972.4084665</v>
+      </c>
+      <c r="F157" s="70">
+        <v>1.449528426024586E-2</v>
+      </c>
+      <c r="G157" s="71" t="str">
+        <v>Anheuser-Busch InBev</v>
+      </c>
+      <c r="H157" s="2"/>
+      <c r="I157" s="29"/>
+      <c r="J157" s="93"/>
+      <c r="K157" s="95"/>
+      <c r="L157" s="95"/>
+      <c r="M157" s="95"/>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B158" s="12"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="69">
+        <v>-17291078.392878771</v>
+      </c>
+      <c r="F158" s="70">
+        <v>-2.4741381678193027E-4</v>
+      </c>
+      <c r="G158" s="71" t="str">
+        <v>USD</v>
+      </c>
+      <c r="H158" s="2"/>
+      <c r="I158" s="29"/>
+      <c r="J158" s="93"/>
+      <c r="K158" s="95"/>
+      <c r="L158" s="95"/>
+      <c r="M158" s="95"/>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B159" s="12"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="69">
+        <v>-27117271.552941181</v>
+      </c>
+      <c r="F159" s="70">
+        <v>-3.8801441432295973E-4</v>
+      </c>
+      <c r="G159" s="71" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="H159" s="2"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="93"/>
+      <c r="K159" s="95"/>
+      <c r="L159" s="95"/>
+      <c r="M159" s="95"/>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B160" s="12"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="69">
+        <v>1833681938.3367739</v>
+      </c>
+      <c r="F160" s="70">
+        <v>2.6237706915656234E-2</v>
+      </c>
+      <c r="G160" s="71" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="H160" s="2"/>
+      <c r="I160" s="29"/>
+      <c r="J160" s="93"/>
+      <c r="K160" s="95"/>
+      <c r="L160" s="95"/>
+      <c r="M160" s="95"/>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B161" s="12"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="69">
+        <v>-258290.67984220583</v>
+      </c>
+      <c r="F161" s="70">
+        <v>-3.6958182414625167E-6</v>
+      </c>
+      <c r="G161" s="71" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="H161" s="2"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="93"/>
+      <c r="K161" s="95"/>
+      <c r="L161" s="95"/>
+      <c r="M161" s="95"/>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="69">
+        <v>-692605516.54411769</v>
+      </c>
+      <c r="F162" s="70">
+        <v>-9.9103231434642166E-3</v>
+      </c>
+      <c r="G162" s="71" t="str">
+        <v>GOLDMAN 6.75% Oct 01, 2037</v>
+      </c>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="69">
+        <v>-6441890000</v>
+      </c>
+      <c r="F163" s="70">
+        <v>-9.2175430356371033E-2</v>
+      </c>
+      <c r="G163" s="71" t="str">
+        <v>APPLE 2.4% May 03, 2023</v>
+      </c>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="69">
+        <v>12514547500</v>
+      </c>
+      <c r="F164" s="70">
+        <v>0.17906760306800446</v>
+      </c>
+      <c r="G164" s="71" t="str">
+        <v>VERIZON 4.862% Aug 21, 2046</v>
+      </c>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="69">
+        <v>-2879227191.1764708</v>
+      </c>
+      <c r="F165" s="70">
+        <v>-4.1198158528080508E-2</v>
+      </c>
+      <c r="G165" s="71" t="str">
+        <v>ANHEUSER-BUSCH 3.3% Feb 01, 2023</v>
+      </c>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="69">
+        <v>-4112022352.9411764</v>
+      </c>
+      <c r="F166" s="70">
+        <v>-5.8837923345069591E-2</v>
+      </c>
+      <c r="G166" s="71" t="str">
+        <v>ANHEUSER-BUSCH 4.9% Feb 01, 2046</v>
+      </c>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="69">
+        <v>2096646022.0588236</v>
+      </c>
+      <c r="F167" s="70">
+        <v>3.0000395751595486E-2</v>
+      </c>
+      <c r="G167" s="71" t="str">
+        <v>GE 4.418% Nov 15, 2035</v>
+      </c>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="69">
+        <v>7149599007.3529415</v>
+      </c>
+      <c r="F168" s="70">
+        <v>0.10230186566027058</v>
+      </c>
+      <c r="G168" s="71" t="str">
+        <v>CVS 3.7% Mar 09, 2023</v>
+      </c>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="69">
+        <v>1288627676.4705882</v>
+      </c>
+      <c r="F169" s="70">
+        <v>1.843865863089977E-2</v>
+      </c>
+      <c r="G169" s="71" t="str">
+        <v>CVS 4.3% Mar 25, 2028</v>
+      </c>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2" t="str">
+        <v>[More...]</v>
+      </c>
+      <c r="F170" s="2" t="str">
+        <v>[More...]</v>
+      </c>
+      <c r="G170" s="2" t="str">
+        <v>[More...]</v>
+      </c>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="J35:M42"/>
     <mergeCell ref="J54:M61"/>
     <mergeCell ref="K73:N80"/>
+    <mergeCell ref="J111:M118"/>
+    <mergeCell ref="J154:M161"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations disablePrompts="1" count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sort" sqref="O31" xr:uid="{E2C1CD1B-C419-4048-9522-718382CD5247}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Group-by" sqref="O30" xr:uid="{1F62F8E8-546B-492B-AEFE-5AF4D3FC1804}"/>
@@ -15647,9 +17136,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O25:P25" xr:uid="{A6F0FA84-466C-44DF-B7CD-5607616B8367}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{4A719496-17DC-448A-B35D-29932D1F4B10}"/>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{321EB5A7-AD48-4650-B11D-B80CBE2CC308}"/>
     <hyperlink ref="E8" r:id="rId2" xr:uid="{F03889D1-CD99-4F90-BB5D-2D53F38EAD0A}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{321EB5A7-AD48-4650-B11D-B80CBE2CC308}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{4A719496-17DC-448A-B35D-29932D1F4B10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -16474,19 +17963,19 @@
         <v>CancelDateTime</v>
       </c>
       <c r="Y33" s="10" t="str">
-        <v>Net holding as a result of the transaction</v>
+        <v>Original Transaction Date</v>
       </c>
       <c r="Z33" s="10" t="str">
         <v>SourcePortfolioId</v>
       </c>
       <c r="AA33" s="10" t="str">
-        <v>Original Settlement Date</v>
+        <v>Net holding as a result of the transaction</v>
       </c>
       <c r="AB33" s="10" t="str">
         <v>SourcePortfolioScope</v>
       </c>
       <c r="AC33" s="10" t="str">
-        <v>Original Transaction Date</v>
+        <v>Original Settlement Date</v>
       </c>
       <c r="AD33" s="10" t="str">
         <v>Exchange rate from the transaction currency to the portfolio currency.</v>
@@ -16574,20 +18063,20 @@
       <c r="X34" s="82">
         <v>0</v>
       </c>
-      <c r="Y34" s="80">
-        <v>80500</v>
+      <c r="Y34" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z34" s="80">
         <v>0</v>
       </c>
-      <c r="AA34" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="AA34" s="80">
+        <v>80500</v>
       </c>
       <c r="AB34" s="83">
         <v>0</v>
       </c>
       <c r="AC34" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD34" s="78">
         <v>1</v>
@@ -16675,20 +18164,20 @@
       <c r="X35" s="82">
         <v>0</v>
       </c>
-      <c r="Y35" s="80">
-        <v>65440</v>
+      <c r="Y35" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z35" s="80">
         <v>0</v>
       </c>
-      <c r="AA35" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="AA35" s="80">
+        <v>65440</v>
       </c>
       <c r="AB35" s="83">
         <v>0</v>
       </c>
       <c r="AC35" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD35" s="78">
         <v>1</v>
@@ -16776,20 +18265,20 @@
       <c r="X36" s="82">
         <v>0</v>
       </c>
-      <c r="Y36" s="80">
-        <v>50000</v>
+      <c r="Y36" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z36" s="80">
         <v>0</v>
       </c>
-      <c r="AA36" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="AA36" s="80">
+        <v>50000</v>
       </c>
       <c r="AB36" s="83">
         <v>0</v>
       </c>
       <c r="AC36" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD36" s="78">
         <v>1</v>
@@ -16877,20 +18366,20 @@
       <c r="X37" s="82">
         <v>0</v>
       </c>
-      <c r="Y37" s="80">
-        <v>8000</v>
+      <c r="Y37" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z37" s="80">
         <v>0</v>
       </c>
-      <c r="AA37" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="AA37" s="80">
+        <v>8000</v>
       </c>
       <c r="AB37" s="83">
         <v>0</v>
       </c>
       <c r="AC37" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD37" s="78">
         <v>1</v>
@@ -16978,20 +18467,20 @@
       <c r="X38" s="82">
         <v>0</v>
       </c>
-      <c r="Y38" s="80">
-        <v>20500</v>
+      <c r="Y38" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z38" s="80">
         <v>0</v>
       </c>
-      <c r="AA38" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="AA38" s="80">
+        <v>20500</v>
       </c>
       <c r="AB38" s="83">
         <v>0</v>
       </c>
       <c r="AC38" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD38" s="78">
         <v>1</v>
@@ -17079,20 +18568,20 @@
       <c r="X39" s="82">
         <v>0</v>
       </c>
-      <c r="Y39" s="80">
-        <v>12500</v>
+      <c r="Y39" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z39" s="80">
         <v>0</v>
       </c>
-      <c r="AA39" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="AA39" s="80">
+        <v>12500</v>
       </c>
       <c r="AB39" s="83">
         <v>0</v>
       </c>
       <c r="AC39" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD39" s="78">
         <v>1</v>
@@ -17180,20 +18669,20 @@
       <c r="X40" s="82">
         <v>0</v>
       </c>
-      <c r="Y40" s="80">
-        <v>95440</v>
+      <c r="Y40" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z40" s="80">
         <v>0</v>
       </c>
-      <c r="AA40" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="AA40" s="80">
+        <v>95440</v>
       </c>
       <c r="AB40" s="83">
         <v>0</v>
       </c>
       <c r="AC40" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD40" s="78">
         <v>1</v>
@@ -17281,20 +18770,20 @@
       <c r="X41" s="82">
         <v>0</v>
       </c>
-      <c r="Y41" s="80">
-        <v>55050</v>
+      <c r="Y41" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z41" s="80">
         <v>0</v>
       </c>
-      <c r="AA41" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="AA41" s="80">
+        <v>55050</v>
       </c>
       <c r="AB41" s="83">
         <v>0</v>
       </c>
       <c r="AC41" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD41" s="78">
         <v>1</v>
@@ -17382,20 +18871,20 @@
       <c r="X42" s="82">
         <v>0</v>
       </c>
-      <c r="Y42" s="80">
-        <v>120000</v>
+      <c r="Y42" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z42" s="80">
         <v>0</v>
       </c>
-      <c r="AA42" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="AA42" s="80">
+        <v>120000</v>
       </c>
       <c r="AB42" s="83">
         <v>0</v>
       </c>
       <c r="AC42" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD42" s="78">
         <v>1</v>
@@ -17483,20 +18972,20 @@
       <c r="X43" s="82">
         <v>0</v>
       </c>
-      <c r="Y43" s="80">
-        <v>35000</v>
+      <c r="Y43" s="80" t="str">
+        <v>2019-04-15T00:00:00.0000000+00:00</v>
       </c>
       <c r="Z43" s="80">
         <v>0</v>
       </c>
-      <c r="AA43" s="80" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
+      <c r="AA43" s="80">
+        <v>35000</v>
       </c>
       <c r="AB43" s="83">
         <v>0</v>
       </c>
       <c r="AC43" s="83" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
+        <v>2019-04-17T00:00:00.0000000+00:00</v>
       </c>
       <c r="AD43" s="78">
         <v>1</v>
@@ -17585,13 +19074,13 @@
         <v>0</v>
       </c>
       <c r="Y44" s="80">
-        <v>92632.941176470587</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="80" t="str">
         <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="AA44" s="80">
-        <v>0</v>
+        <v>92632.941176470587</v>
       </c>
       <c r="AB44" s="83" t="str">
         <v>Finbourne-Examples</v>
@@ -17686,13 +19175,13 @@
         <v>0</v>
       </c>
       <c r="Y45" s="80">
-        <v>12132.35294117647</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="80" t="str">
         <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="AA45" s="80">
-        <v>0</v>
+        <v>12132.35294117647</v>
       </c>
       <c r="AB45" s="83" t="str">
         <v>Finbourne-Examples</v>
@@ -17787,13 +19276,13 @@
         <v>0</v>
       </c>
       <c r="Y46" s="80">
-        <v>53430.882352941175</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="80" t="str">
         <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="AA46" s="80">
-        <v>0</v>
+        <v>53430.882352941175</v>
       </c>
       <c r="AB46" s="83" t="str">
         <v>Finbourne-Examples</v>
@@ -17888,13 +19377,13 @@
         <v>0</v>
       </c>
       <c r="Y47" s="80">
-        <v>19897.058823529413</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="80" t="str">
         <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="AA47" s="80">
-        <v>0</v>
+        <v>19897.058823529413</v>
       </c>
       <c r="AB47" s="83" t="str">
         <v>Finbourne-Examples</v>
@@ -17989,13 +19478,13 @@
         <v>0</v>
       </c>
       <c r="Y48" s="80">
-        <v>82867.647058823524</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="80" t="str">
         <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="AA48" s="80">
-        <v>0</v>
+        <v>82867.647058823524</v>
       </c>
       <c r="AB48" s="83" t="str">
         <v>Finbourne-Examples</v>
@@ -18090,13 +19579,13 @@
         <v>0</v>
       </c>
       <c r="Y49" s="80">
-        <v>67364.705882352951</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="80" t="str">
         <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="AA49" s="80">
-        <v>0</v>
+        <v>67364.705882352951</v>
       </c>
       <c r="AB49" s="83" t="str">
         <v>Finbourne-Examples</v>
@@ -18191,13 +19680,13 @@
         <v>0</v>
       </c>
       <c r="Y50" s="80">
-        <v>36029.411764705881</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="80" t="str">
         <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="AA50" s="80">
-        <v>0</v>
+        <v>36029.411764705881</v>
       </c>
       <c r="AB50" s="83" t="str">
         <v>Finbourne-Examples</v>
@@ -18292,13 +19781,13 @@
         <v>0</v>
       </c>
       <c r="Y51" s="80">
-        <v>51470.588235294119</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="80" t="str">
         <v>97fe44c3-0dd1-4b41-b954-76cc11c609e4</v>
       </c>
       <c r="AA51" s="80">
-        <v>0</v>
+        <v>51470.588235294119</v>
       </c>
       <c r="AB51" s="83" t="str">
         <v>Finbourne-Examples</v>
@@ -20214,7 +21703,7 @@
       </c>
       <c r="F27" s="84">
         <f ca="1">NOW()</f>
-        <v>43925.799877893522</v>
+        <v>43925.948484722219</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -20295,7 +21784,7 @@
       </c>
       <c r="F31" s="84">
         <f ca="1">F27-1/1440</f>
-        <v>43925.799183449075</v>
+        <v>43925.947790277773</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
